--- a/Game simulations/Week 16/Rams at Vikings.xlsx
+++ b/Game simulations/Week 16/Rams at Vikings.xlsx
@@ -57,16 +57,16 @@
     <t>VikingsAvg. FPTS</t>
   </si>
   <si>
-    <t>MIE(6.053121939377952, 12.01904709553602, -55.98918000116569, 65.45457677506158)</t>
-  </si>
-  <si>
-    <t>3 10 -2 12 2 18 -9 26 14 -3 -2 13 6 6 12 -16 12 -6 -4 3 -9 6 -17 14 -1 -15 14 -3 -2 16 -3 23 18 -3 9 -22 -3 -6 -3 -10 13 3 8 15 -15 13 11 -8 -6 18 5 3 -8 -7 -9 10 -4 4 -5 -9 -21 11 22 -5 6 27 3 18 24 7 4 -4 -9 3 7 -3 2 -4 -12 -6 20 -21 4 3 22 7 14 -17 -17 27 -7 3 7 3 1 -5 17 15 3 -17 3 3 5 -3 8 17 -20 14 -9 -5 11 5 18 -4 31 -7 15 -2 6 -13 -5 19 17 3 -12 -13 16 17 3 9 -7 3 7 4 5 25 6 7 -10 -3 10 10 -13 24 3 -5 5 3 3 5 17 18 -10 -8 2 7 -13 3 -2 -18 -9 23 -10 2 -8 12 23 -6 3 21 -8 -26 15 2 3 -7 24 21 9 24 17 -12 -5 -11 11 20 1 -6 20 -14 30 18 5 7 7 14 -17 -6 -3 6 -3 -4 7 -3 7 6 1 3 4 11 8 31 13 11 -17 3 3 -14 21 -3 3 -4 6 -24 5 9 10 11 36 17 12 16 -6 -11 21 -27 20 11 5 7 3 -1 3 23 13 -1 22 -6 3 -6 4 -10 -6 -12 6 13 29 21 -5 33 24 3 6 -8 -5 17 14 -13 -4 7 3 10 3 6 10 3 9 17 4 1 21 18 6 8 -20 -26 21 16 12 10 -21 3 -26 4 2 4 3 3 17 -8 -3 2 6 9 32 3 4 -11 9 7 3 4 4 -5 8 -3 6 8 6 -6 -3 24 1 -1 -6 5 8 11 7 -6 25 -15 -14 -3 -11 1 16 12 5 -9 6 4 6 8 -6 3 16 -9 -9 2 12 14 3 24 -16 18 7 7 3 13 0 8 3 8 -1 -3 -2 4 3 16 -8 -3 10 -19 -3 10 -14 -10 3 18 15 9 9 14 25 18 20 9 3 6 6 8 -6 21 -4 12 21 14 13 10 3 4 -3 6 -17 -16 21 -11 17 7 -8 3 -3 8 27 8 3 3 6 18 24 26 7 14 9 6 5 13 11 23 6 -7 7 15 19 3 -25 -5 -11 -10 3 7 -17 8 -3 -5 14 12 -3 -13 3 7 -4 10 -17 -4 2 20 3 20 -1 5 13 4 -7 -3 -24 -9 -8 14 19 -11 10 -13 -7 -4 9 -14 3 -2 18 -16 9 -10 10 -11 8 17 18 -8 -10 38 6 19 3 -7 18 14 15 19 8 10 3 -6 14 1 -2 13 5 -5 -7 -6 11 -3 14 2 -19 25 3 6 14 3 -3 -10 -6 9 -16 0 -10 10 22 7 -3 -3 10 -2 15 10 7 -10 -7 10 11 14 27 11 -4 -3 -7 5 12 6 14 10 0 9 -15 2 -6 8 -10 11 3 -4 -6 -7 1 -5 -5 -4 -2 -6 2 -3 5 -6 3 3 -6 3 9 15 -4 8 20 -11 -18 25 10 8 11 10 30 5 6 -11 4 -8 4 -1 -2 -17 30 -2 4 3 -6 2 1 11 0 -7 18 -20 8 -7 6 4 -6 25 6 7 4 13 24 3 10 3 -7 -10 6 -22 3 31 20 32 6 19 2 35 3 18 3 8 2 14 6 13 13 38 11 4 7 5 9 20 14 34 -3 4 -6 -9 -11 -14 21 17 5 12 6 19 -4 -2 4 10 -3 4 1 8 -3 -5 -7 3 -17 -14 -13 5 -6 2 24 16 21 3 9 2 11 3 5 -26 14 -6 8 -3 3 -3 17 -5 4 -15 -9 -14 -17 7 27 5 3 -3 23 -3 4 6 9 8 -4 4 14 7 -21 3 6 17 8 46 -6 -6 -1 8 -25 4 3 2 6 22 -11 3 -4 -6 2 3 6 18 -14 -24 3 -10 -6 -11 18 14 -10 -6 -20 -13 7 22 3 -3 -3 -5 26 12 -3 20 -21 25 -4 -6 -17 -17 -14 3 14 6 -2 3 3 -25 17 -9 23 17 -7 3 5 -3 -14 2 -24 27 -11 -13 -4 -1 -3 -7 22 3 7 -11 28 17 5 -9 9 -6 16 13 26 -21 -3 6 4 5 11 -12 -12 2 17 17 -6 17 1 11 -3 -4 -11 16 -3 -12 2 15 3 12 -1 17 2 15 -7 -4 4 4 7 -7 7 31 8 -7 -14 7 -1 20 3 16 7 6 6 1 13 7 3 13 18 -8 5 12 -14 7 24 -3 9 18 7 -16 3 -3 -5 -13 3 11 3 -6 4 2 5 3 -12 11 -4 10 3 3 14 7 -10 8 8 6 11 6 -11 3 -7 8 -3 11 -13 42 -8 13 28 4 7 7 4 27 11 3 15 13 -7 31 -11 -6 -7 -12 6 4 -7 -6 -4 2 8 -4 -13 -5 -6 4 11 -2 7 12 11 -21 4 -10 5 -8 4 14 -6 -3 11 3 -5 -8 -4 17 1 6 -13 27 -3 4 4 -6 7 17 8 13 -4 14 0 13 -3 20 8 6 -14 8 5 -30 5 -19 -1 8 11 1 14 4 -12 -3 13 14 5 2 -11 11 14 -8 4 -7 -5 -4 2 -7 10 -19 14 6 3 7 -6 -2 3 7 10 20 7 -7 13 11 4 7 7 -5 7 2 14 -22 19 14 -13 -22 9 6 -5 -15 -6 -6 14 5 -14 10 18 -1 4 -13 8 16 25 10 -7 8 -11 -3 17 5 -2 10 5 7 17 8 1 9 4 19 18 -16 32 6 -1 1 -14 15 -1 -7 21 4 -4 18 13 3 -13 -2 7 16 -3 7 -3 -5 21 11 24 2 -11 14 -12 3 11 11 4 18 -16 39 -8 22 0 22 3 16 -23 4 -6 -25 13 11 -3 -12 16 -11 13 -3 9 -4 -6 6 10 -3 11 4 -15 9 14 -6 -7 -3 -8 11 -3 -6 3 -7 10 -7 -12 -16 6 6 -8 4 3 2 -9 14 10 6 -6 -3 -7 5 10 3 -9 -5 7 4 10 -3 -3 8 12 6 11 -10 14 3 15 -38 -2 -3 14 4 6 -13 3 13 14 4 5 -5 -11 7 -1 14 8 7 14 24 3 6 5 3 3 26 3 -12 4 3 28 3 10 -7 -6 20 -3 3 -18 12 17 -3 11 11 -12 1 1 -7 3 21 11 9 -3 5 18 -18 -8 3 2 11 6 21 11 -10 -2 24 -12 -14 3 6 -3 1 5 -1 8 5 -6 21 -3 15 3 -21 14 4 18 3 1 -12 -13 4 -25 -6 6 22 2 -3 -3 6 14 -7 -17 -23 18 3 3 8 -5 32 3 -1 3 8 -13 25 7 16 9 7 10 -20 -11 3 23 2 -3 -4 21 -4 16 13 17 -11 -3 6 13 28 2 9 6 6 3 4 6 10 3 6 4 7 1 8 21 -3 -2 4 -1 17 2 -4 3 6 3 -5 6 37 3 13 -8 -4 1 -12 -4 6 17 3 2 -3 -13 -16 -3 -5 6 -4 17 9 1 4 4 14 27 -3 -6 1 3 -4 15 28 -2 3 1 -20 7 6 -15 28 -6 -4 18 2 7 3 41 11 8 17 10 12 -3 15 17 19 -14 -15 6 13 -17 -3 -7 -3 -5 7 -5 3 3 -6 7 14 -4 -5 13 18 -28 3 8 9 18 7 6 -20 25 1 -2 29 -2 13 -14 8 -8 3 31 9 -10 -18 -3 13 -4 7 18 6 11 9 -10 10 -3 -1 16 5 -2 14 3 21 2 -9 42 11 -32 4 -5 12 -10 3 28 20 -2 1 23 18 -19 38 4 1 12 -25 -6 4 10 12 -11 3 3 -11 3 -7 3 -21 6 14 11 28 -3 5 13 -20 14 20 9 17 -4 6 -11 27 -3 -13 -12 3 6 -4 -2 7 13 15 4 -3 2 14 -20 -8 8 -12 6 0 -10 -4 -14 7 -1 6 -28 12 -6 6 7 -11 -3 14 5 8 7 12 -22 20 -3 -3 31 -10 -4 31 38 -5 -5 -3 16 13 21 13 -7 2 -8 5 6 17 -5 3 17 9 -7 10 5 3 9 9 -31 -3 1 37 2 -4 21 12 -14 3 -3 -3 -20 3 7 6 -10 27 3 3 -3 -11 -3 -8 6 21 13 20 -3 2 16 -7 -4 7 19 28 -29 3 5 16 7 3 -17 3 6 11 -1 14 6 13 -14 -16 12 23 6 -8 17 -17 11 -10 12 -9 -3 -11 -13 3 26 -1 14 2 -5 2 10 6 4 -13 17 -16 3 42 -6 14 -3 -13 7 21 7 -1 6 -2 18 17 -3 6 -14 8 24 18 -15 -1 -18 -11 6 16 31 -15 3 -14 -3 -1 -15 17 17 -6 4 -8 -3 17 6 18 7 -14 6 6 17 3 -5 -4 -5 20 -9 7 -27 12 -3 10 17 7 27 -22 1 -4 21 13 3 14 28 7 -8 -6 14 1 -11 3 6 -16 -14 3 3 9 -14 12 -10 14 3 3 7 16 11 6 -3 14 -6 -5 -13 4 -7 24 -6 21 16 -20 3 -21 3 13 4 -13 3 8 3 7 9 4 -12 -13 -3 0 16 8 17 -13 16 -3 16 -11 24 5 10 -3 11 -15 14 12 15 13 -11 -3 9 -2 10 -8 -4 -1 -17 -2 -14 8 16 1 20 19 6 -5 8 12 -13 1 -17 -3 13 -3 -7 15 17 3 -1 -3 -2 20 3 -5 9 -4 7 25 6 -11 -7 9 -4 -17 15 9 -2 21 1 3 1 3 34 8 25 13 14 5 6 13 14 -6 3 14 2 14 9 28 -18 20 0 -8 18 8 3 -21 17 11 6 11 5 22 12 -7 -6 2 19 4 7 4 24 4 22 -22 26 -7 3 7 6 2 4 7 2 0 14 -7 4 10 -15 9 3 -14 9 4 17 7 9 13 -7 -3 11 -8 -16 -14 6 -5 -17 3 30 18 -13 14 17 -5 3 -16 6 -2 6 22 1 7 -6 19 -5 3 22 27 -6 -3 -6 14 -4 10 13 3 -3 21 5 3 17 23 20 -7 -19 7 7 4 -3 -1 -7 -28 4 5 21 1 3 13 -1 -3 6 -5 -6 -21 13 17 -11 17 6 -3 -5 18 7 -1 13 3 21 11 -2 6 -15 3 3 10 4 -1 -11 4 -21 -8 3 1 25 12 6 -7 -16 -1 -6 12 3 -17 -7 6 17 -22 -2 -3 3 -36 -5 -8 -3 -1 1 -2 -5 -12 -3 17 -17 -8 6 16 -10 5 5 -1 -2 14 5 5 11 4 13 -3 -3 7 -27 7 -11 -5 1 8 -3 31 -12 -2 3 6 -7 7 5 -14 -14 21 11 10 3 -5 22 6 4 -8 -7 13 16 8 11 8 -1 3 4 22 11 -11 3 4 8 2 -7 3 9 -7 -3 13 3 14 3 4 -6 13 6 -18 11 13 -3 4 15 3 6 -20 27 5 0 18 3 -15 7 9 -7 4 13 21 30 -6 -6 3 -5 3 10 7 6 32 1 -10 18 16 31 -6 3 -8 -7 3 15 23 -3 -9 3 18 11 22 -3 17 3 7 -38 -15 2 -9 -7 14 14 3 12 3 1 -4 2 3 17 8 20 -3 15 18 21 -6 18 -3 6 7 8 22 3 3 5 3 12 -7 15 -7 -3 6 6 6 -7 -9 -19 17 8 -18 -24 -7 9 -33 6 -8 4 0 -7 17 14 -6 -3 18 28 2 13 21 3 -3 2 -3 4 -20 16 15 3 -4 6 5 -1 -10 2 20 18 -7 18 14 7 -3 9 14 5 -6 1 10 3 3 6 13 4 17 7 11 6 -6 -5 12 24 8 -8 27 -5 2 20 6 -3 12 -3 7 7 -1 8 -3 -13 -14 9 -3 25 -16 3 15 -17 -7 7 21 -2 5 7 0 7 19 21 4 -11 7 -7 -3 19 -3 -12 -8 14 8 7 7 -3 13 5 5 3 10 13 -16 13 15 18 0 21 -6 20 14 -7 7 -5 -11 -17 2 3 -4 13 7 0 12 -14 17 4 8 18 6 18 5 -5 26 -4 11 23 14 9 7 -3 -7 -1 14 14 -7 6 9 6 6 -16 12 8 -4 1 -11 -3 14 -24 -4 -10 -5 10 14 10 7 2 3 -10 5 -9 27 -5 3 9 14 -7 -2 -3 1 25 -6 17 7 3 7 1 28 9 4 -2 10 -1 -4 17 6 22 11 -3 12 17 17 -3 -17 -13 7 10 17 -4 10 1 2 7 -16 3 -5 21 6 -6 -4 21 20 6 13 5 7 -12 7 25 5 -15 -1 32 18 31 2 6 -2 10 7 1 -16 -13 -15 6 4 -3 -4 -10 -4 14 -7 -8 -10 24 15 7 -12 26 3 8 -8 2 13 3 -10 3 -8 -3 9 26 -2 5 -5 15 10 11 21 15 -3 26 -11 7 1 3 3 15 12 8 24 -15 14 -3 23 0 14 -12 -8 11 10 -4 3 5 11 16 12 3 6 14 9 7 -6 -4 0 15 1 -3 6 3 -10 14 6 -6 7 4 6 7 17 -7 14 27 -3 -3 -7 -14 13 -24 -1 24 5 -3 10 7 3 -3 8 2 7 6 13 -14 32 35 -8 -3 -13 7 15 7 6 -3 -4 14 6 39 20 0 4 4 14 -7 -5 6 14 23 -14 20 5 1 2 19 -1 13 5 -16 5 -10 23 -3 7 13 3 -1 -6 -16 15 -7 3 43 -6 25 -3 -4 7 21 10 5 -13 3 -7 3 -2 3 -17 7 -11 14 6 6 1 18 7 -7 -21 14 -12 7 3 11 28 19 20 1 -8 -16 9 15 6 -7 -17 -15 -1 -16 14 17 2 30 27 -7 -8 -3 27 14 -4 8 2 -8 7 -9 -5 5 7 -7 -22 18 3 10 -4 5 -18 20 4 21 -4 4 4 17 0 -9 3 23 7 -12 4 19 10 4 25 9 4 -3 -6 16 14 -3 6 3 -3 5 7 -7 20 5 25 12 -10 -3 3 10 -3 -4 9 3 13 20 6 -14 -3 -1 -9 13 4 -7 -14 -9 -7 5 28 11 11 -30 -7 0 6 7 19 -8 7 9 10 20 -6 19 25 -7 8 0 15 -11 -6 -8 -5 9 -8 14 -6 8 -5 -5 -14 9 11 3 13 -3 0 28 3 7 31 5 -3 3 1 11 -7 -5 31 3 -26 -9 7 17 -3 25 14 8 7 19 9 -9 -1 6 5 7 6 5 -7 -7 13 6 20 -8 -3 14 7 18 -28 6 -7 11 18 15 -12 7 2 -15 7 17 11 -4 2 23 23 -10 6 7 -3 3 5 3 13 3 23 15 -5 13 -45 -14 2 5 -15 -10 -10 10 -3 -6 27 7 3 13 -5 -15 5 25 -9 8 -17 -3 0 18 0 5 -17 14 7 7 1 -3 4 8 4 9 -2 17 33 -1 -7 -2 20 6 9 7 4 -13 6 8 -17 -12 -6 1 11 -10 -12 3 28 15 3 3 6 6 15 14 3 -3 5 13 9 17 22 2 -3 4 31 3 11 -22 7 17 -1 -10 -3 29 19 3 -5 10 18 22 6 -8 -6 3 25 -8 21 -7 3 2 -2 -18 3 -19 -14 3 30 4 -3 -4 -17 12 3 11 16 6 -6 6 36 16 11 3 -3 32 22 -6 -13 -8 6 1 -10 21 -18 14 17 -15 4 -4 -3 -11 -2 7 3 11 11 10 -3 -18 -11 3 -7 -9 12 7 -15 -9 3 3 20 7 -1 7 16 -6 -6 3 6 -3 3 6 -3 -3 11 13 18 25 -2 6 14 7 6 22 12 -5 4 -6 -7 21 -3 14 9 -24 -5 -10 3 4 14 1 9 -6 -18 10 14 -12 1 8 15 23 -3 13 -11 29 -6 10 6 3 3 10 5 4 10 -17 -3 -1 -5 5 -12 -4 2 4 14 -7 12 11 7 14 21 5 7 20 -16 4 -3 13 3 1 7 -12 -14 8 -7 -18 7 1 -6 -6 31 -3 7 14 11 -10 9 16 -7 6 14 -14 -4 27 7 10 -17 -5 -11 3 10 -20 -8 -7 -7 -3 -8 -17 0 7 20 14 -6 -20 10 6 5 1 9 6 -7 7 23 19 6 20 3 14 -6 -3 -13 -12 10 -2 -6 -6 -6 21 6 -12 3 -17 3 3 20 -7 6 -18 8 -9 7 4 11 11 9 -3 -17 -4 18 -7 16 -3 12 -17 -7 18 -14 3 -9 7 -3 -15 3 3 3 -16 5 17 14 13 8 21 18 -14 3 -8 -9 3 31 8 20 3 17 3 -3 -10 3 -6 16 9 -10 9 -3 23 7 -7 12 -3 6 10 6 8 -5 1 17 6 -6 14 -3 -9 -15 3 -17 3 21 -8 14 -21 -6 17 6 -7 -20 3 15 3 10 18 15 7 7 1 -6 4 -6 -3 5 -9 19 6 4 -1 -7 5 0 6 7 1 8 -4 13 4 6 7 3 -9 3 29 13 -3 -5 19 28 -3 9 16 27 -3 12 9 4 7 11 6 -12 -3 3 8 16 -4 -4 14 3 7 -3 11 4 11 7 -3 7 13 -16 3 -8 -7 -5 -2 4 9 -6 7 38 7 37 10 30 6 4 -7 7 20 4 21 -9 3 -16 7 11 -3 20 24 9 22 -5 3 16 -1 -3 7 15 10 9 4 12 28 11 20 15 -3 5 27 9 14 1 17 14 -10 -18 -2 -6 3 10 14 17 2 1 2 24 -3 5 21 2 -3 -12 27 -14 -10 1 -4 -2 4 19 17 -8 27 29 -3 18 9 3 -6 -4 5 6 8 17 -6 -4 -7 23 16 3 3 14 3 17 20 4 -7 -4 9 -11 -3 -4 -6 1 -3 25 -10 -5 -19 3 18 15 -4 -18 -6 -10 -3 1 -10 14 2 2 6 5 -3 11 -8 42 7 7 -3 -3 -12 -4 -12 2 -4 13 -13 16 18 5 12 7 7 14 5 -5 4 10 15 14 7 23 6 -6 7 -5 -21 11 3 18 21 -25 7 -6 27 11 6 -3 3 -7 -7 -11 7 10 13 15 9 4 -6 11 14 14 -1 -4 2 -22 1 2 2 -10 -1 -1 0 3 -10 3 21 -3 -6 5 6 3 1 2 20 7 -3 6 5 6 1 11 5 14 10 12 24 3 13 2 10 6 3 5 6 -6 -11 -3 -11 16 -7 14 17 3 -11 -13 7 -4 7 4 -10 15 25 -15 -14 -18 5 3 8 14 13 10 5 -15 4 -15 20 -14 3 13 10 -3 5 2 24 4 -3 16 -5 9 13 6 11 6 -16 -2 8 3 -7 11 -3 3 -10 6 21 -3 5 -3 -6 -19 -10 -16 -20 3 7 16 -19 -17 11 0 -8 11 7 -16 2 -7 -3 21 6 19 17 4 11 -6 11 25 -8 -6 -15 5 -13 20 15 35 11 -21 3 22 17 17 6 -2 5 5 -17 11 17 -5 -9 -7 3 11 11 11 9 -4 31 -3 5 11 -14 6 28 15 -4 10 21 -10 11 9 8 5 -24 31 -4 4 -15 -14 11 11 10 2 -13 24 -20 -15 -8 4 3 -9 20 14 14 3 12 21 16 -12 -7 -7 -3 2 2 21 -8 34 13 6 3 7 -14 6 11 29 10 10 -3 26 -10 18 -26 18 -8 7 -11 10 -2 6 -3 -20 8 -6 6 3 -18 -8 -20 -14 -7 -5 -9 -3 -6 9 8 5 2 5 -14 -9 -12 -1 25 21 2 21 7 -10 -6 3 7 14 -8 4 0 -7 -8 -11 6 -3 -6 -8 5 -14 -3 -6 -7 6 -2 3 13 8 -2 -16 8 8 -6 10 24 -1 7 4 -6 8 6 -7 20 6 7 13 8 17 -1 18 27 6 17 10 14 -22 3 6 3 7 28 -3 14 24 3 -5 3 -10 -2 9 5 7 -3 19 -9 24 3 8 19 -13 2 5 7 17 19 -7 20 2 -3 -3 3 -4 15 5 3 8 3 -2 -3 -16 22 22 17 -3 -1 25 4 3 5 3 -7 2 12 9 3 17 -8 -24 3 7 -10 7 17 22 7 10 3 17 -10 15 10 1 -6 -1 -3 9 -6 12 4 17 11 2 6 4 14 16 -25 -20 -11 3 8 9 3 9 14 -9 7 8 4 3 5 -2 13 -7 25 25 5 2 18 8 3 21 7 3 1 24 -8 14 -4 17 -6 -20 17 -10 4 1 10 -4 6 3 4 29 2 18 13 29 20 3 4 15 7 28 22 13 -13 -8 3 -2 7 18 14 -3 10 -14 -7 6 18 5 5 -7 -2 -3 -24 11 1 6 17 -6 2 -8 2 -14 11 -14 19 13 -8 16 6 -6 8 -3 14 -15 18 -8 3 -10 -2 -4 -3 1 -2 -12 18 -7 7 11 -11 17 -1 7 -4 13 -18 -32 20 -20 5 7 -6 -17 19 -6 -10 10 1 -3 19 10 22 -3 10 -20 18 -15 17 11 1 -33 6 -10 18 28 21 -7 4 -4 15 13 3 17 -11 -11 5 22 -14 4 25 2 2 -11 5 -14 22 21 -4 17 -12 -12 5 2 27 -11 14 11 -11 9 4 5 12 -4 17 -3 3 3 -11 4 -17 -5 3 14 31 6 18 6 -4 16 19 13 7 8 13 -24 10 -6 16 -1 17 18 5 -1 -21 2 -1 -3 9 7 23 3 -7 3 6 -3 8 11 6 18 20 7 3 -6 3 14 -2 1 3 -4 23 14 2 -27 3 -5 1 26 17 23 10 4 13 10 25 4 18 -3 6 12 -6 14 26 1 3 2 13 4 -10 3 -15 6 20 -5 3 -3 13 14 6 6 19 -15 2 -8 7 -7 15 4 23 14 13 3 -3 -3 29 14 -20 -3 12 14 20 -6 -4 3 10 27 36 -8 8 6 -36 3 3 -9 7 -3 -15 3 33 -6 8 -30 3 2 -8 22 22 10 -13 7 7 -12 3 25 10 13 -3 5 24 -17 -2 -4 -11 -15 6 29 6 -6 -1 3 4 1 21 -3 20 5 1 5 17 7 -15 -7 -10 -6 -13 14 4 7 14 34 11 4 -19 21 -6 -21 5 -12 -6 -14 6 -3 -7 18 7 18 19 32 3 8 14 -6 -6 15 1 -3 13 -5 11 18 6 7 8 -3 3 22 -7 -10 13 -9 7 28 -4 20 16 6 4 -3 3 -6 -3 2 28 2 -14 -7 19 -3 6 3 7 13 -5 -7 -7 6 -7 -11 0 7 -7 3 -4 -7 3 -4 -6 22 7 16 20 -10 -7 -2 -14 -12 20 17 -3 9 -13 6 -7 7 20 4 9 25 -2 -3 31 17 -3 3 6 -7 8 5 14 12 6 6 11 3 -13 -8 -8 3 5 -7 14 18 22 -12 -14 -2 -15 6 2 6 -3 14 5 3 14 6 13 17 21 15 8 2 1 12 4 -5 7 11 -8 4 28 13 3 -9 3 37 -1 28 20 13 7 8 5 -11 -3 11 9 -3 29 12 -6 -3 -3 8 23 24 7 -20 13 -9 -16 -8 5 8 16 -9 -6 7 -5 6 -3 7 -6 12 -10 -6 4 -6 -8 -11 11 21 3 18 7 8 2 31 -3 7 21 -9 -8 29 -6 -17 10 18 16 -3 31 -24 3 7 -2 -6 7 20 7 -8 14 3 15 -5 -2 6 -5 14 3 8 36 4 -9 11 1 -1 -21 3 3 3 -2 2 6 7 -8 3 -15 -10 16 1 14 31 4 -3 -8 21 21 -4 -26 -4 7 8 20 24 7 -9 -5 -9 -2 14 4 -4 -6 21 -6 17 7 5 2 -4 -3 18 3 18 -8 9 11 -1 9 -10 4 29 -13 -25 16 -3 17 -12 16 28 14 -5 -3 6 6 -14 7 -3 3 -10 26 -43 -5 -6 3 11 6 23 -15 14 15 22 -14 -12 17 8 -2 9 18 14 15 -1 2 -18 2 8 12 -15 5 9 -13 -7 24 6 17 17 -6 -14 23 11 -4 -17 8 5 10 -7 -3 -13 3 -2 15 -3 17 -10 4 31 10 -8 6 -2 -2 18 11 -20 -3 17 13 4 -3 3 -11 -3 -1 13 11 6 11 -15 13 7 14 4 7 7 7 11 7 6 -3 13 14 8 8 9 11 -2 18 3 7 -14 -14 3 6 20 10 -3 -6 14 -5 27 -10 4 22 31 -5 3 -3 13 -19 -6 12 9 7 3 -3 -10 -11 -12 24 7 -3 3 6 14 -13 5 3 24 -6 17 8 25 -3 -10 3 -4 25 -22 8 8 -4 10 26 7 16 3 18 -4 -8 -5 1 -19 -5 4 -1 -27 17 10 14 3 2 4 -4 15 10 -2 4 -3 3 -9 -10 3 8 29 5 -11 -4 -9 3 -13 14 1 5 -7 10 -6 -7 -5 -4 -7 -4 17 -6 -11 -3 -3 13 21 40 3 14 -4 10 -22 14 27 24 -7 9 -7 -14 -5 -51 16 -2 7 -7 3 23 12 30 7 -6 3 -9 -3 4 14 5 -4 21 5 -4 9 1 7 -1 -8 3 -13 6 6 17 4 -25 3 27 14 7 2 7 -5 -1 -27 18 -15 -9 -8 2 3 5 -10 -4 -6 -6 3 -6 9 6 11 6 -3 3 21 -5 -7 11 -3 7 -19 7 -6 3 -1 -3 -11 21 21 12 11 3 2 6 -11 4 -9 3 3 7 3 -7 3 -9 18 -4 -17 -4 14 17 3 19 10 -1 11 4 26 1 7 -22 15 10 -3 24 3 -2 19 -10 19 -3 11 17 11 3 20 17 -4 10 -3 14 8 1 10 -1 3 18 1 6 -20 -19 -20 14 3 9 4 15 16 4 13 18 -8 12 -3 -2 -12 1 10 20 16 34 11 -15 -7 -14 16 17 10 2 -6 -3 8 18 2 13 11 4 -9 -1 8 -3 17 -4 -9 -3 21 3 7 -10 32 13 3 -4 -7 2 -4 7 17 -1 5 -23 -11 10 15 6 -11 -11 18 5 -11 19 14 4 -10 12 8 11 -10 1 -22 1 20 20 -14 12 3 6 29 -18 -7 20 -4 -3 3 25 7 3 7 7 -7 -6 10 3 6 -18 5 -8 11 1 8 6 3 -24 8 28 16 11 14 3 14 8 14 16 -3 14 11 -18 -8 16 -20 -28 3 -1 -3 14 1 13 -24 -4 20 7 -18 -5 -21 -3 3 -3 -18 21 5 -4 21 12 -7 -7 19 -9 3 -4 4 4 21 4 8 17 20 21 20 8 3 20 4 44 -22 17 3 4 3 3 -13 -10 -7 15 11 1 2 -7 6 15 3 -7 35 6 -4 -17 -3 -4 -4 -7 7 3 0 12 3 -3 15 -15 6 -7 -4 11 3 3 -3 6 18 17 3 -7 -3 10 6 -13 -17 2 21 -5 9 -6 9 6 5 -7 -7 -1 3 17 10 15 -3 10 -3 11 14 11 3 7 2 7 -5 -17 7 -14 -8 4 3 -7 7 26 -3 1 -5 8 6 3 17 10 -10 1 -3 19 0 -19 -2 20 1 -3 3 8 12 21 -8 14 11 -10 26 17 -11 -7 -5 8 -6 2 14 6 13 -19 6 -15 3 27 4 27 3 -19 8 10 6 20 10 25 6 13 13 -5 -13 3 -3 6 -4 -15 -13 5 3 -27 27 8 14 7 8 21 20 -4 -30 19 21 8 1 -3 6 8 -3 5 10 -13 25 20 7 3 22 3 20 -6 -3 3 -6 17 3 9 22 12 13 -2 27 -7 -9 -8 6 -3 -13 3 3 -3 21 8 13 2 -5 17 -15 16 24 19 -3 3 -4 -12 25 15 11 -8 12 15 13 -5 -17 25 13 -9 3 -1 -4 20 15 1 10 -5 -10 22 -2 22 -8 7 7 26 -4 -17 6 23 5 -3 -2 8 23 8 5 -3 -3 21 -4 5 -3 10 -8 -9 6 12 5 8 1 -5 3 2 -15 2 -6 24 3 2 5 14 -7 3 29 -14 17 10 3 16 -16 19 -3 3 2 1 14 17 9 2 -1 10 9 11 -3 23 -8 -10 14 24 -4 -3 3 -4 13 22 -17 4 31 -1 -14 -6 -3 -24 -2 6 24 13 10 11 12 7 3 -3 11 -27 -31 -1 -2 17 17 7 -4 -6 3 14 -4 -13 -22 2 6 5 10 11 9 -7 6 23 3 30 -6 30 9 -3 10 -7 -15 24 5 -4 2 9 -8 -11 14 -3 4 -6 -6 -14 -1 17 18 3 3 3 7 8 -24 -6 -4 13 8 11 3 29 -3 8 14 -18 20 -2 7 6 20 28 29 15 3 -1 1 4 4 7 -4 17 -3 -5 3 -9 -16 14 -6 -8 -12 -18 -5 15 4 8 -22 3 -17 -3 -7 -3 4 -6 14 14 16 19 10 -6 3 5 15 13 -19 14 -10 16 3 10 7 1 -6 -9 21 21 -11 27 -4 2 13 7 19 -7 7 14 -27 -8 23 -4 3 20 7 14 -5 21 3 10 23 1 23 27 -25 2 21 10 3 15 -2 4 33 11 4 24 7 -6 24 -12 -25 13 -4 9 13 13 -4 10 -3 8 3 4 2 3 10 5 6 6 -2 3 2 -5 2 -3 -16 -2 -6 -1 15 7 6 -11 12 3 18 -9 5 4 -7 7 6 3 6 11 3 7 1 -17 6 13 -3 11 9 25 17 -6 14 27 3 -3 11 -7 6 17 5 -10 -5 21 -12 17 -4 3 -5 -3 4 18 -13 5 25 -13 10 -6 -3 6 10 10 7 -5 12 5 -29 3 20 10 -6 4 14 -16 -3 20 25 20 3 -2 10 12 7 -14 28 9 22 7 -4 2 2 6 6 13 -4 -4 -10 19 4 3 -24 6 4 -5 14 25 -7 -23 -4 25 -2 -3 23 -9 -4 14 0 -8 9 -7 3 14 6 24 3 17 17 3 6 10 9 3 -13 -6 7 3 -9 -11 -1 3 14 -11 -1 4 -10 7 3 23 -18 12 16 13 -7 4 18 3 13 21 12 3 -8 1 3 10 5 -5 -6 17 3 15 -11 13 25 3 14 18 -9 -1 -2 -5 -13 24 -13 -6 -17 26 -7 -7 5 13 3 3 -7 28 -14 -11 -1 4 -3 -5 6 -27 18 -4 0 14 7 13 -8 2 2 3 8 6 24 3 3 8 3 -17 6 8 -7 3 24 31 8 -7 13 -6 -11 -14 16 -6 -23 -8 16 22 4 0 -7 -7 -11 8 -3 -5 -11 9 6 4 -9 -3 20 17 7 1 3 3 10 7 1 -8 11 -3 3 -5 34 -9 -19 -8 5 -8 -9 3 -18 23 5 3 6 -18 -2 28 -5 -5 -3 3 27 -11 20 17 24 3 -3 6 -9 6 -13 22 7 -6 17 -12 10 -4 6 20 15 20 28 13 0 6 10 21 3 -7 5 25 -7 20 9 8 8 -13 17 10 -7 2 6 -6 0 -3 2 8 24 -3 -3 0 10 8 13 -6 -3 -4 -12 -10 -16 3 7 17 28 6 6 14 0 -11 14 -6 6 -10 14 -5 -6 -1 3 14 3 14 27 6 1 14 3 -5 -7 31 17 1 5 20 -8 -11 5 21 2 14 6 -8 -6 17 23 13 5 -7 13 9 -7 6 -8 6 8 -14 16 -3 3 -6 -20 10 7 6 -18 12 4 3 -8 -8 3 -6 11 5 -6 15 -11 -4 8 -5 -17 27 -3 3 -16 24 2 3 -21 3 -9 10 17 15 3 5 7 14 2 0 -6 5 22 1 16 8 9 9 -3 8 -4 -15 7 -16 8 7 11 14 23 6 -7 12 2 -8 14 3 -6 6 35 3 -2 -6 3 6 -6 -8 7 2 25 7 1 13 -6 -4 -6 -30 -2 5 -13 -8 -5 19 -20 25 1 -4 16 -3 10 18 6 11 -3 -8 17 7 13 5 3 -4 2 -5 -18 6 3 -4 1 24 -7 -11 4 -1 8 12 36 -3 3 -13 10 -4 -14 14 0 4 13 6 -17 6 -10 4 14 -3 -4 -3 -11 20 -13 -3 -2 -3 6 24 1 7 8 9 6 3 18 -5 7 -13 7 26 4 -4 13 3 3 6 -9 3 -6 -6 20 -19 9 -1 15 8 -15 3 32 21 5 -1 -12 -11 10 13 -3 13 26 5 15 21 7 -3 -2 -9 27 10 7 -1 17 -4 -13 5 3 8 4 24 -4 13 -2 5 -3 -3 12 4 -5 2 3 -3 -3 3 8 6 -9 18 -5 4 10 -3 -10 -1 11 14 -32 21 -4 17 12 5 -20 17 2 18 -6 3 8 -7 3 -9 18 -14 -17 26 -17 -6 -7 13 16 3 3 10 7 -4 -10 7 21 6 -2 -3 5 1 -3 17 0 -6 -4 7 14 6 -7 11 6 13 -3 3 20 5 -15 24 -1 -6 10 -13 5 25 7 1 -8 -3 -13 7 10 -14 11 7 -6 14 2 -6 -5 19 6 10 -4 7 10 3 6 6 8 8 11 -11 -5 5 11 15 -2 31 13 8 4 -1 -7 -4 -1 -27 14 17 -3 27 17 6 -4 3 29 -17 4 10 7 -14 6 -1 3 -3 26 -2 -3 14 7 -17 -3 6 9 -3 4 12 -2 2 14 4 21 6 -1 -25 2 10 8 -5 20 6 4 3 32 -3 18 3 4 9 -14 -1 7 15 -3 3 6 -8 9 1 -6 3 14 5 6 -7 -1 15 1 -8 3 13 4 6 11 -12 7 7 22 3 20 14 -2 6 9 -13 16 18 18 -21 3 -6 26 9 -4 3 7 7 10 17 -3 4 22 -14 -15 3 11 7 -4 -7 2 -2 11 10 28 3 30 3 21 7 -7 6 7 12 16 29 3 7 20 1 8 28 -7 14 22 -2 -10 5 3 -6 10 8 18 11 15 30 -11 5 3 25 15 14 -4 16 -6 9 10 6 14 3 19 -11 13 3 3 6 -5 5 -6 18 16 -21 13 3 -3 -21 -4 -3 3 6 -4 -6 -10 20 6 38 24 4 -14 -3 4 5 5 9 -7 -6 13 0 -18 -7 -17 4 -1 6 -3 7 -20 -3 14 6 -7 18 3 5 3 -8 6 -14 -7 21 -8 7 8 10 -8 -9 -14 3 -4 9 -4 8 6 9 6 -8 3 26 18 -27 24 -2 19 4 20 -6 -3 1 -8 -3 -4 6 -2 6 -6 3 5 3 -3 3 15 7 6 21 -5 15 7 10 -4 -18 -14 10 9 6 5 3 10 -20 -16 23 16 -5 1 -31 4 18 27 9 2 10 13 3 10 19 -4 8 17 -3 9 13 -8 -4 13 -10 3 6 -4 -13 2 3 -7 17 -17 -2 5 -3 15 14 20 8 10 1 -6 -1 5 0 2 11 13 -2 6 10 -39 3 3 3 3 -4 10 11 12 3 15 18 6 13 -13 3 7 -10 9 -10 3 6 -3 -13 -26 11 16 -18 3 7 3 3 7 6 -3 -3 1 0 3 1 -3 2 -6 23 3 -11 14 5 -8 3 13 17 -3 -1 17 14 10 11 -3 7 -3 -6 11 -7 -6 4 4 6 8 3 -32 21 10 7 7 6 3 -7 5 -4 -7 -8 7 9 -1 -16 4 10 -5 -1 3 31 6 -7 17 12 15 -1 11 -12 5 3 4 15 -9 -4 2 -21 -1 11 17 5 -4 10 19 3 3 15 29 -6 -13 -1 0 7 7 3 -10 17 17 15 -6 1 -9 10 13 19 22 -13 -11 10 8 7 -5 7 5 2 3 4 6 -7 24 3 -10 -15 -11 8 8 1 -7 10 -18 13 -13 13 2 11 5 -4 -17 13 2 -5 -13 1 -13 -8 17 6 -3 -27 3 8 5 -6 1 -4 6 4 6 4 -7 -3 3 3 -3 16 -10 3 14 2 3 -9 19 -6 -7 10 15 27 26 17 4 7 -7 -1 3 8 4 -11 7 26 17 14 1 3 14 15 2 16 -42 2 -6 -1 7 11 20 14 4 13 -15 3 -5 14 -1 3 3 -6 -10 6 3 -4 -3 3 3 1 3 3 7 -22 -14 -13 -3 -6 12 24 19 -7 -10 5 9 3 -8 7 -23 -3 -31 7 28 15 7 9 6 3 -14 1 -14 11 -8 30 2 -4 11 3 1 17 -7 14 11 -3 -6 3 3 -8 7 13 -8 2 -4 -9 -4 -3 -6 11 14 -3 18 3 3 -20 -14 11 0 17 -6 -3 -11 -6 -14 6 0 22 4 13 3 7 -15 -2 -22 2 1 5 5 -4 -5 -5 -9 27 32 7 -18 -6 6 3 -21 3 -7 23 8 29 -1 9 20 5 -4 -4 -4 13 -5 6 -5 15 6 -1 19 -2 18 4 27 -31 -3 5 -14 -7 7 15 7 5 -11 -20 -3 11 -7 -7 -1 6 11 1 3 29 18 -37 -18 2 3 -7 5 10 -6 10 9 10 -7 -4 3 -10 10 19 -20 4 19 7 11 -3 18 5 -3 3 -3 -5 19 8 -3 -10 10 15 7 5 3 4 6 -6 1 -12 4 10 9 10 7 -3 -8 5 8 -6 2 -3 -8 -13 3 3 -5 3 7 -18 -21 -1 -4 -18 8 -5 6 9 -11 -9 1 13 7 3 17 5 -22 18 -14 5 6 -7 11 32 8 7 -3 1 12 -18 16 -24 -3 3 3 18 7 3 5 25 1 -9 3 -8 18 -11 -4 7 1 33 5 7 3 14 13 18 8 3 -16 -5 -6 4 5 -4 -7 19 31 4 6 23 9 -7 13 13 -38 17 -5 1 10 6 3 4 18 3 30 3 -7 -8 -10 20 13 -8 3 -2 4 -1 3 -16 4 6 0 -21 16 3 21 26 3 -1 8 10 8 5 -1 7 25 3 -24 3 -3 -3 -12 -5 -11 -7 -7 2 7 6 -3 11 4 5 10 4 19 1 22 -1 6 14 27 14 -3 -4 11 8 3 21 3 29 -13 10 13 6 2 16 7 24 7 31 15 18 10 -21 -16 34 16 -15 3 3 3 2 31 21 -10 6 -19 14 1 7 -5 17 20 7 6 -6 26 14 9 -16 10 14 -14 -4 -3 2 3 17 -7 -7 -9 -5 -14 3 -1 7 7 11 -2 8 24 15 2 13 3 3 -11 -2 -7 -2 -3 3 -6 28 6 4 11 -16 17 11 -5 10 -2 27 14 23 7 8 16 -3 10 -5 -7 18 16 24 13 -18 3 3 11 8 8 3 -2 -8 6 -15 3 8 -7 4 4 11 -15 -4 8 11 -4 -7 17 6 8 8 -4 -2 20 7 7 23 -30 11 25 4 8 -4 -6 -5 -24 17 4 -2 -3 18 17 3 -6 -12 7 5 -17 -6 13 16 -10 9 7 -4 14 5 15 1 10 14 3 10 -1 22 10 16 -4 4 4 11 14 4 -4 6 20 -9 1 20 -11 -7 -9 21 -1 -2 3 24 17 -2 14 14 15 20 13 -7 -2 18 14 -7 -4 -6 -5 -1 5 7 4 11 8 -3 -9 6 -6 6 -1 8 -4 -2 -5 -3 7 4 4 21 -3 15 -7 -13 18 -4 19 18 2 15 10 -9 -6 10 -4 3 9 4 28 7 14 6 24 -28 9 -6 1 -17 21 4 -11 -7 -11 -6 6 -6 10 -5 16 3 26 -3 -9 11 9 6 -14 -21 -21 7 24 8 9 5 -7 19 4 -18 -2 2 1 -6 3 -6 -7 -11 -11 3 37 10 -5 20 8 8 4 8 12 5 8 -14 7 4 -6 6 -1 -1 3 16 -8 14 -10 19 -4 -4 17 -9 -9 14 10 14 -3 -6 7 3 36 -21 11 -6 -27 4 -15 -13 -7 -5 4 2 -5 21 -3 -13 -11 28 14 -8 -1 8 13 17 -5 -1 11 11 -3 -2 -15 -16 8 -5 4 -5 -3 12 -13 -7 -6 19 -7 14 3 -6 8 6 4 16 6 9 9 9 -14 15 9 -22 6 20 9 11 -3 2 -5 5 -6 -10 25 6 -17 -19 -3 16 -11 -3 6 -3 -6 6 5 -10 6 17 10 6 -2 18 13 18 15 8 6 31 -3 3 -20 14 16 -6 -3 14 24 3 -8 4 16 -2 -3 3 -4 6 11 -3 -2 -7 -22 -15 11 -6 -17 2 -3 -6 21 3 3 12 22 3 8 14 -6 31 -1 4 -15 13 7 26 -4 -23 -10 -6 -8 1 10 27 17 -11 2 6 2 -3 7 23 10 13 7 7 -8 -5 -3 14 7 10 -8 3 1 18 5 4 -3 -6 -3 -1 11 -4 -7 9 6 1 3 -21 7 -3 -16 23 20 23 -26 -14 -4 18 -14 5 -32 -5 -9 19 -6 15 -3 6 -11 -3 7 -5 6 15 3 25 -8 6 -28 -20 -15 3 -6 -14 13 -8 -3 -5 6 17 3 14 13 -7 -8 -8 23 -20 22 15 21 3 18 17 -10 -14 -3 4 14 6 6 -13 8 18 3 16 3 23 10 -14 5 -17 11 2 -1 -3 16 19 3 6 -15 23 10 7 6 11 19 20 -2 9 2 8 3 9 3 6 28 34 -2 5 -7 7 -14 -8 -7 21 -7 -5 6 -18 14 7 6 11 3 3 -6 5 -5 -16 -6 6 14 6 -4 7 -13 2 5 13 4 16 13 -10 -3 6 14 3 -5 3 -1 -11 2 -17 -3 19 -1 -4 24 24 -6 18 -3 13 -1 10 9 -2 11 15 -11 35 4 6 -11 7 -2 9 -9 -11 -4 -2 -5 -6 5 -11 -5 6 7 7 5 -16 6 -6 1 20 22 2 -9 6 2 3 15 11 5 3 -2 -1 -5 7 13 -11 17 8 15 2 -6 10 31 25 -6 4 7 15 -4 3 -6 4 19 3 6 11 -8 5 -10 -1 9 11 7 3 9 7 1 7 17 11 -2 -6 35 19 7 6 8 -1 11 12 -6 7 -21 14 30 6 -7 31 -1 28 3 21 3 -4 -8 -3 10 8 3 28 -7 9 7 -3 16 -27 7 -13 9 4 -3 18 -15 19 13 24 -22 -7 10 -1 -10 -6 22 -13 31 10 -3 -5 33 -3 -26 -3 21 -3 -24 5 11 -6 14 -5 14 14 15 23 6 6 25 -13 3 5 11 -1 11 -19 -10 -2 6 9 2 -26 25 17 -8 23 -20 21 -31 -8 7 15 -4 -4 5 3 28 -18 3 -3 -24 3 23 9 10 -1 24 6 29 5 -16 13 12 27 11 28 -3 5 -6 18 4 16 5 -7 3 17 15 20 -5 8 4 26 4 -3 5 8 3 16 10 -10 -21 -3 7 6 11 3 4 7 7 10 -10 3 -7 2 7 -3 -17 7 10 -25 -10 16 7 3 -1 3 -8 27 14 -5 11 6 6 18 21 -3 5 8 4 3 -16 -1 27 17 10 -6 -7 4 28 -1 25 -2 -10 6 3 19 -4 -4 3 -1 -8 13 2 -24 17 14 25 11 10 8 10 14 -7 11 4 3 8 -16 4 1 -3 1 8 3 10 -2 6 -4 5 21 13 6 3 12 37 -17 3 28 20 7 4 14 -18 -2 14 7 7 21 6 14 17 17 -19 18 13 -8 13 28 3 -6 -11 10 0 3 9 -3 1 14 -2 -23 2 -12 18 10 -14 -3 17 -8 -5 31 9 1 2 4 12 -7 16 17 -4 7 3 11 5 10 15 15 -5 2 18 -4 19 0 3 -3 -8 6 3 -6 28 8 9 4 -7 8 23 10 -6 28 3 5 -8 28 -6 21 10 16 2 -17 13 -21 -3 12 -3 8 10 -3 7 5 20 9 -7 0 -10 3 10 -13 1 9 9 -1 -3 11 8 28 -5 11 18 -12 17 15 -13 -8 12 4 -17 3 25 3 21 -15 7 8 6 5 8 -18 -2 -6 18 11 -4 13 15 7 13 2 -17 18 14 -7 -24 10 12 7 6 -3 14 -8 5 7 13 4 -5 -13 24 17 -3 24 13 3 -7 6 -10 9 38 -2 -11 11 17 -7 14 3 13 -3 3 10 2 32 2 7 9 -10 -26 11 3 -6 -3 8 -6 3 10 16 1 -13 -7 -18 -19 13 -3 12 9 3 -7 4 2 14 7 -1 19 7 -7 13 10 18 5 -17 20 4 4 5 6 11 3 -8 -8 -2 -4 -2 13 -12 9 -17 4 -18 3 -1 12 -3 -16 6 -2 8 -8 3 16 4 14 14 -31 -6 7 -3 3 28 -6 -3 3 -19 8 -4 6 8 -25 -4 -24 3 1 -7 -3 3 -21 -8 5 26 -2 -7 3 -10 11 -14 1 6 6 11 6 8 -6 5 -2 -1 -18 -7 -2 -2 5 -11 18 5 16 6 -6 14 11 1 7 20 4 14 -24 4 11 3 4 5 -4 -1 9 -10 7 6 14 16 14 -6 6 7 11 -11 31 -13 -11 -14 -3 -3 -5 10 -3 11 10 -15 11 -24 -2 -10 -8 -14 24 -6 -14 18 2 9 13 10 -6 17 14 3 14 10 13 25 2 -4 22 7 -23 13 -3 29 5 10 -4 4 16 18 -4 12 21 2 -10 26 -4 7 -18 -3 14 -2 -14 3 4 17 6 7 16 17 -1 11 11 4 6 -17 3 -7 13 5 32 -8 17 8 3 17 -3 -6 -4 31 -6 2 5 -17 3 -7 -5 19 -14 7 23 5 -6 6 -6 -7 22 -5 -3 13 7 -6 -11 34 14 6 7 24 -10 12 -3 7 8 7 15 11 9 7 -4 2 8 23 10 7 3 7 3 18 35 11 -13 0 -11 -7 25 36 8 9 -19 17 13 6 16 -15 24 19 21 17 7 -4 3 12 -7 0 2 2 -6 21 14 -3 -10 10 1 14 -4 11 27 -30 -6 11 25 -7 3 11 8 3 25 -6 -7 -1 -20 15 -7 -3 11 7 -13 -7 -7 2 17 19 4 -2 19 16 -2 -8 -6 22 7 -16 6 7 -8 -5 14 3 -6 -14 6 -6 1 -3 -3 -21 -4 2 -4 7 3 -9 -14 5 17 3 12 -27 18 -10 -8 -8 11 -14 4 5 1 -3 4 -2 17 -21 10 7 -2 7 14 3 22 -3 14 -6 8 11 2 -5 -7 12 -5 -31 20 14 3 4 -12 0 -3 7 6 3 -10 7 3 7 -7 6 13 -4 -22 3 -10 -2 6 -20 1 10 12 -10 -4 -6 -7 -11 -4 16 -4 3 -3 -14 -8 10 -3 4 3 14 5 -5 -2 2 -3 -3 -3 -18 4 3 -3 -16 -2 13 -1 5 4 12 2 2 7 18 -3 3 7 10 3 -7 16 -6 -15 -5 9 -4 -3 -17 -18 1 6 3 -4 -7 6 -4 10 8 22 9 6 6 3 25 10 -10 -21 7 14 22 9 0 14 -12 2 19 4 22 28 9 27 31 -17 3 7 -14 14 -4 14 -18 -2 2 21 10 3 -3 -20 -19 2 17 18 6 6 -7 15 -5 5 3 1 4 26 16 10 -2 -18 22 -1 17 20 -1 4 -11 7 5 -3 -6 10 3 13 3 -3 -3 10 14 -22 12 -9 -6 0 2 -10 1 -3 -3 11 -3 -2 7 3 4 9 33 4 13 -3 3 7 2 28 15 18 15 1 7 -10 5 -4 4 -7 -6 6 7 -3 20 18 3 -6 -2 -3 3 -5 -19 11 7 -6 4 -1 -7 -17 28 -2 -3 14 16 27 7 -5 -6 5 9 -9 13 4 -9 -18 5 10 2 -3 17 -3 3 -4 17 22 5 31 18 14 3 -4 6 4 -9 -20 -7 11 14 -8 3 11 8 10 6 -24 8 -16 9 -21 13 2 24 23 -3 13 1 13 2 -2 -14 -24 3 6 -6 1 -6 -3 -3 -16 11 -4 3 7 8 19 -2 -2 -9 19 15 -1 9 18 1 -15 11 6 5 -1 -7 26 6 -17 -3 23 -10 -5 3 6 6 -6 6 14 -7 3 6 1 14 4 7 2 -1 1 7 27 -8 9 13 -15 16 -17 1 12 21 3 24 -1 -8 -3 18 -5 3 13 -14 -10 4 -8 13 -3 12 14 10 7 3 6 10 3 -8 7 8 3 5 -1 6 -3 12 9 2 -6 3 -10 3 14 -11 4 14 5 -3 3 14 13 3 18 8 -7 3 -22 -13 -3 13 -25 4 12 -16 20 8 -4 -6 2 17 14 3 18 2 25 8 -3 7 6 -9 -10 1 -13 -11 16 6 4 -17 14 6 -24 14 -7 -20 13 7 -6 4 22 -10 -12 13 -8 -6 5 -20 1 18 11 -4 -7 -15 -23 -4 11 20 11 -2 28 -24 -5 19 17 30 21 -13 -3 5 15 -4 -23 14 16 -18 -14 8 14 3 4 -1 -6 -5 -37 -2 -3 -4 3 13 6 5 10 4 27 21 8 -10 8 -3 16 -14 22 5 7 12 7 15 3 14 6 5 15 -1 -18 -7 7 5 0 -2 7 8 -3 6 6 18 -5 -2 -10 -9 -15 14 16 13 10 4 31 5 1 1 19 -9 -18 -12 -17 -7 5 24 10 7 2 22 -3 3 1 5 23 20 17 0 -7 12 9 -8 -5 -22 13 3 -4 16 14 2 20 23 1 -6 -7 4 12 7 -18 -8 -7 -3 -3 -7 14 -4 -13 11 5 8 -3 10 12 17 9 -9 1 -3 -6 -3 -5 -8 3 -4 -25 13 27 24 21 10 -1 7 17 -15 1 3 4 -13 2 -22 1 3 20 7 7 15 15 -1 2 8 -7 1 -19 8 3 4 0 -12 11 6 3 -2 -4 -7 -14 3 3 -3 -3 7 1 -4 -3 -14 24 -6 8 7 3 3 -12 6 -1 9 -7 3 3 3 -14 13 26 10 21 -3 15 4 18 -6 -12 3 -3 0 -20 20 25 2 0 16 16 14 -8 -2 9 -7 17 11 -2 -8 -5 -6 11 4 -14 7 9 -5 18 -2 2 18 -4 9 -2 3 4 21 -9 9 9 5 -3 17 7 2 18 -3 -6 6 -25 21 13 -1 7 -19 5 7 5 -3 2 17 -1 -21 2 6 13 -1 8 -24 -8 3 -6 -22 -22 11 14 -4 9 10 12 7 -4 15 6 5 8 -9 13 6 7 3 3 18 27 10 12 -6 -3 -5 -7 3 -1 14 -10 25 -4 17 -13 -9 3 -11 4 -3 3 15 -3 3 4 3 10 18 7 25 -5 -4 -11 -3 5 -6 10 4 -14 -8 -1 4 2 5 3 3 1 -11 3 3 15 11 8 -8 40 3 3 9 4 -24 -3 -5 21 -13 11 -3 -6 17 -2 11 3 -17 15 9 -3 6 21 12 2 27 -2 4 -20 12 -18 0 21 2 3 3 -3 10 3 13 3 -7 -11 -7 3 -3 5 24 25 -13 15 -4 8 4 12 11 6 11 4 -2 -14 5 -7 3 -10 8 12 8 -7 22 7 6 3 12 -6 -15 -17 14 -34 4 3 6 3 1 4 -2 3 7 6 -2 18 19 4 -1 14 6 9 -8 8 -11 5 -3 -9 3 -9 -11 5 4 -6 10 10 7 4 14 -10 25 14 3 8 8 -9 3 12 -4 10 2 32 1 6 6 12 3 6 5 -3 14 4 -1 13 6 -3 35 6 1 14 -1 7 -14 3 10 -5 9 7 10 17 5 -1 27 13 3 -2 13 -3 7 2 -3 -6 -3 -13 -3 31 8 13 -7 -3 -5 -14 17 -14</t>
-  </si>
-  <si>
-    <t>JSB(1.46936048068036, 4.338994945285966, -39.97186766302522, 193.05996758531853)</t>
-  </si>
-  <si>
-    <t>23 30 50 26 38 46 39 50 34 23 22 41 48 42 24 48 44 54 30 23 43 40 37 34 33 35 40 37 36 56 49 37 38 29 33 56 43 20 47 38 33 45 54 47 55 27 57 26 40 52 33 23 38 41 29 44 36 52 53 47 81 27 54 37 34 49 35 42 42 41 24 16 41 29 41 43 30 24 38 48 32 27 34 51 46 39 40 23 45 71 13 23 33 59 25 51 29 29 29 37 65 23 43 45 34 23 48 48 23 37 29 43 56 28 45 49 29 28 50 55 37 49 37 43 26 39 30 43 43 47 27 39 27 50 33 35 54 47 30 37 28 38 33 38 37 49 29 43 29 53 37 44 60 52 40 39 31 37 38 58 57 47 44 42 22 44 47 38 37 41 46 64 61 28 65 41 38 41 51 38 59 36 39 43 65 34 43 20 34 52 36 38 37 49 41 34 29 26 37 34 37 24 39 51 33 48 47 37 38 23 54 45 43 49 65 33 37 54 55 49 35 36 34 30 39 29 60 37 36 41 40 44 40 43 35 39 34 51 35 51 37 47 51 23 45 33 48 12 43 24 42 44 38 40 26 69 47 35 33 63 38 43 50 40 37 61 38 33 38 27 37 30 23 50 50 55 39 33 28 33 33 30 40 40 46 48 39 58 50 50 41 35 44 30 38 34 51 37 37 38 37 32 48 47 50 45 30 43 51 33 37 22 48 31 32 43 34 50 34 38 43 38 49 55 32 43 50 37 21 26 55 43 40 29 29 39 58 40 29 23 54 30 40 34 40 37 30 23 45 50 40 40 31 52 52 30 39 41 33 19 26 66 37 26 45 43 30 44 23 36 38 37 38 41 51 28 34 30 43 44 47 47 37 26 31 36 68 43 29 50 34 36 26 47 64 26 33 48 31 42 49 36 31 26 51 46 53 23 45 41 36 37 43 40 33 32 45 51 40 44 44 50 27 34 29 26 29 39 43 51 34 47 47 27 37 65 37 47 57 44 45 41 59 60 45 25 32 32 35 47 65 33 28 44 43 30 64 48 45 34 45 49 27 30 27 33 52 33 36 34 47 37 30 47 33 30 35 20 39 44 44 30 71 38 38 45 60 51 44 54 16 44 38 33 43 55 48 62 59 49 38 52 43 40 40 33 54 39 51 41 33 54 35 45 38 38 57 43 51 32 26 37 51 46 46 51 36 48 38 38 48 51 43 29 52 36 39 50 27 36 49 44 31 40 33 41 36 43 49 25 46 54 48 38 46 29 35 36 38 48 36 43 59 50 62 63 25 43 53 44 48 32 22 45 37 42 47 53 40 37 51 67 30 36 26 23 36 59 24 26 29 36 54 59 34 51 42 40 22 47 36 35 66 22 16 51 26 30 33 51 54 41 38 32 40 47 26 16 32 41 40 35 44 41 50 51 38 37 27 38 40 38 45 43 50 44 36 49 22 47 35 42 25 40 36 40 48 13 47 58 43 50 49 49 51 20 34 46 29 44 48 59 45 32 41 45 29 64 64 51 52 30 44 22 51 52 45 38 43 45 53 49 59 62 41 37 40 30 42 36 47 51 41 42 37 15 57 26 48 54 32 57 43 43 45 45 28 59 29 54 37 33 57 33 35 59 65 37 30 42 51 48 10 38 20 21 41 35 50 57 50 60 54 38 55 46 55 36 51 42 38 38 65 43 36 26 30 49 42 30 42 44 55 30 32 37 30 48 30 40 46 19 39 52 43 29 45 57 26 18 45 48 41 37 42 34 37 57 26 59 40 54 44 43 45 43 31 29 37 43 39 31 25 23 42 30 24 61 29 41 46 19 45 41 40 37 25 37 40 37 43 33 47 40 36 39 48 47 43 32 30 35 45 36 42 50 23 45 20 37 41 43 37 28 51 52 37 42 50 45 65 36 53 51 30 47 41 36 24 44 49 49 41 37 50 55 40 41 55 34 41 52 45 32 48 53 47 27 57 51 44 46 35 54 40 41 24 43 23 44 41 30 31 41 51 31 17 37 37 30 38 26 47 37 46 51 50 44 37 49 44 41 10 40 34 34 45 26 31 67 41 46 59 35 27 48 40 33 54 30 27 27 16 33 35 45 41 41 41 31 23 34 45 46 6 30 43 40 38 24 36 44 51 35 54 36 45 58 41 44 45 55 48 24 29 34 44 40 32 31 39 43 41 46 36 63 61 40 41 27 37 22 22 56 63 59 32 69 28 34 46 47 45 26 40 48 28 38 23 30 39 47 29 40 59 45 62 30 40 45 39 42 49 42 43 43 40 44 44 47 53 36 50 33 44 49 40 42 37 49 24 42 37 47 30 40 41 23 41 25 38 47 19 49 55 64 54 62 51 42 39 48 51 48 57 51 46 60 48 23 32 44 58 33 44 47 42 44 37 42 21 58 57 23 31 31 54 24 47 33 43 40 45 29 44 19 32 22 42 34 43 33 40 51 19 47 55 24 30 48 47 59 39 16 31 44 31 55 37 47 33 49 52 38 41 56 32 41 35 57 30 36 38 51 54 34 48 46 43 36 51 30 54 37 55 55 29 32 22 43 63 31 29 50 40 40 36 45 43 44 49 39 34 20 27 29 40 49 35 48 23 35 22 33 32 44 18 56 34 34 57 40 45 40 28 32 26 43 41 37 52 45 37 35 19 44 52 37 51 46 30 26 43 38 46 45 43 38 30 57 46 36 42 45 45 33 30 22 51 53 29 43 47 46 40 47 34 64 53 34 43 37 43 42 17 26 64 23 40 43 52 39 44 54 31 31 44 62 39 45 37 43 26 43 27 41 23 33 31 37 29 49 44 44 40 31 22 51 48 47 37 36 40 38 44 40 31 28 35 19 53 27 38 25 34 41 45 59 51 41 42 50 48 59 33 32 39 44 51 38 48 54 44 51 57 20 54 37 45 39 40 37 39 22 43 44 29 45 45 34 39 49 33 40 35 51 50 34 31 45 39 50 43 36 47 36 30 33 51 43 85 32 27 48 58 29 48 40 31 44 34 44 51 42 50 19 45 44 49 43 28 30 55 51 42 44 39 48 51 23 42 51 43 39 38 58 27 30 34 18 17 29 12 51 53 30 53 53 26 52 29 37 47 42 44 42 33 49 42 59 53 52 45 60 46 29 33 48 13 40 41 54 42 30 48 42 47 43 43 31 40 31 30 26 37 31 37 43 42 41 38 49 49 31 27 59 35 21 43 29 37 54 47 42 44 35 27 58 54 43 46 53 42 27 18 46 43 33 46 47 36 47 34 32 40 43 43 41 30 30 59 55 38 47 30 40 37 37 44 22 29 53 58 39 26 56 41 39 58 37 56 37 52 50 29 44 30 37 56 54 58 33 59 36 43 50 30 35 44 45 48 30 52 30 51 29 59 57 45 27 39 41 40 34 41 48 29 37 55 26 46 46 35 45 38 26 43 53 59 41 30 37 42 52 36 13 33 47 16 29 44 34 32 34 36 32 40 32 30 50 40 33 35 40 48 50 40 32 25 63 29 34 43 26 47 28 40 24 37 37 51 44 32 59 38 33 59 31 22 39 41 33 33 30 26 43 48 37 51 43 43 37 55 36 35 31 33 41 43 51 25 43 64 30 27 30 46 31 29 29 20 31 33 54 16 43 63 47 35 51 51 34 26 41 47 50 53 36 44 33 22 19 57 46 41 23 35 30 27 51 57 29 34 51 39 28 42 33 28 58 22 39 42 20 37 65 59 54 42 37 23 45 53 43 50 41 40 28 31 60 30 34 30 37 37 44 29 76 66 48 43 41 35 41 35 33 36 36 44 45 45 62 42 48 44 64 41 33 40 43 46 22 59 35 51 54 37 35 47 29 31 38 52 36 17 37 40 38 33 48 40 34 43 37 33 42 53 48 51 39 33 50 57 34 37 41 41 54 47 64 49 33 31 62 40 47 38 52 40 27 29 49 46 42 20 57 45 23 34 50 36 34 45 35 25 50 43 46 49 46 32 39 55 50 41 66 62 39 46 60 23 47 37 41 30 33 43 38 31 39 39 50 22 47 45 34 58 40 43 33 38 59 22 29 58 47 44 43 23 43 52 46 47 25 45 49 27 36 52 34 36 39 59 58 32 38 36 47 36 25 34 51 34 46 55 33 35 37 19 25 41 31 45 31 55 35 36 34 51 33 53 36 31 49 48 37 55 37 22 23 49 51 32 55 33 45 41 43 48 32 57 39 28 47 38 49 14 28 15 34 36 28 21 48 70 32 32 54 24 24 29 47 23 51 32 37 33 22 26 41 34 40 51 16 49 36 30 50 36 52 56 55 45 27 50 50 38 27 44 26 28 55 24 30 51 43 43 40 23 30 43 27 67 41 33 37 29 34 40 34 62 51 35 29 48 52 33 34 59 19 29 22 44 46 20 34 41 33 40 25 49 23 46 41 22 29 40 40 38 58 45 39 43 47 39 37 43 29 34 55 39 41 27 30 59 47 49 46 32 49 35 29 37 33 27 31 34 25 48 33 41 43 35 31 34 35 47 36 53 55 25 45 41 51 70 48 33 45 23 38 30 19 45 24 61 46 23 33 31 44 40 57 50 33 40 44 57 45 41 60 59 36 34 43 51 54 33 50 23 39 29 44 23 26 25 39 63 26 28 36 36 51 29 37 30 42 43 29 41 36 47 29 57 41 61 61 29 19 41 34 23 43 48 62 29 42 55 35 39 40 34 41 51 72 65 57 48 60 44 46 41 33 60 46 51 32 25 59 44 58 35 31 29 30 34 44 49 37 29 47 31 45 45 40 29 50 50 55 54 44 17 43 37 36 47 43 28 40 41 37 46 24 49 43 37 47 31 30 53 65 36 32 66 45 51 35 36 49 40 52 33 50 36 26 37 40 43 50 47 51 47 45 51 29 59 46 51 48 57 35 29 25 44 27 38 51 71 34 52 49 44 37 45 44 44 37 31 40 50 51 15 38 39 48 52 37 34 41 34 40 43 35 37 45 40 35 39 47 15 54 54 44 33 51 41 51 20 44 58 21 47 39 34 40 52 48 41 37 34 26 45 44 42 54 19 51 63 57 32 43 44 48 36 29 37 24 54 29 45 38 36 40 36 69 44 54 47 43 39 32 49 26 45 38 35 35 46 41 30 37 49 37 34 48 33 54 36 32 36 41 49 68 32 12 31 32 43 39 25 45 40 65 25 40 47 37 51 42 31 69 23 27 61 69 56 51 19 46 33 57 33 30 23 49 39 51 47 15 30 36 26 40 19 33 43 27 43 39 45 36 47 30 27 43 30 26 55 62 64 32 35 27 39 37 63 56 27 42 33 41 48 54 46 37 46 52 54 34 44 47 35 52 30 51 37 32 53 41 29 35 25 48 62 41 40 41 34 26 28 36 60 22 25 51 43 40 52 38 44 43 36 34 44 35 18 29 58 39 63 27 39 59 35 48 49 46 29 47 45 48 39 35 51 27 13 46 37 16 54 44 33 30 51 60 34 53 51 46 29 29 49 49 55 61 44 59 36 30 39 64 39 22 35 51 27 26 32 28 41 48 34 33 37 29 48 47 37 47 61 41 58 24 53 22 48 32 38 47 41 50 33 39 34 36 23 24 30 44 34 39 28 44 42 37 49 40 26 43 34 50 16 43 33 30 27 46 37 45 44 36 29 45 57 30 37 27 57 43 46 55 41 53 45 37 39 44 46 36 27 40 37 53 46 34 44 48 43 30 64 31 37 45 30 70 23 60 40 15 25 26 36 40 29 27 43 44 59 44 32 34 48 19 24 50 33 23 33 42 49 45 29 47 40 47 44 39 38 25 43 16 41 37 51 40 42 19 36 33 32 38 41 30 51 43 47 59 49 40 45 32 40 64 57 50 26 30 44 48 33 35 28 28 37 42 56 41 33 22 55 49 41 29 42 51 22 37 41 41 33 31 45 56 32 53 39 33 55 42 51 45 22 49 39 50 33 47 51 33 37 44 51 31 33 29 34 44 52 33 36 55 61 41 20 40 41 43 37 48 33 40 39 52 44 33 27 34 41 43 57 29 44 48 45 60 36 33 47 48 45 63 26 32 32 54 40 47 45 47 39 41 31 46 64 65 36 28 53 40 40 36 27 36 44 44 49 40 51 53 23 27 52 44 37 30 36 51 41 36 37 34 54 20 37 46 29 51 33 53 33 26 41 51 62 30 37 37 30 71 58 51 37 33 54 34 34 31 37 81 25 30 49 40 41 33 19 54 43 23 50 41 40 54 41 29 40 41 39 30 50 44 47 51 63 50 42 57 23 34 26 57 37 66 56 46 46 49 31 42 37 51 51 41 41 62 40 37 49 43 23 51 37 33 37 27 43 51 43 44 53 27 31 37 43 62 36 27 51 37 51 35 48 47 39 48 43 61 47 41 20 34 34 59 40 33 50 54 58 39 59 52 55 30 33 36 35 41 43 29 22 56 37 29 30 32 47 43 43 33 29 27 37 55 33 35 47 59 48 58 43 29 30 38 58 51 36 39 25 31 27 53 43 29 37 43 42 45 45 46 48 26 43 37 40 47 43 55 29 44 46 44 35 38 57 49 33 27 42 40 32 37 55 42 27 46 32 23 64 20 41 31 44 46 29 62 53 23 45 54 52 41 34 45 29 37 41 39 45 38 30 29 38 43 35 43 36 33 37 43 44 45 55 49 23 49 22 36 52 40 40 20 51 61 48 49 33 43 36 40 36 37 43 40 39 58 44 43 22 37 40 37 45 50 54 34 34 42 30 51 31 37 52 48 40 33 40 56 41 30 27 44 40 23 41 44 36 51 57 46 53 23 37 17 52 35 42 37 31 49 41 40 45 45 49 23 37 46 55 53 33 44 12 54 23 46 29 65 40 43 45 37 33 58 31 36 50 34 49 56 22 42 29 44 44 21 47 37 54 25 30 29 30 21 22 46 25 43 26 44 36 40 40 45 48 33 37 59 53 35 53 48 50 40 59 35 52 25 56 44 37 51 43 33 39 52 50 46 50 26 35 26 37 13 40 53 19 49 42 44 58 43 47 57 27 45 58 48 46 39 42 41 47 42 46 51 29 53 42 45 44 15 28 21 54 20 14 38 45 19 38 51 39 35 35 30 40 38 33 27 37 46 55 48 35 32 34 40 40 44 40 39 43 39 54 39 31 35 55 34 62 29 40 54 43 47 36 50 44 54 40 34 47 46 26 17 29 41 29 54 47 20 50 32 51 49 42 37 51 29 43 29 44 30 41 44 37 64 43 41 42 32 53 37 41 57 53 43 43 37 36 33 45 48 33 34 25 38 28 23 48 37 29 51 46 46 37 35 43 53 52 45 26 48 35 24 59 37 37 19 51 58 51 54 42 34 46 47 43 23 44 52 20 31 37 31 41 37 29 35 32 54 41 40 23 32 49 50 51 47 43 30 50 53 31 49 39 26 28 20 41 53 21 49 32 30 47 27 35 54 46 41 45 34 36 25 38 46 27 29 51 29 55 33 39 43 25 34 49 35 52 27 51 44 35 44 41 31 50 36 43 35 32 28 36 30 28 37 33 37 37 30 37 33 43 33 33 52 45 60 49 63 44 30 37 46 41 50 33 65 36 36 48 28 27 33 34 58 27 39 51 52 43 61 37 32 66 37 38 39 37 22 39 37 21 59 50 31 44 40 46 43 32 37 65 39 69 37 34 25 37 40 38 52 32 34 31 50 46 57 42 67 44 44 43 33 47 50 45 36 69 40 50 27 36 36 36 49 43 48 27 55 57 44 53 59 26 42 33 40 60 59 34 58 27 51 58 43 43 48 43 57 34 30 27 50 49 35 45 42 62 43 49 37 66 23 37 29 50 47 50 48 40 30 51 55 38 48 40 52 34 25 51 31 38 60 47 27 35 43 50 24 56 36 48 33 33 36 50 37 28 33 47 26 37 49 48 36 55 48 47 63 42 48 49 31 27 51 45 30 47 45 47 12 33 35 54 43 41 49 55 45 27 66 27 47 37 48 52 29 60 28 33 48 44 48 25 36 22 46 39 49 34 31 36 45 47 37 40 35 40 31 27 46 48 37 37 48 43 40 25 23 41 34 38 50 24 37 41 30 50 54 43 53 42 34 23 35 41 28 39 46 45 37 25 33 53 44 47 22 58 27 63 39 40 36 57 29 54 26 39 30 33 27 38 49 40 34 23 49 60 51 51 36 44 24 43 36 29 37 33 34 29 34 44 30 40 51 33 35 29 35 30 34 47 37 39 9 54 41 36 16 34 49 35 40 55 37 37 48 40 57 27 36 42 37 51 41 26 33 31 36 43 48 61 59 58 62 47 47 19 46 47 41 59 49 57 48 17 59 48 22 25 37 29 51 45 45 65 25 37 33 47 43 29 22 31 31 33 37 60 30 46 41 28 44 55 38 51 51 46 33 40 31 24 30 27 34 51 59 58 30 53 30 54 35 40 42 37 29 34 48 60 43 36 55 36 38 25 27 23 36 32 33 44 34 47 40 17 27 48 26 41 53 52 66 57 40 38 58 38 64 40 39 23 28 40 68 43 46 42 34 32 51 44 46 38 20 21 35 51 29 12 29 34 53 50 15 34 43 42 39 45 55 30 61 19 36 40 39 41 40 54 38 48 55 46 45 54 45 64 26 61 34 37 48 33 68 30 37 27 38 34 50 42 42 26 50 30 33 33 24 34 48 40 35 46 34 27 33 26 45 27 56 55 54 59 30 40 36 45 52 59 19 46 37 34 44 37 49 51 22 50 35 47 19 31 53 29 30 43 48 49 39 26 41 39 51 51 47 48 46 47 45 43 38 33 39 51 40 29 44 39 44 46 64 51 35 41 45 36 37 37 31 41 36 62 23 57 59 32 42 59 33 30 33 51 44 41 14 51 23 44 47 58 29 46 33 51 33 48 26 22 37 23 50 56 46 48 22 37 34 37 43 40 43 29 43 48 45 45 44 52 29 43 26 61 33 49 37 35 56 44 38 43 47 41 37 41 24 26 34 44 29 34 46 45 42 36 13 50 52 32 31 44 29 36 58 41 41 34 49 22 45 49 54 46 53 41 32 23 26 33 36 34 59 36 48 33 34 44 67 43 33 44 29 50 37 33 46 35 20 30 26 54 42 53 34 35 27 28 36 34 46 54 23 42 43 32 20 37 30 54 38 29 47 40 26 46 39 41 23 43 57 47 41 36 35 50 52 40 34 45 47 42 51 49 40 44 38 41 43 39 56 54 65 28 40 24 39 31 45 31 33 32 30 36 34 47 35 44 38 39 41 23 37 35 17 43 48 56 16 25 42 46 37 51 26 46 35 50 51 54 36 25 30 53 43 34 45 21 43 30 51 36 20 29 45 43 43 23 72 43 65 51 32 45 26 50 46 52 22 41 33 33 26 45 38 36 26 46 41 37 30 37 53 49 50 47 63 9 27 43 49 27 43 48 41 34 51 40 44 40 33 43 68 37 46 28 49 43 38 43 26 36 33 49 59 33 40 39 23 44 44 47 24 43 30 38 45 46 42 46 48 58 53 43 46 61 52 38 53 47 46 34 41 45 49 41 40 64 42 55 25 36 42 33 41 53 44 23 38 45 51 51 37 41 50 34 43 36 60 40 54 36 17 42 33 50 40 40 34 78 35 31 53 33 45 45 51 47 40 38 58 35 30 46 66 40 24 39 39 55 32 23 45 44 47 43 53 44 23 42 44 29 41 28 43 42 52 47 49 22 33 47 43 48 51 49 61 23 33 55 49 44 24 13 48 44 55 40 34 51 36 51 49 34 39 33 26 58 14 34 37 41 24 33 52 33 44 37 34 48 40 46 47 39 29 41 61 37 44 32 27 48 51 31 54 33 44 41 35 41 34 38 34 44 26 44 45 37 40 37 36 34 44 38 41 25 37 60 35 33 47 47 55 33 40 47 37 44 33 47 51 36 41 15 36 34 36 41 36 32 16 27 44 40 40 52 37 51 15 47 62 25 53 26 22 29 37 50 37 51 57 51 51 46 27 34 49 40 56 32 60 47 59 33 42 40 45 43 33 48 36 48 36 48 46 43 50 30 32 43 62 43 59 48 34 53 33 47 45 34 50 33 32 44 47 39 29 46 24 40 55 31 21 49 51 39 40 46 25 35 34 31 17 45 57 35 31 47 44 46 37 37 26 43 44 29 56 33 45 36 50 31 54 28 59 38 47 31 50 37 55 34 30 52 18 30 34 46 61 31 33 37 36 35 32 50 31 41 27 55 47 34 47 40 59 58 44 44 29 37 52 25 25 40 26 45 48 45 48 54 39 81 37 16 34 47 62 57 26 48 36 37 23 13 49 55 37 23 45 46 42 32 33 42 43 47 50 44 33 62 31 30 51 38 39 33 44 64 36 27 48 70 38 19 31 39 47 30 48 36 22 44 49 26 23 27 53 16 36 43 46 31 58 26 39 37 33 43 36 30 55 55 57 38 37 57 32 38 56 60 33 53 46 40 40 41 59 31 44 64 49 43 40 23 37 54 37 47 28 59 36 40 42 31 26 42 51 50 54 35 19 36 54 44 60 46 47 37 57 41 61 38 48 37 53 48 40 51 43 50 23 34 29 30 37 35 53 57 28 65 51 45 30 50 47 38 30 42 58 30 28 35 54 43 31 41 36 45 37 43 47 39 27 49 46 43 33 47 33 48 50 27 47 33 23 19 56 37 43 34 26 58 37 49 28 24 59 35 40 50 37 40 40 38 51 26 26 33 33 58 44 50 59 47 41 29 41 39 50 18 51 33 29 35 38 37 36 36 33 37 49 52 38 27 43 29 44 54 43 52 51 31 38 31 36 57 42 34 40 30 50 46 49 42 43 24 30 32 37 41 25 43 52 49 27 37 24 40 29 30 30 52 47 16 26 44 37 43 29 44 57 46 55 33 29 38 37 55 25 20 27 43 35 56 48 41 43 38 27 30 43 40 37 37 31 45 33 54 51 40 22 42 42 48 33 52 47 39 53 56 39 51 36 12 33 51 49 65 50 44 41 54 51 29 31 72 40 35 36 27 37 52 47 43 47 43 26 45 33 54 60 23 36 37 29 55 54 39 50 47 47 51 53 24 43 47 34 44 29 39 36 28 42 40 51 26 23 46 43 20 53 51 47 37 39 37 37 41 39 21 34 23 39 37 37 61 33 40 29 43 40 50 35 36 35 57 51 47 43 41 37 43 58 22 57 44 62 31 43 41 36 27 37 22 46 57 19 48 33 48 35 48 57 44 49 50 31 45 35 51 43 45 48 45 24 36 37 32 54 33 44 27 51 48 25 40 60 43 40 34 49 47 52 59 34 36 61 24 34 32 43 32 26 39 24 74 58 48 51 25 13 34 50 43 30 36 52 45 54 42 26 53 35 42 43 35 66 43 51 22 23 45 39 23 25 36 56 57 31 16 47 44 44 47 31 29 33 37 37 30 65 26 43 37 38 43 37 37 68 42 38 32 54 31 30 55 40 59 50 20 32 18 37 54 59 36 27 48 38 35 31 65 41 45 55 47 55 60 46 23 58 48 61 44 37 33 52 62 31 36 40 40 36 37 54 45 62 54 34 54 37 34 51 52 46 54 50 48 49 27 29 58 41 33 42 50 42 49 36 31 53 51 51 57 30 49 19 16 41 40 49 53 41 45 45 38 50 22 47 44 50 45 48 41 34 34 29 32 36 60 50 35 37 44 53 53 33 30 35 41 37 33 26 55 38 15 59 27 41 50 44 23 41 58 36 49 39 45 48 32 37 29 33 53 48 63 30 45 31 59 37 48 64 43 31 33 51 36 48 27 57 36 33 57 43 26 45 26 71 41 61 39 37 63 50 41 37 44 65 37 20 45 47 19 46 33 57 35 55 40 48 36 31 27 49 46 43 19 37 52 60 57 49 30 42 43 23 57 20 61 50 40 33 43 51 54 52 47 54 48 29 38 44 37 37 19 37 36 38 22 54 50 47 61 40 41 29 41 30 63 43 49 32 36 46 50 42 57 52 33 33 49 27 43 37 34 50 53 27 43 45 47 41 40 28 55 38 41 48 58 50 47 47 48 39 37 34 48 35 43 44 31 43 40 39 29 50 57 40 40 31 45 34 43 29 43 36 46 41 52 41 61 45 26 56 43 29 37 43 43 47 34 27 30 49 51 29 42 38 49 41 73 30 50 43 55 47 54 26 39 39 45 43 55 53 61 51 41 32 64 33 27 30 47 44 44 30 40 34 27 47 44 30 51 34 49 53 29 56 32 49 36 19 23 51 55 36 33 51 30 66 45 40 32 43 54 33 25 31 46 39 50 50 30 57 36 37 34 33 37 53 34 59 50 31 38 52 33 45 43 40 25 32 51 39 38 25 50 31 35 45 49 40 44 50 36 32 45 31 30 13 38 37 58 43 51 34 28 23 36 42 40 24 33 44 65 60 47 43 45 37 47 37 33 30 45 57 63 44 24 29 26 38 33 52 46 62 49 30 31 43 41 40 23 37 30 32 30 45 35 36 39 55 30 37 38 46 53 62 59 46 43 30 26 26 60 27 39 42 47 61 45 45 40 52 48 50 33 52 49 31 57 51 48 40 24 32 36 47 48 20 34 43 47 59 33 33 36 30 41 50 51 29 35 59 43 58 40 28 50 38 50 51 41 50 26 50 51 45 43 55 37 30 44 40 46 30 61 46 40 31 39 69 47 53 26 36 36 53 44 27 27 54 29 33 33 55 69 44 52 55 41 51 49 41 34 41 54 29 30 23 56 33 52 33 39 41 52 29 25 43 39 39 36 41 30 17 47 36 34 63 45 28 52 33 46 38 46 63 39 30 47 39 55 56 30 43 38 43 44 44 49 38 33 48 48 28 45 30 33 54 37 58 44 42 29 33 53 36 37 48 51 30 37 31 52 55 33 36 41 40 43 29 55 35 63 66 27 43 45 43 51 45 58 48 43 45 45 35 25 48 37 37 30 51 41 46 37 16 37 33 29 58 36 39 39 57 53 50 54 23 6 16 30 41 39 56 51 45 35 26 42 60 52 42 30 43 34 49 48 41 42 22 36 27 42 56 45 40 63 30 44 40 28 48 39 22 30 38 53 50 23 36 40 44 25 40 51 47 35 24 37 36 37 29 51 42 48 26 40 35 41 71 40 46 58 15 43 39 57 22 64 43 31 25 40 49 15 37 43 27 45 34 43 25 50 44 39 45 61 44 56 48 49 27 42 38 51 33 47 32 35 62 27 31 56 25 29 40 59 37 33 29 39 55 37 34 52 35 27 54 29 41 24 19 38 57 48 41 25 37 13 35 45 49 34 40 57 39 46 47 39 24 33 50 38 46 48 33 41 34 42 30 51 34 54 42 43 57 20 51 31 48 32 35 37 44 35 66 27 41 26 63 26 42 40 37 54 60 44 50 26 27 53 51 46 37 43 37 37 40 42 45 43 48 59 19 55 43 37 22 49 43 40 37 31 43 43 48 29 37 38 47 40 37 57 36 23 39 29 54 52 50 40 47 49 35 57 43 37 32 37 30 39 51 48 37 40 33 40 41 32 31 44 30 24 36 48 41 42 48 41 48 26 38 49 57 47 35 37 13 42 39 48 26 25 37 40 63 46 52 62 32 37 40 54 44 23 43 34 30 40 33 40 49 36 40 42 42 57 33 37 54 60 50 40 32 37 32 26 32 44 28 39 40 33 45 20 43 26 39 20 45 54 49 25 49 57 31 33 47 48 40 33 51 33 44 34 54 44 34 63 45 33 47 39 25 25 35 60 48 52 40 34 30 45 23 32 32 50 27 28 58 44 44 59 34 48 51 40 37 37 48 45 37 36 40 31 45 27 37 9 42 30 16 43 33 29 35 38 63 39 41 33 33 40 50 62 26 37 40 53 44 42 47 37 43 54 30 55 33 36 26 39 37 32 43 54 25 46 46 34 26 33 34 48 35 37 30 40 23 32 24 48 41 50 37 49 33 25 34 30 48 60 44 29 39 40 29 47 40 37 43 38 36 41 66 30 54 37 43 28 45 41 27 51 29 22 34 43 44 48 29 38 45 44 53 47 50 35 24 44 54 35 29 47 44 30 26 54 56 38 27 48 71 24 38 22 34 45 22 47 51 40 45 31 36 29 26 30 33 41 26 27 54 65 38 23 53 41 55 46 44 22 47 33 45 40 37 23 34 52 46 39 29 27 39 40 33 51 50 63 29 37 38 45 38 39 43 39 26 25 61 49 35 43 44 39 43 30 33 27 65 16 53 47 37 32 36 58 28 27 44 25 45 37 40 34 35 50 37 37 51 37 38 42 67 24 23 38 44 73 24 53 35 48 46 39 30 59 36 41 32 45 30 58 54 23 32 49 51 31 36 26 23 32 37 48 47 41 42 51 51 44 25 38 44 55 41 26 50 49 35 33 43 33 26 34 50 33 42 34 33 29 54 41 23 51 54 45 29 44 37 42 38 33 37 45 31 33 40 51 41 27 24 54 51 27 28 40 42 52 53 47 62 48 44 49 44 45 42 32 52 32 37 61 61 35 51 35 44 71 41 22 36 53 31 30 69 41 34 57 43 39 49 20 36 31 55 37 44 58 49 26 60 41 51 29 32 50 57 40 55 45 23 68 59 31 30 38 44 30 34 30 33 26 25 39 40 44 48 39 62 46 28 43 44 51 30 29 30 39 26 25 47 65 37 43 40 54 29 45 48 9 34 31 66 47 49 35 47 38 37 53 44 38 37 40 51 33 44 31 46 54 28 42 47 27 36 30 42 35 43 52 46 53 46 37 27 25 52 49 23 30 54 34 47 45 29 49 36 33 38 66 43 22 62 51 36 37 49 27 25 54 25 26 38 45 37 33 46 25 48 34 25 34 48 50 38 33 43 48 38 44 18 43 33 50 37 33 37 45 47 34 58 46 20 47 38 26 62 37 45 37 39 43 45 44 37 35 40 40 36 61 41 37 51 33 38 45 27 46 50 48 44 34 40 44 36 42 62 35 24 49 39 23 47 46 27 32 56 23 59 44 53 26 43 55 34 59 34 20 53 30 31 37 53 36 38 20 25 35 38 41 34 52 22 43 26 55 38 29 42 54 40 37 48 22 45 44 36 55 44 46 39 16 34 38 39 39 34 45 36 56 22 32 48 41 37 53 29 17 55 49 26 47 39 49 49 44 28 62 40 30 39 20 43 43 16 34 58 29 44 43 63 43 46 38 45 39 44 44 39 43 52 53 52 34 45 23 51 41 34 56 33 58 37 26 24 25 52 61 45 31 43 50 39 43 53 40 42 68 28 45 56 25 43 46 46 45 25 60 50 52 73 35 51 43 31 66 50 41 46 23 43 64 62 27 27 43 55 30 37 52 55 56 57 31 42 63 60 44 21 41 49 37 55 50 37 31 43 34 57 43 37 64 56 37 45 59 32 43 48 37 41 23 23 55 51 34 24 37 31 35 45 20 51 41 44 48 36 46 26 43 44 63 30 39 45 46 45 39 29 16 39 56 35 53 39 28 30 64 37 49 45 45 34 19 31 26 29 45 43 32 37 25 36 39 43 30 44 41 53 39 51 33 30 30 39 45 31 37 29 52 47 55 34 39 55 51 30 37 23 33 46 67 43 44 35 33 40 41 51 50 34 25 45 33 35 52 37 44 48 41 44 51 50 57 37 40 32 33 21 40 32 33 25 47 50 29 23 36 37 33 36 51 39 27 69 32 23 46 41 39 37 54 33 48 25 52 38 38 42 44 41 23 43 45 51 46 58 59 32 44 37 53 47 54 27 24 35 47 26 35 38 33 49 45 43 46 24 43 27 42 31 46 39 51 46 39 22 32 48 36 42 47 49 45 54 32 38 17 45 29 37 28 41 29 59 26 52 40 43 28 31 49 49 57 37 37 27 40 48 67 43 40 18 30 59 33 50 49 47 43 34 63 35 29 45 41 28 29 41 31 42 29 40 39 46 43 40 30 40 28 23 43 47 51 33 40 49 41 62 29 45 38 39 25 46 34 50 41 52 53 52 17 28 43 58 37 29 34 28 31 34 43 48 51 51 40 26 42 20 36 16 33 23 41 43 42 36 30 33 49 31 44 53 31 43 33 58 35 36 26 48 57 37 35 41 43 46 53 35 35 26 39 44 24 24 47 31 34 23 43 42 39 41 34 56 42 41 57 31 39 40 27 33 29 53 37 29 54 49 17 41 41 27 60 49 53 51 61 44 67 50 58 51 41 43 38 42 38 37 52 61 36 37 30 44 55 50 38 47 43 51 51 30 71 43 51 45 51 49 32 37 50 38 47 41 53 29 42 42 40 33 42 56 28 47 44 53 51 40 41 52 48 32 17 26 27 51 37 31 39 47 44 49 55 16 36 46 43 48 37 43 25 47 53 27 43 35 51 34 58 34 37 48 41 45 52 40 41 21 41 42 38 40 42 45 37 29 30 49 37 47 39 49 35 23 34 42 49 44 33 45 33 33 47 33 54 13 34 62 31 30 39 48 48 51 64 25 55 59 30 34 53 39 41 33 43 56 37 43 25 38 38 51 58 44 43 36 35 61 40 16 26 55 32 37 30 66 61 31 34 44 26 26 27 32 15 49 56 51 39 40 44 32 33 39 49 49 35 30 57 37 23 56 39 51 33 39 32 41 40 37 31 30 33 36 36 35 41 40 33 34 34 33 34 43 36 57 34 49 35 43 55 33 38 41 32 50 46 39 56 47 45 59 36 38 41 16 34 52 29 23 45 23 54 49 41 34 54 33 56 19 53 29 31 20 53 48 26 62 48 51 46 24 56 38 52 53 70 51 31 33 49 33 37 48 45 33 47 55 37 48 38 36 21 42 55 43 37 31 60 41 54 43 47 34 60 48 54 31 46 31 29 37 30 44 55 40 39 61 54 40 37 30 51 33 50 44 38 39 44 43 31 39 38 38 45 64 52 40 53 37 34 33 56 50 29 51 38 42 29 38 21 23 20 60 48 24 30 40 21 33 51 46 51 51 50 38 36 34 47 42 43 36 40 37 44 31 65 42 40 41 37 37 54 41 34 28 29 35 44 32 47 33 39 66 40 53 36 33 26 30 40 36 64 50 37 54 30 46 34 42 47 27 40 51 49 59 39 43 42 29 42 37 50 26 34 55 54 27 19 42 30 32 39 22 34 25 41 39 41 44 37 34 23 45 34 32 26 27 22 50 40 49 51 33 44 44 47 49 47 27 27 30 44 63 36 44 49 30 29 34 16 24 51 43 42 48 61 46 40 44 48 37 38 47 51 47 38 43 41 23 46 42 68 28 43 30 23 76 51 35 49 29 40 60 53 33 49 36 42 23 29 27 43 36 66 44 38 33 68 37 40 41 37 51 31 43 30 57 46 40 46 28 40 46 33 32 42 33 36 48 48 33 39 31 44 54 54 24 51 38 58 51 35 29 32 36 46 31 48 39 51 48 55 29 40 33 30 29 13 49 47 52 32 55 41 27 25 43 68 34 40 41 26 55 45 43 67 37 35 37 40 35 74 40 39 34 27 51 44 27 33 48 47 41 48 31 44 62 26 44 44 46 35 39 45 40 33 45 60 30 40 57 35 35 44 33 51 46 56 35 48 59 39 29 38 37 35 54 23 40 46 41 42 44 51 58 46 16 44 37 38 45 50 40 31 31 43 32 26 58 26 45 48 44 51 40 54 30 28 37 43 30 74 39 57 50 35 52 45 23 36 51 44 37 62 35 53 31 32 54 37 50 40 32 31 47 44 41 19 33 40 38 43 44 54 46 19 30 47 51 57 60 46 44 51 47 53 42 61 41 33 54 47 49 48 41 44 52 59 53 44 47 56 35 32 49 33 23 38 27 47 62 47 37 47 41 43 30 39 20 37 40 26 44 36 32 33 52 47 43 39 32 47 37 26 23 45 63 57 20 41 39 31 46 34 34 34 41 45 50 34 41 40 57 37 36 43 59 34 37 33 48 38 37 34 34 41 33 51 66 43 38 32 37 50 34 40 70 31 46 50 65 36 43 59 50 48 45 37 31 52 33 45 54 45 49 32 55 53 38 35 62 31 47 40 52 53 48 28 31 41 31 40 48 48 40 41 33 41 44 36 41 55 49 37 34 30 28 27 34 37 43 29 74 51 35 30 40 50 42 34 44 27 33 44 47 41 44 48 39 44 23 62 28 45 35 45 33 51 52 37 43 37 35 44 60 36 34 24 43 19 63 52 31 42 31 39 35 55 42 48 23 49 44 39 43 29 44 42 53 34 33 51 43 38 33 61 53 50 32 38 45 40 40 40 45 26 48 45 33 51 43 35 62 41 33 27 47 51 57 40 67 26 40 56 51 43 40 24 41 41 24 37 54 38 57 49 34 23 32 51 52 43 51 49 27 37 29 37 57 41 35 43 42 30 49 37 25 56 36 41 37 46 40 27 45 40 64 40 35 55 41 46 37 33 53 36 42 37 50 20 37 48 53 33 13 31 52 39 41 39 29 30 37 64 43 43 33 50 64 57 30 33 58 48 76 41 43 38 51 43 61 55 38 51 61 37 54 37 49 34 48 41 34 48 43 23 46 26 45 33 59 53 57 41 37 65 16 36 34 39 32 58 51 53 48 57 32 41 49 40 27 37 50 38 37 37 34 54 23 43 44 51 37 51 52 33 36 48 47 41 42 39 36 33 45 34 43 43 66 44 36 38 37 55 45 37 37 38 61 40 50 32 44 29 49 32 37 42 42 58 39 45 61 54 51 29 16 27 19 10 24 31 19 30 25 37 49 49 30 31 42 38 47 31 39 59 22 33 40 35 23 54 38 38 47 51 39 38 38 49 36 47 39 41 52 48 45 58 40 35 57 30 44 50 57 33 22 36 37 41 42 19 44 36 37 54 49 35 36 50 36 44 41 51 38 17 36 30 56 13 37 19 40 29 36 58 24 38 37 33 53 40 37 40 43 43 51 48 48 43 36 56 52 50 54 27 35 33 40 34 29 31 59 34 13 26 43 46 35 54 43 44 42 31 43 15 53 40 44 35 58 54 50 36 26 51 55 44 47 37 9 47 40 38 40 25 34 45 36 27 39 37 39 44 47 27 37 36 52 36 19 54 37 59 40 56 49 40 48 36 51 58 55 54 43 60 32 46 43 45 20 58 38 27 44 16 68 37 45 27 51 30 29 54 50 23 21 53 26 43 33 24 50 31 36 47 33 59 45 33 23 45 48 48 37 23 58 32 37 41 33 32 48 22 29 45 37 39 47 43 55 48 40 29 46 44 20 34 38 57 50 53 55 47 55 30 43 36 46 41 58 24 50 51 34 37 46 40 33 49 41 36 29 41 36 29 41 52 55 43 41 46 16 29 38 8 37 65 47 41 34 43 25 23 51 50 44 44 46 19 41 44 32 51 37 34 49 26 62 37 36 22 27 61 41 58 25 33 55 26 29 51 47 30 54 46 55 29 47 31 27 33 66 44 43 43 26 44 38 29 48 51 63 40 26 42 30 44 33 44 37 43 56 36 55 33 50 17 22 46 44 52 34 59 42 38 48 42 37 26 33 31 17 40 42 41 37 35 56 24 34 32 45 38 56 43 49 41 51 51 53 32 23 44 28 33 45 44 37 40 33 48 32 45 40 34 46 29 60 41 38 27 22 58 33 51 58 41 36 34 26 40 29 43 35 40 30 40 46 66 45 37 30 39 24 33 33 58 43 52 26 16 60 46 46 47 43 29 51 25 31 48 37 29 39 50 43 29 30 47 23 36 36 50 40 48 38 20 54 30 40 55 27 36 36 29 42 43 34 24 39 75 64 44 54 19 37 31 51 35 33 50 54 36 44 36 24 48 33 42 50 42 58 13 50 51 48 40 42 35 38 37 52 27 50 37 39 51 33 16 20 37 31 41 47 35 50 32 41 48 29 39 43 76 22 31 54 32 57 29 41 27 43 35 34 49 29 51 48 48 40 47 22 47 23 19 35 34 31 40 40 48 47 44 22 32 29 47 44 19 29 57 21 49 36 48 48 31 36 61 29 25 31 38 55 51 25 48 37 19 37 48 40 67 33 39 33 26 16 43 30 55 27 45 19 30 49 44 27 42 26 50 54 55 32 45 36 56 33 34 38 33 47 44 34 43 55 35 37 57 32 51 25 32 49 33 56 37 61 37 29 41 47 19 27 30 57 25 36 36 61 42 66 62 54 42 45 50 20 45 34 45 40 53 26 34 20 42 25 49 31 47 30 54 22 55 49 21 56 43 37 29 36 47 44 54 44 46 41 32 38 39 55 45 50 32 35 35 44 39 46 27 48 43 60 37 26 44 46 37 36 39 49 50 35 37 48 26 37 44 44 26 31 47 34 35 46 33 51 27 25 40 61 24 50 45 52 44 40 32 11 30 36 50 36 38 33 31 44 44 42 43 23 40 36 36 35 22 59 34 29 51 50 44 53 31 35 24 42 23 43 28 54 25 47 51 36 40 44 44 27 56 31 45 35 30 59 41 36 36 33 29 59 30 51 51 56 47 40 15 38 47 34 28 38 72 46 51 34 48 51 37 28 42 33 55 46 34 37 20 34 54 44 19 56 40 48 9 27 65 51 33 49 20 34 30 34 36 56 44 33 36 29 29 48 39 36 55 38 66 50 53 47 33 37 35 57 22 58 38 42 36 44 54 19 45 34 37 28 31 31 37 29 32 38 53 41 45 43 45 36 66 78 40 29 20 54 44 22 53 37 51 29 51 30 41 43 24 61 63 30 41 45 43 31 36 54 55 46 47 41 41 16 25 62 38 41 52 52 49 57 54 50 37 32 22 37 51 57 37 37 27 46 44 33 35 37 46 28 43 20 36 41 19 33 18 37 33 37 27 44 41 36 25 46 42 57 45 51 57 24 51 46 43 51 44 26 35 36 48 50 39 40 47 51 46 54 23 29 54 30 54 36 26 36 43 41 55 38 44 29 43 19 41 13 26 50 34 52 37 38 46 29 20 29 49 44 43 16 51 27 40 51 36 30 29 45 39 37 35 38 19 39 47 40 35 41 49 56 40 29 51 43 30 33 51 34 60 40 54 54 33 45 48 47 48 36 27 46 35 39 27 27 34 35 45 45 58 37 33 54 33 51 36 33 34 43 58 51 31 41 28 36 38 34 47 29 42 46 36 47 37 28 52 43 46 63 34 51 45 41 34 43 46 61 22 20 43 44 43 48 37 44 54 33 31 47 40 33 37 24 40 33 43 34 47 65 19 39 16 50 36 34 52 38 54 42 53 38 59 30 46 39 42 37 39 34 51 30 41 41 37 30 40 38 31 48 54 40 34 47 46 41 27 48 44 66 30 42 57 32 42 29 46 27 44 51 44 45 41 45 38 57 32 43 28 48 30 51 43 47 42 63 41 51 65 55 44 45 42 44 44 40 34 54 49 56 31 54 51 65 64 45 30 45 19 48 43 46 36 47 47 36 22 60 59 38 42 48 47 39 54 39 41 47 46 34 31 33 39 50 41 47 33 40 36 35 46 43 54 34 30 43 28 44 47 55 48 56 39 64 16 51 51 41 47 43 37 44 26 37 39 45 44 30 37 50 36 45 51 27 57 59 40 43 34 41 44 43 64 59 36 13 29 44 58 54 32 26 37 47 36 39 44 42 45 30 34 47 37 51 41 28 44 39 23 43 54 43 38 30 37 37 49 13 57 34 37 57 28 37 44 51 47 47 30 55 30 41 13 37 41 59 45 58 55 28 36 33 57 42 25 33 35 39 33 22 32 41 39 57 34 23 28 46 58 51 20 37 44 72 27 28 37 41 49 59 27 39 30 23 34 30 18 20 49 43 37 38 48 33 29 35 29 37 37 48 61 32 38 41 57 45 16 44 34 44 31 59 46 52 32 57 54 42 58 36 40 36 50 51 37 29 23 52 68 25 26 45 50 20 33 45 39 52 44 36 44 44 45 42 45 28 67 43 43 37 35 29 37 41 46 58 37 20 40 37 41 33 33 49 33 35 31 53 23 44 31 33 41 42 44 47 27 32 44 50 43 52 40 34 51 34 36 43 44 50 41 36 53 34 47 50 37 47 34 33 15 37 44 39 22 46 50 45 31 41 31 41 34 44 37 50 37 27 43 37 45 38 51 51 33 45 41 48 59 52 44 13 45 33 16 45 57 35 24 44 36 20 26 47 44 28 47 35 45 33 43 41 45 47 45 48 40 56 45 31 31 42 50 29 51 27 53 37 45 40 57 38 29 37 51 41 49 49 62 39 48 36 45 36 42 54 42 32 20 47 58 31 37 43 44 37 25 43 47 45 27 43 71 43 46 49 41 41 44 40 44 50 35 26 37 36 58 48 39 27 45 36 46 44 26 33 48 55 34 45 44 40 47 43 42 62 44 51 40 37 33 30 26 31 39 40 42 36 53 50 49 40 54 29 26 54 31 47 51 39 37 39 51 35 52 40 36 28 35 44 34 22 37 20 43 26 32 45 43 58 44 38 46 50 37 48 32 50 37 40 71 29 48 24 39 41 40 49 55 26 55 34 27 33 28 35 38 29 37 41 28 43 43 33 47 33 59 52 27 37 47 28 37 40 51 39 51 49 34 47 49 15 43 28 35 54</t>
+    <t>JSU(0.24808471052546943, 4.293542123687534, 6.719320673748923, 49.13256790510955)</t>
+  </si>
+  <si>
+    <t>3 12 -6 24 10 3 13 3 11 -1 6 2 -18 21 -7 -21 -5 -6 -15 6 25 13 3 12 10 8 13 -6 13 15 2 20 3 14 2 -1 13 17 25 4 -6 34 14 14 -17 -13 -8 -13 10 6 3 10 14 6 11 -3 3 38 3 -2 3 -11 -18 -14 2 3 11 11 11 2 14 5 -10 -11 -7 -4 -1 -15 23 -18 6 3 -8 -10 6 1 11 4 3 17 17 -24 2 3 11 20 3 9 -6 -18 20 21 -4 10 -3 1 32 6 -3 1 8 -14 -10 -14 14 3 7 1 -3 3 3 -14 16 -3 15 -9 1 16 23 -18 -4 -5 28 27 -18 7 3 -2 3 3 20 9 5 28 -1 7 7 7 25 19 -14 -10 -8 -20 -10 11 -17 -14 -1 10 -3 -3 12 8 2 7 3 22 -3 -28 10 3 13 1 8 7 -11 14 27 14 20 17 -3 -17 -3 4 -6 7 18 13 11 35 -3 3 -10 24 22 10 13 4 3 2 4 15 -6 15 8 -28 3 11 9 11 -16 6 11 4 4 5 13 14 2 7 -2 31 18 -9 -5 10 -3 5 6 14 21 6 1 3 27 5 -19 -3 -5 -6 12 -20 7 17 -7 -6 9 17 32 21 3 5 -6 -4 3 10 -3 1 20 13 13 -9 14 4 -1 4 -3 12 -11 -11 -20 19 12 7 18 12 35 11 11 6 -3 7 -2 -31 24 6 -21 6 13 10 8 -14 -8 17 15 2 -9 14 9 10 1 -7 6 -21 14 7 11 8 7 6 7 16 13 -3 -4 -1 11 1 13 3 7 28 -4 -6 22 -18 19 7 8 15 23 10 11 -20 -3 6 -3 4 11 6 32 11 14 3 7 5 -14 6 -9 12 -5 3 6 5 7 3 -3 6 10 1 2 -1 3 -1 2 20 14 6 3 17 18 17 -5 18 6 14 20 -5 27 3 3 -9 -1 8 5 1 3 15 -3 -10 -12 4 18 10 17 15 5 -6 -20 19 3 9 -5 15 9 7 14 17 10 -21 32 3 18 -3 -9 -3 3 -9 10 -5 -9 6 -4 -27 6 14 -4 -6 3 20 8 13 1 1 32 -9 5 8 24 -14 -2 13 17 6 3 9 -9 3 18 19 10 16 11 10 7 21 11 -13 7 -21 -8 -2 3 -5 13 18 -18 12 -2 23 2 6 8 -3 21 8 3 -5 -15 3 -13 15 -2 -7 13 8 -3 3 -20 3 5 7 -14 -12 19 -3 7 25 14 -13 15 30 -4 14 3 -3 14 14 -1 3 5 -3 3 5 7 -5 -1 27 -24 24 -14 14 -4 3 0 2 23 -17 8 -20 3 7 14 10 8 3 3 10 -14 -10 8 -10 -13 6 -2 3 10 -7 16 3 22 5 23 6 8 11 18 7 17 5 -3 15 -24 -5 4 -6 33 12 -2 4 6 24 -3 12 -7 7 18 13 6 13 -10 15 8 -2 6 17 4 15 2 16 27 13 -4 0 1 1 14 9 16 17 9 3 37 17 11 -3 -10 3 -3 -7 3 -8 7 -17 4 13 23 4 7 2 -10 14 11 13 -15 21 18 3 1 3 4 -7 14 6 6 -9 7 3 9 7 -3 3 -3 6 -10 3 7 39 22 11 14 -15 -1 6 6 -14 -3 -8 3 3 3 -7 7 -6 20 14 -2 7 -7 3 18 -11 4 -4 -2 6 -4 -8 5 5 18 20 -3 -3 3 2 7 -11 10 14 -11 -11 7 -3 -3 -2 -1 9 14 16 -6 -3 23 8 12 18 13 -10 39 39 -4 14 18 -3 10 4 22 10 6 -8 -7 20 2 5 9 -4 -8 8 -3 -6 -7 3 4 10 18 3 29 17 4 -3 5 -14 3 12 28 -11 10 -4 21 -1 11 9 -4 8 -6 21 -3 3 6 29 3 -16 -10 20 -9 -17 9 12 17 11 -18 -6 5 17 -2 1 6 17 -3 7 19 9 11 -12 3 15 6 3 -5 -6 3 12 9 -10 -6 -9 -1 6 -15 -4 -6 8 -3 24 10 -5 4 29 5 1 27 -21 3 -17 13 -6 8 -10 6 -4 14 7 -10 -5 3 1 1 -13 5 -5 -8 -3 10 8 18 3 11 0 15 -7 7 5 -3 6 7 5 5 17 6 27 -3 9 -18 21 28 -13 12 6 3 13 -1 -9 -10 -16 -3 -1 -5 28 4 8 -12 2 24 5 6 3 5 -3 -7 1 -3 1 6 5 2 18 3 -4 -2 13 7 -7 8 -16 -20 17 19 24 -31 -5 5 25 11 7 6 7 -4 -3 34 -20 -3 -6 -9 7 -9 -3 2 1 22 7 -15 8 15 17 6 22 7 -13 3 7 -7 3 7 -17 4 1 6 7 -11 -26 -3 21 -13 -6 15 -21 16 16 3 10 -3 10 35 -3 -4 -10 11 4 29 -6 -3 3 4 15 3 3 10 3 3 -7 -2 12 4 10 9 13 -9 5 -8 -7 -3 6 10 -12 17 -11 -20 22 13 -1 6 -3 -3 16 18 -17 1 23 -3 33 -2 3 -7 3 22 38 -11 13 11 11 -16 3 -9 13 -17 5 4 15 -13 36 7 2 17 18 15 9 11 18 6 17 -3 10 -3 -7 -6 -2 -3 -3 5 23 13 7 2 7 3 4 -21 1 6 3 -21 20 -19 -16 20 31 7 -10 17 4 6 8 -3 -7 0 17 10 15 -7 7 -10 -6 21 -3 16 -4 -15 15 -4 3 -2 -13 -6 -12 -3 13 8 -3 -5 6 13 17 10 37 4 18 4 5 16 -12 -8 9 4 -6 -8 10 1 -2 -8 5 27 5 -7 3 -10 18 -2 4 6 -4 -5 25 15 8 28 3 -3 -17 39 10 -3 15 7 21 7 3 26 6 19 25 8 -9 3 -3 14 3 14 -3 13 -16 14 4 6 3 10 -7 11 17 -4 3 -12 28 3 -3 4 13 -7 7 13 7 -24 -1 6 -3 -17 21 25 3 -20 -3 6 4 9 6 -12 3 26 14 -2 25 12 19 -3 -6 6 10 -3 -4 17 7 12 7 -20 6 10 21 -7 7 -16 5 8 -21 0 18 25 27 -2 -1 35 -10 20 -6 11 -15 8 -4 -3 7 6 -10 3 14 27 3 -11 14 12 18 -7 9 -15 -5 4 3 8 11 3 8 -17 11 4 31 17 -10 -2 21 -4 2 8 -13 -1 -13 10 9 -18 -4 19 17 -5 -6 -10 -8 -17 7 8 -1 21 -4 2 3 14 2 10 11 8 -7 12 7 -7 -15 17 4 -4 -6 5 7 7 -21 9 -13 1 3 21 5 17 3 27 3 20 10 17 20 6 14 15 13 6 -3 -24 -22 14 6 19 7 16 -8 4 6 16 15 19 16 16 3 -4 -6 -6 19 8 -16 -13 -9 3 24 11 16 6 4 9 17 25 -3 20 -6 6 5 -2 10 3 13 5 -11 25 -7 -3 24 -17 13 3 -10 -4 5 1 2 -13 8 8 10 3 -6 12 -13 3 14 -12 21 3 27 -3 10 3 1 -13 8 8 21 6 3 4 0 14 -5 -10 -11 3 6 -3 5 9 3 -6 -6 25 -16 -14 21 8 -5 24 5 -10 2 -7 12 8 3 21 4 -8 10 25 -3 7 3 -10 20 17 -3 8 7 0 10 -12 7 -14 3 -3 -14 30 -18 15 9 6 17 1 1 3 18 6 -14 -6 5 -18 -12 -12 -7 15 18 11 8 -7 -14 17 3 2 8 4 15 -21 -13 1 5 21 18 -2 -6 6 11 11 9 -5 -3 3 -21 14 24 7 13 18 29 8 -7 3 -15 -3 11 -13 16 11 10 -10 30 10 8 21 10 1 -3 -15 -2 -5 5 -6 19 27 38 5 -1 -7 19 27 -1 18 8 20 37 -3 6 1 27 3 25 -3 12 23 24 7 9 3 -8 -6 -3 27 4 -3 4 13 17 7 3 16 3 0 -4 30 -5 6 -7 35 1 -3 3 14 10 14 -13 13 7 19 -7 14 1 35 7 6 -6 -8 -14 4 3 -18 -3 19 18 12 3 35 14 8 -3 1 -6 11 9 18 -6 4 7 18 -4 2 11 4 7 -10 -11 7 7 5 0 -3 -3 -3 2 6 10 -7 11 -8 7 18 8 2 -8 3 18 -13 -3 6 -13 3 -6 32 6 -10 11 15 -3 3 -8 -6 14 18 11 10 14 -6 3 4 -6 -5 17 3 2 -7 -5 -1 14 -2 -5 7 -12 -21 17 -2 -10 10 14 11 -9 27 3 2 17 19 -7 14 3 -5 22 3 -20 -1 2 -17 -4 -5 7 22 19 6 1 6 -24 8 10 7 4 -4 3 -6 3 6 -18 1 16 -2 10 3 -3 18 -6 7 21 -1 19 2 -14 7 -20 3 -1 8 -17 23 12 29 27 -28 9 2 -8 -8 -14 14 6 5 3 5 -7 7 -3 7 49 -7 8 7 3 7 3 -16 -31 12 -8 -9 18 -5 5 7 18 11 11 -12 4 -3 4 -9 6 22 7 6 -1 4 13 -3 3 -5 20 1 -7 7 -6 -6 7 5 13 -26 13 -8 -7 9 10 20 -3 13 3 12 5 -8 34 12 2 -10 10 5 11 -14 16 -11 16 -4 14 -3 16 10 14 1 2 18 21 -4 7 -3 -1 -3 3 7 -10 -6 -20 11 -4 -6 -8 6 15 6 9 -3 -6 3 -17 17 4 10 11 -10 3 2 -8 5 10 -14 20 9 6 15 3 11 7 -18 6 -10 13 -3 -14 6 -1 19 -5 14 24 1 28 -10 -10 18 -9 -13 14 -4 3 -3 -3 -7 3 12 -7 13 6 13 9 -6 -3 -16 8 4 14 13 17 0 -3 -9 8 21 -12 8 7 -10 3 -7 5 18 14 -14 -15 15 15 3 19 28 1 4 20 6 -6 -6 -17 7 27 3 1 17 7 6 9 3 7 10 -4 6 -10 12 -14 3 -4 -12 6 8 6 3 13 -7 21 -6 21 4 -5 3 -15 -8 -3 3 39 2 -14 13 16 -21 -3 -6 14 15 6 -9 18 -20 8 7 15 20 -14 -1 -13 17 -30 8 -5 -10 -10 14 -3 14 -11 27 6 9 -20 -7 -2 6 -9 3 12 7 -5 6 11 13 6 -4 -4 2 -8 26 3 -6 -8 4 13 20 8 10 5 -8 8 -3 -4 7 -2 28 6 6 4 3 -6 -17 13 11 15 20 -7 -3 10 18 8 -16 16 -4 -11 8 19 14 -6 5 5 12 -12 20 6 9 -9 9 4 -9 -3 6 -4 -20 4 -3 4 10 8 4 -31 -7 -20 18 -2 21 3 4 5 2 -7 17 -1 4 -3 22 21 6 10 -3 -10 13 14 10 5 3 -17 17 3 5 -11 4 -8 19 6 5 -3 1 25 8 -3 9 7 -10 -1 14 -11 8 -9 -3 -3 -7 2 2 19 -4 -3 -11 18 -7 11 4 -6 6 -7 -20 7 16 24 4 -3 1 -21 -3 3 5 6 7 6 -4 11 3 18 -3 3 6 22 14 -32 13 6 0 7 6 -14 -17 -7 28 -8 24 -22 16 -3 -18 14 13 1 21 27 5 -3 16 3 -10 3 -19 3 -20 24 -4 6 -6 16 28 30 10 -5 28 10 4 -25 -16 30 -6 23 8 -10 11 -5 10 25 7 -5 4 1 14 7 -18 11 -9 5 4 -1 13 3 7 12 8 7 13 7 8 10 6 -7 14 -14 14 7 24 7 -26 3 10 -1 20 14 -7 -28 -3 17 5 3 1 11 8 19 2 3 24 5 3 -3 -14 15 3 -14 3 9 -3 7 4 3 -14 3 9 24 2 17 26 9 -3 4 -6 -14 10 -3 13 36 10 -12 -11 13 7 4 -6 4 8 6 15 0 20 24 11 -3 -4 -1 5 7 18 2 -21 -18 -8 1 -2 -5 7 3 5 11 -8 22 -3 -3 24 3 22 13 12 -7 25 11 -20 8 24 18 3 -10 19 4 14 7 -16 -2 5 9 15 11 -21 7 4 10 13 7 -19 -6 3 -6 -5 10 7 5 -6 14 -2 25 -3 8 -5 -7 -8 -10 -23 -13 3 8 -3 -8 7 0 6 12 20 -3 3 -3 9 -6 17 -3 26 3 5 4 14 7 -5 14 9 -3 14 -10 12 -4 7 15 6 -10 -4 1 -8 6 3 22 1 18 -7 3 -2 -13 -13 5 9 -3 15 14 0 -3 9 6 -7 -4 14 6 27 3 24 -3 3 -9 -1 6 2 2 10 23 13 -11 12 19 13 1 5 6 -11 3 1 11 8 6 14 -20 -23 -2 3 28 23 5 40 10 0 6 -7 12 6 25 -11 10 4 1 7 -9 20 -10 3 4 -3 3 2 10 14 3 -5 10 13 6 20 -1 15 13 -7 10 -3 -3 16 3 -5 -3 20 5 1 -1 9 8 -14 10 -2 -3 17 1 7 -13 11 7 -3 9 3 11 25 20 -9 -16 -3 24 -7 4 -14 -7 14 8 16 3 -5 2 6 20 6 3 21 14 12 5 5 19 2 -14 -11 16 -18 -15 -17 3 -2 3 14 -9 27 3 20 -6 9 -12 -24 -13 2 4 4 -12 17 10 -5 -1 3 -12 3 -8 3 4 14 8 -3 3 15 -3 18 8 30 19 3 15 7 27 -6 -5 -3 -12 -12 10 -7 5 30 2 6 -3 5 -3 8 7 3 0 9 -6 3 -7 8 8 -6 8 17 -4 5 3 3 7 12 18 -10 -7 3 -10 31 20 -7 15 12 -14 6 10 2 -9 -1 -20 -13 -7 -7 -3 -6 -2 -7 9 11 -15 8 18 -10 10 -6 -3 -3 -3 12 7 5 -7 15 -20 -23 1 12 18 -20 -1 14 6 -2 27 -11 -1 3 0 2 -1 -10 21 -7 -6 1 9 -3 -3 -10 -3 -7 12 3 21 13 -10 -4 3 -3 12 2 -7 20 8 14 -4 3 3 14 4 17 4 18 1 20 -25 3 -3 6 -18 6 16 -3 3 -22 21 11 16 14 10 7 1 7 14 27 13 -4 8 -6 3 1 10 9 -5 -7 -6 14 5 11 7 -7 8 25 -7 -1 -24 5 5 9 3 7 9 18 -16 3 -15 -7 3 -11 3 14 -3 4 19 -3 17 13 2 -7 2 8 7 -12 7 -7 6 -26 -3 -6 -7 3 3 3 -2 7 14 14 -11 -4 14 -23 3 -17 -7 27 -11 -7 -16 -16 3 -8 9 24 3 -3 2 4 6 3 3 4 15 18 11 14 -13 3 -9 3 17 -24 4 3 -14 3 11 -19 -21 15 4 -11 -7 -10 15 -2 17 7 3 -10 13 45 -5 36 6 10 -1 3 1 10 -5 17 28 -15 3 9 3 7 -6 6 -13 13 1 7 14 -13 19 -2 1 -7 -5 3 -17 11 9 2 13 1 -11 -2 20 3 -3 -11 -7 -3 13 7 -3 -3 28 3 17 11 12 6 12 1 7 2 -4 -17 11 -17 -5 18 26 25 -10 13 6 10 6 -4 11 7 -7 -2 -2 11 -19 9 11 10 13 4 -6 3 18 3 27 28 15 -1 31 -6 10 10 -10 2 -3 -10 29 20 6 3 10 1 -2 11 15 24 -3 17 5 -3 14 6 -21 -24 19 -6 7 14 -2 -5 -3 12 2 1 4 -3 10 -17 5 16 -14 2 17 -6 10 9 6 -3 -1 14 3 10 11 -12 14 17 -8 5 -7 -5 17 3 5 3 14 6 12 10 3 7 4 10 7 -17 3 -9 4 24 -10 -4 1 -15 6 21 2 4 1 6 -9 -1 -7 13 3 14 1 8 2 3 -8 -3 24 10 -21 3 14 24 -32 18 11 17 9 -5 24 -10 -6 -5 18 -1 -6 3 -24 24 -6 -5 -4 11 17 18 8 -1 14 -8 12 13 5 -9 3 6 6 7 3 16 9 3 4 22 -3 -3 -2 -2 17 -1 -3 -27 6 17 -3 3 -7 13 8 -6 -2 31 1 6 14 -18 14 3 14 -2 3 12 -7 13 3 8 21 -13 22 9 4 -11 20 -7 -6 27 6 5 16 -4 3 3 -4 -22 4 -8 -9 -6 6 -8 -12 15 -13 21 12 -6 9 29 14 -4 18 1 4 0 -16 6 -15 -3 0 20 -3 3 -1 9 17 -3 17 1 6 8 3 17 7 4 13 8 17 -5 3 -3 8 24 -1 -2 -11 5 3 11 24 9 11 7 -4 20 -3 10 2 -19 14 37 13 -11 6 8 12 18 -7 13 -7 -25 -7 3 20 4 5 -15 7 21 30 7 -3 -5 -19 37 -7 -13 12 -6 1 6 -20 -3 3 4 19 3 19 2 -4 20 6 8 6 3 -16 13 -15 -22 -29 4 2 10 -13 -8 -24 17 -22 -25 9 -3 6 3 7 -4 -3 17 18 14 6 6 -3 18 -26 -8 -2 21 -6 11 2 -7 6 -8 -2 4 5 4 -4 -19 6 6 14 3 19 4 -32 29 17 -19 17 12 -7 2 3 -7 -4 5 -3 -29 -4 3 16 28 23 -8 3 -4 -15 -3 15 10 14 17 2 10 20 7 14 -8 14 7 -14 10 25 10 9 28 -8 -23 -3 9 4 -5 13 -5 -13 8 17 -2 20 -6 8 15 -24 -4 -11 -5 -15 -11 4 10 -11 2 17 16 -7 3 21 8 1 10 -9 -3 -8 12 12 -14 7 -2 1 -3 34 0 8 -18 -30 24 15 21 -1 17 5 15 -3 1 3 10 15 8 16 -11 14 7 3 1 -5 -8 3 10 33 -17 16 -4 -17 7 11 -2 -5 12 -4 24 -17 9 -7 5 12 -5 -19 20 -7 17 3 5 26 -15 -17 6 12 14 -17 3 -7 16 1 11 -4 14 18 25 -8 5 -3 -4 3 18 6 4 15 -6 -5 -6 20 -7 -4 -7 -14 11 -10 -5 2 8 5 34 -4 13 21 7 15 17 -7 7 -13 -7 3 10 8 6 -1 3 -21 -5 12 7 7 5 -9 -8 -9 17 3 14 -9 1 -7 13 8 7 10 15 4 -4 -3 6 21 -2 -7 21 -3 11 -8 3 11 -10 25 -12 5 -1 -3 1 3 -1 17 10 5 6 -1 15 -3 6 -1 -9 -3 -3 -7 11 -3 1 -10 34 0 5 16 3 -10 8 13 6 3 1 1 -4 -7 4 -8 3 -14 21 1 2 -1 13 -2 -11 -7 2 -21 7 10 -13 12 -14 -15 -3 3 -7 6 -6 3 17 13 3 -19 -3 8 9 8 -15 9 -12 17 11 21 10 15 13 -2 16 6 3 -5 21 15 1 8 5 -1 -5 10 1 -3 -6 7 -4 -6 3 -7 -31 21 7 13 14 42 9 29 15 -3 6 10 -7 -3 10 3 3 6 -6 -10 17 4 7 -1 -10 8 -14 7 2 -21 1 10 9 -1 20 4 -17 11 17 14 20 6 7 -3 10 11 3 4 5 24 10 7 -9 19 8 3 -13 -3 17 25 -1 6 3 21 11 8 4 8 2 2 5 3 -7 -9 -6 -8 -7 3 13 -14 20 4 -13 12 11 25 -7 5 -3 3 29 -2 3 14 8 11 3 3 0 6 -6 24 8 17 8 10 -1 4 16 14 6 -7 8 -4 -3 10 5 -17 -10 -3 30 -8 -8 14 18 2 -13 16 21 18 -2 -7 7 6 -1 7 4 11 -14 10 -2 14 8 20 18 8 16 3 31 -13 3 21 14 3 3 -3 -6 1 23 17 -15 -9 8 -21 3 10 8 -6 2 -5 7 1 10 -8 -9 -4 -18 1 -2 8 -14 17 17 14 11 10 13 6 3 -8 6 11 -1 6 3 7 24 6 3 7 12 14 -7 -1 12 24 16 28 9 12 15 3 -14 -24 -17 -22 13 20 7 2 -1 21 7 -5 -3 32 21 3 1 10 -13 -16 4 14 6 -1 2 -16 -14 -4 -6 -13 11 1 6 6 39 -2 38 -1 -30 7 7 24 -13 8 6 -3 -16 -5 11 3 -11 14 9 7 24 -3 34 6 16 12 -7 5 24 16 -3 -10 9 9 -21 -6 9 20 3 -3 1 19 17 -6 2 14 29 3 -6 2 -2 3 3 4 5 -1 3 3 3 8 -4 -8 -8 17 8 16 -3 2 -20 -10 -9 15 19 3 5 20 1 19 19 -3 -3 -1 -14 13 19 -4 17 3 8 -6 19 7 -15 7 -2 7 13 7 13 7 9 -3 -3 7 -3 -8 20 1 19 -5 22 7 18 5 -8 7 2 7 -7 -2 6 30 -13 5 4 -4 2 13 6 -3 1 8 11 3 17 6 4 9 13 -3 26 19 25 8 -8 5 -8 6 9 31 -3 -13 -15 -8 4 4 5 -8 -4 13 8 11 6 20 6 -8 21 30 -1 23 1 11 -13 -24 -3 10 17 19 -8 14 6 -13 -24 8 24 3 21 11 18 3 -2 4 5 -3 1 4 1 7 18 -2 4 20 8 10 7 3 -3 20 21 10 17 20 7 9 -9 31 4 -3 -23 6 -15 25 3 4 15 13 -4 6 8 5 23 -7 8 29 -3 -17 -6 7 5 7 -2 14 7 -10 10 -2 10 3 -5 13 -12 11 -3 8 23 -6 -7 3 9 -3 17 -32 14 -4 -7 -3 -10 7 23 -31 12 -4 -1 18 7 30 -3 -10 18 6 -16 18 -11 -3 -33 -9 5 -11 17 3 -7 8 19 -20 -17 14 -22 10 -15 -6 7 2 10 4 23 -18 7 6 -5 6 -2 -1 -5 3 17 21 -18 17 -6 14 13 14 -3 3 13 11 -16 -9 15 8 11 3 9 -3 -2 15 -16 -3 4 -12 -6 -3 12 9 -37 21 11 -3 -7 17 13 -6 -8 3 -7 -2 18 6 -16 -11 2 18 -2 3 7 -4 3 -10 7 -16 15 14 7 6 18 2 -29 -10 3 -6 11 6 11 11 -12 2 -2 2 5 -11 -3 3 8 4 9 3 -10 -14 -3 4 1 17 3 11 1 26 -8 6 19 17 -19 17 -24 3 -21 -4 15 -14 -19 20 -3 26 6 3 14 -8 -15 -8 9 11 4 -6 -14 10 22 6 -18 -14 5 -19 4 -3 3 10 13 12 -7 -3 15 16 13 -7 -10 -14 -1 4 -6 -3 -6 -11 14 -22 29 -17 -3 -2 -3 3 6 8 -5 3 -5 2 10 3 3 -4 13 2 -22 18 10 -26 -26 11 -1 2 2 1 -6 8 -4 6 11 15 -4 17 -8 7 8 -5 2 -10 -3 -23 1 7 4 -3 -7 10 -3 10 -13 17 -4 -17 3 3 -4 25 -17 -2 3 -10 3 -10 5 3 20 -8 -2 3 2 -8 30 -19 14 7 13 -6 14 8 7 13 5 -4 -7 3 -2 4 16 1 -6 2 6 16 -3 -18 -4 8 4 -2 -6 6 -3 14 3 -6 5 0 -7 10 9 -3 28 2 7 12 21 3 3 6 7 3 19 11 9 -5 -1 -1 8 -6 19 17 7 -4 3 -6 3 -4 -20 6 2 7 -7 1 -8 -7 3 -3 -6 -4 -5 2 -16 -3 9 -11 -7 9 8 14 10 -7 -6 4 -7 3 20 23 -8 27 -1 8 28 10 1 -7 11 -18 -3 20 17 -7 7 -6 19 -17 -9 5 20 15 3 13 -20 -2 0 -1 -11 3 23 -3 9 -17 5 13 4 3 -15 -7 3 24 -4 11 24 -21 -4 -20 15 -13 0 23 10 9 22 6 26 20 24 16 14 8 -8 -4 3 5 -14 3 7 15 17 -3 7 -13 9 21 3 -3 16 -14 -8 -14 -17 -12 5 15 13 -6 -18 2 17 3 24 8 17 -10 -17 18 -12 -18 38 -4 -3 10 18 -3 8 6 7 11 10 17 8 3 -2 24 -10 2 21 19 15 -10 13 10 15 21 -4 -4 9 7 8 -4 5 -7 4 -3 13 -3 12 7 -6 4 8 21 11 23 7 8 -24 -7 29 6 19 -2 -9 6 -13 -7 21 7 11 -7 17 10 -3 8 3 7 10 -4 12 -4 -8 -14 20 -6 -7 0 15 3 12 -10 2 7 3 6 3 15 11 12 1 21 3 3 28 35 -1 8 5 13 2 10 -13 7 -33 -7 -5 30 -3 -6 2 -6 6 9 17 -18 -7 -13 -7 -2 5 -14 17 11 22 -4 10 7 -6 14 10 13 -3 -14 5 3 8 5 -14 0 13 10 14 -23 10 -4 7 15 -8 7 10 -8 -14 30 7 3 -6 7 0 7 -26 3 4 9 8 -28 6 -3 -2 -2 -15 -6 -14 -3 5 -14 -3 6 -9 15 14 28 11 25 -17 6 12 19 -3 14 23 7 6 14 30 18 11 5 -5 -8 7 11 -5 7 24 18 -6 4 17 31 14 3 -2 13 7 6 -3 -10 -7 10 -2 30 -23 15 -3 -8 -3 -11 3 -12 9 -3 15 -3 21 14 -12 9 11 9 26 3 6 7 12 21 -5 -7 -2 6 21 -14 7 8 -7 -10 14 3 -3 -14 -17 3 6 2 -6 3 11 20 -3 -3 14 8 8 3 27 -12 8 20 -3 3 -3 17 -6 20 -9 6 -8 5 28 1 9 11 18 -8 -7 9 -12 -2 -20 3 11 7 -6 3 11 -22 2 14 -10 10 5 -1 -7 -6 9 -9 8 -7 -21 -8 7 3 -3 17 3 17 10 4 17 9 -5 11 8 7 -14 -6 10 6 5 22 -15 3 -3 20 -3 -19 25 5 7 24 25 14 4 14 1 -1 17 13 -13 -3 14 4 -3 15 -3 -6 4 -8 6 7 -20 9 -3 -20 8 11 3 16 28 9 -14 1 -6 17 18 5 -10 28 -8 8 9 -7 4 6 13 -13 10 -25 -7 12 12 6 2 19 -10 11 25 -4 -5 14 25 -7 -14 -3 -1 11 3 -7 -4 7 8 4 -27 -10 -3 5 12 10 -6 3 9 2 -4 3 27 21 -6 8 10 25 3 -3 -1 -14 3 20 21 28 15 5 2 10 3 3 19 11 11 16 15 -7 9 -3 15 -21 15 18 -4 -12 12 -5 16 3 -6 10 4 9 13 8 10 23 -3 2 4 -11 -7 7 -6 -8 14 3 14 15 -24 -14 10 2 13 -7 -3 -13 2 14 8 8 -5 6 3 -4 10 -2 -8 -3 -1 -3 8 7 41 -6 -6 -1 2 5 -16 30 17 -4 2 2 -15 5 -1 10 13 3 -14 17 -5 0 10 -22 -6 15 -7 -4 -14 8 15 3 -4 -5 10 -8 -2 -3 18 7 -1 22 -9 -14 24 -11 10 -2 10 -15 20 -9 -11 7 -10 -3 3 -5 -24 14 15 -7 14 13 17 7 -13 8 -3 8 5 3 3 -5 3 -4 19 -7 0 15 3 10 -7 17 10 3 30 -28 9 11 3 2 10 6 3 -1 3 1 -18 -18 -7 18 -3 8 17 7 -3 -5 6 3 3 -14 -2 4 9 -4 17 14 10 -13 -16 20 -4 35 -4 5 1 18 -9 19 1 13 12 21 8 3 11 -20 24 2 5 -12 1 4 -3 25 20 -6 20 13 -4 23 6 -6 7 -7 -3 -3 7 8 3 -22 6 -2 2 5 -1 4 8 3 1 5 6 5 -10 10 11 7 -3 -8 13 10 12 -3 6 11 4 6 16 9 15 -24 7 11 3 -18 -6 1 -4 3 5 0 14 8 -9 9 -4 -18 19 -17 20 6 -7 3 8 11 -8 -19 15 25 5 10 -3 21 3 -3 5 -3 2 -18 -2 10 -8 15 20 -1 6 3 8 -7 2 7 -8 3 3 -3 6 27 6 -13 -9 9 25 3 -20 2 10 10 20 15 3 -20 10 12 -8 12 7 -7 18 0 2 24 8 28 8 0 13 6 3 -15 7 8 11 17 -14 -13 -20 5 13 22 -13 2 11 -6 27 3 8 -6 10 -23 22 2 -3 -12 8 21 -3 20 24 -10 9 14 -3 2 4 -6 6 5 -6 -11 -11 0 16 -3 17 6 6 14 -6 -14 1 -21 -19 -10 3 -7 7 27 34 -3 -7 -2 3 24 22 -5 15 -3 3 -3 -3 17 18 10 -6 -4 6 25 -16 -1 24 -11 7 -20 -6 -4 20 17 18 26 -8 -3 12 22 -2 15 -6 9 3 7 10 13 1 -9 -5 -3 2 -3 18 -11 6 12 -3 16 10 3 19 18 3 2 -2 -10 8 3 7 6 20 10 18 1 -3 28 -6 1 1 5 14 25 14 9 15 -12 4 -3 6 -3 -5 2 13 21 -11 21 7 -4 13 33 19 20 -14 28 3 -10 5 4 14 3 1 -1 14 11 10 -3 7 -9 8 3 1 17 -3 -17 -9 -3 -5 -3 -11 4 -3 25 5 -8 8 15 -14 -4 -2 22 3 16 21 3 3 6 6 12 17 -7 31 -3 3 -3 7 4 -6 23 3 13 13 -17 11 24 4 11 -10 5 12 -22 6 -6 -4 13 15 -10 3 9 -1 -7 6 -14 2 -12 -9 14 6 -4 21 4 10 0 18 3 -10 -12 -10 6 9 10 -8 18 16 14 14 34 9 21 9 13 10 24 -3 7 -6 27 -20 17 -4 13 -4 -10 32 -2 25 5 3 20 -3 -13 -5 22 14 14 -4 8 -3 11 -3 11 11 -8 7 -18 0 3 -1 8 -17 -20 36 -10 21 -14 6 6 11 7 17 4 6 -7 9 14 9 -3 -3 2 5 7 -1 17 13 -12 4 7 -6 7 13 3 20 9 -4 11 9 -3 0 18 7 -7 -4 -14 24 1 3 8 4 4 3 14 -3 13 -5 9 3 3 11 9 8 -4 4 -20 -7 15 5 1 3 13 -6 17 6 14 15 4 5 -1 3 -14 4 -34 -4 3 7 3 -6 -5 -1 9 1 24 -16 13 -6 2 -5 -2 -6 6 -10 17 8 7 -23 35 3 -7 -1 8 5 -8 14 -14 6 3 32 13 7 7 -2 11 3 0 3 -14 9 5 8 1 -10 10 6 -3 8 -7 10 -19 3 -5 -12 -11 9 8 20 28 4 5 -24 3 2 17 2 9 15 -33 -15 3 -23 5 13 -3 13 7 -3 -1 24 -14 -6 8 -13 5 25 3 -10 4 14 9 -10 -4 -3 2 6 20 -8 -3 22 6 2 -7 6 7 -10 -12 3 3 17 -7 3 14 30 16 12 11 6 -26 8 -10 3 1 3 18 -3 -3 -11 -34 11 10 3 3 28 35 11 -7 3 3 3 20 -1 2 3 3 -3 7 10 6 23 2 24 7 -11 11 13 6 4 -6 1 11 12 14 -6 -30 -3 -17 17 7 -3 31 4 -2 -31 -5 -3 1 -3 6 -22 7 -14 23 -10 10 4 14 15 25 5 1 8 -11 -7 21 16 -18 4 -28 -1 -6 6 4 14 -3 31 -28 13 6 5 -2 6 15 7 -7 15 -21 22 0 -13 12 7 8 2 -5 6 -17 -11 -3 1 -2 -18 18 7 1 -3 4 6 4 3 -14 -9 14 11 11 24 3 8 -18 17 -6 28 -5 24 -3 14 -3 7 0 14 3 10 -9 -17 10 20 3 17 12 -10 3 -3 11 0 12 -10 -14 11 3 6 4 17 17 6 -7 5 11 -15 31 -5 -1 24 -14 9 -22 22 -3 7 28 -1 8 13 22 -2 12 -19 3 7 -4 18 6 4 2 -3 20 23 4 -2 7 -5 -6 -3 16 9 -7 35 2 4 22 10 10 5 10 7 -10 7 21 10 -13 17 2 -1 -15 8 7 -8 -7 13 8 13 9 20 5 14 8 2 6 13 -17 4 9 9 -3 -7 20 -6 11 1 14 14 5 21 8 -4 6 -11 7 6 -7 7 12 7 20 3 -15 -5 17 10 3 6 25 -10 -11 8 -3 -3 -1 -6 14 7 2 7 17 12 -17 -18 -10 27 -3 7 -7 8 18 3 9 -15 5 -7 -18 21 13 19 -6 -18 3 12 -16 5 20 3 -14 3 -10 7 3 1 3 5 9 6 -3 8 -3 6 -19 17 20 -10 3 19 3 -26 2 18 6 -1 -4 -10 23 2 25 -14 -3 -2 20 -13 17 3 -9 15 -11 14 13 3 11 -7 7 -6 -17 6 -5 -16 -11 6 -9 -11 13 -3 3 -9 7 2 3 21 5 1 -7 13 17 5 14 -8 6 8 -11 1 -21 -6 -15 -22 7 3 2 2 -7 3 -5 -3 -6 17 15 -3 6 3 8 14 7 6 3 16 13 5 -13 -4 3 3 -10 -6 3 2 -4 7 6 10 7 20 5 6 2 -1 11 -7 3 8 3 -21 -2 14 7 11 28 7 -14 3 7 6 17 -3 -1 -17 18 26 23 -4 2 17 3 28 15 11 11 -32 -10 14 -23 -1 -3 6 7 -3 9 3 -15 -30 8 -12 -6 7 -1 6 3 -14 11 23 28 17 13 14 -3 -1 -3 14 11 7 6 8 8 -8 14 10 14 3 19 13 6 5 15 -6 30 -12 -6 17 -1 26 -7 15 5 13 -6 3 -5 14 14 6 -10 10 15 -7 4 19 -2 10 -21 5 -7 4 6 -24 4 -17 -11 0 3 23 27 -19 -18 24 19 -6 -8 2 3 7 6 3 -5 29 -3 4 -1 0 -3 18 6 17 2 20 11 -3 3 8 5 -14 -7 20 -15 15 3 -3 27 12 7 5 5 -4 12 4 3 -3 4 -5 11 6 11 1 4 -8 -11 23 -16 4 11 -2 -20 4 7 -9 -2 28 -4 7 -6 16 -11 -3 7 -5 19 20 -17 5 7 -5 7 3 -4 9 -26 24 6 -2 -16 10 18 10 9 8 -4 13 -1 23 3 9 -7 4 -20 -7 1 8 2 3 18 5 6 -15 -6 -12 3 18 15 1 -25 33 -3 5 5 -8 1 3 25 3 4 0 35 10 5 -3 -10 11 -13 7 14 13 25 -16 -5 16 -1 11 24 36 -6 5 13 19 -5 8 4 14 15 -6 10 3 3 12 3 -12 -7 14 -18 -16 3 3 20 -7 3 3 -3 8 -6 -4 12 6 -24 26 -8 14 -3 -3 -4 3 3 1 8 8 -12 8 -8 13 15 14 -3 7 -11 24 -6 21 4 2 -27 8 17 -19 11 9 6 4 -8 -13 18 10 -7 10 9 35 3 6 28 3 4 -6 6 -9 -12 5 -9 -14 -5 3 6 20 23 13 9 -8 3 -10 -3 17 11 17 11 8 5 3 15 -3 6 -2 -2 -2 -23 17 22 -11 3 -3 6 -3 9 4 2 8 1 3 6 5 30 -13 -13 -6 -3 2 11 13 23 32 6 13 12 -6 7 10 -6 13 4 3 9 14 8 -6 12 3 1 3 -18 10 -20 17 4 6 11 1 -3 -20 7 5 6 -14 4 -3 -2 -8 -8 -4 -3 20 -7 -6 22 8 8 -3 25 7 -4 -35 23 11 17 -6 -26 -7 -6 -17 11 -25 9 2 9 6 -3 14 11 -7 5 18 3 -4 11 2 26 3 26 3 -3 18 -2 8 -4 -14 13 -18 21 6 -16 13 17 -14 7 21 -2 -6 12 4 -3 8 19 12 -3 -3 -10 -23 -2 21 -8 -16 2 4 11 -21 -6 -12 11 7 11 7 17 4 22 25 15 3 18 4 3 6 7 -7 -17 21 -2 6 6 4 6 6 8 -10 10 6 8 3 -7 6 0 3 10 20 9 10 -18 -14 5 27 -3 21 2 -3 -4 -2 11 15 9 -19 23 1 16 8 -14 16 22 10 14 3 13 21 -6 3 -13 24 -10 8 -10 -4 -2 7 -17 12 3 -4 28 5 -5 -5 10 1 4 8 14 10 -9 14 -3 -3 -11 -1 14 6 21 -5 5 14 -4 -9 -8 -3 10 6 8 14 9 3 13 -3 23 -3 12 26 -2 -18 11 -7 3 16 -3 10 -3 -7 17 -8 41 -14 -10 3 -19 11 8 9 -6 4 7 2 -18 9 3 5 3 14 -9 11 -5 -6 -11 6 16 8 1 6 4 10 18 -7 -5 6 14 1 4 13 4 -6 -6 27 -6 1 2 -9 11 28 5 26 10 4 18 1 -25 14 -7 20 -1 3 14 3 -5 6 3 24 6 17 6 1 -1 6 8 14 33 15 6 -7 8 -1 -4 -7 19 -11 10 14 -18 -2 -4 23 39 31 10 -8 -5 -18 -2 -12 7 37 -2 -3 10 -8 -13 10 -17 -5 10 2 -7 -12 10 23 26 4 12 6 -1 7 3 6 15 -20 10 16 3 -4 -2 19 7 -4 13 -5 7 -5 20 2 -1 -8 1 -3 8 -7 15 3 -14 35 29 -6 -2 3 17 8 4 -10 8 3 14 6 -6 6 7 6 -3 -10 -6 -10 10 6 -6 -6 5 -26 12 10 -6 6 16 -25 13 4 3 -17 3 14 7 32 17 -18 1 14 -16 3 -21 -13 6 -3 -2 -11 2 10 11 9 15 6 5 6 21 10 -19 14 -23 27 10 14 -5 -8 -11 3 22 7 -16 14 -1 3 6 8 19 10 -3 -2 2 -10 -1 37 -3 -5 -13 9 3 5 -10 3 10 17 6 17 -14 -9 4 17 15 2 5 36 11 1 24 10 -24 3 4 3 3 12 -5 6 -11 -5 -3 10 -9 3 11 -6 14 2 3 11 16 -4 9 -27 -1 -6 -13 5 3 -13 9 6 -10 3 18 7 7 -4 -7 4 29 3 18 26 10 7 10 8 -2 3 4 10 5 19 6 -4 -6 14 -3 -6 -3 13 -9 1 -18 -3 24 17 6 -3 -14 10 -2 0 10 23 7 -3 -3 5 7 -22 -11 4 1 3 -20 13 6 28 17 -7 -10 13 17 3 -12 -1 -7 -13 4 -18 6 2 7 4 4 3 3 9 22 -12 -6 -5 -5 5 -4 3 -3 -11 14 8 14 8 -6 2 5 -17 21 -22 -7 8 16 9 7 20 -7 3 -6 17 38 -7 -17 2 13 5 -6 -3 -22 26 -4 -3 6 -3 -15 -3 3 3 -4 4 2 3 -25 3 3 8 -18 4 15 14 3 2 2 6 14 19 6 -8 -3 8 9 -29 14 -15 5 3 3 -3 -22 -17 -3 -10 4 -13 13 -6 7 10 -3 11 18 4 0 -9 5 7 24 11 19 9 5 18 18 6 22 3 -12 -13 3 11 12 -17 3 -13 -1 1 35 7 7 2 31 -3 -21 15 1 -6 -1 19 19 6 0 19 17 -27 6 13 -12 2 -14 0 5 11 10 -3 7 20 -11 15 -16 18 -16 2 7 19 -11 35 3 19 14 7 7 -10 1 7 7 14 -2 -7 -2 8 6 -22 7 -14 10 -2 7 7 14 27 2 11 17 -7 10 1 -3 -16 5 -2 -3 9 11 7 30 16 -4 -6 12 6 -3 7 14 7 -7 7 24 8 10 22 25 -6 20 -3 -12 17 -11 3 24 -2 7 10 7 -10 -10 21 6 -6 -1 18 7 2 3 7 9 -9 5 -19 12 3 -13 -13 4 1 7 14 2 -18 17 8 2 -6 -4 -4 -13 -4 -3 3 24 15 -7 15 6 14 13 1 7 8 4 6 18 35 -8 -9 2 -20 3 12 -3 -7 -17 -12 1 6 14 -21 28 -7 7 -3 4 27 14 19 20 -7 4 10 33 -3 -7 30 3 7 2 7 7 7 21 13 16 21 -7 11 6 14 -11 25 21 -3 14 -1 0 28 3 17 -14 7 -11 -3 -20 8 7 17 7 -29 22 4 3 7 3 -15 0 6 5 -4 7 -21 10 -6 9 8 -3 -3 9 3 3 7 10 8 23 7 -3 4 3 -4 4 24 -2 -4 8 14 17 1 38 -7 -1 -10 1 -13 -30 -13 -11 -4 -7 -3 -6 4 9 11 -5 -9 18 3 -22 2 -3 4 14 8 -5 11 17 8 3 14 23 -7 8 7 -3 11 -21 -13 -2 -17 15 17 7 7 -7 -3 5 15 -6 13 -3 -2 -9 1 4 8 6 9 -17 -3 -14 14 8 25 17 20 1 3 3 13 2 10 7 9 -7 -9 15 -10 16 7 -4 21 -10 1 -21 24 -2 20 -3 17 7 -7 -7 -5 1 14 2 3 18 6 -4 -2 10 20 15 11 16 -3 6 -10 9 -20 31 -7 10 5 26 -3 -7 -3 3 -26 24 16 -4 -1 7 8 11 18 0 -14 28 3 -24 5 4 -17 -15 -2 -11 16 -3 3 11 5 -14 11 21 -1 5 13 15 31 3 6 0 0 34 7 23 8 -15 -15 2 10 14 -6 -21 -9 3 -5 -21 6 -23 -19 12 4 6 -7 -8 10 9 20 4 14 7 -11 -1 17 8 7 7 -5 6 23 7 24 4 18 4 -9 35 4 33 -19 -4 -17 -3 -7 6 29 2 -9 8 -4 12 -21 -3 -4 3 17 -6 18 14 -33 -3 -4 12 11 7 18 5 5 6 -3 8 -5 6 -1 8 11 18 10 30 13 17 15 39 -4 -6 3 -10 -20 11 -6 3 8 15 7 -6 5 3 5 5 1 6 27 7 3 6 -15 -8 -3 21 5 -7 -3 32 8 -23 34 2 7 2 3 1 -7 18 -21 1 -12 -4 -6 17 -22 31 7 5 -3 14 18 1 13 17 2 3 -7 -5 10 3 -4 -4 5 9 27 13 6 3 15 2 5 19 -5 13 -8 18 2 15 -4 9 -17 -3 6 -12 4 11 -3 18 9 -9 1 32 3 -18 12 4 6 -7 -3 -17 -19 7 -13 3 6 12 3 11 -8 -3 -7 12 -3 6 -14 2 4 10 15 -3 -17 12 -1 17 6 -3 -3 15 -5 3 31 8 6 16 -8 13 -4 3 -6 1 1 10 17 2 24 11 18 8 -31 -10 -20 24 38 -5 -15 -3 14 3 40 -7 30 18 9 4 -12 -19 -10 14 16 -3 1 3 -11 28 21 21 7 -10 -14 -3 -26 12 2 3 22 -3 6 -3 10 27 -6 1 10 4 15 -8 9 -18 13 15 18 21 2 22 22 2 13 13 -33 -11 -16 28 6 29 12 13 -2 14 22 2 5 14 21 -3 -18 -3 -1 2 7 11 -8 -3 27 -10 17 17 18 -10 3 10 17 -6 -7 15 -4 -4 6 3 3 28 6 0 11 -3 1 11 19 -10 11 17 -15 3 3 3 -2 13 -7 -27 -14 -6 -18 -15 14 -6 -3 -3 1 8 26 0 -8 10 -2 1 -14 27 10 16 -3 -25 8 27 6 4 0 -5 -6 7 26 -8 6 6 10 -12 5 -9 -16 -3 19 -8 7 -13 14 21 -5 12 10 5 4 13 3 13 -4 5 6 -3 17 11 28 9 2 -3 -37 10 -6 8 -3 3 -3 -2 8 5 11 9 3 8 15 -5 5 -8 4 -14 4 -31 -18 24 -8 -3 -4 11 3 5 -5 14 17 6 15 7 -1 10 -5 -3 0 5 1 2 -8 11 4 -3 3 7 -17 8 -9 13 16 4 6 23 -3 18 -1 13 -10 -12 13 -6 6 12 -3 8 -14 -4 4 2 -7 3 -5 -10 -18 -4 26 16 -3 5 2 -3 7 -3 11 -1 14 3 2 -7 -5 -4 -3 -6 3 11 -11 0 6 7 17 -18 8 8 7 -18 7 13 10 3 3 11 -9 -3 14 10 -8 -21 -21 4 -2 32 5 -4 -4 -3 -6 -3 -6 3 10 -3 34 15 -21 15 19 -18 -2 3 -10 -3 29 7 9 3 19 8 -4 -9 -4 3 -12 -9 -5 16 6 2 10 7 -7 2 -14 26 -12 -7 10 3 7 6 2 -4 -6 5 6 14 14 -6 -4 -1 12 6 19 3 -4 13 5 3 10 10 13 -17 -19 2 7 18 15 -12 3 -17 10 -3 15 -6 13 18 22 27 6 17 6 9 3 -10 3 -5 -10 19 -3 5 9 10 4 -14 3 3 -7 -9 0 13 0 3 11 14 -7 -7 4 11 -2 10 -10 11 8 17 2 -5 -7 -13 7 15 -9 -13 -3 -13 -21 10 4 6 38 18 22 13 -3 14 -8 -13 12 17 5 11 -13 3 6 15 -1 10 7 1 11 6 3 4 6 3 -3 15 13 7 10 8 37 17 -28 8 27 16 6 24 13 3 6 8 -1 6 8 -6 2 15 -7 5 -3 1 26 -12 3 6 6 -20 11 -4 3 -11 -3 -30 21 14 13 3 -4 20 -1 -19 -11 16 -9 -12 -2 -3 15 -6 -11 6 11 -4 8 5 4 5 -22 -3 -6 -1 -1 -19 6 17 8 17 -8 5 11 16 24 5 25 2 8 -8 3 7 13 3 -9 12 -15 21 -20 -11 13 8 3 -11 22 -6 12 6 -1 2 -17 15 -3 8 -7 12 7 -2 -7 6 1 14 -2 -6 2 5 7 4 6 -5 7 4 15 11 31 10 -4 -6 -3 16 31 7 8 33 1 10 -19 11 -10 8 -1 10 6 1 3 3 3 20 7 -1 10 -2 3 11 24 -3 16 25 -4 8 29 -4 -3 3 2 1 17 11 14 -3 -14 6 4 4 22 -3 14 13 -5 11 3 8 -22 1 14 31 48 -18 -4 3 7 8 -12 -17 18 3 7 -3 17 14 -7 -4 -5 -4 6 2 6 2 10 -18 7 10 3 -5 18 7 24 -1 3 -5 18 -3 1 11 -12 17 3 3 6 -23 -14 6 1 7 6 1 21 -10 9 7 -1 -1 4 23 -12 -3 -7 3 24 1 31 -3 8 4 -10 4 13 10 4 -27 8 7 3 -8 -20 7 6 8 14 -7 3 7 4 -6 2 24 7 7 10 10 8 12 -36 -3 -7 -25 -2 13 -7 -13 8 -5 -7 11 -3 7 -3 8 24 18 -1 5 -17 25 2 -2 15 5 10 31 12 13 -18 10 -2 20 10 13 -10 27 17 -11 19 3 -7 -12 -2 -5 7 -37 18 2 -3 22 -3 6 -20 12 -27 -8 -6 28 -10 9 22 21 15 10 -12 7 -6 -10 23 -21 -21 -1 -4 -10 1 22 3 4 19 6 4 8 3 18 7 6 13 -10 6 -6 23 -17 -10 34 -7 11 17 23 3 10 14 16 9 -3 30 8 11 3 -1 20 -18 21 -12 -3 -22 -3 16 6 -14 -5 -8 8 14 18 15 5 3 13 18 14 -5 -13 10 -10 17 31 4 26 17 -11 12 6 8 8 14 2 5 -4 15 -13 10 -1 8 -20 -1 8 10 18 16 15 5 5 -8 -20 14 18 6 7 12 11 7 -7 1 21 17 7 32 -3 27 14 7 11 -14 -8 14 -3 4 -6 -3 3 8 14 -3 -3 3 14 11 13 9 3 -4 2 -7 -2 6 30 7 -11 -12 7 -3 15 18 -2 35 20 -7 -26 6 18 5 -4 10 -13 -4 23 2 -6 -6 -3 3 13 -17 -3 11 -27 -3 17 -11 -3 14 -3 21 10 -14 6 21 3 -6 15 14 4 0 -10 -6 17 10 16 5 16 6 10 -15 7 17 -10 22 -4 3 12 10 6 5 -29 9 3 5 12 -11 -8 7 7 -7 11 -7 -7 25 -3 13 1 26 -10 14 13 14 23 3 8 -13 -3 8 5 3 4 3 5 -10 2 -7 7 -3 -17 10 6 3 14 3 -21 37 -7 16 20 -6 -10 7 19 -7 -6 3 -7 12 7 11 -1 4 3 -14 -28 14 25 -2 -13 -3 19 5 -7 4 35 10 13 30 -3 3 -25 -10 -24 19 3 -3 -4 3 24 -11 6 6 1 19 -3 -8 -19 3 10 3 -7 -3 14 -10 2 -5 7 8 25 -15 -5 -17 19 -8 16 3 8 3 14 6 -1 17 -3 16 -1 13 -2 7 6 -26 -5 7 20 13 15 5 -1 4 -7 -15 -9 5 -11 3 -3 9 16 20 5 -7 15 23 8 -7 15 -14 3 3 17 3 15 3 -4 24 4 7 10 -9 28 -8 14 -3 17 11 6 -2 15 13 19 7 -24 9 23 6 17 7 -9 -21 -3 1 3 -7 -7 8 7 4 -2 3 4 -2 6 -21 7 10 -7 17 -9 5 14 18 -4 -5 1 -9 19 19 -10 -6 17 6 1 25 24 -11 4 -3 1 17 15 -7 10 0 -7 17 -3 4 6 -17 -3 9 -20 4 3 -14 2 12 -3 -3 4 -11 -6 -9 1 -29 -4 -2 -25 6 -3 3 2 14 22 13 10 -10 -1 34 17 14 -5 23 11 18 23 11 24 3 -9 7 -1 -4 21 -3 -16 29 11 3 -6 3 -14 33 9 3 9 -1 7 10 -18 7 -3 4 4 17 1 13 -3 -5 11 18 -12 3 -5 20 5 24 -13 3 25 22 14 9 21 10 12 28 8 6 28 10 -1 -27 -17 10 6 2 4 -2 17 15 20 6 11 20 7 -21 3 -9 17 15 11 3 13 1 4 27 -14 -2 18 -7 3 -3 14 14 14 8 17 3 8 6 8 -11 3 -7 -17 27 17 -6 -1 -18 -11 3 1 -9 -10 9 -3 21 5 6 -14 2 20 -2 10 4 17 -2 -1 -11 25 8 -1 6 9 -3 -2 6 20 6 7 6 -3 16 5 13 -4 14 11 6 -1 9 -2 -20 15 -21 -4 17 -6 3 -6 11 10 6 -5 2 -4 3 3 -7 10 -13 10 -17 3 -3 17 -12 15 10 15 -13 16 29 6 15 3 28 -5 -11 -20 -4 9 13 3 15 15 17 -7 -9 5 7 3 5 -12 2 18 8 -2 4 10 20 -9 24 -11 -4 35 3 17 -10 23 3 -14 -5 11 -4 15 7 11 24 3 3 3 5 -3 5 -4 21 -10 10 3 14 -7 6 1 -31 6 14 -14 -9 10 10 7 -5 5 17 2 -13 14 2 -4 14 3 2 15 21 7 -5 12 13 3 -7 28 3 -3 -9 0 4 -11 2 -9 -2 3 7 5 6 -3 -2 6 15 3 6 -2 11 -30 4 17 11 3 6 -19 -6 -12 0 3 -8 32 1 7 12 -15 -10 -3 -7 11 -9 17 17 6 14 -13 7 -14 -7 1 6 4 -14 -4 3 17 -3 10 21 4 4 7 15 1 17 1 9 -14 10 -7 7 3 6 17 -3 -12 11 10 -16 25 8 -30 7 -3 28 6 13 -3 2 -5 -1 23 3 9 -3 12 4 -11 28 28 8 1 6 -10 7 3 -17 14 5 4 18 1 8 -30 10 -10 -3 8 -12 5 15 25 3 22 18 -6 -4 -2 -3 23 -5 -11 3 -6 7 -11 23 6 -6 3 13 4 6 17 -3 5 17 -3 4 17 1 -3 -6 11 15 11 12 4 -3 -2 20 20 28 -9 -4 3 -6 -3 13 6 3 6 8 18 -12 3 -3 16 14 -9 3 -4 13 -4 20 33 -6 -5 9 13 21 3 19 7 -16 3 12 -7 3 3 5 -3 -2 -21 -3 -13 -13 3 7 -11 23 -3 -14 9 13 21 2 -5 -2 -8 -19 13 -19 -6 6 7 18 6 18 -4 -7 26 -17 5 14 15 19 19 10 -9 -6 -13 3 32 8 14 -8 10 35 13 8 20 7 1 8 23 14 21</t>
+  </si>
+  <si>
+    <t>F(1098.9181188565778, 59836.67537580684, -205.24102250671098, 246.19356279480905)</t>
+  </si>
+  <si>
+    <t>29 52 38 62 30 51 33 51 35 33 46 44 42 33 63 35 37 48 55 46 67 33 49 32 42 34 55 40 39 29 36 48 37 20 56 19 19 53 31 30 26 56 46 20 43 55 62 47 38 34 51 30 42 40 37 45 23 44 59 36 45 57 48 46 42 53 29 37 43 34 28 33 30 31 33 44 39 41 59 50 42 29 22 24 40 33 29 44 37 37 43 66 50 43 23 60 31 51 40 42 32 49 48 44 57 33 38 46 43 39 40 34 24 26 20 29 55 47 43 51 35 32 30 17 29 27 47 46 37 24 38 49 42 57 50 51 39 54 51 23 38 43 19 54 53 35 19 49 37 37 26 16 54 60 44 31 23 48 31 44 47 41 40 28 48 33 45 46 35 40 44 37 47 35 34 37 41 62 55 42 62 43 29 41 37 16 40 33 36 49 23 61 23 39 42 58 50 52 41 50 37 44 36 27 46 47 48 48 37 49 23 37 34 40 17 36 44 43 41 20 30 35 50 37 38 29 33 52 45 41 88 34 33 60 39 57 47 57 47 41 47 40 36 46 55 31 41 34 43 23 38 41 31 33 40 52 49 50 51 39 40 19 45 45 40 38 27 36 47 42 37 53 48 33 50 27 58 26 35 51 51 48 43 35 50 31 44 30 41 48 33 24 40 42 32 43 29 42 37 42 27 30 39 41 26 51 46 51 51 26 33 32 21 44 27 51 44 39 23 41 41 23 53 34 36 46 44 48 51 33 40 33 53 46 49 26 51 54 23 30 37 38 50 37 46 35 47 49 48 32 37 40 45 31 34 53 37 51 45 26 58 27 42 39 31 33 44 40 32 54 49 49 38 55 61 44 46 40 40 53 33 37 43 23 39 24 47 53 43 51 43 64 44 30 30 22 23 45 31 40 46 25 23 51 43 15 47 27 48 37 44 55 44 43 42 51 51 31 55 39 60 37 37 52 36 63 74 34 66 40 65 42 46 13 33 47 44 37 39 26 36 40 52 33 29 32 35 43 37 37 36 51 48 30 23 38 49 33 49 27 41 39 46 34 37 47 41 44 44 36 44 49 50 54 68 51 53 38 45 53 41 35 41 49 36 41 57 40 37 43 40 57 39 27 54 26 43 43 25 43 46 55 37 44 30 54 37 43 62 26 47 45 51 51 37 33 47 19 41 47 44 30 34 40 52 45 40 42 51 45 34 46 31 39 40 50 50 57 47 74 60 42 34 44 33 40 28 31 34 47 44 31 36 55 65 46 30 45 30 27 43 39 49 41 36 47 16 46 49 48 56 36 34 58 51 44 55 41 38 27 34 41 36 55 54 38 48 55 10 27 50 46 33 41 30 62 39 25 58 51 58 45 45 27 59 59 43 37 30 59 65 25 45 28 41 29 50 45 43 44 27 44 44 34 51 33 39 27 44 59 27 45 48 43 42 48 34 37 41 37 51 25 47 51 49 26 30 41 33 45 54 49 56 43 39 20 52 42 37 38 43 37 17 33 39 46 40 56 46 33 47 45 52 37 24 44 32 40 24 48 33 51 44 32 35 49 43 46 25 29 22 48 49 31 53 45 43 44 25 47 54 30 46 45 37 46 24 30 57 28 51 51 44 34 44 57 50 30 40 38 32 44 49 50 42 43 37 44 34 54 45 36 47 37 42 36 38 45 47 37 34 59 37 26 51 32 40 37 58 38 41 33 51 25 44 20 46 47 23 43 54 67 23 30 36 40 29 59 45 36 45 51 52 18 39 31 44 53 54 31 63 45 41 47 37 46 31 27 40 45 45 32 43 44 29 44 40 21 25 54 43 30 40 52 37 38 38 51 22 47 51 25 33 47 45 23 25 38 26 44 40 38 62 35 38 39 31 25 33 33 47 43 32 37 44 50 52 55 57 40 47 35 19 33 43 44 53 29 43 37 56 41 51 31 36 41 54 19 54 34 43 41 41 31 56 42 23 41 39 48 36 40 40 40 36 33 38 43 47 71 63 35 49 39 28 39 54 38 29 50 50 39 27 47 40 46 62 37 47 38 43 29 43 31 37 41 34 35 30 43 40 32 45 12 37 27 55 37 36 53 40 39 27 54 45 53 12 54 33 33 43 37 41 29 19 37 42 53 34 13 37 32 65 33 43 34 47 35 46 46 57 36 37 44 55 45 30 34 37 52 43 22 53 43 38 39 41 51 34 35 45 27 36 26 22 44 37 55 29 39 48 35 37 40 50 44 51 37 26 40 25 43 56 57 59 38 38 35 53 53 23 33 44 37 63 29 22 44 57 35 51 69 66 31 45 63 23 47 42 45 33 58 53 34 37 34 47 55 45 58 26 31 45 38 57 33 48 22 59 45 35 53 55 35 46 47 51 36 47 39 32 45 41 48 49 50 54 43 41 44 37 36 38 40 29 47 46 37 30 31 27 61 50 60 53 43 60 60 31 43 38 31 52 47 48 50 51 55 50 37 37 46 41 37 28 49 44 38 42 29 42 46 48 37 44 56 36 38 27 30 38 35 41 37 35 31 36 30 42 28 48 44 25 37 67 46 52 51 51 37 51 48 35 35 47 41 27 17 56 20 55 51 36 53 33 29 20 37 40 37 39 42 34 38 48 51 30 19 29 57 36 49 44 40 45 71 42 53 47 25 39 41 38 37 34 37 55 39 37 55 48 57 12 48 35 48 54 51 60 40 44 37 50 35 43 60 32 32 37 36 37 53 40 41 34 38 30 33 41 19 44 39 40 33 40 44 43 33 38 63 41 38 26 70 23 43 20 30 59 33 26 30 37 40 53 39 65 48 36 50 33 27 41 39 36 45 38 43 51 38 31 55 44 37 51 24 48 49 28 30 46 41 39 55 36 49 24 28 51 59 39 12 36 26 37 41 48 53 47 36 38 31 20 50 56 49 26 49 64 61 41 43 55 44 60 64 49 41 35 55 43 41 33 53 39 57 35 45 49 43 44 52 45 46 54 32 33 57 40 41 38 40 40 36 47 33 56 40 24 26 42 37 53 30 32 45 58 40 48 41 44 44 27 47 29 36 37 46 46 52 37 31 37 51 26 60 40 19 44 16 35 41 47 23 43 39 39 24 37 41 31 16 30 47 39 30 33 40 48 22 35 48 42 43 51 54 44 41 43 33 49 44 59 33 41 48 58 27 34 45 30 32 50 47 30 37 37 46 57 39 47 45 36 32 51 46 40 47 46 45 44 29 22 36 27 40 54 29 41 28 40 38 49 45 23 51 30 42 43 51 40 47 54 44 36 21 34 47 29 46 58 30 41 47 38 23 33 41 23 52 34 54 20 37 42 44 42 49 47 62 43 40 41 46 37 61 30 32 38 49 41 47 39 39 41 42 50 34 48 29 43 29 33 51 49 39 34 52 13 39 42 55 54 55 43 33 51 29 47 50 71 30 36 42 36 40 39 30 27 57 41 30 43 51 40 35 39 52 51 33 47 65 33 29 36 54 48 57 37 48 43 61 15 55 45 44 51 48 41 59 29 36 40 59 33 36 51 50 19 55 39 37 30 37 48 36 44 43 48 27 41 19 43 43 60 44 40 27 19 55 43 55 48 33 41 41 54 26 26 26 36 29 38 17 33 36 26 43 53 20 32 37 27 30 45 33 30 40 42 33 42 52 56 29 44 39 30 37 55 13 35 46 51 43 37 44 48 38 47 23 32 41 36 34 50 48 45 44 41 57 40 47 45 18 32 54 38 59 43 31 61 32 52 26 32 27 30 40 38 37 30 34 39 43 33 34 33 39 33 48 22 49 45 68 47 61 42 38 38 40 59 39 41 49 42 45 41 53 20 37 37 54 53 54 39 36 31 42 49 41 48 47 42 39 38 44 36 16 41 36 28 45 52 45 40 52 47 58 44 44 37 49 58 48 33 69 33 55 38 42 41 40 45 25 54 51 47 30 47 41 54 35 30 50 26 48 46 60 33 37 43 27 39 29 39 49 33 40 55 45 53 71 32 51 18 30 35 38 39 19 45 64 45 35 44 44 29 30 33 52 34 27 52 33 32 57 23 29 57 34 33 27 47 40 20 39 37 33 44 47 36 13 45 28 34 43 41 63 64 35 46 34 36 44 58 30 37 45 54 38 31 46 30 56 43 44 50 46 31 36 36 41 30 49 45 39 65 25 33 38 54 34 31 30 46 54 32 47 42 37 29 40 37 23 51 42 36 23 36 29 40 34 43 22 26 56 43 40 45 37 23 41 42 34 44 39 57 34 48 19 43 65 48 52 33 40 22 52 44 37 33 34 50 51 51 45 41 45 60 21 27 26 53 29 38 37 30 26 30 40 41 45 34 43 43 36 55 46 40 27 16 31 33 47 58 20 62 31 69 33 23 55 52 49 30 34 20 60 38 43 41 41 37 39 43 41 32 43 37 39 36 44 42 36 38 28 37 28 42 52 30 40 37 25 47 47 36 33 36 23 43 27 50 51 23 59 50 48 53 60 53 37 68 46 43 54 43 44 26 46 33 33 20 34 35 65 29 44 46 39 44 44 34 45 48 45 63 50 61 54 39 36 40 43 43 30 39 25 44 35 33 22 52 44 38 40 26 31 46 40 30 19 64 26 22 37 32 40 29 30 41 36 48 48 48 30 45 40 31 61 41 45 38 55 43 44 56 26 42 38 52 37 40 63 40 12 49 33 48 50 34 30 51 43 45 34 45 29 46 40 46 50 45 30 30 46 32 51 21 32 44 24 33 17 28 35 36 39 63 39 44 43 48 49 34 30 63 64 47 42 44 49 53 49 39 43 47 55 42 40 49 46 39 41 39 59 34 37 43 19 22 47 28 31 48 45 43 51 27 42 28 19 24 37 31 46 27 37 36 40 34 33 48 41 32 44 24 65 33 65 45 45 45 20 35 40 44 17 51 44 37 35 34 62 34 52 41 34 48 27 56 34 37 45 46 36 42 28 52 37 38 40 27 45 47 41 53 23 40 51 22 31 33 39 60 46 22 34 64 44 40 30 30 37 42 30 38 55 32 46 42 29 38 58 45 51 60 25 41 51 28 35 40 39 32 43 37 43 22 39 33 43 41 28 34 25 25 47 36 16 26 33 20 40 34 37 30 55 44 51 34 41 26 40 41 40 31 65 65 31 33 37 38 47 44 53 44 43 29 45 40 33 37 20 29 51 39 33 42 57 48 51 65 52 40 31 40 59 43 28 62 40 44 43 47 54 38 44 43 39 55 36 54 50 26 40 41 32 46 36 23 53 36 37 37 47 36 36 27 18 38 31 28 53 63 35 33 39 60 56 51 41 50 37 40 61 26 41 37 51 40 36 44 58 23 30 55 50 42 41 58 44 31 41 29 51 39 33 36 28 31 61 25 28 41 40 45 58 41 53 40 34 58 39 37 38 51 35 34 58 37 55 45 42 45 46 33 46 20 58 40 23 37 59 47 38 43 43 32 73 61 24 50 7 27 40 29 45 48 36 40 30 19 47 52 30 38 49 34 48 59 46 25 50 33 51 30 41 45 41 33 29 59 40 26 31 43 50 47 24 48 46 57 29 38 37 31 51 45 34 36 36 40 29 53 29 46 49 27 41 37 34 37 49 53 43 48 34 68 26 43 22 45 76 61 43 46 24 48 48 51 44 26 37 39 52 52 27 47 37 42 36 53 58 35 37 44 44 40 41 19 22 39 40 34 39 59 49 19 58 29 49 46 45 61 37 38 39 27 41 29 42 48 38 50 43 37 47 33 27 37 39 35 45 51 35 55 48 37 36 23 50 49 36 32 53 42 34 38 45 39 44 52 46 42 51 27 34 40 53 37 49 30 26 51 56 44 53 45 73 30 23 40 27 61 37 40 54 61 54 50 27 48 52 48 48 23 22 43 43 43 44 45 60 51 36 34 34 39 51 29 35 48 40 30 29 45 69 41 47 52 37 45 38 26 42 41 33 66 50 48 33 37 43 50 39 53 48 37 60 51 33 32 54 20 54 29 30 33 45 43 29 36 44 30 47 45 28 37 52 41 47 26 48 42 30 72 51 47 48 45 49 45 51 54 40 41 39 37 61 54 50 50 38 46 33 41 37 36 55 33 47 35 62 45 33 28 44 46 33 34 46 30 27 31 61 37 42 28 39 44 35 41 26 33 21 37 37 42 43 25 40 43 33 41 16 36 27 43 30 50 41 40 60 54 30 37 59 34 50 51 38 24 19 54 43 37 31 32 56 52 34 45 37 60 47 51 44 62 36 55 25 33 40 61 45 30 32 26 51 45 36 61 21 49 48 26 55 43 19 39 48 43 35 19 70 49 43 35 51 33 29 44 36 59 33 41 43 23 35 32 45 34 39 57 31 41 48 33 46 32 49 26 33 33 40 46 35 28 31 51 43 43 40 27 60 34 47 44 34 29 65 37 41 41 29 13 50 30 37 28 9 42 35 37 44 50 46 29 29 44 37 24 51 46 47 51 21 37 45 50 30 35 48 43 55 47 41 47 30 43 25 24 33 40 51 47 37 52 59 59 37 62 54 58 25 45 49 24 33 43 48 43 45 31 29 49 48 26 39 33 27 35 40 33 41 60 45 33 35 43 51 43 47 42 41 39 35 28 58 31 23 37 47 33 55 39 51 31 54 37 29 41 50 40 26 39 41 28 48 47 49 35 39 44 42 57 38 39 36 24 26 30 51 25 39 22 32 57 39 25 65 30 55 52 40 51 36 37 27 48 33 33 31 54 24 64 50 44 31 30 47 34 48 45 38 33 42 51 33 46 43 49 33 57 54 48 45 56 47 26 59 34 46 45 35 40 36 31 30 43 38 29 25 44 40 44 31 54 36 45 42 37 29 20 51 30 49 38 40 29 52 37 27 39 31 45 55 37 40 34 50 36 35 41 44 34 45 53 29 29 50 50 28 22 41 55 26 33 24 36 49 42 37 33 27 41 23 40 27 34 48 45 26 45 38 44 55 37 32 38 38 62 37 35 29 47 44 44 54 29 48 43 54 31 42 38 48 37 38 39 37 38 66 47 40 32 40 41 47 33 37 32 46 33 37 36 39 37 30 54 49 37 42 50 51 49 59 27 18 45 45 51 41 13 54 52 44 43 39 40 34 36 42 43 20 34 45 44 35 33 51 26 47 27 54 39 52 29 48 49 20 41 36 49 32 58 35 35 38 46 38 34 43 48 54 40 52 55 33 47 56 28 37 47 34 46 58 39 46 40 62 40 39 29 40 46 51 59 41 45 31 45 17 45 48 50 43 73 41 38 33 54 59 47 37 45 32 30 47 40 43 33 17 43 52 37 23 33 52 46 43 30 58 39 54 43 33 45 54 36 40 48 25 41 33 53 49 37 70 58 33 29 45 33 36 47 51 35 33 51 53 25 44 52 57 58 40 29 37 42 51 47 33 54 28 54 46 48 34 45 44 33 41 34 53 44 18 24 33 26 56 37 48 31 43 35 44 21 31 34 59 29 58 46 46 26 37 38 46 36 36 41 38 59 22 33 32 38 34 60 45 52 36 37 34 34 60 63 57 50 54 57 51 33 43 54 27 16 23 41 28 49 41 41 58 43 60 34 65 64 51 36 43 43 35 44 26 23 44 36 42 35 48 32 56 27 46 30 43 50 29 40 40 43 31 65 30 43 43 39 47 46 29 34 50 60 48 47 52 24 57 57 33 43 38 52 25 22 43 44 47 23 61 60 27 36 21 29 54 36 44 40 55 28 13 31 40 48 34 44 52 36 47 53 25 59 45 33 29 35 37 38 47 40 30 23 54 49 51 43 47 32 23 58 33 37 44 38 23 33 29 30 29 44 52 44 23 23 27 29 36 53 63 34 33 65 37 37 26 47 45 40 30 40 65 43 41 44 25 43 44 34 46 31 50 43 65 36 51 36 32 22 53 26 57 48 40 47 38 49 54 45 38 55 44 50 47 54 34 47 55 47 21 45 49 35 47 47 61 50 32 34 29 49 55 43 36 33 61 29 35 52 57 37 35 34 65 55 23 53 66 35 44 53 24 56 35 20 41 58 47 53 23 35 40 23 51 42 53 46 45 33 37 41 57 21 23 52 23 42 33 47 37 50 47 43 45 31 27 23 43 47 38 40 40 35 30 57 30 20 55 70 43 47 47 48 43 30 28 57 54 39 33 40 33 27 42 45 27 40 41 45 30 41 46 54 55 45 51 35 40 52 23 39 31 37 37 59 40 51 36 45 45 44 37 23 61 36 55 41 36 36 34 37 43 33 41 39 46 33 33 51 30 41 49 40 33 42 32 43 49 37 33 41 41 14 60 43 49 61 37 40 22 47 33 22 31 45 18 44 36 45 42 33 27 36 26 42 47 30 39 47 30 45 29 50 24 37 51 45 32 20 46 63 37 66 29 57 24 61 50 28 33 51 37 46 23 53 41 37 37 39 40 31 47 51 28 30 40 36 56 43 57 49 37 40 40 47 41 33 40 48 30 33 62 37 37 33 39 57 29 55 30 41 34 40 31 49 29 26 42 32 50 40 29 40 30 27 50 56 42 34 47 40 50 29 44 35 29 72 31 44 44 40 34 52 44 63 48 27 52 36 27 41 30 27 41 34 43 48 44 36 28 40 40 50 34 58 41 57 47 45 39 40 43 37 43 42 41 67 43 33 35 40 47 31 52 50 52 32 65 39 45 44 52 15 46 60 21 34 26 40 43 31 56 43 28 41 48 23 54 34 45 47 54 39 21 50 34 51 47 36 48 21 27 36 38 44 62 35 50 33 45 26 58 45 38 41 32 39 42 25 33 47 23 47 56 55 31 49 64 33 22 30 42 42 41 40 50 28 52 20 45 37 31 46 48 45 36 38 33 30 21 41 30 33 52 34 51 44 33 43 63 57 42 29 41 38 23 48 32 46 36 53 25 50 60 29 44 9 57 21 32 61 34 23 37 37 43 43 60 44 34 53 49 28 60 36 37 39 44 43 25 37 37 43 48 50 52 44 51 46 36 45 22 48 62 43 51 49 49 43 50 53 39 49 17 65 55 26 41 33 30 45 35 48 60 53 47 61 41 48 55 51 55 55 27 39 43 29 41 37 40 32 37 43 51 38 63 38 29 46 33 46 31 27 32 36 36 19 49 44 36 40 47 38 51 39 40 37 51 49 26 44 43 27 29 46 43 43 48 54 43 46 38 45 37 37 47 43 26 38 36 39 54 50 55 26 37 54 42 38 44 49 50 25 67 25 31 27 52 37 44 51 43 48 42 62 33 50 36 58 45 41 29 30 51 30 32 35 45 33 30 33 25 36 50 52 50 32 38 39 17 37 40 63 52 43 46 33 61 43 59 22 29 23 26 49 51 49 24 55 43 36 48 58 43 29 45 54 53 39 51 54 27 33 41 30 56 35 50 44 44 50 51 53 27 38 47 59 44 67 46 43 37 33 53 51 44 34 30 27 29 28 55 43 59 60 16 19 44 55 44 43 30 58 32 30 36 31 51 45 55 41 59 45 43 25 40 33 34 59 20 54 44 41 18 53 46 28 38 23 42 41 40 39 48 42 53 33 57 43 57 46 31 46 40 41 34 37 65 25 49 28 47 29 26 43 43 45 49 34 41 36 37 38 44 40 59 42 53 51 35 23 45 53 51 47 48 52 37 27 64 62 34 30 31 46 44 50 23 45 16 43 36 35 52 31 54 41 50 24 46 61 44 49 34 43 52 31 29 26 36 18 44 51 43 51 51 46 46 21 51 50 48 41 30 33 59 65 45 39 46 48 38 37 37 31 23 54 37 47 24 33 68 37 34 51 38 24 43 20 46 43 60 33 41 22 40 20 22 40 40 44 34 53 47 58 17 51 36 39 50 49 31 55 46 27 27 44 40 33 40 56 37 26 23 40 60 55 43 41 36 45 29 46 40 45 37 51 40 30 17 65 52 41 30 48 52 54 56 52 31 61 46 22 41 40 46 42 40 23 47 44 23 52 39 34 29 36 30 55 37 39 41 24 23 33 38 23 44 41 59 30 31 45 31 50 51 43 36 39 44 55 38 45 55 26 44 22 59 52 52 60 39 54 47 65 26 34 42 47 55 37 22 55 45 46 44 50 33 40 46 34 36 45 44 38 54 30 74 54 40 31 46 45 40 37 26 49 30 31 65 60 40 49 44 33 43 37 32 27 23 25 59 43 29 41 47 48 60 39 51 49 38 43 48 37 24 42 34 44 39 41 31 54 55 51 37 40 50 43 56 42 29 53 37 35 41 40 54 50 35 26 30 33 43 40 51 36 41 53 36 46 30 45 19 57 44 35 20 45 19 33 48 19 17 51 33 32 55 37 31 40 42 60 39 37 43 23 43 29 43 43 47 36 29 41 27 43 50 38 41 50 61 36 40 39 39 40 39 46 43 36 48 46 34 58 36 28 34 54 36 39 33 52 37 33 55 49 51 41 33 33 55 51 27 44 48 38 48 31 32 49 47 45 52 36 60 43 51 44 28 37 36 37 36 42 36 44 42 65 52 40 49 54 26 27 37 28 43 34 17 30 38 30 30 41 25 27 38 47 42 51 61 22 38 47 27 40 36 47 39 30 51 47 33 40 41 20 42 48 41 51 23 41 34 50 41 43 28 51 46 43 44 55 39 33 27 29 19 37 36 49 46 43 51 30 52 54 36 54 40 46 40 35 34 49 49 34 44 16 63 43 40 39 53 37 36 33 39 57 37 34 35 55 40 39 41 40 36 53 33 49 39 39 30 51 34 58 36 20 59 45 56 49 47 49 42 41 40 37 49 46 52 50 41 46 56 30 53 45 20 51 35 36 43 40 32 45 22 54 49 38 44 41 27 36 33 50 46 40 50 25 51 34 13 54 47 38 37 46 39 48 60 40 45 38 36 41 40 34 43 33 34 51 52 43 41 52 48 43 37 51 26 38 33 47 42 29 55 34 40 30 50 45 53 61 36 35 29 47 45 30 30 60 30 37 45 26 43 36 47 41 34 53 42 27 50 26 36 43 49 35 54 43 37 43 40 37 51 37 23 35 44 32 51 59 45 56 23 42 39 38 47 35 53 44 44 27 32 55 34 47 44 40 23 37 56 29 31 56 44 40 33 37 34 23 51 40 36 36 35 41 50 38 34 29 57 31 31 42 26 43 54 38 33 40 47 35 51 44 30 27 53 38 42 46 45 51 35 20 51 43 52 54 26 46 16 37 25 41 26 59 45 34 43 41 30 35 37 57 37 37 37 24 38 23 51 39 31 20 33 32 46 44 40 47 52 35 59 29 26 49 53 37 25 33 44 39 40 22 56 45 33 49 49 45 41 34 56 23 41 45 32 44 54 34 63 46 61 43 34 40 43 37 44 70 43 48 33 50 43 50 57 44 28 34 54 35 33 52 40 45 59 58 37 27 50 64 32 58 25 38 29 43 44 33 28 45 41 40 35 41 57 29 55 50 27 34 50 41 50 29 35 42 36 48 43 57 60 52 51 53 47 54 46 56 37 43 51 49 42 51 56 33 46 47 37 22 36 39 37 39 31 29 36 83 47 33 37 45 47 47 38 44 18 56 43 46 31 34 38 44 23 53 40 48 45 37 28 38 37 49 27 34 40 40 15 34 55 58 32 46 46 27 35 49 27 38 40 40 46 39 48 57 44 56 58 34 59 69 31 52 27 47 46 40 43 44 51 42 54 45 58 22 56 39 65 37 30 25 45 28 23 25 40 50 40 52 51 33 36 42 40 59 37 30 33 44 32 48 57 36 69 47 40 53 40 38 37 44 64 52 43 26 23 25 49 38 67 37 39 36 40 49 31 70 49 29 39 33 46 45 60 23 39 53 51 57 38 33 41 26 21 51 24 49 23 44 55 50 54 29 31 57 30 30 40 51 45 15 41 50 58 33 52 31 26 51 41 43 37 48 37 23 54 22 36 29 72 37 26 44 39 30 34 16 49 50 35 41 44 9 25 45 33 44 63 40 31 31 50 30 16 35 36 19 42 45 43 38 42 48 61 24 57 26 42 41 49 37 31 35 32 29 34 40 42 38 57 27 56 44 35 45 45 34 43 36 52 73 41 51 66 47 32 54 35 50 45 38 34 16 23 43 36 47 23 35 42 40 47 46 43 47 40 60 32 45 33 58 30 61 43 34 40 55 31 40 43 34 49 33 49 49 44 23 47 43 21 49 17 40 52 36 78 34 49 34 41 34 45 48 55 40 39 40 57 37 61 42 47 54 27 47 33 51 37 48 32 28 54 60 45 45 48 30 40 26 44 27 55 44 42 50 30 34 34 34 48 27 52 37 51 47 40 35 51 34 47 34 25 41 44 39 44 51 40 39 53 48 48 34 29 44 56 55 30 40 47 45 38 52 24 67 40 51 36 42 62 26 25 32 55 31 54 54 37 31 40 54 40 48 28 35 61 37 50 45 39 33 33 70 53 35 30 31 44 34 39 43 43 51 51 37 37 50 28 40 38 36 59 46 25 30 17 61 66 24 22 48 53 44 42 36 45 44 48 44 67 40 55 59 41 38 39 53 27 33 45 44 35 62 39 40 34 43 56 30 43 49 58 43 58 50 38 38 29 19 38 44 38 44 39 49 56 40 39 31 47 40 51 28 39 39 26 24 37 34 23 51 38 55 53 43 41 33 36 41 33 33 48 40 46 37 44 37 44 48 51 27 45 56 31 28 29 41 61 40 41 41 59 41 51 21 57 43 65 17 38 51 41 45 26 52 35 46 36 36 40 51 30 69 23 29 28 48 54 43 41 57 23 51 31 35 36 62 53 51 55 39 51 31 52 36 55 42 29 28 46 18 46 30 45 37 16 59 23 47 33 38 42 32 54 35 42 54 24 61 30 38 46 58 23 50 40 36 26 37 30 26 64 32 26 54 40 39 41 51 39 50 44 57 35 28 27 54 45 50 33 44 48 46 52 43 43 51 40 51 53 39 48 34 46 50 68 51 49 31 43 59 32 33 52 34 37 29 54 51 48 54 36 55 60 40 26 51 43 49 58 38 47 21 40 29 43 31 28 47 33 47 35 47 52 30 35 48 41 39 43 40 37 44 37 23 43 46 36 45 35 30 40 50 47 47 38 44 34 29 50 37 47 37 57 35 37 59 47 34 44 66 46 39 61 35 39 43 33 34 55 40 42 33 58 35 47 17 34 52 34 44 51 13 43 40 23 41 23 27 38 36 47 46 36 47 42 54 46 50 43 40 41 43 55 23 33 49 40 57 38 40 32 48 45 50 19 33 47 36 37 59 60 35 40 43 53 34 47 30 16 54 29 36 41 30 33 43 51 30 37 45 40 32 48 30 29 44 31 42 37 28 25 43 53 55 43 29 47 27 33 25 39 29 45 24 28 40 54 55 33 51 37 44 44 40 37 30 22 43 50 34 34 34 35 48 26 50 33 38 55 44 48 43 31 49 47 41 40 30 44 44 43 62 64 34 30 45 53 51 66 45 37 65 40 33 30 51 43 34 41 31 49 15 41 45 34 55 30 29 37 55 27 32 40 37 44 44 41 31 37 47 52 44 26 31 23 36 54 36 42 41 43 37 19 37 45 44 44 51 23 51 31 37 32 34 33 56 29 24 46 28 42 53 43 37 33 50 45 35 53 52 44 44 48 39 46 40 36 56 51 49 34 47 26 49 40 26 53 47 53 35 47 52 54 55 54 41 38 30 47 40 29 71 37 53 50 36 42 41 41 59 44 38 44 51 34 35 48 45 43 60 53 62 30 43 54 62 29 30 33 42 65 33 34 26 51 36 49 35 38 64 53 29 44 22 45 55 25 48 40 52 40 39 29 20 22 51 43 12 47 35 55 29 45 37 27 58 38 37 40 36 37 55 40 27 34 47 40 72 52 31 37 47 56 44 54 30 42 43 46 43 44 50 55 39 48 65 28 47 63 49 42 44 44 46 58 53 36 49 30 35 47 30 53 53 22 49 53 62 49 32 33 33 40 47 45 32 37 42 54 36 34 45 33 30 33 51 31 27 42 54 61 27 34 60 25 47 46 36 54 43 27 26 27 33 44 47 34 57 41 37 51 44 43 38 45 30 35 62 37 43 55 26 68 55 42 55 23 26 35 50 42 27 37 33 43 34 42 31 39 37 39 33 58 51 19 37 32 30 59 36 36 39 40 51 34 43 36 43 45 33 51 39 57 34 35 52 37 48 25 29 40 30 43 63 51 26 30 44 32 47 36 30 37 12 45 40 35 16 32 55 37 51 23 45 43 48 31 65 59 39 27 26 41 42 47 50 57 40 53 43 31 43 35 23 47 44 59 41 29 37 33 27 53 33 40 26 34 54 57 53 35 34 43 48 39 37 40 30 35 51 31 43 34 43 47 51 48 17 40 48 35 46 51 36 33 33 57 44 23 51 24 48 37 52 30 47 54 38 41 68 61 52 32 31 37 33 23 26 39 33 30 20 63 35 46 33 26 51 41 38 31 51 27 37 30 48 37 30 40 51 37 40 47 43 43 52 44 28 43 53 41 20 47 23 41 23 51 36 26 44 42 49 55 30 37 20 29 47 34 45 39 40 51 19 37 34 35 33 26 54 34 34 40 52 34 51 51 33 40 23 41 54 72 32 46 43 59 62 27 45 29 41 36 59 19 48 40 54 38 30 43 43 38 39 44 24 41 33 33 38 32 30 28 43 45 26 37 37 47 25 58 48 47 38 40 46 57 33 46 51 27 41 57 14 41 34 69 58 40 53 32 50 59 23 53 20 47 34 41 52 41 61 29 45 33 54 41 49 25 50 40 44 37 49 16 25 49 40 37 45 24 40 17 49 42 38 59 50 40 30 33 35 28 48 24 19 48 30 17 51 63 53 51 40 57 29 49 29 55 57 36 53 44 44 48 36 36 30 44 38 37 46 66 33 41 49 51 45 35 30 42 39 47 68 44 37 50 29 40 47 40 26 31 30 33 27 47 33 17 47 37 50 47 45 43 31 28 52 53 46 57 31 44 37 53 27 34 57 51 36 29 44 55 51 52 68 26 29 57 45 37 66 44 48 41 48 52 23 45 42 65 36 41 40 30 58 43 23 26 35 37 57 37 18 26 50 42 32 42 50 46 34 63 37 46 51 9 33 38 46 44 42 32 41 51 34 57 41 45 44 68 27 16 34 33 40 29 33 51 29 48 44 36 55 30 58 25 44 45 61 29 26 40 23 42 62 34 45 44 51 43 26 51 45 36 34 59 47 29 42 33 60 51 41 43 45 35 60 59 51 33 45 54 48 50 64 43 39 62 55 37 45 42 37 43 58 22 30 35 45 50 51 44 27 47 54 43 54 23 33 45 58 40 33 40 60 53 42 26 13 42 37 45 34 40 34 46 51 33 43 48 52 40 59 44 56 31 19 37 48 33 39 42 48 44 57 30 40 48 30 35 40 47 42 48 54 40 37 39 35 44 41 59 37 43 54 48 35 46 57 23 43 61 30 67 40 51 46 37 33 39 50 45 38 29 32 58 59 26 29 29 44 50 40 30 40 25 52 49 42 44 39 43 34 65 55 44 46 44 44 23 62 33 36 43 45 56 37 42 27 40 46 30 50 51 35 26 18 57 47 37 39 31 52 54 45 43 17 58 66 49 28 49 39 49 41 36 34 48 28 50 32 34 30 42 40 44 51 27 36 40 39 30 20 31 60 38 34 57 41 29 47 36 57 36 22 45 47 21 39 37 37 44 38 28 22 34 50 40 43 39 41 20 43 33 50 52 34 42 24 46 27 35 56 37 60 62 35 43 47 36 33 22 26 48 16 49 54 43 49 59 29 54 40 35 37 39 52 58 57 48 29 36 52 40 20 47 43 47 43 23 29 46 32 44 36 45 39 37 64 17 46 43 33 31 34 41 54 16 37 39 37 46 39 26 36 41 44 54 43 23 49 31 54 21 51 39 48 31 40 48 34 39 34 30 52 50 41 35 40 48 27 56 43 38 40 46 41 56 47 44 47 43 40 41 62 28 22 44 31 43 40 45 52 33 35 28 29 39 48 51 36 56 35 48 13 41 34 50 56 47 21 48 33 44 25 58 35 51 43 42 34 44 44 30 51 51 53 30 34 51 42 38 46 33 43 50 43 24 40 39 52 49 47 30 56 35 54 36 47 40 16 42 38 33 21 31 40 37 36 46 50 35 30 36 49 55 32 71 37 27 33 34 36 53 40 35 43 58 41 57 37 48 55 61 26 38 49 37 52 22 44 26 29 34 34 54 40 33 32 23 36 60 52 52 44 60 54 53 70 44 52 30 46 52 37 33 44 51 31 43 48 41 56 31 44 33 20 42 51 47 39 34 43 42 45 30 36 59 49 45 20 41 40 49 52 47 20 43 47 60 42 29 50 23 37 40 35 44 40 41 45 28 24 43 52 43 50 44 24 55 37 43 43 53 29 45 49 42 43 10 51 38 43 40 55 42 23 55 32 47 54 37 53 44 24 38 29 44 43 65 44 57 34 23 43 41 22 51 23 43 46 40 60 45 37 56 30 51 33 19 44 41 53 31 27 45 42 44 45 38 41 33 36 39 42 47 37 44 56 44 35 36 40 42 37 52 24 19 31 48 38 48 54 59 54 49 29 37 41 44 37 38 37 34 35 42 36 36 48 22 41 53 37 49 33 41 36 57 16 49 23 34 41 38 54 57 41 16 39 41 37 24 25 13 33 44 48 56 30 33 38 52 31 45 37 52 54 68 39 43 47 30 43 37 31 32 32 40 44 50 36 33 45 43 40 47 48 40 43 31 50 33 39 30 31 52 53 37 58 49 35 24 45 46 44 30 37 34 49 47 41 29 39 30 50 48 31 55 29 45 48 48 44 57 32 29 46 36 40 48 41 46 46 37 34 45 61 34 57 33 43 29 37 40 51 29 58 36 39 39 62 27 50 53 43 44 28 26 49 29 33 44 53 39 29 57 58 42 34 38 23 54 33 53 63 38 37 29 33 25 33 35 69 33 44 43 31 53 29 45 48 47 51 43 20 46 31 37 41 46 61 40 32 20 40 37 51 44 45 33 32 37 53 58 48 54 36 43 47 31 47 37 19 60 47 53 30 51 39 25 60 40 33 42 40 48 50 27 54 30 32 13 53 48 49 42 37 37 39 24 33 51 50 43 40 29 29 25 39 30 68 22 52 44 34 51 49 34 55 41 21 30 48 58 54 45 34 48 45 32 59 43 37 38 44 41 44 41 36 22 69 40 56 33 30 41 36 51 47 23 61 43 61 44 29 53 41 30 19 33 34 30 56 51 46 28 36 38 36 33 44 65 45 52 45 47 53 40 34 53 27 21 66 36 54 44 55 40 43 34 52 51 38 29 49 43 30 33 48 48 41 34 59 41 35 30 43 20 73 42 13 30 36 33 51 39 44 45 39 44 13 41 27 27 45 30 41 21 37 34 34 47 57 47 29 48 71 28 34 31 45 48 55 57 43 34 48 35 57 41 55 52 30 49 25 41 51 40 52 39 44 49 59 48 40 41 46 31 45 29 45 9 25 36 48 45 47 27 44 37 38 44 38 46 30 40 54 51 33 38 35 45 44 27 47 50 45 45 50 17 35 34 50 49 43 37 35 50 23 54 58 73 22 42 48 29 29 39 26 45 28 37 57 48 41 31 25 45 27 58 49 43 31 47 27 35 49 43 61 46 33 53 30 43 25 52 40 50 29 43 53 54 46 32 45 45 54 39 45 43 33 36 52 47 51 41 29 31 44 40 51 30 61 50 53 41 30 48 48 37 45 47 41 41 29 41 32 56 43 44 24 28 36 52 42 53 29 50 23 26 30 55 20 43 41 44 47 32 37 39 37 39 32 52 36 30 39 47 42 29 24 34 34 42 43 44 43 42 37 43 56 49 66 45 57 31 47 48 63 27 53 43 61 27 31 51 54 34 40 48 41 29 44 27 57 40 28 54 32 39 37 49 51 47 60 51 53 32 30 34 41 20 36 43 34 42 40 49 37 49 37 40 55 33 71 44 57 33 30 42 50 40 35 47 42 33 47 36 23 37 39 34 55 64 35 46 36 58 47 45 44 49 43 26 36 42 57 43 44 36 23 47 30 39 37 40 29 46 33 48 43 52 23 42 52 44 41 37 41 51 30 48 37 36 40 17 56 37 34 41 51 38 33 23 25 43 33 20 39 39 29 52 39 34 43 45 37 67 31 50 38 35 62 44 51 60 49 21 47 38 33 27 40 30 32 29 34 37 41 53 51 48 52 33 27 31 34 37 35 49 44 51 44 28 45 39 71 41 46 35 47 30 41 33 41 31 38 36 54 45 16 43 59 27 26 48 30 37 23 40 49 37 33 56 23 50 12 36 26 39 49 67 43 35 27 35 48 40 31 29 36 29 47 36 21 64 40 66 38 38 33 37 57 48 59 49 40 49 57 47 29 49 37 34 56 52 40 27 38 35 38 31 41 50 29 46 30 43 30 54 43 36 48 36 58 37 27 23 34 35 54 27 30 50 53 44 32 37 16 40 44 43 33 43 57 48 41 53 41 44 54 55 44 32 56 49 50 23 32 43 44 47 48 19 24 58 27 40 23 30 33 33 52 35 38 28 40 44 57 47 39 37 50 42 20 41 36 41 44 20 54 56 43 34 41 57 50 31 55 32 33 31 38 23 41 58 29 43 50 44 49 44 37 42 41 47 44 30 38 43 31 42 26 32 37 37 45 29 43 38 37 23 59 29 67 43 50 37 63 47 62 26 30 39 50 34 31 55 15 40 50 26 40 50 42 43 34 47 30 46 17 55 52 39 60 42 26 37 54 47 44 40 38 20 38 48 49 39 22 51 31 54 33 45 40 47 49 30 24 51 44 45 37 43 56 67 40 41 41 37 54 27 50 37 63 38 40 34 45 51 37 30 40 29 51 43 51 34 15 33 51 20 52 40 36 45 36 36 52 31 38 37 29 29 39 32 29 26 41 33 33 16 43 37 26 35 33 70 52 25 28 31 23 41 45 26 47 55 42 44 52 45 51 44 31 27 30 54 25 46 38 32 33 46 48 42 50 40 47 37 51 46 46 58 32 52 37 33 38 59 33 51 29 53 48 29 42 47 43 58 43 40 31 37 37 20 40 41 73 62 52 54 63 38 27 39 44 29 59 51 31 45 54 56 44 33 55 30 44 66 47 44 24 29 34 31 60 47 22 25 34 41 39 51 43 58 42 31 32 41 65 55 47 45 45 40 36 53 44 37 46 51 33 50 48 44 36 39 39 62 26 50 48 39 24 43 47 26 48 24 48 43 40 42 34 34 38 55 40 34 39 51 38 41 41 37 44 36 55 51 51 58 55 36 47 32 29 43 30 45 41 38 69 48 48 55 44 43 32 47 37 38 59 65 52 51 43 41 29 66 28 28 29 57 49 37 40 33 48 49 29 32 35 41 30 31 48 50 44 23 26 37 36 37 27 53 57 71 45 47 41 61 53 38 28 20 58 42 60 53 51 38 20 41 54 29 51 29 27 51 48 31 41 36 21 13 51 48 45 36 60 51 37 47 55 27 50 38 37 37 40 50 41 38 46 44 41 29 40 40 33 46 54 40 42 47 27 39 37 27 46 32 45 54 48 40 37 30 31 49 43 60 53 54 39 15 36 46 27 53 69 16 15 28 56 29 33 48 31 40 29 30 46 61 44 47 44 35 44 39 49 49 42 23 44 51 54 29 65 30 44 35 45 50 26 50 39 63 41 51 51 32 43 49 40 45 41 48 37 23 40 54 58 40 41 46 45 47 37 44 33 46 47 16 41 46 39 42 50 40 56 49 33 42 42 37 25 44 59 27 37 36 38 62 31 44 59 49 32 45 41 38 47 45 42 30 27 52 32 47 43 43 37 48 39 49 28 64 31 37 30 51 36 45 30 46 47 44 37 41 54 47 73 29 40 29 50 20 46 52 40 59 26 41 47 31 37 48 48 33 34 45 48 36 56 37 19 40 60 37 52 31 13 51 45 56 47 22 53 30 52 46 30 42 46 42 33 40 29 41 36 27 64 45 59 39 30 31 47 43 58 51 35 39 62 55 34 48 41 33 42 41 53 30 41 33 59 33 60 41 32 23 41 43 44 31 51 37 36 30 30 28 39 38 36 47 42 39 35 42 46 61 48 52 48 39 51 19 30 48 36 56 49 47 30 52 40 46 58 41 49 55 50 41 41 43 40 29 47 35 31 27 43 26 58 36 41 57 43 49 30 44 57 43 38 37 36 53 48 24 42 32 44 41 22 57 23 43 51 37 41 40 28 31 27 49 36 30 23 40 37 26 56 48 55 26 34 40 52 29 48 53 39 36 30 63 44 44 43 33 41 19 22 30 49 36 35 38 57 64 44 34 49 50 41 26 49 24 52 72 43 41 44 64 33 43 35 45 51 24 48 36 29 31 36 46 37 59 27 40 38 27 42 45 54 51 44 54 20 33 38 54 52 44 43 35 55 27 30 32 33 41 16 10 37 31 44 68 51 23 50 46 52 54 54 42 43 44 47 31 30 33 40 46 19 50 58 30 42 41 33 61 46 60 46 44 40 35 46 35 27 33 19 41 37 49 42 37 55 26 39 37 42 40 34 23 30 40 65 37 46 62 51 51 59 48 35 39 51 45 44 52 41 30 34 44 21 51 40 41 51 29 64 50 35 34 49 54 52 38 33 38 36 45 42 59 48 56 34 43 63 43 23 29 35 47 43 37 53 37 26 45 43 56 62 20 47 33 32 49 56 24 26 36 18 59 30 44 39 64 38 30 41 33 37 36 46 24 29 44 50 48 47 43 37 41 43 32 37 26 47 55 27 45 21 33 31 45 39 33 48 50 54 41 20 57 49 40 33 45 52 21 51 34 51 63 38 54 13 27 37 35 38 34 53 32 23 39 37 27 38 60 62 50 33 49 41 18 57 55 44 27 29 19 30 51 32 40 32 61 40 33 37 43 29 47 44 53 36 27 72 35 45 43 44 36 57 23 45 52 37 30 37 48 54 53 49 37 42 47 23 44 31 27 51 48 44 50 39 47 52 31 29 47 31 57 40 42 29 34 23 46 50 41 43 45 36 45 33 28 41 40 42 43 19 50 47 35 43 11 30 55 61 37 35 37 51 45 47 36 40 43 39 57 35 34 35 41 20 51 43 43 59 37 31 64 52 16 49 36 35 52 32 40 29 31 45 32 58 47 33 55 47 58 53 43 50 29 33 45 45 41 41 29 21 33 32 47 36 22 37 44 36 38 41 41 36 55 45 43 39 46 44 38 71 43 37 47 35 50 68 29 34 35 57 44 51 30 45 35 53 55 47 38 40 51 29 37 44 56 37 41 43 34 36 43 42 32 50 37 65 30 29 54 29 47 41 58 44 43 56 57 65 44 34 46 41 52 44 25 40 57 34 37 29 41 30 37 43 30 31 33 41 49 36 33 37 38 47 57 45 34 37 38 33 23 37 47 35 47 30 36 69 37 44 38 45 39 41 31 25 57 38 58 35 33 20 43 58 59 43 37 40 46 45 47 30 30 56 40 32 54 44 19 53 35 28 52 60 36 48 37 41 50 42 45 46 33 41 37 33 29 47 29 65 33 29 36 43 52 42 30 33 45 29 34 20 56 34 45 51 46 40 60 35 45 47 59 45 45 42 19 50 43 55 33 37 50 43 51 41 35 32 40 30 50 22 36 16 51 48 27 37 37 62 31 46 39 37 30 50 46 46 47 40 51 30 29 43 28 48 37 26 33 47 50 20 35 45 44 35 40 29 58 37 44 26 35 46 50 37 51 33 22 27 36 37 37 49 29 36 33 36 45 41 30 47 54 41 43 54 51 51 46 30 15 41 23 47 47 43 33 49 29 25 55 41 46 38 44 52 36 38 58 40 53 56 29 44 61 43 43 38 43 59 48 51 35 50 37 33 37 46 15 25 59 57 37 41 30 41 42 56 47 26 33 48 57 65 42 34 20 37 24 50 33 39 25 29 36 39 32 40 44 46 51 28 69 47 47 33 40 33 35 33 34 35 39 37 26 42 29 28 37 30 45 39 51 48 65 30 68 47 59 48 36 63 44 56 43 43 37 42 37 48 40 54 37 26 62 53 39 18 47 22 45 27 17 37 57 23 46 34 41 41 34 49 25 60 30 40 44 59 43 45 36 35 38 42 33 43 25 51 29 33 26 36 33 55 37 48 53 43 44 29 44 30 49 34 42 33 51 46 34 41 37 16 53 33 43 21 27 51 38 58 41 68 54 48 55 42 24 33 31 37 20 43 36 58 47 40 42 30 36 29 24 32 35 47 69 29 36 42 40 24 28 51 51 49 31 37 28 49 51 51 52 26 59 25 38 38 43 51 29 51 29 50 39 39 43 46 51 33 23 40 36 51 30 34 40 48 35 44 49 38 35 39 44 37 50 50 42 26 51 43 36 48 37 37 42 33 44 42 63 60 23 23 57 39 49 53 21 36 43 32 41 37 45 35 41 42 27 31 39 33 47 41 43 41 37 34 37 25 35 58 51 36 32 51 41 47 40 40 49 38 62 18 30 39 40 45 39 48 41 61 37 38 29 34 47 63 44 26 32 44 36 63 55 34 40 33 31 34 45 62 33</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>NIG(42.55925654219733, 19.791380216546933, -1.0307651021994557, 44.03566417564497)</t>
-  </si>
-  <si>
-    <t>13 20 24 19 20 32 15 38 24 10 10 27 27 24 18 16 28 24 13 13 17 23 10 24 16 10 27 17 17 36 23 30 28 13 21 17 20 7 22 14 23 24 31 31 20 20 34 9 17 35 19 13 15 17 10 27 16 28 24 19 30 19 38 16 20 38 19 30 33 24 14 6 16 16 24 20 16 10 13 21 26 3 19 27 34 23 27 3 14 49 3 13 20 31 13 23 23 22 16 10 34 13 24 21 21 20 14 31 7 16 20 24 37 12 38 21 22 13 28 21 16 34 27 23 7 13 23 30 23 28 10 21 17 27 19 30 30 27 10 17 19 24 10 31 20 22 17 23 16 29 27 31 25 22 21 23 9 20 18 20 24 35 17 22 7 28 35 16 20 31 19 19 38 15 34 17 31 31 30 31 38 12 17 16 38 27 22 7 27 19 33 28 21 28 24 24 6 10 17 20 17 10 23 24 20 27 24 20 21 17 31 38 28 30 24 18 20 20 38 23 19 16 20 3 22 19 35 24 36 29 26 30 17 16 28 6 27 31 20 29 20 23 27 23 29 16 35 3 23 9 23 17 16 14 16 41 38 28 14 48 31 23 28 16 16 39 26 10 17 17 20 20 13 28 30 29 24 25 16 17 27 24 23 24 13 11 30 37 31 30 10 19 9 17 20 19 27 20 27 15 17 17 27 28 41 24 17 16 30 20 20 13 26 13 20 20 20 29 20 16 20 31 25 27 13 24 29 24 14 10 40 14 13 13 9 20 37 26 17 7 30 17 23 21 17 20 23 7 18 26 26 27 17 38 18 24 23 24 18 16 13 37 20 17 22 20 14 24 13 26 15 17 24 11 24 19 10 10 23 31 31 28 23 20 28 27 44 26 16 28 20 22 10 34 30 19 27 31 22 26 26 20 14 16 17 15 37 6 31 24 14 20 20 24 30 20 24 27 23 31 34 38 17 24 19 16 17 26 27 37 20 20 27 21 28 34 6 21 23 17 24 24 21 34 21 10 23 22 16 17 34 20 12 27 13 13 33 34 24 27 22 27 20 17 10 15 14 12 14 24 33 13 20 17 13 13 22 3 21 21 31 7 40 14 24 17 34 34 31 23 3 41 22 26 23 24 33 38 37 34 23 31 23 17 27 17 26 26 28 18 13 24 23 21 26 20 19 34 27 19 20 20 24 18 20 30 10 24 14 24 35 29 20 13 31 17 27 30 17 13 21 27 21 27 30 26 16 20 21 15 29 30 31 24 23 19 10 19 16 28 13 27 31 23 28 28 13 19 24 20 23 13 12 21 21 18 25 28 17 20 30 41 13 22 23 6 9 42 17 17 20 23 42 32 20 20 23 16 13 23 17 9 48 10 10 27 10 16 17 31 27 17 28 6 24 20 16 10 13 33 23 21 24 27 37 27 24 20 10 14 23 8 24 37 35 38 21 34 12 41 19 30 14 24 19 27 27 13 30 48 27 27 28 27 30 20 24 40 13 24 21 25 17 9 31 31 17 38 35 35 24 14 24 16 24 28 23 23 20 20 23 26 21 24 14 21 17 16 33 26 34 27 25 22 24 9 31 0 31 24 20 27 23 20 31 20 16 22 10 20 10 20 42 19 19 28 44 17 17 24 30 28 3 21 17 14 10 19 28 37 29 53 24 16 27 27 15 20 27 22 22 30 27 23 16 10 16 26 24 24 14 10 29 10 13 13 24 31 10 17 13 3 23 37 23 13 21 26 26 15 21 34 10 31 19 14 10 20 6 31 27 30 21 23 24 9 24 10 30 30 16 17 15 10 14 16 0 44 9 14 21 9 21 17 31 20 16 13 34 27 24 12 28 17 26 26 37 13 20 19 17 20 28 12 15 26 20 31 7 27 21 27 17 12 20 34 17 15 26 30 34 24 26 34 16 31 17 16 14 24 28 21 24 34 29 24 13 24 27 27 22 34 26 19 27 27 30 17 30 32 31 19 20 33 13 24 24 20 16 31 24 7 17 19 23 9 10 24 20 12 21 14 26 20 17 31 23 27 20 26 29 24 0 24 21 20 28 16 10 35 17 27 28 23 7 45 16 23 41 17 17 17 10 30 23 24 28 27 17 31 6 14 19 17 6 17 18 17 17 13 22 20 19 15 24 20 28 28 24 28 28 17 26 7 17 13 24 27 13 14 25 23 18 19 16 40 31 23 14 27 17 13 13 25 35 38 20 41 12 24 23 30 21 23 24 27 7 23 14 0 22 14 14 24 35 23 38 17 14 21 26 28 27 22 16 27 27 18 24 20 24 16 26 13 27 15 27 24 20 28 9 20 20 27 20 30 24 8 27 18 21 27 13 22 31 33 34 20 35 28 13 13 30 27 26 18 20 27 31 14 9 27 38 16 24 17 25 30 31 26 7 33 23 10 24 18 26 17 26 20 30 24 23 19 24 19 25 3 37 20 21 17 13 33 9 20 38 14 13 33 30 31 13 7 19 30 14 31 17 21 27 30 38 20 15 35 10 22 23 34 17 27 11 45 23 28 24 34 23 26 14 17 24 6 34 33 13 10 19 16 38 14 19 23 17 23 23 21 27 24 17 24 24 7 10 13 16 30 16 21 13 14 16 13 10 14 12 31 13 19 30 21 18 27 19 19 10 20 17 21 31 24 14 15 13 24 31 17 24 27 21 16 27 14 30 24 29 0 14 27 30 20 24 16 24 23 22 13 28 24 9 25 23 30 24 27 24 44 28 20 24 20 23 34 10 7 34 13 34 23 31 16 19 37 14 17 13 37 28 21 24 27 7 22 14 17 13 27 21 23 13 27 31 13 16 17 12 31 27 34 24 13 19 31 16 13 17 17 16 10 29 13 23 15 14 31 21 37 27 10 28 27 33 31 17 10 13 24 13 16 27 38 23 24 27 13 34 15 14 8 29 20 21 15 19 38 16 22 24 21 13 37 20 28 22 29 30 7 10 24 31 26 20 16 34 16 23 23 34 16 41 19 20 38 30 19 27 23 17 24 20 27 27 24 27 13 23 26 35 20 13 17 27 34 22 20 21 27 27 9 24 44 23 26 15 27 14 9 15 12 17 16 7 24 20 7 25 24 16 24 23 23 24 23 24 28 30 23 18 30 28 24 30 44 22 16 17 14 10 23 13 41 18 13 33 22 27 23 42 21 24 24 20 19 17 23 27 31 14 13 22 31 16 14 10 28 15 14 19 16 20 24 27 28 20 15 20 38 13 23 27 31 30 17 12 13 34 17 22 38 17 30 10 20 16 23 37 25 10 6 28 34 17 27 24 23 24 23 17 16 13 26 37 22 12 35 22 30 30 14 49 24 10 27 12 28 10 20 42 37 28 17 41 27 12 44 17 18 28 10 21 17 31 21 20 16 31 23 24 10 21 10 23 24 26 38 13 21 34 3 30 33 22 31 17 16 16 40 28 14 9 20 24 24 17 10 23 31 10 13 23 24 6 13 22 10 23 16 10 23 13 20 17 23 10 31 17 19 16 26 13 24 24 17 27 20 9 22 17 17 41 17 14 45 38 14 27 14 19 26 31 23 13 16 9 24 27 27 23 23 30 23 24 23 20 17 21 25 6 24 13 40 33 13 24 21 16 17 13 13 0 17 20 30 3 35 33 25 16 20 24 13 16 31 30 35 25 19 30 13 9 13 38 37 6 13 20 23 17 27 20 16 20 31 19 21 24 23 7 21 17 31 24 6 27 24 35 22 27 14 10 17 20 23 38 20 27 15 13 31 20 20 17 12 27 14 16 59 30 31 20 14 21 31 21 16 21 17 31 31 21 34 14 28 34 41 13 16 11 16 26 19 45 10 27 20 17 17 16 23 24 16 28 14 7 27 23 28 20 17 23 20 30 20 14 19 24 34 21 23 3 31 27 22 27 24 34 16 24 30 35 23 17 38 34 27 15 23 27 14 9 26 26 13 3 30 24 16 10 31 13 24 24 19 16 33 27 26 23 30 13 17 21 27 17 45 28 30 31 20 13 13 20 27 17 10 23 23 17 23 24 27 5 17 21 17 37 24 30 10 27 28 19 9 41 26 27 20 17 14 33 29 31 19 17 23 18 17 31 13 16 19 21 28 9 23 26 24 28 22 20 23 21 29 21 17 9 17 16 11 17 23 31 17 27 16 17 27 27 14 31 16 19 37 27 13 24 23 9 3 32 30 15 38 17 24 21 23 41 20 41 26 21 26 22 31 14 11 9 24 19 21 15 38 26 26 16 23 21 16 16 13 20 31 19 24 19 22 19 17 14 21 35 10 28 20 27 27 29 15 41 24 24 17 28 26 21 17 23 13 21 24 14 20 18 26 23 13 16 17 30 17 38 27 13 17 20 13 12 10 34 23 9 16 39 35 10 24 38 7 16 3 25 22 13 28 21 20 17 22 22 13 34 34 8 13 17 27 17 34 29 21 20 34 22 20 30 26 27 24 10 24 17 17 28 23 21 9 18 27 28 15 20 23 13 14 20 10 21 6 27 30 12 24 20 16 21 27 30 27 19 24 31 31 34 27 9 24 13 24 17 9 17 14 20 19 13 17 28 28 23 25 17 16 17 28 30 14 17 33 38 7 16 20 27 9 14 21 10 19 15 21 9 7 11 28 23 9 17 26 13 28 17 18 14 28 24 17 26 20 30 13 27 24 17 34 9 7 21 21 10 37 18 30 16 24 24 21 22 13 10 31 31 41 34 26 35 33 24 19 17 23 38 27 31 20 12 31 24 40 23 10 16 17 21 23 21 20 19 20 14 29 24 27 16 27 22 34 30 13 14 28 17 20 31 23 17 10 34 21 23 21 26 14 22 28 12 17 33 43 33 13 30 24 23 19 23 28 23 42 17 20 27 21 34 17 23 21 20 27 31 34 24 10 31 32 31 35 27 26 16 16 3 6 20 21 32 24 33 26 28 20 23 20 23 20 24 24 35 24 15 28 30 21 35 17 20 24 21 31 23 19 21 24 26 14 27 20 6 30 30 25 13 21 11 34 14 13 17 7 28 3 20 16 28 24 17 27 24 10 21 31 35 28 16 36 33 27 17 20 24 14 26 22 20 10 30 17 22 14 19 30 27 31 31 34 27 20 24 23 27 10 23 24 19 19 26 27 17 27 28 24 20 21 14 33 30 20 14 34 22 35 26 9 14 22 20 23 16 22 24 31 6 13 28 17 38 13 17 42 3 10 34 45 27 28 13 23 20 38 27 17 6 28 16 24 33 6 9 14 20 24 13 20 20 20 24 22 24 23 30 7 20 29 24 13 38 28 42 23 14 17 17 13 23 29 15 19 23 24 24 33 16 27 25 30 36 20 31 26 15 39 13 31 30 23 31 24 13 14 12 31 38 17 23 25 20 16 6 24 34 9 13 20 20 27 14 17 17 19 23 24 27 21 10 16 24 22 27 27 17 31 22 31 21 22 13 24 35 21 28 21 27 17 7 37 23 10 26 27 16 13 34 33 28 32 24 29 23 23 23 16 21 34 27 38 16 20 20 33 23 3 19 23 24 16 13 12 31 34 20 23 21 18 18 27 31 26 23 20 45 21 42 12 27 15 24 27 21 17 10 12 20 20 10 10 10 20 24 16 10 17 33 26 28 14 26 23 21 21 9 28 18 10 15 19 17 27 35 17 17 20 36 20 24 24 36 20 36 22 24 27 24 20 27 28 27 30 6 27 17 38 23 24 16 20 27 20 30 17 21 28 23 41 13 33 27 12 16 10 16 20 22 14 20 25 31 17 23 20 21 13 14 28 20 20 13 28 38 21 13 20 13 30 10 19 31 15 20 13 24 20 24 24 22 13 21 23 9 35 38 11 24 15 27 37 28 23 21 14 27 35 48 35 13 17 24 31 13 15 17 21 30 14 38 23 17 12 37 24 27 17 13 28 6 30 19 24 23 17 22 25 8 34 16 18 49 18 38 21 9 28 30 30 19 17 27 13 20 21 27 7 20 9 24 25 29 17 27 31 27 10 17 14 24 23 24 38 26 30 20 22 14 21 21 20 17 13 21 14 14 31 31 31 33 30 20 20 21 45 20 14 20 28 16 27 18 21 22 24 12 12 41 34 23 12 29 11 30 20 24 16 24 24 33 20 21 28 23 17 20 24 28 20 20 38 25 20 17 14 35 17 17 26 16 24 19 30 13 23 23 38 37 10 17 20 20 34 27 30 20 23 37 20 10 14 18 36 19 17 21 13 16 13 12 41 27 17 10 17 20 30 24 24 16 24 24 20 35 19 33 38 28 29 21 36 6 14 9 26 23 29 35 20 27 22 13 14 23 31 27 27 19 31 34 20 28 37 14 24 20 17 24 10 19 41 23 9 22 17 24 17 34 38 22 17 35 23 21 17 27 26 23 27 24 27 20 27 13 27 13 28 27 20 34 13 32 16 35 35 35 9 20 19 10 24 30 20 9 29 30 26 10 19 27 20 23 19 16 20 20 39 24 15 30 7 17 30 24 7 10 14 34 24 15 33 16 17 20 24 14 17 31 17 25 14 21 23 33 13 24 10 27 27 25 28 13 24 27 24 22 18 37 41 16 10 20 30 19 23 31 23 7 26 20 3 26 7 21 21 17 17 16 45 34 13 24 30 29 28 24 24 13 21 27 24 31 30 16 13 21 37 19 27 7 20 27 21 17 21 42 34 13 22 16 27 37 23 16 7 27 43 20 35 13 23 19 19 9 20 12 13 21 44 24 20 9 10 26 20 28 33 30 14 20 39 23 31 17 17 42 35 17 10 16 31 21 10 24 13 27 20 13 24 16 24 23 22 30 13 24 14 31 16 12 13 17 21 16 26 26 15 20 13 20 33 31 26 20 30 3 24 13 26 13 34 23 20 21 24 23 38 28 17 28 24 28 31 22 27 12 24 19 7 34 17 34 17 3 12 10 12 13 30 13 26 10 13 23 27 14 23 28 24 30 28 33 12 41 21 30 23 31 19 31 15 30 27 10 24 21 14 22 20 23 24 27 20 14 19 24 10 27 37 12 28 31 14 31 20 30 30 14 26 23 17 27 16 12 24 24 18 20 41 13 30 28 28 17 12 22 7 30 17 0 17 36 13 24 17 17 12 19 20 10 15 13 10 17 19 19 24 21 26 24 17 10 27 23 22 22 24 30 16 19 29 37 20 41 16 27 24 20 17 12 30 21 24 17 14 34 26 7 10 6 22 16 37 20 13 16 20 21 28 23 24 31 19 20 6 20 24 17 30 17 38 13 17 30 9 28 14 24 27 19 23 23 20 10 19 31 31 23 21 23 28 7 13 20 14 16 41 27 33 20 26 23 25 21 24 10 32 22 7 34 17 30 13 22 35 24 30 26 20 27 21 22 20 25 23 17 14 14 8 22 10 16 28 12 34 10 17 20 19 21 15 27 31 23 20 34 34 19 28 20 10 16 7 19 29 6 34 19 17 23 10 20 27 26 24 23 21 16 19 21 26 17 16 21 16 42 23 18 19 22 31 23 22 34 27 24 28 22 24 24 21 28 12 20 19 20 22 16 13 21 20 20 17 24 17 24 20 20 20 23 18 24 26 21 29 21 17 23 20 24 44 20 51 23 33 27 16 10 20 27 31 24 15 27 18 25 36 17 26 45 23 30 17 20 19 19 17 14 37 30 20 24 26 37 27 26 26 31 22 48 23 24 13 27 27 14 17 15 14 17 30 30 37 22 34 23 34 20 19 34 26 21 12 48 13 20 14 16 17 20 34 30 20 27 42 27 31 31 31 10 19 19 23 34 38 14 27 10 37 37 23 23 31 23 37 27 17 10 23 29 12 21 19 28 22 23 31 28 9 9 16 34 31 23 15 17 10 24 28 14 31 21 27 20 15 24 21 15 51 27 17 16 20 19 10 22 19 22 23 10 26 34 21 20 20 27 20 21 22 26 23 35 31 27 43 24 21 28 13 3 31 24 24 34 10 27 3 30 23 30 20 22 21 24 17 17 38 20 31 23 26 23 20 37 21 16 22 23 13 13 19 12 18 19 24 17 17 13 24 34 17 17 20 23 17 14 24 34 22 17 27 24 23 13 17 23 24 24 31 24 20 27 16 30 30 23 29 24 14 6 16 15 22 16 30 31 20 7 10 30 20 27 13 24 21 44 12 13 9 31 16 31 20 26 20 19 6 21 17 30 10 13 31 35 24 28 19 34 14 20 26 12 23 23 20 20 20 14 14 24 27 13 23 13 19 10 20 34 17 22 3 24 11 13 0 7 26 21 28 18 10 24 24 16 34 17 10 22 15 24 31 16 26 24 20 27 21 36 42 25 28 16 26 3 33 31 38 35 14 30 35 17 38 27 10 15 21 6 31 31 20 28 9 20 22 29 27 19 9 31 14 19 24 23 18 37 28 12 27 38 14 31 30 27 19 8 31 10 17 6 10 31 35 34 16 20 27 17 10 16 23 20 10 27 31 37 23 24 38 26 13 9 10 10 19 17 27 18 34 30 23 10 17 17 16 26 41 31 38 27 33 14 38 6 41 16 23 6 19 19 37 20 13 25 14 19 27 13 19 9 3 7 15 21 13 3 19 21 29 26 10 10 17 15 19 35 38 16 41 13 13 17 21 24 27 23 21 24 24 19 17 30 21 29 9 33 10 17 21 13 37 14 20 20 23 16 17 25 25 10 30 27 16 20 14 14 28 23 14 33 20 17 23 17 31 13 37 41 30 38 20 27 7 24 29 31 13 37 17 24 34 20 22 27 6 24 22 26 13 14 36 10 27 23 28 34 13 14 23 23 34 35 20 34 24 22 21 23 17 24 22 27 24 16 21 18 14 34 43 34 16 20 35 20 20 21 17 17 19 37 16 30 38 12 9 31 20 10 20 34 33 24 12 27 20 17 31 34 15 20 16 24 21 21 19 13 27 17 26 31 25 31 19 6 7 13 23 24 26 16 26 31 18 26 26 28 16 24 12 37 13 37 31 20 29 31 23 23 34 24 20 21 24 9 24 20 23 14 13 31 16 20 7 30 24 19 17 24 29 19 38 27 35 27 26 13 30 28 41 34 33 14 12 13 12 20 27 24 28 23 17 13 20 31 36 24 13 21 13 13 24 17 26 26 7 16 9 28 14 32 10 27 20 10 26 20 20 31 10 28 14 25 6 20 10 26 17 13 24 19 7 32 16 24 17 16 37 23 24 16 24 16 10 30 7 25 27 18 17 34 17 17 24 21 20 29 33 38 31 19 10 21 12 24 28 16 0 19 10 27 31 34 14 24 17 27 27 13 27 12 3 24 35 21 10 25 22 24 13 28 6 34 28 23 34 21 12 15 16 40 16 24 28 5 26 17 28 24 8 23 21 23 23 6 38 13 30 27 23 38 16 34 26 24 19 30 23 20 17 29 7 23 10 31 20 27 24 21 26 14 26 23 30 9 17 33 26 10 23 27 19 21 31 23 31 30 20 23 31 20 30 13 25 23 17 33 20 19 3 26 27 17 33 28 23 27 24 30 17 34 17 28 21 26 27 20 31 42 27 23 24 37 28 14 28 16 26 27 18 24 23 27 27 35 24 37 5 19 17 20 17 34 24 23 26 29 27 24 17 35 32 7 20 24 37 30 24 16 10 26 30 43 16 24 20 21 19 17 22 20 21 15 27 40 17 23 14 19 16 19 44 31 17 13 23 31 10 13 35 27 30 20 29 34 3 20 20 9 13 17 36 24 23 23 26 13 17 34 20 34 28 25 33 20 20 20 21 17 9 0 31 24 31 27 34 31 20 16 35 14 9 19 7 26 0 20 17 17 21 20 35 26 38 20 21 31 17 20 31 20 13 27 28 24 31 19 17 28 24 17 38 13 17 27 13 24 31 17 27 30 16 24 21 20 17 17 19 31 23 12 17 22 17 33 19 20 30 21 24 13 23 20 13 22 20 20 27 16 17 9 16 14 29 24 26 26 3 10 21 13 14 36 27 24 12 17 34 9 30 23 13 19 31 24 17 41 37 24 27 26 10 21 27 27 34 19 33 29 31 10 17 16 24 24 13 31 27 35 12 17 22 14 28 16 19 20 38 24 31 31 20 33 25 34 30 21 26 17 22 24 21 23 20 19 14 34 34 17 6 26 44 19 34 33 19 21 21 18 3 21 34 22 14 38 28 20 17 17 17 33 34 18 18 23 18 10 21 18 31 22 25 16 27 13 28 17 31 14 21 21 6 17 14 19 25 21 27 20 27 21 20 26 31 19 17 38 19 13 38 17 21 34 31 30 13 34 14 14 16 19 10 26 34 26 20 34 21 48 16 7 20 21 38 30 17 42 20 14 17 7 24 17 20 13 24 22 22 19 20 17 23 16 20 30 17 38 31 17 24 15 30 27 20 19 16 17 28 45 31 13 11 17 19 14 31 20 9 19 35 10 20 17 29 9 16 20 32 17 38 9 24 24 16 26 13 17 42 21 16 27 17 37 10 27 42 37 14 25 26 23 13 24 28 17 17 45 3 19 17 13 24 30 30 16 21 37 29 13 15 24 17 20 30 34 34 25 9 19 18 23 34 29 16 21 33 14 27 31 27 27 35 21 13 37 27 23 3 21 17 20 15 16 20 30 13 40 24 31 10 27 39 24 11 24 28 14 23 23 17 20 24 27 20 21 20 16 22 19 20 30 26 27 9 30 20 31 27 17 27 20 17 13 31 17 28 24 17 33 23 30 13 21 31 21 13 18 20 23 30 24 24 10 20 14 30 24 24 36 45 21 22 13 27 10 22 15 30 20 16 16 14 13 12 30 20 17 26 29 26 7 24 16 34 24 30 30 38 14 14 17 16 41 10 21 24 13 30 36 28 29 23 21 13 12 16 21 3 19 28 24 0 27 17 27 16 16 17 24 31 13 12 24 17 23 10 17 30 27 42 19 9 17 14 29 6 17 14 24 14 33 21 17 19 17 10 13 30 17 13 17 14 29 27 47 27 27 9 26 10 31 30 38 20 24 23 21 17 0 26 5 20 22 26 44 31 37 24 24 27 10 14 38 27 20 16 24 21 24 28 22 27 21 9 24 10 30 33 20 20 6 16 41 34 23 26 27 21 25 13 21 14 19 13 23 16 22 13 12 18 17 27 10 16 26 27 13 25 27 34 16 16 24 17 24 10 14 14 13 19 17 13 41 27 26 20 23 21 28 12 20 13 30 27 27 23 17 20 17 38 9 20 20 38 24 23 30 23 13 24 13 36 29 13 13 24 29 16 36 30 21 34 20 25 21 23 34 27 24 34 31 10 23 17 23 31 17 27 13 27 33 13 23 20 12 10 24 26 28 28 37 25 20 37 21 13 22 20 15 7 20 17 47 37 41 31 5 3 10 33 30 20 19 23 21 31 30 14 33 23 23 17 17 37 20 34 9 7 21 30 13 16 13 44 35 17 6 20 23 20 27 24 14 19 7 13 20 40 16 16 13 28 24 13 28 41 23 14 22 31 21 10 28 9 30 35 20 9 15 20 30 44 9 10 34 17 16 17 45 24 24 31 27 24 27 28 13 32 15 33 18 24 17 30 34 17 6 24 34 26 24 34 24 38 31 24 35 17 24 31 17 19 35 15 10 26 13 13 36 21 23 9 23 31 28 9 13 16 24 27 27 6 35 12 6 31 26 21 23 30 18 24 17 27 13 34 24 29 31 34 31 27 21 16 26 20 52 14 26 20 24 28 28 10 10 14 28 24 17 14 24 22 15 31 10 38 28 20 3 19 27 16 21 23 24 24 22 20 13 24 19 27 28 13 28 17 31 17 27 41 30 17 13 24 23 27 7 20 19 27 26 26 10 27 16 38 17 27 19 20 40 30 28 17 27 31 24 17 28 25 13 24 20 26 9 31 13 20 20 17 10 28 36 20 10 16 30 33 30 33 20 16 22 10 38 10 21 24 30 17 20 27 31 32 34 23 31 20 14 35 27 13 6 16 22 16 12 34 28 30 21 23 13 16 34 17 45 23 15 20 23 26 35 26 41 29 23 23 22 7 23 17 20 23 19 7 24 24 10 34 24 21 31 23 31 34 27 10 33 34 28 20 17 20 28 16 24 27 9 34 30 23 16 36 30 30 17 14 24 14 30 16 26 29 29 27 25 34 27 18 9 31 20 8 20 23 20 34 21 20 16 22 34 7 29 31 34 19 38 13 19 34 35 29 23 19 27 26 20 13 40 33 26 27 20 14 42 24 14 20 21 17 33 14 31 13 17 27 35 13 17 20 36 29 13 27 20 36 22 12 10 24 38 16 19 24 20 29 18 23 22 24 31 17 10 17 24 12 26 22 27 30 19 21 24 13 20 41 10 38 30 17 27 18 26 21 23 21 13 23 34 24 20 12 30 20 23 21 36 16 17 32 30 14 21 17 13 13 30 10 31 37 25 10 11 10 6 20 23 24 23 27 38 36 27 23 21 24 10 3 16 14 31 37 35 20 9 16 20 17 10 15 24 34 27 20 21 26 17 23 23 20 30 13 30 27 16 23 16 20 27 21 17 24 31 27 24 30 20 17 10 10 23 13 28 30 25 32 24 26 24 14 21 23 23 30 30 17 43 24 28 27 3 26 17 27 27 20 31 36 31 31 16 17 20 17 24 23 34 13 15 31 17 21 27 11 21 13 16 23 28 27 17 14 27 14 20 24 17 17 19 27 30 23 40 28 17 17 22 42 30 17 20 13 26 28 27 17 14 24 10 27 27 22 48 20 27 34 24 35 21 24 24 7 23 26 13 13 38 20 33 14 30 22 31 26 13 33 33 7 19 31 20 10 31 17 19 48 28 16 38 20 20 31 17 19 26 13 28 26 34 26 20 20 23 23 24 23 26 24 19 27 27 13 24 16 14 28 17 21 21 18 14 24 30 21 13 30 27 24 14 18 28 24 20 21 22 23 27 16 31 18 23 36 20 20 28 26 38 31 26 31 35 24 21 23 9 27 27 21 10 23 31 17 27 6 20 14 13 31 27 13 22 41 20 30 24 10 6 13 20 24 17 34 28 8 19 23 26 27 28 28 7 20 27 37 34 22 20 16 24 17 14 42 27 31 35 13 23 21 17 27 26 9 13 14 36 27 13 6 23 24 10 27 38 20 6 10 31 17 17 26 21 19 31 13 16 22 17 37 27 26 41 9 30 28 30 14 37 26 17 6 17 28 9 14 16 13 24 24 16 12 27 17 23 24 42 13 34 32 31 10 23 28 27 23 34 22 19 27 14 17 33 15 12 17 38 20 24 9 26 40 20 24 35 13 13 26 12 14 24 3 16 20 37 17 9 21 13 19 24 21 31 13 23 19 25 22 17 15 3 34 17 23 31 20 27 13 22 16 27 21 30 33 23 30 14 27 7 27 20 14 20 34 33 37 10 27 10 26 6 29 17 7 23 38 33 27 13 10 23 20 27 17 19 13 23 23 23 18 20 34 38 13 28 23 20 16 28 22 16 24 14 23 19 41 10 9 15 26 16 14 30 9 23 22 16 30 17 24 34 21 22 16 30 35 13 26 27 27 21 24 27 14 23 10 31 24 13 24 16 20 10 21 34 28 31 38 27 24 16 24 35 30 20 20 31 3 31 24 28 17 6 27 25 28 24 29 28 16 17 21 31 34 10 20 17 20 24 23 17 23 16 14 16 13 30 20 27 41 33 28 27 16 13 23 10 19 17 21 17 17 16 24 17 23 20 33 13 23 34 26 10 21 44 24 17 26 34 16 11 28 27 23 24 30 18 14 40 34 23 26 16 19 17 14 33 20 29 24 10 23 21 13 13 6 30 17 17 20 28 24 31 13 20 27 17 24 21 21 30 13 16 24 13 14 27 17 6 13 27 9 23 6 16 13 24 40 27 22 19 20 27 26 31 10 21 31 27 30 25 28 23 20 31 13 20 20 10 17 23 24 23 33 30 9 29 24 13 20 18 14 27 35 20 14 17 13 19 9 20 24 26 31 28 17 19 14 13 21 15 21 17 13 16 12 33 10 31 22 17 26 19 38 24 30 24 20 10 31 24 20 28 16 9 18 19 13 27 16 17 23 34 23 18 27 17 16 28 45 16 16 17 27 13 6 34 28 21 20 27 27 15 14 13 24 21 9 22 20 30 16 14 17 13 16 27 17 24 17 18 30 34 28 9 30 14 31 36 24 9 30 18 24 23 14 13 14 23 33 10 19 13 27 24 9 27 41 42 17 18 13 17 24 26 20 26 26 15 38 35 21 20 21 15 35 20 20 13 41 6 20 26 20 20 20 41 12 20 21 15 21 17 26 19 15 26 20 17 24 20 23 24 29 21 9 21 27 35 7 26 23 31 7 30 13 38 24 23 6 31 16 38 24 13 20 21 27 11 27 6 3 29 10 21 20 27 29 27 27 27 16 17 17 31 31 16 24 23 20 17 20 25 13 14 23 20 28 20 13 20 30 27 10 27 37 25 7 34 18 18 24 10 21 35 19 17 16 24 14 17 17 20 31 17 11 27 22 23 24 33 34 29 20 28 27 24 24 19 30 20 24 25 28 20 31 25 21 51 27 15 20 26 12 13 34 7 24 37 20 33 33 13 16 17 42 10 24 34 28 6 33 20 27 13 29 24 27 27 31 14 10 37 34 14 17 25 21 16 24 17 27 16 12 7 21 27 28 17 41 26 16 23 38 24 24 16 17 24 6 12 27 40 17 23 23 23 19 23 21 6 24 18 36 20 24 25 24 15 20 33 24 22 24 14 29 20 33 17 33 34 13 24 28 7 26 24 30 7 23 23 36 31 21 20 17 16 31 33 10 17 38 10 16 24 20 28 16 13 20 32 27 16 45 27 33 20 35 17 9 30 16 19 27 37 20 20 33 13 28 31 9 24 35 24 14 19 23 21 24 26 18 27 24 40 13 19 20 35 31 24 27 31 7 28 24 16 38 20 32 13 26 23 24 25 16 20 17 29 26 20 27 20 24 6 17 21 15 26 23 21 17 27 23 41 30 23 24 16 14 27 22 16 20 20 20 16 19 8 21 24 26 16 20 31 7 28 24 13 23 24 17 21 28 14 22 3 9 28 15 24 21 31 7 17 6 29 17 19 19 31 23 23 27 7 24 35 27 14 34 22 29 10 27 16 18 20 13 21 16 31 10 19 21 22 21 28 13 10 35 28 16 34 17 32 28 27 12 22 13 20 24 13 24 23 13 7 21 26 30 19 32 6 25 28 36 24 23 27 26 23 31 36 24 21 31 10 30 27 13 26 23 24 20 16 10 6 27 32 19 24 13 24 22 20 34 27 31 38 19 23 25 12 24 23 24 28 19 29 28 31 17 19 27 23 17 31 30 26 29 13 29 41 34 20 7 23 31 10 23 21 29 31 27 9 8 37 38 13 12 24 26 20 31 28 17 14 22 17 30 22 17 33 25 30 24 24 23 24 20 20 27 20 10 27 34 24 17 24 14 21 21 7 31 17 19 26 20 26 17 23 6 42 20 23 26 26 24 16 17 6 16 24 21 31 19 6 17 37 16 24 24 38 20 6 24 19 22 22 27 10 21 14 20 27 17 13 23 10 26 25 34 19 13 20 29 24 17 26 29 23 17 27 17 23 31 27 10 27 20 24 20 34 17 27 24 26 31 14 20 30 21 16 20 20 20 27 20 24 27 17 34 27 20 21 13 24 20 17 7 25 7 23 6 30 26 20 14 16 10 23 19 23 13 14 28 12 20 26 19 6 20 31 19 21 13 24 22 21 24 24 17 10 23 24 24 31 24 31 23 23 20 22 33 24 10 17 25 37 26 26 21 20 21 22 23 27 14 16 17 34 24 30 20 27 30 27 12 24 3 19 18 23 28 28 37 23 21 15 15 16 16 21 20 16 31 10 21 23 23 12 14 26 26 29 20 20 17 9 17 27 20 17 15 27 39 13 20 27 28 23 13 35 6 13 7 24 28 22 24 20 24 16 13 20 16 27 16 30 21 12 17 23 24 34 13 27 30 19 28 16 24 15 23 19 19 18 23 16 24 25 23 14 21 20 38 20 16 7 7 21 17 30 21 24 20 17 6 24 10 29 10 23 13 24 14 20 7 16 17 27 18 20 24 13 17 30 45 21 9 10 27 30 8 19 17 33 27 41 17 22 23 22 20 10 10 30 13 20 9 29 24 19 30 16 37 23 34 13 14 22 13 10 20 22 30 21 9 17 23 14 17 17 13 33 30 27 27 45 31 15 16 30 27 17 24 24 18 24 23 31 27 16 20 10 27 37 15 21 33 25 31 24 24 38 20 27 21 23 34 20 17 20 24 31 24 29 16 23 24 17 17 15 30 19 28 27 30 24 16 23 30 21 17 7 9 7 27 20 13 21 27 13 14 27 6 9 27 19 27 23 16 8 24 33 17 23 26 28 6 38 10 21 27 17 28 42 24 24 9 21 27 10 28 9 21 20 16 24 28 20 26 32 25 13 13 13 30 19 20 20 23 33 19 27 18 34 13 26 35 17 7 17 21 26 28 30 9 37 45 17 20 38 24 17 23 28 9 27 19 13 24 22 27 31 31 23 33 19 27 16 3 23 34 12 20 14 35 30 17 9 24 16 13 3 24 9 35 41 27 19 24 27 20 19 19 28 37 19 3 30 17 10 22 17 20 13 16 17 24 23 17 21 17 19 23 20 27 21 31 16 20 24 30 24 20 16 34 21 26 28 23 42 10 24 27 19 26 31 23 40 27 38 37 27 24 10 0 34 34 7 13 24 13 28 40 31 12 30 7 35 10 30 12 24 20 30 27 10 44 31 30 15 17 35 12 24 25 36 27 24 13 21 12 16 17 24 16 27 31 24 23 23 30 18 22 34 23 20 10 29 17 26 20 25 14 44 27 29 21 15 24 20 16 20 21 41 27 31 34 31 28 17 20 23 13 34 30 31 26 13 23 17 25 23 23 24 31 22 23 19 20 21 13 30 27 20 18 17 25 20 17 7 20 13 34 28 10 14 30 14 20 37 8 31 38 27 23 16 14 21 9 30 20 19 17 31 24 34 18 14 24 21 10 24 27 25 9 19 21 20 23 26 24 20 38 27 28 23 16 24 20 28 16 34 27 24 34 17 21 20 31 19 14 30 20 21 25 30 21 20 16 33 27 24 20 24 35 37 20 6 20 24 23 16 9 14 10 20 22 24 24 24 21 10 18 20 13 16 13 15 23 19 22 24 20 24 24 34 23 31 10 7 24 20 41 27 23 32 20 10 14 13 10 27 26 23 38 34 30 23 34 10 23 16 24 17 34 21 16 17 6 20 24 31 19 19 23 13 51 24 13 30 19 23 23 16 6 28 30 25 16 17 10 31 20 24 21 20 17 31 20 17 17 13 20 17 40 20 26 33 24 27 16 24 29 19 20 14 20 20 21 27 16 19 17 30 23 34 7 35 17 27 34 13 10 23 23 30 14 21 23 27 42 17 20 17 3 17 7 0 21 21 28 17 25 31 12 6 16 48 24 16 20 17 34 31 19 33 24 23 17 19 10 29 24 17 19 11 24 28 7 13 21 33 17 31 17 19 35 16 24 30 26 22 24 27 13 24 27 19 18 30 33 23 16 23 14 28 20 23 30 27 21 10 13 27 13 16 30 10 17 26 23 16 25 34 34 26 7 31 25 28 30 29 23 31 14 23 6 20 37 10 21 31 34 27 16 29 23 13 17 23 13 40 25 27 24 14 15 15 17 15 17 23 17 28 28 28 17 22 38 20 29 27 13 31 23 24 13 16 20 33 17 10 17 24 19 10 20 37 34 23 31 26 23 24 27 38 26 37 24 20 23 21 23 31 24 27 22 31 27 31 26 30 16 13 23 16 17 17 10 28 34 24 20 13 24 20 7 31 20 30 7 6 20 27 9 19 10 21 17 29 13 31 17 16 6 21 35 26 13 28 21 28 19 20 3 7 13 24 22 10 27 16 27 16 21 30 31 24 25 13 20 15 30 7 28 28 27 27 42 30 14 9 17 27 24 23 38 9 27 34 34 26 23 41 30 17 25 10 21 27 16 21 35 32 26 19 20 38 24 21 34 21 33 30 25 31 25 18 17 25 17 23 38 41 19 23 13 24 15 14 17 38 21 16 20 6 21 17 20 24 23 16 34 28 15 7 17 28 28 20 20 17 10 23 26 27 24 32 26 17 10 34 21 24 15 24 16 20 27 10 20 28 17 20 42 30 14 21 20 16 31 31 20 20 21 27 12 45 23 27 6 28 21 24 17 9 20 20 24 14 19 20 19 22 20 34 29 17 19 16 23 30 31 21 18 16 25 24 24 31 24 19 30 20 14 17 30 20 37 24 41 14 17 33 41 34 17 14 24 28 10 20 24 21 38 26 20 17 12 28 21 21 30 30 17 20 19 22 29 24 26 27 20 12 42 28 16 31 22 20 24 29 17 17 12 27 47 23 14 43 20 37 20 27 28 16 17 17 30 14 20 38 23 21 10 14 34 6 24 13 19 17 17 41 14 31 23 37 21 25 20 16 24 21 49 14 37 24 24 19 47 26 6 24 41 17 15 21 30 14 31 18 24 31 29 23 26 16 35 10 31 29 34 20 24 23 3 17 20 24 17 16 38 35 20 40 6 31 9 16 17 26 23 17 21 20 31 18 13 20 10 27 30 30 31 16 30 27 38 23 13 26 24 30 28 31 20 24 30 31 20 27 21 24 24 27 26 29 28 24 27 29 24 13 27 20 20 29 26 24 9 21 34 30 31 16 10 17 13 10 7 17 6 16 16 17 16 28 20 3 16 27 27 17 19 31 7 30 27 15 17 30 22 28 34 24 22 23 21 26 10 23 33 29 31 21 19 31 34 17 41 14 17 28 30 26 9 16 20 20 17 16 23 6 27 34 37 23 23 29 23 29 17 31 21 10 22 7 30 7 17 10 24 16 23 28 15 17 21 27 33 23 20 26 40 13 27 38 34 25 20 35 17 24 34 17 21 27 23 24 23 24 20 26 13 9 28 37 19 24 16 27 21 17 26 6 27 27 21 6 30 21 34 23 6 24 36 18 21 34 9 24 21 21 26 9 25 31 16 17 21 24 22 27 31 21 16 19 35 16 19 27 20 28 16 31 26 17 38 22 30 31 24 31 33 35 13 37 23 25 6 43 16 24 27 16 35 10 29 3 24 21 13 31 30 10 14 29 23 26 13 12 20 17 23 17 17 34 27 16 10 28 28 38 16 17 38 10 27 28 10 12 30 13 6 24 31 21 34 14 31 28 23 17 27 13 9 14 28 34 23 33 35 27 34 16 13 27 30 17 17 17 31 29 20 17 30 16 19 28 27 20 12 14 30 23 19 38 34 23 17 26 3 19 38 3 13 38 32 17 24 23 19 10 27 30 23 38 24 13 25 17 3 31 20 14 23 17 28 20 23 19 14 24 17 20 3 23 26 19 19 27 20 17 28 30 31 14 33 19 10 23 38 31 24 13 23 24 21 17 27 31 33 16 9 20 13 21 23 16 23 13 30 9 29 16 31 7 3 26 21 30 13 31 29 21 31 28 3 10 20 14 10 34 18 19 20 8 32 10 20 20 10 17 16 23 25 17 24 27 16 12 14 35 13 13 24 17 24 13 17 27 19 28 23 21 20 17 29 20 10 10 10 28 19 20 38 23 26 20 10 27 20 22 21 30 17 27 11 35 28 20 17 22 10 16 21 24 25 29 20 16 37 20 26 27 27 9 41 6 10 17 17 13 17 30 20 20 20 16 17 6 17 20 16 17 31 7 20 24 21 32 20 23 15 23 28 23 24 17 26 50 33 20 38 13 7 22 24 32 19 30 25 20 30 27 10 30 27 22 20 34 27 10 16 24 31 19 14 19 21 27 29 17 33 27 19 31 22 10 13 10 17 17 30 20 41 12 29 28 16 28 20 35 9 31 24 17 31 6 22 10 19 27 10 28 26 28 21 27 17 20 22 21 10 16 21 14 10 37 27 27 27 34 6 22 13 27 26 13 22 34 15 28 16 25 28 27 23 34 16 16 17 28 45 31 6 24 13 6 31 42 24 38 7 28 23 16 16 14 27 37 24 31 13 13 26 28 10 21 14 26 24 38 23 21 13 33 17 24 17 22 37 7 14 27 40 14 20 34 20 27 25 13 21 16 18 26 27 17 20 24 17 6 10 16 37 22 20 17 40 29 32 27 24 32 26 17 13 26 13 20 27 28 10 10 13 18 13 23 14 13 13 28 9 31 26 6 21 24 27 16 24 10 31 22 18 19 26 9 21 22 28 21 27 15 26 7 27 23 22 17 31 23 41 17 20 19 27 24 19 17 21 31 15 3 34 20 20 24 16 13 14 27 20 19 18 20 27 17 9 23 37 10 14 24 21 21 23 6 6 20 24 20 16 16 13 10 20 30 19 23 10 13 14 23 16 13 31 24 17 23 24 23 25 14 16 3 23 13 20 6 26 19 23 28 20 26 23 23 17 37 14 24 21 20 31 17 26 15 9 12 34 13 24 17 19 24 23 9 17 20 20 12 24 40 34 30 20 27 27 31 19 16 6 31 30 28 23 10 24 21 23 19 30 31 38 9 27 48 17 18 28 3 24 13 24 9 27 23 27 23 16 13 14 10 19 36 28 36 28 23 31 14 21 19 29 13 42 27 26 17 13 38 9 31 27 18 16 10 19 21 13 13 24 28 27 24 20 21 23 40 28 26 10 7 27 23 6 27 17 24 20 24 14 24 23 14 35 48 17 27 21 23 19 19 41 35 32 31 21 24 3 15 29 21 17 23 29 28 27 37 34 20 13 10 17 27 26 9 24 17 20 24 16 14 10 37 13 20 17 26 34 13 14 6 21 21 14 20 24 16 9 15 28 22 27 31 24 30 10 34 34 24 41 31 20 19 16 27 27 15 10 20 31 30 23 13 20 31 20 30 6 17 10 26 10 34 20 34 26 20 16 21 13 14 24 10 14 20 22 20 15 7 13 23 14 27 6 27 17 24 35 17 14 10 32 27 18 22 28 10 12 29 23 20 20 21 41 23 6 24 33 10 14 27 20 33 17 30 34 13 24 27 24 31 20 17 24 17 20 17 27 13 22 29 15 37 10 17 33 27 27 30 16 13 20 38 23 17 27 7 13 21 13 30 13 27 30 23 27 20 17 31 23 19 35 21 27 25 20 20 20 29 35 12 7 23 17 23 31 13 24 34 19 14 25 27 23 20 21 24 13 23 6 17 31 16 7 10 31 10 27 30 17 24 22 35 26 31 24 24 32 25 17 23 20 21 10 21 14 13 23 23 21 7 31 30 8 24 20 13 27 17 21 24 44 10 15 35 12 18 17 13 14 31 31 20 19 13 11 17 34 26 27 13 38 3 23 31 32 36 42 14 24 35 35 20 11 28 30 13 13 21 34 26 30 15 24 23 14 31 21 13 24 16 27 24 28 20 37 34 22 6 34 28 27 14 35 26 23 33 23 28 25 30 20 18 24 19 16 17 27 19 20 17 21 27 20 30 20 24 19 13 17 19 20 31 36 26 37 10 41 28 21 24 31 14 13 7 10 16 25 34 20 22 26 29 21 27 14 31 41 30 30 17 17 28 26 28 27 7 13 16 20 37 34 17 23 30 24 15 16 24 27 26 6 13 20 17 24 17 21 20 13 17 24 31 20 24 21 27 23 20 7 27 14 17 26 10 20 20 13 30 37 27 38 20 20 10 27 13 30 24 31 21 15 7 17 30 31 16 20 25 27 16 12 20 17 20 19 21 13 16 23 23 31 13 20 21 34 10 7 20 22 23 28 17 20 13 10 10 27 6 14 28 23 20 13 27 16 19 14 16 20 20 17 37 29 24 31 27 30 10 31 14 16 17 28 23 16 26 41 28 21 37 26 27 14 24 30 15 23 17 25 30 10 10 28 27 3 20 27 17 35 21 19 31 20 27 20 24 16 44 17 26 23 20 13 27 24 24 38 17 7 23 6 31 23 16 28 7 20 19 29 10 23 24 16 10 22 25 30 13 20 10 21 23 23 9 6 31 24 16 26 27 31 24 16 34 20 26 29 14 30 20 20 9 20 31 33 16 29 22 21 13 17 17 20 24 17 31 23 27 7 17 20 17 21 24 27 24 21 22 26 31 31 31 10 35 14 6 17 27 20 9 27 20 3 9 23 24 15 26 19 24 17 16 22 24 31 28 28 16 48 24 17 20 23 13 13 23 24 20 24 21 17 37 18 20 20 17 28 29 23 34 30 30 19 36 17 23 17 27 7 10 34 30 17 20 20 27 20 19 23 20 17 10 23 34 24 35 37 14 28 20 24 24 31 23 16 24 20 28 17 22 10 24 13 27 28 17 13 35 31 20 24 28 17 16 13 28 14 24 27 23 20 17 17 12 17 23 23 20 27 36 27 24 27 30 19 9 31 10 26 24 15 20 15 20 20 28 17 23 19 21 24 24 6 31 17 23 17 20 18 23 35 20 24 24 41 19 27 19 31 20 23 38 13 31 14 19 27 23 23 45 16 28 24 13 20 7 19 24 12 23 24 19 30 24 16 37 23 31 25 20 17 27 15 17 17 24 13 24 40 21 30 21 6 19 7 26 20</t>
-  </si>
-  <si>
-    <t>FTL(0.05860468791092924, -51.32038768116999, 74.10592913177821)</t>
-  </si>
-  <si>
-    <t>16 20 25 22 20 22 19 26 23 17 15 17 28 24 22 33 27 25 19 24 27 30 21 27 26 24 29 21 20 22 21 22 20 18 13 24 19 22 30 28 25 21 22 29 22 19 26 11 17 30 29 19 21 25 21 23 21 26 26 26 34 17 24 21 23 29 22 24 29 15 20 17 24 21 18 19 26 21 23 23 23 17 21 23 24 25 27 21 23 36 23 15 23 36 21 29 27 26 21 19 29 26 22 29 23 26 19 27 24 21 18 17 28 24 29 20 23 17 26 22 12 24 25 23 22 19 31 21 25 22 20 23 25 17 19 25 30 22 20 19 16 25 23 26 24 25 13 18 21 20 18 25 15 21 29 23 16 23 23 18 24 26 20 18 19 20 25 21 26 23 19 29 26 16 28 23 26 27 21 22 27 25 20 30 25 23 20 20 21 30 26 21 20 23 20 21 23 23 21 24 13 23 21 22 23 24 21 26 21 16 24 18 25 24 26 20 25 22 29 21 19 16 22 20 21 23 23 19 24 30 23 30 20 23 18 20 27 25 21 20 24 22 28 21 23 15 28 16 18 17 23 22 19 26 24 22 31 24 18 36 23 22 22 21 23 19 28 21 23 22 21 19 20 26 21 20 17 23 26 22 29 30 17 23 19 22 32 34 28 24 21 20 17 18 21 22 27 15 18 25 28 18 21 19 34 24 22 18 24 22 21 27 23 16 23 33 21 26 29 18 23 27 26 21 19 15 25 21 19 22 32 22 18 23 18 20 27 21 18 15 30 28 23 21 19 29 23 24 16 19 27 25 25 28 29 23 26 21 25 22 30 20 22 26 23 23 23 30 17 21 26 20 26 30 26 25 21 19 17 28 27 22 22 26 28 25 36 21 20 19 25 29 19 21 16 23 27 25 24 21 26 19 20 27 19 27 32 22 25 18 20 26 27 18 25 17 22 24 25 22 20 24 25 23 21 19 17 21 22 23 21 24 17 16 20 27 19 26 35 21 32 24 28 30 27 22 26 26 20 16 24 20 15 24 21 24 25 30 21 31 21 20 22 26 21 23 19 22 20 19 24 23 23 21 19 14 18 17 19 25 23 14 26 22 33 21 23 24 25 26 12 31 34 23 20 23 28 26 31 27 21 29 19 21 23 26 28 21 22 25 16 23 22 22 25 20 24 29 19 20 15 17 27 18 16 21 21 26 21 26 27 24 26 22 23 20 19 20 21 22 26 21 24 33 25 27 26 18 28 18 29 26 30 32 20 22 19 17 23 24 16 26 33 18 24 20 19 18 17 21 22 19 18 25 22 23 23 21 18 29 31 29 19 18 32 21 17 32 22 22 26 25 30 23 16 29 16 15 17 20 24 25 31 24 18 34 21 22 21 22 29 20 24 17 25 21 23 16 14 26 30 27 32 21 28 26 25 17 20 25 27 18 23 24 30 29 23 26 18 25 24 29 21 24 24 21 26 21 33 34 21 22 19 21 31 20 24 28 17 24 25 23 31 15 25 25 15 26 22 26 18 20 21 25 29 23 24 26 21 27 22 28 23 17 27 24 22 29 27 24 28 24 23 26 27 15 26 12 25 25 19 20 28 24 25 23 21 33 26 19 20 14 35 17 29 21 29 26 17 15 25 19 17 20 23 20 21 20 25 22 28 27 19 17 22 24 22 18 15 17 21 23 25 13 18 19 20 29 24 24 22 22 23 24 17 24 21 24 16 19 15 18 26 33 22 20 23 27 25 22 25 21 23 23 20 19 24 27 26 23 30 24 30 23 24 15 27 19 27 25 28 19 18 20 22 21 20 25 14 29 20 19 22 15 22 26 27 12 22 22 18 20 23 28 23 29 27 21 19 18 19 27 20 17 16 21 25 27 15 21 23 19 20 27 26 18 27 23 20 28 23 13 23 26 18 25 18 21 13 26 22 26 21 26 22 28 16 24 20 24 32 31 25 16 18 23 22 24 20 25 19 23 17 28 18 20 25 23 20 27 30 22 21 27 22 19 34 26 23 21 18 19 29 20 17 25 27 23 19 25 25 27 21 26 23 16 29 20 21 19 22 26 21 22 13 34 19 25 26 19 20 22 19 28 22 25 27 25 19 21 20 16 21 20 22 14 21 21 17 23 23 25 24 27 35 20 24 29 23 24 29 28 27 27 20 21 26 23 16 16 23 17 19 20 19 32 22 24 25 25 26 16 21 22 26 23 30 22 17 18 24 20 22 18 24 21 14 25 21 13 29 22 17 18 33 21 29 20 15 28 21 32 26 18 20 21 20 28 20 13 29 21 23 18 28 20 24 20 25 26 15 22 20 30 21 27 18 20 29 25 23 25 18 21 23 24 22 27 24 29 23 26 25 17 27 22 21 19 24 23 23 20 30 22 27 22 19 32 25 16 22 24 24 24 28 18 28 19 20 22 26 20 20 20 19 26 29 14 28 19 24 21 18 24 18 32 29 19 21 29 22 23 28 17 19 36 21 21 20 18 27 24 26 21 22 28 17 18 24 25 19 22 20 29 28 22 29 28 33 23 34 22 29 22 20 22 18 22 27 26 27 22 21 25 18 19 21 26 23 18 24 17 19 21 22 20 29 25 19 21 19 16 24 23 21 22 12 20 22 23 29 19 17 22 26 24 20 22 22 18 25 26 21 25 21 25 22 22 20 28 16 16 24 26 26 21 23 17 17 26 24 19 20 22 29 22 25 13 28 22 21 20 22 21 19 24 22 25 21 23 22 26 27 22 22 18 22 19 25 24 24 16 24 31 17 16 20 20 35 26 22 19 16 22 23 23 22 24 21 25 20 22 19 23 15 26 19 22 24 32 26 22 22 28 23 21 18 21 26 20 32 16 26 18 17 25 17 24 29 19 20 25 27 22 22 22 20 18 19 17 20 24 27 25 29 18 32 29 24 24 26 21 19 20 26 27 22 16 22 20 19 27 17 17 25 19 24 20 27 27 18 29 27 17 28 15 27 28 22 22 34 20 24 28 21 23 14 34 26 20 20 24 26 30 23 20 22 26 16 26 23 26 22 20 23 24 17 22 23 18 28 25 25 22 18 24 21 26 20 18 18 22 17 18 19 25 19 29 20 25 25 23 23 23 22 28 15 17 17 23 19 18 25 24 19 29 23 31 22 25 24 37 25 19 29 22 18 23 26 19 18 25 28 19 23 31 23 21 18 26 22 26 18 17 15 25 28 22 21 18 28 20 27 25 17 17 26 32 24 20 21 27 30 25 21 22 24 17 23 22 26 31 19 23 23 26 27 23 19 20 25 22 20 24 25 24 27 30 20 20 24 28 27 16 20 27 32 20 21 18 32 21 21 27 23 22 18 23 28 19 23 26 22 21 24 32 19 21 25 19 31 16 23 21 19 22 24 28 26 22 21 16 23 22 32 27 26 25 26 19 17 28 25 21 28 24 20 30 17 24 16 22 23 29 16 27 26 25 11 20 20 21 16 22 25 24 22 24 25 19 25 21 16 19 21 24 13 21 22 29 20 22 18 22 20 21 29 25 21 23 28 20 16 29 28 17 21 22 23 32 30 25 22 16 19 23 24 25 27 21 30 22 22 22 14 29 25 29 22 22 28 25 27 21 31 21 29 18 22 20 22 21 21 28 24 33 22 22 18 15 21 15 32 31 22 29 32 29 26 18 22 20 22 31 22 24 26 25 20 22 23 23 25 23 20 27 22 20 25 27 26 28 25 23 20 34 23 22 22 27 27 23 22 26 25 19 18 25 27 20 26 28 22 20 20 25 19 34 27 21 20 22 20 23 27 19 20 22 25 26 23 21 24 24 32 23 22 21 16 26 22 23 27 15 24 21 20 21 26 29 22 23 29 19 15 27 26 26 24 21 21 26 24 20 22 23 25 24 21 24 19 21 19 13 28 21 27 30 22 16 30 26 19 31 31 29 22 20 15 23 18 20 22 25 20 26 17 16 22 23 27 25 31 24 18 24 28 23 29 26 20 17 19 18 19 29 24 21 24 23 28 22 21 27 20 23 19 20 23 23 20 21 24 18 17 24 27 17 22 17 24 25 25 26 21 21 27 25 20 23 26 21 23 24 27 31 21 22 28 22 17 30 23 28 22 15 23 23 31 21 21 19 21 19 15 20 18 24 18 23 16 23 34 23 30 23 19 30 22 17 27 19 24 26 24 27 20 22 25 17 31 32 19 28 26 22 26 24 35 23 24 22 29 21 25 22 22 19 28 20 23 28 18 27 28 24 23 27 24 17 25 22 17 24 21 16 19 21 26 23 21 14 30 24 22 26 23 21 24 25 27 26 28 18 20 31 19 26 23 17 25 23 18 19 20 22 21 21 18 27 21 21 26 19 17 20 21 22 28 19 25 27 22 21 25 31 27 21 28 15 17 20 18 22 25 19 16 27 24 31 18 22 24 30 21 18 21 23 22 27 24 21 23 27 28 27 30 20 21 21 20 20 24 21 25 22 17 25 27 27 28 20 23 15 17 27 20 14 14 15 32 25 27 25 19 18 20 22 22 22 30 24 30 23 24 23 18 19 22 23 25 22 24 23 21 18 16 19 22 19 29 27 27 25 14 26 19 30 18 27 36 18 25 21 16 19 20 17 20 20 20 20 19 19 22 25 26 20 21 25 17 21 17 21 21 22 25 17 22 18 22 18 22 22 25 17 26 23 19 23 24 29 29 26 19 18 32 22 21 23 26 23 27 28 29 27 25 33 28 26 25 22 29 19 25 25 21 22 21 35 27 21 18 19 17 22 21 26 19 24 25 19 29 21 22 21 20 28 15 21 24 25 29 28 18 19 18 18 29 21 31 22 27 22 23 28 23 16 31 25 26 20 27 25 25 23 20 22 22 31 19 31 25 22 27 19 29 27 25 21 24 30 24 16 23 19 23 26 26 25 22 14 24 20 25 16 32 24 24 28 21 19 20 21 30 26 27 12 32 23 22 21 24 20 21 14 22 22 23 26 27 28 20 19 21 16 19 24 17 28 25 27 15 23 16 35 18 15 21 18 28 11 22 24 22 22 22 24 24 19 25 20 26 18 22 30 28 24 24 24 20 26 15 17 22 18 35 17 22 21 18 24 23 20 24 24 24 22 20 22 28 18 23 32 26 23 28 23 23 20 20 25 22 19 27 26 33 28 21 24 33 26 28 23 24 21 17 25 23 23 21 18 19 30 22 23 26 26 22 31 18 23 26 35 21 20 21 26 19 33 23 18 24 15 26 18 35 12 17 19 27 26 22 26 24 22 19 16 22 24 24 23 21 26 22 20 27 23 37 22 20 13 16 20 23 27 24 21 25 25 27 20 23 24 28 27 28 19 25 28 23 22 22 27 19 20 27 25 18 28 17 29 25 19 30 19 15 22 29 18 20 18 20 29 17 25 31 25 27 18 19 22 26 22 19 26 23 21 26 28 23 26 29 32 24 23 25 31 23 17 32 20 31 20 16 31 29 17 23 23 19 17 24 30 23 25 22 25 18 21 18 22 25 27 25 27 22 21 16 21 27 15 24 27 18 17 24 23 24 26 22 25 27 19 25 24 20 21 26 29 24 20 27 20 23 24 27 20 20 22 23 19 21 32 17 25 23 27 25 24 16 16 29 23 21 16 27 21 22 16 17 23 16 26 20 23 23 19 29 22 15 19 29 21 22 22 24 18 20 17 25 17 18 28 23 30 24 24 23 26 18 32 31 25 18 25 28 28 25 16 16 27 20 31 26 29 21 21 24 22 25 27 18 19 23 27 18 19 17 22 25 18 25 23 23 21 21 20 21 21 23 25 21 29 22 25 27 18 28 20 18 20 15 23 17 26 19 26 16 28 28 13 17 38 22 29 22 28 24 20 28 24 29 26 25 28 19 30 24 16 18 23 31 24 27 25 22 22 25 22 23 24 24 24 18 24 24 23 20 18 25 21 20 22 23 26 30 22 24 24 17 29 27 26 23 23 24 16 20 22 29 18 24 27 22 25 22 22 27 27 26 12 22 23 21 29 19 28 31 21 18 22 21 17 15 28 18 22 29 20 19 29 21 22 26 22 29 30 20 31 19 26 20 25 20 23 22 27 28 23 15 18 24 28 26 18 23 18 26 28 17 25 25 21 31 22 21 24 22 26 17 21 25 21 22 21 23 21 23 18 25 18 19 30 28 26 21 22 16 21 22 27 23 16 23 15 17 28 19 26 26 27 24 24 24 19 22 35 22 29 21 20 26 21 26 28 26 21 25 13 28 25 25 21 21 17 19 29 24 26 25 27 25 22 25 29 18 21 18 32 27 27 24 30 22 25 21 25 28 28 22 21 25 21 20 21 23 25 18 26 24 17 24 25 23 30 21 23 24 18 19 18 33 29 22 15 26 25 17 22 23 19 22 19 23 25 22 27 18 26 20 28 20 21 23 25 25 22 26 22 24 29 22 25 22 24 27 18 17 25 32 24 23 15 19 25 22 22 16 29 21 29 22 25 25 24 21 21 23 21 21 24 26 23 33 21 16 19 23 24 21 17 26 28 19 24 19 33 28 22 22 21 24 21 23 28 21 16 15 22 26 20 24 33 18 17 15 23 22 19 25 19 28 33 28 21 23 17 22 19 17 23 23 25 22 14 26 21 30 19 22 28 22 21 21 23 24 31 19 10 24 32 21 18 12 26 30 18 21 31 33 28 22 30 19 28 28 22 22 25 25 30 23 31 18 17 19 16 21 27 19 17 23 29 17 20 16 15 23 20 27 27 22 20 23 28 15 23 26 16 23 27 24 24 24 27 21 29 32 24 24 21 21 27 16 23 20 18 28 24 21 25 19 25 17 23 23 24 26 21 14 23 8 27 17 22 29 22 22 22 22 22 23 18 25 25 18 11 17 23 26 32 28 19 20 19 27 24 26 26 27 25 18 23 30 22 30 30 21 30 18 15 18 27 19 23 13 18 20 19 21 23 24 23 20 25 30 24 31 28 18 21 32 22 20 23 21 24 23 21 16 16 27 26 22 20 19 23 17 27 21 26 31 32 22 20 28 23 28 17 30 29 20 27 22 16 26 19 27 22 25 22 25 34 29 25 26 23 30 19 21 13 22 25 21 16 24 18 24 22 22 21 25 16 19 19 22 17 17 25 30 23 24 28 26 20 24 21 25 20 26 24 28 18 24 31 24 18 22 26 25 19 23 23 23 22 18 18 21 15 27 31 18 19 21 23 16 27 23 22 26 19 23 27 21 20 24 25 17 18 22 27 21 26 21 26 24 24 26 15 18 27 30 26 18 18 20 18 23 27 18 24 28 20 18 28 23 22 23 22 19 29 26 22 17 20 25 26 24 31 22 25 17 26 26 25 27 26 26 25 25 24 23 18 21 22 26 14 21 26 17 18 14 24 21 25 20 22 16 31 26 21 25 23 30 27 25 23 22 18 23 28 18 25 16 17 21 10 26 23 17 37 9 19 27 15 25 24 28 22 29 20 25 18 15 24 14 22 20 20 31 21 22 25 20 27 25 22 23 28 26 30 21 21 20 24 20 25 20 22 20 21 27 20 21 19 29 22 20 14 20 25 21 18 20 24 30 26 25 31 20 22 19 23 20 32 20 36 26 31 22 27 23 27 20 30 19 27 24 25 20 21 19 26 33 18 21 25 19 28 17 29 15 30 30 26 16 23 29 18 29 26 25 22 30 16 31 31 27 17 25 23 28 17 26 22 23 27 25 28 22 26 25 25 24 26 20 24 25 30 19 18 18 27 25 25 25 22 26 34 28 23 23 28 12 27 22 17 23 18 14 29 16 31 26 25 17 19 19 21 26 25 15 19 28 21 22 36 26 21 28 28 21 26 28 25 25 19 22 24 23 16 26 20 22 25 24 23 23 16 28 14 23 35 26 20 18 25 18 14 25 17 26 23 22 26 29 25 16 21 27 24 16 27 20 21 35 28 24 26 28 21 25 30 20 27 22 28 33 16 21 18 23 24 28 20 29 25 29 24 20 25 22 23 25 25 24 24 30 23 26 26 18 19 24 22 18 21 23 20 23 28 14 22 27 26 18 18 24 21 21 21 30 20 16 26 22 23 21 21 23 24 23 21 27 21 30 25 25 25 23 23 26 23 23 15 27 17 25 21 25 26 16 19 21 20 19 16 23 20 27 20 28 12 34 24 27 20 25 16 16 15 15 24 25 19 15 26 25 19 24 24 30 21 23 22 24 21 22 23 28 28 17 14 32 27 20 18 20 22 15 25 24 14 23 12 21 32 19 20 18 27 18 28 21 22 33 27 20 23 21 27 24 22 18 25 22 24 25 18 14 27 22 23 18 16 22 32 26 24 28 27 24 17 26 32 23 26 25 14 23 20 25 26 23 23 29 15 18 24 24 26 18 12 25 23 22 27 35 16 28 26 27 20 22 21 21 24 19 20 19 27 21 22 11 24 20 30 28 21 21 25 21 18 24 22 20 17 25 23 19 28 26 26 25 16 21 27 17 23 16 35 24 22 21 27 16 20 19 14 19 30 23 28 26 21 24 20 23 29 23 21 22 17 25 27 25 27 21 22 20 26 21 24 16 24 22 17 25 23 21 23 24 24 23 16 20 24 18 21 23 31 27 27 15 27 26 21 20 23 21 19 27 23 23 26 24 35 24 17 23 17 19 23 19 17 23 24 25 22 21 24 21 23 18 20 26 24 22 16 29 24 22 16 32 15 17 16 16 25 20 28 33 22 24 19 20 20 23 27 26 21 31 16 17 21 21 28 21 14 24 24 23 21 15 28 22 26 22 22 26 21 15 23 22 34 31 18 25 19 22 20 22 17 30 26 24 21 20 24 25 19 24 28 30 18 17 27 25 16 21 23 24 22 21 18 30 27 19 27 24 17 22 16 24 31 22 29 21 15 25 24 30 22 22 21 22 26 25 22 14 29 24 24 26 24 29 23 13 16 21 24 23 21 19 20 18 25 23 24 26 22 20 23 30 23 28 29 20 26 21 20 28 25 22 19 27 22 14 25 26 15 21 19 27 22 26 9 34 21 18 16 24 29 29 31 28 35 27 20 24 24 29 34 26 20 38 20 17 25 18 28 23 29 26 22 12 20 24 24 23 17 21 19 23 18 18 18 29 25 21 18 22 24 22 16 22 25 18 26 19 19 28 32 26 21 25 14 22 20 29 20 13 27 23 17 32 20 12 21 22 22 21 22 22 22 19 22 24 19 22 25 29 21 20 27 17 19 18 19 30 24 24 22 22 21 30 27 26 24 18 18 20 22 21 28 28 26 21 20 26 23 21 25 26 22 21 25 25 17 33 25 15 23 26 24 28 19 19 27 17 14 18 24 28 22 20 23 16 28 19 18 19 18 21 25 19 23 15 30 25 31 22 19 23 22 32 31 22 24 22 21 19 15 18 24 17 25 26 22 25 18 14 23 16 22 22 25 13 19 23 34 18 18 27 21 20 18 23 26 26 21 24 23 17 28 18 22 22 22 21 18 20 12 17 24 19 31 27 21 22 30 29 20 26 19 29 23 28 24 33 20 23 21 19 23 27 26 19 24 28 26 31 23 23 22 29 21 33 23 31 18 21 25 23 29 30 16 20 20 28 20 24 19 21 21 22 26 26 31 28 20 23 17 19 26 28 20 19 18 24 23 21 33 16 23 22 33 34 15 23 22 18 17 25 27 21 13 17 23 21 14 15 26 24 24 16 21 35 25 18 19 23 23 26 24 20 28 26 27 20 22 29 23 26 23 25 25 24 17 25 16 31 20 20 22 26 29 19 21 27 23 24 25 24 19 26 21 21 18 20 23 21 22 15 28 25 31 22 25 27 21 25 26 19 25 21 21 26 29 21 20 20 27 21 28 22 17 26 21 23 27 25 31 23 28 29 24 28 24 24 24 27 24 21 20 27 28 36 23 23 24 27 17 25 21 18 25 18 23 26 25 17 22 16 22 21 26 17 22 25 12 22 18 27 21 30 24 25 24 19 25 17 26 20 19 22 22 29 17 33 23 29 21 26 22 19 18 22 29 15 27 28 22 21 13 22 25 25 19 28 17 34 24 24 27 14 20 27 27 28 32 21 32 27 21 25 24 20 24 19 17 22 22 23 22 17 24 23 23 30 30 18 18 26 26 20 19 33 25 25 17 23 16 23 23 18 17 22 21 23 26 21 25 34 30 20 31 32 20 22 23 15 24 34 24 22 25 20 20 17 24 14 18 29 15 15 20 29 25 23 24 15 33 24 20 22 29 20 16 29 28 21 32 18 28 28 26 23 16 22 29 17 22 29 22 18 22 21 20 25 31 32 13 14 28 28 30 26 13 31 24 27 18 18 20 21 20 20 22 24 23 20 21 21 19 24 25 30 30 24 35 22 23 29 32 23 22 23 20 21 27 27 29 18 22 20 28 15 23 21 24 25 32 17 22 20 29 19 23 19 19 23 29 30 18 25 22 22 18 20 21 18 26 23 24 27 23 26 32 26 28 25 31 21 23 20 25 17 29 35 21 31 25 17 20 21 32 22 31 28 22 29 25 21 24 21 18 29 22 21 21 13 25 25 30 32 22 21 30 20 31 31 20 27 24 27 17 29 23 26 20 18 18 18 16 18 26 29 18 26 21 24 25 21 28 25 26 27 23 28 22 29 21 22 14 25 23 24 16 21 25 22 27 21 27 17 25 21 21 25 22 17 28 24 30 21 26 17 21 19 23 20 32 24 17 24 28 21 24 17 21 23 24 16 33 20 23 20 20 26 19 25 25 23 32 21 17 28 24 22 31 21 23 30 30 24 19 21 19 18 21 26 25 5 28 33 34 22 23 29 30 25 29 17 14 26 17 21 28 15 23 29 19 27 23 33 23 25 18 20 17 17 23 23 22 25 25 24 28 21 21 22 21 27 23 22 25 23 24 24 25 28 29 21 21 22 16 25 19 25 19 22 28 28 21 25 23 27 15 15 27 15 18 27 20 20 24 25 19 24 20 27 22 19 23 26 21 24 15 22 24 16 26 23 26 25 34 29 24 27 16 24 23 16 19 30 32 21 20 25 20 15 27 32 20 22 20 21 27 28 27 18 18 21 18 29 32 20 21 22 24 21 19 33 26 19 14 19 17 23 21 25 28 22 24 19 17 24 24 22 21 28 30 20 18 25 17 24 14 18 20 21 24 21 13 30 21 21 17 25 19 20 22 20 19 24 31 20 23 24 19 13 28 20 22 15 27 25 31 25 21 20 16 21 28 19 17 26 28 24 19 28 25 23 24 20 20 25 22 25 26 25 31 28 19 25 19 22 26 18 19 25 27 28 21 25 24 22 19 27 24 30 23 28 20 26 25 20 20 20 24 17 19 19 16 22 23 27 27 21 14 22 26 23 25 17 23 25 29 19 22 24 23 27 19 27 33 21 28 22 20 23 22 17 23 21 27 32 20 16 14 20 28 24 23 18 27 24 21 24 22 17 22 25 32 26 21 24 22 20 14 24 19 21 18 21 21 25 24 27 17 17 32 33 28 19 21 24 27 27 24 27 24 26 28 21 27 16 25 18 27 23 25 27 25 22 24 28 17 19 23 24 26 22 24 29 25 27 16 27 23 27 26 22 19 27 29 18 28 26 14 20 19 22 14 21 27 22 31 18 26 18 25 26 20 28 25 22 25 32 25 26 24 25 25 23 22 24 26 25 18 28 29 20 26 16 21 36 20 31 22 23 22 27 20 18 17 13 22 25 21 20 16 24 16 19 19 19 33 24 18 14 16 25 26 14 25 25 28 26 21 21 17 27 22 25 21 21 20 29 20 26 25 31 25 23 30 15 24 24 34 18 27 17 20 13 20 15 30 16 23 24 25 26 26 25 22 31 19 22 22 23 18 21 25 25 29 15 20 23 23 26 17 22 23 22 20 20 20 23 31 25 23 23 27 22 23 22 23 22 23 24 23 22 23 27 23 30 19 27 24 19 20 21 22 18 20 23 17 16 23 26 31 26 16 16 26 34 24 31 15 22 23 27 22 29 15 27 31 17 27 26 23 22 23 25 21 29 15 22 21 21 22 23 22 19 25 29 28 19 21 31 24 19 24 15 31 26 25 17 18 20 22 28 21 19 24 31 25 25 26 24 20 18 23 18 29 24 25 25 27 23 27 17 26 17 22 19 24 32 25 20 26 28 29 26 18 19 27 18 19 26 22 18 26 24 21 24 24 24 25 21 19 22 23 24 30 21 22 30 31 25 27 18 15 28 17 24 30 27 22 24 21 17 24 27 27 24 23 20 22 29 24 21 27 27 21 23 25 18 27 24 25 22 19 19 19 20 23 20 18 19 17 22 22 16 22 23 22 22 30 14 28 28 19 24 32 14 25 26 19 23 28 29 21 20 20 23 18 20 27 24 27 24 26 25 18 22 15 20 18 32 24 24 31 26 27 22 20 22 21 18 29 28 22 26 28 16 24 30 25 15 22 21 22 24 22 27 18 16 15 23 25 20 23 19 26 21 22 25 24 25 21 29 25 31 17 30 21 16 18 17 21 31 23 28 24 28 23 25 18 17 22 22 22 29 20 24 21 34 26 34 23 23 22 20 24 22 25 23 20 33 21 20 27 13 28 22 21 10 23 34 31 21 25 21 24 24 17 24 19 24 22 26 29 17 28 27 22 23 18 25 25 19 26 20 13 24 22 18 21 23 16 20 28 24 22 28 23 21 23 15 25 29 24 18 25 25 16 27 24 19 29 22 26 21 28 32 24 14 28 24 20 22 24 26 21 19 17 19 18 28 20 25 23 27 26 24 22 15 29 32 14 25 33 21 18 25 25 22 31 23 23 28 24 23 29 18 21 22 25 22 20 27 23 21 18 19 24 24 16 23 25 23 31 18 22 25 22 22 20 19 23 26 21 24 22 24 22 29 25 23 17 22 21 24 24 19 24 21 17 23 20 26 20 29 31 24 26 22 22 29 26 23 26 31 23 18 25 19 29 27 21 19 24 20 19 24 14 18 20 26 22 32 21 24 25 34 23 27 18 18 17 19 18 24 24 31 30 20 26 30 27 25 22 24 21 31 32 22 23 28 22 19 17 24 26 21 24 26 20 25 21 21 20 26 21 19 24 27 26 14 24 29 17 19 21 26 23 17 21 22 15 17 22 30 20 29 24 16 18 26 24 26 19 33 23 30 28 25 22 29 22 30 24 24 25 19 25 31 23 20 29 24 26 26 23 17 20 26 16 24 31 23 19 21 19 21 31 27 27 20 26 19 23 19 22 21 26 33 15 17 23 33 25 29 25 29 20 25 24 13 22 23 20 25 28 29 28 14 17 20 22 31 25 30 22 27 22 21 21 24 24 20 24 20 29 26 24 21 25 30 25 26 29 24 28 17 23 15 21 22 28 25 15 22 27 30 24 15 28 24 22 20 18 20 25 22 26 26 21 24 18 14 27 21 25 28 22 21 22 23 31 23 26 29 12 19 26 22 22 26 21 17 23 22 22 19 31 13 19 21 27 30 20 25 18 22 25 21 25 25 20 19 23 22 18 35 26 25 23 24 25 18 26 30 24 21 19 27 27 21 20 29 24 19 26 26 21 28 28 27 24 23 21 28 21 20 13 23 15 27 21 24 18 18 22 24 30 18 28 34 27 20 22 27 23 25 22 19 15 21 18 29 25 21 16 15 22 19 20 27 29 27 19 23 25 18 23 23 27 31 21 26 21 23 22 21 23 21 38 19 26 24 24 11 22 30 24 24 26 24 13 27 21 28 26 19 34 20 22 27 29 19 20 18 33 24 28 27 24 26 21 20 22 19 16 17 16 26 17 26 25 28 21 19 25 27 28 22 23 22 30 29 28 23 18 20 25 20 25 14 16 29 20 25 15 17 18 25 31 26 23 22 24 23 23 26 20 24 20 26 20 21 18 20 19 19 21 27 27 19 21 27 28 25 28 18 19 24 28 21 19 16 26 35 26 26 25 21 26 16 12 24 21 20 26 20 19 25 20 23 20 31 18 24 19 27 18 27 27 25 17 22 17 32 25 24 25 21 25 20 22 29 19 23 27 22 17 25 24 31 20 23 16 22 21 27 18 17 13 19 33 23 26 20 27 18 17 30 20 23 20 23 36 16 23 20 24 22 20 24 25 28 22 20 23 20 21 27 13 26 29 20 22 19 27 19 27 20 21 27 16 23 29 21 19 19 15 19 18 24 24 16 22 17 28 25 28 25 19 27 24 22 21 28 26 22 20 21 28 18 25 30 18 20 21 17 24 19 23 23 30 23 29 22 26 16 23 28 22 25 23 18 20 21 24 22 19 22 24 16 22 22 22 22 28 23 15 27 23 28 21 25 27 24 18 23 14 26 28 23 22 27 19 23 21 25 26 17 26 21 23 23 21 19 19 24 29 22 24 26 22 24 18 26 23 20 17 29 25 19 26 19 23 19 20 27 25 24 26 21 17 19 18 28 21 24 19 22 21 25 21 25 20 26 19 34 16 18 26 26 16 20 19 22 25 17 23 22 21 24 19 32 26 25 21 23 31 22 34 18 27 22 31 30 29 24 24 20 20 31 24 19 17 25 25 18 23 21 25 31 27 29 19 18 20 24 24 16 24 31 22 21 27 23 19 30 26 25 19 21 22 17 15 32 27 15 26 19 23 21 25 16 25 21 16 17 25 23 31 19 30 22 23 24 23 26 27 23 19 24 18 16 25 25 20 22 24 18 30 25 28 19 27 22 23 29 19 24 21 19 24 27 19 31 22 18 27 22 24 22 26 23 19 22 23 10 24 18 23 22 21 20 23 30 16 33 18 16 24 25 18 22 27 17 23 26 20 27 26 20 25 29 25 21 23 29 28 21 29 25 26 32 23 29 24 30 23 22 26 15 26 23 18 24 27 21 28 14 25 16 26 20 27 18 22 28 21 16 26 20 30 18 24 23 16 19 25 19 31 21 26 17 22 21 24 30 19 24 23 28 22 26 22 30 21 15 17 23 23 27 23 24 28 23 24 28 25 20 34 23 20 20 19 20 23 21 20 26 24 18 28 21 21 17 17 28 16 23 23 21 15 22 21 20 21 16 23 18 23 21 23 24 23 32 17 15 20 25 21 17 27 21 22 18 29 23 18 26 25 23 23 23 22 20 29 22 22 20 12 16 27 26 17 18 31 25 22 22 22 19 31 27 17 24 23 20 27 20 12 28 26 22 27 18 23 25 18 20 27 23 22 23 27 21 26 21 30 21 23 20 19 24 28 29 24 15 29 12 21 33 29 27 30 22 21 19 17 12 20 27 28 21 24 26 17 23 27 26 26 28 20 27 26 28 21 22 21 22 21 22 26 29 19 17 26 20 24 24 26 32 20 19 26 29 23 23 19 18 27 16 20 23 25 28 20 18 15 28 27 27 17 26 23 23 26 20 22 31 22 25 26 19 24 30 21 23 29 26 21 24 21 27 22 29 19 26 30 21 20 19 27 17 26 19 30 22 21 24 18 18 20 33 24 27 24 23 28 15 20 22 21 19 24 20 25 26 22 25 24 23 23 21 22 28 24 16 18 26 23 28 16 18 25 27 20 27 25 18 23 21 23 31 19 27 18 22 25 24 20 22 28 20 18 24 20 29 18 23 26 28 26 23 18 23 14 25 21 25 25 17 22 23 17 20 20 22 21 22 21 20 28 23 25 23 20 30 22 21 23 23 28 23 15 20 13 21 21 23 19 31 20 20 23 24 19 19 18 26 23 26 17 16 22 19 23 26 17 29 22 21 25 21 21 16 32 22 20 29 19 27 25 30 17 20 25 24 20 16 25 23 24 24 19 20 19 25 21 25 21 27 23 28 31 25 19 25 28 30 14 22 13 21 22 22 19 18 24 29 14 25 28 22 19 26 24 22 23 14 18 20 18 16 22 28 21 22 20 19 19 17 24 27 21 19 21 27 28 19 25 30 24 19 20 23 15 24 20 20 25 21 17 24 16 22 19 23 21 26 18 31 17 19 22 23 24 32 18 18 25 19 26 24 19 20 17 21 25 14 25 25 24 22 26 21 20 25 31 22 24 23 22 23 25 26 27 22 22 22 24 19 26 24 16 20 19 24 23 22 21 19 21 18 22 24 21 28 28 31 32 23 17 19 24 22 14 24 21 27 19 31 21 16 30 23 22 24 27 28 25 19 19 27 24 25 28 24 25 25 28 20 20 18 15 15 19 23 24 20 23 27 24 25 20 19 24 26 15 17 24 35 20 25 20 21 17 21 24 26 19 20 24 24 29 18 21 22 23 27 19 24 27 26 25 23 22 23 18 25 22 25 28 24 23 21 25 26 23 27 25 21 20 22 18 22 34 22 22 22 27 28 25 26 24 22 22 16 18 21 25 32 19 26 25 31 24 25 21 25 25 21 24 21 24 24 23 19 25 26 24 19 36 20 18 26 24 21 22 41 20 26 19 19 24 15 21 29 16 23 20 25 23 24 23 22 22 22 23 20 25 27 21 23 19 29 17 26 20 16 26 31 26 21 24 22 20 24 13 28 22 21 33 26 16 27 22 21 25 25 24 27 25 21 22 27 22 29 27 30 22 18 30 19 14 20 36 21 28 18 24 26 23 21 22 23 21 14 23 18 35 32 27 24 27 18 20 20 17 22 27 24 24 28 27 24 27 23 24 20 21 18 19 28 21 22 16 18 20 20 25 23 27 22 22 27 33 19 18 23 29 24 24 28 26 29 23 28 24 20 26 22 17 28 24 28 22 22 20 24 15 24 27 18 28 27 19 19 22 25 18 27 19 34 20 31 23 22 25 22 29 17 24 22 23 30 25 26 24 22 21 25 26 21 17 25 24 26 20 23 21 23 25 19 20 31 27 21 19 24 33 25 20 20 20 19 27 20 20 30 19 23 23 23 32 25 19 21 20 25 20 25 41 20 25 24 29 17 20 24 28 25 21 25 24 27 23 23 22 16 32 23 21 27 24 30 18 25 22 25 22 15 27 17 20 16 28 24 28 27 20 19 31 20 21 28 19 15 28 27 22 22 19 19 21 26 26 17 20 18 28 34 24 19 18 23 17 24 23 22 22 23 22 23 17 29 26 27 26 28 29 21 23 20 25 21 27 25 19 22 27 23 22 22 24 24 22 30 23 22 32 28 20 22 20 32 26 28 19 16 23 34 25 14 17 26 15 21 19 25 16 27 26 23 18 29 16 20 26 20 17 25 19 24 17 26 30 21 16 26 26 28 24 24 15 27 26 21 26 23 24 26 20 27 27 22 16 24 21 21 35 25 28 20 25 21 24 20 21 23 27 17 20 29 23 25 24 19 26 18 17 17 26 24 23 25 15 28 20 19 31 20 34 23 28 21 17 18 21 30 24 19 24 20 21 25 22 29 32 22 32 21 28 27 29 22 21 23 27 22 21 25 19 18 28 26 24 23 18 29 25 27 20 22 33 25 25 19 24 24 21 27 25 22 24 25 27 11 24 21 34 19 14 18 20 42 21 13 30 20 17 21 25 33 27 17 19 18 26 20 24 28 28 19 24 19 16 26 25 25 25 23 17 28 24 16 17 24 21 25 18 28 25 16 24 26 33 24 23 26 21 28 22 26 20 22 22 19 23 20 20 17 23 21 20 25 20 15 18 26 22 16 30 28 22 19 17 20 25 25 31 22 21 21 26 18 21 34 25 33 13 23 24 24 26 18 23 31 25 23 15 26 19 28 22 17 20 28 16 17 25 22 26 23 25 26 24 23 18 27 26 24 19 24 31 13 18 25 24 28 27 27 25 25 22 21 20 23 18 26 15 15 16 26 29 32 21 22 17 23 17 23 26 31 22 21 24 19 22 19 22 17 23 23 25 21 23 21 14 20 21 20 22 25 15 24 28 21 18 14 23 26 22 29 21 24 16 17 24 20 23 23 26 28 28 20 22 33 29 21 27 24 25 19 21 24 23 26 20 20 16 16 25 23 12 21 30 15 23 20 20 25 26 22 31 25 15 19 25 25 28 26 29 23 34 29 25 20 21 18 24 21 31 15 23 28 20 24 16 30 19 25 24 22 16 20 12 22 23 31 24 22 27 26 25 26 21 21 20 24 31 14 29 22 27 19 22 19 27 28 20 12 18 22 28 15 29 32 19 21 22 26 21 23 24 21 25 26 29 18 21 19 22 29 18 18 20 15 20 25 21 31 20 29 30 21 16 24 18 20 22 23 25 23 20 23 20 21 14 26 29 28 19 13 27 24 19 37 23 16 29 25 21 33 26 26 25 25 21 22 22 16 26 22 23 23 23 21 25 19 16 21 22 27 21 23 23 22 30 22 32 22 24 26 23 27 25 25 18 22 18 21 18 20 31 20 28 19 17 26 32 24 23 19 19 26 21 26 18 23 27 26 23 17 25 22 19 26 28 23 24 21 24 22 20 16 28 23 21 17 29 27 21 23 25 21 26 24 21 20 32 25 35 23 25 28 19 29 20 24 21 22 12 19 26 20 25 29 25 19 23 21 21 20 24 20 18 14 19 25 28 24 18 29 25 21 20 19 25 20 31 20 28 21 21 22 32 22 20 22 31 26 17 23 24 17 31 17 24 27 21 19 28 19 23 25 28 22 26 22 21 28 27 20 14 26 19 25 31 26 23 29 29 21 23 22 17 32 18 21 24 21 27 25 22 23 22 27 24 27 23 19 28 25 25 20 16 23 28 24 27 26 22 19 27 22 21 30 17 23 31 23 24 27 22 20 19 22 19 23 20 21 17 21 20 30 18 21 28 29 31 25 20 17 15 24 15 25 20 15 22 21 31 23 25 22 22 24 25 20 17 26 13 31 21 24 22 26 17 18 24 29 22 22 22 27 22 23 27 28 25 30 18 19 25 31 21 15 22 15 19 23 22 18 25 23 22 26 21 17 22 29 25 26 21 27 22 22 22 30 21 15 25 19 28 13 20 11 18 27 29 29 26 25 25 17 31 23 17 28 23 17 18 27 29 23 31 21 20 24 24 21 24 23 31 23 25 25 16 25 18 22 23 28 21 20 22 22 20 21 23 24 20 18 23 26 24 21 23 20 20 23 24 22 20 27 20 33 21 22 30 15 21 17 24 21 35 15 21 26 31 22 28 21 24 16 23 22 12 25 27 18 35 23 31 19 26 19 25 26 22 22 23 30 24 23 21 29 17 26 25 26 19 20 25 22 27 24 16 28 20 17 23 32 23 25 24 23 26 22 22 19 21 30 12 28 18 25 21 27 27 25 25 21 24 20 30 22 27 22 17 16 25 27 27 20 32 19 22 19 20 30 18 19 24 26 23 23 26 22 22 27 27 32 27 16 22 17 17 25 17 30 21 25 24 25 24 24 17 22 25 22 26 28 26 22 21 34 22 23 29 18 20 24 23 26 31 32 15 21 25 18 21 29 20 18 25 23 23 23 22 13 26 15 32 17 21 24 18 24 24 26 23 19 25 23 23 22 18 19 22 26 21 24 27 23 15 21 28 23 30 22 23 22 25 16 25 27 29 25 14 29 20 18 22 19 20 24 20 16 26 22 29 22 22 22 17 26 17 24 29 25 27 21 22 19 19 14 22 25 35 31 27 25 23 18 24 20 13 23 19 17 24 19 24 27 19 14 24 24 21 17 25 25 16 24 19 26 18 30 28 22 22 21 22 24 20 11 23 25 12 24 29 22 27 20 15 25 17 23 29 20 19 27 20 25 26 22 23 25 23 23 16 24 30 29 20 21 27 26 21 24 21 26 26 17 21 31 28 25 23 29 18 24 23 31 22 19 20 30 18 31 24 18 21 26 23 32 23 25 19 20 24 29 25 25 27 30 22 25 28 17 29 22 21 18 24 23 21 28 22 31 27 23 23 22 28 25 29 17 27 29 24 18 21 15 17 17 23 26 27 28 18 26 25 23 19 22 18 15 23 22 30 20 21 22 18 34 19 29 9 25 27 15 28 12 23 18 28 22 22 26 27 27 28 19 21 19 25 25 17 21 17 27 14 24 29 37 19 28 30 22 21 27 25 23 23 32 20 22 19 22 27 22 18 23 23 19 17 25 21 28 19 24 23 25 24 25 24 26 28 23 21 20 28 20 28 27 23 24 26 23 23 22 21 32 26 26 20 26 23 25 31 27 26 22 27 22 24 19 22 22 26 23 17 28 23 20 22 20 19 19 28 25 17 23 29 22 27 17 16 24 29 16 26 23 37 23 28 29 22 24 25 26 22 21 27 26 24 26 22 25 21 23 19 30 24 25 19 25 17 28 28 20 24 26 27 19 21 16 27 25 25 19 21 25 20 17 20 25 21 30 19 16 21 19 25 20 29 21 23 18 24 22 20 22 25 27 24 24 16 16 29 27 17 22 22 33 20 27 27 25 23 25 28 17 22 26 30 22 24 21 28 26 32 20 10 19 25 19 27 21 26 26 25 21 23 19 23 24 24 24 19 19 26 27 22 29 16 18 21 24 22 13 23 18 26 23 16 17 17 25 21 26 24 15 16 27 15 25 28 22 31 18 19 22 15 18 25 28 26 26 24 28 21 20 25 15 22 28 20 31 21 19 23 27 25 25 15 27 18 24 24 28 26 22 27 23 25 22 22 24 22 20 26 32 25 25 23 18 19 19 17 18 22 22 23 22 20 23 25 16 26 26 22 31 19 25 23 22 15 25 21 18 28 28 26 22 21 28 20 28 28 25 20 16 21 21 20 25 25 19 30 19 19 24 29 28 23 23 11 16 36 24 21 23 29 18 22 16 17 26 21 26 25 26 21 23 21 22 18 19 31 25 30 28 26 28 12 23 23 25 17 19 23 20 21 19 24 19 20 24 22 22 21 25 24 26 21 18 18 22 22 27 19 21 13 22 22 16 18 24 25 20 16 17 20 26 18 27 27 23 20 23 20 26 20 22 29 16 33 22 20 25 18 21 25 17 19 21 28 27 27 25 19 23 16 25 18 27 21 24 16 30 15 29 25 18 24 21 21 13 32 22 17 19 21 25 29 16 21 25 23 17 18 20 24 24 26 21 24 20 28 22 15 28 29 24 27 33 24 24 22 24 34 22 16 21 30 23 28 31 20 31 25 25 36 26 24 25 22 28 21 21 24 19 26 19 23 21 30 29 20 26 21 20 28 21 24 20 25 18 19 32 32 31 22 11 21 19 22 28 21 30 22 20 19 20 19 28 32 17 29 24 20 26 28 25 25 18 25 24 14 24 21 19 25 18 27 22 27 21 24 29 12 22 23 26 22 26 22 29 32 20 16 19 31 11 26 27 20 29 25 27 23 31 25 26 33 32 23 24 23 20 17 14 18 22 24 17 19 16 26 28 16 24 25 22 21 23 26 22 28 26 18 27 17 17 21 24 27 31 22 20 21 22 19 20 25 25 22 25 26 21 30 21 27 22 28 22 26 22 35 20 21 17 21 24 21 30 22 17 24 17 20 23 23 28 21 15 20 13 22 18 18 23 27 25 27 17 27 29 25 22 30 24 16 28 24 27 30 19 22 20 15 22 22 20 21 23 20 19 23 24 28 28 27 20 24 16 32 26 25 31 26 18 27 18 27 21 17 27 24 15 16 16 23 24 27 30 20 22 20 24 21 23 17 20 21 20 21 24 22 21 16 27 23 17 20 16 26 30 30 25 27 23 22 19 15 22 21 30 23 14 24 26 26 23 27 22 15 26 18 18 23 25 23 23 28 23 15 17 24 24 25 16 21 28 18 25 30 31 27 17 27 19 23 22 27 27 26 27 16 19 21 23 27 24 23 26 27 19 18 17 20 20 23 18 17 19 23 23 27 17 26 23 28 22 20 24 27 23 27 25 22 21 22 21 23 21 22 24 27 23 16 25 24 20 18 23 23 25 31 29 23 27 29 34 27 16 25 15 19 14 23 27 22 28 28 27 29 24 20 26 29 20 24 20 25 27 19 32 22 19 23 22 21 21 27 20 26 20 22 25 24 19 21 18 22 23 25 27 23 22 18 21 21 22 23 18 23 20 23 21 23 28 25 19 22 20 25 16 25 16 23 17 23 19 23 23 19 26 22 28 15 21 20 26 24 21 16 28 26 20 23 21 26 20 21 20 20 21 20 16 24 19 32 17 23 24 22 19 15 27 19 25 24 21 26 22 25 21 23 17 24 26 18 28 18 27 23 20 20 18 17 37 23 17 22 27 29 19 25 25 21 20 19 18 22 22 22 21 23 21 26 28 25 26 26 20 41 24 19 16 25 18 19 23 31 23 19 22 26 30 20 24 26 23 24 27 23 21 22 27 16 23 22 25 22 27 24 15 28 27 18 27 26 33 19 20 30 18 22 23 21 32 22 28 32 20 25 22 22 27 21 23 16 24 24 31 23 21 20 15 19 24 18 17 19 31 21 24 19 25 21 20 22 24 27 22 25 20 29 22 19 27 23 27 26 24 25 26 27 25 26 24 21 18 21 24 17 20 21 21 23 26 23 25 21 20 23 24 20 21 16 25 23 23 14 26 23 18 26 20 22 23 27 19 21 26 24 25 21 28 16 19 14 18 27 20 25 26 18 21 23 22 23 14 20 24 19 22 19 20 26 19 27 32 28 33 31 23 23 23 15 17 18 21 17 18 30 21 27 18 14 24 27 24 25</t>
-  </si>
-  <si>
-    <t>JSB(12.816095242819308, 10.047723118486, -38.119877260766685, 329.09830084671785)</t>
-  </si>
-  <si>
-    <t>25 32 38 32 34 33 32 33 31 23 24 23 38 35 36 56 38 35 26 35 39 40 35 32 38 35 41 28 32 27 29 34 32 28 17 39 27 35 44 42 33 31 33 41 34 31 37 23 26 40 41 32 44 37 32 37 33 35 41 43 43 27 34 31 35 38 37 28 35 23 29 30 40 33 26 34 44 32 41 35 34 33 31 34 31 34 35 36 37 48 38 23 35 50 31 48 39 34 34 43 40 38 32 44 29 42 34 35 36 30 30 27 39 38 36 26 35 32 34 33 18 31 32 37 40 32 44 31 35 29 30 26 36 25 25 42 43 37 35 32 26 35 35 36 29 37 20 29 34 35 28 33 33 30 39 29 33 35 35 30 36 37 29 28 35 26 33 27 40 34 33 45 41 27 37 38 36 36 38 33 40 43 30 47 41 29 30 29 28 43 38 32 27 32 30 33 39 39 36 31 22 33 33 32 33 33 31 41 28 29 27 23 36 38 42 28 40 33 40 33 34 29 31 31 31 31 29 29 32 44 37 41 28 34 26 35 32 33 29 35 30 36 38 35 32 25 38 30 26 20 36 31 30 35 35 32 38 38 29 41 37 35 24 33 36 28 40 32 34 32 29 31 33 38 34 26 29 33 38 30 41 43 23 30 27 35 44 41 43 37 38 24 32 29 29 31 36 19 26 40 35 26 30 26 46 32 31 35 33 31 32 41 30 24 39 46 27 37 41 27 33 45 35 31 36 25 36 33 30 35 45 41 29 33 36 28 37 34 34 28 41 41 36 31 29 37 35 47 24 26 37 33 36 39 42 31 39 33 36 36 45 30 31 34 40 40 30 37 28 30 34 31 41 47 33 44 37 31 28 39 36 27 32 42 35 37 50 30 28 29 30 40 29 31 27 41 37 31 31 31 33 31 27 36 35 43 49 35 33 34 36 40 39 26 32 26 30 32 31 34 35 34 40 31 35 25 32 28 31 32 28 43 26 29 26 37 31 35 44 34 45 33 42 40 37 32 37 35 28 25 34 32 22 36 34 34 46 38 34 40 30 34 37 37 31 38 34 32 35 28 36 34 33 37 31 29 28 29 34 34 33 26 38 31 48 34 36 32 31 36 23 45 47 32 31 34 40 35 43 37 32 34 26 30 31 37 42 30 33 36 25 40 30 32 39 29 34 37 31 30 27 29 35 34 22 31 39 39 40 39 38 30 38 28 32 35 29 30 31 35 38 31 39 46 30 38 40 29 35 24 38 39 42 38 26 33 32 24 37 34 26 36 47 25 34 36 29 26 27 32 36 28 26 33 27 37 37 27 29 43 41 39 34 27 43 32 30 36 35 32 35 35 36 32 29 41 26 25 26 24 32 43 41 37 29 45 31 30 28 26 45 31 35 34 33 32 32 24 33 40 43 36 46 32 36 31 37 26 27 36 36 38 28 34 42 40 33 40 35 31 38 37 32 34 34 31 33 37 45 41 34 31 26 35 40 31 33 36 33 39 38 32 48 28 33 37 24 40 34 38 27 30 36 34 39 34 34 31 29 36 28 40 37 25 43 29 38 39 42 35 33 31 33 35 37 27 33 28 36 44 24 34 48 31 37 34 31 48 38 33 38 27 41 27 38 29 35 29 26 20 38 31 28 32 29 34 38 26 32 33 39 32 26 25 36 36 37 29 21 29 31 35 42 19 25 27 28 42 29 36 27 35 34 34 23 40 32 38 32 29 28 35 37 43 36 32 34 40 34 33 35 29 35 30 34 31 38 35 38 32 42 29 40 36 36 30 40 35 38 31 46 30 31 33 33 32 37 35 23 48 30 29 33 25 31 34 38 25 30 32 30 37 34 38 36 35 38 33 28 24 24 36 32 30 28 36 36 35 24 30 33 25 24 44 34 27 34 45 31 36 32 20 39 32 26 34 31 36 19 35 32 35 31 35 27 35 37 33 27 40 47 45 38 20 22 34 36 29 31 40 26 39 23 43 32 26 35 32 32 33 35 37 31 39 32 33 50 38 31 34 26 28 37 27 27 34 43 37 31 31 42 31 34 35 33 26 38 29 27 24 41 36 27 34 33 39 32 35 36 33 32 34 36 39 32 34 35 38 28 35 31 26 28 33 34 19 29 30 26 29 35 35 34 46 46 25 39 39 38 32 32 39 33 33 32 34 37 35 30 31 33 29 35 30 32 48 31 32 36 41 42 32 28 32 34 34 42 37 30 29 41 25 31 36 34 32 26 32 30 20 49 31 27 31 39 40 37 29 22 42 34 40 39 33 33 32 30 38 34 25 40 34 34 26 41 30 34 27 36 44 33 30 30 44 37 38 21 38 44 30 29 36 30 35 35 36 29 42 32 41 35 43 40 29 42 31 33 32 34 30 39 30 35 32 35 35 31 41 35 23 35 35 38 34 43 29 48 25 31 28 43 37 32 29 35 39 40 27 38 26 38 33 30 37 27 43 40 31 36 41 34 35 43 28 34 47 31 28 28 33 32 28 34 36 37 36 29 28 32 36 27 25 31 43 38 27 47 34 50 35 50 31 39 32 30 31 29 29 38 46 36 37 34 37 27 35 30 39 30 24 40 28 28 32 37 31 41 36 31 31 29 33 38 36 34 37 25 28 36 37 37 29 29 34 32 36 34 34 36 25 38 34 31 32 29 33 35 41 27 37 30 30 37 33 34 31 36 37 31 40 31 29 29 34 40 32 37 26 38 34 30 32 38 23 26 34 32 39 30 39 30 36 33 30 29 27 28 34 31 41 42 27 36 40 27 25 32 29 49 37 31 27 27 35 34 42 29 36 31 35 30 28 31 38 22 34 31 31 37 39 42 31 39 38 42 30 23 29 41 31 45 30 30 30 24 31 32 27 37 36 32 31 43 29 28 33 30 29 36 28 26 36 39 39 38 37 40 40 43 37 36 27 30 34 35 39 39 28 30 34 27 42 27 28 40 37 38 35 35 43 27 44 39 27 38 27 40 42 33 31 51 31 30 38 28 32 22 47 37 28 27 34 34 35 29 33 34 41 28 36 36 38 32 26 31 37 25 36 31 36 38 34 36 28 34 33 33 37 31 30 26 29 26 26 33 48 30 39 34 40 36 39 32 36 29 37 25 24 26 31 24 30 30 33 29 38 36 46 35 30 39 46 32 27 40 27 27 29 38 24 25 36 41 29 36 45 31 23 27 37 33 37 28 29 28 43 42 31 34 30 45 34 37 31 37 36 38 36 35 35 26 43 37 37 27 40 33 28 37 32 31 35 34 27 37 38 35 35 36 34 36 30 40 39 40 37 37 40 35 28 34 41 38 25 31 36 40 31 27 35 39 30 41 41 32 34 34 40 34 28 35 43 33 34 34 45 27 34 32 31 40 23 30 29 32 28 33 37 39 36 32 27 32 32 38 34 39 37 41 34 23 39 39 30 37 34 30 38 34 38 31 29 34 40 24 36 32 35 22 32 30 29 31 43 32 36 30 36 40 31 37 31 32 33 36 32 26 33 34 45 32 34 26 27 28 29 39 45 29 34 35 31 27 44 41 24 39 30 38 45 37 37 32 28 26 36 30 35 47 30 38 27 30 38 22 40 35 39 38 32 37 36 40 36 49 32 48 23 38 30 38 34 32 40 46 40 33 32 28 29 36 28 44 38 29 39 46 41 38 29 33 31 33 44 39 43 34 35 35 30 33 34 33 35 25 39 34 29 41 38 35 43 41 42 31 47 32 38 30 44 38 49 32 36 36 33 27 39 41 27 42 35 35 31 33 38 29 41 37 31 27 36 27 32 34 29 32 30 29 36 31 28 35 32 39 28 36 31 28 41 37 37 36 23 33 35 32 35 38 38 32 37 40 28 22 39 37 31 33 33 31 36 37 35 34 36 31 40 32 32 35 30 29 29 38 31 35 40 35 30 37 38 24 40 36 38 37 33 21 33 23 32 30 44 36 38 27 25 34 39 44 30 45 34 28 38 47 36 41 37 40 31 35 24 38 37 35 29 34 34 37 39 30 33 31 38 31 33 35 32 31 28 38 29 27 37 33 24 32 27 39 32 36 34 28 30 36 35 30 33 36 38 32 38 39 43 26 32 41 38 30 47 33 50 31 19 39 37 41 33 33 26 27 28 27 28 36 33 31 33 24 36 47 38 48 34 31 39 28 27 39 29 36 33 34 45 34 32 34 31 41 44 34 36 42 35 29 37 39 37 34 29 39 30 40 34 27 32 38 26 35 37 28 41 39 33 36 39 33 29 35 35 26 37 34 28 30 33 31 40 32 21 37 34 30 35 29 33 42 37 38 31 43 26 30 40 27 38 33 29 32 36 23 35 26 38 35 31 28 39 34 31 33 30 27 33 33 28 44 33 35 43 36 37 34 38 36 33 33 30 28 31 30 30 33 29 24 44 36 38 29 36 29 38 35 27 27 37 29 32 38 30 35 42 36 41 40 34 28 26 42 33 36 33 36 35 23 42 40 39 38 35 29 26 29 41 27 24 24 33 41 34 45 42 30 31 31 29 28 33 39 39 37 35 37 35 34 33 35 33 36 32 37 35 34 31 26 28 35 29 34 34 45 31 23 36 29 46 26 37 50 38 36 33 23 32 30 28 34 34 29 31 29 31 37 37 39 27 30 39 35 34 32 31 33 38 38 25 33 26 30 28 42 28 39 28 40 38 25 32 33 40 49 37 24 25 43 34 32 44 37 29 39 37 38 36 33 46 39 36 40 31 38 27 32 40 34 33 35 44 37 29 27 34 32 31 29 34 34 31 42 26 38 33 32 34 26 36 28 34 30 36 43 41 27 29 28 32 42 30 40 29 40 40 26 35 36 27 43 34 35 33 41 40 36 32 38 31 35 41 34 41 36 27 37 28 37 40 37 30 31 42 42 28 36 32 30 40 36 33 32 29 41 36 36 24 44 36 38 41 29 26 30 39 38 29 39 23 42 39 37 31 33 31 26 32 32 28 31 38 43 47 38 27 32 23 31 39 32 33 36 36 27 36 34 45 27 29 40 28 39 21 29 32 29 36 33 40 29 32 39 35 37 30 32 38 36 36 33 31 29 37 24 24 35 31 47 27 32 26 26 29 31 30 32 32 36 31 24 32 34 30 30 44 42 36 39 35 32 22 26 34 37 33 42 39 38 45 36 38 41 38 44 38 42 31 27 35 31 42 28 30 31 43 31 36 36 36 30 43 32 34 31 47 38 26 34 39 29 44 36 27 42 28 42 29 44 25 23 28 32 38 36 39 29 39 27 26 28 36 33 33 30 36 30 29 38 39 51 33 33 20 27 35 37 36 38 31 38 35 49 29 32 40 38 33 45 34 34 42 33 30 36 36 25 28 41 35 26 41 27 46 35 25 43 34 24 34 50 30 35 25 32 42 24 37 44 34 40 36 35 27 33 34 27 39 34 29 37 39 34 40 37 41 38 30 34 39 30 25 38 30 45 35 28 39 46 32 35 32 34 26 33 38 34 29 32 38 29 32 28 37 40 38 41 29 37 36 27 33 39 29 33 42 25 23 41 40 39 38 30 33 35 30 38 31 26 31 36 40 30 30 38 36 30 30 37 34 33 34 34 28 32 40 30 34 41 37 36 37 30 24 41 35 28 25 37 34 28 26 34 30 27 38 32 37 37 26 37 37 28 33 41 32 32 32 37 32 35 29 34 30 23 43 33 38 31 35 40 35 29 41 40 34 31 42 35 40 35 31 24 35 29 42 37 40 35 30 34 29 34 44 31 32 30 35 30 34 30 32 44 30 37 29 32 33 42 25 30 32 34 36 35 36 35 37 37 37 46 28 36 34 25 32 26 37 35 36 33 36 33 24 32 51 33 37 26 44 31 28 39 28 38 33 38 36 28 42 33 29 28 28 46 31 33 39 30 30 36 32 35 29 32 30 35 38 32 35 33 33 34 38 35 33 36 41 40 36 39 32 28 41 32 34 36 37 38 23 28 34 36 27 36 42 30 36 31 35 34 40 37 24 37 39 37 38 25 39 41 23 29 33 34 32 24 34 26 34 36 28 29 41 35 33 40 35 44 41 31 37 29 39 30 35 30 34 30 38 35 28 34 42 42 37 33 28 26 29 36 39 28 39 37 32 38 39 31 35 36 40 31 32 31 32 31 28 39 28 32 27 36 26 27 46 37 38 31 28 20 26 29 30 37 30 37 26 29 41 26 38 35 34 30 33 40 36 30 48 34 40 35 35 32 34 33 38 41 33 43 21 40 32 36 30 32 28 26 40 33 36 33 36 36 24 38 40 31 28 29 40 34 46 37 36 30 39 28 37 39 35 35 31 37 29 29 33 32 38 24 42 36 24 33 39 34 40 31 40 36 31 24 37 45 35 30 28 35 33 25 35 34 31 35 33 32 36 32 38 24 38 38 37 29 32 28 38 33 30 37 33 28 43 31 38 40 30 34 26 30 36 44 39 31 23 27 39 30 33 24 41 33 39 36 40 36 41 30 34 32 33 37 31 33 32 52 26 28 34 35 37 38 23 35 44 32 36 32 49 43 37 25 33 30 31 35 37 30 33 24 33 36 32 27 41 25 30 19 30 34 26 33 24 43 43 37 35 38 25 28 28 24 40 40 31 36 25 33 30 43 29 31 41 36 38 32 32 32 40 29 24 32 38 30 27 22 42 36 29 43 44 40 40 35 42 34 34 32 31 34 35 31 41 31 47 28 23 30 19 35 41 33 31 33 37 20 36 26 24 37 27 40 30 32 30 30 43 26 31 36 26 30 34 38 35 38 39 34 39 41 43 33 27 36 40 25 42 38 27 39 34 26 40 32 41 29 35 35 36 37 27 27 47 18 37 24 32 38 26 30 34 35 34 36 33 44 27 24 28 25 32 37 39 38 28 28 35 38 31 31 31 44 35 26 30 39 34 41 40 43 42 31 25 24 40 29 36 34 27 27 28 30 35 34 31 29 33 42 37 38 38 34 36 42 31 33 36 35 31 35 28 19 25 39 42 28 30 23 37 22 42 29 38 41 45 40 27 37 36 42 25 44 34 26 38 30 27 39 32 44 26 36 38 40 44 40 30 32 30 36 30 32 26 31 33 34 24 36 26 40 36 40 36 41 28 40 34 37 29 26 39 46 33 36 34 35 38 40 29 29 33 38 31 41 27 32 47 31 26 28 36 34 30 35 39 38 35 32 32 34 29 43 39 27 34 40 33 36 37 39 30 42 31 27 34 31 32 33 36 28 35 29 45 32 36 31 37 35 32 36 28 30 35 40 38 31 27 34 33 35 40 25 36 38 27 30 46 40 33 34 31 24 38 32 31 28 31 36 39 41 40 41 34 29 38 38 35 35 42 40 37 36 35 39 26 30 32 37 25 36 37 31 28 29 42 28 40 36 29 26 39 51 34 32 34 40 35 33 33 39 25 31 40 31 39 24 25 31 22 40 33 25 49 22 31 37 20 33 36 37 32 40 30 37 30 28 34 20 29 31 27 41 33 32 33 29 36 34 33 32 40 38 43 25 26 33 29 33 42 35 33 28 28 34 32 30 34 49 35 28 24 33 40 32 27 38 41 39 39 32 47 27 28 29 33 25 41 28 44 44 46 29 38 38 38 32 42 25 38 35 34 38 30 33 32 42 29 27 34 27 45 28 43 27 42 37 38 25 33 39 29 37 34 34 30 38 21 41 44 47 30 41 34 45 27 35 28 31 38 37 39 33 35 37 36 36 36 33 40 32 46 33 35 28 41 36 35 39 28 44 45 37 37 30 39 20 40 34 26 34 26 22 37 28 43 42 33 28 28 26 29 38 40 34 29 37 33 38 40 40 27 38 39 33 41 41 36 36 27 36 44 37 25 35 26 34 31 33 30 32 23 37 18 34 40 34 30 27 39 29 24 36 25 37 29 36 36 36 33 22 27 40 40 25 37 31 30 48 35 35 37 31 32 30 45 32 33 27 34 41 29 29 31 30 34 41 31 38 32 41 38 31 29 34 36 32 34 39 45 40 30 38 33 27 31 36 28 29 29 32 29 33 38 21 34 40 35 29 30 33 30 28 30 42 29 24 38 28 39 33 36 35 33 32 29 35 32 43 35 38 37 29 36 36 32 41 22 40 27 37 33 38 35 22 31 32 30 25 25 36 44 37 29 42 23 50 37 38 32 40 31 25 28 27 32 41 32 28 34 31 26 31 33 41 29 38 32 36 25 27 31 41 39 27 26 39 42 30 25 33 34 30 42 28 26 36 26 26 51 36 32 37 38 26 39 37 38 43 42 34 40 31 41 36 36 30 34 30 37 41 29 23 35 30 30 29 25 34 40 41 36 40 41 31 34 37 46 36 37 33 18 33 28 43 33 33 36 42 28 28 41 32 36 27 24 33 37 41 43 50 31 40 38 34 28 31 34 34 30 25 27 35 34 30 34 28 31 32 42 47 39 35 37 31 27 33 35 33 30 34 32 28 40 38 35 36 28 33 43 24 35 23 48 38 33 32 36 30 31 31 31 24 42 31 39 31 31 37 31 38 42 32 30 32 25 40 38 37 42 30 34 29 35 38 36 30 42 31 29 38 38 32 36 37 38 34 20 31 36 29 30 31 36 38 46 29 44 39 27 32 31 28 31 41 28 39 35 33 53 32 26 28 34 29 32 28 29 39 35 38 33 38 38 31 41 27 31 39 36 34 25 40 28 34 25 43 26 25 23 31 34 34 36 41 35 32 33 28 30 37 40 36 39 36 25 22 34 29 39 28 28 34 30 29 33 22 37 30 39 32 31 39 33 28 30 34 39 40 29 36 28 28 29 31 28 34 40 33 37 30 29 38 35 32 34 36 30 21 33 32 27 28 30 37 30 28 29 47 36 32 39 36 28 37 33 38 40 29 46 30 30 36 32 38 34 37 36 36 37 38 32 25 40 37 36 40 35 38 30 21 31 36 35 36 29 31 26 31 39 49 35 34 29 33 35 40 39 38 39 30 34 34 25 38 36 42 31 36 34 26 35 43 24 28 37 33 41 39 19 44 30 31 31 37 41 38 43 42 44 37 29 31 34 39 47 33 30 57 38 26 31 30 37 36 41 41 35 21 28 27 26 29 32 26 26 46 26 27 28 42 44 33 25 33 37 35 35 31 38 29 39 26 27 36 47 39 42 37 20 32 32 38 31 25 37 28 35 40 38 19 34 27 31 32 37 31 30 35 35 33 35 30 33 42 27 30 38 28 30 23 31 38 34 35 33 33 37 38 42 37 27 30 36 26 39 29 39 39 38 31 27 38 35 34 36 38 35 28 32 36 28 44 30 29 39 32 30 42 24 38 34 25 24 29 32 48 32 29 31 35 40 26 26 29 34 30 39 35 39 24 36 37 41 30 34 29 31 47 48 28 38 31 31 27 21 21 37 27 36 44 31 36 25 19 37 26 31 32 36 21 30 32 47 33 30 40 34 26 25 29 38 37 24 34 35 25 37 32 32 27 31 28 27 31 28 32 40 27 45 39 31 31 37 40 28 44 29 39 33 41 34 41 28 29 30 30 33 34 32 31 31 50 39 41 37 30 30 44 27 46 26 41 30 27 38 37 37 39 23 29 30 36 30 41 25 29 35 44 41 42 42 40 31 35 34 34 32 43 31 28 29 39 36 32 41 24 41 33 43 48 26 35 39 34 28 33 39 33 27 31 32 28 31 28 33 31 33 26 30 46 36 25 28 38 36 40 43 29 41 43 36 34 34 34 34 35 34 36 34 36 25 42 31 51 28 37 33 37 40 33 33 35 35 36 39 38 33 37 37 28 31 28 38 29 29 33 38 38 41 30 30 40 35 40 34 31 44 26 31 36 34 36 31 32 37 30 34 32 26 37 37 37 41 34 42 38 42 41 34 36 32 37 38 42 37 30 30 41 43 54 31 35 33 33 32 42 30 29 41 35 36 35 35 32 30 31 34 30 39 25 27 39 31 35 27 49 27 42 34 35 31 29 31 29 37 26 30 30 32 42 31 47 35 38 32 38 33 29 25 29 36 19 36 38 34 33 25 34 35 35 32 36 26 39 40 32 49 29 35 35 35 41 41 29 44 40 30 40 38 29 34 29 32 41 29 30 30 31 31 38 31 34 45 21 29 36 34 23 29 41 38 34 27 33 25 29 31 28 31 27 34 32 39 33 35 41 34 32 49 45 30 35 35 22 36 43 36 38 36 31 29 28 35 29 28 44 26 28 24 39 40 32 33 26 42 31 33 31 43 39 30 38 47 38 44 30 46 40 33 30 30 35 43 27 32 37 31 32 28 30 31 34 43 44 21 25 44 39 37 31 18 40 33 38 29 27 38 34 27 32 35 34 35 30 35 29 35 42 35 40 41 30 43 35 34 44 41 35 29 32 34 32 38 41 39 38 43 30 42 25 28 32 34 32 47 26 33 37 41 28 35 28 29 39 44 47 28 37 35 36 29 27 25 41 37 35 32 38 39 37 38 35 37 35 43 31 42 35 39 32 46 51 37 47 39 26 28 26 47 35 34 45 32 44 39 30 35 33 30 37 30 30 43 22 41 37 37 40 30 30 47 42 41 40 28 40 38 50 33 42 32 37 37 27 32 27 33 23 40 42 33 39 31 37 41 23 39 35 41 32 29 36 31 39 32 34 27 36 34 34 27 37 35 31 40 29 39 30 44 34 35 42 32 26 40 33 40 32 37 30 29 27 27 28 44 33 29 34 42 29 46 27 35 38 34 27 47 26 32 34 32 47 29 32 34 33 42 37 24 49 41 37 40 33 35 44 47 37 31 35 28 32 30 32 35 12 36 43 40 28 33 43 35 35 40 28 30 32 33 38 38 22 32 33 26 39 32 43 35 34 31 23 33 29 31 40 29 29 42 31 39 38 35 34 31 38 35 28 34 37 41 39 36 44 43 32 36 34 34 38 35 36 26 35 38 41 32 37 35 43 26 26 40 26 34 38 28 28 29 29 28 34 33 32 37 29 34 35 44 35 29 33 39 39 37 38 41 37 56 33 32 37 22 32 34 34 29 43 44 34 31 33 27 26 37 42 28 43 30 37 37 40 37 23 25 34 28 38 41 28 32 33 30 35 37 42 34 31 26 31 31 29 37 49 44 31 34 32 24 32 38 35 38 35 37 39 32 39 26 37 25 27 31 36 33 38 21 39 33 31 28 39 26 28 40 29 29 35 40 25 37 37 27 15 38 36 33 22 39 34 45 38 31 31 25 34 40 35 31 39 41 37 30 36 40 34 31 35 33 38 31 28 34 36 42 37 35 35 28 43 33 32 26 35 33 38 30 41 45 33 35 36 34 40 36 36 30 37 38 25 32 30 36 30 33 28 22 33 33 39 38 45 26 39 38 38 31 26 32 41 35 29 33 32 31 39 25 36 43 25 35 40 32 30 31 28 34 34 41 42 28 28 23 29 41 34 35 24 38 38 32 31 34 33 37 36 40 37 36 32 30 26 26 37 25 31 38 28 36 36 34 36 37 24 43 53 34 37 33 39 41 40 32 34 34 35 40 30 35 22 37 30 41 35 34 34 38 27 35 41 25 32 31 28 34 34 37 35 38 41 28 33 36 40 36 34 38 37 45 29 44 36 22 34 30 31 28 30 39 36 44 24 38 28 37 41 37 41 34 33 34 44 38 43 29 43 36 40 32 31 40 37 31 36 43 29 35 23 35 45 34 39 28 33 30 40 25 24 32 24 35 31 33 39 27 38 27 29 29 30 39 39 33 26 27 42 33 28 33 34 35 38 26 36 31 45 30 43 31 29 34 35 28 41 30 43 34 32 44 27 32 43 50 35 37 24 32 19 30 23 37 27 38 33 37 37 38 36 28 48 29 33 32 27 23 30 32 47 41 34 29 40 34 33 32 36 35 30 29 30 27 36 46 38 31 34 41 35 31 35 40 35 36 35 37 45 34 36 29 41 31 33 36 25 32 36 38 33 32 32 31 27 31 34 39 46 22 29 41 40 31 41 26 32 33 38 32 38 28 33 46 29 40 40 42 33 35 38 33 34 25 31 26 32 37 33 32 24 34 36 33 27 39 41 34 32 30 27 42 33 38 26 29 26 25 34 30 31 34 34 35 35 42 37 37 33 39 26 39 32 36 38 37 37 35 28 34 24 30 31 35 49 35 29 38 39 37 36 30 34 37 27 26 38 32 29 39 31 27 35 36 35 37 29 37 30 32 37 42 29 35 41 42 42 39 26 29 41 27 34 48 39 30 31 29 31 32 43 33 44 40 28 33 39 34 31 42 36 32 33 35 32 34 42 36 32 28 24 26 31 38 29 24 26 28 36 35 21 31 36 33 38 41 24 42 34 26 29 49 25 37 42 25 39 43 39 32 28 31 37 28 30 41 34 40 34 33 31 29 35 22 26 23 40 42 27 47 31 40 36 27 33 32 31 46 47 34 34 40 25 35 47 37 29 37 32 35 34 33 32 29 25 29 40 33 34 43 28 36 31 39 38 31 38 31 42 36 42 30 39 27 27 23 31 28 40 33 35 33 32 34 40 31 28 35 35 32 34 33 31 27 41 39 41 34 33 35 31 29 29 36 36 29 40 28 32 40 26 39 27 30 17 29 46 46 29 35 34 39 33 25 34 32 33 34 39 37 30 47 40 35 30 32 42 39 29 38 34 28 38 37 28 27 31 28 35 38 31 36 37 35 36 35 19 35 41 34 30 35 34 27 40 34 26 44 34 38 30 42 45 33 21 35 30 31 35 33 39 36 36 25 30 32 39 31 32 41 36 42 32 32 25 38 46 28 36 43 33 32 41 34 34 39 31 36 40 34 36 37 29 27 32 33 27 31 43 33 35 30 27 33 36 33 37 34 31 45 28 30 37 31 30 27 29 33 36 29 35 33 33 30 36 32 36 23 33 32 33 37 27 31 30 28 29 32 33 33 45 41 34 37 30 34 38 33 32 37 36 32 30 32 33 39 36 30 29 39 26 37 32 24 28 27 38 29 40 35 36 29 51 30 39 30 28 23 26 30 36 35 38 46 31 37 40 45 36 31 41 32 51 40 32 35 39 28 33 30 40 32 36 32 37 32 32 32 34 31 39 34 31 40 40 35 24 45 41 21 33 29 35 33 33 33 34 26 21 31 46 29 39 37 21 29 42 31 34 30 42 37 36 38 33 29 39 30 42 40 37 37 31 42 37 32 28 37 37 36 34 32 24 30 32 36 31 43 28 32 29 25 32 42 35 40 31 33 23 33 23 31 38 37 44 21 26 34 46 29 41 36 43 38 36 36 21 38 34 33 36 45 42 45 27 21 28 34 44 41 38 40 38 33 32 33 34 37 38 34 31 37 31 42 29 38 41 39 33 48 33 37 26 31 23 33 35 36 36 27 29 35 38 31 28 36 30 31 39 24 31 36 38 33 35 32 38 23 21 38 29 39 39 39 29 33 37 42 40 36 38 20 29 45 32 35 35 33 28 32 31 41 27 41 25 31 33 39 44 32 36 36 41 33 35 34 36 36 27 32 36 34 43 38 36 40 33 37 24 39 40 38 29 31 41 38 38 27 39 41 35 38 36 34 37 39 34 32 38 33 35 37 28 21 30 24 39 34 34 29 30 33 34 40 23 44 45 38 30 32 38 33 42 33 31 24 34 35 39 36 34 29 20 37 31 25 32 38 39 28 38 40 30 36 36 45 50 28 40 31 40 31 26 29 26 47 28 40 28 36 21 34 40 32 37 36 35 24 37 31 45 40 27 51 32 30 35 37 32 29 33 46 36 39 36 34 31 33 36 34 34 25 30 33 35 22 33 44 35 29 31 40 40 41 31 33 28 51 43 39 34 30 35 40 25 36 24 30 38 29 39 28 28 33 38 40 31 34 37 37 32 30 40 30 30 27 32 31 32 31 30 32 28 43 41 38 31 32 34 36 32 39 27 31 31 41 36 25 31 37 46 37 35 34 27 30 27 19 33 31 32 33 31 27 35 30 38 35 41 25 29 26 34 33 36 50 33 25 29 32 48 36 37 33 32 32 34 31 39 29 29 41 35 26 37 36 48 29 26 23 30 32 38 33 28 19 25 43 35 39 35 32 33 30 42 37 32 30 29 52 24 38 33 38 28 33 37 33 38 36 29 33 35 31 40 19 36 36 36 32 29 36 33 36 40 28 33 29 43 40 39 29 27 24 29 36 36 37 28 29 23 40 39 50 39 28 37 30 39 36 39 44 36 31 28 40 28 35 40 26 38 32 26 32 23 36 32 41 41 38 30 36 22 29 40 31 35 32 25 30 33 31 32 30 26 31 20 32 31 27 26 34 29 22 39 32 39 27 35 38 38 32 30 21 39 39 36 37 36 25 26 31 39 41 26 41 40 31 37 36 32 32 34 43 31 35 32 31 29 34 37 32 28 26 39 38 29 38 30 32 27 35 37 36 32 41 30 26 30 28 41 33 38 29 33 32 34 32 37 23 38 27 42 23 31 34 37 32 26 24 37 34 25 39 35 34 37 33 44 35 33 36 34 38 33 42 33 39 35 40 38 40 33 31 31 26 43 39 29 26 32 37 33 30 33 33 41 42 43 28 24 29 32 34 26 34 40 37 40 37 38 25 38 39 35 29 33 27 28 25 48 32 29 40 37 41 29 37 23 32 33 30 31 37 30 41 37 32 31 36 33 35 32 42 41 36 32 36 28 38 32 30 31 33 28 46 35 38 31 39 34 25 44 32 32 26 31 40 35 26 45 34 29 40 33 39 33 36 31 33 33 32 21 34 25 35 36 34 26 31 36 27 47 29 22 35 37 30 36 32 32 35 36 35 33 38 30 28 35 35 29 31 42 38 30 35 36 33 44 32 42 31 40 31 29 40 26 33 29 33 34 38 27 38 24 37 29 40 27 40 29 29 34 39 27 38 30 42 31 33 34 29 29 34 33 37 36 39 26 30 32 34 35 32 35 38 38 36 39 29 44 27 33 25 37 37 39 33 36 37 33 35 35 37 25 47 33 27 24 31 27 35 34 35 39 40 31 39 34 29 25 29 36 23 33 33 30 19 34 36 30 28 30 30 31 30 31 42 35 37 42 32 26 32 36 28 25 38 30 28 25 32 35 31 41 34 33 29 35 41 28 37 36 37 30 23 27 36 42 33 24 45 35 37 29 32 29 36 35 29 29 34 31 38 26 24 42 37 37 38 25 32 37 30 31 41 36 30 34 39 36 37 31 37 33 35 32 27 33 40 43 37 18 38 25 34 45 43 38 45 33 29 25 26 25 27 36 39 26 36 37 33 34 38 36 39 42 33 35 38 45 32 40 38 35 35 34 37 34 39 31 38 30 29 38 34 46 28 31 36 34 27 35 34 25 40 26 29 31 29 33 26 28 31 45 40 43 30 35 35 33 35 31 35 45 30 40 39 30 33 38 38 28 38 41 30 33 32 41 31 42 29 36 38 32 29 33 40 22 37 33 42 32 26 36 23 32 30 45 34 45 34 34 42 23 32 35 29 31 39 28 37 40 39 40 33 28 42 28 30 32 36 33 26 41 33 36 23 37 36 35 31 37 33 25 34 35 35 37 30 38 27 35 35 29 30 35 45 37 31 37 33 40 32 30 35 37 41 35 29 30 27 31 30 36 32 21 38 35 27 32 28 30 27 27 34 31 37 29 37 35 37 38 28 33 30 36 37 34 30 31 24 32 33 34 33 44 35 33 29 36 29 30 33 36 34 40 34 24 33 28 32 38 28 35 31 29 38 32 34 23 44 33 40 46 31 36 36 45 29 32 37 30 36 25 33 33 35 37 30 31 27 35 33 34 31 47 39 35 44 38 27 32 42 40 22 31 24 36 32 36 30 24 36 38 24 37 40 31 30 33 41 33 35 25 27 28 35 22 32 43 30 38 28 25 33 29 32 44 33 32 30 39 39 31 33 39 32 33 26 35 28 34 40 31 34 35 27 33 27 31 35 30 39 34 29 43 24 32 35 30 38 43 29 31 37 28 42 27 30 28 26 28 35 24 41 40 33 30 43 30 34 40 38 32 31 30 35 32 35 37 37 40 36 40 35 34 38 38 25 30 24 36 34 34 41 30 27 26 35 32 32 41 45 37 46 35 34 32 37 29 29 35 28 36 31 48 33 24 44 32 37 35 38 36 36 34 29 42 28 33 40 26 35 32 45 34 29 34 34 23 25 34 34 27 34 38 37 35 35 30 39 41 23 28 32 41 34 34 31 34 27 35 33 35 31 25 35 37 38 31 35 32 31 34 40 30 42 34 38 32 32 32 36 37 32 39 37 37 32 34 32 31 34 38 35 29 29 40 26 38 40 34 30 34 30 48 32 40 30 42 40 23 32 38 36 39 25 35 38 44 43 35 30 43 33 38 34 32 35 34 32 26 38 35 37 28 55 26 30 37 35 30 38 48 28 33 30 28 37 24 30 47 30 31 34 35 36 43 32 31 33 41 37 32 35 36 31 33 26 42 27 40 30 23 36 42 35 30 38 32 37 39 19 38 38 32 45 37 23 39 31 33 33 33 37 36 38 34 35 43 34 42 32 46 33 31 43 29 30 31 41 33 44 29 37 34 36 37 37 39 40 23 34 26 44 42 39 36 35 29 39 37 26 30 36 35 42 40 36 42 38 36 34 37 33 27 29 40 29 38 31 23 31 32 34 41 37 31 35 37 47 35 23 28 38 38 36 33 37 39 36 47 32 31 39 34 25 37 34 34 30 32 36 42 26 34 37 27 33 40 29 30 33 37 35 37 29 44 31 38 33 27 37 30 36 26 34 38 31 45 34 35 42 42 30 39 34 33 34 37 33 39 37 28 38 34 35 29 32 40 34 34 30 33 47 38 34 29 31 31 42 30 33 42 30 30 29 39 43 36 26 29 27 39 27 37 56 30 34 36 38 32 35 31 38 37 34 45 35 41 35 35 30 25 41 38 29 45 32 41 35 33 29 33 35 29 41 27 34 25 39 29 38 40 35 30 37 33 34 36 31 25 37 39 33 28 27 23 41 35 35 29 31 32 44 47 35 31 28 33 30 34 38 31 31 33 31 38 29 46 37 45 37 42 40 33 34 30 37 33 40 39 23 30 38 35 30 33 35 41 32 36 35 30 45 40 27 29 36 42 39 42 31 24 34 41 33 21 26 41 21 31 27 38 25 38 38 33 24 41 25 29 36 38 29 32 27 36 25 38 43 32 26 38 33 39 36 30 29 41 36 32 38 33 36 36 28 38 34 34 30 35 29 30 44 38 35 34 34 33 36 29 29 39 39 31 30 41 42 33 33 32 33 31 27 24 32 38 32 36 29 42 33 34 41 30 48 33 39 25 27 25 35 40 33 22 37 31 28 34 31 42 48 34 38 30 41 39 42 29 34 30 36 33 29 32 29 28 46 37 37 35 28 39 35 38 35 30 47 40 33 33 38 38 30 38 33 33 30 36 33 28 38 32 46 27 26 35 30 55 27 21 36 30 31 36 39 43 33 28 27 27 37 36 37 36 42 38 36 32 34 38 36 35 37 35 28 33 36 28 29 31 29 32 32 42 34 27 30 38 44 34 34 39 32 42 28 45 30 36 30 34 31 31 33 28 35 32 27 30 35 29 30 35 45 30 41 44 36 32 27 29 38 38 37 33 32 33 39 30 27 40 37 42 27 33 41 35 37 34 34 41 36 39 32 32 28 36 27 27 30 38 33 31 38 33 40 35 35 38 41 36 29 32 39 37 30 39 37 23 32 37 32 40 42 37 42 39 36 34 31 40 26 30 24 29 27 35 44 47 28 37 27 35 26 28 37 43 28 30 34 34 35 23 35 25 38 37 32 33 39 28 26 28 33 27 33 34 33 33 38 34 28 33 38 41 38 37 30 29 32 29 40 31 32 38 43 37 46 31 31 44 42 26 47 32 33 30 37 31 33 30 23 34 32 30 39 32 18 32 40 25 34 33 32 29 38 28 40 34 22 32 36 45 36 29 44 38 46 39 40 28 30 26 35 34 39 24 34 37 27 32 27 44 28 40 35 36 24 25 23 35 32 44 27 31 41 36 36 37 27 30 28 32 43 24 41 32 38 27 35 27 36 41 24 20 32 32 43 26 44 45 31 26 34 36 29 35 32 27 34 39 43 25 31 35 24 39 30 25 29 29 32 38 35 44 29 41 38 35 26 37 30 28 33 32 41 31 27 38 32 25 23 42 36 41 26 26 43 32 29 49 38 36 33 34 32 48 35 37 45 34 29 32 36 30 31 32 33 38 29 31 33 28 20 34 33 42 31 31 32 31 38 31 47 29 30 35 34 36 31 40 29 28 24 26 31 32 41 30 39 32 27 35 44 33 28 27 27 35 36 37 31 29 37 39 40 26 40 28 26 37 35 34 38 26 37 28 26 21 38 37 32 25 40 36 36 28 34 33 40 28 33 33 44 37 50 35 42 30 30 38 29 34 27 33 25 28 33 27 35 36 36 30 33 30 26 34 37 31 29 19 30 34 41 33 27 36 39 31 32 35 40 31 39 36 41 28 35 27 46 35 32 34 40 37 33 32 33 28 41 28 37 39 28 29 40 23 27 41 44 33 40 39 33 40 39 38 24 48 28 37 43 34 34 36 43 29 34 32 28 39 31 32 36 30 40 36 31 36 35 37 40 34 35 27 42 36 33 29 27 31 35 38 42 33 31 29 35 32 30 45 25 33 45 32 38 35 28 34 29 32 28 30 23 28 27 27 31 42 38 35 37 35 40 38 27 25 23 39 27 34 36 24 30 33 45 37 37 39 33 34 39 32 28 36 26 42 26 36 34 33 25 21 31 34 34 30 30 37 35 38 37 39 32 41 29 30 38 43 34 22 38 23 34 35 39 35 38 32 31 37 33 36 29 34 31 32 31 35 36 28 32 33 40 23 37 30 38 25 34 27 29 37 40 40 37 42 41 27 40 33 24 36 40 30 27 39 38 35 36 29 36 32 32 37 33 34 43 31 36 38 27 35 29 26 32 36 34 27 39 34 32 32 38 32 29 28 34 45 31 29 29 30 38 37 36 37 26 35 28 43 28 34 43 30 31 29 34 37 49 26 29 33 41 31 39 25 33 28 39 30 22 31 36 29 49 31 42 34 34 28 35 29 33 27 36 43 36 32 33 40 31 31 35 35 29 37 30 39 45 34 27 40 32 28 39 45 34 28 36 35 41 31 37 28 31 41 25 44 29 33 28 37 43 39 28 38 34 35 42 34 39 29 30 25 36 35 32 37 39 28 34 32 31 49 33 32 33 36 45 30 33 32 43 39 35 36 40 26 35 30 25 29 30 43 28 43 33 33 32 28 33 33 34 35 42 43 33 30 26 48 36 36 39 37 29 37 34 36 42 43 24 28 34 25 26 37 26 27 35 37 40 29 42 20 36 28 40 31 28 34 30 40 39 46 36 27 36 36 34 32 29 31 36 37 28 34 39 39 24 34 36 29 40 32 30 31 28 27 35 39 42 38 26 40 27 31 35 32 30 44 23 30 35 29 47 34 32 37 28 39 29 40 40 38 34 29 43 34 23 20 35 36 46 42 38 39 28 33 33 29 26 29 33 28 37 30 34 33 28 31 28 34 33 32 39 36 23 37 27 35 26 36 43 35 34 32 33 34 29 25 35 40 24 39 35 31 33 26 23 34 27 34 39 30 32 40 31 36 37 36 29 36 33 41 28 37 45 39 28 35 33 40 29 33 32 44 36 27 46 48 40 39 29 44 27 33 35 42 31 34 29 49 27 41 35 33 38 35 31 38 32 38 30 31 32 40 34 35 44 40 28 35 42 25 37 31 31 30 33 36 32 37 32 41 38 32 28 30 41 40 35 34 39 40 28 25 34 25 29 32 34 45 37 35 33 35 41 37 33 34 25 24 33 33 34 33 34 29 29 44 27 40 17 36 35 25 40 25 33 26 37 34 31 35 42 36 45 24 29 26 40 38 30 31 31 39 27 30 36 48 31 38 42 37 34 34 30 33 33 40 38 31 30 31 31 39 24 31 33 29 28 38 30 39 39 31 38 37 30 39 29 34 43 36 32 27 37 40 39 36 31 29 34 33 32 38 35 44 38 41 28 32 32 34 46 34 39 34 40 32 34 43 29 30 37 29 34 37 30 27 32 32 34 31 40 36 27 36 40 31 36 30 28 41 38 28 39 37 45 30 42 41 32 38 43 40 40 34 41 40 38 32 35 34 31 38 30 39 37 34 30 33 30 34 37 30 33 37 37 32 28 30 43 36 37 26 32 39 31 27 25 46 27 41 32 23 25 32 33 30 35 33 28 33 39 37 25 30 38 41 36 34 31 26 40 34 29 31 38 45 35 40 37 49 34 36 37 28 32 38 38 37 32 26 35 34 45 31 17 34 38 32 41 38 38 39 35 32 36 31 36 31 37 39 32 34 36 38 26 39 32 25 26 32 35 26 38 37 38 37 32 28 27 37 29 35 34 28 23 41 24 36 38 34 40 25 32 38 28 35 34 36 41 47 39 35 36 26 41 26 31 38 29 36 32 31 32 40 38 33 22 39 32 31 29 39 34 40 37 35 35 34 31 34 27 30 32 38 36 43 32 28 29 31 23 28 37 32 29 31 33 36 40 29 35 35 29 48 26 30 33 28 22 41 36 28 35 46 37 30 34 39 37 39 39 34 28 29 37 32 30 37 33 28 40 24 25 37 39 34 31 37 26 27 40 35 29 32 40 23 31 28 24 31 33 43 33 35 35 26 35 37 28 32 44 31 49 41 41 38 27 27 37 37 25 31 27 36 37 29 33 25 29 36 38 31 34 41 37 37 36 31 27 32 36 40 36 32 20 35 28 29 27 35 31 32 27 31 36 42 28 33 41 31 32 37 32 38 26 28 39 24 43 30 32 49 31 27 39 24 32 30 35 37 49 36 25 32 24 31 34 42 38 35 36 35 25 43 37 32 39 33 34 30 41 36 33 31 35 34 47 25 36 34 38 26 31 29 29 36 34 30 33 31 42 32 32 39 42 33 42 44 39 33 37 33 47 34 30 36 46 43 42 38 31 38 33 39 50 39 30 39 28 37 29 34 35 36 39 26 35 25 36 40 34 39 34 27 38 26 37 32 35 28 34 41 42 44 34 22 32 28 31 38 33 39 28 37 28 31 28 38 43 28 33 37 31 40 44 36 36 27 31 37 23 31 33 25 36 26 39 34 38 36 30 46 19 34 29 33 36 34 47 44 44 34 36 29 41 19 34 44 28 50 38 36 30 40 33 40 41 51 37 33 32 33 26 20 23 36 28 22 25 30 37 37 28 40 40 33 27 38 41 29 34 38 27 34 29 31 33 34 39 37 31 27 31 36 34 25 36 32 34 37 36 41 41 27 34 31 39 38 39 28 41 30 35 20 29 40 31 38 30 34 38 32 26 37 43 34 28 24 33 21 30 22 31 33 36 36 34 29 33 39 38 41 36 39 24 43 28 32 48 28 30 29 23 35 36 29 30 35 25 25 32 33 41 39 39 32 41 26 48 46 32 42 41 30 39 31 31 37 26 35 39 29 37 34 42 38 34 35 34 32 29 29 29 30 23 26 27 36 32 30 37 32 23 36 37 31 37 31 37 38 42 36 40 31 30 32 28 29 26 38 34 26 36 41 36 39 36 40 26 39 27 28 36 34 30 30 37 38 27 26 35 34 36 25 31 38 35 34 44 41 32 28 41 30 30 33 34 35 36 39 35 33 30 34 36 36 32 36 30 27 28 29 33 25 37 26 29 27 41 35 33 25 37 32 33 36 30 31 36 44 44 38 26 33 37 29 36 37 40 34 40 32 33 34 33 34 26 30 32 34 45 43 32 31 39 46 38 23 36 31 32 25 32 38 37 44 33 37 46 41 38 34 42 33 36 33 37 43 28 45 29 29 31 33 37 32 40 33 33 36 30 33 38 24 33 28 35 32 35 38 28 33 25 33 32 28 35 35 27 26 40 36 30 38 38 30 37 33 42 36 30 26 38 30 31 30 37 38 32 45 35 39 31 36 39 36 33 26 27 35 37 33 39 27 34 27 31 30 31 27 27 30 32 31 47 25 31 34 31 34 27 46 31 37 39 28 34 36 35 37 33 26 30 36 32 41 30 33 38 30 29 29 32 50 34 32 33 40 41 30 40 36 37 31 30 30 39 29 36 27 36 31 36 44 32 34 43 33 49 36 28 25 40 39 31 38 46 38 31 33 38 41 35 38 41 32 32 45 31 31 28 42 25 34 32 39 33 35 32 33 39 38 28 36 37 39 31 32 45 34 32 35 33 44 30 39 43 33 37 30 31 33 34 34 29 35 37 40 37 31 29 22 29 33 23 27 27 40 30 35 26 41 31 36 36 37 42 33 36 31 46 29 29 40 30 37 41 35 37 37 40 35 38 38 30 27 28 43 21 35 34 32 38 33 35 33 32 32 34 39 34 29 26 36 36 42 24 34 36 29 32 30 29 30 34 28 26 36 32 33 34 37 30 25 20 30 37 38 31 34 30 35 35 33 31 25 24 30 31 38 29 30 37 32 37 38 35 42 45 34 34 33 26 39 31 30 30 32 39 26 39 31 24 44 41 31 39</t>
-  </si>
-  <si>
-    <t>JSU(-15.846543369946048, 11.508132688017419, -279.2082681503232, 290.59445198763046)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189 240 254 239 270 279 243 285 298 231 178 249 330 232 225 381 298 287 232 266 307 308 284 260 272 239 295 208 232 258 220 284 276 183 154 253 261 215 298 355 311 222 268 339 228 187 294 129 177 318 297 207 264 295 231 231 235 272 306 312 355 191 261 184 253 335 290 300 330 184 219 192 251 234 225 248 274 210 241 264 307 230 248 267 236 257 303 238 261 392 270 177 241 415 237 330 314 304 251 223 322 294 272 299 249 289 274 365 232 215 267 186 342 274 320 249 217 210 354 295 130 276 240 240 199 248 328 266 261 258 192 256 285 250 217 282 325 260 192 226 213 248 246 296 290 297 164 254 226 221 255 273 186 265 296 276 181 276 225 198 297 286 269 243 226 218 280 221 282 283 219 294 295 188 299 229 292 301 276 207 314 309 199 303 331 252 218 233 284 315 288 213 238 250 214 245 303 326 256 281 135 243 285 275 241 281 252 266 229 161 246 195 296 280 271 252 261 244 333 256 232 163 280 203 271 228 253 252 275 389 268 336 239 254 175 244 291 340 186 237 284 254 327 242 254 166 322 158 197 189 290 273 232 259 254 279 365 315 203 377 308 244 219 192 238 234 295 233 258 284 260 223 226 302 228 242 216 247 306 221 303 363 185 269 180 248 384 358 320 261 226 204 173 172 249 261 381 232 221 270 280 182 242 254 353 253 232 169 281 223 247 286 259 216 229 330 239 325 336 241 235 345 303 235 174 254 302 256 176 234 411 248 202 245 243 241 283 227 190 165 339 301 282 210 201 335 295 255 195 202 285 322 254 292 319 240 259 225 242 294 318 358 185 314 294 304 248 328 188 238 248 217 325 302 267 286 267 210 205 345 293 318 251 318 295 295 420 221 221 220 313 359 204 248 246 280 334 301 256 240 264 195 218 295 214 278 413 248 342 250 191 275 289 209 308 224 256 352 289 253 235 273 280 316 236 216 209 257 298 262 218 289 212 200 193 359 204 302 386 239 357 247 319 354 325 227 309 285 245 215 311 201 169 245 213 295 350 320 243 319 224 287 228 293 239 258 246 243 233 235 254 247 241 268 212 173 221 208 228 270 342 142 276 256 401 252 248 263 318 315 131 379 393 256 224 277 345 279 413 321 251 346 236 270 271 263 292 233 289 265 160 240 232 205 252 227 257 325 250 232 211 210 302 197 169 236 237 234 223 283 304 304 275 280 290 245 223 232 260 227 337 248 292 368 308 296 311 224 284 227 362 270 335 350 242 227 227 207 292 263 163 292 396 286 307 258 244 164 208 256 244 213 219 260 303 238 299 240 192 325 362 349 192 197 349 248 166 369 241 250 267 268 354 238 159 337 166 173 174 206 245 274 367 271 205 324 242 237 270 246 313 208 254 176 270 273 259 172 160 303 342 297 366 257 326 296 264 222 204 277 305 214 232 285 298 286 283 260 212 294 329 354 220 282 277 250 290 225 438 406 237 247 234 245 388 218 256 304 174 260 321 263 356 174 352 257 186 351 212 300 218 220 221 282 368 260 265 286 198 316 210 373 269 242 319 309 263 290 302 248 317 254 286 271 320 177 264 118 282 239 223 274 320 275 260 292 259 416 213 219 224 180 404 184 322 250 311 239 183 203 283 252 166 222 231 282 217 185 274 304 322 332 204 191 234 282 234 232 174 221 256 280 303 147 203 224 260 334 267 252 279 247 274 264 187 291 249 298 174 240 145 195 311 391 230 240 226 310 288 224 283 248 249 260 219 229 280 276 264 388 316 273 285 253 323 176 333 227 257 332 314 260 206 189 231 213 187 367 142 336 240 228 229 174 311 285 246 133 228 250 200 237 303 327 231 336 268 242 204 171 172 269 224 205 194 264 309 311 162 256 257 235 241 315 286 221 322 272 249 358 278 157 265 274 253 270 188 244 156 271 281 287 248 273 326 271 155 266 235 299 385 350 250 141 163 268 284 264 271 335 230 260 182 305 183 185 302 252 185 298 311 230 268 287 244 204 417 311 299 225 188 240 329 188 171 306 315 267 192 260 281 289 253 325 280 194 318 176 255 239 274 262 243 287 163 333 225 279 318 199 210 235 227 333 244 324 318 298 201 215 255 163 219 242 219 158 209 222 185 250 248 271 276 334 354 288 325 281 247 264 340 346 320 293 231 226 257 302 172 158 244 196 238 230 225 360 288 222 262 293 276 177 215 322 308 262 361 262 190 204 266 250 208 256 244 269 162 259 216 154 331 214 179 201 350 206 377 204 152 278 257 339 241 244 251 248 233 315 224 189 279 292 222 185 298 211 276 250 275 309 223 222 200 378 243 309 158 217 341 239 253 295 211 249 252 299 235 332 313 342 223 290 295 200 281 238 260 220 270 215 236 218 359 257 276 238 248 403 302 201 239 302 330 258 308 185 337 190 215 214 311 271 272 276 235 297 296 151 286 267 275 225 181 258 182 349 323 190 216 299 242 281 294 193 226 415 217 255 266 189 275 240 319 250 315 296 171 194 247 247 186 242 244 355 281 236 347 285 379 268 323 238 297 246 236 343 231 246 312 340 316 263 228 285 224 232 220 284 275 225 247 182 222 274 265 248 309 246 224 214 232 178 281 246 249 257 132 238 277 250 318 178 211 220 246 233 240 273 263 220 303 324 217 297 271 283 248 249 257 342 206 173 258 268 331 221 258 158 195 296 263 207 282 235 328 282 270 175 336 281 219 228 318 256 226 273 256 263 222 240 215 267 300 308 249 199 286 213 341 244 323 172 256 364 155 192 180 243 376 247 208 222 196 222 251 250 249 251 222 263 207 267 212 257 154 274 195 259 252 376 330 250 256 331 261 234 224 227 305 203 363 195 302 216 202 282 206 299 337 168 248 246 281 252 254 215 218 223 218 208 226 304 299 295 325 176 407 249 257 289 272 182 222 215 269 333 263 178 257 214 244 346 226 193 290 266 269 222 320 283 230 326 283 197 353 179 271 324 289 257 353 236 281 345 285 242 212 341 267 211 279 244 339 340 263 243 262 239 198 283 254 296 320 245 279 259 202 286 248 220 308 317 279 277 227 246 217 275 251 202 244 239 161 185 234 282 203 328 221 295 301 275 340 239 313 321 182 232 200 264 183 201 307 362 224 323 222 354 204 287 263 371 233 221 403 247 208 264 287 174 205 242 279 209 217 343 276 250 193 291 278 275 194 184 185 253 300 201 224 207 320 251 318 291 188 159 336 364 341 343 259 305 404 277 239 263 345 206 297 304 290 332 217 309 238 286 306 258 238 238 274 263 208 354 277 298 315 339 227 221 291 357 275 187 240 332 376 233 236 199 393 266 225 283 278 271 210 270 310 211 264 270 284 290 224 340 220 217 273 186 306 178 239 220 241 199 282 341 262 236 234 196 262 254 380 283 309 345 268 153 219 343 277 198 311 227 245 369 275 246 192 300 280 270 206 318 280 300 112 260 186 254 172 251 298 266 234 269 283 220 295 195 195 206 294 240 123 277 220 348 220 285 220 278 250 243 286 298 254 259 367 276 164 367 372 164 236 223 289 349 345 323 254 208 225 230 250 292 402 241 337 228 272 261 135 349 257 323 210 268 304 273 372 202 349 230 318 227 231 242 224 222 262 316 251 340 262 301 187 175 251 170 365 344 260 373 341 286 295 204 224 233 332 375 219 295 284 331 238 264 245 317 294 240 231 289 261 219 267 284 288 320 274 259 201 406 260 229 257 261 261 280 273 313 278 216 216 250 330 261 322 318 261 256 236 272 215 414 328 260 190 253 255 299 294 243 237 245 282 300 243 224 237 241 428 300 225 245 168 293 243 250 351 158 280 232 185 234 314 308 239 254 321 236 188 323 296 272 239 245 230 264 279 239 240 278 271 285 231 264 255 247 233 151 344 294 338 395 211 192 348 284 212 384 364 294 250 226 214 243 187 230 258 289 247 305 226 193 266 256 292 305 366 336 209 305 315 265 343 313 276 179 198 204 236 301 255 222 268 262 298 280 233 279 239 312 263 241 259 266 232 271 265 204 188 284 320 223 227 172 268 274 286 299 270 221 304 261 197 239 292 250 265 294 277 309 205 250 319 311 173 282 256 302 244 192 267 217 302 216 250 204 234 225 169 196 175 297 213 244 193 292 364 311 397 250 223 341 320 202 336 183 261 319 298 312 252 252 262 151 371 393 257 318 260 272 292 247 375 265 324 231 314 285 271 234 233 225 324 237 281 328 254 305 323 303 253 347 295 243 334 213 191 293 269 189 196 220 299 286 215 170 380 267 256 290 282 207 278 232 360 305 343 257 243 335 235 261 288 207 283 272 233 230 221 211 227 234 250 298 245 195 375 248 166 217 205 226 277 206 337 260 239 261 266 378 265 255 354 151 159 188 198 236 267 195 205 292 311 400 214 279 274 343 198 237 231 245 281 333 253 248 316 342 298 267 310 236 242 257 213 216 261 235 277 255 205 274 309 304 430 212 268 168 232 282 249 184 174 159 368 284 297 286 235 208 219 209 303 224 362 235 282 251 286 284 229 242 227 279 241 270 296 261 249 229 196 258 294 223 344 294 324 257 144 302 256 333 216 350 378 240 297 247 224 215 194 244 192 189 232 238 191 232 232 285 335 194 228 286 159 254 181 259 215 286 262 217 232 194 266 203 266 265 275 190 281 233 245 231 248 353 371 320 231 237 341 268 236 300 294 255 330 333 276 325 296 350 314 257 264 239 337 195 260 279 243 229 322 411 353 222 210 213 191 287 246 308 211 273 269 239 307 223 258 311 199 346 192 227 240 285 311 343 207 216 181 187 381 258 363 242 329 223 291 317 253 224 353 309 276 223 262 295 249 290 230 231 245 325 205 358 243 229 333 245 299 286 300 233 255 286 370 177 279 211 344 271 297 246 233 188 293 210 314 197 358 321 311 295 237 221 232 237 312 280 299 153 341 266 239 293 281 185 268 144 227 239 253 325 351 294 263 253 226 276 218 294 182 366 278 352 171 303 160 390 202 173 237 167 287 116 230 273 233 275 237 265 241 230 278 235 253 272 263 354 325 283 287 235 225 280 204 170 233 202 404 213 267 247 198 229 267 287 272 287 233 309 244 241 312 225 298 344 300 255 298 289 268 223 221 287 255 203 296 305 352 297 285 301 350 318 265 267 264 232 182 259 261 279 218 196 200 344 242 262 302 290 253 369 199 230 305 402 238 273 290 351 179 364 244 179 295 191 252 210 391 175 219 186 257 250 239 269 342 292 203 174 272 308 281 279 202 334 265 180 320 291 418 236 219 127 183 218 309 354 272 299 241 262 299 253 261 285 347 300 379 201 281 327 222 244 242 322 251 226 298 320 212 288 161 290 266 223 317 234 163 279 301 210 243 192 230 358 206 272 323 268 270 194 221 254 305 249 195 266 241 251 326 291 221 300 313 373 283 277 265 382 304 182 336 208 335 235 199 326 341 215 240 237 197 185 252 327 302 279 240 290 257 239 180 240 248 311 271 252 243 238 276 229 266 165 282 336 197 164 260 284 293 258 249 282 269 198 254 262 211 265 331 297 264 211 300 216 304 264 274 260 219 255 205 242 262 299 209 267 239 281 307 296 235 195 306 252 260 179 276 246 202 176 217 331 194 338 191 236 240 190 341 255 160 220 362 256 271 244 290 208 244 168 286 272 194 305 228 310 249 233 259 287 222 352 314 274 182 266 265 333 300 160 188 274 234 362 294 321 270 242 321 249 257 304 204 225 229 298 229 234 240 207 261 218 242 281 237 275 240 236 268 219 261 280 259 371 277 305 292 243 329 210 237 218 178 240 232 322 210 249 179 373 299 139 197 397 242 391 249 321 221 201 306 287 326 282 260 291 209 308 304 199 227 270 351 267 299 269 253 238 297 277 254 285 257 291 231 321 231 258 247 225 306 218 231 255 262 290 387 237 336 272 196 384 282 384 268 240 297 195 219 258 306 173 249 318 261 251 317 270 335 309 251 124 264 212 216 302 169 324 359 262 192 237 241 169 166 272 210 251 292 196 202 296 230 283 327 302 282 330 261 345 199 252 210 334 203 283 243 299 312 264 169 229 381 362 287 179 299 209 320 299 207 330 273 239 356 259 257 281 254 277 191 223 278 236 275 267 263 293 295 217 320 189 203 378 308 316 223 236 158 243 223 358 308 162 208 184 218 314 240 317 283 324 260 246 277 204 280 419 266 318 235 218 315 274 264 351 300 246 251 183 339 282 314 222 220 175 194 327 346 273 268 301 289 300 261 346 237 233 197 347 280 346 303 323 291 279 211 267 296 279 270 243 256 272 263 230 243 348 239 331 224 204 250 281 298 349 230 228 286 223 229 229 418 368 265 198 296 291 232 236 233 255 268 205 279 314 248 326 195 301 221 359 227 238 284 279 312 280 264 286 360 281 231 283 220 288 308 228 210 251 386 253 283 215 218 282 212 253 208 279 255 406 230 280 280 247 252 262 260 242 262 222 257 248 366 246 210 251 257 276 216 207 291 323 237 257 188 369 333 268 220 250 278 240 277 315 222 177 150 231 302 192 282 414 204 219 153 248 253 242 298 212 323 415 322 236 239 245 244 254 165 294 269 375 265 176 291 265 290 233 252 324 261 229 258 281 268 334 224 108 290 326 205 229 131 259 286 188 208 337 396 324 242 292 231 273 292 211 241 271 315 382 273 364 188 203 221 173 228 261 218 185 285 378 228 269 166 146 299 279 285 352 240 199 259 313 174 308 270 173 228 301 305 231 292 333 247 342 277 302 253 269 235 294 171 282 299 211 334 316 214 277 230 303 215 268 243 229 287 296 164 234 115 262 223 262 316 251 199 251 243 250 225 215 286 252 193 135 198 259 292 319 323 240 268 202 337 254 326 317 314 262 204 229 326 268 347 301 225 336 196 164 176 318 257 269 163 239 235 193 258 255 303 258 211 341 365 277 408 311 182 293 388 268 232 270 239 322 270 289 172 161 340 309 269 220 227 272 191 302 248 245 337 375 298 228 320 225 310 209 300 318 258 330 251 186 297 217 276 265 275 241 300 411 293 326 335 264 321 206 271 120 244 263 242 221 280 253 257 231 239 257 311 142 195 221 249 188 202 270 348 312 222 288 289 295 242 265 291 228 303 262 291 171 247 332 280 156 305 300 270 215 294 250 274 277 202 185 264 161 354 341 191 235 225 260 205 257 226 231 285 215 255 307 240 215 288 272 254 172 273 289 235 267 275 252 294 257 317 200 263 281 334 294 251 184 240 235 295 298 238 283 324 251 218 331 246 214 238 245 209 354 302 263 190 257 302 304 252 339 279 313 178 295 359 228 311 306 325 263 274 251 311 211 265 237 348 169 237 308 277 189 149 270 206 272 263 218 213 388 261 209 284 269 297 324 280 283 247 204 244 355 247 295 238 199 291 171 341 275 177 347 153 196 314 186 284 269 363 265 262 199 266 190 172 284 180 247 225 227 350 230 235 271 227 321 288 246 315 322 277 331 274 210 244 248 240 265 261 272 220 268 294 199 240 219 301 266 232 175 229 252 212 210 224 249 303 298 305 340 244 263 228 258 237 360 246 418 272 370 236 314 259 306 245 415 229 287 292 312 222 304 219 308 433 221 282 244 246 352 209 343 178 325 311 270 189 263 373 224 351 278 299 260 372 178 345 301 360 203 288 209 313 197 288 273 284 348 318 348 248 335 285 279 297 310 241 283 346 316 219 235 235 269 249 291 304 279 273 399 281 238 276 304 161 318 275 252 264 181 163 358 163 320 321 330 216 215 262 277 302 234 196 225 328 231 257 380 295 214 356 289 304 268 284 313 307 225 216 285 278 185 285 230 271 242 277 257 232 215 349 159 244 394 279 223 170 317 208 176 256 224 313 278 267 266 314 265 210 223 296 267 231 273 259 253 435 306 309 293 275 235 258 321 192 319 228 320 363 191 223 161 265 303 269 247 366 270 321 292 239 307 239 270 278 270 270 248 344 279 277 279 196 198 252 235 190 216 283 236 234 302 163 227 345 313 199 214 246 239 240 249 295 238 187 294 240 239 259 235 273 263 310 252 281 248 333 298 305 338 266 284 326 275 287 181 271 191 278 291 257 287 177 210 242 216 246 199 264 229 320 235 314 176 363 237 343 212 309 213 148 197 148 263 288 216 172 291 322 259 349 255 325 246 243 253 277 264 215 236 329 295 177 176 337 338 217 181 225 250 154 307 317 169 278 117 225 327 221 208 184 305 206 322 243 237 339 310 277 285 236 298 323 241 196 276 205 309 328 210 157 289 218 289 225 246 261 369 274 320 342 320 318 184 330 340 274 274 280 151 287 207 295 331 287 271 350 148 168 296 279 337 179 113 280 250 265 307 363 195 375 325 318 243 328 255 265 278 260 202 223 308 241 212 129 265 243 359 330 222 234 302 262 191 237 238 209 200 316 310 184 311 286 377 275 147 263 307 155 255 154 408 295 272 291 289 220 228 203 167 186 384 234 326 305 281 289 267 306 326 276 243 252 225 220 328 249 270 207 210 223 320 243 248 181 251 227 171 225 218 232 239 268 295 233 169 230 260 181 243 256 358 334 310 178 291 273 230 260 260 203 194 292 261 241 285 253 393 240 195 257 205 250 245 233 272 242 268 266 307 285 272 307 330 222 245 293 273 264 161 331 249 249 179 355 223 212 208 240 262 240 314 375 334 252 219 268 236 244 329 272 248 376 199 181 258 240 337 222 155 347 255 241 221 178 314 261 280 237 227 323 246 161 280 263 360 312 216 350 231 248 222 249 212 332 270 246 260 218 310 266 203 283 272 354 200 243 349 309 173 226 273 274 220 273 239 374 308 228 262 293 199 259 196 266 339 257 297 252 196 256 293 305 276 271 224 288 265 278 254 127 344 262 240 330 288 320 267 164 151 253 228 251 244 246 281 239 348 263 242 338 227 245 252 379 322 332 351 255 356 243 297 310 324 277 213 323 285 173 246 283 198 213 195 381 254 291 110 374 224 173 182 305 402 339 365 331 386 345 280 326 316 335 340 270 233 431 244 195 279 164 291 254 325 260 228 139 265 295 268 252 221 211 210 266 215 179 175 323 253 264 206 310 302 245 202 239 252 209 278 167 239 370 332 248 243 294 140 248 253 304 245 211 267 256 173 333 257 148 247 242 237 212 230 276 243 188 263 260 207 236 281 275 194 216 324 252 220 174 215 351 299 272 262 207 215 290 247 319 251 202 174 210 234 240 299 367 287 254 235 315 252 244 296 295 266 245 265 292 181 374 244 201 252 326 247 337 189 261 313 218 166 217 263 299 216 217 236 162 311 210 197 217 171 234 281 273 265 203 353 274 373 241 212 265 259 343 389 226 278 300 266 207 223 189 339 171 245 284 249 249 210 125 305 241 283 271 244 133 234 264 407 200 245 295 233 243 206 263 274 358 221 266 274 209 312 221 241 273 213 236 221 210 144 205 300 174 298 278 258 246 338 298 216 328 232 308 263 289 258 336 253 317 249 205 264 335 321 237 284 321 302 281 226 206 301 367 283 381 240 374 217 247 290 296 264 294 189 256 232 312 232 284 215 213 297 238 331 308 396 332 267 281 172 264 312 301 224 230 201 280 304 237 377 179 259 249 362 356 150 272 269 227 199 304 311 273 132 191 271 233 158 197 271 277 279 182 254 399 269 194 201 226 275 260 285 215 325 283 316 202 236 355 270 332 287 276 276 228 207 272 182 308 219 207 218 273 316 271 219 321 266 254 310 291 242 282 269 239 190 210 259 209 218 222 336 276 330 234 265 273 340 281 374 220 281 258 295 280 303 255 189 253 340 251 282 212 194 294 211 307 294 257 337 286 288 314 275 276 236 245 267 269 258 233 242 272 358 451 243 256 317 285 216 302 239 176 289 207 291 263 284 219 244 192 238 241 298 206 252 236 139 260 215 324 240 326 296 307 254 233 267 171 321 193 210 266 229 301 196 359 244 333 228 296 222 224 206 295 334 186 313 314 262 225 171 258 299 282 222 292 227 367 244 249 266 159 232 305 263 318 338 189 348 339 250 282 301 213 272 217 257 207 245 262 239 194 286 246 266 352 349 200 205 272 301 271 211 370 292 286 185 237 176 223 231 213 205 236 244 265 266 258 305 449 385 199 408 399 240 242 291 192 257 371 276 237 276 252 291 169 284 196 166 318 142 139 239 333 305 257 272 183 375 306 237 250 321 215 194 330 297 261 360 171 323 326 304 292 190 288 390 193 227 339 211 222 248 233 226 257 396 357 144 143 363 391 370 271 153 467 260 268 151 191 211 215 226 231 277 272 308 194 234 179 200 265 261 306 324 265 418 308 286 305 301 250 237 279 194 254 312 369 316 176 227 205 294 191 264 247 264 261 353 181 208 221 311 230 214 185 201 230 314 341 204 269 297 247 181 209 318 281 240 277 295 310 278 328 370 367 283 259 339 258 217 251 294 192 289 383 253 367 276 168 275 217 396 305 331 313 259 306 248 213 233 232 220 288 231 234 224 174 303 277 349 356 261 242 383 246 376 331 238 284 282 302 202 316 256 297 232 169 170 197 137 227 310 371 214 419 196 278 278 296 345 274 297 371 278 277 258 323 262 307 210 283 263 231 172 231 307 240 287 246 376 221 265 254 196 260 271 219 309 264 316 225 327 250 219 235 248 285 401 290 184 303 320 258 266 178 239 251 272 199 340 223 235 232 194 302 249 280 307 282 349 242 169 299 310 268 302 239 252 284 333 278 183 244 197 187 235 318 274 73 332 363 378 293 337 314 357 237 305 220 218 285 189 197 284 150 327 302 256 357 265 379 269 217 170 241 181 181 225 262 269 291 262 292 283 218 213 255 276 283 225 268 282 281 270 265 346 317 342 206 222 243 187 306 213 307 175 220 307 308 217 331 298 282 158 213 262 176 218 305 196 239 283 315 222 260 204 308 218 228 259 295 239 260 198 240 243 167 362 259 304 278 364 334 299 311 183 226 288 162 203 369 322 262 264 253 234 174 324 394 235 268 215 211 290 347 330 232 221 218 251 313 338 278 282 263 294 267 205 305 303 210 149 202 179 266 201 290 370 212 263 193 182 259 264 231 204 323 324 183 166 326 206 309 170 238 264 254 295 251 123 432 249 213 209 276 228 239 248 262 206 263 363 215 290 313 221 154 325 196 261 174 322 266 338 303 263 187 198 277 308 288 170 295 296 220 182 307 311 287 257 204 214 314 272 355 306 285 342 311 217 283 275 301 361 209 222 281 318 355 240 286 295 240 211 320 323 324 258 330 229 267 285 253 249 226 252 194 188 211 197 268 234 310 348 232 153 250 338 249 300 176 231 280 334 247 252 343 233 238 260 277 346 195 365 226 234 239 254 188 315 272 315 397 246 167 196 212 319 214 259 219 258 225 260 270 295 225 276 303 348 273 228 257 259 240 176 300 203 248 185 226 211 279 331 290 211 178 361 423 356 211 222 324 331 273 269 329 297 317 352 227 313 170 303 167 305 255 282 290 286 224 260 361 194 191 241 268 310 236 294 298 319 282 201 367 265 310 284 250 210 293 258 201 318 271 139 238 170 252 154 306 272 261 334 204 255 263 269 295 205 322 265 189 267 297 252 321 283 282 248 218 271 280 296 253 228 304 365 258 327 190 204 401 222 346 280 245 233 305 242 277 169 114 237 292 237 242 163 225 246 202 195 206 336 282 269 187 153 277 296 162 278 301 331 246 281 233 209 306 268 296 214 254 303 276 259 324 330 321 291 246 282 166 259 220 363 218 316 192 229 202 212 228 364 206 287 247 238 318 264 287 240 331 252 226 299 323 227 205 287 240 343 173 196 283 250 271 207 243 287 228 199 200 254 285 382 274 288 217 278 229 249 271 287 321 293 286 214 215 295 268 261 328 274 310 273 219 281 218 244 206 246 234 175 195 296 282 379 327 216 183 305 343 216 380 158 279 277 275 280 343 202 402 328 219 289 293 220 291 227 267 274 325 130 217 253 238 268 254 259 218 281 325 346 267 229 333 253 210 273 186 318 284 303 189 216 189 272 336 258 249 289 339 299 246 282 263 212 183 278 181 312 296 276 285 350 297 313 198 345 201 249 229 331 340 320 232 255 337 304 292 210 199 256 264 217 334 296 189 266 283 281 314 236 270 268 243 220 230 278 287 325 229 363 362 343 267 305 197 192 317 178 321 396 272 271 275 207 194 246 319 341 259 229 224 242 298 249 261 348 294 250 264 258 231 268 280 254 298 248 225 197 178 317 226 190 209 163 255 285 186 236 281 236 253 317 161 331 301 215 269 357 147 306 274 214 248 341 309 188 231 229 220 210 250 274 279 309 266 264 240 221 260 198 198 182 338 257 251 401 277 264 302 195 186 235 216 331 347 280 306 353 175 272 329 360 160 251 263 241 326 277 297 231 212 200 268 244 240 289 210 305 248 260 257 286 270 253 337 283 329 189 369 213 171 212 174 200 354 283 319 302 303 297 291 206 156 243 228 258 369 230 238 248 386 312 352 267 254 250 243 325 244 285 250 242 404 270 255 290 135 300 235 207 127 257 377 353 210 329 240 310 268 186 268 207 282 228 252 367 282 376 308 237 272 221 302 329 226 317 219 155 283 243 187 260 234 135 230 295 274 275 323 266 203 263 224 326 332 223 185 289 299 201 288 263 238 359 248 334 232 296 366 262 155 297 294 234 270 262 317 198 234 205 178 203 348 201 306 250 265 291 273 221 187 345 375 133 303 421 215 208 319 300 244 304 274 260 328 300 231 339 208 257 247 252 263 201 375 276 245 199 179 299 303 271 251 277 239 351 208 238 258 224 228 229 206 284 317 214 236 271 289 244 292 353 258 204 229 264 269 278 200 258 228 200 239 219 329 192 342 332 253 310 226 274 398 289 260 350 309 275 218 267 210 317 278 258 199 276 216 190 259 185 195 231 289 253 357 265 273 313 408 269 317 197 223 184 193 211 263 242 318 276 240 290 354 305 287 223 239 239 354 362 248 238 287 249 192 182 248 330 241 267 294 257 258 233 225 216 298 217 231 249 298 288 201 291 339 173 227 235 334 298 185 200 262 217 219 236 386 256 353 249 248 207 259 311 260 245 383 216 303 309 270 245 331 287 301 268 290 262 189 272 283 240 227 334 243 311 252 266 187 267 376 190 249 394 234 210 237 241 283 318 308 320 223 317 205 255 234 262 292 294 356 266 205 248 376 335 335 287 314 212 282 296 147 245 310 227 270 318 339 303 163 224 253 261 340 311 301 325 347 242 266 243 253 236 210 277 279 294 317 239 259 255 327 266 275 326 283 322 200 326 180 244 230 353 318 168 235 338 340 298 175 291 272 274 211 194 220 309 248 283 321 233 262 253 144 303 257 302 302 274 269 270 263 341 261 342 326 156 237 272 206 233 241 285 236 259 272 257 236 336 133 192 238 321 321 228 286 155 211 280 241 258 265 273 278 290 245 262 374 266 301 233 311 317 242 301 379 204 270 180 274 312 238 279 291 292 214 320 327 248 317 308 268 258 243 270 322 254 259 164 283 149 317 250 243 226 192 239 278 376 210 321 390 230 228 241 347 287 300 274 201 185 270 187 343 319 253 187 159 241 195 260 317 398 299 214 220 259 183 258 255 298 321 253 298 248 248 259 267 272 212 409 229 248 313 288 155 257 317 251 260 276 286 137 305 245 373 309 163 391 226 211 322 359 216 242 219 390 206 279 337 243 312 261 191 213 197 243 162 198 301 202 255 275 380 237 241 213 302 287 246 260 255 353 329 294 264 193 202 276 199 269 166 189 306 277 255 183 181 204 318 373 288 231 286 315 265 250 249 213 287 270 312 241 255 242 241 243 249 261 300 323 235 227 308 294 283 276 230 246 283 312 231 182 195 280 401 302 293 271 225 262 238 124 274 244 227 290 204 185 280 222 283 209 363 204 264 212 330 210 317 311 246 204 196 194 339 311 257 331 215 292 224 264 322 185 253 310 238 202 293 282 351 214 229 231 277 253 280 222 187 180 237 390 276 320 209 352 188 210 312 232 266 224 257 379 186 252 201 264 291 239 305 259 302 235 217 237 187 248 337 155 290 331 233 247 247 286 193 336 200 314 305 207 269 321 224 261 235 213 227 182 244 261 158 279 180 313 338 337 298 261 328 240 319 239 283 292 250 291 252 323 205 285 360 211 233 268 189 261 205 246 235 322 223 366 292 270 186 262 348 273 290 275 209 221 215 296 255 240 220 272 170 219 307 249 218 303 261 159 297 266 316 218 295 265 292 191 254 146 327 334 285 232 352 221 250 258 306 261 190 315 250 298 233 218 229 233 264 308 300 270 295 276 249 211 327 265 213 239 296 278 260 272 224 272 214 233 308 217 320 294 240 201 200 192 322 232 288 205 302 230 308 220 270 243 270 240 356 228 180 285 281 203 198 209 210 273 192 227 229 287 283 244 340 343 250 285 283 345 234 337 247 332 226 303 350 298 255 250 273 213 320 275 276 210 238 275 202 251 236 327 376 344 298 210 161 236 288 291 205 244 362 264 227 332 262 229 340 331 297 305 214 255 168 183 364 296 148 223 181 295 262 292 148 285 241 189 191 309 268 328 216 346 265 247 285 250 264 302 275 259 303 224 162 285 264 211 262 241 223 336 273 299 225 316 264 302 358 198 287 301 237 300 300 247 322 275 193 324 295 320 236 284 239 212 262 282 112 316 217 285 213 269 208 293 334 175 378 171 226 234 308 172 289 318 163 274 293 208 279 268 238 267 352 226 242 273 364 317 242 316 262 246 373 222 356 289 293 277 229 290 171 274 254 177 241 297 241 302 160 286 180 246 212 308 209 238 299 281 157 318 234 378 186 235 276 144 226 257 237 344 279 261 211 297 298 255 330 206 256 282 290 253 295 311 346 236 183 242 260 286 312 240 280 278 289 317 321 319 220 333 250 200 242 224 211 280 267 209 289 284 195 317 219 233 218 183 333 179 264 270 249 168 241 245 226 292 201 305 193 251 234 248 273 279 387 174 176 206 287 244 161 321 225 270 167 362 251 220 282 284 240 255 241 251 196 322 241 259 211 131 181 270 283 175 194 326 289 212 263 264 218 321 279 242 236 271 233 344 230 143 308 317 245 338 199 282 317 207 238 271 317 317 234 264 229 280 240 344 203 292 226 189 284 335 336 299 168 309 142 244 362 288 312 359 259 234 208 213 122 228 333 281 259 248 269 185 271 292 320 321 287 197 285 360 315 238 252 225 263 280 256 265 338 225 233 284 238 244 265 316 379 242 242 307 370 244 269 208 219 310 183 234 239 303 305 270 220 173 347 306 283 218 304 270 318 351 205 285 301 242 303 275 212 271 412 232 266 301 304 239 306 232 293 260 324 192 321 297 251 189 204 251 180 297 233 323 228 235 255 198 221 224 389 315 407 262 283 327 178 228 258 266 207 274 225 288 321 183 262 268 316 252 230 339 314 283 198 203 302 260 312 179 217 223 285 252 255 310 244 329 273 262 328 261 280 202 221 263 314 206 258 333 231 206 268 260 291 263 282 296 315 261 292 246 386 187 283 240 254 289 204 251 307 226 217 258 266 204 258 236 248 385 236 296 251 285 275 268 224 275 245 272 248 196 240 161 198 288 250 204 382 227 225 297 279 219 210 297 251 238 297 243 187 259 266 260 309 153 296 267 244 304 260 241 175 315 292 249 312 223 307 252 359 214 268 246 285 215 168 267 224 260 235 209 222 260 277 237 269 276 302 242 322 344 254 224 275 378 347 194 257 167 268 222 249 254 209 276 334 161 264 321 208 210 293 274 271 253 147 232 215 240 193 231 309 281 258 214 221 191 197 258 324 299 229 248 327 288 208 284 323 259 230 211 316 149 305 238 239 279 237 208 277 157 253 219 256 238 279 214 382 166 199 234 261 228 375 226 223 262 180 300 248 206 252 186 264 280 152 266 302 287 204 282 224 215 325 355 236 353 220 223 233 277 306 324 247 264 245 211 208 261 243 159 214 234 268 268 282 212 199 247 215 245 324 228 306 299 365 398 236 210 191 256 210 153 324 225 323 243 382 307 195 298 228 293 242 293 313 267 269 237 268 254 263 284 253 292 308 365 241 224 235 172 166 252 261 261 217 211 264 244 268 212 173 259 320 166 201 281 386 225 292 240 253 200 245 280 317 205 258 295 281 325 249 268 229 253 318 246 250 297 292 286 259 284 279 217 302 248 297 307 261 239 256 268 318 275 300 269 233 228 232 170 266 410 269 242 269 275 356 328 283 227 317 230 189 178 244 293 372 190 273 271 337 266 255 244 264 281 241 262 251 278 266 265 224 297 304 277 216 417 248 191 292 244 242 255 448 252 278 180 268 276 158 224 279 185 297 203 295 223 291 271 311 273 233 261 260 250 341 202 227 265 294 212 294 241 222 288 328 299 257 302 273 209 247 182 321 250 234 366 317 154 329 245 214 272 307 262 302 274 194 286 295 261 345 354 306 233 210 352 220 159 233 451 228 345 173 288 274 285 269 250 260 261 139 233 203 424 339 276 250 263 191 250 213 183 271 290 271 248 302 269 220 338 223 268 222 214 232 244 291 267 274 176 218 215 281 306 218 287 258 248 294 373 243 217 250 334 266 319 314 325 365 238 334 347 225 285 226 204 343 292 324 248 226 199 249 168 240 317 212 271 288 200 219 240 327 233 314 191 420 209 368 237 216 319 261 300 224 322 236 296 365 261 310 244 239 229 277 282 249 207 356 240 304 222 233 213 236 322 215 207 343 267 229 217 284 327 269 254 245 217 248 300 230 258 330 214 225 260 239 327 286 226 228 200 297 230 325 489 261 264 257 332 197 204 331 337 320 242 253 292 270 234 228 313 197 358 280 202 329 223 311 249 311 275 293 274 196 342 212 244 164 251 269 397 342 238 208 381 248 233 334 176 189 307 277 237 206 202 208 226 271 277 208 274 205 302 363 317 197 195 276 208 283 264 275 256 285 282 281 201 351 359 303 310 330 329 282 256 182 262 240 260 267 227 286 272 263 273 246 291 286 236 339 278 293 368 286 221 242 249 364 266 331 209 212 270 384 263 200 224 271 209 216 193 257 181 273 286 304 229 296 161 213 329 278 210 273 241 252 201 325 339 269 175 266 308 302 312 253 139 264 352 299 373 275 258 277 252 320 295 239 233 253 258 254 405 329 345 229 304 196 268 243 230 233 325 203 212 268 234 258 239 235 290 198 152 182 352 257 247 304 147 309 244 208 349 215 370 279 281 243 161 195 258 352 278 201 274 232 224 279 226 288 324 249 345 263 287 324 328 218 266 262 318 229 277 266 203 207 285 260 210 259 207 257 304 273 183 252 344 297 289 202 242 289 223 286 283 277 284 286 331 119 337 225 356 222 164 184 208 472 240 128 294 243 205 232 303 408 332 149 222 213 360 252 310 419 305 220 278 226 196 313 267 258 264 260 178 329 257 154 222 279 254 308 183 294 345 202 273 292 355 278 267 308 275 328 212 270 210 301 247 216 247 265 203 185 257 219 238 280 232 178 196 283 247 217 349 276 257 243 228 220 293 305 326 280 230 272 335 232 264 345 283 358 158 217 287 259 310 181 249 337 268 253 177 292 219 311 262 193 240 398 222 265 256 227 288 269 305 270 263 282 210 327 317 266 234 255 342 180 222 242 228 325 312 304 282 268 211 283 248 298 203 306 164 190 190 270 353 371 249 277 210 249 224 268 293 402 256 235 296 220 248 292 276 179 269 344 266 256 249 264 156 213 225 226 234 317 198 272 342 246 248 190 267 245 231 347 262 325 223 188 306 261 262 237 256 304 319 247 233 383 317 233 275 276 303 213 222 276 249 277 244 232 222 192 278 283 129 234 331 176 258 211 214 291 289 278 332 292 193 189 251 271 327 342 394 270 329 300 243 192 269 234 282 204 374 214 259 339 267 266 210 351 217 268 270 242 201 230 114 242 283 356 298 262 277 307 315 281 289 205 230 264 349 185 337 235 296 170 241 304 346 302 215 132 165 255 315 175 264 379 195 238 295 254 216 238 278 243 327 310 302 256 218 194 257 274 230 184 194 164 211 276 275 308 225 308 301 224 184 309 206 239 214 275 291 283 198 265 232 227 177 300 385 372 215 183 328 233 211 441 227 199 316 282 257 335 246 280 312 273 302 251 228 157 267 261 264 257 224 232 312 214 232 283 302 285 240 249 239 228 344 312 382 249 305 286 257 329 240 346 245 225 229 228 246 239 359 239 325 241 187 289 414 281 236 193 228 317 249 262 280 243 251 312 261 170 272 196 211 317 344 273 257 229 305 236 220 171 351 321 234 207 309 327 231 219 299 249 268 304 222 277 367 257 419 283 318 297 219 327 194 256 210 275 127 232 339 236 282 316 302 245 284 294 314 221 284 220 197 189 209 285 271 263 213 343 318 242 185 276 307 233 363 </t>
-  </si>
-  <si>
-    <t>NIG(70.57645202681437, 67.30701650282433, -3.1727254241756544, 1.5362053625949108)</t>
-  </si>
-  <si>
-    <t>0 1 3 2 2 2 0 3 1 0 1 2 3 3 2 0 4 2 0 1 1 2 0 2 2 1 1 2 2 3 1 0 3 1 1 1 2 0 1 1 2 3 4 2 1 1 2 0 2 2 1 1 1 1 1 2 1 4 3 1 4 1 4 2 1 5 1 2 3 0 2 0 1 1 1 1 0 0 2 2 1 0 1 2 2 2 2 0 1 4 0 1 2 3 0 2 0 2 0 1 2 0 2 2 2 2 1 3 1 0 1 1 5 1 4 1 1 0 2 3 2 2 2 2 1 1 1 2 2 4 1 3 2 1 0 2 4 2 1 0 1 3 1 1 1 3 0 2 0 2 3 2 2 2 2 1 0 2 1 1 3 3 0 2 1 2 4 1 2 4 2 2 3 0 2 1 3 3 2 2 3 0 1 2 4 2 0 1 2 1 3 4 2 2 2 3 1 0 2 2 1 1 1 1 1 2 0 2 3 0 2 1 3 2 3 2 2 2 1 2 1 1 2 0 1 0 3 3 2 3 1 3 2 1 2 0 3 2 1 3 1 1 3 2 2 0 5 0 2 1 2 2 1 2 1 5 4 3 2 6 3 1 2 1 2 2 2 1 1 1 2 1 1 3 4 2 3 3 0 2 2 1 2 2 0 1 2 4 4 3 0 1 0 1 2 0 3 1 3 1 2 2 2 3 4 2 1 1 4 2 1 1 2 1 2 3 1 2 1 0 1 3 2 3 1 3 2 2 0 1 5 1 1 1 0 1 4 1 1 1 2 1 2 2 0 1 1 0 1 2 1 2 2 4 2 2 2 2 2 1 1 3 2 1 1 1 2 1 0 3 2 2 3 1 1 1 1 1 2 2 4 3 2 2 3 1 4 3 1 3 1 2 1 1 1 1 2 4 2 2 1 2 2 1 2 1 5 0 3 3 2 2 1 2 2 2 2 1 3 1 2 3 2 2 0 0 1 2 3 2 2 1 1 3 3 3 0 3 3 2 3 2 1 5 0 0 2 1 1 2 2 2 1 2 1 0 3 4 1 2 1 3 1 2 0 1 1 1 1 2 1 2 1 2 1 0 0 0 2 3 2 0 4 2 3 2 3 4 1 2 0 4 1 2 2 2 2 4 4 2 0 2 1 1 2 2 2 2 4 2 1 1 2 2 1 2 2 1 2 2 0 2 2 1 2 2 1 2 2 3 3 3 1 1 3 0 1 2 2 1 1 2 1 2 2 2 1 2 2 1 2 1 3 2 2 0 0 0 1 3 1 2 2 2 4 3 1 0 3 1 2 1 0 1 2 2 1 3 1 2 2 4 0 0 2 0 0 4 1 0 2 1 3 3 1 2 1 0 1 2 2 0 5 1 0 3 1 1 2 2 2 1 1 0 2 2 1 1 1 1 3 1 2 2 4 2 2 2 1 2 1 1 2 1 4 5 2 3 0 5 1 2 1 2 0 2 3 1 1 6 2 1 2 3 2 1 3 3 1 1 2 2 0 0 2 2 2 4 3 4 0 2 2 1 2 3 2 2 2 1 1 1 3 1 2 2 1 1 4 2 4 1 2 1 3 0 3 0 2 2 1 2 2 1 2 1 1 1 0 3 0 1 6 1 1 3 3 2 1 3 1 2 0 1 0 2 1 1 3 1 3 2 1 1 3 3 1 1 3 2 1 3 2 1 2 1 1 2 3 2 2 1 2 1 0 0 1 0 0 2 2 0 1 3 1 1 2 0 3 1 3 1 1 2 2 1 1 2 0 4 2 4 2 2 2 1 2 1 4 1 1 2 1 1 1 0 0 2 1 2 3 0 1 1 4 2 1 0 3 0 3 0 2 2 1 4 3 1 1 1 2 1 1 1 0 2 1 4 0 1 2 2 2 1 1 2 1 2 0 3 2 1 3 2 1 4 2 1 1 2 3 3 1 3 3 3 0 3 2 2 1 2 1 0 1 2 2 1 2 1 2 2 2 3 1 3 2 2 2 2 0 1 1 1 1 0 1 2 2 0 2 1 3 1 2 3 2 2 1 1 3 2 0 3 3 1 3 1 0 3 2 2 1 2 1 4 0 2 6 2 2 2 1 1 1 3 3 2 2 3 0 0 1 1 0 1 2 0 1 1 0 2 1 0 3 2 2 2 2 2 4 2 2 1 1 2 2 2 1 1 3 2 1 2 1 3 3 1 2 1 1 0 1 3 5 4 2 2 0 2 1 3 3 2 2 2 0 3 2 0 1 1 2 1 5 2 5 2 1 2 1 3 3 0 1 2 1 2 2 1 3 0 3 1 2 1 3 2 2 1 0 2 2 1 2 1 1 0 2 1 3 2 1 2 2 2 2 1 2 3 1 1 3 2 2 1 1 1 4 2 1 2 4 1 3 2 1 0 1 1 0 3 2 1 2 1 2 1 2 1 2 1 1 1 1 1 0 0 4 0 1 1 1 3 0 2 4 1 0 1 3 2 1 1 1 3 1 3 1 2 1 2 4 2 1 3 1 3 3 2 0 0 1 3 2 4 2 3 2 1 1 2 2 0 4 3 1 1 0 1 3 0 1 2 1 1 0 3 2 3 1 2 0 0 1 0 1 3 1 1 0 2 1 0 1 0 0 2 1 2 3 1 1 3 1 2 1 2 1 0 3 3 2 1 0 0 1 2 2 4 1 1 1 1 3 3 1 0 0 3 3 2 1 1 3 2 2 1 4 2 0 3 2 3 2 0 3 2 2 1 3 1 2 1 1 0 3 0 2 2 4 1 2 3 1 1 1 4 4 2 2 2 1 1 1 1 0 0 2 2 1 0 3 1 1 2 0 4 2 2 2 0 1 3 1 1 1 2 1 0 2 1 2 2 2 3 1 2 2 1 2 1 3 3 2 1 1 2 2 0 1 4 1 2 2 1 1 1 1 1 1 2 2 1 2 5 1 0 3 3 1 4 1 1 1 3 0 1 1 2 3 3 2 0 1 0 2 1 3 1 4 1 0 4 2 2 1 3 1 3 1 1 2 3 2 2 1 3 1 2 1 2 2 3 3 2 2 3 2 1 2 3 2 0 0 2 2 0 0 0 1 1 1 2 2 0 2 3 1 1 1 1 3 1 2 1 2 2 1 4 1 1 1 3 1 2 2 2 1 2 1 4 1 1 3 2 2 1 4 3 3 1 1 1 1 2 2 2 1 1 2 3 2 2 0 3 2 1 1 0 0 2 2 3 1 1 2 4 0 2 0 3 2 2 1 0 3 2 2 4 2 3 0 2 1 1 4 2 0 0 4 1 1 1 2 0 3 2 1 1 1 2 3 1 1 4 2 3 3 1 4 2 1 1 1 1 0 2 5 1 3 1 1 3 0 4 2 1 3 1 3 1 1 2 2 1 4 3 2 1 1 1 2 2 2 4 1 2 4 0 1 2 3 3 2 2 2 4 3 2 0 2 3 2 2 0 2 1 1 0 1 2 0 1 2 1 0 1 1 2 0 2 2 0 1 2 2 2 0 3 0 3 2 2 2 1 1 1 2 2 4 2 2 4 4 2 1 2 1 2 3 1 1 0 0 0 3 1 2 2 2 2 2 1 1 1 2 2 0 2 1 4 1 0 3 1 1 2 0 1 0 1 1 4 0 3 3 2 1 1 1 1 1 3 3 1 3 1 1 0 1 1 3 4 0 0 2 2 2 1 2 1 2 2 1 3 2 1 1 2 2 2 3 0 2 3 4 3 2 1 1 2 1 2 4 2 1 2 0 2 3 1 2 1 1 2 1 4 4 2 2 2 3 2 2 1 1 2 2 1 2 3 1 2 1 3 1 1 1 0 2 1 3 1 2 2 2 0 1 2 1 1 2 2 1 2 2 3 0 0 2 1 3 2 2 2 2 2 1 2 0 2 3 1 2 2 2 2 2 1 4 3 0 4 4 2 2 0 2 1 0 2 2 1 0 3 2 1 1 1 1 1 1 2 0 2 2 1 2 2 1 1 3 2 2 5 4 2 3 2 1 1 2 3 1 1 0 2 1 2 3 3 0 2 2 2 2 1 1 1 2 2 0 0 3 2 3 2 0 0 0 2 1 2 2 2 1 2 3 1 1 2 1 4 0 1 1 3 3 0 1 1 2 2 2 2 1 2 1 1 2 2 3 2 3 0 2 3 3 1 3 0 1 2 1 0 1 0 0 0 2 2 0 4 2 2 3 1 3 1 3 3 1 0 2 1 1 1 0 2 0 2 0 3 4 2 1 2 1 2 1 1 1 3 1 2 1 2 1 1 1 1 4 1 2 1 2 3 3 2 4 2 1 0 1 2 2 2 0 0 2 2 2 1 2 3 1 1 1 1 2 2 2 3 2 2 2 0 1 1 3 1 0 0 3 5 1 2 4 1 1 0 1 2 1 3 2 2 1 1 2 0 3 2 1 1 2 2 2 4 2 1 2 3 2 1 3 1 1 1 1 3 2 2 3 2 2 1 0 3 3 1 1 1 1 2 1 1 2 0 2 0 0 3 0 1 2 0 3 3 1 1 3 1 3 2 1 1 1 1 1 0 0 2 2 2 0 2 1 1 3 2 2 2 1 3 3 2 2 4 2 1 1 2 1 0 2 1 0 1 0 2 0 0 1 3 2 0 2 1 1 1 2 0 2 2 1 0 1 1 3 0 2 3 2 3 1 1 2 1 1 4 1 3 0 1 3 1 2 1 0 2 1 5 3 3 4 2 2 2 2 2 3 2 4 2 1 1 1 3 1 0 0 2 1 2 2 1 1 2 1 2 0 2 0 2 3 3 2 1 1 4 1 2 4 0 2 0 4 1 2 2 1 2 0 1 1 0 3 2 2 1 3 2 3 0 2 2 2 2 2 1 1 3 2 0 1 3 0 3 2 4 2 1 3 2 3 4 2 3 1 0 0 0 2 2 4 3 3 2 3 2 1 2 3 2 2 2 5 1 0 2 2 2 3 1 2 2 3 2 1 0 2 2 3 2 1 2 0 1 1 2 1 2 1 3 2 1 1 1 3 0 2 2 4 1 1 1 1 1 1 1 2 4 1 3 3 3 1 2 1 1 3 2 1 1 4 2 2 1 0 1 1 3 3 3 2 2 1 1 0 0 3 3 1 0 1 2 2 1 3 0 1 0 1 2 2 1 2 4 3 5 2 0 1 1 2 2 1 1 2 4 0 1 1 2 4 1 2 4 0 0 4 4 2 2 0 1 2 5 1 0 0 2 1 3 4 0 1 2 0 3 1 2 1 1 1 0 1 2 1 1 2 2 1 0 3 3 6 1 0 1 2 1 2 2 0 0 1 2 2 4 1 2 3 2 3 2 2 1 0 1 0 3 3 2 2 2 1 2 0 3 4 1 2 1 1 1 0 1 4 0 0 2 1 2 2 1 1 1 1 1 3 1 1 0 3 2 3 1 2 4 2 4 2 3 2 2 4 1 4 3 3 1 0 2 2 0 2 2 1 0 4 3 2 3 3 2 1 2 1 1 3 4 2 4 1 1 2 2 2 0 1 3 2 0 0 1 3 3 3 1 2 1 2 2 2 1 3 3 4 0 4 0 1 1 2 1 1 2 0 0 2 2 0 1 0 2 3 1 1 2 2 1 3 1 3 2 2 2 0 4 0 1 2 3 1 2 4 2 1 2 3 2 3 1 3 0 1 1 2 2 0 2 2 3 2 3 0 2 2 3 1 3 0 0 3 1 3 1 3 3 0 4 1 4 3 1 1 1 2 1 1 1 0 1 1 1 1 1 3 0 1 2 2 1 0 3 2 1 1 2 0 4 1 1 3 1 2 1 1 2 2 2 1 0 2 0 0 4 3 0 2 1 2 4 3 2 3 1 2 4 5 3 0 1 3 3 1 2 1 3 3 2 1 1 1 0 4 2 3 2 1 4 0 3 1 3 3 2 2 2 0 1 1 0 3 1 4 3 0 4 3 3 1 2 2 1 1 3 3 1 1 1 2 3 2 1 2 2 3 0 1 2 2 2 2 2 2 1 0 2 2 1 1 1 0 1 2 0 1 1 1 1 2 3 2 2 2 3 1 1 2 3 2 3 1 3 2 3 0 1 3 4 3 0 3 1 2 2 0 2 2 1 2 2 1 3 1 1 1 3 0 2 1 2 2 1 2 2 3 1 1 1 1 2 1 2 0 0 2 4 3 1 2 1 1 2 2 3 0 2 2 1 1 0 1 5 0 2 1 1 2 0 0 4 1 0 1 1 0 3 3 3 1 2 3 1 2 1 1 3 4 4 1 4 0 0 1 3 2 3 2 2 2 1 1 2 2 1 1 1 2 1 3 0 2 1 1 1 2 2 2 1 1 3 1 0 1 2 0 2 2 4 2 0 4 1 2 2 2 2 2 1 1 3 1 2 1 2 0 3 3 2 0 0 2 2 4 1 4 1 2 0 0 2 1 1 0 3 2 1 1 0 1 2 1 0 0 0 2 3 1 1 2 1 2 2 1 0 1 1 3 2 0 3 0 1 1 2 1 2 2 1 1 2 0 2 3 1 3 1 2 1 1 2 1 2 1 1 1 0 0 4 0 0 0 3 1 1 3 1 1 3 2 0 2 1 2 2 2 2 0 4 1 1 3 1 2 1 2 3 0 1 2 3 1 3 2 1 3 3 0 1 1 2 3 3 1 1 4 1 0 2 1 2 1 0 0 1 2 4 1 3 1 2 1 2 1 2 1 1 0 4 1 1 0 1 0 1 4 4 2 2 2 2 1 1 1 1 3 3 2 1 1 2 3 1 3 1 2 1 1 3 1 2 3 1 3 1 1 0 2 0 1 1 1 2 2 1 1 0 3 1 0 2 4 3 2 3 0 2 0 2 1 5 1 2 2 3 2 4 2 2 3 1 3 1 2 2 1 1 0 1 3 2 3 1 0 1 1 0 0 2 1 1 1 1 3 2 2 2 1 3 2 1 2 0 4 2 3 1 3 1 0 1 1 2 0 3 2 2 3 1 1 1 3 1 2 1 0 0 2 3 0 1 1 2 2 2 1 2 1 3 2 2 2 0 1 2 2 2 2 5 1 2 3 3 1 1 2 0 1 2 0 0 2 0 1 2 2 0 1 1 1 0 0 1 0 2 2 1 2 3 2 2 1 2 1 0 2 3 1 0 2 2 2 2 2 1 3 2 1 2 1 1 1 3 2 2 3 1 0 1 0 3 0 4 3 1 1 1 3 4 1 1 2 1 0 1 1 2 1 3 1 3 0 1 1 0 3 2 3 3 1 1 1 0 1 2 2 1 1 2 3 3 1 2 1 0 2 0 3 1 2 2 1 3 3 2 1 3 1 0 4 1 4 1 1 4 3 1 2 2 1 3 2 1 2 2 1 1 2 1 1 1 1 3 0 3 1 2 1 2 3 1 1 3 1 1 4 4 1 4 2 1 2 1 1 2 0 2 0 2 2 1 1 3 2 3 2 1 1 0 1 3 1 1 2 0 4 2 2 2 0 2 2 1 4 1 1 3 2 1 1 1 1 1 2 1 1 1 0 1 1 2 2 2 2 2 2 1 2 1 1 2 3 2 2 3 2 1 2 0 2 5 1 4 3 3 1 2 1 2 2 2 2 1 2 2 1 2 1 2 4 1 3 2 0 2 1 1 1 4 3 1 0 1 2 1 0 2 4 1 6 1 1 1 2 2 1 2 2 0 1 1 1 3 1 3 1 1 2 1 1 2 1 1 4 1 0 1 2 0 1 3 0 2 1 4 2 4 2 4 1 2 1 2 3 1 2 3 0 4 2 1 1 3 1 0 0 2 0 2 1 1 2 2 2 3 2 2 2 0 0 1 2 1 1 1 2 1 2 4 0 4 3 2 2 0 2 1 2 2 2 1 0 2 3 0 2 2 2 1 0 2 3 2 1 1 3 1 2 2 3 2 3 4 2 3 1 2 2 1 0 2 3 1 3 1 3 0 3 1 1 2 2 2 2 2 2 3 1 2 2 2 2 1 2 1 2 2 2 0 0 1 0 2 1 3 1 2 1 3 2 2 2 1 2 0 2 3 2 2 2 1 3 1 1 2 2 1 1 3 3 1 3 1 2 2 3 2 3 1 0 1 2 1 0 0 1 1 0 1 2 0 2 1 3 2 4 0 2 1 3 1 4 0 2 2 1 0 0 1 2 1 0 4 4 3 4 2 4 1 1 2 1 2 1 1 2 2 2 2 2 3 1 1 1 2 0 2 2 1 0 0 3 1 1 0 1 1 1 3 2 1 3 3 1 3 1 1 2 2 0 3 1 3 1 2 2 3 4 4 1 1 1 2 0 1 3 4 3 1 3 4 1 2 1 1 0 3 0 2 3 2 3 0 1 1 2 2 1 0 3 0 2 3 1 2 3 3 0 3 2 2 3 3 0 1 1 2 1 2 0 1 2 2 4 1 2 1 2 1 1 1 2 0 2 2 2 0 1 1 2 0 0 0 1 0 2 2 2 1 3 1 1 2 1 0 2 5 3 2 2 1 1 2 1 3 1 2 0 0 1 4 2 1 2 2 1 3 1 2 0 0 0 2 2 1 0 1 1 3 1 0 1 1 2 2 5 4 0 2 1 1 2 1 2 2 2 2 2 3 2 2 3 2 4 0 3 0 2 3 2 3 1 2 1 2 1 1 0 1 0 3 2 1 1 1 1 4 2 1 3 1 2 2 2 3 0 2 2 2 3 1 2 1 2 2 3 1 2 0 2 3 1 3 2 0 3 2 3 0 1 2 0 2 1 2 3 1 1 2 1 3 4 2 3 2 2 1 2 2 2 3 2 1 1 2 1 2 2 4 1 1 2 1 1 0 3 2 2 1 3 1 3 5 0 1 2 2 1 2 1 4 2 0 3 1 2 2 3 1 1 0 3 3 2 1 1 3 2 2 2 2 2 0 0 1 1 2 2 3 1 1 2 2 2 2 3 1 3 1 5 1 2 4 0 2 4 1 2 5 3 2 3 3 0 1 2 2 1 0 2 1 1 0 3 1 2 2 3 1 2 3 1 4 3 1 1 3 1 4 2 3 2 1 0 1 0 2 3 1 1 2 1 1 2 3 2 1 2 1 2 2 2 0 2 1 0 0 3 2 3 0 2 1 0 2 1 2 3 0 2 2 0 0 2 1 2 1 0 3 1 1 3 1 1 2 1 3 2 3 0 3 1 1 1 1 2 3 1 2 1 1 1 3 2 1 3 3 3 3 1 1 0 1 3 3 1 0 1 0 2 2 1 2 1 0 2 4 1 2 1 0 2 2 2 0 0 1 0 1 2 1 4 2 0 3 2 0 0 0 2 1 1 2 0 3 1 4 3 0 2 2 2 2 0 2 0 3 3 1 3 1 3 2 1 0 2 1 1 1 3 1 2 1 3 2 2 1 2 2 1 3 1 3 0 1 2 2 0 0 1 1 2 2 2 2 1 1 2 1 1 3 1 0 2 1 2 1 2 0 2 3 1 3 3 2 2 2 3 2 3 2 1 1 1 3 2 2 4 2 1 1 2 2 0 1 2 2 1 2 1 2 3 2 2 3 4 0 0 1 3 2 4 0 1 2 3 2 2 1 3 3 1 1 2 5 2 3 1 0 1 2 2 0 2 1 2 2 0 2 1 3 1 3 3 1 2 2 1 1 2 4 2 1 1 3 2 1 0 4 3 2 0 1 4 0 1 2 1 1 2 4 2 1 2 2 1 0 4 2 2 0 2 3 1 1 2 1 2 0 0 3 2 1 2 1 3 2 1 3 1 0 1 0 1 0 2 1 0 2 2 3 1 3 2 1 4 2 2 2 1 0 3 2 1 3 0 2 2 2 1 4 1 0 2 1 2 3 1 2 1 1 2 2 1 2 1 1 2 1 1 1 2 0 3 1 2 3 2 1 1 0 2 1 0 2 2 0 2 2 0 0 2 2 1 2 1 0 0 3 1 1 3 1 1 0 2 3 0 3 3 0 1 2 2 1 3 2 3 2 2 0 1 3 3 3 1 3 2 2 1 1 1 1 3 1 3 1 2 1 1 3 1 3 1 2 2 5 1 4 3 3 3 2 2 3 2 1 2 1 2 1 1 1 3 2 2 3 0 1 2 3 2 3 2 1 2 3 1 0 2 3 0 1 1 3 2 2 0 2 4 3 2 2 3 1 1 3 1 2 1 3 1 2 0 1 2 2 2 2 2 0 0 1 0 3 1 2 2 2 1 1 1 1 1 0 5 1 1 3 1 3 2 3 1 1 2 2 1 1 2 0 1 3 2 1 2 1 5 0 0 0 2 4 3 1 5 1 0 2 0 1 2 0 0 2 1 3 1 1 2 1 1 2 2 2 2 4 2 1 2 3 1 1 2 1 1 4 3 4 1 1 2 2 0 2 2 0 1 4 0 0 1 3 0 1 3 1 2 5 0 2 3 1 3 0 1 4 3 2 1 2 3 1 3 5 1 0 3 2 2 0 2 3 1 2 6 0 2 2 1 2 1 3 2 2 3 0 2 1 0 2 1 2 4 2 2 0 1 2 3 4 2 2 1 2 1 1 4 2 3 3 1 0 4 4 1 0 2 1 1 2 1 1 3 0 5 2 2 1 2 2 3 1 1 3 2 1 2 2 1 1 1 2 3 0 1 3 1 2 3 3 2 1 3 2 3 3 0 3 2 2 0 3 1 3 2 2 2 0 0 1 3 4 2 1 1 1 1 3 1 3 1 2 1 1 2 2 3 3 1 2 1 1 1 0 0 3 1 1 1 2 0 0 3 1 1 1 3 2 1 2 2 3 2 2 2 2 1 2 1 1 3 1 1 2 1 3 4 3 1 1 2 0 1 1 2 0 1 2 3 0 2 2 0 1 0 2 2 4 1 0 2 1 1 1 1 2 3 3 1 0 2 1 0 0 0 2 2 1 3 2 1 2 0 1 0 2 1 1 1 1 3 1 4 2 3 0 1 1 4 2 5 2 3 2 3 1 0 1 0 2 2 1 4 3 3 3 2 1 1 2 3 2 2 0 2 2 2 4 1 2 3 1 1 0 2 4 0 0 0 1 5 3 2 1 1 1 3 0 1 1 2 0 1 0 1 2 0 1 1 2 1 1 0 3 0 2 2 1 1 1 2 2 3 1 2 0 1 1 1 1 5 1 2 1 0 3 1 1 1 1 1 1 1 2 2 1 0 1 0 2 1 2 3 2 1 2 0 0 1 2 1 0 1 2 1 1 2 2 3 4 1 0 3 2 3 2 3 4 3 1 2 2 2 4 2 1 1 3 2 0 3 3 1 1 3 0 3 3 2 1 1 3 2 2 1 2 0 1 1 1 2 2 5 4 0 0 0 3 2 2 1 2 3 4 3 2 0 2 2 2 2 3 1 2 0 1 2 1 1 2 1 3 4 1 0 2 1 1 2 1 1 2 1 1 2 4 1 1 1 2 3 1 2 4 2 1 1 2 2 1 2 1 2 3 1 0 0 2 2 2 1 0 4 1 1 1 5 3 3 3 2 2 1 3 0 3 1 2 2 2 1 3 4 1 0 2 3 1 2 2 2 1 3 2 4 1 2 2 2 3 4 1 1 2 1 1 3 3 0 0 1 1 3 1 1 2 2 2 1 0 2 1 0 3 2 2 3 3 2 3 1 1 1 2 3 0 4 4 2 2 0 1 1 2 4 2 2 2 3 1 2 1 1 1 3 1 2 1 2 1 1 3 1 4 3 1 0 0 2 1 2 1 2 2 1 2 1 2 1 2 4 1 1 1 3 1 2 3 2 1 2 3 2 2 1 2 2 2 2 1 1 2 1 4 1 2 1 2 2 3 3 1 2 2 1 0 4 1 1 3 1 2 1 2 1 2 1 2 1 4 3 1 1 0 2 4 0 3 2 1 1 1 4 1 3 1 4 1 1 3 3 4 3 2 3 2 1 3 1 1 0 1 2 1 0 4 4 2 2 0 1 1 4 1 4 1 1 1 1 2 3 1 2 4 2 1 2 0 2 1 1 2 2 1 1 1 1 2 3 2 2 3 2 3 3 1 1 4 3 2 1 1 4 2 0 2 0 3 1 2 1 3 2 3 2 2 3 2 3 0 1 3 1 3 1 2 3 2 0 4 1 1 2 1 1 3 1 1 1 1 2 1 1 4 2 1 3 0 1 4 4 3 3 1 1 2 2 0 2 2 3 2 1 2 2 3 2 1 2 0 1 1 4 1 1 3 2 1 1 1 3 3 1 2 0 3 1 0 1 2 3 1 2 3 1 4 1 2 1 2 1 1 0 2 1 1 1 3 3 2 1 2 1 0 1 4 1 3 3 2 0 2 1 1 2 2 1 1 3 2 1 0 3 2 2 3 2 2 2 4 3 1 1 1 1 0 3 1 1 3 3 1 0 1 0 2 2 2 1 3 4 4 2 2 2 3 0 0 0 1 2 3 4 1 0 1 2 1 1 1 2 2 1 0 2 2 2 1 1 1 3 1 1 2 2 2 1 3 2 3 2 3 2 3 1 1 1 1 1 1 2 1 3 1 3 2 2 3 1 1 2 2 1 3 1 2 4 3 2 1 0 3 2 1 1 2 3 3 2 2 0 0 2 0 3 2 3 0 1 2 1 2 1 1 2 1 2 3 2 1 2 1 2 1 0 3 2 2 2 3 1 1 4 4 1 1 0 4 1 2 1 2 3 1 4 2 1 3 1 3 3 3 4 1 1 1 2 3 1 2 3 1 2 0 0 1 2 1 2 2 3 0 2 3 0 3 3 1 2 3 1 1 4 0 0 5 3 0 4 0 2 3 1 2 1 0 2 2 4 2 2 1 1 1 2 1 0 2 0 3 2 1 1 1 2 3 2 2 2 1 0 3 3 1 2 1 3 1 2 1 3 2 2 2 2 0 2 1 4 2 2 3 1 1 2 3 2 3 1 3 5 0 1 2 0 3 1 2 1 3 3 1 4 0 1 1 0 2 2 1 1 2 2 2 3 0 0 1 2 1 2 3 2 1 0 1 3 3 3 2 1 2 3 2 3 1 1 0 1 2 2 3 4 2 3 0 2 2 1 3 3 0 0 2 2 1 0 0 2 2 1 4 2 1 1 1 2 2 1 3 2 0 4 1 1 1 1 0 3 3 5 0 2 3 3 1 4 2 2 0 1 3 1 1 2 1 2 2 1 0 1 2 2 3 2 1 1 2 2 1 2 3 2 1 3 1 0 4 1 1 3 0 0 1 4 1 2 1 2 3 2 2 3 1 1 2 0 1 2 0 0 1 2 2 0 2 0 1 2 3 3 1 3 1 0 2 0 1 0 1 1 2 2 1 2 1 1 1 2 3 2 2 1 3 0 3 1 1 2 0 2 3 3 5 1 1 1 1 0 2 1 1 3 3 2 2 0 0 1 1 1 1 2 1 0 2 3 2 2 4 4 0 3 2 0 2 2 2 1 3 1 1 2 4 0 1 1 2 1 2 1 0 2 2 0 3 2 3 3 3 3 1 2 3 1 1 1 3 1 2 3 2 2 0 3 2 1 1 2 2 1 2 3 3 3 3 3 3 1 1 2 3 2 0 3 0 3 2 3 2 0 2 1 3 3 2 3 1 1 3 3 1 1 2 2 1 2 1 2 1 2 0 2 0 4 1 1 5 3 0 3 1 0 2 1 2 2 2 2 2 0 1 1 3 2 2 1 2 4 3 0 1 5 1 0 3 2 0 1 2 2 2 1 3 2 1 4 1 1 2 1 1 1 0 4 2 2 2 1 1 2 0 0 1 3 1 2 3 3 2 4 1 2 1 2 2 2 1 1 2 0 1 0 2 2 0 0 1 3 0 2 0 1 0 3 3 3 2 2 0 2 1 4 0 2 3 2 1 2 1 3 1 2 0 3 2 0 2 2 1 1 3 2 0 3 1 1 2 1 0 3 1 1 2 2 1 1 0 2 0 1 2 3 2 1 1 0 3 2 3 2 1 2 1 3 1 3 1 2 0 1 3 2 3 2 1 1 2 2 0 2 1 1 0 1 1 2 1 2 1 3 2 2 1 1 0 2 4 1 1 2 2 1 0 4 3 1 2 1 3 0 2 1 3 1 0 2 3 4 1 2 2 1 1 2 0 2 1 2 1 3 2 0 2 1 3 3 2 0 2 1 0 1 1 0 2 2 2 1 1 1 2 3 0 2 3 5 2 1 1 2 2 2 2 2 3 0 4 5 2 2 1 1 3 1 1 0 3 0 2 2 3 2 3 2 0 2 2 0 1 1 2 1 2 2 1 1 3 1 2 1 3 2 0 3 3 2 1 2 1 3 1 2 1 2 0 2 0 3 0 3 1 0 2 3 2 1 1 0 0 2 1 3 2 2 2 3 2 3 1 1 1 3 4 1 1 1 2 2 1 2 1 1 1 1 1 0 0 2 1 1 1 2 2 0 0 4 1 1 1 1 1 5 0 1 2 3 1 1 2 1 3 1 1 3 1 1 1 3 1 2 2 4 3 1 2 1 2 0 3 1 3 1 1 3 1 5 2 1 1 3 1 0 3 1 2 2 1 3 2 1 1 2 4 1 3 3 3 0 2 2 4 1 1 2 3 2 4 1 0 5 2 0 1 1 3 1 2 1 3 1 0 1 2 2 3 2 3 1 1 1 2 3 2 0 2 2 0 1 2 4 2 0 2 2 1 2 3 0 3 0 3 1 3 1 1 2 2 4 2 2 1 1 3 2 1 1 4 0 0 2 2 1 3 1 3 0 2 2 1 3 2 1 2 1 3 3 1 1 2 1 2 1 2 3 1 0 3 4 3 0 5 3 1 2 3 2 0 2 2 1 3 4 2 2 3 0 2 4 0 2 3 2 2 1 2 1 0 0 1 2 3 3 1 1 2 0 3 1 3 2 1 2 2 2 4 2 3 1 1 2 2 3 2 2 2 2 1 3 3 2 2 0 1 1 1 1 3 2 2 1 2 2 0 1 2 1 1 2 2 0 1 2 3 1 2 0 2 1 1 0 2 3 1 3 2 0 2 3 2 0 2 2 3 0 0 2 1 3 2 2 1 0 0 1 1 0 2 1 1 1 3 1 1 4 4 2 3 3 0 1 2 0 2 1 1 2 0 4 1 1 3 2 2 2 1 1 5 2 1 4 1 3 4 3 0 2 1 1 1 1 2 0 1 1 1 1 1 2 2 0 3 2 3 1 1 2 2 1 3 2 2 3 3 1 2 2 1 2 2 1 2 0 1 0 1 2 2 2 1 2 1 2 4 2 2 4 1 3 3 0 2 1 2 4 0 4 0 3 1 0 3 2 2 2 4 3 1 1 1 3 3 2 0 2 3 1 1 2 2 3 0 0 1 3 5 2 0 1 3 1 1 1 2 1 2 0 2 2 2 2 3 3 2 3 1 2 1 0 1 2 0 2 2 2 2 3 2 1 3 0 4 1 1 2 2 2 1 1 1 4 1 0 2 1 2 1 0 0 1 2 2 1 2 0 2 5 0 2 2 3 2 0 1 1 0 3 2 1 3 1 1 1 1 1 2 1 3 2 3 1 0 1 2 3 2 2 3 1 1 2 2 2 2 2 1 2 2 3 1 3 1 2 1 3 2 1 1 1 1 1 2 1 1 3 2 1 2 1 3 3 1 3 1 2 2 1 1 0 0 2 0 1 2 2 2 1 1 3 1 3 1 1 3 1 2 3 0 0 2 4 1 2 1 2 2 1 2 1 1 0 3 2 1 2 3 2 2 1 1 2 2 3 1 1 2 2 2 2 0 2 1 0 2 1 2 2 2 2 3 2 2 4 1 3 1 3 0 1 2 2 2 3 4 2 0 0 1 1 1 1 2 1 1 1 1 2 2 0 0 2 1 2 0 2 0 0 1 3 2 0 1 0 3 1 1 3 3 1 1 3 0 1 1 3 2 3 1 2 2 1 1 2 1 2 2 3 2 1 2 2 1 1 1 3 1 1 2 2 1 1 2 1 2 1 2 1 2 1 2 2 3 2 5 1 1 1 0 2 2 1 1 3 2 2 0 3 1 2 1 1 1 2 2 2 1 1 1 2 1 1 2 1 1 3 5 3 0 1 2 3 0 1 2 2 1 4 0 1 1 0 2 1 1 3 1 2 1 1 3 2 1 1 3 1 3 0 2 1 1 1 2 0 3 2 0 1 2 2 2 2 1 4 2 4 3 4 2 2 1 2 2 2 2 3 1 1 2 3 3 0 0 1 3 2 1 2 3 2 2 3 0 2 1 2 1 2 2 0 2 2 3 1 2 1 0 1 1 2 2 2 4 2 3 2 2 2 2 3 2 3 2 1 1 1 2 1 1 3 4 1 2 3 0 0 2 2 0 2 1 1 3 2 2 1 2 3 0 3 1 1 3 1 2 6 2 1 1 3 3 0 3 0 1 1 1 2 2 1 2 2 1 1 0 2 1 2 2 2 2 3 0 3 0 3 0 2 2 1 1 0 1 1 1 2 0 3 4 2 0 2 2 2 2 3 1 2 1 1 2 2 2 4 2 2 1 2 2 1 0 1 5 1 2 2 4 3 0 0 1 1 1 0 1 0 4 4 3 0 3 3 2 1 1 2 3 2 0 2 2 1 3 2 1 1 1 2 2 2 1 1 2 2 1 1 1 2 1 1 2 1 4 0 1 1 5 3 1 2 3 4 1 1 3 1 2 2 2 4 1 2 2 1 2 1 0 3 4 1 1 3 0 4 3 2 0 2 0 3 1 3 0 2 1 3 4 1 4 3 2 2 1 4 1 2 2 2 1 1 1 1 1 2 2 3 1 2 4 1 2 2 3 0 2 3 1 2 0 3 2 1 2 3 1 6 2 2 0 1 2 2 1 2 2 4 2 3 4 0 2 2 1 2 1 2 4 2 2 2 1 0 1 1 2 1 2 1 3 0 2 2 0 4 1 0 2 2 2 2 1 0 1 1 4 2 0 1 1 0 1 3 0 2 4 3 0 0 1 2 0 2 2 0 0 3 2 2 2 2 1 2 1 3 2 1 1 0 2 0 0 3 1 1 2 3 3 2 1 2 1 4 0 2 2 1 3 1 1 2 3 1 2 2 1 2 2 2 2 2 1 3 3 3 2 3 4 2 1 0 2 2 2 1 0 2 0 2 2 3 2 3 2 1 1 2 2 1 0 1 0 1 3 0 0 2 1 3 0 2 1 1 3 1 2 3 2 3 1 1 1 1 0 3 2 2 5 4 1 2 1 0 2 1 2 2 4 2 2 2 0 2 1 4 2 1 1 1 4 2 0 1 1 1 2 1 0 2 3 1 1 0 1 2 2 3 3 1 0 3 2 1 1 1 2 0 2 1 2 2 3 2 1 3 2 0 2 1 1 1 2 2 1 0 0 2 2 4 1 3 2 1 2 1 1 1 1 2 2 1 2 1 5 1 0 1 0 0 1 0 3 2 2 1 3 2 1 0 1 4 3 1 0 1 3 1 2 4 3 2 2 2 0 2 2 2 0 0 2 3 0 0 2 3 2 4 1 1 3 2 2 0 2 2 2 3 1 2 2 1 1 3 3 1 2 1 2 0 1 3 1 2 1 1 1 2 1 0 3 1 2 2 1 1 3 1 3 2 0 2 0 1 2 3 1 3 1 3 1 2 4 1 2 3 2 2 2 1 2 1 2 1 1 3 0 3 2 1 2 2 2 1 1 0 1 3 2 3 1 1 4 1 1 2 0 3 3 2 1 1 2 1 1 1 2 3 2 0 1 1 2 3 2 2 2 2 3 3 1 4 1 2 2 1 2 2 2 3 3 1 3 2 3 2 1 1 3 1 2 2 0 3 2 2 1 1 2 3 1 2 1 2 0 0 1 0 0 1 1 2 2 2 1 4 1 1 0 2 4 3 1 3 1 2 1 1 0 1 0 3 1 1 3 1 1 2 2 4 3 2 1 1 3 1 2 1 3 3 2 1 5 3 1 0 2 2 3 1 3 0 2 3 4 2 2 5 2 1 3 1 2 3 2 1 4 1 4 2 2 3 3 3 2 1 3 1 2 0 2 1 2 2 1 2 3 4 1 1 1 3 0 1 1 4 2 0 0 0 3 2 2 3 2 1 4 3 2 1 1 4 0 1 2 0 1 1 2 3 2 3 2 2 0 2 1 2 0 3 1 2 1 1 3 3 1 1 5 4 1 1 1 1 3 4 2 2 2 2 0 2 2 3 0 1 2 2 1 0 2 2 2 2 1 3 2 3 1 3 3 1 2 1 2 3 3 2 2 0 2 3 3 3 3 1 2 1 1 1 3 2 4 3 1 1 0 1 4 3 2 2 2 2 1 2 1 3 2 2 0 1 0 2 2 1 3 3 1 2 1 2 2 3 2 2 2 0 5 4 1 2 2 1 2 1 1 1 1 2 4 0 2 4 1 3 2 2 2 1 1 2 2 1 2 5 2 0 0 2 3 0 1 1 0 2 1 3 1 3 2 3 2 2 2 1 2 2 5 2 3 3 2 2 3 3 0 3 3 0 2 2 1 2 4 1 1 4 3 1 1 0 2 1 2 2 3 1 1 2 0 2 1 2 2 2 3 3 1 5 0 2 1 0 2 1 1 1 3 2 2 2 1 1 1 2 1 3 2 1 3 2 5 1 1 2 3 2 2 3 1 3 2 2 3 3 2 2 1 2 1 3 1 3 2 2 2 1 1 2 2 1 2 2 1 2 4 1 2 1 1 1 1 1 1 1 0 1 0 1 2 1 3 0 2 2 4 2 3 3 1 3 1 1 2 3 2 2 3 2 1 2 2 1 1 1 3 3 3 3 0 2 1 1 3 1 2 3 3 2 0 1 1 1 2 1 1 0 2 1 3 2 1 3 2 2 2 3 1 1 1 0 3 0 2 0 1 2 2 3 1 2 2 2 2 1 2 0 2 1 1 3 3 2 2 5 1 2 3 2 1 2 3 2 1 3 0 2 1 1 1 2 0 2 0 3 2 1 1 0 3 1 2 1 3 2 3 1 0 3 1 1 1 3 0 3 3 3 2 0 1 3 1 1 3 2 1 2 4 2 1 0 3 1 1 2 1 2 0 4 3 0 4 1 3 3 2 3 0 2 1 3 1 2 0 4 1 1 2 0 4 1 3 0 3 2 1 3 2 1 1 2 0 1 0 0 3 1 2 2 1 1 1 1 1 2 4 2 2 1 1 1 1 2 1 0 3 1 0 2 2 0 4 2 4 3 2 1 2 1 1 1 1 3 3 3 3 3 2 1 2 2 2 1 1 1 3 2 1 1 3 1 1 1 3 2 1 2 3 2 2 1 3 2 1 1 0 1 4 0 0 2 3 0 0 2 0 1 3 3 1 4 2 1 2 1 0 3 2 2 2 1 4 1 2 1 2 2 1 1 0 2 2 0 0 3 2 1 3 3 3 1 2 1 0 2 1 4 1 1 1 3 3 2 2 3 3 1 0 2 1 2 1 1 1 1 2 1 3 1 4 1 0 3 0 3 1 3 2 2 2 3 0 1 2 2 0 2 2 1 1 1 4 1 1 1 0 2 0 1 2 2 1 3 1 0 1 2 0 0 2 1 3 0 1 2 2 3 1 2 1 2 2 1 0 1 1 4 0 2 4 2 3 2 1 3 1 2 1 3 1 3 1 3 4 2 0 1 0 2 1 3 2 1 1 0 4 2 3 3 3 0 5 0 1 1 2 1 2 1 2 1 1 1 1 0 2 1 2 1 2 0 2 2 3 4 1 0 0 1 2 2 1 2 2 4 2 0 2 0 1 0 2 2 1 2 1 1 3 2 1 3 2 1 2 3 3 0 1 2 1 1 2 1 1 1 3 1 2 3 1 3 0 0 0 1 2 1 4 2 5 0 2 2 0 3 2 2 0 3 1 1 2 0 1 1 1 1 1 2 2 3 3 2 0 2 1 1 1 1 1 1 1 3 2 4 2 2 0 1 0 3 2 1 1 3 1 4 0 2 2 2 2 3 1 0 1 3 3 4 0 2 1 0 2 3 2 4 1 3 0 1 1 0 2 3 2 4 1 1 2 2 1 3 1 0 2 3 3 2 1 4 2 3 2 0 3 0 0 3 5 1 1 3 0 4 2 1 1 0 2 1 3 1 1 3 1 0 1 1 3 2 2 1 4 0 3 3 2 3 3 2 1 2 0 2 2 1 1 1 1 1 0 1 0 1 1 2 0 4 2 0 1 1 2 1 3 1 2 2 2 2 3 1 3 0 1 3 3 1 1 1 3 1 1 2 4 0 4 1 2 1 3 3 2 2 2 3 1 0 4 2 0 2 1 2 1 2 1 1 1 2 2 0 1 2 4 1 2 2 3 2 2 0 0 2 2 1 1 1 1 1 2 3 0 2 1 1 0 0 1 1 2 2 1 3 1 1 3 2 0 0 2 1 0 1 1 0 1 1 2 3 2 1 0 3 2 3 1 2 3 1 1 1 1 0 2 0 1 1 2 3 3 0 1 2 1 0 2 5 4 2 0 2 1 1 1 2 0 1 2 4 1 0 2 2 2 1 1 2 1 0 4 6 2 1 2 0 2 0 1 1 2 2 2 2 1 1 2 0 2 3 2 4 3 2 2 1 1 1 2 2 4 1 1 2 2 3 1 3 2 2 0 1 2 2 1 1 1 3 3 2 1 2 2 3 4 2 1 0 2 1 0 3 2 2 2 2 1 2 2 1 5 5 1 3 1 1 0 2 4 2 3 4 3 1 0 1 2 1 2 1 3 2 2 1 2 3 1 1 2 2 3 0 1 2 2 1 1 2 1 4 1 2 1 3 3 1 2 0 2 2 1 0 2 0 0 1 3 1 3 2 1 2 0 2 2 2 2 3 0 1 0 2 2 2 1 2 1 2 2 0 2 1 0 2 0 2 1 1 1 4 1 4 2 0 1 0 1 2 3 1 1 2 0 2 2 1 1 0 1 1 0 1 1 2 2 0 2 0 0 0 1 1 4 1 0 3 2 1 2 1 4 3 0 1 1 1 1 2 1 4 2 2 3 0 3 2 3 4 3 2 2 2 1 2 2 1 3 2 1 4 1 1 2 1 2 3 0 1 1 4 3 2 2 0 0 2 0 2 1 3 3 2 3 2 2 4 2 1 3 3 2 1 1 2 1 2 1 0 1 2 2 2 2 0 2 3 1 1 3 2 1 1 3 3 1 2 0 0 4 0 1 0 3 1 1 3 1 2 3 3 3 4 2 3 3 2 2 2 2 1 1 2 1 1 2 1 3 1 2 2 1 1 2 2 1 2 1 3 5 1 0 2 1 0 2 1 2 2 1 2 1 1 1 2 3 2 2 2 5 0 3 2 2 1 5 2 1 3 3 1 1 2 1 1 1 1 1 1 1 0 2 1 2 3 0 0 2 0 2 3 2 1 3 2 2 0 2 4 3 1 3 3 1 2 2 3 2 2 2 2 3 1 1 1 2 2 1 2 3 1 0 3 2 0 2 1 1 1 3 3 4 0 4 1 3 2 2 2 4 2 0 1 1 1 3 2 2 1 2 2 2 2 2 4 5 2 3 1 2 3 2 2 2 1 1 1 2 3 5 0 2 4 3 1 0 1 2 3 0 0 3 2 2 1 2 2 1 1 2 2 1 3 3 3 1 2 1 1 1 2 2 1 2 2 0 3 2 2 4 1 1 0 3 1 3 2 3 3 0 1 1 2 3 1 1 2 3 0 0 2 2 2 1 2 1 1 1 2 2 1 2 3 4 1 1 2 2 2 3 1 1 1 1 1 0 0 1 4 1 1 1 2 1 2 2 0 2 1 2 3 1 2 3 3 3 1 4 0 2 0 4 0 2 1 4 3 2 1 0 3 1 2 1 2 1 2 1 3 0 1 2 1 0 2 2 1 1 3 2 2 2 3 2 2 1 5 2 3 1 1 1 2 1 2 2 2 1 2 1 1 2 1 1 1 2 2 2 1 0 2 1 1 0 2 2 1 2 1 2 1 2 1 0 4 2 1 0 3 4 1 1 4 2 2 4 0 4 1 1 0 1 3 4 1 2 3 1 1 0 2 2 3 2 2 1 1 0 2 1 2 0 2 0 3 1 2 0 2 4 1 0 5 2 0 1 2 2 1 3 1 0 1 1 2 0 0 1 3 2 1 1 1 2 4 4 1 5 3 0 1 3 1 1 2 3 2 1 2 2 4 0 1 1 1 3 1 2 3 2 2 1 2 1 1 2 2 1 1 2 4 1 1 1 3 2 1 3 2 2 1 1 3 2 3 4 2 2 0 0 1 3 2 1 0 2 2 2 1 0 1 1 2 4 2 0 2 2 2 2 2 2 1 2 3 2 3 1 2 1 2 2 0 1 2 2 2 2 4 4 3 1 4 1 0 3 0 2 3 1 1 2 2 0 4 1 0 0 3 3 1 0 3 1 2 1 0 2 0 3 0 1 3 5 1 3 0 1 1 2 3 1 3 0 0 2 2 2 4 1 2 2 0 1 0 2 2 0 2 3 0 4 2 0 2 2 4 3 1 1 2 0 1 1 2 0 2 4 1 4 2 0 1 1 2 2</t>
-  </si>
-  <si>
-    <t>GAM(0.11299870186052857, -1.4430445101308442e-27, 0.6466020295243071)</t>
-  </si>
-  <si>
-    <t>0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 1 1 1 0 1 1 2 0 1 1 2 0 0 1 0 0 0 0 0 0 2 0 0 0 2 0 0 1 0 0 1 0 0 0 0 1 1 1 1 2 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 3 1 0 0 0 0 1 2 0 0 0 0 0 1 1 1 1 2 1 0 0 1 0 0 1 2 1 0 1 0 0 0 0 1 0 0 0 1 0 2 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 2 1 2 0 2 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 1 0 0 2 2 0 2 1 0 1 1 0 0 2 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 2 0 0 0 2 1 2 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 3 1 1 0 2 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 1 0 2 0 0 2 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 2 0 0 1 2 1 2 1 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 2 0 2 1 0 0 0 0 0 0 0 1 0 1 0 2 0 1 0 1 1 0 1 0 0 1 0 0 2 0 2 0 2 1 1 1 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 2 2 0 1 0 0 1 2 1 1 1 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 1 0 2 0 0 0 2 0 1 1 1 0 0 1 0 1 0 0 1 1 0 3 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 1 1 0 2 0 1 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 3 0 0 0 1 0 1 2 0 0 0 1 0 0 0 1 1 0 0 1 0 0 2 0 0 1 0 1 1 2 0 0 2 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 1 1 0 0 2 1 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 2 1 1 0 0 0 0 0 1 2 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 2 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 1 2 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 2 1 3 0 0 1 1 1 2 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 2 0 2 0 1 0 0 2 0 3 1 0 0 0 1 0 0 0 0 0 0 2 0 1 1 1 1 0 1 1 1 1 2 1 0 2 1 1 0 1 0 1 0 1 0 1 0 1 3 2 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 1 0 1 4 0 0 0 2 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 1 0 0 0 0 0 0 0 0 0 0 1 1 2 0 1 2 2 2 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 1 2 2 0 0 1 0 0 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 2 0 0 0 0 2 0 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 2 0 1 1 1 0 1 0 1 1 0 0 1 0 0 0 0 1 4 0 0 0 0 1 0 0 2 0 0 0 2 0 0 0 0 0 1 0 1 3 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 2 2 0 1 1 0 1 0 0 2 0 2 1 1 0 1 1 2 1 0 0 1 1 2 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 2 0 0 1 0 2 0 2 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 1 1 0 3 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 1 1 1 2 1 2 0 0 0 0 2 0 0 0 2 1 0 0 2 0 1 0 1 0 0 0 0 1 1 1 1 2 0 1 0 1 1 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 1 1 0 1 0 0 2 2 1 0 0 2 0 1 0 1 1 1 0 1 2 2 1 0 0 1 0 1 0 0 0 0 0 2 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 3 0 0 3 0 1 1 0 1 1 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 1 2 0 1 0 1 0 1 0 0 2 1 1 0 0 0 1 0 2 3 1 0 1 1 0 2 0 1 0 0 2 0 0 0 0 0 3 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 2 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 2 1 0 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 1 1 0 0 0 0 1 2 0 0 0 1 0 1 0 1 1 2 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 1 1 1 2 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 1 0 1 0 1 2 2 0 0 1 0 0 2 0 1 0 1 0 0 0 1 1 0 1 0 3 0 0 1 1 0 2 0 1 1 1 2 1 1 0 0 0 2 0 0 1 2 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 1 1 0 0 1 2 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 0 1 0 1 1 0 0 2 0 0 0 0 3 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 1 1 0 0 1 2 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 2 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 2 1 0 1 1 2 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 2 2 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 2 1 1 3 0 1 1 1 0 0 0 1 1 0 1 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 3 0 0 0 2 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 3 1 1 0 1 0 1 0 0 2 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 2 1 0 0 0 2 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 2 0 0 0 0 1 0 2 0 2 0 0 1 0 1 1 0 0 0 1 1 0 0 2 1 1 0 0 0 0 0 3 1 1 0 0 2 1 2 0 1 0 0 0 2 1 1 2 0 0 1 1 1 0 2 1 1 2 1 0 2 0 0 0 0 0 0 3 0 0 0 0 0 0 1 0 1 0 1 0 0 2 0 1 0 0 1 0 0 1 2 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 0 1 0 1 0 0 0 3 0 0 2 1 0 1 1 0 0 0 1 1 2 1 0 0 1 0 1 0 1 0 0 1 0 0 2 0 0 0 0 1 1 1 0 0 0 2 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 1 1 1 0 1 0 0 1 0 0 0 0 0 1 1 0 1 2 0 0 1 0 1 0 2 1 1 0 1 0 0 1 1 3 0 2 0 0 1 0 0 1 1 0 0 0 2 2 0 0 0 0 0 1 0 0 0 2 2 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 2 1 0 2 0 0 1 1 1 0 0 0 0 0 1 0 1 1 2 1 0 1 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 2 0 0 1 2 0 2 1 0 0 1 0 0 2 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 2 1 1 2 1 1 0 2 0 0 0 1 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 3 1 2 0 0 0 0 0 0 0 0 3 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 2 1 0 1 0 1 0 2 0 0 0 1 1 0 1 2 1 0 1 0 1 0 1 2 0 0 0 1 2 0 1 1 1 1 0 1 0 1 0 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 1 1 2 0 1 0 1 0 2 1 0 1 0 0 0 0 1 1 0 1 1 1 2 2 0 0 0 0 2 1 1 0 1 1 0 0 0 1 2 0 1 0 0 2 2 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 1 2 0 3 0 1 0 1 0 0 2 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 3 1 2 1 0 0 0 0 2 1 0 0 1 0 2 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 1 1 1 0 1 1 0 1 0 1 0 2 0 0 2 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 2 1 0 3 0 0 0 0 1 1 0 0 0 0 1 1 2 0 0 0 0 0 0 1 1 0 1 1 0 1 0 2 0 2 1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 2 1 1 1 2 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 1 3 0 1 1 0 1 2 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 2 1 0 0 4 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 1 1 0 0 2 1 1 0 1 0 1 0 1 0 1 0 1 3 0 0 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 2 1 1 0 0 2 0 0 0 1 0 2 0 1 3 0 0 1 0 1 0 1 0 0 1 0 3 0 0 0 1 2 0 0 0 1 0 0 2 2 2 0 1 1 0 1 1 1 0 0 0 3 0 0 1 0 2 0 0 0 2 0 1 1 0 1 0 0 1 1 1 0 1 0 1 0 1 0 0 1 2 0 0 0 1 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 2 1 0 1 0 0 0 0 0 2 2 1 1 2 0 1 1 0 2 0 0 0 0 0 1 1 1 0 1 1 0 1 2 0 0 1 1 0 1 1 1 1 0 0 0 1 0 0 0 1 0 2 3 2 0 0 2 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 1 2 0 0 0 0 0 0 0 1 2 1 0 1 1 1 0 1 0 3 1 0 1 1 1 0 0 2 0 0 0 0 2 1 0 0 0 2 0 0 0 0 3 0 2 0 1 0 0 0 0 1 0 0 0 0 1 1 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 1 1 0 2 2 1 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 2 0 0 0 1 1 0 3 2 0 0 0 0 0 3 1 0 1 1 1 1 0 1 1 0 3 0 0 3 0 0 1 0 2 0 1 0 1 0 0 0 0 1 0 1 0 0 1 1 2 1 0 1 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 3 0 0 2 1 0 0 0 2 1 0 0 0 2 1 0 0 0 0 0 4 0 0 0 0 2 0 1 1 0 1 0 1 0 0 0 0 1 0 0 3 0 0 0 0 0 1 1 1 1 0 1 0 0 0 1 2 0 0 1 1 1 1 0 2 0 0 3 1 0 1 0 1 1 2 1 1 0 0 1 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 0 0 0 0 2 1 1 0 1 1 0 1 0 1 1 1 2 0 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 3 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 3 1 0 0 1 1 0 1 1 1 0 2 1 1 0 2 0 0 2 1 0 3 2 0 0 1 3 0 1 0 0 0 0 1 1 1 2 0 0 0 0 0 1 2 0 0 1 0 1 1 1 1 0 1 0 1 0 0 1 0 0 0 1 2 0 1 0 0 0 1 0 0 2 0 3 0 2 1 0 0 0 0 1 1 0 0 2 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 2 0 0 1 1 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 1 2 1 0 0 0 0 1 1 1 1 0 2 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 2 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 0 0 0 2 2 1 1 0 0 0 0 0 1 0 0 1 2 0 1 1 0 0 0 1 0 0 0 0 1 0 2 2 1 1 1 1 0 0 2 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 2 0 2 1 1 0 0 1 3 0 1 0 0 0 0 0 0 2 0 0 0 0 0 3 1 1 1 3 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 2 0 1 0 0 0 0 1 0 0 1 2 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 3 0 2 0 0 2 0 0 0 2 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 2 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 1 0 2 1 1 3 0 0 0 0 1 2 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 2 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 2 1 0 0 0 1 1 0 0 1 1 1 0 2 0 1 2 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 2 1 1 1 0 0 1 1 2 0 1 0 1 1 1 0 0 1 0 0 0 0 0 2 1 2 0 1 0 0 1 1 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 3 1 1 1 1 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 0 1 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 1 0 0 2 0 0 0 1 2 0 2 2 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 1 1 0 0 0 1 0 0 0 0 0 1 1 1 4 0 2 0 1 0 1 0 1 0 0 0 0 0 1 1 1 1 0 1 0 1 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 2 3 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 2 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 2 0 1 0 1 1 1 0 1 1 1 0 0 1 0 0 1 0 0 0 1 3 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 2 1 0 1 0 0 1 0 0 1 1 2 0 0 0 1 1 1 0 2 1 2 1 2 0 0 1 0 0 2 0 4 1 0 1 0 2 1 0 0 1 1 0 1 0 2 2 1 3 2 1 1 0 0 1 0 2 0 1 0 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 2 0 1 1 2 3 0 1 0 2 1 0 0 1 0 2 0 0 0 0 2 0 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 1 1 1 1 0 0 0 0 2 0 1 0 2 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 3 2 0 0 0 0 0 1 3 1 0 1 0 1 0 0 1 2 2 0 0 0 1 1 2 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 2 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 2 1 0 1 0 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 2 1 1 1 1 0 1 0 0 0 0 0 0 2 0 1 1 1 0 1 0 0 0 2 0 1 0 0 0 0 0 1 0 2 1 0 1 0 1 0 0 0 1 0 0 1 2 1 1 0 1 1 0 1 0 0 1 1 1 1 3 0 0 1 1 2 1 1 1 0 1 0 2 1 0 0 1 0 0 1 0 1 0 1 0 0 2 0 2 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 2 0 0 0 1 2 0 0 3 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 2 1 3 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 2 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 1 0 0 1 2 0 1 2 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 2 1 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 1 2 0 1 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 1 2 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 2 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 2 1 0 1 0 0 1 0 0 1 5 1 0 2 2 0 1 1 0 0 0 2 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 0 0 2 0 1 0 0 1 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 0 0 1 1 2 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 2 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 2 1 1 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 1 1 1 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 0 0 0 2 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 2 0 1 0 1 0 2 0 0 0 1 0 1 1 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 2 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 2 0 1 1 1 2 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 1 2 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 0 2 1 0 0 1 0 2 0 0 0 1 1 0 1 2 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 2 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 0 2 1 1 0 1 0 1 0 0 0 1 1 0 2 1 0 0 0 0 0 1 0 2 0 3 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 0 1 2 2 0 1 0 2 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 2 0 1 0 1 1 1 0 0 2 0 0 0 1 0 0 1 0 0 0 1 0 1 2 2 2 2 1 1 2 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 0 2 0 1 2 1 0 1 1 1 0 2 0 0 1 1 2 2 1 0 2 1 2 1 1 0 0 0 1 2 2 0 0 1 0 2 0 0 1 0 1 0 0 1 1 1 2 0 0 1 3 0 1 1 0 1 1 0 0 0 0 0 2 2 0 0 0 0 1 1 1 0 0 0 0 0 1 2 0 0 0 1 1 1 0 0 0 0 1 1 2 0 1 0 0 2 2 0 1 0 0 1 1 0 0 1 1 0 0 0 1 1 2 1 0 1 0 0 0 0 0 0 2 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 1 0 2 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 0 2 0 2 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 1 1 2 0 2 0 0 0 2 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 1 1 2 2 0 1 1 0 0 0 2 0 0 2 1 0 0 0 2 0 0 0 0 1 0 1 0 2 0 0 1 0 1 2 0 0 3 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0 1 0 1 0 1 1 2 1 0 1 2 1 1 1 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 2 1 0 1 0 0 0 1 1 1 1 0 0 1 0 0 1 2 0 1 0 0 0 1 0 0 0 1 0 2 0 1 0 1 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 2 1 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 0 1 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 1 3 2 1 0 0 0 0 0 1 2 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 1 0 1 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 2 0 1 0 0 1 0 2 0 0 1 0 1 0 1 0 0 0 1 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 1 2 1 1 0 1 2 1 0 0 0 1 0 0 0 4 2 2 0 1 3 1 0 0 2 1 1 0 1 2 0 0 1 0 0 1 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 1 0 0 0 1 2 0 1 1 0 2 1 1 0 0 0 0 2 1 1 0 0 1 0 0 0 0 2 0 0 1 0 1 0 0 1 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 2 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 2 2 1 1 0 0 1 0 0 1 1 1 2 1 1 0 1 0 0 0 1 0 1 0 0 2 1 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 2 0 0 0 1 1 1 0 0 0 1 1 0 0 1 2 0 0 0 1 1 0 0 1 1 3 2 0 2 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 1 2 0 1 1 0 1 0 1 0 0 2 1 0 0 1 0 1 3 0 2 2 0 2 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 2 1 0 2 2 2 0 1 0 2 0 0 0 0 0 0 2 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 3 0 0 1 1 1 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 1 0 0 0 0 1 1 0 3 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 2 1 0 0 3 0 0 0 1 0 1 0 0 0 0 1 0 1 2 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 1 2 1 0 2 0 0 1 1 1 2 0 0 1 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 1 2 1 2 0 0 0 0 1 1 0 0 3 1 0 0 0 0 2 1 1 0 0 2 0 0 2 1 0 0 0 0 1 0 0 0 2 0 1 0 1 0 1 1 1 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 2 0 1 0 0 1 2 0 0 0 0 1 0 1 0 0 1 1 0 0 2 0 0 2 0 0 1 0 1 1 0 1 0 0 2 2 0 0 1 0 1 0 1 3 2 0 1 0 0 1 0 0 1 1 0 1 2 0 2 0 0 1 2 0 0 2 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 2 1 0 1 0 0 1 0 0 0 2 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 2 1 0 0 1 0 0 1 2 0 0 0 0 1 2 0 0 1 0 1 0 0 1 3 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 3 2 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 1 0 1 1 0 2 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 2 2 0 1 0 1 1 0 2 1 0 0 1 1 0 0 1 0 1 0 0 1 1 2 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 2 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 3 0 0 0 0 0 0 0 0 2 0 1 0 2 0 0 0 2 0 1 0 1 1 0 2 1 1 0 2 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 2 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 3 0 0 0 1 1 0 2 1 0 0 2 0 3 1 2 0 0 0 1 0 0 0 0 0 2 0 0 0 1 1 0 0 1 0 1 1 0 1 1 0 0 0 1 1 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 1 0 2 1 0 2 2 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 2 0 1 1 1 1 0 0 0 1 0 0 0 1 0 0 0 1 2 1 0 0 1 2 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 2 0 1 1 0 1 0 0 0 1 0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 2 1 1 0 1 2 2 0 1 0 1 0 1 0 2 0 0 0 1 4 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 1 0 2 0 0 0 1 0 1 1 0 1 0 1 0 1 0 2 1 0 1 2 2 1 1 2 0 1 1 0 0 0 0 1 0 1 1 0 2 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 1 0 2 0 0 0 1 0 0 0 2 0 0 1 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 1 1 0 0 0 0 2 1 1 0 0 1 1 1 0 0 4 0 1 1 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 3 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 1 1 1 1 0 1 0 0 0 0 0 2 1 0 1 2 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 1 0 1 2 2 0 0 2 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 2 0 1 0 0 0 0 0 1 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 5 0 1 1 2 0 3 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 2 0 1 0 0 1 1 1 0 1 0 3 2 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 2 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 1 0 0 1 0 1 2 0 1 1 0 1 1 0 1 1 0 1 0 2 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 2 0 0 0 0 0 0 2 0 1 0 1 1 1 0 0 2 0 0 2 0 2 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 1 1 0 1 1 3 1 0 1 1 0 0 3 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 1 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 1 2 0 2 0 0 0 0 1 0 0 0 1 2 0 0 0 0 1 1 0 0 1 0 1 0 1 2 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 0 1 0 2 0 2 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 1 1 1 1 0 0 1 0 2 0 0 0 2 0 1 0 2 0 0 0 1 1 0 2 1 0 1 2 0 0 0 0 0 0 0 0 1 1 0 1 1 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 2 0 0 0 1 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 1 0 1 2 1 0 0 0 0 0 3 0 0 2 0 0 0 1 0 0 3 0 2 2 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 0 1 1 1 0 0 0 2 0 0 1 0 1 1 0 2 0 0 1 1 0 0 2 1 1 0 2 1 1 0 0 1 0 0 1 0 1 0 0 0 0 1 2 1 0 0 1 1 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 2 0 0 2 0 0 1 3 2 0 0 0 0 0 0 0 0 1 0 2 0 0 3 0 1 2 2 0 0 0 1 2 0 2 1 0 1 0 0 2 0 1 2 2 0 0 1 1 0 1 0 2 1 1 1 2 0 1 2 0 1 0 2 0 0 1 2 0 1 0 1 1 1 1 1 1 0 0 0 1 0 2 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 3 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 1 1 0 0 2 0 2 1 1 1 0 0 1 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 1 2 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 1 1 1 1 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 2 0 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 0 0 2 1 1 0 0 0 2 0 0 0 0 1 1 1 0 1 0 2 1 0 0 0 1 1 1 1 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 2 0 0 1 1 0 1 0 1 0 0 0 1 0 2 0 0 1 3 0 1 1 0 0 1 0 0 1 0 2 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 1 1 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 2 2 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 2 1 0 1 0 0 2 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 1 0 1 0 1 1 0 2 0 0 1 0 2 2 0 0 4 1 0 4 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 1 1 1 1 0 2 0 0 1 1 0 3 1 0 0 0 0 1 0 1 1 1 1 0 0 3 1 1 0 0 1 0 0 1 3 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 2 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 3 0 1 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 1 0 2 0 3 1 0 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 2 0 0 1 1 0 0 2 0 2 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 3 0 0 1 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 1 1 1 0 0 2 1 0 2 1 1 0 0 0 2 0 2 2 1 0 0 3 2 0 1 1 0 0 0 0 2 1 0 1 0 1 0 1 0 2 0 1 1 0 1 1 1 1 1 1 0 0 0 1 1 0 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 1 1 2 0 0 0 1 0 1 1 2 1 0 0 0 0 0 3 0 0 1 3 0 0 0 3 3 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 1 1 1 0 1 0 2 0 0 1 1 2 0 0 0 0 0 2 0 0 1 1 0 0 0 2 1 1 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 1 2 0 1 2 1 0 1 0 0 2 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 2 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 2 0 1 1 2 0 2 1 2 0 1 0 1 1 1 2 1 2 1 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 2 0 1 0 0 1 0 1 0 0 0 2 1 1 1 0 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 2 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 2 0 1</t>
-  </si>
-  <si>
-    <t>NIG(32.91102223994869, 19.534473368754945, -1.3498080469913347, 145.3373978849217)</t>
-  </si>
-  <si>
-    <t>121 139 98 122 35 174 144 194 107 103 75 74 76 88 62 89 106 75 59 35 126 124 69 117 103 89 124 123 68 108 93 124 106 95 131 64 92 98 72 102 108 102 75 133 81 169 120 77 45 129 69 83 85 120 103 84 106 123 78 108 36 118 152 132 109 123 134 118 151 113 102 97 80 142 134 45 61 109 57 77 84 60 80 118 155 69 81 55 85 110 105 128 107 71 116 63 104 82 115 72 94 103 90 136 54 122 31 127 94 109 107 144 145 68 156 155 127 88 76 24 93 156 148 145 83 59 62 105 151 173 84 118 97 112 115 138 93 134 78 203 115 169 28 120 112 127 124 108 107 142 117 157 89 112 94 161 103 121 148 97 113 156 50 70 91 150 155 104 50 109 67 65 117 123 88 97 146 98 95 134 127 75 81 26 181 109 132 124 124 67 209 113 96 128 99 98 29 136 73 95 139 76 87 136 96 86 130 131 158 133 113 248 133 121 59 98 113 102 148 70 132 142 136 84 115 133 125 82 149 115 167 114 187 67 183 38 137 91 135 96 98 113 165 145 139 120 118 80 84 65 80 132 97 70 97 127 86 128 94 170 169 178 129 78 53 183 137 120 99 114 109 131 84 76 127 124 82 99 116 91 134 100 147 102 84 22 124 134 98 92 52 116 74 108 135 109 91 110 69 50 91 95 170 104 139 100 129 49 131 117 76 43 100 91 97 110 98 118 105 97 45 109 85 135 76 123 124 118 130 80 116 24 98 63 53 136 173 128 157 87 184 112 112 148 145 125 170 40 110 96 127 122 127 169 20 122 80 116 122 78 127 65 110 65 79 92 98 83 116 119 81 55 70 72 69 98 62 94 223 75 95 83 57 109 132 127 72 101 76 138 98 115 79 153 119 71 67 151 112 123 177 108 143 73 73 72 61 108 164 43 49 126 82 96 84 72 176 96 142 118 213 143 159 162 127 130 59 121 145 177 105 65 92 114 166 136 52 74 72 100 75 71 89 86 137 48 89 70 139 83 159 118 103 94 60 71 62 46 87 122 89 100 136 99 87 131 84 108 123 126 77 84 123 44 66 108 91 75 128 119 54 97 112 75 72 45 166 168 151 43 45 91 70 143 78 119 116 175 73 149 70 94 93 83 121 94 94 123 117 96 71 115 119 82 95 95 55 139 94 85 121 90 148 98 98 156 86 151 91 145 186 116 122 92 152 106 133 169 91 74 52 135 60 111 141 82 76 152 85 42 96 123 121 93 177 94 80 117 115 106 122 127 113 90 43 143 30 121 92 180 66 101 126 132 83 66 208 144 124 120 90 142 117 156 116 56 90 147 109 131 84 125 165 99 80 120 130 96 42 93 80 85 137 114 117 146 124 59 60 122 95 99 169 49 137 76 88 84 127 153 94 119 71 102 121 151 106 107 15 65 121 74 120 140 111 138 91 144 170 164 69 89 119 128 100 118 94 124 135 143 134 123 127 113 86 82 108 161 112 141 99 79 115 111 131 84 53 117 169 146 110 48 77 97 62 113 68 89 116 76 172 129 42 54 27 71 46 193 141 193 76 95 98 139 124 70 120 23 163 123 147 173 72 118 105 85 98 47 58 110 65 108 143 93 88 90 150 166 120 150 146 150 100 107 80 100 37 160 111 148 89 220 168 85 98 120 34 85 158 164 89 115 120 147 121 77 106 103 91 97 75 45 80 70 147 89 111 93 84 92 21 57 147 107 213 86 75 131 144 66 120 146 60 101 105 92 42 22 51 71 115 115 94 65 110 66 120 56 183 72 60 91 151 98 55 122 45 144 102 41 105 103 115 144 146 128 66 95 144 102 143 112 126 107 114 100 111 57 90 135 83 115 166 38 95 98 116 91 107 181 107 103 115 23 83 143 139 97 92 171 116 162 136 167 48 98 93 101 134 92 127 79 129 167 88 58 116 64 140 123 100 123 119 102 201 102 128 82 102 102 138 70 110 96 137 102 134 103 79 115 85 39 67 115 136 61 61 58 70 76 98 71 62 131 65 54 76 131 160 119 109 118 83 65 112 113 126 133 87 158 62 108 111 116 78 145 108 99 176 54 90 134 91 72 133 158 106 148 99 173 37 111 140 87 98 82 142 145 62 95 97 145 62 68 56 84 76 130 105 90 99 71 32 90 122 74 85 123 85 75 156 126 57 77 93 112 131 116 66 111 81 143 57 81 120 114 104 112 68 109 144 85 94 89 84 86 69 130 103 17 130 86 134 135 73 121 108 122 120 109 114 90 112 164 106 135 99 88 119 103 133 72 76 86 135 74 65 161 88 164 79 73 148 104 116 148 133 108 127 140 151 92 67 98 168 141 158 49 124 137 91 72 113 126 82 93 78 146 118 109 89 120 112 180 85 32 142 61 176 130 127 150 85 73 98 113 73 161 157 105 129 69 89 96 134 92 201 68 133 110 56 115 76 148 73 95 117 127 69 137 84 110 45 96 104 87 83 99 99 141 146 145 174 120 146 162 89 109 122 115 125 134 45 146 96 125 126 108 108 74 71 139 76 82 101 137 99 51 158 81 115 66 112 173 116 133 126 84 39 115 88 123 121 95 109 130 67 146 102 76 71 104 91 76 61 62 65 128 49 102 95 110 79 104 111 80 76 120 66 119 93 90 114 93 54 92 156 46 85 55 116 128 146 106 51 85 115 31 118 53 128 163 61 51 92 153 118 80 118 68 97 107 99 124 132 146 139 163 155 111 79 108 68 168 116 68 138 122 88 120 90 145 171 107 129 197 49 101 56 124 126 116 28 95 55 90 73 134 106 112 130 133 180 116 144 194 63 140 157 110 131 77 40 98 35 71 108 98 104 99 97 47 102 112 116 169 118 133 72 47 151 121 141 130 108 46 82 105 62 111 123 125 126 90 123 121 97 88 78 4 136 99 88 114 118 173 77 110 55 130 77 83 68 151 93 116 72 28 58 85 195 92 98 107 146 129 108 94 153 109 161 114 76 90 87 119 123 54 117 76 103 125 66 67 116 96 139 181 222 62 123 83 114 172 71 92 88 98 170 84 93 133 100 106 66 148 82 90 136 134 118 135 122 144 134 48 130 75 133 94 101 138 78 127 102 127 186 84 102 46 172 168 97 90 105 101 148 29 84 122 59 146 97 123 111 106 79 73 178 144 71 106 95 121 108 128 138 182 122 44 87 86 106 118 105 85 100 74 126 162 97 90 112 98 75 100 81 108 75 132 140 114 89 115 138 42 125 66 80 105 74 68 91 84 73 145 149 112 105 136 80 168 122 91 119 140 112 86 95 86 98 105 147 68 117 112 66 105 82 28 118 172 34 101 70 110 92 79 163 129 53 77 159 107 111 120 124 67 71 119 127 88 104 106 113 111 131 62 81 60 87 60 96 112 84 154 65 81 113 110 128 154 75 104 112 74 74 91 96 54 54 75 85 104 68 107 144 151 88 60 115 150 73 111 115 43 136 81 92 110 116 117 86 119 61 128 114 61 59 122 135 131 99 86 100 116 87 123 121 104 109 84 125 114 157 68 126 62 94 108 109 77 65 127 54 127 124 102 94 156 101 137 62 47 145 46 96 121 61 94 107 192 65 90 73 165 23 68 104 109 69 80 132 106 66 131 120 88 74 117 161 114 86 51 91 110 97 64 124 78 124 63 166 117 37 121 96 133 91 83 69 65 87 122 80 137 96 98 57 61 143 116 87 87 127 72 149 32 120 56 58 51 108 45 127 101 149 72 83 121 94 100 77 67 123 23 108 123 139 90 113 86 117 139 80 121 79 52 149 93 114 104 87 168 61 163 92 35 40 61 80 123 157 41 142 87 125 156 64 81 114 149 101 67 94 87 75 107 96 95 127 141 173 185 47 98 109 132 88 151 38 162 98 80 122 130 93 45 66 154 102 134 130 100 82 116 84 125 130 87 107 149 152 54 53 63 83 67 60 153 74 182 76 98 98 137 143 143 70 76 48 146 111 135 81 207 78 184 66 38 96 103 113 149 154 116 98 131 150 133 81 90 45 47 109 110 123 104 220 82 128 125 104 116 125 179 110 67 83 62 163 77 137 123 59 97 152 95 77 82 123 68 62 67 35 99 98 153 112 98 162 112 79 178 113 71 77 70 137 73 96 170 100 94 70 97 95 116 133 106 90 122 116 169 66 87 119 133 119 64 126 94 95 136 82 129 101 93 100 153 177 123 104 135 100 196 86 100 47 136 132 88 126 142 64 149 180 55 105 96 151 54 82 111 112 172 140 139 102 98 125 98 82 113 84 24 143 71 154 79 154 90 72 105 85 64 117 120 87 112 99 127 87 133 97 105 176 72 78 87 126 122 108 51 123 103 94 79 50 64 109 59 73 62 170 132 70 108 121 86 139 91 133 99 66 119 133 108 71 60 60 93 137 143 61 137 119 109 151 116 182 126 49 117 80 120 76 126 169 132 38 76 63 101 152 112 71 50 115 92 100 88 84 214 123 42 139 90 140 72 114 127 71 105 123 114 53 152 89 137 90 137 135 162 101 118 62 119 124 126 80 129 129 99 108 102 116 125 130 135 121 100 37 85 115 66 126 35 49 87 85 34 113 86 143 44 104 82 64 136 102 104 45 81 88 77 59 129 102 78 130 121 59 85 147 86 134 58 165 132 170 61 136 81 52 189 43 41 131 115 73 134 71 85 150 111 48 135 97 75 120 123 96 106 131 78 108 76 113 80 82 109 126 164 147 97 65 175 99 107 59 72 71 105 138 96 85 104 61 58 41 164 153 163 141 80 86 60 128 85 111 90 69 83 151 103 97 60 124 138 63 102 102 103 84 112 69 128 44 138 202 62 160 86 106 111 129 160 124 156 138 65 155 70 168 60 121 87 109 164 157 152 99 74 107 117 64 148 120 103 67 109 34 112 134 78 83 103 97 101 127 67 139 109 51 101 145 177 142 100 126 160 121 88 168 97 146 107 106 106 79 126 96 129 89 36 159 127 108 70 124 85 126 61 49 90 148 111 13 104 123 17 109 127 112 160 114 97 156 48 89 162 197 93 117 113 104 108 85 100 120 26 127 154 76 74 87 117 56 71 143 160 137 133 139 116 144 125 90 104 84 104 98 81 126 80 94 99 86 156 148 130 122 141 86 157 135 104 111 139 26 101 142 75 42 123 75 97 67 53 103 162 86 38 161 38 142 99 120 120 60 102 114 111 103 101 67 160 106 110 153 111 76 69 66 84 107 51 52 101 63 125 139 76 70 102 101 177 96 100 167 87 127 50 131 90 122 92 88 117 88 118 59 23 71 90 94 102 188 153 101 106 113 60 76 86 44 114 136 110 145 133 96 115 177 69 116 97 158 87 63 75 124 130 112 75 133 107 76 163 90 99 135 53 115 112 66 107 116 176 103 135 110 152 107 111 121 71 63 162 63 79 90 88 102 100 51 102 132 104 142 108 144 77 137 125 97 75 132 148 66 56 183 129 109 140 96 59 135 127 94 157 46 146 117 113 63 51 80 118 134 69 85 21 131 80 90 91 159 174 120 107 56 142 65 108 147 110 58 75 202 167 156 78 84 67 49 99 140 95 99 55 54 97 98 50 105 91 120 51 101 72 97 121 91 102 94 139 81 95 103 85 147 74 121 51 114 158 56 88 165 73 116 89 82 110 90 137 124 100 84 123 148 99 149 123 82 168 32 138 108 111 151 130 61 102 108 106 101 135 151 79 166 77 92 58 93 38 87 77 85 129 109 47 106 85 163 73 106 110 96 72 124 137 130 99 85 123 148 121 95 75 90 56 27 122 140 101 55 94 108 95 104 105 82 106 120 145 106 108 138 98 143 49 97 70 120 139 109 61 141 118 174 129 100 61 124 92 107 116 87 128 110 30 121 87 34 139 92 88 111 69 106 91 74 160 131 83 142 115 90 131 59 127 107 113 130 101 84 69 89 44 158 109 110 79 111 133 167 60 79 79 106 95 123 120 111 103 96 98 82 75 101 76 122 82 141 139 113 164 73 94 34 127 167 100 104 107 44 80 107 61 172 125 155 178 99 43 104 130 106 56 113 81 61 114 73 68 104 123 51 40 156 106 112 117 72 64 77 68 114 68 91 84 128 133 95 100 151 69 81 89 122 48 111 191 102 98 112 103 148 134 117 129 87 85 136 132 160 92 72 98 113 54 127 106 77 156 153 129 85 89 206 91 91 91 71 32 120 74 105 106 67 68 151 140 89 123 38 98 122 139 71 88 65 145 92 78 94 126 159 111 103 89 106 70 32 101 93 66 71 33 69 68 107 139 73 58 67 132 103 218 128 170 159 119 130 123 158 65 90 112 160 82 97 153 122 119 109 99 132 100 109 148 141 120 110 118 152 132 114 94 118 135 96 174 59 98 92 99 96 121 101 79 194 110 157 73 99 116 94 121 60 117 101 98 139 184 81 92 116 143 51 125 110 118 118 112 75 91 83 160 91 106 163 20 107 94 115 75 79 41 153 125 57 138 72 109 139 92 24 106 168 78 83 75 107 72 110 150 138 96 85 100 98 69 80 89 92 111 87 100 188 118 109 94 113 119 87 100 135 90 35 87 97 59 87 53 126 139 161 57 169 120 186 87 124 81 133 126 157 92 82 94 114 110 92 102 69 153 93 144 45 104 90 103 126 106 63 70 63 180 79 109 114 108 185 109 116 103 79 167 119 167 86 164 132 137 72 73 95 96 135 135 128 163 100 79 86 84 87 39 174 120 61 105 155 105 132 109 202 98 50 71 88 71 92 83 150 71 121 111 65 50 157 77 68 113 94 68 206 88 119 142 114 103 77 150 78 83 149 105 87 67 135 121 61 109 117 130 46 74 139 116 56 140 111 112 128 118 139 86 167 103 113 117 83 151 114 116 59 65 142 96 135 56 110 121 40 85 55 93 128 83 90 99 104 129 84 194 113 82 79 129 169 72 99 105 105 59 128 77 111 100 157 97 126 90 51 52 153 112 78 71 125 79 170 89 47 121 57 97 82 69 82 188 166 50 132 108 116 117 105 116 132 105 135 142 37 62 116 36 148 132 101 129 95 106 89 131 107 84 122 102 87 121 125 69 140 69 78 49 87 118 44 79 72 112 100 85 44 150 102 150 133 78 39 161 120 149 74 130 155 166 117 101 174 145 126 65 91 120 69 81 88 152 82 110 62 136 78 69 74 119 88 90 143 228 85 95 99 130 84 94 73 111 132 163 134 54 93 98 99 141 68 183 67 67 99 140 107 63 114 114 79 90 142 111 45 98 165 106 100 112 148 96 62 80 103 49 102 111 28 140 85 134 112 78 78 151 93 82 142 58 134 53 62 75 80 130 120 214 140 94 76 105 65 109 88 117 81 82 94 60 176 55 159 121 49 90 32 53 136 108 103 80 107 106 101 123 127 72 117 77 102 73 78 84 78 104 87 104 102 93 103 97 123 92 135 83 81 128 104 118 79 70 134 122 43 187 109 58 94 71 113 151 79 106 104 110 118 119 106 164 110 104 88 66 106 139 115 115 109 57 75 75 83 41 96 75 119 127 123 190 140 93 81 97 70 58 72 105 148 124 132 104 121 174 87 50 141 75 159 81 157 121 134 158 124 117 68 147 69 145 97 178 124 96 148 58 95 72 151 119 93 130 150 177 94 113 70 128 76 164 182 136 121 94 110 128 82 79 84 106 55 143 137 103 84 90 112 117 87 75 120 185 147 82 155 18 83 85 114 65 108 216 132 94 164 95 81 150 125 106 106 72 125 75 87 232 107 110 82 124 149 142 177 131 153 128 165 80 82 122 152 76 69 88 139 125 92 70 132 127 100 67 167 155 105 53 67 93 120 106 51 69 77 145 127 97 138 145 91 160 110 74 111 63 44 77 89 83 76 77 66 160 84 84 82 103 139 87 131 85 139 166 149 141 114 116 145 96 116 81 98 117 84 148 145 42 171 84 144 81 96 87 112 109 71 85 142 152 133 61 133 86 61 66 79 127 113 94 85 104 82 90 118 97 97 85 120 165 85 87 82 89 75 69 122 74 90 54 162 150 70 120 107 90 120 89 107 152 94 126 72 95 81 106 106 109 99 71 93 54 43 128 114 132 89 109 139 104 85 84 107 119 143 110 122 181 152 49 40 64 124 78 57 130 170 142 135 35 125 63 155 49 69 129 139 80 81 149 103 89 83 70 126 138 169 106 85 91 78 72 99 87 106 135 112 55 82 85 92 145 157 87 124 56 59 37 52 99 114 99 59 96 130 105 125 129 110 48 119 54 83 83 104 104 87 146 204 121 153 86 99 165 58 63 50 124 135 169 154 84 76 112 103 176 112 122 69 133 77 133 145 73 71 78 140 96 142 112 187 128 141 122 88 82 33 87 134 112 80 146 150 126 166 142 100 50 53 144 95 144 76 105 106 108 136 163 84 125 54 34 50 130 155 116 147 103 162 142 117 109 106 119 128 108 89 143 139 64 111 134 114 80 66 112 105 172 146 134 144 108 108 171 64 111 71 125 147 82 86 84 121 149 99 111 87 98 171 83 50 117 95 56 59 107 89 112 77 107 95 127 118 89 79 108 131 150 150 106 85 161 106 93 68 145 85 142 102 147 153 82 64 38 147 71 119 88 177 67 64 47 92 144 133 110 215 92 110 44 113 56 53 132 139 112 92 81 81 146 130 60 105 76 118 121 108 98 92 86 81 125 146 126 115 18 119 76 95 89 84 131 220 181 94 61 210 70 75 122 112 137 96 121 114 108 149 167 155 119 136 129 79 108 139 153 111 127 67 92 84 119 120 71 118 102 125 78 99 79 125 148 110 57 85 136 56 153 89 95 102 130 148 98 74 89 82 87 133 134 91 90 151 84 137 87 140 113 88 130 130 123 77 82 76 143 104 137 83 85 92 96 89 106 78 111 27 81 73 136 87 160 92 76 179 56 132 213 62 129 52 129 117 77 88 122 74 32 145 122 124 103 96 88 73 83 109 101 70 202 83 136 116 55 105 80 96 135 137 154 75 130 46 113 110 150 102 159 94 109 159 130 163 135 31 61 102 81 77 111 155 91 95 70 107 132 165 216 136 98 80 133 71 76 90 186 90 58 82 70 100 72 148 107 101 147 103 103 143 138 57 110 122 30 79 104 98 91 85 77 94 98 89 49 121 69 139 96 92 154 94 104 127 99 103 83 147 76 127 160 73 110 183 80 73 83 114 78 119 76 126 125 90 86 146 63 174 147 85 53 121 36 113 131 126 109 82 125 121 110 95 138 65 73 80 162 96 101 62 138 116 63 107 43 136 157 105 126 90 77 112 133 153 83 126 100 101 148 150 119 91 75 164 47 106 134 95 88 81 57 87 118 165 116 88 93 80 75 91 150 124 126 135 42 274 91 109 98 149 120 90 77 91 44 89 194 109 101 91 104 71 140 204 147 88 89 140 115 102 104 92 164 94 168 100 121 89 89 70 96 141 76 137 83 64 126 117 166 164 88 93 88 123 173 100 88 94 120 53 105 146 100 212 101 139 85 96 159 55 65 177 98 175 60 120 81 125 136 168 84 79 60 90 132 79 110 89 132 121 136 81 81 209 163 44 123 96 97 104 77 161 101 106 156 206 219 114 136 26 53 68 73 111 55 73 149 121 100 79 66 70 103 86 110 119 172 124 109 146 108 114 128 164 109 127 97 145 28 124 118 84 124 75 138 127 122 53 75 78 140 109 80 103 76 97 142 108 79 68 85 84 87 40 96 94 75 133 139 73 76 91 100 65 77 117 71 148 62 115 52 118 140 73 103 107 112 142 104 111 45 112 145 106 40 145 138 94 153 91 64 148 92 120 94 73 129 97 109 88 112 159 93 137 79 101 134 73 127 66 84 125 149 64 145 61 69 97 111 112 143 98 98 100 119 131 49 170 79 131 145 106 69 108 99 95 89 98 146 161 44 80 75 87 62 79 76 111 99 77 132 145 143 118 134 85 166 91 124 74 173 150 120 120 121 64 131 81 92 86 143 79 95 66 127 82 128 116 154 92 161 121 98 69 46 151 143 98 41 87 149 162 70 100 98 94 85 173 142 87 122 82 74 86 108 165 78 41 90 153 130 91 80 175 136 141 144 112 101 87 152 228 84 48 113 104 112 130 112 82 64 114 144 55 113 93 25 64 70 65 110 125 137 85 108 129 78 63 135 82 96 64 138 68 124 140 81 81 55 117 85 236 65 62 130 80 119 140 158 106 58 72 125 119 48 93 107 71 108 173 20 115 89 87 120 118 143 139 152 141 139 105 153 157 88 60 146 188 111 80 68 127 86 142 150 33 121 115 93 104 157 118 136 81 102 67 56 121 35 131 137 73 148 54 117 117 152 106 168 107 116 166 76 120 53 78 102 164 132 77 133 115 134 94 112 123 122 78 91 144 158 115 144 112 93 114 94 127 73 157 146 38 68 92 79 175 87 124 130 118 53 104 143 131 75 110 66 107 56 146 30 79 47 143 94 188 105 86 111 94 109 117 91 132 113 94 113 172 235 123 97 144 1 118 49 77 28 93 104 103 85 112 120 113 150 87 94 128 167 96 54 109 62 131 104 116 24 108 58 104 134 114 71 67 215 108 80 122 117 60 80 95 77 53 74 117 99 68 142 90 62 80 70 107 111 131 81 172 86 123 74 48 86 80 110 92 47 129 187 102 70 109 136 100 120 98 142 72 75 82 100 143 189 175 105 78 144 58 141 154 142 153 168 101 135 80 134 52 74 120 117 78 82 99 75 43 99 126 133 134 122 117 123 81 110 60 89 113 88 118 131 68 34 199 126 147 117 142 97 103 94 90 96 86 165 101 81 70 108 98 29 77 78 99 31 125 95 111 64 98 130 94 111 132 47 131 109 96 20 84 76 121 139 97 89 94 78 157 36 127 115 79 88 154 111 79 97 122 88 74 96 131 138 58 142 130 102 152 107 179 105 108 27 90 127 123 60 109 150 76 76 10 113 66 96 60 93 132 142 153 136 122 88 92 124 104 67 83 78 144 100 150 122 20 171 74 70 162 75 159 151 117 156 91 109 118 123 104 149 115 97 79 89 96 50 112 159 178 149 118 62 92 63 99 104 116 127 73 140 80 91 104 174 91 172 77 118 66 43 98 143 98 161 101 67 94 109 113 93 131 139 77 47 102 74 146 89 129 105 62 109 129 131 142 60 98 128 98 90 113 192 73 125 119 155 95 143 40 154 170 109 106 54 64 120 132 248 141 115 136 93 95 90 84 122 79 99 119 65 109 98 56 83 97 102 65 45 34 88 118 122 115 113 88 95 78 155 119 62 61 43 154 63 170 183 161 154 106 66 51 61 157 155 160 104 115 102 77 83 121 79 141 136 151 72 53 128 111 82 97 102 154 115 127 108 52 142 110 118 112 129 119 55 110 163 72 84 75 74 76 132 108 80 97 143 124 65 134 125 133 119 150 75 105 106 139 36 147 138 153 79 167 84 116 139 24 72 124 100 177 121 182 158 120 56 138 84 177 100 153 178 55 156 115 104 157 142 120 151 90 151 91 98 104 130 132 119 108 155 96 138 115 139 96 41 113 64 53 89 108 89 118 166 94 103 51 91 89 70 108 94 82 100 124 46 102 119 86 78 90 85 96 115 60 136 91 120 87 112 70 145 128 107 118 127 157 93 53 101 155 45 129 123 104 140 107 85 100 108 88 105 79 107 100 130 136 177 71 142 91 106 44 94 123 97 107 65 106 111 115 152 76 135 93 133 122 116 197 64 54 56 118 132 120 148 80 99 163 113 77 80 164 73 171 151 47 123 105 69 84 44 48 75 100 128 99 185 114 115 91 124 69 146 59 115 85 70 69 149 41 71 88 86 102 102 137 115 75 115 190 104 132 165 152 80 95 99 154 126 58 99 73 118 94 126 75 149 123 66 133 87 82 170 127 119 91 115 132 108 130 124 171 108 86 129 65 132 131 42 137 186 49 64 128 78 153 135 115 127 101 144 61 55 96 83 110 115 40 96 89 123 57 138 93 106 173 55 77 99 134 33 57 153 119 90 54 127 114 93 171 103 56 141 161 163 66 157 129 105 110 50 140 94 155 118 99 111 88 188 76 137 170 65 89 88 71 55 126 63 126 80 167 156 86 63 94 91 174 120 195 107 136 96 130 107 133 119 66 138 138 90 125 98 205 91 114 113 82 78 100 103 58 81 126 79 163 109 48 59 113 102 140 132 95 124 147 72 97 67 119 122 124 109 118 102 157 137 71 53 97 87 46 112 165 87 185 130 80 85 117 52 116 122 145 101 87 152 95 87 139 90 69 157 126 117 158 20 186 72 132 74 62 48 125 127 63 102 159 89 102 122 140 87 89 112 188 131 83 101 116 165 97 54 148 79 91 104 105 53 107 101 101 75 75 98 118 66 160 155 72 81 45 33 98 55 155 206 72 86 57 145 125 115 85 19 84 110 71 71 57 106 78 83 116 120 110 94 142 148 103 131 115 120 115 110 75 85 133 109 119 111 150 79 63 84 17 107 107 135 117 97 62 91 91 52 127 130 100 132 181 90 141 112 86 136 82 100 78 92 115 119 88 126 181 99 88 149 72 36 126 115 119 93 80 97 124 48 66 140 88 72 40 92 101 73 79 79 107 57 132 80 86 182 96 70 126 86 134 134 108 107 120 121 123 72 84 74 105 133 112 74 118 73 79 105 209 81 161 60 154 146 108 124 77 94 117 68 83 176 146 119 101 118 173 28 165 140 140 105 122 94 90 112 87 121 170 75 86 91 66 169 84 79 129 92 99 158 94 52 137 75 131 143 94 84 83 114 102 112 91 70 178 98 112 71 125 102 138 90 135 63 102 66 66 91 69 85 129 77 115 79 111 177 65 57 111 75 193 124 125 143 92 120 119 97 59 118 153 108 106 141 123 102 104 94 156 95 107 87 86 92 109 96 100 116 150 98 137 144 174 96 96 109 82 132 108 179 35 173 75 45 59 163 114 87 85 106 144 50 114 138 65 121 78 119 108 139 82 158 151 100 73 159 130 97 91 159 88 133 119 55 148 123 126 160 109 61 95 100 150 67 126 38 169 114 137 136 155 75 38 84 120 48 85 154 60 92 97 141 138 151 118 174 111 129 102 81 132 150 94 111 61 121 99 54 157 123 81 68 93 84 98 102 79 69 148 74 82 97 157 57 166 109 105 62 143 141 149 59 83 84 138 75 49 90 156 54 108 150 111 87 166 56 116 123 88 112 79 61 55 67 83 47 74 89 78 111 116 105 171 90 99 88 96 50 125 52 54 103 92 143 138 84 69 105 99 86 103 140 90 80 87 86 155 69 101 106 67 49 102 126 78 87 125 118 66 132 125 152 97 170 35 88 88 187 80 49 94 123 121 103 91 68 152 34 118 60 48 102 127 120 100 110 79 117 133 153 138 80 97 100 160 99 38 113 63 133 98 170 142 57 77 91 100 44 135 72 97 82 96 86 46 46 146 70 46 100 153 136 42 123 111 111 85 74 115 72 127 50 144 83 77 90 40 92 86 100 106 109 107 152 138 100 89 101 111 121 103 134 110 82 133 116 133 128 84 99 104 78 96 106 91 63 85 60 87 98 50 106 122 96 73 112 81 146 66 96 104 37 149 152 150 81 78 202 165 129 72 147 84 117 41 141 54 82 74 132 76 74 113 78 132 123 107 142 113 101 153 70 53 143 128 142 31 129 127 64 204 109 105 110 117 119 182 158 127 111 67 150 124 110 130 68 88 168 90 82 146 40 61 83 111 61 109 116 119 92 36 147 76 99 145 49 178 22 79 79 125 76 106 91 91 74 134 70 75 114 106 50 136 141 56 94 80 70 139 109 192 119 66 181 66 186 158 128 99 102 137 89 81 64 39 141 52 122 142 113 151 92 92 86 113 122 90 105 100 157 93 56 95 78 124 96 147 90 106 129 133 62 127 51 67 108 41 74 118 38 128 112 122 16 123 132 87 144 88 151 94 100 127 90 67 145 34 131 123 46 42 134 78 51 36 109 88 74 164 178 43 124 107 130 147 167 116 91 102 96 49 98 151 186 129 64 79 28 143 110 95 76 112 81 65 136 111 63 114 92 91 47 151 180 87 100 52 81 71 132 111 111 76 74 189 99 79 71 120 86 143 115 98 83 60 107 72 95 93 136 83 43 80 170 133 110 91 96 97 119 110 86 88 72 96 117 57 111 69 109 90 161 111 127 124 131 89 87 144 86 119 59 171 155 71 54 142 53 82 99 107 32 163 134 129 94 86 126 144 38 106 90 138 98 106 140 67 96 105 64 149 90 140 99 73 78 80 158 147 94 90 94 107 73 83 61 99 108 96 69 142 55 90 144 98 113 96 119 113 86 149 117 178 100 89 73 74 32 101 119 125 119 93 87 87 116 84 103 123 48 157 154 127 61 88 147 58 88 69 74 159 112 99 23 89 79 146 115 73 91 102 138 144 70 71 126 122 122 100 106 94 71 131 85 132 82 85 93 103 68 114 137 136 151 224 56 120 96 136 69 97 103 52 136 94 85 99 149 104 119 114 123 56 75 85 99 67 78 75 81 85 83 91 67 148 134 106 106 101 148 102 78 143 92 71 113 77 150 65 60 39 77 144 113 111 96 140 88 115 152 116 88 96 35 84 78 117 94 199 93 106 82 82 83 140 63 82 125 165 114 95 116 83 134 42 62 138 88 84 150 89 68 64 171 138 131 156 65 160 153 98 77 121 140 87 92 119 124 95 140 92 72 98 127 114 85 119 127 97 89 67 98 119 100 56 79 97 100 115 143 93 134 75 90 128 75 103 106 83 88 119 93 127 138 85 127 135 130 97 148 148 68 99 111 132 153 60 113 148 142 163 42 131 75 147 65 124 114 141 80 86 180 127 140 132 162 73 75 253 68 114 63 108 82 146 90 106 95 141 110 14 100 60 127 98 136 79 63 180 141 139 104 114 80 90 111 127 138 75 56 146 93 117 70 112 18 131 140 110 90 126 61 84 60 109 225 127 83 98 124 37 86 43 86 190 116 63 92 106 120 104 53 93 95 149 98 170 63 202 53 134 102 132 109 57 190 103 161 46 58 117 71 100 90 111 101 128 80 128 41 64 165 103 132 92 164 103 86 97 58 125 64 80 92 37 45 133 91 74 97 106 95 67 72 136 91 139 71 75 103 106 175 159 153 71 134 174 117 102 95 78 140 104 116 76 104 121 93 85 156 101 124 58 166 86 111 129 93 102 158 82 112 101 162 169 167 85 64 86 71 121 135 161 110 131 70 109 74 108 78 95 125 183 86 52 139 64 117 129 107 130 88 141 102 70 112 87 91 107 130 55 55 93 165 61 128 113 124 98 104 172 57 66 105 100 134 125 79 95 115 209 93 76 99 90 133 159 104 87 104 106 89 157 99 126 126 141 148 76 97 122 156 84 166 131 153 77 46 111 130 137 97 143 96 113 80 100 79 132 84 148 133 73 80 99 100 162 83 180 73 84 135 100 90 103 101 100 116 76 85 121 102 109 105 47 158 110 155 92 91 104 146 73 155 149 123 179 48 142 185 105 138 74 60 139 153 87 119 71 68 82 134 98 146 80 55 157 100 88 77 34 107 97 100 140 70 130 122 87 51 61 26 143 55 77 66 106 47 102 51 161 110 124 94 59 18 166 65 85 80 78 100 117 111 89 75 33 64 121 72 72 136 48 109 106 76 74 116 107 206 111 155 92 155 129 128 94 105 86 185 109 51 106 219 145 153 159 111 89 117 146 171 125 97 53 101 129 92 95 132 93 106 54 151 85 49 115 121 130 115 82 162 88 159 114 87 157 170 94 113 97 116 152 80 79 96 115 52 202 125 180 120 114 127 52 85 66 85 78 119 116 171 113 63 137 129 93 84 108 72 87 57 97 119 83 133 97 183 123 44 110 47 145 77 75 147 93 76 97 100 98 111 91 157 91 66 99 59 81 156 154 70 108 85 103 72 84 131 93 73 133 123 118 93 87 91 99 134 91 79 108 70 100 53 86 143 84 93 119 98 146 82 78 100 160 71 88 73 108 126 38 23 126 158 93 81 123 95 156 12 105 120 156 128 106 81 118 149 101 94 87 56 155 137 122 65 139 89 87 154 103 127 157 155 11 97 108 94 57 72 125 145 82 93 103 93 86 106 102 112 132 168 192 80 159 171 95 72 164 155 79 122 98 145 98 66 97 106 147 91 76 110 134 62 105 151 96 114 100 99 98 116 161 146 110 212 108 86 98 87 120 112 120 86 161 169 100 135 79 47 143 90 87 133 66 99 108 164 100 68 77 80 101 50 96 60 99 86 54 100 108 90 41 104 69 98 82 71 32 139 132 64 73 117 150 55 162 75 83 62 100 93 92 153 107 42 63 65 97 117 36 121 53 119 105 164 114 144 177 152 49 90 76 182 62 79 80 116 143 220 97 68 178 159 93 182 135 53 105 114 44 168 112 72 143 163 86 124 131 84 84 167 53 61 175 87 132 93 85 141 77 99 86 182 91 97 48 101 154 66 99 61 106 94 113 69 84 127 74 173 44 111 104 73 112 74 138 117 99 62 95 157 129 112 116 57 71 99 83 56 97 99 38 96 108 99 90 49 136 138 97 94 139 98 83 181 87 104 103 109 150 93 51 65 112 128 145 110 176 90 127 113 137 107 126 137 120 155 120 117 190 114 41 86 209 92 67 96 68 126 88 184 103 83 177 80 98 88 97 79 133 104 71 87 81 205 121 148 65 86 162 70 120 138 92 102 102 116 69 109 105 55 121 142 139 96 94 110 107 144 60 72 134 172 93 47 102 96 119 79 103 98 173 130 105 133 75 128 100 126 99 112 132 129 100 50 129 181 86 96 78 48 97 121 84 145 78 106 152 235 146 145 91 80 86 119 101 91 90 68 99 123 156 81 150 78 132 123 122 89 98 95 100 91 40 94 133 120 182 104 167 80 113 119 96 84 105 84 139 89 162 114 115 97 116 75 85 97 89 60 65 118 59 73 121 84 97 102 103 61 98 57 74 70 88 83 166 84 161 96 126 122 200 121 78 119 99 137 94 90 108 107 79 59 135 114 116 76 161 151 84 103 146 152 139 132 60 78 95 121 125 73 62 99 114 99 72 110 65 131 106 68 93 99 208 114 109 165 87 59 107 98 112 71 142 56 157 167 26 57 78 121 109 96 98 147 90 77 112 68 94 85 96 127 102 107 87 140 56 125 97 131 85 141 82 88 135 57 107 111 127 85 111 160 98 152 55 55 128 141 92 94 112 46 104 129 97 91 99 215 187 104 79 152 126 48 99 123 105 100 93 83 129 105 113 73 158 133 143 110 113 107 80 91 59 139 123 96 94 142 87 99 172 91 90 24 123 73 90 117 106 81 129 134 94 61 99 124 141 165 92 140 97 46 48 61 36 89 50 155 170 67 135 104 86 83 134 73 148 115 134 97 150 61 57 86 52 46 107 173 111 89 60 83 81 165 102 99 183 139 116 80 80 77 83 104 54 81 159 130 79 81 86 27 78 148 67 125 76 134 134 56 122 55 138 84 140 134 78 115 75 94 97 122 125 110 129 55 75 98 94 130 112 96 98 66 173 137 86 159 129 71 181 124 139 49 67 135 111 142 157 107 115 74 83 101 67 94 158 84 102 150 87 95 103 69 68 108 113 77 143 72 101 120 93 98 101 91 125 129 167 60 183 136 89 49 92 96 157 83 96 123 105 107 107 141 109 93 37 176 152 91 119 91 152 76 73 121 54 88 140 168 161 115 131 28 107 149 119 154 74 170 87 93 113 89 86 87 55 130 62 74 56 114 143 36 173 111 94 42 71 73 103 53 95 75 85 30 96 72 81 108 161 94 83 107 101 50 133 91 115 67 116 21 18 119 101 121 80 161 170 143 80 178 92 136 113 79 123 120 91 188 60 60 161 84 94 78 117 72 90 57 114 104 86 172 66 87 117 129 150 78 162 176 78 149 53 124 116 123 87 104 110 140 76 101 112 115 103 127 82 123 143 72 183 83 113 125 93 82 45 125 121 80 126 101 66 93 97 68 113 130 95 141 85 157 141 72 183 133 127 65 73 55 59 94 74 132 142 140 165 109 124 109 110 167 101 115 94 58 109 108 116 103 87 91 98 157 79 48 149 130 88 91 75 75 184 130 164 156 105 193 111 126 95 96 173 104 78 87 158 81 87 87 72 69 106 64 76 74 90 103 104 67 132 104 82 122 103 104 123 109 111 28 109 52 110 159 59 153 59 103 91 73 91 100 56 96 127 191 53 84 113 99 130 116 100 80 130 90 107 107 81 196 103 77 141 148 114 91 114 51 82 113 131 65 107 116 121 84 112 108 64 116 152 123 133 80 144 179 116 83 109 53 138 118 40 79 152 122 144 127 156 105 166 153 79 73 73 95 131 87 133 112 105 92 79 140 79 94 72 108 124 70 139 122 123 37 53 147 81 65 90 158 86 114 134 93 86 173 80 41 81 130 137 56 94 103 110 115 115 110 91 153 120 112 92 121 51 161 128 155 60 30 75 70 160 120 96 63 51 92 118 110 112 41 136 43 84 134 124 103 72 81 119 102 45 133 102 23 104 124 112 161 163 73 150 148 91 109 143 152 154 104 130 98 91 56 141 145 120 169 94 121 101 98 162 102 132 132 130 132 115 95 123 65 159 91 44 40 93 92 144 82 110 115 110 88 85 74 83 86 130 91 89 17 97 114 51 102 177 78 71 104 81 116 123 195 49 81 56 157 109 132 65 106 67 145 125 51 152 124 100 166 118 98 127 114 65 169 138 86 148 141 111 49 93 87 115 138 54 132 71 99 106 180 69 147 123 104 133 119 87 75 106 175 63 89 131 176 83 102 47 65 69 82 125 66 135 70 116 96 134 130 79 168 150 130 106 52 188 87 77 120 91 123 104 46 163 112 96 106 79 85 109 106 165 136 95 105 95 132 98 97 136 87 153 70 59 152 109 159 110 38 128 78 111 73 159 102 28 107 120 101 35 146 157 100 115 76 169 118 95 102 109 101 76 119 159 156 100 139 123 95 105 91 145 145 86 123 115 115 103 191 137 95 143 112 87 73 156 112 116 173 98 98 82 100 84 52 137 138 49 169 62 88 115 174 76 105 113 20 108 117 103 102 167 240 85 109 72 123 133 119 102 175 48 158 124 58 127 123 69 48 89 110 90 78 42 75 207 50 131 71 46 78 105 140 121 148 105 160 129 119 91 17 140 112 80 72 90 89 110 124 96 93 118 106 130 75 83 87 93 128 115 67 175 115 105 123 89 31 76 149 79 105 115 119 68 110 92 89 117 71 107 137 105 142 163 66 36 55 169 94 80 121 117 80 101 81 47 89 73 61 72 31 85 84 49 117 191 80 121 104 72 118 121 87 139 98 123 83 77 80 84 134 112 138 138 81 147 115 111 44 80 72 123 117 44 156 48 203 114 82 56 75 53 49 122 144 61 111 79 105 135 96 73 104 94 120 93 70 170 58 121 116 112 107 152 113 122 101 108 107 125 168 121 81 141 45 102 105 131 121 78 135 48 106 123 127 81 206 119 117 95 99 84 143 131 104 117 100 126 152 79 106 123 88 138 52 76 112 104 41 133 115 147 53 151 109 78 105 93 76 111 81 94 122 119 151 87 140 70 105 71 147 108 77 80 138 33 113 69 87 126 120 111 99 76 83 38 56 83 97 98 158 61 72 99 113 93 113 86 55 152 63 76 111 61 172 98 100 103 144 120 64 74 118 136 73 178 106 99 109 130 130 124 159 83 85 124 136 103 41 101 161 162 73 142 141 162 115 83 118 142 98 143 80 48 109 39 48 103 141 108 149 114 108 165 188 102 105 81 42 160 112 103 118 123 110 117 124 145 137 118 86 89 70 143 96 54 82 89 148 155 121 41 103 156 120 118 148 148 93 145 75 108 53 123 142 87 95 74 144 110 112 128 120 106 108 86 166 154 159 91 116 162 77 105 158 132 100 101 71 180 68 49 71 118 137 168 139 155 147 133 119 126 79 133 202 65 108 140 106 81 68 88 108 82 115 111 81 68 130 109 184 83 200 120 112 104 142 74 156 97 58 85 125 99 77 105 57 76 124 100 48 121 121 128 83 154 77 64 115 117 116 93 120 61 80 101 172 124 73 8 125 96 134 85 99 74 131 93 76 113 114 75 79 89 112 43 114 37 47 72 89 96 151 84 127 140 129 39 75 77 103 80 134 83 73 133 84 108 188 120 108 35 159 103 108 55 88 149 130 78 101 63 118 68 51 109 23 132 106 72 76 88 50 93 89 106 80 94 97 146 115 84 104 50 68 96 160 30 74 118 44 77 93 166 76 143 66 84 93 101 115 117 113 122 80 151 118 178 97 81 64 61 84 93 52 50 72 130 141 80 89 114 96 110 153 158 111 103 87 48 130 128 105 55 61 53 83 74 116 50 61 91 47 72 126 83 149 88 113 118 136 125 65 104 182 85 149 90 54 50 118 154 95 99 120 114 121 131 185 105 197 121 167 138 54 143 86 50 100 102 122 45 159 65 174 101 87 104 114 78 95 104 216 94 140 82 140 50 131 74 176 104 133 150 93 61 76 139 127 132 183 123 107 105 102 96 69 44 129 78 119 156 107 76 78 121 111 41 126 79 96 102 72 91 80 78 143 179 105 53 114 109 99 191 105 112 98 93 123 105 119 136 87 72 149 101 57 96 89 56 145 116 135 121 89 142 205 163 82 46 66 82 122 42 101 68 68 94 99 87 67 149 93 86 118 133 124 122 89 109 105 115 54 151 80 53 88 72 108 147 77 120 179 106 104 177 134 127 138 186 148 113 92 86 90 82 45 78 14</t>
-  </si>
-  <si>
-    <t>GAM(0.33118586539996775, -1.8849921333936053e-28, 0.6158705473444456)</t>
-  </si>
-  <si>
-    <t>1 1 0 0 0 1 1 2 2 1 0 2 0 0 0 1 0 1 1 0 1 1 1 1 0 0 2 0 0 2 1 4 1 0 2 1 0 1 0 1 0 0 0 2 1 1 2 0 0 3 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 0 0 2 1 3 0 0 0 0 2 1 1 1 0 0 1 0 1 1 3 1 2 0 0 3 0 0 0 0 1 0 2 1 1 0 2 2 1 1 1 0 1 1 0 2 1 2 0 0 1 2 1 1 2 0 0 3 1 0 0 0 1 2 1 0 0 0 0 2 1 1 0 1 0 2 0 0 0 0 1 0 2 1 1 1 0 1 1 1 1 1 1 0 0 1 0 2 2 1 0 2 1 0 0 0 0 0 2 0 2 1 1 1 1 1 2 1 1 0 1 1 1 0 2 1 1 0 1 2 1 0 0 1 0 0 1 0 2 2 1 2 3 0 0 2 2 4 1 2 0 0 0 0 4 0 0 0 0 0 0 1 2 0 1 0 1 1 0 0 2 0 0 2 2 1 1 2 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 2 1 0 2 1 0 1 1 0 1 0 1 0 2 0 0 1 0 2 1 0 1 1 0 1 0 0 0 1 1 1 1 0 2 0 1 0 0 0 0 1 1 1 1 1 0 0 0 1 0 1 1 0 0 1 1 1 2 0 1 1 0 0 0 2 1 1 0 0 1 0 0 0 1 1 1 1 0 1 1 0 1 2 1 2 1 1 0 1 2 0 1 0 1 1 1 0 0 0 1 0 1 1 1 0 2 1 1 0 0 0 0 2 0 0 0 0 2 0 1 0 0 1 2 1 0 0 1 1 0 0 3 2 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 2 0 3 2 2 0 1 1 1 1 0 0 2 0 1 2 0 1 1 0 0 0 0 0 1 1 0 2 1 0 1 1 0 2 0 0 1 0 1 0 0 2 1 0 0 1 0 1 0 1 0 1 1 3 0 1 0 1 1 3 0 1 0 2 1 0 0 0 0 1 0 3 0 0 1 2 0 0 1 1 1 1 2 2 2 1 1 1 0 1 1 0 0 0 2 1 0 2 0 0 4 1 0 2 0 1 1 1 1 0 1 0 0 2 0 1 0 0 2 2 2 0 0 1 1 0 1 2 1 1 0 0 0 1 2 1 1 0 1 1 2 0 1 0 1 2 0 0 1 0 2 0 1 0 0 0 2 1 0 1 1 1 0 1 1 1 2 0 0 0 2 1 2 0 1 3 0 1 0 1 2 1 1 0 0 1 0 1 0 0 0 0 2 1 1 3 0 1 0 0 0 0 2 0 2 1 1 1 1 1 0 0 0 1 0 1 3 1 0 0 1 0 0 0 2 1 1 1 1 0 0 2 0 1 2 1 0 1 1 0 2 0 2 1 1 2 0 2 2 0 1 1 1 3 0 1 0 1 1 0 1 0 1 2 1 0 2 0 1 1 0 0 1 0 2 1 2 0 0 1 0 1 1 1 1 0 0 2 1 0 1 1 0 1 1 0 0 0 1 3 0 1 0 2 2 0 2 2 0 0 1 1 3 0 5 2 1 0 0 0 1 0 1 1 0 1 2 0 0 0 1 0 1 0 0 1 0 1 1 2 4 1 0 0 0 2 1 1 0 0 3 0 0 0 3 0 2 0 1 0 1 0 0 1 0 1 0 1 0 1 0 0 2 0 0 0 0 1 1 0 3 0 0 0 0 2 1 0 0 0 1 1 3 0 1 2 0 2 0 1 0 1 0 0 1 3 1 1 1 1 0 1 2 1 1 0 0 1 2 1 0 2 1 2 2 0 2 0 0 0 0 1 1 0 0 2 1 1 0 1 0 1 1 0 2 2 2 2 1 1 1 1 1 2 0 1 0 0 0 1 0 0 2 3 0 1 1 2 0 0 1 0 0 1 1 0 1 0 1 0 1 1 1 1 1 0 0 0 1 1 0 1 2 0 1 3 0 0 2 1 0 0 0 0 0 0 2 2 0 1 1 0 1 0 2 0 1 0 1 0 2 1 0 1 1 0 1 0 1 2 2 1 2 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 1 2 0 2 1 1 0 0 0 1 0 2 0 1 0 0 0 1 1 1 1 0 0 0 2 1 0 2 0 1 0 0 1 1 1 1 0 1 0 1 2 0 1 1 0 1 0 0 1 0 0 1 0 2 0 0 0 2 0 2 2 0 1 1 0 1 0 0 2 2 2 1 3 1 1 1 0 1 1 1 1 2 0 0 0 1 1 0 0 0 1 3 3 2 1 1 0 0 1 1 1 1 0 2 1 1 1 0 2 1 2 0 1 2 2 1 0 1 0 0 1 1 1 2 1 1 0 0 1 1 1 1 1 1 2 1 1 0 0 1 0 0 0 2 2 3 0 3 1 0 1 2 0 2 0 0 0 0 0 1 0 0 1 0 2 2 0 0 0 2 2 0 1 0 1 1 3 1 0 1 0 1 0 1 1 0 0 1 0 2 0 2 0 0 1 2 1 0 1 0 0 0 1 3 1 0 0 1 1 3 3 0 0 0 2 0 2 1 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 3 0 3 2 1 0 1 1 3 0 1 1 1 2 0 0 0 0 1 1 1 0 0 0 1 1 1 0 1 1 1 1 3 1 0 0 3 1 1 0 0 1 0 1 2 1 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 1 3 1 0 2 2 0 1 0 0 0 1 0 1 2 1 1 1 1 0 3 0 0 0 2 0 1 0 0 0 0 2 0 0 0 1 1 3 1 0 4 0 0 1 1 0 0 2 3 1 0 2 1 0 1 1 2 1 1 0 2 0 1 0 1 2 1 0 1 0 2 0 4 0 0 0 1 1 0 0 1 0 1 0 1 2 0 2 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 2 1 1 0 1 1 3 1 1 1 0 3 2 2 3 1 0 0 0 0 1 0 1 1 0 1 1 1 2 1 0 0 2 1 0 1 0 1 2 1 0 1 1 0 0 1 0 0 1 0 1 1 1 1 1 1 0 0 1 1 0 2 1 1 0 0 1 1 0 0 1 0 0 1 0 0 1 1 1 1 0 0 3 1 2 1 2 0 0 1 0 0 0 1 0 0 0 1 0 0 1 3 1 0 2 0 2 1 0 1 3 1 1 4 0 0 1 0 0 0 0 0 1 3 1 0 0 0 0 1 0 2 0 0 1 0 1 0 1 0 0 3 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 3 0 1 1 1 0 0 0 0 2 0 0 1 1 0 0 2 0 2 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 2 1 0 2 0 1 1 1 1 0 1 0 3 1 2 1 0 2 0 0 1 1 1 1 1 0 1 0 1 2 1 0 2 0 0 1 0 0 1 1 0 0 2 1 1 1 2 2 1 0 1 0 4 0 1 2 1 0 0 2 1 0 1 0 0 0 2 1 0 0 2 1 0 1 1 0 0 0 2 0 0 1 0 1 0 2 0 0 0 1 0 1 0 2 0 1 2 0 1 0 0 1 0 0 4 0 2 0 0 0 2 1 0 2 0 2 3 1 1 1 2 3 2 0 0 0 2 1 1 3 0 1 0 0 2 1 0 2 0 2 0 0 1 0 1 2 2 0 1 0 0 0 0 1 2 1 1 0 2 0 1 1 1 2 0 1 3 1 0 2 1 1 1 0 2 2 1 1 0 1 0 0 0 1 0 0 3 0 2 1 1 1 1 1 2 0 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 3 2 2 0 1 1 1 0 2 1 0 1 2 2 4 1 3 0 0 0 1 0 1 0 0 0 2 0 0 2 1 0 1 2 1 2 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 2 2 1 2 2 0 0 1 1 1 1 0 1 0 2 2 1 2 0 2 3 0 3 1 0 0 1 1 1 1 2 0 0 0 1 2 0 1 0 1 1 0 1 0 0 1 1 1 2 1 0 2 1 1 0 0 0 2 1 1 2 2 1 1 0 2 1 1 1 0 0 0 0 1 0 0 1 0 0 3 0 0 0 0 1 0 0 1 2 0 2 1 0 0 1 1 0 0 0 2 1 0 1 1 0 1 1 1 1 1 2 0 0 0 1 0 0 1 2 0 2 0 1 0 1 2 2 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0 1 0 2 3 1 0 2 0 1 3 0 0 0 2 1 3 2 1 0 2 0 2 1 0 2 0 0 0 1 0 1 3 0 0 0 0 1 1 0 0 0 0 3 0 0 1 2 0 0 1 1 0 0 1 1 1 0 1 1 0 0 1 0 3 0 1 0 1 2 2 1 1 1 1 1 0 0 1 0 0 1 2 0 0 1 0 1 2 0 2 1 0 1 2 3 1 1 1 1 2 1 0 0 0 2 1 0 0 0 3 2 1 1 1 1 0 2 0 0 2 0 1 0 1 2 1 1 1 0 1 1 0 1 0 1 1 0 2 0 1 0 2 0 1 1 0 1 3 0 2 0 3 2 0 0 1 0 1 1 1 0 4 0 1 2 0 2 2 1 0 3 0 2 0 1 0 1 1 1 1 2 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 2 1 2 1 0 2 0 1 1 0 2 1 1 1 1 1 0 2 0 0 2 2 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 2 2 0 2 3 3 0 0 2 0 0 1 0 2 0 0 0 1 0 0 0 1 1 1 2 2 1 1 1 1 0 2 1 3 1 0 0 0 1 2 1 0 2 1 3 1 3 1 2 1 2 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 3 0 1 1 0 2 0 1 0 2 1 2 1 1 0 0 2 2 0 1 0 0 0 0 0 0 2 0 0 0 1 1 2 2 2 0 2 0 0 1 2 1 2 0 0 1 2 1 0 0 1 2 0 3 1 1 1 0 1 1 0 1 0 0 2 2 1 3 1 1 0 1 2 1 0 0 0 1 1 1 1 2 1 0 0 1 0 0 1 0 2 1 0 1 1 0 2 2 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 1 1 2 0 0 0 1 1 2 1 1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 0 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 1 0 1 1 1 0 1 2 2 0 0 2 1 2 0 2 0 1 2 2 0 1 1 0 0 1 0 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 0 2 0 0 0 1 1 1 0 1 0 2 0 0 2 1 2 2 2 1 1 2 0 1 1 2 0 0 1 0 2 2 0 2 2 0 1 1 1 0 1 2 2 0 0 1 0 1 0 0 0 1 1 2 2 3 0 1 1 0 1 1 2 0 1 1 1 3 1 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 1 1 2 0 1 2 1 1 0 1 1 1 1 0 1 1 1 2 2 1 1 0 1 0 0 1 0 1 0 4 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 3 0 0 4 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 1 1 2 0 1 1 0 1 1 1 3 0 2 2 1 0 0 2 1 2 0 1 2 1 3 3 3 1 0 0 1 1 3 1 0 0 1 0 0 1 0 1 0 0 0 2 0 0 0 1 0 2 0 3 0 1 2 1 0 1 1 1 1 1 0 4 0 1 3 1 1 0 0 2 1 1 2 0 0 0 2 1 2 1 1 1 0 0 1 1 1 1 0 1 1 2 1 0 0 1 0 1 0 2 0 0 1 0 1 2 2 0 1 2 1 0 0 1 1 0 1 3 0 3 2 0 0 1 0 0 2 0 0 0 1 2 0 1 1 1 0 0 3 2 2 0 3 1 2 2 3 1 2 0 0 1 0 1 2 1 0 1 0 3 0 2 1 0 2 1 1 1 0 1 1 1 2 2 1 1 1 0 1 1 1 0 1 4 1 2 0 1 4 1 0 0 1 1 1 2 1 1 1 1 1 0 1 2 0 1 1 2 2 0 2 2 0 1 0 0 1 2 1 0 1 1 1 0 1 1 1 1 1 1 0 2 1 0 0 3 0 0 0 0 0 1 2 1 2 0 1 2 2 1 0 5 1 1 1 2 1 1 1 1 1 0 0 0 0 1 0 1 1 0 0 1 2 3 0 0 2 2 3 1 0 1 0 1 0 3 1 0 0 0 2 2 2 0 0 0 0 0 2 2 3 1 0 0 1 3 2 1 0 1 1 1 2 0 1 0 0 0 0 0 0 1 2 2 1 0 0 2 1 0 0 2 0 0 2 1 3 0 1 3 2 0 0 0 2 0 0 0 0 1 1 0 0 0 1 0 1 0 0 2 1 1 1 1 0 0 1 0 2 2 1 0 0 2 1 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 2 0 1 2 1 3 0 1 0 2 1 0 1 0 1 1 0 0 0 1 2 2 0 1 0 1 0 2 0 1 2 0 1 2 1 1 1 0 1 1 1 0 3 0 2 1 1 0 1 0 0 1 1 2 1 1 0 1 3 1 1 1 1 3 3 0 2 0 2 1 1 0 1 0 1 1 0 1 1 0 0 0 0 2 1 1 1 0 0 1 2 0 0 2 2 2 2 0 0 0 0 1 0 2 1 0 2 0 0 1 0 0 1 0 0 1 1 2 0 0 3 2 0 1 2 0 3 0 0 1 1 0 0 2 2 0 0 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 1 2 2 0 2 0 1 1 1 0 1 2 1 1 2 0 1 0 0 1 1 1 1 2 0 0 2 3 1 1 0 1 0 0 1 2 0 5 0 3 0 1 1 0 0 1 0 0 2 1 1 1 0 0 1 1 0 2 0 0 2 0 0 2 1 0 1 1 0 0 2 0 0 1 1 2 0 0 1 0 0 0 2 1 1 2 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 1 0 1 2 0 1 2 0 1 0 1 1 2 0 0 0 1 2 1 2 0 2 2 0 0 2 2 2 2 0 0 0 1 0 1 0 2 0 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 0 2 1 0 1 3 0 0 2 0 0 1 1 2 1 0 1 0 1 2 1 0 2 1 0 0 2 0 1 1 1 1 0 1 3 2 3 2 2 1 0 0 1 2 1 0 1 1 1 0 0 1 1 3 3 1 0 2 1 3 1 0 4 1 2 0 2 0 3 1 0 2 1 1 3 0 2 0 1 0 2 0 0 0 1 0 1 4 0 0 1 0 2 1 1 1 1 4 3 0 1 1 2 0 1 1 2 0 0 2 1 0 0 0 2 3 1 1 0 0 1 0 2 0 0 1 0 1 1 2 0 5 1 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 1 2 0 2 0 0 2 0 2 1 0 1 0 1 1 2 0 0 1 1 0 0 2 1 2 0 1 0 1 2 2 0 1 0 1 2 1 0 0 1 0 1 0 1 0 2 0 0 1 1 2 0 0 2 1 0 2 0 1 0 0 1 2 2 1 0 1 0 0 1 2 0 1 0 1 0 0 0 1 1 3 3 1 1 0 1 2 1 0 0 1 2 0 0 0 1 0 0 2 0 0 0 0 3 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 3 1 2 0 0 0 0 0 0 1 2 1 0 0 0 0 0 1 1 0 0 0 3 1 0 0 2 0 1 0 0 2 2 3 0 0 0 2 1 1 2 1 1 1 1 3 2 0 1 0 0 2 1 1 0 0 1 0 1 1 0 0 1 1 0 0 1 0 1 1 0 1 3 0 1 0 4 0 0 2 0 0 0 0 2 3 0 0 0 2 0 0 1 1 0 1 1 2 2 2 2 4 0 1 0 1 0 2 0 1 0 3 0 1 0 0 1 1 1 1 1 3 1 3 1 3 0 2 1 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 2 1 0 1 0 0 0 1 1 3 0 0 0 1 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 0 0 2 1 0 1 0 0 0 2 2 0 0 1 0 1 1 1 0 0 1 1 1 0 0 0 1 1 2 3 1 2 1 1 0 1 2 0 0 2 2 1 1 1 0 1 0 0 1 0 1 0 2 1 1 1 2 1 0 1 1 1 1 1 0 1 1 1 2 0 0 1 0 1 2 0 1 1 0 2 2 3 0 1 4 1 2 0 0 0 0 1 0 0 0 0 0 2 0 0 0 3 0 1 0 1 1 0 2 1 0 1 1 0 0 1 0 1 0 0 0 2 1 2 2 0 0 0 0 1 0 0 1 2 0 0 1 1 0 0 0 0 0 2 0 2 1 0 1 0 0 0 0 0 0 1 2 0 1 1 1 2 0 1 1 0 2 0 0 0 2 0 2 1 1 0 1 0 0 3 2 2 1 0 0 1 0 2 1 0 2 1 0 0 1 2 2 1 0 1 0 0 1 0 3 0 0 1 0 1 0 1 1 1 1 1 1 2 0 1 1 2 0 2 0 0 0 1 1 1 0 2 0 1 1 2 0 1 1 0 0 1 0 1 0 2 0 1 1 1 0 3 1 1 0 1 1 1 0 2 1 1 0 0 0 0 1 1 0 1 1 1 2 3 0 2 2 1 0 0 1 0 0 1 3 1 1 1 1 3 0 2 0 0 2 2 1 1 0 1 1 2 1 2 2 0 0 1 0 0 0 0 1 1 0 0 3 1 1 0 1 2 0 1 1 2 1 1 1 1 1 1 0 1 0 1 0 1 2 1 1 1 0 2 0 0 1 2 0 1 2 3 1 1 2 1 2 2 1 0 3 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 3 2 1 0 0 2 2 1 1 2 2 2 2 3 0 1 2 0 2 0 1 1 3 0 1 0 1 1 0 0 0 3 2 0 0 1 0 1 2 1 0 1 1 0 1 0 0 1 2 1 3 1 1 1 1 0 2 1 1 0 0 0 1 0 1 0 0 0 0 2 2 1 1 0 2 0 1 1 0 1 2 3 0 0 1 0 0 0 0 0 1 1 0 0 0 2 1 0 2 4 1 1 1 1 0 2 0 0 0 1 1 3 1 3 1 0 1 1 1 0 1 1 3 0 0 1 2 1 0 2 1 2 0 2 0 0 0 2 2 1 0 2 2 1 1 0 2 1 1 1 0 2 1 0 1 1 1 1 2 0 1 1 1 0 1 0 2 1 0 1 0 2 1 0 0 1 1 1 0 3 0 0 1 0 0 3 0 0 0 1 0 1 2 1 1 0 1 0 0 0 0 1 2 1 0 2 0 0 0 1 0 2 1 1 2 2 0 1 1 1 2 1 1 2 1 1 1 1 0 1 0 1 0 0 1 2 3 0 1 0 1 1 0 1 0 0 2 0 1 0 1 0 3 1 1 1 0 1 1 2 1 1 0 0 2 1 2 0 1 2 0 1 2 0 1 0 1 0 1 1 1 1 4 1 0 0 2 0 0 1 0 0 0 1 0 0 0 2 1 0 0 1 1 1 0 1 0 1 1 0 2 1 1 0 2 1 0 1 2 1 1 3 0 2 0 1 1 2 1 0 2 1 2 1 2 0 1 0 0 1 1 1 0 1 2 0 1 1 1 2 0 1 0 1 1 2 2 0 1 2 0 2 1 1 2 0 0 1 0 1 0 0 1 0 3 0 0 2 0 0 2 1 0 0 1 0 3 0 0 0 0 0 2 2 0 1 0 1 1 2 1 0 1 0 0 2 0 0 0 1 0 0 0 1 1 2 0 0 2 0 1 0 0 1 3 2 0 1 0 1 1 0 1 0 0 0 0 0 0 1 3 0 0 1 2 3 0 0 2 0 1 1 0 3 0 0 1 0 0 0 1 0 2 1 1 3 0 1 0 1 1 1 0 0 1 0 1 1 1 0 1 1 0 1 0 1 2 0 1 2 0 0 2 1 0 1 0 0 1 2 2 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 2 0 0 0 1 1 1 1 1 0 2 2 4 0 0 0 1 0 1 1 0 0 2 0 0 0 1 2 1 1 1 3 2 0 0 2 0 3 1 0 1 0 0 0 1 0 0 1 1 2 0 1 0 1 0 1 1 1 1 3 1 0 1 0 2 0 2 1 0 0 1 1 2 1 1 1 0 0 1 0 1 2 0 0 1 0 3 0 1 0 1 0 0 1 1 1 1 0 1 2 0 3 0 1 0 1 2 0 2 0 1 1 1 0 0 0 2 0 1 2 1 0 0 1 0 2 2 1 0 0 2 0 0 2 0 0 0 1 0 1 0 1 0 0 1 1 2 1 2 0 1 2 0 0 2 1 0 1 1 1 1 0 0 2 0 0 2 1 2 0 2 2 0 0 0 2 1 1 2 1 0 1 2 0 0 1 1 1 1 0 0 0 0 2 0 0 3 0 1 0 1 3 0 0 1 0 0 0 0 2 0 1 0 1 1 2 1 1 2 0 3 0 1 0 2 2 1 0 0 1 2 4 0 0 2 1 0 0 2 0 1 3 0 2 2 1 0 1 2 0 2 1 0 0 1 2 0 0 1 1 0 0 1 0 0 0 0 0 0 2 0 0 2 1 0 0 0 0 0 2 1 1 2 1 1 1 1 0 1 0 0 0 1 1 4 3 0 0 0 0 1 0 1 1 0 0 0 0 1 0 4 0 1 0 0 1 1 2 0 0 1 2 0 0 0 2 1 1 0 0 1 1 1 2 1 0 0 0 0 1 0 1 0 2 0 0 2 1 1 1 1 2 0 0 2 0 2 2 1 0 0 0 2 4 0 1 0 1 0 1 1 0 0 1 1 1 2 1 1 1 1 2 0 1 1 0 0 1 0 1 1 2 1 2 1 3 1 1 1 1 1 2 0 0 1 0 0 1 0 0 0 0 2 0 1 3 1 0 0 0 1 1 2 0 3 0 0 1 0 1 0 0 0 0 1 2 0 3 0 2 0 0 2 1 3 0 1 0 3 0 1 0 0 3 2 0 0 1 1 2 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1 1 1 0 0 1 0 2 0 0 3 1 1 1 2 2 1 1 0 0 0 1 0 0 0 1 1 1 0 1 1 1 1 0 0 0 3 0 1 1 1 2 2 2 0 2 1 0 1 1 0 2 0 0 1 0 0 0 2 1 0 1 1 1 4 1 0 0 1 0 1 0 0 2 0 1 1 0 1 1 1 1 1 0 0 2 2 0 0 0 0 0 0 0 0 2 0 2 0 0 0 1 2 2 1 1 1 0 2 1 3 0 0 2 1 1 1 1 1 0 0 0 2 2 0 2 0 1 2 0 2 1 1 0 3 1 1 1 1 1 0 0 3 1 0 1 2 0 1 2 1 0 0 0 0 0 1 1 1 0 2 0 2 2 0 0 0 0 2 0 0 1 1 1 2 1 0 1 2 0 1 0 2 0 2 1 1 0 1 1 0 1 2 0 0 1 3 1 1 0 1 0 4 0 0 1 1 2 2 1 0 0 1 1 3 0 1 1 1 1 0 1 3 2 1 0 0 1 2 0 0 0 1 0 1 0 1 1 3 1 1 0 2 1 2 0 0 1 1 1 2 1 1 1 0 2 0 0 3 0 1 1 0 1 1 1 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 3 2 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 2 1 2 2 1 1 1 0 0 1 0 1 1 2 2 2 1 1 0 1 1 1 0 0 2 2 0 0 0 0 1 0 0 0 2 0 2 2 1 1 0 0 0 0 1 2 0 1 0 1 1 0 1 0 1 0 3 0 1 0 2 2 0 1 0 2 2 0 1 1 2 2 1 2 0 2 0 0 1 1 0 2 1 1 2 0 1 0 0 0 2 2 0 1 1 1 2 0 0 0 0 0 2 1 1 0 1 1 1 2 1 0 1 0 0 3 0 0 1 0 0 0 0 0 2 1 2 3 1 2 2 1 0 0 1 2 1 0 3 1 2 0 1 1 2 0 1 1 1 0 0 1 1 0 0 2 1 1 1 1 1 2 0 1 1 0 1 1 2 1 0 0 0 1 2 1 1 1 2 1 1 0 1 0 1 0 0 1 0 1 1 1 2 0 1 2 0 2 0 2 0 1 1 1 0 0 0 3 1 0 0 0 0 1 1 2 2 0 2 1 2 1 0 3 1 0 0 0 2 0 0 0 1 1 0 0 0 1 1 2 1 0 1 4 0 1 0 1 0 0 0 2 0 1 2 0 2 1 0 0 1 1 0 0 0 3 1 1 1 1 2 0 0 3 0 2 2 1 0 1 1 0 0 0 1 0 2 2 1 0 0 1 0 0 3 1 0 0 2 0 1 0 0 2 0 0 0 1 1 4 0 0 0 0 1 0 1 1 1 1 0 0 1 1 0 1 0 0 1 1 0 1 2 0 0 0 4 0 3 1 2 0 0 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 0 1 3 0 1 2 0 0 0 1 1 1 0 1 1 3 0 0 1 1 0 1 0 1 0 0 1 2 1 2 0 0 3 1 0 2 1 1 0 0 1 1 0 1 2 1 1 2 0 0 2 0 2 0 1 1 0 0 2 0 1 0 1 1 0 0 2 2 1 1 1 1 1 2 1 0 0 2 0 0 0 0 0 1 1 1 0 2 0 1 0 0 0 1 1 0 2 1 0 1 0 0 0 3 0 1 0 1 0 0 0 1 0 0 0 1 2 0 1 2 0 2 1 0 0 1 1 1 1 0 2 0 0 0 1 1 1 1 2 0 0 0 2 3 0 0 2 1 0 1 1 1 0 0 1 2 0 0 1 0 0 1 0 0 3 0 0 0 1 0 1 0 2 0 2 0 1 0 1 2 1 1 3 0 1 1 1 0 0 0 1 0 0 1 2 1 0 0 2 0 1 0 0 1 2 1 2 2 0 2 2 0 2 1 0 2 1 0 1 1 3 1 1 0 0 1 2 0 1 1 1 0 1 0 1 2 0 0 1 0 0 1 1 0 0 0 2 0 1 1 2 2 0 1 2 1 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 2 1 1 0 1 1 1 1 3 0 3 0 1 2 1 0 0 1 0 0 2 1 0 2 0 1 2 0 0 1 1 0 3 1 0 0 0 0 1 0 3 1 2 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 2 0 2 1 1 1 1 0 2 1 2 2 0 0 2 1 0 1 0 0 2 1 0 0 2 1 1 2 2 0 1 0 2 0 0 0 1 2 0 2 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 2 1 1 0 3 2 2 0 1 1 1 2 1 0 1 1 3 1 1 1 0 1 1 0 1 0 1 0 0 1 2 1 0 1 0 0 1 1 0 0 0 1 1 0 1 0 2 1 2 1 1 1 2 0 1 1 0 0 0 4 0 0 1 1 2 1 1 0 0 0 1 1 0 1 0 2 1 1 0 0 0 3 0 1 2 1 0 1 0 3 3 1 0 1 1 2 2 1 0 0 1 0 2 0 0 0 0 0 0 1 2 0 1 0 1 1 1 1 0 1 2 1 1 0 1 1 0 1 1 1 2 2 1 0 3 2 0 1 3 2 1 0 0 1 2 0 2 0 2 1 0 0 1 1 0 1 1 1 0 0 0 1 2 1 3 2 0 0 0 2 1 0 1 2 0 1 1 1 3 0 2 1 1 0 2 0 0 1 1 0 1 2 1 1 1 0 0 0 2 0 0 1 1 0 2 0 0 0 1 1 0 1 0 1 1 0 3 2 1 1 0 1 1 1 0 0 0 0 1 1 1 0 2 2 0 2 3 0 1 1 0 1 0 0 1 2 0 2 1 0 0 1 0 0 0 0 1 1 0 1 2 0 0 0 1 0 2 1 0 0 2 1 0 4 1 0 2 0 0 2 0 1 0 0 2 1 1 1 0 0 1 0 0 1 3 0 0 2 0 1 0 1 0 0 0 1 1 0 3 0 2 0 0 2 0 1 0 0 0 0 1 1 2 0 0 0 2 1 0 0 0 2 3 2 1 1 0 2 1 1 0 5 1 1 0 2 0 1 1 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 0 2 0 0 0 2 1 3 3 1 0 0 1 1 0 1 1 0 0 1 0 0 0 2 2 1 0 1 0 0 1 2 0 0 0 1 2 0 0 0 0 2 0 0 1 2 0 2 0 3 1 1 0 3 2 1 0 0 2 1 0 0 1 0 2 0 1 1 0 1 0 1 1 0 0 1 0 0 1 2 0 0 0 2 0 0 1 1 0 0 0 1 0 1 2 0 1 2 0 0 1 1 2 0 2 0 0 2 1 2 1 1 0 1 1 2 1 0 1 0 1 1 0 1 0 2 0 1 0 0 2 2 0 1 0 1 0 0 0 1 2 1 1 0 0 0 1 1 1 0 1 0 3 1 1 1 0 1 0 2 0 0 2 0 2 3 1 0 1 0 1 0 1 1 2 1 3 0 0 1 0 0 0 2 0 2 3 3 0 1 0 2 1 1 0 1 0 0 1 0 1 1 1 2 3 0 1 1 2 1 0 0 0 1 0 1 0 1 1 0 1 0 1 2 0 2 1 2 0 2 1 0 2 0 0 1 1 3 0 0 0 0 1 1 1 2 0 0 1 0 2 0 1 0 0 1 1 2 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 1 0 0 2 1 0 1 0 0 1 2 1 1 2 0 2 1 1 2 1 0 0 1 1 1 0 2 1 1 1 0 1 0 0 1 0 1 0 3 1 0 1 2 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 1 0 1 0 2 0 2 1 1 0 1 2 2 0 2 0 1 1 0 1 0 0 1 0 2 1 1 3 0 2 1 0 2 0 0 0 2 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 1 3 1 0 0 1 1 0 0 3 0 1 0 0 0 2 0 1 1 2 0 2 0 1 0 0 2 0 3 2 0 1 0 1 1 1 2 0 0 0 0 2 0 2 0 1 0 0 0 0 1 0 0 1 0 0 0 2 3 0 0 2 0 1 0 2 1 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 1 1 0 2 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 2 0 1 1 0 1 1 1 0 0 0 1 0 1 1 0 2 2 1 2 0 1 2 0 0 0 1 0 1 0 1 0 0 2 0 2 1 1 1 0 1 0 0 0 2 1 1 0 1 0 0 0 0 0 0 1 0 0 2 2 0 0 1 1 0 1 0 1 2 0 1 0 1 2 0 0 3 0 1 1 1 2 0 3 3 1 1 2 0 2 2 0 0 0 3 1 2 1 2 2 0 0 0 0 0 1 1 2 1 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 3 0 1 0 0 2 0 1 0 1 0 2 0 2 0 1 2 0 1 1 0 0 0 1 1 0 2 1 0 1 1 1 1 1 1 0 1 0 2 1 0 0 1 1 2 0 1 2 1 1 3 1 0 2 1 2 3 1 0 1 2 0 2 3 1 0 0 1 0 1 0 0 1 0 1 0 2 0 2 0 1 0 0 2 0 0 0 0 1 1 2 1 2 0 0 0 2 0 0 1 1 2 0 0 0 0 1 2 2 0 0 2 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 1 2 1 3 0 0 2 0 3 1 0 0 0 1 2 0 2 0 2 0 0 0 2 0 1 2 3 2 2 1 0 0 1 0 0 1 0 1 0 1 2 0 1 1 2 0 1 0 1 1 0 0 0 2 1 1 0 1 1 0 1 1 2 2 2 0 1 0 0 0 0 0 1 0 2 1 1 1 0 0 1 1 0 1 1 0 3 0 0 1 0 1 2 3 0 1 0 1 0 1 2 1 1 0 4 2 0 1 0 0 2 0 2 1 0 1 2 1 1 1 2 2 1 0 2 0 1 1 0 2 2 0 0 0 0 1 1 1 0 0 2 1 1 2 2 1 1 0 2 1 1 3 1 0 1 0 0 0 1 2 1 1 2 0 0 2 1 0 0 1 0 0 1 1 1 2 0 2 1 2 0 1 0 0 1 1 0 1 2 2 2 1 1 2 0 1 1 0 1 2 1 1 1 1 0 0 0 0 0 0 0 1 2 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 2 0 0 3 2 1 2 2 2 2 0 0 0 1 3 0 0 1 1 0 0 0 1 0 1 1 0 1 2 0 3 1 0 0 1 0 0 1 0 0 0 0 2 0 0 1 1 0 3 0 1 2 1 1 0 0 0 1 0 1 0 2 0 2 0 0 0 2 2 1 0 1 1 0 0 2 3 1 1 1 0 1 0 0 0 1 0 1 1 1 1 1 1 2 2 2 1 0 0 2 0 2 2 0 0 1 1 1 0 2 1 2 1 1 2 1 0 2 0 0 0 0 2 1 0 2 0 0 0 2 0 1 2 1 1 3 0 0 0 0 0 0 1 2 1 0 1 0 1 1 1 1 1 1 0 0 1 1 2 0 1 3 1 1 1 0 0 1 1 1 1 0 0 1 0 1 0 4 1 0 2 1 2 0 0 1 0 1 0 0 0 0 1 1 0 2 1 1 1 2 2 3 1 1 1 1 1 0 0 0 1 0 1 1 2 1 0 3 0 0 0 1 0 3 2 0 1 0 0 0 0 0 1 2 1 1 2 0 1 0 1 1 1 1 1 1 0 1 0 0 1 3 1 0 0 0 0 1 1 3 1 0 2 1 0 1 0 2 1 0 2 0 1 2 0 2 1 0 0 3 1 2 1 1 0 0 0 1 0 0 1 1 2 1 1 0 1 0 0 2 2 2 1 0 1 3 0 0 0 1 0 1 1 0 1 0 0 1 1 1 1 1 2 2 1 1 0 0 1 0 2 0 0 1 2 0 1 0 1 1 2 0 0 0 1 0 1 1 1 2 1 0 0 0 0 2 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1 0 0 2 1 2 0 0 0 2 0 0 2 2 0 2 1 4 0 0 0 1 1 1 2 1 2 1 0 0 1 1 1 1 1 1 2 0 0 0 0 0 0 0 0 1 0 0 1 0 3 1 0 2 0 1 0 0 1 1 0 0 1 2 2 1 0 0 0 0 3 0 0 1 1 1 1 0 1 2 1 0 1 0 0 0 1 1 0 4 0 0 0 2 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 2 0 0 0 1 0 0 2 2 1 1 0 1 1 0 4 1 1 2 1 1 0 0 1 2 0 0 2 0 3 0 2 1 0 2 1 2 0 0 1 0 0 1 2 0 0 1 0 0 1 0 0 2 0 1 1 2 1 1 0 1 1 2 0 2 1 2 0 1 2 0 1 0 1 1 0 0 1 3 1 0 1 0 2 0 1 0 1 2 1 1 0 1 0 1 0 1 1 1 2 0 1 0 1 0 3 0 1 0 3 2 0 1 2 0 0 1 2 0 0 1 2 2 3 0 2 1 1 1 2 1 0 0 1 0 0 0 2 2 1 0 0 2 0 1 0 1 2 1 0 0 2 0 1 1 0 1 2 0 2 0 0 1 0 1 0 1 0 1 2 1 1 0 1 2 0 0 1 1 2 1 1 1 3 0 1 0 0 0 2 0 0 2 1 1 0 1 1 2 2 0 0 1 0 0 0 1 0 0 1 1 0 2 0 0 0 1 0 0 0 1 0 0 2 0 0 0 1 2 1 1 1 1 1 2 0 1 1 0 1 0 1 2 3 1 2 1 0 1 1 0 0 0 1 1 0 0 1 0 1 3 2 1 1 1 0 1 0 1 2 0 1 1 1 1 0 1 1 0 1 1 0 0 0 1 2 2 0 3 3 0 2 2 1 1 0 0 0 1 1 0 2 1 0 1 1 0 2 1 0 0 3 2 1 1 1 0 1 1 2 0 1 2 1 0 0 1 1 1 0 0 4 1 2 1 0 0 0 0 1 0 2 1 1 1 0 1 1 1 0 1 0 1 2 0 1 1 2 2 1 0 0 2 1 0 0 1 1 1 3 2 0 1 1 0 0 1 0 2 1 2 1 0 0 0 0 0 0 1 1 0 1 0 2 2 1 0 0 1 0 0 1 3 2 0 0 2 0 3 0 1 4 0 3 2 0 0 1 0 0 1 2 3 0 0 0 1 0 1 1 0 0 1 3 1 0 1 2 0 2 0 0 1 1 1 1 1 1 2 1 1 1 1 1 3 0 0 0 0 0 0 0 4 1 0 1 2 0 1 1 0 1 3 0 2 2 0 2 0 0 1 1 1 1 0 1 0 0 1 0 0 1 1 0 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 1 0 0 1 2 0 1 0 4 0 2 1 1 0 0 0 1 1 1 0 0 1 0 1 1 1 1 0 2 0 1 1 0 0 0 0 3 0 0 1 0 0 2 1 0 0 0 0 1 2 0 0 1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 0 1 3 1 1 1 0 0 1 1 1 0 1 1 0 1 0 1 1 1 0 0 0 2 0 1 1 0 1 0 0 1 0 1 0 1 0 0 2 0 0 2 1 1 0 2 0 0 2 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 1 1 0 1 0 0 1 0 1 2 1 0 1 0 0 2 2 1 1 2 0 2 0 0 3 2 2 3 2 0 2 1 1 0 1 2 1 0 1 0 0 1 1 0 1 1 1 1 1 3 1 0 1 2 2 0 0 2 0 1 1 1 1 1 0 0 0 0 0 1 0 0 1 1 1 1 2 0 1 2 1 2 0 1 0 1 2 0 2 0 1 0 1 2 0 1 2 0 0 1 1 0 1 1 0 1 2 0 1 1 0 0 0 1 1 0 0 1 1 2 2 0 1 1 1 1 1 3 0 0 1 0 0 2 3 1 1 0 1 2 0 0 2 1 1 1 0 0 0 1 1 0 0 1 2 1 2 0 1 1 0 0 0 0 2 1 1 2 0 0 1 1 1 2 0 0 0 2 1 0 2 1 1 1 0 1 0 0 0 1 0 0 1 1 2 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 1 0 2 0 0 0 0 2 2 1 0 0 0 2 0 0 0 0 0 0 1 3 0 1 0 1 0 0 1 1 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 1 0 2 1 0 0 1 1 1 0 1 0 1 2 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 2 0 0 2 1 1 0 2 1 0 0 1 0 0 0 2 0 1 2 1 3 0 0 0 1 2 2 0 0 2 0 1 1 1 0 0 0 2 1 2 1 0 0 0 0 1 0 1 0 0 0 0 1 2 1 2 2 0 0 0 2 2 0 1 1 1 1 0 0 2 2 4 0 0 1 0 1 2 0 1 1 2 0 1 1 1 0 0 0 0 1 0 1 2 1 1 0 2 1 2 0 1 0 2 2 1 0 0 2 0 1 1 0 1 0 0 1 0 0 2 1 0 1 1 1 1 2 0 0 0 0 1 1 1 1 0 1 0 1 1 1 1 0 0 2 1 0 1 1 1 0 1 3 0 0 0 2 0 0 2 2 0 1 1 1 1 3 2 0 0 0 0 1 1 0 2 0 1 2 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 2 0 2 0 0 0 1 0 2 2 1 1 2 2 1 3 1 2 0 1 1 1 0 0 0 3 2 0 1 0 3 2 2 0 0 0 2 0 0 1 0 0 2 0 1 0 0 0 0 1 0 2 0 0 0 0 2 1 2 0 2 1 1 3 2 0 1 4 3 0 0 0 0 0 0 1 1 0 2 1 0 0 2 3 0 1 1 1 0 0 2 1 1 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 0 1 1 2 1 1 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 0 0 0 0 0 1 0 2 0 1 2 1 0 1 1 4 0 0 0 0 1 2 1 1 1 0 0 0 1 1 1 0 0 0 1 0 2 0 1 0 1 1 0 3 0 1 1 0 1 0 0 1 0 0 0 0 0 0 2 0 1 1 0 1 1 0 0 2 2 0 2 0 0 2 0 1 0 1 0 1 3 0 1 0 1 0 2 3 0 1 0 0 0 1 1 1 0 0 0 0 2 2 3 1 0 2 2 2 1 0 2 2 0 0 2 3 1 2 0 1 1 0 1 3 1 1 1 1 0 2 1 1 2 1 0 3 0 0 1 2 0 2 2 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 2 2 1 0 3 0 0 1 0 0 1 0 2 0 0 3 2 1 1 0 0 1 0 0 1 0 2 0 1 1 2 1 1 0 0 0 1 1 1 0 1 1 2 1 0 0 0 0 1 0 2 0 0 0 1 1 2 2 0 0 1 0 0 1 1 1 0 0 1 1 2 1 0 0 1 1 0 0 2 1 0 1 0 0 0 1 0 3 1 1 1 1 1 0 0 1 1 1 0 1 0 1 1 1 0 1 1 1 1 0 0 0 0 2 1 0 0 1 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 3 0 1 0 1 1 0 1 0 0 0 1 0 1 0 1 1 1 1 0 1 0 0 2 0 2 0 1 0 1 1 1 0 3 2 0 1 1 2 0 1 0 2 1 1 0 2 2 0 0 1 1 4 0 0 2 0 1 0 1 0 1 0 0 1 1 0 1 2 1 3 0 0 0 0 2 0 0 3 0 0 0 1 0 3 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 2 0 0 2 1 1 0 1 0 1 0 1 1 0 1 1 0 0 1 0 2 0 2 0 0 0 0 2 1 2 1 0 1 0 3 1 3 0 1 1 2 2 0 3 0 0 0 0 1 1 1 0 0 1 0 0 1 1 0 2 0 0 0 0 1 2 2 0 0 0 1 0 2 1 0 0 0 0 0 0 2 1 0 0 1 1 1 1 1 1 0 1 1 1 1 2 1 1 0 1 0 0 2 0 1 2 1 0 0 0 0 0 0 0 1 1 1 2 1 0 2 2 3 2 1 0 0 3 0 2 0 1 1 2 0 1 0 0 1 3 2 0 1 2 0 1 0 0 0 0 2 0 1 0 0 0 1 1 0 0 1 1 0 0 2 0 0 0 1 1 0 0 0 1 0 0 2 0 1 2 1 0 0 2 0 1 1 0 1 2 0 2 2 2 2 0 0 2 0 1 3 1 1 2 0 1 2 1 1 0 0 2 0 1 1 1 1 1 0 1 2 1 0 1 0 1 2 3 0 0 0 1 1 1 1 1 0 1 1 1 1 2 0 1 0 1 0 0 1</t>
+    <t>JSU(-12.670078354170833, 10.87294366421294, -50.40260455502863, 50.064984170147625)</t>
+  </si>
+  <si>
+    <t>16 32 16 43 20 27 23 27 23 16 26 23 12 27 28 7 16 21 20 26 46 23 26 22 26 21 34 17 26 22 19 34 20 17 29 9 16 35 28 17 10 45 30 17 13 21 27 17 24 20 27 20 28 23 24 21 13 41 31 17 24 23 15 16 22 28 20 24 27 18 21 19 10 10 13 20 19 13 41 16 24 16 7 7 23 17 20 24 20 27 30 21 26 23 17 40 17 30 17 12 26 35 22 27 27 17 35 26 20 20 24 10 7 6 17 16 31 24 20 27 19 9 23 7 22 9 24 31 30 3 17 22 35 42 16 29 21 26 27 13 29 26 12 41 26 21 13 28 31 28 6 3 23 20 17 21 3 17 15 27 22 19 26 18 25 20 24 34 16 6 27 20 30 18 21 22 15 38 41 28 41 30 13 12 17 10 17 20 27 31 17 48 10 21 16 41 36 31 27 27 20 23 20 21 20 31 28 10 20 30 16 24 9 23 14 20 24 24 27 17 16 21 24 34 28 10 14 31 21 23 47 24 27 33 20 30 37 31 14 19 21 17 24 13 31 24 17 14 26 20 35 31 17 19 17 24 26 30 24 20 30 16 29 18 27 21 13 20 22 27 13 21 14 26 31 17 38 19 35 31 31 27 20 21 24 0 34 18 10 27 23 17 24 14 12 30 22 22 14 28 18 20 20 17 16 15 30 29 31 17 20 19 14 30 20 24 20 19 17 21 27 13 30 31 16 20 33 15 35 20 24 24 38 28 30 3 24 30 10 17 24 22 41 24 30 19 27 27 17 19 14 26 20 17 20 29 22 27 21 16 34 14 22 19 17 16 23 30 23 30 26 33 28 36 28 31 26 27 30 24 30 20 23 7 19 16 26 27 23 33 20 27 16 17 24 16 20 30 18 17 13 22 13 30 19 15 28 17 31 27 27 17 38 23 30 24 21 14 29 15 35 16 14 29 16 18 40 24 31 17 34 31 27 13 17 24 38 14 22 17 30 13 25 23 23 19 19 26 14 20 27 35 29 23 17 24 28 27 30 7 24 9 19 16 20 21 27 31 13 24 21 36 26 30 38 24 37 23 24 24 13 19 14 32 17 17 35 24 17 23 10 30 22 17 20 7 31 20 16 34 30 21 26 37 13 34 20 20 38 20 23 24 28 24 20 19 27 7 20 37 10 27 10 27 24 24 20 22 37 14 21 13 17 23 27 30 29 30 25 42 23 16 21 17 10 23 13 17 22 20 30 17 29 30 44 26 19 28 24 17 30 22 23 28 6 21 10 20 41 30 27 20 20 41 24 28 24 24 28 20 20 27 13 35 31 18 27 36 7 21 26 31 30 27 13 31 20 13 36 30 37 31 27 15 48 38 27 17 10 31 31 9 24 10 24 6 27 29 33 24 17 23 17 24 31 23 12 24 31 31 14 24 26 18 28 27 20 14 24 20 30 16 22 27 23 16 10 22 20 42 38 30 35 14 19 13 29 14 17 15 23 20 10 13 23 20 30 35 22 20 20 24 35 13 14 20 15 23 10 20 19 28 31 26 16 23 23 24 16 9 16 31 19 10 30 21 20 21 12 28 34 23 20 21 30 27 18 24 35 9 45 45 20 24 31 27 30 17 31 24 19 18 21 35 22 24 23 20 13 31 21 15 20 20 23 23 28 24 38 27 19 28 21 6 27 22 34 13 34 17 31 16 31 17 20 14 20 34 10 23 30 48 13 7 13 30 10 21 27 24 31 31 17 6 22 24 21 27 30 24 30 26 30 28 24 17 17 21 23 24 20 13 23 28 19 17 17 6 12 30 14 13 17 30 17 31 24 23 13 38 28 13 30 13 24 3 19 16 17 17 23 17 38 21 14 17 17 13 17 10 26 19 12 17 27 29 35 29 34 20 31 14 13 19 20 25 30 17 24 27 31 34 24 20 9 31 41 3 33 20 23 27 20 11 23 13 10 20 17 38 20 24 14 21 30 19 22 23 26 34 28 18 23 20 17 22 28 28 16 23 24 26 17 20 24 15 21 27 33 31 6 12 24 28 24 24 20 21 13 20 37 6 21 3 14 17 23 17 19 27 31 23 6 31 30 35 9 38 20 10 23 22 17 16 13 10 23 27 20 10 13 3 31 27 15 14 31 7 31 31 30 23 17 27 45 21 13 12 24 28 36 8 25 23 21 27 22 27 22 19 24 10 17 19 13 27 23 34 10 22 20 14 17 23 30 16 34 13 3 31 19 21 31 27 28 27 28 9 27 38 10 33 21 20 28 16 22 41 23 24 31 40 25 17 18 38 3 26 23 30 10 47 30 18 27 26 31 32 28 38 16 24 21 24 27 13 21 10 28 21 20 38 34 21 24 27 27 20 13 20 19 24 10 34 15 17 37 37 24 17 27 20 22 24 13 20 23 27 20 23 10 34 20 27 37 20 38 28 8 29 17 17 25 17 21 19 24 34 29 17 16 26 27 27 19 43 24 28 23 17 29 17 20 23 24 25 14 24 14 14 15 20 34 21 14 17 13 24 20 16 27 20 10 31 41 27 40 27 24 10 45 29 16 25 27 31 17 10 41 13 37 38 22 22 18 13 17 20 27 17 26 13 24 21 27 27 20 6 20 37 16 26 16 34 24 34 23 33 20 16 26 24 7 18 20 17 19 30 31 29 14 27 9 26 22 27 21 27 43 27 21 31 31 27 20 27 19 21 17 16 27 30 26 24 7 22 20 27 17 13 14 22 24 6 20 31 34 30 18 31 38 14 23 32 17 14 14 13 28 20 16 10 20 27 40 21 27 31 24 34 13 18 13 17 20 24 23 27 27 23 7 33 24 34 34 7 23 35 12 16 27 14 19 21 23 29 3 12 35 38 17 3 13 9 10 24 28 26 34 16 20 17 17 26 33 30 17 21 38 34 17 14 36 24 28 29 27 24 21 17 26 14 17 28 30 31 26 24 38 23 32 31 31 33 30 23 24 35 23 19 7 9 27 21 33 20 36 16 14 16 29 26 36 23 24 24 27 17 21 30 26 14 7 19 16 30 24 31 26 28 23 24 31 24 23 27 23 12 21 13 19 27 26 6 34 16 18 24 10 27 17 3 13 26 20 16 10 24 28 16 19 21 27 15 27 34 16 31 23 30 23 27 31 17 14 28 33 24 20 24 17 16 32 21 10 13 20 26 27 22 28 24 15 13 38 15 13 34 27 20 34 17 6 19 10 26 31 16 31 16 16 24 37 21 15 27 10 31 30 24 24 27 27 27 12 14 10 25 13 16 44 6 28 28 22 20 17 21 13 35 20 20 7 21 12 16 15 21 31 40 27 24 17 16 27 32 16 20 21 32 10 17 20 22 31 30 24 14 27 20 27 19 14 24 26 9 24 38 10 26 30 42 31 24 23 9 24 20 17 33 41 20 13 36 23 24 30 20 14 27 13 14 19 28 17 27 33 45 28 16 20 42 30 14 27 31 34 47 17 27 22 44 9 40 21 28 37 36 24 34 16 14 17 28 30 20 24 27 16 36 23 20 23 20 24 16 37 19 27 10 38 10 20 23 37 27 27 7 16 31 31 24 31 17 38 24 30 10 9 6 20 16 10 7 26 27 19 23 44 17 20 17 14 12 28 21 24 17 23 20 30 24 29 20 24 23 10 13 31 10 20 23 24 20 17 23 27 24 20 17 12 24 27 21 26 20 24 31 14 27 23 17 24 6 32 30 14 35 29 14 32 12 23 20 25 19 20 27 16 20 17 14 17 30 18 18 13 17 16 31 10 22 26 28 13 39 20 14 24 27 35 15 34 26 22 31 30 23 17 20 16 38 28 17 19 19 7 19 22 24 35 33 24 20 22 10 22 13 24 20 12 24 23 24 23 17 24 37 21 27 20 23 38 21 20 45 16 37 20 14 24 10 24 12 31 17 35 21 38 34 13 22 16 21 9 17 30 33 19 20 24 10 23 13 23 49 13 24 31 24 30 37 8 10 15 11 13 28 17 12 26 41 28 23 16 24 13 17 12 29 28 17 29 16 18 35 10 16 26 27 17 10 27 17 7 23 21 23 9 30 14 3 27 19 27 20 27 33 38 20 19 34 24 23 24 20 21 28 20 27 10 31 13 35 20 30 30 30 16 19 27 31 13 28 21 19 31 14 20 14 24 7 21 13 20 23 19 31 24 23 13 17 20 3 34 23 23 17 13 16 21 13 24 16 6 38 26 23 30 20 17 24 12 20 17 26 27 10 27 9 31 30 31 38 17 34 6 21 31 14 10 24 23 27 24 21 17 24 36 7 20 16 33 19 16 17 7 17 17 27 27 31 17 20 17 22 38 17 24 17 3 17 13 26 38 17 24 8 42 24 13 37 40 25 17 27 13 27 16 13 24 34 20 20 30 24 19 26 20 23 23 20 24 13 25 7 20 12 15 29 19 23 20 19 20 34 15 27 20 9 23 6 21 24 13 49 26 17 33 38 16 17 31 30 29 30 17 31 3 27 20 24 20 10 17 26 23 7 27 17 17 17 24 21 31 17 45 28 35 17 16 17 23 17 23 21 23 10 25 23 23 14 24 20 20 16 26 17 20 16 17 16 42 17 16 21 12 24 13 13 24 17 38 27 27 17 24 17 7 37 26 30 29 24 20 27 37 17 13 27 24 13 24 41 27 3 27 19 30 19 27 18 30 17 27 19 18 13 26 18 13 27 21 17 20 27 18 10 7 6 31 11 27 10 16 20 19 16 40 19 24 20 35 35 20 20 30 27 30 28 27 27 28 16 28 23 26 22 23 16 34 26 22 19 20 42 21 17 26 13 6 23 21 10 28 18 20 24 10 22 15 19 10 17 10 32 10 24 20 17 20 13 14 24 24 34 14 31 17 22 21 24 25 13 21 23 20 14 27 31 17 19 20 42 24 10 27 20 24 17 31 10 10 19 37 14 33 3 34 17 10 27 20 23 34 34 29 10 28 27 6 17 7 21 20 35 9 20 29 30 34 30 20 16 35 20 21 15 8 38 18 26 23 24 28 23 35 25 24 23 16 18 27 23 7 27 14 24 13 19 23 23 24 20 21 16 19 27 22 13 16 13 17 13 24 22 27 31 9 27 22 20 23 27 17 6 14 41 35 17 17 24 23 33 23 28 34 24 16 21 13 24 20 3 16 30 18 20 23 30 17 27 37 38 21 24 33 34 20 16 28 13 27 20 30 45 24 16 16 26 31 20 24 27 17 23 28 16 33 30 17 25 16 18 21 27 27 19 3 0 15 16 13 24 35 19 19 25 26 39 24 19 37 20 31 37 19 17 31 31 10 22 34 38 13 10 37 27 28 24 21 21 18 25 22 31 9 20 20 19 22 34 3 11 22 17 20 34 24 29 17 24 28 32 17 23 23 14 13 24 7 21 24 25 21 19 20 23 13 35 30 10 20 28 28 16 30 20 29 38 33 14 32 7 11 27 19 21 31 13 26 13 13 31 29 10 17 25 13 27 31 34 13 34 13 27 14 14 16 23 21 13 37 27 13 14 26 28 20 10 31 26 42 16 31 17 17 21 22 20 19 19 25 26 33 9 29 34 20 21 21 20 13 26 27 27 28 20 41 3 10 10 24 52 42 24 43 17 24 27 22 28 16 31 14 31 28 14 27 14 31 13 28 31 16 20 23 27 27 22 7 16 26 23 27 19 37 31 6 34 13 23 31 24 28 17 29 22 14 20 19 25 17 24 24 20 27 24 20 7 24 23 16 27 27 23 40 34 14 10 10 37 21 20 9 23 28 21 27 24 17 23 29 33 24 27 24 24 26 29 21 34 16 6 20 36 13 19 14 38 14 13 27 9 44 20 30 24 35 21 13 7 25 28 26 18 20 16 19 21 23 16 24 26 27 20 24 21 18 27 22 16 33 24 30 24 24 42 24 37 23 16 21 13 7 26 17 19 48 26 27 15 21 20 29 23 28 24 23 27 27 13 20 31 7 31 23 13 19 24 23 18 24 31 10 20 24 9 34 36 17 31 19 17 24 20 37 21 23 14 16 21 19 24 24 19 17 24 24 23 31 34 20 24 20 15 19 17 24 31 19 20 25 21 11 17 20 31 13 16 24 26 14 27 10 30 20 21 15 19 17 28 17 10 17 15 17 17 16 20 9 26 23 27 27 3 16 15 20 21 26 17 30 34 34 13 20 31 24 27 34 21 21 10 37 9 20 14 19 19 29 25 21 20 19 34 31 30 38 23 31 13 20 27 44 29 13 20 10 27 23 23 35 8 21 21 20 30 27 13 16 28 34 14 9 23 27 24 22 27 20 19 31 10 31 9 17 23 6 19 23 21 19 29 27 24 27 25 13 24 20 28 7 20 13 23 10 16 11 12 27 23 23 19 17 37 24 18 20 24 3 34 10 17 34 9 3 17 7 20 10 9 33 19 17 23 27 26 16 16 24 26 21 31 30 17 27 6 20 31 13 17 19 17 23 33 14 10 31 17 16 9 7 24 19 34 27 20 21 36 52 16 49 30 34 12 24 25 17 14 30 38 14 24 20 16 28 21 16 13 23 14 21 27 10 30 29 23 13 15 23 17 27 28 22 27 20 12 13 39 17 10 13 20 15 34 23 24 14 41 20 23 26 31 23 19 20 24 15 22 15 30 9 17 31 34 41 14 26 21 17 16 13 31 16 16 10 15 34 10 17 38 20 34 28 17 27 27 20 27 38 24 16 31 24 17 37 20 23 14 10 38 27 27 24 24 17 20 31 24 35 20 33 19 27 34 27 12 16 33 10 33 24 22 20 16 26 19 16 17 20 24 6 15 30 13 23 24 24 23 27 24 17 14 17 27 20 30 13 27 23 22 21 10 17 24 24 30 20 27 20 31 23 19 24 24 22 26 18 16 10 27 37 9 9 21 20 16 27 13 20 25 24 14 16 10 27 13 27 14 21 25 24 9 21 31 27 17 20 23 31 3 40 24 26 19 21 34 17 24 12 33 21 24 17 9 31 21 16 17 25 27 28 37 23 27 12 26 27 26 12 20 19 26 20 20 26 24 20 17 38 23 17 20 24 34 24 28 0 12 31 21 27 17 13 31 23 21 37 20 23 24 9 28 23 17 16 24 28 14 23 27 17 34 7 38 24 28 9 34 21 7 34 21 27 24 27 19 19 17 12 21 13 17 21 30 16 20 35 10 34 34 11 23 38 24 21 38 20 25 20 23 23 12 13 20 33 24 31 20 27 24 21 17 23 27 29 23 45 24 21 23 31 38 21 20 21 20 27 23 19 16 19 10 27 38 23 17 20 24 33 20 20 30 10 34 40 23 17 30 22 26 33 9 27 13 14 21 20 45 31 19 7 26 27 33 27 24 15 7 44 23 6 28 23 29 32 10 13 20 23 35 25 26 28 12 37 26 28 20 24 14 23 13 6 12 24 10 17 10 9 16 27 13 3 26 16 25 12 19 15 28 23 38 30 26 16 17 28 10 14 17 31 16 35 12 13 19 15 16 32 25 28 16 9 20 20 37 33 38 27 11 43 34 7 30 33 10 9 13 17 12 27 19 6 27 23 38 31 44 28 27 16 14 20 25 27 20 20 23 23 31 21 31 12 35 17 16 20 34 30 19 34 16 10 14 37 17 19 28 17 17 27 23 16 35 27 28 31 14 10 23 26 9 16 21 31 7 12 30 30 20 13 41 34 14 23 6 13 23 24 28 13 31 13 7 14 37 24 21 13 11 30 31 37 12 38 25 24 13 18 20 24 31 24 23 6 34 28 27 22 21 12 13 34 33 10 30 17 3 20 20 14 12 28 24 34 3 16 10 17 24 24 22 27 13 41 20 21 26 16 14 23 21 27 24 23 17 30 13 27 20 24 32 28 21 24 31 16 27 27 19 13 34 10 26 21 30 20 17 21 20 28 14 25 23 29 26 44 15 30 38 27 18 31 21 21 17 20 32 30 20 20 14 26 17 19 24 20 34 17 13 22 24 27 19 24 28 28 8 33 37 21 27 34 14 26 16 13 31 28 20 37 10 23 16 13 31 16 39 17 25 16 17 21 30 10 20 31 14 24 16 31 17 28 23 17 21 14 10 17 20 24 14 37 20 20 23 30 10 14 34 38 23 24 24 22 18 17 10 30 20 30 17 21 16 20 20 17 10 21 10 26 20 14 29 20 20 21 27 14 23 23 13 28 22 20 9 28 24 30 22 15 27 16 27 17 41 23 35 27 17 26 20 20 19 27 28 20 27 19 16 23 20 21 23 17 20 19 13 23 21 3 27 24 27 14 51 26 39 38 17 23 16 20 15 16 17 24 12 19 13 31 23 20 13 13 17 14 27 16 9 24 20 27 14 35 14 10 31 31 23 20 26 35 17 38 20 30 14 33 37 19 20 21 28 27 13 20 19 27 31 19 23 17 34 31 18 17 24 19 29 24 30 21 14 17 16 20 22 23 13 34 17 10 37 24 31 13 22 27 16 42 14 22 24 24 21 26 16 13 24 13 37 24 23 24 20 13 27 36 28 20 20 24 23 13 27 20 6 31 14 37 18 16 24 35 23 25 32 24 35 17 10 24 18 13 24 19 27 17 27 17 21 24 30 34 21 37 22 44 17 24 30 27 23 20 20 18 21 45 30 9 13 24 13 17 31 29 23 17 30 23 23 27 22 3 21 21 11 16 17 13 30 24 35 27 19 27 27 13 23 20 28 23 30 21 14 37 20 27 27 24 31 7 13 24 31 30 45 22 31 24 24 6 17 14 8 27 26 23 22 12 27 27 9 22 44 38 17 25 37 10 3 17 28 24 20 21 17 7 24 7 16 24 16 26 27 42 17 38 16 0 14 24 27 10 30 20 24 14 14 27 33 23 28 19 24 31 10 41 19 31 24 23 15 37 38 13 17 9 33 0 13 35 27 13 17 19 31 30 27 23 24 41 26 11 31 17 20 21 24 24 12 20 20 23 28 23 22 18 34 27 26 21 12 14 26 17 33 34 26 24 35 27 29 34 7 31 27 6 27 26 13 31 19 28 27 36 27 23 24 23 31 32 31 34 17 24 20 13 24 17 16 26 19 31 23 30 35 28 17 19 20 24 19 10 15 21 33 3 27 24 16 21 30 22 24 20 24 24 27 33 16 24 26 20 13 36 31 34 28 23 24 19 22 27 34 17 17 14 9 21 20 22 23 23 34 17 24 30 31 22 18 35 40 12 45 13 21 7 14 17 27 34 31 20 28 34 10 13 22 41 24 31 20 24 27 14 18 20 21 17 17 17 16 27 24 28 35 20 24 23 10 17 30 42 31 30 33 20 35 17 45 13 13 0 16 17 38 26 14 35 28 16 27 33 24 26 19 31 41 18 17 24 17 19 24 14 35 21 20 27 21 30 27 24 20 13 29 28 26 45 20 18 20 21 25 34 6 24 13 10 13 9 31 33 14 36 6 9 31 31 37 20 10 38 19 7 27 10 24 6 23 23 24 31 23 9 24 26 7 21 17 16 27 13 6 30 24 19 21 23 12 24 23 17 27 20 26 14 30 30 39 14 24 20 27 27 24 17 34 19 30 6 19 22 17 27 23 27 23 16 28 10 17 21 16 17 28 27 31 7 28 17 21 23 34 30 21 22 20 10 31 40 20 7 10 24 31 24 13 26 6 23 13 21 18 23 34 24 28 21 24 16 17 26 14 27 29 21 20 7 19 8 23 28 16 24 27 27 25 15 27 20 17 19 17 17 38 34 28 20 36 20 22 28 27 6 20 15 20 13 10 24 27 9 27 24 32 15 23 17 19 14 26 21 26 13 17 3 16 31 23 13 10 29 14 31 7 27 23 26 31 21 14 35 31 20 10 17 13 16 22 25 17 10 6 27 19 42 13 19 17 21 16 26 24 20 20 23 21 20 10 34 24 27 16 13 35 32 15 13 21 30 24 12 21 17 27 19 23 17 31 20 20 22 23 21 12 19 10 26 7 20 24 14 10 13 24 10 27 14 38 13 7 24 17 23 38 13 17 21 17 29 14 25 29 23 18 10 31 27 22 45 10 34 27 39 10 24 25 27 34 21 9 24 24 22 24 33 17 17 24 20 26 21 13 17 31 17 36 24 23 14 30 24 17 21 13 21 20 20 31 44 21 28 28 27 23 20 19 17 13 22 35 26 12 20 23 28 27 29 34 28 17 23 21 20 10 11 20 23 23 17 16 23 24 27 17 17 23 19 29 13 13 31 13 14 25 24 34 30 14 10 17 13 23 30 37 14 34 26 22 37 20 23 6 34 13 16 20 31 6 20 21 19 0 21 19 26 35 20 22 10 20 30 19 13 23 23 20 19 13 24 30 20 16 13 10 23 37 17 26 37 20 16 10 27 13 20 31 28 26 29 27 36 27 41 26 21 21 23 16 21 19 19 20 20 35 33 24 24 10 21 38 27 12 30 17 15 17 7 10 27 31 29 23 9 31 30 27 34 18 27 13 10 27 15 9 41 19 31 31 29 23 31 16 17 24 19 30 21 10 14 31 10 16 31 22 21 14 30 26 33 41 9 17 28 17 24 16 26 16 17 24 30 15 26 24 7 23 28 31 31 23 24 21 13 17 36 17 35 22 17 25 21 16 27 17 20 6 27 23 23 27 23 29 20 24 33 16 23 13 33 17 14 17 32 26 23 17 9 35 23 23 21 34 24 24 17 30 30 20 31 35 27 24 22 27 21 23 20 20 8 16 17 30 24 14 30 15 13 34 31 19 21 17 21 20 23 13 27 30 34 24 30 24 20 35 20 33 21 3 28 19 22 24 13 16 29 16 34 13 24 20 24 21 14 20 30 19 13 40 16 27 14 10 27 27 6 20 25 24 28 16 23 21 18 17 13 17 10 20 19 10 24 29 17 28 33 38 27 31 17 16 25 26 22 28 26 31 20 27 30 34 28 29 28 14 21 20 21 26 27 24 27 17 27 38 20 23 17 30 24 20 25 16 10 30 12 33 10 32 16 23 20 13 23 14 23 24 26 10 28 29 10 30 35 27 41 13 24 23 25 34 15 23 21 25 24 9 31 21 20 17 27 13 17 21 6 17 31 23 17 18 24 27 10 24 27 22 22 19 34 19 23 27 13 30 14 24 18 23 17 30 15 19 34 24 22 31 31 11 10 31 13 20 13 24 31 21 7 27 27 15 28 20 18 13 21 12 17 10 34 18 21 18 10 11 21 20 27 27 20 27 17 21 20 30 17 21 14 20 9 20 27 23 26 37 10 31 13 23 23 17 31 15 20 34 32 27 13 35 23 16 33 31 16 19 24 30 10 28 21 13 24 23 20 35 13 35 20 7 24 27 20 30 49 26 17 17 22 30 34 31 17 28 13 31 22 13 28 23 29 23 34 6 10 31 38 19 30 22 14 20 34 20 14 21 35 17 13 16 20 34 16 24 23 17 21 27 7 20 13 20 27 23 21 23 33 31 24 27 40 34 24 27 33 31 23 24 24 14 27 38 27 37 31 21 12 23 21 20 29 21 20 26 49 20 21 17 30 13 31 28 20 3 34 19 31 17 14 24 24 16 33 24 29 34 17 15 21 13 21 17 14 16 27 9 24 35 17 9 28 24 20 14 23 7 20 27 24 27 17 27 30 20 33 28 13 28 34 14 30 17 44 20 17 21 23 28 13 42 31 27 12 29 12 35 18 20 19 24 7 20 10 20 30 9 23 33 13 16 14 24 37 20 13 14 27 12 23 27 27 38 23 31 22 13 31 13 27 31 31 14 23 7 7 28 14 32 20 17 6 27 32 12 42 31 23 23 10 27 21 34 14 21 28 23 30 17 26 17 13 18 27 17 21 20 27 29 40 13 19 21 30 16 20 23 27 22 9 21 16 20 13 35 14 17 34 24 20 16 27 20 13 20 10 20 19 34 27 20 27 13 7 27 6 42 23 20 21 31 0 22 23 23 28 42 24 17 21 15 27 9 20 12 10 23 21 34 29 18 34 37 10 40 16 18 24 21 17 14 21 20 16 6 23 20 20 31 13 30 26 19 23 25 20 24 13 31 42 24 24 29 30 21 33 16 28 28 21 20 16 16 29 6 27 17 19 12 17 24 21 23 26 20 37 20 18 21 27 6 40 13 27 23 24 17 24 27 13 15 24 37 27 27 10 34 23 9 27 7 21 17 17 44 13 32 27 20 20 24 28 24 21 23 16 30 20 29 24 37 30 7 19 21 38 20 14 17 19 32 40 30 24 14 20 26 9 28 17 24 31 21 26 27 21 31 21 24 20 29 20 18 27 24 23 34 10 17 7 15 27 33 13 23 31 17 33 28 28 21 22 3 33 29 26 9 24 34 21 29 38 7 38 27 24 19 23 28 16 15 13 22 10 27 35 17 24 23 30 27 21 7 18 20 9 20 24 16 20 30 52 25 14 14 17 34 28 17 29 20 27 24 17 27 34 19 17 17 21 42 15 12 27 3 34 23 9 9 34 35 31 34 14 21 28 35 21 41 17 32 31 24 24 26 27 9 14 21 23 16 40 14 23 23 20 36 20 23 34 38 23 30 24 14 23 16 13 22 32 24 31 20 23 42 17 20 16 26 27 38 21 24 27 7 14 17 20 10 23 20 34 37 16 31 20 16 27 33 26 34 13 37 20 17 21 24 31 27 14 22 35 21 19 13 24 26 24 22 21 38 19 17 6 27 19 31 3 21 24 33 25 9 30 25 16 16 17 31 27 23 45 13 16 17 27 33 30 17 44 10 27 14 21 20 28 38 27 34 26 17 21 38 20 33 16 17 20 12 12 20 13 29 26 3 31 16 23 13 22 14 17 21 13 28 30 10 41 17 24 23 38 13 20 14 13 16 23 20 9 41 24 20 34 37 24 31 30 26 30 34 27 21 11 27 17 31 23 23 20 19 39 25 34 24 27 30 24 20 17 35 24 30 23 38 24 30 14 27 35 12 20 17 17 20 14 31 17 14 45 13 38 23 23 16 31 25 33 31 22 20 15 27 19 20 14 15 26 20 23 26 30 20 17 21 21 24 26 23 30 23 20 24 16 20 23 27 26 14 13 13 37 24 25 23 24 19 16 32 17 30 16 33 19 20 35 28 21 20 35 13 16 38 20 20 23 23 14 36 23 28 24 31 20 23 10 10 28 0 20 27 10 23 17 9 20 16 14 31 10 30 20 19 21 20 24 26 20 30 24 24 10 45 13 13 24 24 31 15 27 9 27 24 41 16 20 27 17 24 31 30 19 13 26 29 21 24 10 13 30 13 22 17 20 7 23 23 9 13 27 24 26 38 17 17 10 17 22 27 15 17 29 10 20 23 3 26 20 15 19 23 13 22 24 7 17 31 21 19 38 20 17 24 27 23 10 9 20 26 20 27 13 16 35 16 26 13 22 31 17 18 23 17 33 20 22 27 30 30 28 27 34 19 21 10 24 27 27 42 21 17 27 3 22 20 27 23 31 38 21 21 9 22 24 27 27 16 16 20 26 17 21 23 30 23 34 24 10 24 30 29 24 10 16 17 24 34 15 6 19 13 27 13 17 38 24 21 10 9 24 16 17 19 6 20 21 26 7 28 16 28 34 34 21 17 29 17 14 37 34 13 24 10 19 20 23 20 35 24 40 3 30 16 27 19 16 34 27 23 25 13 37 27 21 33 24 23 16 21 23 6 30 17 27 24 9 30 24 21 28 24 22 24 27 10 13 31 28 27 42 28 35 6 30 24 45 12 27 15 28 31 20 17 20 27 23 20 9 24 42 28 23 28 6 24 26 18 24 26 21 13 25 16 13 13 34 30 9 20 20 33 7 38 16 13 41 12 23 9 29 17 31 34 13 21 30 31 35 32 6 20 27 26 31 30 17 22 20 33 33 24 24 31 17 21 31 22 28 28 42 22 24 33 28 34 29 23 28 10 21 34 20 20 35 12 24 19 35 28 12 13 23 24 30 27 26 21 28 31 19 20 29 8 17 21 30 14 10 31 24 36 14 24 37 15 34 27 16 30 16 17 16 10 20 28 27 27 30 13 16 34 27 23 22 35 10 12 35 17 20 27 10 41 31 22 31 20 19 9 16 16 27 17 20 18 21 30 17 24 11 22 13 20 36 16 28 13 6 31 24 10 22 30 27 10 23 13 25 24 17 27 22 33 20 16 30 17 27 3 23 30 10 23 41 27 0 16 31 19 23 16 10 30 7 35 13 16 7 26 21 27 27 7 30 16 31 22 34 35 16 17 10 12 24 21 17 23 23 22 16 22 20 19 7 27 23 31 31 17 19 13 20 35 19 27 9 20 31 23 27 7 14 14 13 23 20 21 16 14 27 13 20 14 30 31 24 27 10 24 31 21 26 27 26 23 19 22 20 13 27 7 21 20 27 13 27 30 24 24 44 33 29 17 15 24 13 13 17 21 6 14 17 35 23 37 20 6 27 24 22 24 24 13 10 24 37 30 13 21 34 20 34 31 27 27 10 17 21 10 26 19 13 27 10 25 13 18 3 17 16 18 28 27 18 20 3 20 35 31 31 26 27 24 9 17 24 23 20 16 31 21 13 27 31 24 27 35 23 23 14 28 24 51 10 20 30 29 44 10 30 17 27 15 31 7 31 27 30 14 20 29 18 21 29 21 17 10 19 13 21 19 3 16 13 17 13 20 30 37 3 20 36 33 16 16 24 30 20 26 27 11 35 27 9 20 17 33 38 23 35 17 35 35 10 28 14 26 10 17 36 13 38 16 21 30 33 24 27 15 23 26 24 20 23 10 10 30 23 24 23 14 16 3 36 13 21 35 24 10 17 20 13 13 38 10 13 21 23 3 24 35 24 35 30 20 17 28 12 31 30 16 31 9 34 27 17 10 20 31 24 23 27 31 23 20 36 27 27 14 17 11 16 24 38 23 20 34 17 23 16 17 7 17 24 24 14 11 33 7 26 21 21 24 24 34 17 16 26 44 28 31 14 17 24 20 17 24 35 38 10 12 30 27 31 38 52 10 17 35 32 16 37 24 31 28 21 31 13 24 27 34 12 17 27 6 21 23 13 23 14 20 30 17 13 10 23 27 19 9 38 19 24 30 17 21 27 6 17 23 27 16 25 12 27 33 24 27 24 17 34 31 24 10 18 3 24 23 7 31 19 27 24 14 21 24 34 9 27 27 48 16 16 34 13 23 28 20 18 16 28 17 6 23 24 21 27 41 30 19 17 18 25 24 29 27 31 23 34 32 27 24 21 30 23 24 31 10 28 42 22 20 21 24 17 26 31 12 19 18 24 28 28 37 7 17 24 20 28 17 23 34 45 23 23 26 27 30 26 10 13 23 20 27 24 24 14 29 27 17 23 15 31 10 38 24 31 21 10 17 14 20 22 24 17 24 27 14 16 20 13 16 30 20 18 35 31 24 17 32 21 20 3 41 24 30 24 11 14 20 20 17 9 35 16 38 23 24 30 24 13 22 34 24 17 20 17 42 31 26 16 13 31 24 24 13 13 19 17 35 24 14 26 30 10 36 38 21 20 28 24 10 35 26 24 20 21 23 7 20 24 16 15 16 27 31 7 10 3 34 27 24 23 24 28 38 35 29 10 38 35 26 17 28 16 16 31 17 20 27 16 28 19 21 10 26 23 26 27 10 21 20 21 20 20 20 35 10 10 31 34 13 34 19 27 16 10 28 31 15 10 30 19 30 23 7 19 28 30 27 23 26 31 7 23 10 37 21 21 16 10 22 17 9 34 20 28 45 20 19 21 23 17 13 17 31 13 20 34 20 23 24 14 34 23 28 16 22 33 27 24 20 13 23 29 24 17 28 23 30 20 23 13 29 29 21 9 28 16 20 40 7 28 20 13 24 13 41 20 3 20 10 24 27 24 10 20 24 23 18 26 13 27 17 34 6 31 17 21 10 23 32 21 20 20 17 31 34 17 15 23 31 14 30 28 21 17 20 34 25 24 23 19 27 34 23 44 19 13 31 16 9 27 19 36 16 19 21 16 17 27 27 30 31 26 27 7 20 20 29 35 40 18 27 13 26 12 27 14 35 16 26 24 13 21 13 37 45 42 20 13 23 12 18 17 20 40 24 20 17 16 13 31 16 21 20 29 14 21 23 35 33 10 27 22 16 14 17 23 26 8 28 33 19 13 17 34 31 14 42 16 17 14 27 19 26 16 18 20 33 17 36 20 17 45 45 10 18 26 27 30 13 17 17 16 24 20 24 23 20 19 10 13 27 21 31 25 27 24 29 22 28 31 12 26 34 6 23 24 27 7 23 31 24 44 24 13 17 17 13 27 13 13 20 20 20 17 16 23 35 29 30 13 23 23 35 31 14 17 10 37 35 28 12 21 6 20 31 21 14 27 20 24 17 16 31 31 20 24 23 7 27 37 20 19 20 19 24 27 16 23 10 34 22 30 13 23 23 20 35 17 26 45 24 27 34 17 7 16 24 23 34 28 26 20 6 19 19 16 21 13 27 20 27 31 24 24 36 13 30 3 9 19 14 29 17 7 27 24 17 24 28 24 20 16 16 23 38 20 31 41 27 21 23 24 20 20 28 17 12 25 27 17 21 34 28 24 23 21 14 21 13 17 31 27 20 16 14 23 17 24 16 32 30 17 23 19 24 7 23 10 25 13 7 27 22 41 37 17 3 26 29 20 6 12 3 10 24 15 31 16 20 21 28 17 24 23 37 21 31 17 19 26 13 23 17 10 23 20 27 26 22 19 19 14 32 9 20 28 28 26 19 35 13 21 12 24 45 23 10 30 31 20 9 21 12 35 13 17 20 23 16 19 16 21 13 27 25 17 15 16 24 28 15 24 36 23 16 24 19 23 31 30 26 19 17 21 27 16 24 21 19 23 16 17 9 17 13 24 20 13 26 28 17 30 25 27 31 16 13 20 17 20 34 32 29 19 31 38 30 20 30 13 21 10 28 37 25 10 16 10 12 17 35 38 20 23 37 14 16 22 23 21 23 35 31 13 23 25 27 7 26 37 14 17 3 20 21 31 27 21 20 26 13 34 21 33 19 19 25 33 10 41 20 19 37 27 30 10 26 23 16 37 19 13 20 24 27 14 17 20 20 15 10 30 31 38 22 24 27 16 17 17 24 17 24 19 13 19 18 23 30 42 9 23 28 20 24 28 24 31 17 14 27 28 34 38 35 14 34 21 10 38 16 20 31 21 24 27 24 13 6 45 23 25 16 24 24 19 27 27 16 26 24 21 28 16 20 14 17 10 20 24 16 19 34 27 15 15 17 16 10 20 31 24 38 30 20 34 23 24 33 14 14 37 20 30 31 45 16 17 18 16 27 25 13 21 13 9 17 27 31 10 31 26 24 16 17 35 17 46 31 3 17 23 33 24 16 37 24 23 23 10 24 17 24 29 23 31 7 24 20 24 18 41 34 13 31 35 14 31 17 31 17 31 23 20 7 28 21 37 24 13 37 17 26 16 22 18 20 29 22 20 28 19 29 17 25 27 14 21 19 24 6 16 23 28 34 27 12 24 20 17 24 31 22 13 24 34 34 17 38 14 22 17 14 17 10 16 17 23 5 16 14 27 29 27 16 13 34 13 16 30 35 13 28 28 12 20 28 17 24 21 30 25 28 24 14 18 12 7 28 16 29 24 27 17 14 23 24 38 20 23 25 14 17 13 28 24 28 19 13 25 20 30 20 35 31 37 20 24 23 23 19 31 27 30 17 10 23 17 28 29 13 41 20 27 10 27 23 34 17 31 27 17 17 12 21 23 29 23 31 15 12 17 31 31 34 20 33 10 16 10 32 0 37 17 27 26 29 17 16 17 21 3 38 26 13 19 27 25 20 21 17 10 35 23 10 24 23 10 14 27 19 41 21 30 21 26 17 37 24 26 24 37 21 31 27 30 17 20 41 24 26 26 6 21 21 19 34 13 9 14 26 23 13 33 14 17 22 17 20 17 6 23 26 27 23 27 28 13 24 27 24 31 20 33 25 40 20 27 23 34 22 13 41 23 33 14 16 3 17 16 20 42 33 13 27 16 35 13 21 20 26 30 10 27 28 12 20 20 24 17 27 24 22 21 23 13 27 14 27 21 30 17 30 31 37 27 27 28 45 13 21 20 13 10 14 25 20 21 28 29 16 19 13 15 24 17 13 33 23 16 29 12 13 20 33 21 30 14 41 23 6 48 23 29 31 26 11 20 28 6 14 14 13 13 23 6 34 24 29 24 31 35 17 20 24 18 20 14 22 27 27 20 12 25 24 49 27 26 19 31 16 23 26 18 22 15 27 28 30 6 26 21 12 16 18 17 24 10 29 29 14 17 44 13 16 12 20 16 16 23 25 12 21 7 19 27 26 17 20 14 13 20 24 9 35 13 34 21 24 24 17 20 30 29 33 23 23 27 31 12 26 34 21 31 34 16 20 17 19 16 16 21 30 23 24 27 27 24 31 6 13 14 30 48 16 6 10 24 19 47 10 30 34 31 24 10 9 3 27 30 20 17 23 23 38 31 37 24 17 20 26 9 22 29 26 36 10 19 20 27 37 21 10 17 31 21 16 16 6 23 24 35 28 20 25 31 23 35 30 3 13 17 35 13 35 24 27 21 17 38 29 24 24 31 27 16 14 27 17 20 21 15 10 34 24 23 30 34 17 26 27 27 18 17 31 20 13 22 23 17 35 16 16 24 17 23 20 31 14 24 20 22 16 35 23 24 25 28 10 24 10 6 12 32 14 14 26 8 24 38 13 16 30 20 22 10 37 20 31 7 15 30 33 33 23 13 16 24 27 35 16 22 13 24 18 27 15 3 24 25 23 20 16 27 34 22 21 17 28 24 29 20 28 26 36 23 19 29 24 41 18 26 17 13 24 17 21 21 27 17 14 24 17 31 26 27 21 15 14 28 6 28 13 20 7 9 30 22 14 17 24 16 17 17 23 23 16 28 20 16 13 19 17 13 20 17 36 22 18 16 14 13 24 14 17 19 34 29 24 29 34 24 31 15 20 10 21 19 20 22 22 15 27 17 19 27 21 20 20 23 18 14 27 29 34 17 19 20 28 20 24 20 26 31 16 22 20 19 27 20 17 17 24 13 10 23 24 45 22 30 31 35 10 17 26 27 16 31 31 11 21 34 33 18 6 17 17 21 49 26 20 10 13 14 14 27 25 16 11 34 28 9 33 31 20 20 17 11 19 47 31 28 24 32 24 16 22 20 20 17 21 14 33 27 23 23 23 16 32 6 38 18 16 17 23 27 16 25 10 21 24 23 28 24 14 17 27 26 20 29 27 17 27 23 20 27 23 34 17 16 30 31 27 31 10 16 13 20 21 28 16 41 33 35 41 25 30 19 28 20 14 31 30 21 35 20 23 19 38 16 7 16 30 21 14 20 23 24 26 20 23 14 17 17 21 23 30 17 17 17 27 19 16 10 20 32 43 18 17 19 24 16 24 16 13 48 30 41 33 24 26 6 14 33 23 28 20 7 27 27 23 20 23 14 7 31 27 24 20 33 27 17 31 34 17 30 23 37 27 6 29 34 27 26 34 27 16 23 24 16 26 31 17 22 31 10 22 17 14 36 10 24 30 27 10 24 13 17 19 20 15 37 34 26 9 16 33 13 17 29 16 3 8 27 13 24 21 10 23 20 13 27 33 24 26 11 16 19 19 24 15 24 20 26 34 23 17 38 23 34 20 35 26 17 21 21 35 27 27 21 22 14 35 10 17 27 28 20 6 31 24 35 23 20 24 14 31 17 26 13 29 27 7 17 26 20 28 24 17 29 27 20 23 24 16 16 24 37 19 34 23 17 28 14 30 45 28 20 39 21 24 14 28 16 19 13 31 19 24 23 23 20 34 23 24 19 31 17 24 27 24 26 35 13 27 38 20 17 22 28 24 45 20 27 13 18 13 25 28 31 28 20 27 21 21 20 28 13 17 24 38 48 9 26 20 13 24 24 10 35 17 10 24 31 35 20 9 24 13 29 24 18 22 28 12 20 25 16 18 27 17 44 22 31 17 24 14 24 27 23 34 19 21 34 16 10 27 21 20 24 21 37 10 25 20 29 16 32 32 10 10 17 23 34 16 41 17 22 17 10 16 26 24 20 10 25 23 19 17 13 34 27 30 31 16 27 13 17 21 19 40 28 27 20 31 24 29 11 19 21 15 24 27 17 15 24 12 20 23 14 17 20 17 41 27 20 31 13 37 16 21 36 24 24 34 24 33 15 17 20 26 27 27 6 42 20 16 35 20 17 14 13 13 17 6 27 16 10 31 17 16 18 30 14 9 14 34 21 19 35 37 27 23 9 35 19 17 33 6 10 9 9 10 25 29 19 21 38 35 24 21 26 34 24 16 31 7 29 33 33 12 17 49 13 27 26 34 27 17 31 26 19 14 33 27 24 31 13 30 10 24 15 21 16 24 30 30 3 14 15 31 33 31 29 20 29 20 24 23 14 14 13 0 27 31 24 47 34 6 31 26 30 31 34 22 24 20 31 9 20 16 24 13 9 29 34 24 29 28 19 33 19 20 30 31 23 21 29 23 17 13 10 31 27 28 37 17 41 20 23 24 14 16 24 10 17 17 31 20 27 38 24 24 31 31 23 26 30 24 20 27 17 14 20 37 14 20 14 24 24 22 41 24 35 27 21 14 29 28 19 17 23 16 19 41 25 25 14 20 33 28 3 13 23 10 20 27 21 17 20 21 32 33 24 13 34 18 13 32 35 14 13 13 6 38 20 30 22 40 22 20 13 20 27 13 34 10 16 28 30 27 26 7 23 22 24 22 13 9 27 31 10 28 7 13 28 21 26 17 37 20 34 27 17 40 26 24 10 21 30 13 27 19 27 34 14 28 3 17 17 9 24 20 28 23 13 9 37 10 27 40 28 20 20 34 17 6 30 24 28 17 20 9 17 27 9 6 23 43 19 10 17 31 17 20 24 44 23 20 51 16 24 9 17 6 38 13 21 24 20 27 13 27 30 27 34 17 17 14 13 27 17 10 24 31 17 26 17 27 30 28 7 21 7 38 16 29 16 21 13 30 28 20 30 21 26 22 23 13 24 23 8 19 13 35 30 25 24 5 17 24 23 14 20 13 27 21 28 26 30 24 16 36 29 21 14 28 3 27 23 30 31 26 17 30 38 10 28 23 13 40 12 27 13 24 28 19 28 31 23 37 27 17 31 33 28 23 20 18 12 19 21 16 7 13 20 27 20 10 20 24 17 22 10 24 23 24 31 17 22 30 31 17 33 22 14 33 27 20 31 23 20 18 41 34 20 17 21 18 35 35 20 24 20 22 23 17 24 31 10 19 26 7 20 23 14 17 31 17 31 17 9 24 10 24 6 27 21 9 31 27 34 23 24 34 27 31 17 12 37 37 24 16 26 26 24 30 27 27 17 12 24 24 16 27 17 11 38 34 24 14 20 12 33 16 20 28 17 27 20 9 38 17 24 21 31 20 27 14 10 34 28 23 19 14 20 24 41 23 23 31 31 30 27 34 20 21 42 24 19 41 27 9 13 9 19 29 31 20 23 27 28 35 24 28 33 20 10 20 12 23 31 20 34 23 15 20 35 19 20 24 13 24 13 24 17 35 21 31 27 27 23 34 12 24 20 21 36 31 18 9 16 16 29 17 14 20 26 24 31 20 19 13 16 35 10 23 10 34 23 13 13 31 35 15 26 24 17 14 28 33 26 27 23 24 23 17 28 12 31 24 16 16 28 24 0 25 12 20 26 17 16 26 24 27 16 15 24 23 20 27 13 16 7 23 10 20 23 23 12 24 23 30 14 23 38 30 28 23 41 23 20 13 13 12 27 13 31 31 30 13 20 17 16 29 23 17 20 31 30 17 21 34 30 22 40 9 20 48 23 30 14 33 31 17 23 23 23 26 20 24 35 9 14 31 31 17 23 13 31 16 33 25 20 13 27 29 17 24 24 3 14 17 30 20 17 15 23 19 13 23 21 20 30 27 15 42 34 27 14 26 23 19 13 31 19 18 14 13 23 9 15 14 14 24 23 28 27 31 14 37 31 31 27 17 37 7 30 30 27 20 24 9 21 14 27 20 9 47 27 23 15 16 6 21 10 14 14 37 20 26 24 14 24 10 21 13 33 17 13 20 31 30 21 23 28 21 23 20 29 13 34 15 21 6 23 13 31 20 27 35 20 16 20 27 7 37 21 6 20 24 37 20 27 17 9 24 16 33 12 18 24 25 31 15 48 41 28 28 24 7 20 17 10 17 24 20 38 24 24 6 20 13 13 16 10 20 31 47 16 29 30 17 10 13 24 37 22 10 20 11 28 20 37 29 10 31 19 21 22 30 24 17 34 13 27 28 20 20 20 31 24 17 26 20 24 14 27 30 38 13 20 26 16 16 26 25 20 28 29 30 7 27 20 26 31 14 20 19 23 20 31 48 27 9 16 35 30 26 36 14 10 23 22 17 20 24 20 19 20 3 14 13 10 25 24 16 32 17 10 23 19 28 30 23 17 12 16 27 14 17 23 28 28 34 18 13 16 33 14 22 31 28 40 28 24 10 14 17 33 38 17 23 18 23 49 34 21 30 20 16 21 34 38 27</t>
+  </si>
+  <si>
+    <t>JSB(2.8153352276880166, 5.914760259222435, -18.136540510663117, 106.937035546132)</t>
+  </si>
+  <si>
+    <t>18 25 21 20 21 21 26 20 24 26 27 29 17 25 24 16 24 23 20 28 23 23 25 25 22 23 21 23 28 24 20 35 19 26 19 18 24 28 29 16 26 29 23 24 21 26 27 18 22 14 22 25 26 27 24 21 17 31 25 16 23 32 30 28 23 28 21 24 20 14 25 18 29 21 26 15 21 17 27 26 24 17 11 14 24 23 16 21 21 34 20 25 26 29 23 31 20 25 17 28 25 28 26 23 17 17 18 22 27 16 25 21 12 17 19 21 19 24 26 24 23 19 20 25 24 19 27 26 23 19 19 26 23 21 20 19 14 27 22 16 27 30 19 30 21 18 22 25 29 23 17 14 21 24 21 26 27 26 17 25 20 17 22 21 23 18 23 29 16 22 28 20 24 15 28 23 12 22 26 20 27 17 25 23 22 14 24 19 25 26 18 24 19 20 14 35 24 21 22 22 17 19 23 24 18 28 25 27 19 24 19 26 23 25 30 23 20 28 19 24 20 26 24 25 17 19 14 21 20 18 32 15 23 23 22 29 25 21 14 18 30 19 24 20 26 21 20 17 21 21 21 21 15 23 20 16 23 25 24 26 24 22 22 23 26 21 21 22 22 22 24 28 27 18 24 23 25 25 29 24 18 27 25 20 20 16 18 19 15 16 18 20 23 31 16 20 24 23 17 25 21 18 31 23 26 25 21 28 27 18 15 26 22 25 25 22 18 23 21 23 31 12 22 25 27 27 31 23 30 17 21 20 30 26 23 14 25 30 25 20 16 22 30 23 26 19 24 20 20 23 24 26 26 15 17 25 27 27 21 17 26 20 24 20 20 20 16 20 25 15 23 22 27 24 15 22 25 29 28 22 24 25 23 21 21 23 25 26 23 26 20 26 26 23 23 19 24 23 21 32 19 19 19 26 17 23 21 13 25 25 22 16 29 26 24 23 28 17 22 27 20 25 27 33 19 24 32 28 26 23 24 20 28 23 22 31 35 22 23 14 23 26 19 24 18 26 22 27 21 25 21 30 23 25 17 28 23 25 18 23 20 23 16 22 20 21 28 18 29 24 25 31 22 21 33 22 30 19 24 21 14 22 28 17 18 24 27 21 24 22 14 29 19 27 26 23 19 25 20 30 22 28 24 31 16 26 28 21 25 27 25 25 23 24 26 25 25 15 21 34 17 33 19 28 20 20 23 21 26 22 18 19 25 24 18 22 23 25 24 24 25 22 26 17 18 29 24 22 18 28 35 17 27 25 23 28 19 23 26 15 25 26 23 20 19 23 17 25 21 26 27 22 23 31 22 28 24 21 24 23 22 28 21 24 24 19 18 30 17 19 35 23 27 29 24 27 24 16 29 24 24 19 17 23 31 26 19 24 22 20 28 21 21 21 25 23 23 26 25 28 22 21 24 25 22 21 23 24 19 24 20 26 21 22 24 22 20 16 19 20 21 19 25 26 27 22 21 21 21 27 31 35 29 21 21 23 29 18 17 19 30 22 20 22 24 24 24 23 23 27 25 24 21 28 22 20 22 22 19 24 21 27 26 26 22 17 19 23 17 17 21 23 26 17 28 22 20 22 19 24 28 27 17 17 29 25 23 16 27 23 31 25 19 24 26 30 20 26 27 20 23 16 19 29 24 25 18 21 21 23 28 20 14 25 23 21 25 21 27 27 19 27 21 22 29 20 30 27 21 19 22 25 26 20 24 21 24 28 24 32 29 29 21 16 14 30 17 22 25 27 24 26 26 16 22 27 23 15 34 29 25 27 29 21 27 19 19 26 20 32 26 22 23 26 13 25 20 17 18 25 23 19 24 23 12 30 19 20 20 23 25 19 29 20 20 17 23 25 23 21 17 16 29 15 22 18 19 15 19 17 19 16 19 22 23 27 24 26 26 22 27 23 24 20 24 21 14 23 20 28 22 29 26 21 19 27 21 22 24 19 18 19 23 19 22 24 17 23 17 26 17 23 25 17 33 26 25 20 27 31 22 21 24 24 23 19 27 27 20 26 23 21 26 24 22 28 23 21 30 24 26 26 25 27 20 20 27 30 24 22 26 23 34 22 21 22 31 19 24 22 26 19 21 23 24 28 24 19 26 18 25 23 20 26 21 23 19 19 25 12 16 21 29 24 19 22 23 19 24 28 29 22 17 22 28 23 24 25 23 18 34 29 29 21 27 26 16 20 26 22 21 21 24 22 19 20 20 16 21 26 22 15 14 27 26 18 27 18 19 25 21 16 22 30 27 27 28 22 25 22 22 24 26 22 25 26 22 26 23 21 24 26 25 20 28 27 25 27 30 20 20 32 26 17 26 32 26 26 25 24 27 26 21 24 21 25 19 20 21 23 20 19 28 19 25 24 24 28 19 23 22 16 21 20 26 21 26 37 20 24 29 23 21 30 22 20 25 24 23 24 14 25 28 25 23 21 25 24 16 29 27 18 23 23 31 29 23 27 24 29 21 25 29 23 20 18 21 27 24 23 24 23 19 20 23 23 26 20 18 23 16 17 31 21 17 19 22 21 15 14 25 22 22 24 32 25 28 27 30 17 27 30 16 27 25 25 20 21 28 22 27 31 23 22 23 25 23 18 25 23 23 23 26 20 22 31 24 14 27 30 22 22 24 30 27 21 24 21 21 23 20 30 22 19 20 25 37 22 30 23 25 22 12 22 26 24 30 27 27 23 13 31 21 27 23 20 25 20 16 24 27 29 18 21 17 18 23 26 19 22 19 18 15 17 26 31 20 24 29 20 30 23 27 26 23 24 24 29 16 21 22 16 26 25 24 23 30 20 21 28 19 24 19 21 23 25 20 27 25 16 11 24 20 24 29 17 22 28 23 20 26 19 22 31 23 26 28 20 26 27 26 20 19 19 22 28 20 21 29 21 17 22 20 18 25 24 23 17 31 27 19 29 23 20 29 25 27 19 23 21 20 24 22 21 24 25 27 22 31 28 20 24 24 31 24 33 22 29 26 25 15 22 24 20 31 19 29 24 21 19 23 32 30 18 28 23 26 24 25 29 26 18 16 23 28 24 27 23 21 27 22 19 25 22 21 20 24 17 24 25 24 24 25 19 25 21 25 29 11 22 23 17 19 23 19 21 24 24 23 26 22 15 25 22 28 20 24 24 26 21 23 23 23 29 27 21 23 24 17 21 22 20 27 20 18 17 14 25 28 21 24 24 27 25 36 15 22 32 25 24 29 21 21 24 21 20 29 29 27 20 15 25 24 20 26 27 27 24 24 24 27 26 30 18 18 25 18 18 22 26 23 23 33 20 22 23 23 18 17 26 24 25 24 21 17 26 28 24 32 30 26 20 21 23 29 22 28 18 25 24 14 24 11 24 25 26 24 21 27 16 22 30 17 23 27 19 25 30 18 24 26 28 21 23 25 17 31 25 18 24 28 21 24 29 23 26 26 26 22 23 13 25 24 23 16 19 26 30 23 17 17 30 23 19 24 21 32 26 15 24 25 32 25 30 25 22 26 24 30 21 15 15 26 25 29 20 21 20 19 31 29 23 24 23 27 24 28 22 26 17 24 26 29 30 27 23 24 17 20 27 23 25 21 23 24 25 24 14 18 26 24 22 23 23 19 25 27 21 30 20 21 18 20 18 19 24 17 18 20 19 24 26 24 21 23 23 18 29 26 22 21 27 25 33 18 23 27 25 30 20 23 18 21 18 25 17 25 29 21 29 20 25 23 15 28 21 27 27 25 17 20 18 23 17 22 27 21 29 23 19 24 17 15 26 27 27 22 19 18 29 14 20 31 20 22 25 25 29 23 30 26 21 30 21 23 21 27 25 17 17 23 24 22 22 19 15 26 21 19 19 27 19 24 16 17 22 21 23 18 21 21 21 19 24 23 26 19 32 22 21 22 22 30 33 21 29 16 31 28 21 26 17 21 16 29 21 25 25 32 28 21 23 24 27 23 20 28 32 28 18 26 22 18 15 26 31 18 17 19 20 26 31 27 19 16 13 33 30 24 21 24 30 28 27 18 26 13 17 32 25 31 13 23 20 25 24 17 17 29 28 20 28 17 27 24 29 18 24 25 24 16 21 23 15 24 28 25 20 28 22 24 29 21 23 23 23 24 21 26 28 28 28 19 29 28 22 21 24 17 21 36 24 22 17 17 25 21 22 20 33 26 18 25 31 20 27 19 20 23 25 22 20 24 11 24 29 20 18 22 16 24 21 18 22 24 22 23 22 29 18 30 23 24 19 24 31 23 15 23 16 23 25 25 26 28 33 18 29 25 32 21 24 25 28 18 22 16 31 26 21 22 22 21 27 22 22 19 23 14 23 16 21 26 22 26 23 23 21 26 17 16 23 24 26 31 21 28 20 29 17 19 16 29 27 17 22 21 29 19 30 21 27 21 22 24 24 23 23 18 22 20 23 19 21 22 22 25 27 19 23 24 20 24 27 24 30 15 25 27 19 22 17 22 24 31 30 25 20 28 29 24 20 27 32 33 21 22 27 18 27 23 21 27 17 26 29 21 20 20 22 29 17 20 25 22 20 29 23 21 22 20 21 18 22 19 24 22 19 29 26 16 15 24 18 15 15 26 22 22 14 23 11 31 22 21 27 19 31 25 31 20 21 28 21 21 20 22 22 30 31 33 31 23 26 24 21 27 18 23 30 31 17 24 25 32 24 23 20 24 19 26 24 32 23 22 19 20 20 27 18 25 20 18 20 20 20 20 25 17 14 28 30 24 19 17 21 22 16 30 29 22 23 24 21 26 29 29 28 23 23 22 27 21 23 24 18 28 28 25 21 26 29 25 26 27 26 23 20 25 18 14 24 21 21 20 26 25 26 18 21 21 22 28 21 19 23 16 25 17 22 20 24 24 25 22 32 18 25 19 28 16 22 19 20 21 22 31 21 30 31 22 18 25 30 18 16 33 25 24 20 22 21 26 26 29 16 23 8 20 20 25 30 24 24 28 26 22 22 24 24 14 28 15 21 22 29 18 27 21 21 29 25 23 26 22 20 18 26 24 27 24 20 20 22 24 16 24 29 19 19 29 22 26 21 17 21 23 19 19 26 21 22 20 19 20 12 23 24 27 17 20 17 23 23 25 23 33 23 30 19 22 19 20 21 19 22 23 28 21 26 19 21 23 23 20 25 27 21 28 22 22 22 21 16 19 24 20 26 23 22 24 18 29 28 24 23 27 20 20 19 25 20 27 21 25 32 22 22 22 33 20 22 24 24 21 25 20 25 28 22 20 29 24 26 24 29 21 23 24 12 27 19 20 24 21 22 17 19 26 27 21 24 22 20 29 30 22 18 30 26 23 26 28 32 23 20 27 24 26 24 29 16 17 29 26 24 24 19 18 25 17 20 20 18 23 25 21 27 17 31 28 25 24 31 15 21 23 19 20 34 24 26 23 18 22 17 21 24 19 27 23 16 18 25 24 23 28 26 26 27 28 21 23 20 17 27 22 23 24 14 18 23 23 23 24 20 21 25 16 20 22 21 26 23 20 21 19 27 21 21 22 17 26 19 20 16 21 22 15 17 23 23 32 24 23 23 21 25 18 27 18 25 25 21 16 31 22 28 21 16 23 21 23 20 21 28 24 18 25 15 19 20 20 31 28 19 33 23 29 23 23 26 18 25 23 27 28 20 25 24 29 16 26 33 21 28 18 29 23 27 20 15 22 20 27 16 30 29 11 22 17 26 22 14 26 23 22 31 22 12 19 21 23 18 19 20 24 26 16 18 18 24 27 24 18 21 28 34 24 23 18 23 25 19 17 18 20 19 18 22 22 28 34 24 18 27 18 27 28 27 18 26 23 17 29 22 23 28 24 25 20 23 24 24 27 24 22 29 21 28 24 17 21 25 27 24 25 23 27 26 20 29 25 24 25 23 17 17 16 20 24 24 24 27 28 24 19 30 20 30 22 19 30 21 10 20 21 22 29 30 23 22 21 21 22 19 26 26 20 27 24 15 23 22 18 26 29 21 19 27 24 29 16 28 20 21 21 17 28 25 22 19 22 22 20 21 29 18 30 24 25 24 22 20 25 28 18 18 31 30 23 26 24 26 17 16 32 24 22 26 24 19 21 22 24 17 21 31 20 19 24 20 23 29 19 25 19 25 23 21 19 26 30 19 23 29 16 17 21 15 14 23 23 21 20 22 24 22 18 25 29 18 29 22 28 24 17 22 17 21 24 23 28 21 17 19 24 20 20 23 24 24 23 19 26 23 29 31 24 24 31 19 24 20 24 22 16 16 20 24 26 19 32 23 20 20 23 24 18 20 24 24 29 13 20 24 17 22 22 27 24 24 21 19 21 15 21 17 19 31 24 28 22 28 26 20 23 25 15 22 17 17 21 26 21 22 26 24 17 16 27 20 23 25 18 25 33 20 19 22 18 27 15 24 31 18 21 22 20 19 20 20 22 16 19 25 25 23 23 19 20 19 22 20 29 22 16 16 24 22 23 18 25 27 17 16 18 23 30 19 25 24 18 17 22 31 23 24 22 22 30 30 30 30 24 18 19 21 19 20 24 26 22 24 26 22 27 17 19 25 19 20 19 20 17 28 27 27 27 16 23 21 22 24 25 23 22 15 21 28 22 23 20 19 17 25 16 22 22 29 24 23 23 26 29 17 23 20 19 24 25 22 19 20 24 25 27 18 19 22 18 18 21 17 17 24 15 24 23 17 28 27 20 23 22 18 29 20 24 27 29 28 27 24 27 21 29 22 22 13 20 22 28 29 21 20 21 28 24 30 26 30 23 19 26 30 23 22 26 27 25 27 23 24 24 19 20 25 19 25 33 25 21 27 27 24 21 22 26 28 27 21 21 22 22 23 24 25 20 25 20 24 21 23 22 24 16 23 25 25 18 24 22 23 18 19 20 28 29 20 16 18 24 22 31 24 20 26 28 19 27 25 26 15 30 23 27 14 28 21 19 20 23 18 20 28 21 17 16 21 22 18 24 31 29 21 30 32 24 31 22 23 16 23 24 26 25 29 22 20 23 24 25 23 26 22 24 23 19 24 23 21 17 25 17 21 21 24 21 16 26 25 19 21 23 30 23 19 15 22 29 23 23 20 26 26 22 23 28 20 24 28 18 23 25 19 20 19 24 20 18 20 19 28 15 22 20 25 16 24 26 24 20 26 23 23 26 28 32 25 27 22 19 23 20 20 27 29 24 22 27 28 20 18 28 21 22 27 24 21 25 26 21 11 21 27 31 22 18 24 30 26 26 26 21 23 22 23 22 21 22 21 29 30 19 18 22 22 24 23 27 20 23 17 26 24 21 24 21 24 25 24 29 27 18 28 32 18 21 30 26 20 27 19 21 20 28 22 22 32 22 23 16 24 23 25 18 25 22 19 31 27 18 21 23 21 23 15 21 19 23 27 26 21 23 18 20 17 27 20 15 21 27 27 20 23 21 16 16 21 25 28 23 21 21 24 18 32 31 13 15 24 23 31 25 24 24 26 28 23 17 22 23 22 26 28 16 18 20 24 26 25 23 23 21 27 21 31 26 27 22 20 23 22 17 22 27 23 16 14 13 18 24 18 12 21 33 33 21 26 27 26 24 15 19 26 24 29 26 19 22 24 18 22 18 32 16 19 22 29 23 22 22 16 24 24 23 20 20 28 27 15 28 28 24 24 21 27 24 15 19 24 27 21 24 21 19 16 23 27 27 21 18 30 24 20 24 16 23 22 19 25 21 26 16 18 16 27 27 22 24 17 29 22 34 22 23 25 23 21 22 20 26 24 23 20 18 28 21 24 19 20 23 20 29 29 23 22 30 21 23 16 22 16 28 27 25 12 25 18 18 22 22 25 15 22 29 28 12 24 20 25 22 21 24 20 20 22 34 13 18 21 22 21 23 24 25 29 23 24 21 20 22 28 30 25 28 22 24 22 20 23 19 21 24 26 23 24 28 15 25 21 22 26 23 23 16 25 23 25 29 26 26 23 24 24 20 26 18 30 19 21 28 30 22 19 27 36 23 20 24 20 28 25 26 20 30 23 24 21 26 17 27 16 27 20 21 23 22 28 21 24 17 20 23 24 17 23 25 18 27 23 26 29 24 23 27 20 17 16 20 20 16 18 28 25 18 25 20 23 27 22 26 21 20 23 21 18 18 17 22 29 25 28 19 13 27 23 22 15 19 17 20 17 21 25 23 26 15 30 19 17 25 20 29 22 24 21 22 27 24 20 20 24 24 29 24 31 20 27 25 22 25 18 23 23 20 22 21 21 25 26 26 23 21 21 26 17 24 26 17 22 17 24 21 25 26 30 22 25 27 24 23 20 20 17 19 32 28 25 20 20 21 21 17 23 24 18 24 21 14 18 24 25 26 21 28 20 26 22 28 21 25 27 30 19 31 21 26 16 20 36 16 19 27 26 26 14 23 22 29 22 23 24 22 20 21 23 17 18 24 24 19 24 21 24 19 22 22 23 19 17 33 18 21 29 20 30 20 23 25 19 27 12 20 16 25 23 24 18 30 20 23 36 23 22 22 21 24 26 22 18 25 26 20 32 20 18 20 18 26 26 30 21 19 24 31 26 26 28 27 26 22 25 24 30 19 26 20 28 21 20 20 27 26 25 22 26 23 15 29 23 24 25 24 19 17 26 21 21 32 26 25 22 25 22 21 27 25 24 21 27 25 16 26 20 20 19 16 17 19 23 17 26 25 24 28 21 24 31 22 24 17 25 21 21 19 25 27 19 25 26 24 20 20 18 17 27 21 24 19 29 23 18 19 25 20 24 28 29 24 21 17 21 25 25 19 21 28 21 31 23 22 10 21 23 22 15 28 22 24 26 21 24 25 14 26 24 24 24 29 23 23 21 23 23 19 24 25 23 22 22 17 28 26 21 18 27 29 22 29 20 30 28 17 24 27 27 16 22 23 28 21 21 22 22 24 23 19 23 26 24 20 17 26 25 28 24 19 23 21 23 22 13 27 17 21 30 23 20 24 26 19 19 24 27 18 31 16 27 25 26 20 27 26 23 30 13 24 30 17 30 24 25 33 24 21 25 20 21 33 27 25 24 25 22 33 23 22 27 22 27 24 24 27 20 26 20 25 23 27 21 21 17 23 22 18 25 23 33 6 23 19 21 22 19 20 19 23 18 22 30 17 18 21 24 19 22 21 30 23 28 28 19 17 24 25 26 20 20 15 19 19 19 26 20 25 26 18 23 32 24 22 20 33 29 20 28 18 21 19 21 24 25 30 32 18 24 26 20 24 22 24 27 29 23 27 25 18 27 19 26 22 29 21 24 18 21 23 26 22 21 26 20 14 30 29 25 25 22 20 23 18 30 24 19 14 19 18 21 20 16 27 21 16 27 22 20 21 21 21 25 21 29 25 23 27 26 21 29 22 21 19 19 18 33 24 25 25 30 14 17 33 25 25 22 21 27 30 21 28 15 17 21 18 24 25 15 23 10 18 25 27 28 21 31 23 20 21 33 18 25 17 26 12 20 26 24 18 29 22 18 28 21 24 20 27 17 27 23 28 21 23 32 23 19 19 22 23 21 20 26 21 24 24 27 19 23 25 19 18 27 22 29 15 26 18 21 27 18 23 21 19 27 16 20 24 24 26 26 28 30 24 20 15 21 23 26 33 18 22 22 21 25 31 24 17 19 21 24 20 13 25 15 21 21 24 20 27 19 21 23 24 23 20 21 26 16 26 32 19 21 16 19 20 21 24 32 20 22 19 24 26 28 30 23 25 22 23 23 25 28 18 23 29 19 27 30 15 26 22 17 26 19 24 26 21 33 27 26 25 20 22 26 16 22 22 24 15 22 17 19 22 21 19 18 30 25 32 24 26 23 24 22 27 20 16 19 17 27 20 19 23 18 22 20 16 19 24 22 25 29 21 31 25 24 22 20 19 21 20 21 31 23 31 25 27 18 23 21 24 17 21 28 23 19 22 22 22 26 19 25 23 23 21 24 29 21 18 21 20 15 24 22 15 21 21 17 21 29 18 32 16 33 21 19 19 20 23 32 25 23 20 22 25 21 21 28 19 22 18 28 22 21 27 21 27 28 33 14 23 21 24 21 20 20 19 24 24 23 31 19 21 15 21 23 17 23 16 27 20 32 19 35 18 20 19 23 18 23 24 16 27 24 30 28 22 20 30 27 28 21 17 16 22 29 30 26 31 24 20 26 26 25 25 25 35 25 22 22 26 19 20 24 18 16 22 31 26 21 19 23 25 20 17 20 26 28 21 19 23 32 25 20 30 18 27 24 32 26 16 32 27 24 23 18 21 25 28 23 14 25 22 21 21 26 30 22 23 27 20 24 16 24 20 18 28 17 19 16 22 21 23 24 22 16 19 25 16 27 19 34 21 20 28 26 24 25 24 24 22 23 26 26 20 23 30 27 27 28 26 22 28 21 18 21 31 18 21 27 27 20 23 13 21 24 21 18 28 24 16 19 26 21 17 22 26 24 25 21 28 24 19 25 29 29 17 22 23 17 28 24 23 24 29 15 22 25 22 25 19 26 21 18 18 26 21 18 28 21 23 22 23 22 35 35 18 17 28 24 27 19 18 23 18 24 29 24 23 21 20 21 19 24 26 29 17 27 18 19 27 19 28 21 17 23 22 17 27 20 19 14 21 24 17 22 29 26 21 28 26 20 25 24 21 15 22 23 32 18 25 20 20 31 28 32 29 29 16 22 21 23 20 26 21 30 26 23 20 31 18 21 23 17 19 22 21 26 24 19 23 22 19 25 19 20 26 22 22 25 23 16 24 25 28 23 33 26 24 22 24 28 27 18 22 23 23 19 23 22 19 26 23 15 24 16 19 24 19 24 26 24 23 25 17 31 23 15 24 21 15 22 22 25 20 26 22 22 28 21 18 22 24 25 25 12 27 20 21 32 20 35 26 33 22 19 19 31 23 24 30 23 19 19 26 26 29 22 35 22 20 23 15 18 21 22 25 27 26 27 26 31 18 23 27 20 23 25 22 18 23 29 22 31 20 22 15 25 25 19 23 24 25 17 24 28 20 26 20 23 26 23 23 19 28 25 16 28 20 17 22 20 26 23 26 24 27 20 27 21 21 26 28 16 25 18 22 27 23 24 22 22 25 21 38 19 22 21 23 22 17 27 23 24 27 22 24 25 24 21 22 28 31 20 15 21 15 20 22 21 35 18 24 28 24 25 21 20 22 20 17 23 22 14 28 23 22 20 24 22 18 27 26 27 14 22 21 21 25 28 21 22 20 22 21 26 33 20 22 29 24 35 17 22 31 21 27 25 21 25 29 17 22 23 24 26 25 28 28 26 22 27 22 25 22 17 21 30 22 24 18 26 25 19 22 26 19 23 29 24 20 21 24 18 30 24 24 25 17 23 22 21 27 29 18 25 28 24 28 23 30 21 25 20 18 19 26 23 15 15 28 18 23 20 29 24 27 34 17 17 21 24 21 23 16 23 17 19 18 19 22 26 18 22 18 30 17 23 28 30 32 24 17 22 25 27 26 28 29 21 18 29 25 20 25 29 26 27 26 17 16 23 24 14 27 28 25 16 23 18 29 25 19 30 16 21 27 28 21 32 24 13 18 22 21 17 22 17 24 21 17 31 22 27 25 20 24 22 27 18 24 20 27 23 19 18 22 24 32 29 19 26 21 19 29 17 26 24 23 27 22 14 20 27 20 29 15 23 20 29 16 26 23 18 21 18 17 23 22 26 18 26 14 22 18 25 25 20 16 27 23 17 22 20 26 31 17 24 21 18 24 20 27 28 28 20 22 21 22 23 24 26 23 25 21 20 27 23 21 19 23 22 19 29 21 21 17 25 29 23 26 25 28 12 19 21 22 23 23 26 24 16 31 23 23 28 29 25 20 21 16 21 20 28 27 24 21 19 18 15 33 25 29 17 24 23 18 24 25 23 14 27 22 20 22 23 19 28 15 24 23 24 21 26 15 26 22 23 24 29 22 20 22 20 29 15 20 23 18 22 22 23 25 24 29 32 24 25 24 17 26 19 20 20 19 22 20 25 27 26 22 22 26 22 25 17 20 27 24 19 20 30 24 21 23 30 23 20 25 21 22 19 21 24 23 22 27 22 25 19 21 22 28 20 14 23 22 26 30 23 22 15 21 24 31 21 28 22 11 19 23 20 24 22 22 31 25 24 18 25 25 14 23 17 20 18 23 24 23 28 27 15 25 20 26 22 15 26 20 37 25 23 24 29 24 19 23 22 24 21 21 19 16 32 27 27 16 17 14 26 21 22 18 26 30 26 26 28 22 28 14 21 22 27 28 26 29 24 22 21 19 21 20 20 16 24 16 29 26 27 23 18 22 19 22 22 22 18 22 19 20 24 18 23 25 19 17 19 22 25 23 20 22 24 17 35 21 31 36 22 22 23 21 26 16 17 21 19 19 33 16 17 25 26 35 27 21 25 25 27 26 22 25 27 25 25 18 27 28 15 23 26 20 28 21 27 26 15 25 26 19 19 30 29 22 27 25 22 22 26 30 30 17 15 21 19 22 20 17 16 21 26 21 24 25 22 21 21 21 31 19 30 23 24 18 26 26 23 25 25 18 31 28 32 23 21 22 28 23 14 19 22 17 26 31 15 24 16 24 20 29 21 26 24 24 28 24 28 19 24 22 30 24 31 23 21 21 19 25 19 30 19 23 22 24 26 22 27 26 30 19 22 21 28 30 21 20 28 26 29 24 16 23 27 19 22 25 25 17 17 19 26 26 27 30 20 23 25 29 20 25 25 33 19 23 22 23 18 24 21 23 25 16 23 19 25 23 25 21 25 26 27 23 23 21 24 26 19 25 16 23 18 29 33 13 21 20 19 23 28 29 21 24 19 23 21 16 21 20 19 24 19 20 25 22 17 16 28 18 17 24 23 22 28 25 29 20 24 27 24 25 20 15 24 27 24 24 28 22 23 17 23 21 24 23 21 25 27 25 27 22 25 26 21 21 31 21 19 19 26 18 12 41 16 23 23 27 19 28 18 23 17 25 24 18 22 17 23 20 16 25 20 18 23 24 24 18 19 23 23 17 28 30 19 25 28 22 22 26 23 22 18 29 21 29 26 24 24 22 26 15 27 17 25 22 25 15 31 26 25 21 20 20 18 24 27 16 25 24 16 20 28 20 31 26 21 25 28 18 13 33 17 25 24 17 15 20 17 23 14 22 28 18 18 17 23 26 23 21 18 27 27 17 19 23 26 26 18 21 25 29 22 30 25 25 24 31 19 21 29 23 28 19 21 20 21 28 29 19 35 24 26 21 25 29 24 22 17 20 18 19 19 27 25 28 25 24 24 17 18 19 25 14 25 24 15 29 28 18 23 22 22 26 17 22 31 31 26 22 27 24 19 27 26 21 20 21 21 16 12 21 23 18 23 16 13 25 21 27 19 23 27 21 25 29 21 24 23 21 22 22 28 32 26 25 24 18 21 25 16 20 28 32 23 23 13 20 24 24 26 32 25 19 20 22 28 25 28 30 25 23 23 21 17 26 20 24 21 28 20 25 22 25 31 23 20 28 18 20 22 23 18 30 25 23 23 29 31 22 19 23 23 30 20 23 22 14 23 28 28 20 26 19 24 26 23 17 15 30 19 24 27 19 25 25 21 19 25 21 24 27 28 24 28 25 20 24 24 30 29 28 25 23 21 28 30 27 25 25 22 23 24 27 9 21 19 23 20 23 25 24 25 22 21 24 19 28 22 26 24 26 29 26 21 26 19 20 18 22 18 20 24 22 24 22 18 24 26 22 19 21 23 24 22 31 27 22 22 22 27 30 20 20 28 23 27 20 25 32 22 16 31 20 18 14 23 20 18 32 20 24 22 25 26 18 24 18 22 22 29 30 30 13 31 27 27 22 26 15 22 29 23 24 23 22 22 25 15 24 22 18 23 34 18 19 26 22 24 25 25 24 19 20 28 24 29 34 24 26 23 27 19 13 17 19 28 23 21 29 15 28 23 22 20 25 17 19 20 28 17 22 34 25 21 19 24 25 19 26 19 24 22 22 20 19 22 25 18 28 29 30 17 21 28 25 22 16 26 19 15 34 20 21 24 19 24 22 20 24 18 27 16 22 18 31 27 19 26 23 27 24 28 26 21 14 32 26 18 24 18 15 21 28 17 28 24 24 31 31 21 18 19 19 20 17 29 20 19 23 15 24 21 23 22 26 21 26 25 22 28 29 29 19 24 21 24 18 28 17 21 20 28 25 21 26 18 31 27 22 21 26 29 21 27 19 22 22 17 24 25 24 31 22 28 24 22 15 20 21 26 22 18 13 22 22 27 28 17 22 22 24 24 18 15 24 22 21 17 26 17 19 22 24 15 25 29 25 21 19 24 19 26 27 19 31 22 28 34 28 20 26 30 26 12 26 20 21 22 24 23 27 30 25 22 21 23 18 20 25 17 20 16 26 15 25 26 23 32 24 18 32 22 20 26 23 21 25 20 31 29 18 20 25 22 18 22 30 21 20 21 21 18 22 18 20 23 12 19 18 26 22 17 26 23 21 26 23 23 18 22 25 25 18 19 25 23 26 24 29 21 17 24 29 25 24 26 31 24 20 30 17 23 13 27 27 35 24 22 25 23 34 16 25 18 26 24 27 10 23 23 29 22 16 27 20 23 27 31 22 26 24 24 23 20 17 14 18 22 21 21 24 35 16 22 29 33 24 27 16 24 23 25 25 15 29 21 20 16 31 22 25 26 30 21 28 23 24 22 16 26 27 14 27 22 26 19 20 28 29 26 24 22 25 27 21 19 20 19 20 20 26 17 23 15 24 13 26 19 16 26 23 21 30 22 25 19 27 16 25 17 20 25 21 29 26 24 31 33 23 26 24 21 28 23 25 29 28 29 15 14 20 24 25 34 23 23 25 21 28 37 21 28 27 28 11 28 28 23 26 22 21 18 19 19 24 21 20 25 21 25 26 15 20 18 25 20 28 28 20 16 31 28 21 26 18 23 20 18 19 26 27 23 17 17 22 26 27 24 32 25 25 31 26 19 30 20 24 23 25 25 13 25 23 31 24 16 18 20 22 18 23 31 23 25 19 20 20 19 20 24 23 16 30 23 26 29 17 24 24 18 17 19 17 27 23 21 22 22 27 20 23 19 29 23 27 26 17 16 18 24 14 28 25 20 19 16 25 21 20 18 21 26 25 21 21 29 16 23 27 18 20 19 35 17 24 18 30 25 25 31 25 24 24 19 24 27 28 29 26 28 20 30 24 23 18 20 30 17 21 18 30 29 26 20 27 28 20 23 26 22 24 23 18 16 17 24 15 25 24 21 19 26 24 21 26 22 26 23 24 26 21 22 22 25 20 26 20 15 28 26 16 17 20 22 25 20 32 20 19 21 19 22 17 23 26 19 24 20 29 25 18 18 22 20 29 17 19 21 21 19 25 32 22 20 22 27 27 27 30 27 15 16 28 19 31 19 26 26 19 19 18 21 23 26 27 27 24 18 18 35 24 29 18 24 24 23 23 26 23 18 16 25 25 22 20 26 15 32 30 19 19 21 31 20 28 33 23 23 23 28 25 20 30 21 20 20 23 21 17 19 25 27 24 29 23 26 26 24 27 26 26 23 20 22 15 23 19 23 22 20 24 20 17 35 29 18 26 21 26 17 31 19 22 24 25 25 24 19 26 21 23 26 21 21 25 27 21 20 19 27 21 19 24 24 17 18 19 18 16 25 28 26 24 28 21 20 25 17 24 25 17 19 20 26 18 20 26 22 25 30 21 23 21 20 23 25 18 19 25 18 30 21 22 22 19 25 22 24 24 16 28 23 17 17 14 20 22 30 24 23 25 22 25 26 19 29 23 25 18 17 27 19 22 25 29 19 24 23 19 25 25 23 18 28 21 22 20 21 27 21 25 29 23 22 24 22 30 22 30 20 19 22 22 28 25 23 16 21 25 23 16 22 22 26 18 25 19 24 19 19 28 21 22 20 21 23 23 25 27 17 17 20 21 23 27 26 26 20 22 21 20 25 29 24 27 24 22 23 22 24 25 30 21 22 18 21 23 15 19 27 29 23 21 17 29 24 26 25 20 28 27 24 23 27 29 25 19 22 34 19 25 25 26 24 17 38 20 18 27 18 18 20 31 24 17 23 17 26 19 22 17 24 20 26 24 23 22 20 26 27 17 30 19 18 23 25 27 23 22 25 24 18 22 21 20 21 31 27 15 31 28 25 23 27 28 23 27 26 18 28 22 20 28 20 20 27 18 20 23 27 17 31 31 18 21 14 25 21 19 20 26 27 27 17 23 23 21 19 28 20 25 21 25 22 20 22 13 20 33 17 15 21 28 29 18 29 20 25 29 25 28 17 27 20 28 22 24 22 21 24 21 17 25 23 25 17 25 27 27 27 19 24 14 24 30 23 21 18 20 25 24 17 26 11 23 26 25 21 22 24 21 21 21 21 25 24 17 28 18 19 25 20 27 37 27 24 24 23 24 19 24 26 20 21 24 28 27 21 18 30 16 24 21 32 22 28 28 20 13 29 25 22 31 29 22 27 16 19 28 30 22 26 25 19 16 20 20 22 15 23 21 21 24 18 23 30 24 28 28 19 23 12 18 24 25 28 20 24 19 23 18 22 21 25 20 26 25 22 19 22 21 31 21 29 21 15 23 20 30 25 16 19 22 26 23 16 21 19 25 24 17 26 20 21 21 22 23 20 21 32 28 22 18 21 26 19 25 17 19 22 20 30 28 23 18 26 23 33 25 20 22 19 28 24 25 20 28 20 27 32 21 30 12 23 30 13 21 15 20 23 26 22 25 26 21 24 16 20 25 17 16 24 27 20 21 20 28 14 20 22 19 22 21 22 22 26 22 24 18 24 30 28 25 21 30 22 21 23 20 25 22 13 20 22 30 25 20 25 20 28 24 22 16 21 20 29 25 24 26 22 30 27 22 26 20 24 15 28 28 29 22 18 17 17 25 34 25 21 26 20 20 24 28 24 25 21 22 29 21 27 24 31 23 20 27 16 19 16 24 23 16 23 25 21 26 18 25 19 20 32 31 17 25 21 31 24 23 24 17 22 21 27 24 21 23 21 18 21 23 20 23 17 12 17 20 18 28 23 29 17 23 22 17 21 21 26 19 29 25 24 16 21 25 24 25 23 25 25 23 22 24 18 22 21 25 25 22 28 26 24 24 30 22 17 28 18 25 21 23 25 18 17 27 20 27 25 22 26 27 23 22 27 22 25 27 24 29 17 33 20 30 17 20 26 20 23 27 29 27 24 23 23 22 16 18 21 22 22 31 22 26 19 19 21 17 17 26 24 25 21 29 22 22 23 17 24 28 17 17 14 28 23 24 28 30 25 20 22 17 24 25 18 25 33 24 18 25 32 24 22 28 24 18 28 20 23 24 31 17 23 29 18 22 21 19 25 30 19 19 23 24 27 25 27 27 18 25 25 20 17 26 16 27 24 24 25 18 25 20 26 18 28 26 24 22 23 30 26 22 28 26 13 29 23 26 12 19 18 23 21 24 28 34 27 15 26 28 24 22 24 27 28 24 29 20 23 27 16 26 19 24 31 26 24 15 18 18 24 22 15 28 17 21 22 28 29 22 29 23 21 20 19 25 30 22 25 31 23 25 25 18 26 16 19 14 28 24 23 20 16 27 16 30 25 23 25 19 22 19 25 21 19 15 24 24 27 21 26 30 28 27 18 34 18 20 22 26 23 29 22 19 22 17 25 25 17 28 24 23 20 18 22 22 18 29 23 21 25 24 24 17 21 26 28 22 25 17 29 27 17 19 33 19 24 17 25 20 24 18 19 21 24 21 24 19 25 20 22 32 19 16 28 32 20 24 33 18 21 18 26 23 22 28 19 21 28 25 19 23 20 24 28 23 18 25 24 26 18 28 23 24 24 30 31 22 21 22 26 29 22 25 28 18 19 21 31 24 28 26 24 28 19 21 24 25 13 21 16 28 20 19 25 26 26 20 20 24 28 32 24 29 24 27 21 24 24 21 27 25 27 28 25 23 25 20 21 28 24 11 22 20 31 30 29 20 23 23 19 24 19 29 22 22 16 19 23 22 21 15 22 18 20 24 32 23 24 16 27 24 31 21 21 22 30 24 25 20 28 24 22 25 24 23 22 21 22 25 23 24 21 17 19 22 26 31 22 31 26 20 20 16 24 20 28 25 21 26 17 28 24 29 12 24 23 23 32 20 18 18 25 15 23 22 20 17 25 31 19 26 20 24 21 20 27 25 25 23 22 22 16 30 26 17 21 26 25 26 23 24 22 23 26 26 31 20 25 24 16 21 24 14 20 25 29 24 24 19 25 15 21 18 21 23 20 23 21 22 22 20 24 21 28 26 16 17 19 23 25 10 29 27 22 22 22 23 17 24 25 18 24 28 25 23 23 20 20 22 24 29 26 26 23 24 24 17 17 17 19 24 20 31 22 22 22 21 22 22 32 33 23 15 22 34 25 36 18 26 23 26 22 19 19 18 22 31 19 22 21 22 29 22 30 21 27 25 24 27 26 21 23 26 13 19 16 26 27 29 23 14 22 30 20 25 17 24 22 28 18 21 26 25 22 34 25 22 23 23 26 18 29 21 26 27 18 30 28 19 21 29 20 26 22 19 16 31 20 24 18 28 29 23 22 26 26 29 18 29 30 18 23 22 20 20 24 23 34 25 21 20 22 17 23 27 29 26 24 22 18 28 26 22 25 28 25 17 21 27 29 22 24 21 28 24 23 29 22 19 17 19 23 24 23 19 26 17 25 18 24 27 26 25 25 25 28 30 19 28 16 30 26 18 25 10 23 28 25 24 20 22 24 21 19 20 25 19 24 25 21 20 19 21 26 23 23 24 17 25 21 22 21 24 16 21 23 25 17 24 17 22 25 27 23 27 14 27 11 27 23 26 18 30 31 18 17 16 19 28 18 22 21 27 25 23 28 18 29 22 19 21 17 16 30 23 16 20 18 26 24 24 21 30 23 27 23 22 27 22 30 23 23 23 21 19 30 26 29 19 20 28 21 14 17 28 21 28 24 21 28 29 26 24 22 19 27 16 20 23 17 17 19 25 25 26 21 17 21 23 24 18 16 28 20 31 29 23 23 33 19 18 25 35 26 21 19 19 21 28 22 20 26 24 20 27 26 20 22 20 18 20 18 24 29 21 22 34 23 27 31 23 21 17 24 25 23 29 20 20 15 26 22 23 27 20 18 23 30 18 24 23 25 26 23 22 27 20 29 23 21 17 28 27 22 23 21 20 25 24 24 25 15 18 18 23 15 20 21 21 24 18 20 18 24 28 10 25 26 22 29 28 21 13 25 29 21 24 19 24 24 27 31 21 27 22 26 22 27 22 29 29 18 21 27 25 26 20 18 21 17 23 21 22 22 30 24 21 19 18 22 20 20 18 26 19 27 22 23 23 23 17 23 22 25 31 31 25 27 16 27 20 22 27 21 26 18 15 25 21 28 20 21 26 26 18 27 19 28 26 21 19 22 22 26 20 19 26 22 23 23 24 23 22 22 22 25 24 28 33 20 21 26 20 14 30 23 25 21 26 18 23 21 13 21 18 24 25 18 27 17 19 26 23 18 16 31 28 33 29 21 21 18 19 20 21 22 31 22 17 26 20 19 17 23 12 28 26 18 21 27 23 27 24 19 28 20 24 26 20 15 20 24 29 21 24 27 32 22 33 27 18 24 20 26 23 21 33 21 23 21 25 27 22 20 24 14 23 24 26 27 16 19 25 21 25 19 27 25 25 21 21 25 25 25 24 29 22 24 26 21 25 24 18 24 22 25 30 21 24 22 26 27 28 29 19 27 17 21 20 19 23 23 18 18 19 21 24 16 21 27 17 25 23 24 28 23 27 29 20 28 24 19 26 18 25 18 16 29 30 12 19 22 28 18 17 22 29 25 24 21 25 29 27 25 18 23 26 34 35 24 25 18 19 21 22 19 25 21 21 26 25 21 23 24 27 22 21 25 18 20 21 20 23 22 26 15 19 20 28 19 26 18 30 28 26 18 26 28 22 20 30 20 25 19 21 21 23 28 28 24 23 17 24 21 27 28 22 23 22 21 26 17 26 25 30 23 17 24 30 25 17 25 27 17 23 18 20 23 28 23 23 26 25 17 13 20 23 27 29 23 22 25 20 32 27 17 21 20 28 24 23 31 26 21 22 20 22 19 30 21 34 26 24 16 22 26 24 24 21 18 22 35 25 22 21 26 25 24 21 24 19 28 19 22 23 24 13 26 21 19 21 16 24 25 20 24 28 31 24 23 20 21 19 26 21 16 29 28 17 29 21 29 25 17 23 20 26 19 25 18 21 23 20 20 29 27 19 21 30 31 22 18 23 18 19 23 32 22 20 33 18 21 21 33 23 28 25 29 22 20 23 27 27 25 18 31 19 27 28 23 24 20 21 26 24 19 18 26 27 23 26 26 22 22 24 24 14 16 22 23 19 26 22 26 25 19 22 17 21 29 30 23 15 20 26 21 20 18 25 19 24 27 25 25 26 26 14 29 21 33 26 27 19 25 22 16 25 22 19 31 27 21 26 23 22 24 21 26 19 25 19 25 26 22 28 28 32 29 19 30 29 29 16 23 21 23 21 20 22 16 19 26 17 27 22 14 22 18 28 28 22 24 28 19 27 22 23 21 23 25 23 28 22 25 21 26 24 23 18 20 24 19 25 27 22 17 17 21 25 26 25 26 28 23 22 23 27 24 15 21 23 24 24 25 19 25 28 19 18 20 19 23 23 22 19 23 19 25 25 20 24 19 24 22 23 29 29 24 20 20 17 18 27 31 22 20 23 20 29 23 19 28 25 18 22 20 25 25 28 27 27 25 19 22 19 21 24 25 21 19 19 21 21 23 25 23 22 31 25 25 18 31 19 14 31 30 18 21 17 19 21 28 20 19 18 26 20 21 20 29 15 12 15 32 25 18 31 19 24 25 30 15 24 20 17 35 20 23 16 22 19 25 30 13 15 25 24 24 24 22 21 24 21 25 24 23 28 21 20 23 27 24 31 19 16 20 23 24 23 16 31 24 28 24 21 27 14 20 22 19 21 25 25 21 27 13 23 26 31 25 21 18 21 21 17 27 29 22 22 26 22 23 16 24 20 23 21 30 27 31 17 26 25 15 20 19 20 28 23 25 17 21 23 19 28 23 24 28 22 23 22 27 33 20 24 20 20 24 16 18 16 18 22 25 24 20 28 21 25 26 21 22 17 23 24 23 22 23 23 19 29 22 20 35 24 20 27 34 28 15 24 26 15 25 22 20 31 31 22 28 26 20 22 15 19 18 19 22 16 14 24 18 20 21 32 23 27 12 24 22 26 25 27 29 25 23 25 25 25 23 31 25 19 24 27 25 22 27 23 21 24 24 18 32 30 26 29 16 23 16 28 22 20 25 25 25 25 16 17 26 27 27 23 27 18 25 20 28 27 21 21 23 28 27 23 21 17 27 26 29 28 17 24 21 21 25 21 22 19 23 22 16 19 25 23 22 25 25 19 14 21 18 20 25 25 24 20 29 28 26 19 28 19 16 22 21 21 28 30 26 27 29 21 20 27 17 19 15 22 23 18 21 18 26 29 22 25 23 24 29 20 29 20 23 33 23 22 20 17 23 28 22 26 19 21 18 22 22 24 19 25 17 24 23 26 24 21 25 25 26 25 22 26 21 20 29 19 22 21 22 21 24 32 24 17 15 30 28 19 19 17 20 24 20 24 23 24 20 20 21 20 27 24 20 18 25 22 21 22 28 19 22 22 22 21 29 19 26 26 32 19 25 27 24 23 23 26 21 31 22 20 21 22 18 23 30 24 21 21 23 22 22 25 23 20 24 26 24 24 25 23 24 24 18 24 30 28 29 21 26 22 23 24 28 25 27 16 26 28 19 20 24 24 16 18 17 28 21 26 24 14 28 25 26 25 24 24 14 32 17 18 18 23 20 23 18 23 26 21 19 23 24 25 27 20 25 14 20 24 26 15 27 24 24 17 24 28 22 18 27 17 24 25 21 24 23 16 28 24 26 30 19 27 18 26 31 27 21 20 19 20 19 21 22 20 27 23 21 27 25 22 18 19 26 26 26 18 23 26 26 19 15 20 25 31 20 22 26 32 23 20 23 18 25 18 16 23 25 23 22 19 16 26 18 34 23 22 24 24 21 20 19 16 23 21 18 25 20 35 25 33 23 13 22 21 22 22 13 16 29 20 22 25 34 27 18 25 16 18 17 25 22 28 19 31 22 19 24 24 22 21 20 12 18 24 34 27 29 18 25 20 21 26 23 25 22 24 25 23 25 31 20 15 19 19 19 22 30 28 28 27 24 27 24 18 18 23 22 26 23 21 23 28 19 31 25 23 19 22 20 24 18 16 26 25 21 28 22 22 15 27 25 25 23 24 25 22 27 29 23 24 16 18 20 24 31 26 23 22 21 18 22 20 21 23 19 23 17 23 31 18 19 17 23 23 16 25 22 23 29 24 19 25 23 18 27 12 18 25 22 27 26 16 18 25 32 24 25 23 19 19 26 30 20 14 13 31 30 18 24 30 14 30 23 28 22 22 17 27 30 30 25</t>
+  </si>
+  <si>
+    <t>EXN(0.5347738680480578, 31.367079615446688, 4.882994002394428)</t>
+  </si>
+  <si>
+    <t>30 34 36 27 31 27 40 32 33 40 39 41 32 37 34 30 35 39 32 45 31 32 38 37 36 29 30 31 42 39 32 43 27 39 29 30 39 44 37 26 34 42 37 35 30 43 35 32 33 27 34 32 35 38 36 27 27 37 40 28 36 49 45 42 34 39 39 36 27 26 38 33 44 38 38 25 33 30 32 48 29 32 28 25 39 30 23 30 35 43 34 44 36 43 31 38 27 35 25 46 39 39 45 30 34 27 25 35 37 20 34 36 20 27 30 36 33 35 34 42 32 38 30 43 35 37 34 36 34 33 29 38 37 40 32 25 19 38 34 27 39 41 29 38 32 27 26 37 39 36 37 23 29 33 34 37 40 34 29 37 24 29 29 30 32 29 35 41 35 37 39 31 36 29 42 35 20 32 37 32 34 26 36 40 27 26 37 32 35 35 31 35 29 29 30 39 34 32 27 31 28 29 31 33 26 38 35 40 30 33 29 34 38 35 43 32 26 40 28 35 23 35 35 34 23 27 25 30 33 28 42 29 34 32 30 41 33 31 24 33 42 31 37 38 36 29 30 27 32 36 31 28 23 36 29 28 33 38 39 37 32 30 34 37 37 29 31 26 35 29 34 43 37 34 33 36 33 37 41 33 24 41 36 31 32 32 28 33 23 26 29 31 31 48 30 26 40 36 29 32 34 25 46 33 30 44 32 36 35 26 30 37 35 34 35 33 37 34 35 34 43 26 30 38 44 40 38 33 38 27 27 31 40 35 31 31 39 38 37 36 21 35 44 40 37 31 38 25 34 34 43 36 39 29 29 35 46 38 33 28 36 30 34 31 29 36 25 33 36 27 37 33 39 31 20 32 38 38 30 29 40 39 32 41 31 33 36 37 33 41 30 37 37 35 30 29 32 37 33 42 35 29 33 39 28 39 27 24 32 30 29 29 39 44 36 36 39 33 42 41 33 39 35 44 35 39 41 39 36 35 33 27 35 33 36 44 45 34 34 26 39 38 28 40 24 40 30 39 30 36 30 39 31 35 28 35 39 34 25 38 29 38 23 32 32 32 36 33 44 34 33 39 36 29 45 34 38 33 36 30 27 33 42 32 33 34 39 31 38 32 27 46 29 36 45 33 21 35 28 38 31 42 36 45 32 35 43 37 40 35 35 35 31 42 38 40 33 33 30 46 32 43 33 44 31 29 34 32 36 30 25 27 41 38 28 31 31 37 33 33 41 35 34 27 33 43 35 29 35 41 47 22 42 35 32 43 31 30 39 26 35 41 35 29 39 29 35 33 28 34 35 31 33 39 33 36 37 33 37 29 32 40 34 41 41 36 27 43 21 32 43 33 42 40 43 41 42 30 37 39 35 23 30 35 39 34 29 36 29 29 39 31 31 36 32 37 32 37 35 43 33 29 34 37 35 34 35 28 28 35 25 37 36 33 34 32 27 25 27 31 36 28 38 37 33 36 32 31 25 35 41 51 38 32 28 33 38 30 26 29 40 29 28 38 32 37 30 37 36 39 35 32 35 42 34 33 36 34 37 32 32 42 32 38 33 32 30 33 33 30 33 31 36 27 38 36 28 29 31 33 39 33 27 28 38 30 30 25 40 36 43 32 30 40 40 43 30 39 37 28 37 28 30 34 35 35 26 31 26 30 47 33 20 35 29 29 31 33 33 38 29 40 31 34 42 28 38 42 28 29 32 41 34 31 31 33 37 39 36 45 38 36 39 28 18 45 32 30 32 37 31 35 45 26 34 33 32 20 46 38 36 40 45 30 33 31 31 33 38 41 42 30 38 39 23 42 35 26 26 33 32 32 44 31 20 38 28 32 31 30 37 32 42 36 25 35 42 43 32 37 22 29 39 25 38 28 27 22 32 32 33 34 34 38 34 32 30 41 29 31 36 35 40 29 32 31 20 34 25 38 31 40 33 32 27 33 34 40 36 30 30 30 34 31 35 37 24 40 25 40 22 29 37 25 45 39 30 30 38 41 28 30 37 35 38 26 37 35 27 41 31 35 38 36 32 50 40 30 41 35 40 44 31 34 33 29 36 40 37 33 38 38 50 36 31 35 46 34 32 34 33 25 35 34 34 39 33 30 40 34 36 36 33 31 43 36 33 31 40 24 33 42 44 34 38 36 38 31 26 36 41 33 28 34 38 30 34 42 29 28 46 33 43 32 35 34 30 31 34 42 31 33 32 31 26 28 31 25 32 37 34 22 21 37 37 28 37 34 34 34 29 28 32 40 41 36 33 31 33 30 34 30 45 39 41 43 30 34 39 26 35 37 40 30 40 41 42 44 41 29 28 39 32 29 35 51 36 31 36 39 37 36 31 33 36 31 35 34 27 34 27 25 39 28 33 33 31 39 36 33 31 25 34 28 44 42 33 44 29 35 39 33 37 36 40 30 36 34 28 38 27 31 36 39 32 37 36 34 27 33 34 29 30 41 48 42 32 35 38 38 35 33 37 35 27 31 29 36 35 30 34 37 25 26 33 33 38 31 33 36 29 32 43 31 28 31 33 33 25 25 37 36 34 36 40 33 34 36 39 30 33 37 31 35 42 31 25 31 37 36 37 46 30 30 34 36 35 30 35 39 33 40 36 31 35 41 38 24 35 41 40 29 39 42 32 34 33 33 30 31 30 41 40 23 30 41 50 30 42 38 36 31 18 39 41 37 49 37 31 30 21 41 24 43 31 33 35 32 27 40 46 38 24 35 29 24 38 36 27 34 32 27 20 29 36 44 28 32 41 38 39 42 38 34 32 39 39 40 28 30 32 23 39 36 34 32 48 28 37 40 30 36 39 32 25 33 34 39 34 27 19 37 29 37 41 25 34 34 37 30 35 32 39 48 32 33 54 29 39 35 32 32 40 32 38 40 31 30 44 33 21 33 32 31 37 40 36 24 39 34 32 48 36 32 36 35 37 30 32 37 32 35 30 26 33 33 39 27 36 41 34 29 33 49 30 44 33 42 36 36 32 31 38 37 45 28 38 34 32 32 32 43 43 27 41 35 35 37 34 35 34 29 31 38 39 31 33 38 31 36 33 28 30 30 31 35 36 27 36 37 36 30 32 31 33 32 41 45 27 37 34 26 29 33 25 34 36 39 32 35 27 28 30 43 33 31 30 33 39 32 34 36 29 39 47 31 31 35 30 36 32 39 35 23 43 29 27 31 43 36 34 32 37 29 44 30 36 40 30 32 39 29 33 37 35 34 41 41 34 32 27 33 31 27 39 38 44 33 32 33 40 39 42 30 34 38 31 25 35 34 31 44 48 29 33 30 33 29 26 39 35 34 39 31 36 37 45 37 46 36 35 30 30 38 41 28 40 32 36 33 26 38 23 33 34 40 34 32 40 29 27 39 29 37 35 29 37 35 28 38 35 39 26 33 31 33 43 35 30 37 32 25 39 40 34 37 37 41 33 28 25 35 37 36 27 24 35 40 32 24 22 37 34 29 34 29 44 37 23 36 38 41 40 46 33 33 38 35 36 35 23 26 39 38 38 34 30 31 27 43 39 30 38 34 36 36 40 29 37 21 34 42 40 38 40 40 34 25 31 36 30 36 26 40 33 37 33 21 30 44 31 29 42 35 34 31 38 32 32 27 31 32 28 30 25 34 31 26 27 29 29 38 31 30 37 34 34 44 32 32 33 48 36 39 27 37 40 30 44 33 35 29 31 20 40 27 33 46 35 46 30 46 34 33 39 33 37 35 42 25 30 31 33 27 35 40 31 41 34 29 29 24 24 31 39 36 36 34 32 42 24 31 40 31 39 35 36 35 32 42 34 34 40 28 32 32 37 37 25 29 30 35 29 34 33 31 41 36 29 27 35 27 32 27 26 39 29 34 25 37 34 34 33 33 36 36 29 41 27 31 36 30 42 48 32 35 25 45 38 36 44 30 30 31 37 39 32 33 40 43 40 40 30 38 38 30 37 44 38 27 36 34 27 24 35 37 30 32 30 27 37 35 35 37 31 30 54 40 32 35 42 42 35 40 32 34 25 27 47 44 45 25 34 29 38 28 27 27 45 43 32 41 24 39 35 41 25 36 48 34 25 40 37 25 33 37 34 35 42 39 38 39 29 38 31 32 31 27 41 45 46 42 30 37 40 32 30 30 23 38 51 31 31 25 23 31 29 33 27 43 45 37 39 42 36 35 24 26 31 36 34 28 36 26 36 39 34 22 39 32 29 35 28 38 38 29 37 36 38 24 42 29 34 25 43 44 41 28 35 28 33 34 41 32 35 43 34 39 34 46 35 34 38 35 35 32 32 41 39 32 38 28 37 36 32 34 37 29 25 34 27 26 43 38 37 35 30 29 39 28 27 41 33 37 37 33 35 28 34 26 29 28 41 37 22 36 38 39 28 50 28 37 29 34 33 35 35 29 30 34 26 34 28 35 30 36 34 40 32 35 33 33 39 37 31 38 32 38 38 30 36 32 33 39 54 39 37 27 39 41 30 32 38 38 41 30 38 40 30 35 33 33 42 31 41 47 31 39 32 29 51 33 27 41 29 32 38 30 29 36 34 31 29 28 29 33 34 36 37 36 22 21 36 26 29 27 32 29 30 26 32 19 39 32 33 35 30 48 36 44 28 30 34 26 34 33 31 31 50 50 44 45 34 32 36 28 35 28 38 40 44 25 29 33 39 41 33 32 34 28 39 32 41 36 34 35 35 37 34 23 37 27 26 29 36 33 33 46 28 29 42 36 31 27 28 34 36 29 40 47 29 39 32 35 39 37 39 43 34 34 34 38 29 32 35 29 39 44 34 34 38 47 43 34 39 36 29 32 33 28 27 33 28 35 25 50 35 39 33 37 34 32 36 40 32 34 36 35 26 32 32 34 37 34 34 41 27 34 34 40 29 38 31 31 30 29 45 29 49 42 29 32 33 43 27 29 47 37 39 36 31 32 47 31 36 24 34 22 29 33 40 37 36 38 38 37 32 33 32 36 24 37 24 31 34 39 28 36 29 27 42 33 34 34 32 30 33 37 41 38 31 31 28 31 31 25 33 46 24 29 42 33 35 33 30 33 40 23 26 38 35 32 30 34 28 24 30 31 32 35 33 32 32 33 37 31 53 29 42 28 31 34 28 35 30 36 38 34 31 39 26 34 31 38 28 31 42 35 50 32 36 33 38 33 31 39 30 35 37 35 33 24 39 34 34 32 34 26 33 36 40 34 32 32 41 41 30 35 33 47 34 35 34 30 30 34 29 38 40 40 27 39 31 36 34 40 27 32 37 22 36 31 33 34 31 28 25 31 45 35 31 39 35 30 39 39 35 37 46 39 39 40 42 42 30 30 39 43 35 32 37 30 31 35 32 29 42 28 29 32 23 25 35 25 34 39 38 41 24 36 38 38 36 43 24 30 38 28 33 58 45 36 39 37 35 33 27 42 29 36 36 26 27 29 36 42 34 37 38 33 30 29 31 33 32 35 29 32 33 23 29 36 30 28 25 32 35 33 26 29 36 31 39 30 23 30 27 42 31 31 24 31 37 26 32 28 28 32 21 25 33 34 40 40 33 38 35 39 24 37 32 36 33 30 24 42 34 39 33 30 37 36 30 29 26 36 29 29 37 23 35 31 32 37 32 24 43 39 45 33 30 32 24 37 34 35 39 31 39 45 37 27 36 51 31 36 32 39 37 38 30 29 30 32 38 28 37 39 23 33 27 31 27 25 38 31 31 45 30 21 29 30 40 23 29 28 34 29 28 30 29 33 41 33 24 29 42 46 38 32 36 33 30 30 31 24 30 32 24 33 33 44 45 37 32 41 25 33 37 39 24 43 35 27 44 32 37 37 40 32 44 34 33 38 37 37 28 41 28 37 37 34 35 34 33 39 39 34 42 36 29 45 41 35 35 30 26 25 29 29 36 35 34 41 37 35 26 39 32 45 31 33 37 35 19 39 35 34 45 40 30 36 33 31 36 31 37 40 32 40 38 24 30 30 30 31 44 38 35 39 30 46 31 38 40 35 33 31 40 35 38 27 33 37 27 33 41 32 37 38 35 41 33 31 36 33 33 26 45 35 30 36 38 37 23 32 44 32 31 32 35 31 31 39 37 32 28 40 30 30 35 34 42 40 37 32 30 34 35 32 30 40 41 33 33 38 24 28 39 36 23 29 39 34 23 39 36 38 30 35 40 30 43 27 40 40 29 28 25 35 33 32 38 35 29 34 31 28 29 33 34 36 35 30 38 36 39 40 36 27 44 31 41 28 32 33 25 23 33 41 33 34 40 40 31 31 29 31 31 31 32 37 37 22 29 37 26 33 32 38 39 38 32 28 33 29 32 26 37 43 35 40 32 37 41 31 30 37 31 26 29 29 40 38 28 36 41 37 24 27 38 31 31 32 24 36 40 32 28 34 34 38 30 45 44 28 33 38 39 30 30 31 35 26 26 34 36 32 39 25 33 29 30 32 33 36 23 33 34 33 35 25 38 47 33 23 36 36 44 28 41 43 31 25 27 45 31 36 32 37 38 38 38 41 34 37 28 32 25 34 38 37 29 39 40 37 34 35 33 31 30 27 29 32 29 36 42 34 41 27 35 32 33 31 35 30 37 26 37 43 32 34 31 30 31 33 23 34 33 37 34 33 39 33 40 26 42 31 33 35 37 27 35 31 33 35 33 31 26 33 30 32 37 23 33 45 29 33 34 26 37 43 34 30 32 24 40 32 37 44 46 41 39 39 42 30 41 35 27 26 33 39 38 39 28 29 34 41 36 40 34 41 35 30 37 43 32 38 39 42 34 35 28 37 38 28 32 33 34 33 50 40 35 42 36 40 30 32 42 38 42 31 34 31 33 28 35 35 38 34 26 33 32 31 35 35 27 33 39 38 30 38 31 34 33 26 31 40 51 29 28 30 30 33 42 31 27 41 39 30 41 33 34 26 43 34 33 26 41 30 35 26 33 32 36 36 34 27 27 37 31 31 37 41 42 30 41 39 34 47 34 32 27 32 39 44 39 46 28 27 33 28 29 39 49 30 40 35 29 38 39 28 32 36 26 34 36 35 33 23 33 40 27 33 31 38 32 32 32 37 40 32 36 33 34 37 32 29 36 24 29 41 31 37 41 26 26 23 40 29 29 25 25 40 26 28 26 34 25 30 38 41 28 31 36 34 40 41 46 39 42 34 28 35 32 33 49 37 28 42 35 40 28 24 37 35 33 39 33 32 39 37 29 26 27 34 46 31 27 38 38 40 42 38 34 31 31 40 30 30 31 36 38 40 27 28 35 33 32 34 33 35 35 35 35 33 35 35 31 30 30 40 36 35 32 34 38 31 32 43 40 28 38 38 32 31 38 30 41 43 27 33 27 36 32 32 28 41 33 33 50 42 30 28 31 30 35 33 33 31 42 34 35 29 29 29 24 22 35 31 21 34 39 36 35 43 29 23 27 33 32 40 36 34 42 33 30 45 42 32 25 37 32 47 35 40 41 39 41 42 29 32 29 29 33 38 30 29 32 34 40 40 29 32 34 36 31 40 38 38 29 33 29 30 35 30 36 41 28 23 24 31 34 41 27 31 48 43 32 35 40 41 35 26 33 34 34 38 36 30 25 31 25 31 29 39 31 28 31 41 33 30 39 27 35 34 36 29 30 40 46 29 36 39 28 31 30 36 30 28 22 35 37 35 31 33 30 30 40 34 35 43 33 38 35 27 31 33 35 30 28 30 29 35 27 27 28 32 40 30 41 40 49 28 46 39 35 37 33 32 32 27 36 35 37 34 36 35 24 34 32 37 39 34 40 42 36 32 43 40 33 21 27 33 39 34 32 26 44 32 34 31 30 34 22 32 37 44 24 35 40 38 33 30 32 31 30 36 44 22 31 34 34 33 30 39 35 41 33 34 27 29 32 37 39 31 35 37 38 35 31 35 31 33 34 39 30 35 40 26 37 28 25 36 39 36 23 39 36 38 41 33 36 33 34 34 31 35 30 47 30 39 44 36 38 33 38 52 32 32 35 29 42 37 32 34 39 34 42 34 39 32 33 30 42 34 30 31 35 37 32 37 30 30 31 35 29 32 38 30 35 30 34 42 32 34 41 28 30 28 29 34 27 30 39 38 22 33 24 37 38 32 42 33 31 33 31 25 30 33 37 39 33 33 29 26 38 33 31 23 33 27 30 25 30 41 29 34 28 38 25 31 34 29 42 30 31 35 32 38 39 30 34 33 37 32 32 44 28 35 33 37 41 26 33 30 35 32 29 31 32 37 38 31 33 35 39 27 34 36 23 30 36 36 29 34 33 41 29 29 37 41 39 31 30 32 35 45 39 35 34 33 32 30 23 40 34 29 37 28 22 36 32 35 35 24 38 28 41 31 33 30 30 37 44 27 36 27 39 30 31 45 26 26 38 37 35 28 42 39 46 33 36 32 30 31 30 30 29 26 35 32 30 32 28 34 24 31 31 36 30 24 47 25 34 39 37 46 33 35 36 30 35 23 28 21 35 29 31 30 44 29 39 43 31 33 28 28 36 35 28 32 35 34 27 42 32 26 33 30 41 36 41 26 28 32 42 34 37 40 44 38 36 42 36 46 27 37 32 41 36 25 29 38 40 38 30 37 32 19 43 39 39 41 28 27 30 38 33 30 41 43 48 33 36 39 34 35 31 29 33 46 34 29 39 34 32 26 29 33 38 39 30 38 37 34 44 34 37 45 26 38 22 39 36 26 29 32 36 34 31 30 37 30 32 28 28 36 31 35 25 39 34 34 31 41 39 41 34 44 32 32 28 27 32 32 32 28 38 32 44 29 42 27 31 32 32 26 39 27 37 37 32 43 42 26 41 33 30 32 39 42 42 34 35 39 30 42 32 41 34 31 26 34 36 28 32 36 38 28 37 29 36 45 29 35 36 39 27 30 33 37 37 28 31 40 37 34 37 28 41 34 33 29 37 46 37 31 35 38 33 31 32 22 39 25 37 36 31 27 39 35 24 30 37 42 30 41 23 36 36 37 29 40 40 35 47 26 33 50 32 38 33 36 45 37 31 36 28 29 46 37 37 31 33 37 49 35 32 42 31 33 43 39 41 32 35 29 35 32 36 33 33 25 32 35 35 40 32 49 18 35 27 29 33 34 40 25 33 23 31 40 27 24 27 37 25 35 33 43 30 43 43 34 28 42 38 39 33 47 24 31 31 32 39 31 42 32 31 37 42 29 35 36 42 45 31 36 29 31 35 39 38 34 40 43 33 28 31 29 35 32 31 36 39 30 36 34 26 37 29 34 30 44 34 27 26 37 31 34 35 30 34 36 26 48 36 35 34 35 37 28 31 42 38 35 24 34 34 28 30 26 38 31 28 35 36 32 30 35 32 29 38 50 32 34 35 35 25 38 35 26 27 23 29 48 40 43 39 37 21 29 38 33 34 30 31 39 42 39 33 24 32 34 36 33 31 30 42 22 31 34 38 38 40 47 30 29 36 42 31 36 34 38 29 32 33 30 34 42 36 26 47 28 34 31 45 33 44 31 40 27 37 53 29 31 30 33 33 33 30 45 32 37 33 34 36 31 39 28 31 32 32 34 24 35 30 26 36 28 30 34 32 36 32 34 39 40 36 35 43 38 37 25 25 30 35 37 43 30 40 37 35 37 38 37 28 34 27 34 30 25 38 30 35 40 32 32 44 33 31 34 29 31 34 31 34 20 36 48 26 32 26 26 33 34 31 55 29 27 28 40 38 34 47 37 44 30 36 28 40 38 32 35 40 27 34 32 35 36 35 27 37 35 32 35 35 40 42 38 38 34 32 42 30 30 33 34 22 31 33 33 31 33 37 29 44 43 41 34 35 37 38 35 35 33 24 28 25 39 33 32 32 26 36 30 28 35 35 31 33 38 30 44 33 37 33 29 27 28 30 28 47 41 44 30 39 29 43 29 36 33 36 33 31 22 32 29 31 32 36 37 32 34 34 36 40 32 26 33 36 28 37 37 25 32 34 30 35 39 30 43 24 46 42 36 27 30 32 38 39 36 27 29 37 36 31 36 29 32 27 37 35 35 39 28 32 36 41 24 34 33 35 31 32 31 30 34 33 34 43 30 30 27 29 31 22 36 23 34 22 43 30 47 27 29 35 30 29 36 31 23 41 35 40 39 32 30 40 42 39 30 34 25 28 36 42 36 40 37 32 36 37 32 35 39 44 34 30 27 41 30 31 30 29 27 35 40 34 31 31 34 42 30 32 33 33 47 28 33 32 43 32 40 37 24 35 36 52 39 35 45 38 39 30 28 31 34 34 37 26 39 29 37 30 40 43 38 32 36 32 27 26 37 29 30 38 32 33 32 34 35 38 39 29 27 28 35 31 42 25 48 28 30 33 37 33 37 35 37 30 30 38 42 28 33 39 41 37 37 35 34 36 36 26 34 46 31 34 36 38 29 35 28 34 32 36 31 42 36 35 37 43 30 27 29 34 31 41 32 43 36 31 41 38 43 35 30 36 39 34 37 34 28 42 23 26 39 29 34 33 39 34 27 32 39 26 29 37 34 31 37 37 33 48 46 29 35 37 38 37 29 33 40 25 31 45 35 30 32 33 30 27 32 33 44 26 39 30 31 42 28 33 31 31 36 30 25 33 32 30 33 33 40 27 31 39 36 25 43 38 32 37 46 30 30 33 38 45 28 43 30 23 45 37 43 42 39 25 32 29 27 27 38 35 36 39 39 27 40 28 28 40 30 33 31 34 35 34 34 27 29 35 29 27 34 34 32 30 31 33 33 41 35 42 37 42 34 33 31 38 34 38 33 32 43 31 28 36 39 29 39 39 36 36 31 27 32 32 35 42 31 34 37 28 39 40 23 39 28 37 32 33 35 31 40 33 34 38 32 35 30 40 35 33 24 42 28 34 47 23 43 40 44 31 33 31 41 35 29 37 32 30 33 43 31 42 28 48 38 30 34 28 29 35 28 36 37 37 37 37 47 32 33 41 30 41 42 34 31 35 35 39 46 30 34 26 43 32 30 31 35 32 26 33 39 33 34 26 30 38 40 32 27 35 35 31 39 31 25 31 39 33 35 35 33 35 31 31 43 36 38 33 27 39 30 34 43 30 34 31 25 34 30 49 31 34 33 42 27 30 34 33 34 37 31 32 33 34 28 32 34 39 29 28 33 30 30 35 32 47 23 39 34 32 36 31 32 33 25 33 40 37 28 40 35 44 29 37 32 28 45 37 35 26 28 36 28 38 43 28 32 34 33 38 35 42 26 32 35 37 38 30 36 41 37 40 41 27 39 37 30 37 32 36 42 32 37 40 37 35 38 36 34 33 32 30 37 36 38 30 36 31 36 31 36 36 37 42 34 32 36 35 29 41 35 31 38 25 36 35 33 38 41 30 35 37 43 43 38 37 29 32 38 30 30 40 37 22 28 38 29 38 32 39 32 33 45 38 26 25 31 38 36 27 36 28 29 32 35 29 34 28 30 26 39 23 38 41 44 54 32 24 32 41 37 37 40 38 31 29 41 37 27 33 42 36 37 37 30 25 34 34 33 36 40 36 26 30 23 36 39 30 36 25 32 35 47 27 40 39 28 20 31 31 27 35 26 35 31 31 38 35 40 33 29 31 32 34 35 39 30 41 33 26 30 36 35 36 44 35 41 28 28 36 28 39 41 36 39 35 21 31 30 31 37 24 36 35 44 28 36 30 28 38 28 25 33 37 48 28 43 27 34 30 35 34 30 25 42 31 29 31 28 39 39 27 32 40 28 38 39 42 40 34 32 32 36 33 33 42 39 31 37 38 28 33 32 31 27 32 34 36 37 32 30 26 38 39 35 38 29 43 21 32 34 27 33 36 43 33 28 35 37 34 35 37 34 30 26 22 26 28 40 41 39 35 25 29 22 42 39 43 29 33 36 33 42 39 29 27 41 33 32 37 35 30 36 31 29 32 34 28 39 27 33 33 37 31 39 31 36 34 25 39 29 29 38 27 38 31 30 39 41 41 34 42 37 43 26 37 33 33 37 25 35 32 45 38 40 37 26 44 30 38 31 30 36 38 28 29 39 34 35 33 40 32 30 38 35 27 30 31 34 32 35 38 37 35 24 41 35 49 30 23 31 33 42 36 37 31 24 36 36 50 35 38 32 23 28 31 31 35 34 29 46 36 32 28 36 36 29 29 27 28 34 40 34 37 43 41 24 31 28 37 38 27 34 31 49 39 37 38 38 36 26 40 28 32 31 39 36 32 37 34 38 25 39 23 40 39 32 25 39 43 34 41 36 28 37 22 34 30 37 42 42 38 36 39 26 35 33 36 31 22 35 24 39 43 41 36 29 30 27 32 40 32 28 40 35 36 28 28 34 38 29 28 28 32 30 34 29 36 29 28 47 33 45 46 34 31 36 32 46 25 30 28 34 42 39 29 35 32 39 46 38 30 34 30 39 37 30 42 44 39 35 28 37 43 23 33 41 29 31 33 32 32 32 31 36 33 27 39 36 32 35 36 30 33 37 45 38 28 25 27 27 30 31 29 28 32 34 35 32 35 35 33 30 33 43 36 34 30 30 28 42 43 33 33 30 27 45 35 39 32 34 38 36 35 26 34 34 27 36 41 24 32 27 31 30 44 36 37 32 32 36 38 40 27 41 33 40 34 40 34 31 33 30 35 32 38 24 35 30 35 37 30 43 38 42 25 30 26 44 41 39 38 38 37 45 43 25 38 41 29 33 32 39 38 29 30 33 34 39 38 32 32 32 42 34 35 39 37 28 34 36 28 28 32 32 27 36 23 37 26 37 29 36 38 36 37 47 37 31 30 42 36 37 33 28 29 30 46 42 23 32 31 27 26 39 40 35 31 37 38 30 29 33 27 28 32 28 32 35 37 29 24 36 25 27 41 37 33 37 43 36 33 31 40 35 35 32 25 34 43 32 35 37 35 29 24 39 28 38 33 28 43 40 45 37 33 30 35 34 28 45 32 27 24 40 35 22 47 26 31 32 41 22 48 27 32 27 35 37 28 24 33 39 33 30 36 33 33 40 36 38 22 26 34 38 28 37 38 33 39 41 28 34 43 38 32 33 45 33 40 40 33 40 31 33 26 38 32 37 32 37 29 45 35 31 29 32 29 30 35 36 21 42 32 23 31 36 34 41 35 28 31 43 26 21 45 34 41 32 32 24 26 27 38 22 25 35 32 25 32 33 35 35 33 29 50 41 25 30 39 30 36 31 35 34 41 35 33 37 37 32 42 32 29 38 36 49 25 35 31 33 43 39 26 45 43 37 32 36 49 40 30 30 31 30 31 27 33 34 44 32 38 36 31 25 31 31 19 36 35 31 51 38 35 36 32 34 35 25 34 43 38 43 34 43 32 29 40 36 34 29 27 31 26 26 45 33 32 35 32 23 34 37 35 33 34 39 34 41 45 29 33 36 31 34 35 42 35 35 38 38 28 38 42 32 33 39 42 32 31 24 37 34 36 39 38 37 27 29 36 42 34 41 45 34 38 35 30 29 33 35 33 28 35 23 44 35 36 37 34 34 36 28 30 30 36 35 41 37 35 32 41 41 30 24 34 40 38 31 29 32 35 33 50 41 30 34 37 34 49 35 25 28 44 28 36 33 29 39 36 35 28 39 32 41 34 36 35 40 34 24 39 34 44 37 38 32 35 35 40 37 38 32 38 38 31 35 38 21 29 34 38 26 34 40 32 35 36 26 36 24 37 40 45 28 33 39 31 32 39 29 28 29 29 33 36 38 31 29 28 30 36 39 28 33 34 39 30 30 41 29 36 28 34 36 46 30 25 40 33 36 33 34 41 34 26 46 36 26 31 32 33 31 42 26 43 47 36 39 25 34 32 31 34 38 34 39 28 41 45 35 28 33 23 35 39 29 36 33 34 33 33 28 39 32 24 30 45 33 25 35 24 37 34 38 34 30 27 37 34 39 44 35 43 43 37 29 28 29 29 44 37 28 37 18 40 33 37 27 30 28 29 31 38 30 38 46 40 30 27 32 31 33 36 26 35 29 37 28 30 32 37 29 39 38 50 31 36 36 40 41 26 34 33 25 38 33 29 32 32 34 30 41 31 30 42 29 31 27 40 49 28 38 33 35 34 37 40 32 26 43 36 32 33 32 33 25 34 34 43 33 33 42 43 37 25 31 29 31 31 38 31 40 35 24 33 33 36 30 31 30 34 34 41 41 36 39 31 38 33 31 26 36 33 35 28 44 38 29 39 28 45 38 28 25 34 41 33 36 25 38 32 24 29 39 37 44 42 38 29 31 27 30 26 33 32 30 25 36 37 35 32 26 34 37 31 35 25 29 33 33 34 24 39 28 35 32 37 28 42 40 37 31 33 33 28 35 37 30 52 35 38 47 37 34 37 47 41 18 39 32 35 38 34 31 37 41 32 34 26 40 30 33 41 26 30 26 41 25 34 38 40 40 32 26 41 29 32 37 31 36 44 29 41 40 26 28 33 28 22 29 40 33 37 32 32 24 30 23 34 34 22 38 25 35 49 23 39 34 30 36 33 36 34 38 41 33 25 33 34 30 34 38 44 30 27 38 36 41 36 38 39 30 28 35 29 33 22 42 37 46 40 33 40 38 43 24 33 23 36 36 34 21 36 37 44 39 27 44 28 33 40 45 33 41 29 32 34 38 41 29 30 34 39 28 35 42 29 30 44 43 38 37 27 36 33 32 35 29 39 35 28 27 47 32 35 37 39 30 38 29 43 31 31 35 37 26 38 40 40 25 23 38 37 37 39 37 38 42 34 32 27 25 36 26 37 23 33 27 39 25 37 37 19 34 30 33 34 30 37 33 34 25 38 23 38 38 38 38 44 29 43 45 36 33 33 30 37 32 34 48 42 46 21 22 29 33 32 47 32 33 35 33 38 52 27 39 41 38 25 34 46 33 34 30 33 31 33 33 37 29 29 36 28 42 36 28 32 23 37 27 41 37 28 34 45 35 32 35 25 31 31 27 28 34 36 36 35 33 34 38 34 38 40 33 35 39 34 34 35 29 41 33 36 33 21 38 30 41 38 21 28 37 39 26 32 41 31 36 32 27 36 31 35 33 35 28 41 35 32 47 32 33 33 27 26 27 29 40 35 32 34 29 35 32 33 28 44 31 45 35 34 37 29 40 26 37 39 33 23 30 38 35 26 28 31 32 35 30 36 39 26 30 38 27 27 37 45 30 31 28 40 32 28 41 35 35 34 29 34 36 38 38 35 37 27 33 37 32 29 32 44 27 26 30 38 35 44 31 37 44 30 34 39 36 33 35 26 24 26 38 34 37 37 31 26 31 36 30 36 28 35 32 44 40 32 34 29 35 37 39 28 27 40 35 19 29 27 29 38 38 39 28 29 31 33 30 30 33 37 25 36 27 41 34 31 24 33 35 41 26 35 29 32 31 41 44 34 34 41 35 39 35 38 39 24 24 42 33 57 29 30 39 24 29 29 31 33 39 36 37 30 30 31 45 32 37 26 28 31 34 29 38 35 26 31 34 38 30 34 35 25 41 40 28 31 32 50 30 39 46 28 34 34 35 45 25 39 28 39 31 36 33 31 31 44 36 37 37 37 45 41 34 36 34 40 28 30 30 25 35 28 41 35 29 31 28 28 44 41 25 42 28 41 28 47 31 29 34 34 44 33 28 34 35 34 34 25 30 33 37 37 31 32 37 29 28 38 31 31 26 22 26 26 32 41 36 39 34 31 26 36 28 36 37 25 31 31 40 32 35 34 31 33 39 34 33 30 30 41 36 28 35 37 28 39 37 35 32 30 35 35 39 36 25 39 31 32 25 25 26 33 43 30 32 40 30 37 37 31 38 28 37 37 26 42 28 32 38 36 34 37 34 34 37 42 31 27 41 29 35 25 35 33 39 40 39 29 33 34 38 42 35 40 28 25 34 36 39 41 36 31 32 40 35 18 31 32 35 28 32 27 32 32 24 35 30 32 26 27 34 34 38 34 30 24 33 29 48 40 41 38 34 32 31 29 34 40 38 35 32 32 32 34 34 35 40 31 30 37 27 36 23 28 40 40 39 33 31 32 41 41 30 29 35 38 42 39 34 53 35 33 35 46 34 40 36 37 39 26 57 35 27 34 27 26 31 42 35 29 31 31 42 33 28 30 36 37 35 36 28 35 35 33 33 28 36 28 29 33 35 36 31 26 40 34 26 31 31 31 32 42 33 23 41 36 36 35 33 38 37 45 40 29 38 36 27 43 29 36 42 26 30 38 31 26 42 48 30 34 27 34 32 36 25 36 35 38 25 35 28 34 34 39 26 38 41 35 39 28 34 22 32 44 29 22 27 40 40 29 41 37 32 35 41 39 32 39 32 42 34 37 38 29 34 37 33 32 34 38 31 37 37 39 38 26 38 26 40 39 34 30 23 34 40 31 28 34 25 36 36 33 29 33 33 28 29 36 34 36 32 24 37 24 36 38 29 42 50 37 48 35 38 39 25 34 40 27 28 35 35 38 31 31 46 27 33 34 48 35 43 37 27 21 44 38 32 38 40 34 35 30 30 37 37 33 32 34 36 25 26 29 35 25 27 33 35 37 29 33 50 28 39 42 24 40 22 29 38 36 36 29 35 33 39 26 34 40 33 30 37 44 27 34 28 36 49 26 43 29 29 33 32 43 33 25 35 33 40 33 38 36 35 37 31 34 37 31 32 27 33 35 30 32 39 42 35 26 30 34 29 42 29 32 26 29 41 37 41 28 36 42 44 34 34 29 25 40 39 32 35 40 31 39 40 34 48 21 30 39 22 32 31 26 37 33 32 35 41 35 35 23 38 32 23 27 42 41 32 25 39 36 24 33 34 27 38 24 31 31 38 35 38 25 37 44 36 33 29 41 40 37 36 30 44 33 19 37 31 39 32 32 38 32 35 32 39 25 31 36 44 35 34 39 34 41 36 31 38 27 39 28 39 41 40 33 33 31 25 35 45 35 32 35 32 24 47 37 37 36 30 35 42 28 43 31 44 48 36 36 33 28 29 44 35 24 32 30 34 34 36 42 35 30 47 46 27 36 42 47 32 33 35 25 31 34 38 37 33 31 30 36 37 32 28 34 26 21 26 34 25 38 41 44 26 30 29 29 33 33 41 42 41 36 34 24 35 41 32 33 33 37 31 38 34 32 31 37 27 40 32 36 39 40 35 34 37 33 31 42 31 32 29 28 32 33 26 41 32 38 44 32 40 42 29 32 41 31 36 44 31 44 29 47 28 45 24 32 36 28 31 39 41 35 35 37 32 26 28 32 36 33 25 42 36 33 30 30 30 28 30 33 31 38 34 36 34 29 30 23 36 37 34 27 26 45 26 33 37 52 37 27 29 35 30 36 29 36 47 40 27 33 39 33 39 38 34 24 42 33 27 34 42 28 35 35 29 27 31 32 42 44 27 28 31 33 39 36 39 38 32 33 38 29 31 41 24 39 32 43 35 27 35 32 41 36 41 37 35 34 28 46 36 31 41 38 21 41 32 33 25 25 27 35 33 35 41 44 40 23 33 37 35 36 33 41 39 31 33 32 35 37 26 42 41 32 37 39 33 28 35 23 31 29 30 42 27 34 39 34 36 34 37 31 33 31 29 34 35 30 35 43 33 32 38 24 40 24 32 29 44 33 29 27 25 48 27 40 35 30 32 27 29 28 36 30 29 26 43 36 42 29 38 40 35 31 33 39 28 26 34 28 30 36 29 28 32 28 32 31 27 42 32 31 39 31 37 32 29 41 32 35 41 39 30 22 28 37 39 31 38 26 35 35 26 29 47 27 34 27 42 33 33 37 24 30 42 34 38 39 31 40 36 45 29 20 35 46 32 32 54 28 28 26 44 33 29 52 32 36 38 31 33 29 27 34 44 30 31 39 36 33 25 39 30 31 33 55 41 37 28 35 39 39 34 36 33 32 34 29 42 41 45 37 37 42 29 32 34 33 29 25 35 40 24 27 32 42 38 26 27 36 44 45 33 42 33 35 33 28 41 31 34 28 41 39 37 39 45 31 30 40 33 26 30 37 38 42 45 28 33 29 35 34 29 46 38 33 25 28 30 32 27 31 29 36 29 39 43 41 38 31 38 37 42 29 33 24 39 36 33 30 36 37 30 35 36 32 33 31 34 35 34 30 24 24 34 27 37 47 29 44 41 33 34 24 37 27 38 36 38 33 28 40 35 37 24 42 35 35 37 31 30 36 33 26 29 30 31 30 28 37 30 36 33 37 31 33 38 32 39 34 38 40 28 36 42 23 37 41 39 33 33 37 37 35 38 44 44 29 40 44 26 34 31 24 25 42 41 35 39 28 35 27 38 27 30 29 29 32 36 39 36 33 40 37 39 39 25 25 34 38 38 17 43 43 30 33 35 36 23 46 32 23 34 38 37 36 33 33 29 33 36 38 41 33 36 29 38 33 30 23 26 31 33 39 29 25 36 37 36 38 41 44 37 29 34 40 31 49 29 36 37 30 37 33 38 33 32 37 34 33 35 34 42 28 37 26 40 39 39 40 35 32 32 40 26 27 26 43 37 36 35 27 30 43 29 36 33 29 34 35 20 34 40 39 30 42 32 37 39 37 36 25 39 28 37 38 36 38 37 34 27 39 38 41 38 30 25 43 29 40 32 38 35 41 36 33 39 44 30 37 44 31 35 34 29 26 40 35 45 42 32 33 39 34 32 37 42 35 34 37 34 38 36 36 41 38 43 28 31 43 43 32 39 33 40 39 34 38 33 27 29 31 42 36 36 31 34 33 39 28 33 39 35 38 33 38 33 43 26 38 29 38 35 22 36 25 30 41 31 33 29 32 34 26 26 30 34 28 33 38 30 36 26 30 36 33 36 29 30 40 37 43 31 33 24 29 32 35 28 34 30 25 34 34 29 40 21 39 25 34 45 30 35 50 43 27 27 22 29 38 27 30 29 37 32 34 40 35 39 34 31 36 28 25 39 36 33 33 25 42 29 32 36 40 36 35 32 30 39 31 37 36 35 34 28 30 41 35 39 35 27 44 34 25 27 38 31 36 42 36 32 38 38 42 34 23 37 24 24 30 31 24 32 35 34 35 32 31 31 34 32 30 35 41 26 37 42 36 32 40 26 27 40 45 40 27 27 32 37 41 30 35 43 30 29 35 34 32 34 31 35 29 32 30 41 34 37 52 33 39 39 29 43 24 37 40 31 43 29 30 24 38 36 31 40 35 26 42 40 26 34 32 37 36 29 37 37 29 38 39 31 30 41 41 34 39 37 26 33 35 32 36 33 29 32 30 25 35 34 33 37 31 28 29 31 36 24 39 41 34 52 40 31 28 40 37 34 33 31 35 37 32 37 29 34 29 36 37 43 32 41 41 29 35 40 37 34 28 29 33 29 31 35 34 34 41 32 35 34 25 35 31 28 26 34 31 31 27 29 31 36 26 37 31 31 44 47 43 45 37 45 34 37 37 30 35 31 20 32 37 42 28 30 38 41 27 36 28 42 36 34 26 31 31 32 29 29 37 35 32 29 32 34 26 36 32 31 44 34 42 28 38 39 26 27 40 28 39 34 38 28 29 30 30 25 28 31 33 34 39 28 29 35 32 29 26 40 46 44 38 32 38 29 27 27 31 41 48 30 28 43 32 35 25 36 30 45 36 25 28 40 34 37 34 32 44 32 33 48 34 25 28 28 39 31 32 35 45 31 44 36 25 38 28 34 32 32 49 26 33 35 34 37 32 31 33 29 34 36 37 39 29 32 45 30 35 34 41 36 32 31 35 35 38 31 33 39 32 35 35 30 35 36 25 31 30 38 42 36 33 32 38 33 33 33 25 38 29 30 28 30 32 38 24 25 25 30 35 21 34 35 24 31 34 34 41 32 37 42 30 39 43 28 35 28 34 33 22 39 43 27 29 32 43 27 27 33 39 44 36 36 35 39 38 33 31 32 32 41 44 33 37 28 33 28 36 31 35 30 36 32 34 25 34 39 35 34 33 31 28 32 32 32 30 32 36 20 29 32 36 31 33 26 44 40 36 30 41 37 31 26 39 34 37 26 30 35 34 36 40 36 32 32 40 29 38 40 37 40 30 30 38 28 35 34 45 29 26 39 37 31 34 37 38 23 30 27 28 34 37 36 32 37 33 24 26 30 36 34 37 32 30 43 26 46 37 25 34 36 40 39 42 44 32 33 30 33 35 31 39 33 42 38 32 27 38 34 36 35 28 28 34 48 32 28 43 37 36 43 28 35 33 34 31 33 31 35 22 40 31 37 30 25 38 45 34 29 45 40 36 32 32 30 29 34 41 22 39 38 28 40 39 38 29 28 35 40 40 30 39 28 36 28 32 25 40 34 27 28 44 36 40 30 31 36 34 29 40 37 34 44 34 30 30 48 31 37 35 41 30 29 27 38 35 33 28 39 37 37 39 33 35 34 28 38 35 28 29 32 36 34 32 33 30 38 32 34 26 29 32 34 33 38 31 39 31 27 41 25 31 41 40 34 27 31 31 34 27 34 33 32 41 43 30 35 36 29 22 41 33 46 37 42 32 35 35 20 34 37 29 43 31 32 37 34 30 31 30 38 30 32 26 43 34 30 40 42 39 36 36 35 41 36 26 37 30 25 32 29 32 25 32 38 28 38 34 25 31 29 36 37 34 34 38 34 36 32 36 35 34 32 31 36 39 39 33 36 35 35 34 31 37 33 39 39 34 33 27 40 31 36 38 34 39 33 32 38 35 38 27 33 37 34 37 31 30 32 36 34 32 37 30 37 35 32 30 38 26 33 35 32 30 26 38 28 36 45 39 35 30 27 31 27 31 44 25 30 32 29 36 37 26 41 37 34 37 43 39 38 39 33 38 36 37 29 32 29 40 40 30 30 29 33 28 33 33 36 32 46 39 37 28 44 26 20 45 48 26 31 28 33 26 47 33 28 28 30 35 35 36 38 19 19 23 46 32 29 41 30 36 46 40 34 31 25 26 48 27 34 31 35 30 42 42 19 28 35 39 35 40 30 29 35 31 35 28 30 35 35 39 32 42 32 46 26 26 32 39 39 39 27 39 40 37 31 32 41 19 33 33 31 30 36 35 34 40 24 36 37 48 38 33 28 28 28 24 36 38 30 33 33 37 30 29 36 36 36 39 37 38 42 27 40 36 22 31 27 26 37 33 34 26 36 30 24 38 33 31 41 32 36 28 39 44 29 39 35 41 39 22 29 29 30 27 41 30 33 44 30 37 38 34 32 22 34 42 36 33 36 35 28 41 33 27 48 40 30 32 48 35 25 33 34 30 39 29 30 45 41 28 38 36 33 29 22 31 27 37 37 24 32 33 34 27 36 42 33 37 20 34 26 44 34 49 40 34 38 37 40 34 34 47 30 31 29 38 40 32 42 36 33 43 30 32 44 42 40 40 32 36 20 41 28 36 36 34 38 32 30 26 41 37 38 32 38 29 34 24 44 38 30 25 33 36 38 33 31 27 33 38 50 47 25 32 26 27 39 30 32 26 33 34 27 31 38 30 29 36 36 27 23 35 31 31 37 31 34 32 35 35 33 24 37 30 28 39 25 39 37 39 36 32 39 36 31 36 30 29 26 33 30 29 36 30 34 38 33 34 33 29 33 39 44 35 38 42 34 32 39 33 37 40 28 41 34 31 34 37 27 34 29 38 24 38 32 29 34 26 38 41 36 33 37 42 29 28 39 28 35 34 32 30 34 39 33 23 34 40 44 29 25 28 30 38 24 43 35 32 29 32 34 32 36 37 33 29 38 36 34 36 34 33 29 37 33 29 40 32 30 37 41 31 41 31 35 34 33 31 27 43 36 32 32 36 28 31 41 31 35 32 30 31 33 38 40 31 39 36 40 33 36 31 33 35 31 36 38 43 37 29 33 29 37 34 43 37 46 20 40 36 33 28 30 40 28 31 31 35 27 34 30 19 44 36 32 41 32 32 31 45 24 29 25 36 43 37 27 33 31 28 27 32 30 38 38 29 34 26 29 31 36 27 44 33 32 34 35 38 38 28 43 25 37 36 29 31 35 26 42 31 39 41 31 33 31 43 39 38 31 29 42 35 32 35 38 33 40 29 29 42 38 30 28 36 37 47 30 27 33 28 40 27 22 29 37 40 30 34 38 45 31 31 34 29 35 28 25 34 43 32 29 25 24 40 26 45 35 30 32 31 31 28 34 28 29 27 32 36 33 47 33 49 39 30 35 35 29 34 20 28 41 36 35 32 50 34 28 41 29 30 30 41 31 40 30 39 28 32 35 40 36 29 33 24 27 35 42 33 37 25 37 34 36 35 30 37 48 37 38 33 37 42 28 26 33 38 35 30 37 42 38 39 29 39 34 32 30 34 29 36 34 27 30 37 30 43 37 36 37 31 34 37 27 28 41 34 27 38 38 39 22 44 39 38 38 34 34 33 36 39 37 28 30 30 26 36 44 42 38 32 30 26 31 32 33 31 27 32 33 34 51 35 25 23 35 28 30 42 36 39 48 29 30 36 35 36 40 26 25 37 31 37 36 31 31 43 42 36 40 26 32 30 38 44 32 22 25 40 38 27 38 50 19 39 34 43 36 34 24 40 44 43 34</t>
+  </si>
+  <si>
+    <t>JSB(12.774354833018013, 10.217985804913432, -421.60747959943683, 3063.206695712952)</t>
+  </si>
+  <si>
+    <t>206 288 223 247 223 284 308 251 278 253 294 332 184 292 278 201 250 301 234 283 326 263 328 291 262 271 268 243 320 317 277 428 190 294 250 211 277 353 301 191 325 373 251 246 229 302 288 201 268 147 244 277 279 269 275 210 164 339 299 172 277 358 315 309 229 319 243 296 227 193 273 220 281 212 312 199 229 210 323 335 240 177 152 181 247 244 177 182 271 322 251 274 261 264 245 373 220 292 216 302 315 388 257 249 215 176 228 287 251 203 264 224 164 192 196 280 218 310 237 292 302 195 222 290 276 207 297 305 212 225 207 302 276 294 182 172 152 285 239 148 315 348 188 362 219 201 278 281 287 255 198 172 237 276 240 228 305 294 172 283 251 213 259 220 246 222 291 296 180 228 351 225 286 173 326 234 124 273 324 232 317 250 331 267 218 231 244 216 311 293 241 266 208 221 162 422 312 223 251 268 164 210 239 225 207 348 283 300 246 299 214 303 312 324 375 226 247 297 214 265 205 302 284 291 215 207 170 310 304 231 382 191 296 268 237 312 248 214 154 217 360 197 327 266 257 257 238 188 221 283 213 195 183 241 231 255 301 338 293 316 303 205 241 337 314 244 238 299 225 301 214 307 326 223 335 230 241 264 353 303 218 323 269 230 233 131 211 195 160 215 204 211 265 353 168 221 282 241 174 262 231 237 358 233 259 255 226 285 271 175 156 289 258 272 209 252 176 269 248 263 369 176 248 287 290 317 365 242 322 176 240 228 349 328 253 155 291 297 265 220 185 266 359 261 291 249 227 273 227 230 289 287 312 172 236 293 299 278 227 217 306 237 269 251 232 214 191 252 296 198 265 271 302 268 200 251 264 298 358 254 255 298 211 254 246 246 329 344 236 316 236 341 303 247 233 191 262 244 220 358 222 229 224 267 197 266 235 137 237 300 263 204 339 286 285 247 307 254 301 307 240 265 357 321 229 231 352 338 288 234 297 211 310 243 249 324 374 245 254 164 221 314 203 224 246 279 283 348 248 288 240 285 305 286 210 280 286 296 264 250 223 241 141 283 253 253 268 172 328 251 266 327 250 283 349 291 390 213 289 238 157 307 286 213 186 247 277 282 296 239 165 306 213 287 259 234 197 241 242 364 254 317 287 396 181 288 314 254 286 285 279 308 250 223 278 284 291 190 253 426 193 359 199 322 167 187 250 236 253 221 199 275 257 289 201 236 288 268 264 332 325 263 270 180 216 353 240 261 222 315 389 180 303 258 271 310 195 219 290 168 247 277 284 217 266 266 205 317 245 268 331 206 269 364 265 282 283 250 263 251 261 299 207 281 295 242 207 341 156 211 357 280 290 357 264 364 296 211 334 271 274 192 178 263 360 344 228 276 228 225 300 232 228 229 249 240 271 328 301 279 261 278 220 281 305 266 257 328 238 259 197 297 233 286 286 279 203 198 191 184 276 182 248 295 293 261 216 271 271 308 384 370 295 254 192 216 342 189 193 180 336 238 195 216 354 263 311 260 215 279 286 253 240 323 216 218 242 242 224 304 243 339 310 283 236 220 175 292 161 175 199 272 327 194 336 232 218 249 295 300 312 295 209 240 260 299 276 236 310 246 364 295 202 285 320 363 256 313 371 198 277 189 237 310 261 269 198 254 206 300 304 273 127 275 246 203 278 232 332 311 224 327 231 207 309 232 332 298 205 214 265 290 286 241 238 203 260 313 266 353 338 344 243 181 147 326 178 223 239 261 297 315 272 165 256 268 253 190 429 325 291 348 297 223 323 207 245 256 244 364 273 250 231 256 184 295 216 166 201 301 266 252 234 274 130 333 228 264 241 239 240 252 298 203 203 194 257 266 240 256 215 162 385 174 274 212 185 126 220 235 210 204 226 285 273 303 274 293 303 257 330 261 265 239 282 265 231 259 241 328 266 278 282 214 203 311 243 269 285 244 213 220 248 203 237 241 200 253 167 318 191 250 282 190 370 255 287 207 306 372 227 226 305 262 285 222 266 328 260 316 265 258 282 257 255 330 255 222 360 267 307 325 257 296 191 238 254 343 254 240 273 293 352 213 232 272 330 220 310 233 310 259 234 309 333 333 243 246 315 199 295 284 243 283 217 250 207 186 242 150 192 263 293 289 198 255 292 221 276 376 317 289 208 255 348 248 245 271 272 185 444 329 346 260 270 254 178 234 320 243 254 226 277 252 188 321 209 222 247 293 256 201 222 303 281 232 354 207 201 252 239 217 246 325 280 314 300 232 247 237 216 254 314 253 300 259 275 330 300 223 318 284 297 240 328 368 278 298 298 222 200 382 356 159 292 359 273 335 254 284 297 294 261 267 280 272 237 252 255 249 210 225 307 238 242 255 254 307 221 247 277 213 211 239 268 228 289 447 227 327 292 265 309 357 199 228 281 285 222 249 144 296 278 262 277 253 273 307 183 306 293 214 266 243 347 339 232 286 257 319 242 275 292 283 254 231 314 293 296 231 268 294 215 266 272 240 311 237 203 282 216 223 312 239 186 219 248 266 202 203 268 284 223 260 354 302 338 289 303 169 339 402 191 300 287 271 206 193 299 275 309 311 278 252 239 294 263 189 263 326 255 265 306 260 253 330 241 140 331 348 285 235 264 326 300 341 327 252 252 244 234 332 214 204 261 296 393 236 296 310 254 304 115 265 294 274 298 272 313 257 143 459 251 341 245 224 316 215 181 261 273 343 158 258 172 210 280 271 245 269 202 207 186 185 329 319 194 275 339 223 333 250 324 356 258 276 285 307 236 222 255 189 296 285 277 211 355 242 239 382 209 217 227 255 262 332 257 300 320 170 102 291 251 295 375 164 235 289 264 232 259 205 251 309 240 295 299 200 305 339 278 223 209 204 212 280 259 227 329 217 255 252 257 231 276 279 223 195 314 327 226 313 243 214 326 246 262 218 233 243 275 263 272 256 229 278 307 240 386 312 196 244 221 342 306 319 234 401 291 261 208 240 315 240 382 212 321 221 200 200 312 401 329 198 320 313 344 287 265 299 284 177 188 222 333 250 307 264 279 331 286 180 267 251 267 280 281 179 304 284 228 214 355 222 307 247 282 344 109 238 285 163 188 279 214 263 221 322 279 297 309 186 286 247 321 233 257 305 331 321 302 270 226 308 300 238 230 275 202 243 258 231 345 312 212 180 182 302 342 291 257 256 234 282 363 199 241 349 261 234 313 242 227 272 210 255 278 308 278 243 193 234 304 217 314 293 315 288 259 257 309 293 332 237 206 267 213 215 215 253 335 268 369 249 267 248 257 179 191 368 260 246 245 190 187 229 327 341 355 290 324 268 248 240 309 235 294 253 270 269 175 255 172 322 309 259 272 208 279 184 273 326 159 280 305 215 276 310 203 280 298 374 244 241 268 168 333 272 196 243 320 291 261 322 249 265 316 267 285 248 131 283 254 246 200 192 335 353 263 179 204 360 224 189 271 203 386 328 160 294 320 417 291 288 238 220 343 265 357 286 172 180 303 274 363 210 253 259 190 349 333 245 279 215 309 272 380 251 262 197 239 276 322 330 329 284 286 186 244 318 239 261 211 298 259 295 248 159 189 265 257 204 244 249 263 315 323 267 374 277 222 192 198 227 211 236 194 241 219 254 278 269 263 215 277 260 172 316 302 253 247 284 276 391 208 214 295 300 337 263 254 208 230 201 270 201 324 345 215 326 227 350 264 158 280 247 278 308 288 175 239 179 268 184 252 290 262 343 266 239 230 172 171 320 269 320 258 213 201 336 157 269 398 217 269 304 293 319 257 353 291 229 373 240 249 227 318 254 203 181 268 290 263 229 221 174 290 230 211 214 284 258 274 222 191 258 284 228 195 255 212 234 234 326 318 243 234 345 203 287 227 266 300 350 259 389 202 363 302 238 296 185 252 180 320 208 274 281 309 329 301 246 247 349 242 211 296 348 270 187 307 262 201 184 284 398 178 175 267 243 334 412 308 225 236 142 294 326 237 270 246 403 309 253 222 272 151 199 320 302 328 176 251 211 262 288 194 218 372 336 235 287 197 305 271 314 267 272 263 269 221 256 286 149 279 338 312 258 306 266 300 307 218 267 276 277 292 268 288 284 311 327 268 308 254 337 201 292 199 240 380 262 244 179 220 316 280 261 210 319 253 216 264 306 230 278 183 229 260 309 224 219 254 108 259 298 201 203 305 181 277 233 209 235 265 282 295 228 324 204 324 283 226 222 243 334 318 176 289 152 254 283 237 297 292 380 172 306 271 339 221 250 251 286 209 257 166 314 274 214 231 234 286 268 265 244 213 279 153 292 268 223 281 216 313 276 363 233 259 203 187 261 274 281 368 194 352 258 344 211 235 203 343 276 210 218 230 409 215 356 272 320 203 232 237 264 261 253 179 231 236 256 218 217 228 247 253 307 279 270 260 210 272 284 262 334 186 257 320 182 254 200 264 281 302 283 278 208 265 358 287 226 284 321 376 334 268 319 200 280 296 233 348 183 254 353 276 244 257 275 310 190 240 261 286 212 428 271 246 264 236 214 218 248 275 266 276 178 341 267 182 179 337 181 187 128 293 233 227 178 272 135 364 206 214 309 218 325 280 293 243 196 340 266 297 275 245 225 312 340 390 344 279 258 271 254 310 185 263 325 352 175 232 284 316 275 229 313 301 217 310 256 334 233 248 213 218 233 319 180 300 228 215 225 216 265 240 293 190 141 292 329 245 201 206 234 218 177 402 307 309 279 256 240 294 288 332 302 244 305 224 353 203 273 272 226 304 291 269 240 302 279 327 282 286 262 290 235 259 244 161 256 212 211 234 310 263 282 193 218 194 250 302 246 226 221 199 297 171 260 225 300 271 290 262 329 193 319 206 316 166 230 235 195 225 260 369 247 344 332 222 207 295 355 216 135 345 306 255 238 251 250 287 290 335 222 340 89 235 191 260 339 270 255 321 363 282 226 268 233 172 300 160 238 272 373 192 272 235 263 326 306 256 294 254 211 190 245 233 347 255 269 268 214 262 199 301 368 306 260 318 246 269 203 195 261 266 219 213 286 227 267 290 239 230 156 274 276 342 224 263 188 276 217 258 274 402 263 303 214 231 224 271 276 214 274 262 348 265 305 184 260 285 279 214 303 310 232 333 255 226 278 287 186 203 307 196 303 217 296 256 253 342 332 250 299 339 232 265 207 286 192 329 196 299 415 213 241 241 376 211 301 228 257 256 238 209 286 302 219 216 276 250 278 242 315 281 263 257 103 277 257 226 273 270 238 278 201 304 341 328 281 262 223 275 372 279 202 322 270 282 285 292 371 256 246 316 248 336 275 354 208 255 319 280 315 259 194 210 321 198 235 225 185 244 260 274 308 189 338 263 280 302 339 185 235 281 232 261 398 300 295 284 194 229 190 235 327 243 288 287 167 217 310 270 241 293 282 282 297 298 235 254 240 187 284 260 262 244 181 186 258 245 245 282 213 219 296 193 254 259 296 255 238 195 257 189 280 230 227 283 205 322 259 241 181 221 269 232 216 266 256 352 316 297 262 243 274 247 280 237 320 269 242 221 356 257 354 243 201 264 265 225 216 280 383 235 186 273 164 196 213 221 382 297 277 361 276 342 327 268 296 175 278 294 289 328 196 283 280 295 163 263 395 206 304 218 305 258 304 218 184 220 238 287 189 324 350 121 259 205 293 248 188 319 301 290 313 237 132 197 222 264 241 209 217 261 306 165 201 254 227 312 270 241 233 348 338 263 249 205 262 254 212 197 299 226 216 209 232 259 277 391 283 271 287 187 298 308 297 242 305 228 225 313 269 303 313 268 342 224 212 274 291 324 270 261 337 284 308 269 176 213 248 311 312 296 250 283 248 238 303 264 328 318 249 171 193 184 194 293 280 260 256 272 236 199 395 207 347 267 210 327 229 102 209 238 244 337 308 271 283 222 234 236 263 288 308 220 300 292 177 281 233 179 298 348 204 223 281 247 350 215 356 220 293 244 232 275 260 238 252 277 252 193 201 304 194 318 274 277 277 274 245 262 299 188 255 398 328 302 336 277 254 182 220 314 238 273 304 248 256 225 266 258 198 243 323 214 224 273 256 240 348 249 282 196 305 267 246 229 314 366 197 239 323 156 215 228 169 145 258 291 217 283 211 220 236 233 287 349 237 343 243 351 281 206 262 215 233 290 265 290 248 226 221 257 230 218 253 278 321 238 207 319 244 318 296 334 288 322 244 302 293 300 282 177 196 218 284 292 197 384 244 211 229 267 245 222 250 268 247 335 146 186 245 218 238 225 291 269 287 258 215 259 193 239 175 228 291 281 323 257 361 289 237 285 257 201 214 207 220 209 286 259 268 278 273 181 165 285 293 291 331 201 331 313 243 216 254 191 346 165 316 349 165 202 239 189 230 212 246 267 204 176 300 237 270 273 237 285 223 257 271 339 263 233 176 270 219 263 224 273 278 184 209 178 247 332 216 245 286 214 205 252 393 248 240 276 249 318 273 367 337 237 193 227 254 195 215 305 257 242 298 280 254 317 195 217 285 205 227 220 236 198 310 317 279 300 201 263 249 217 313 285 276 257 133 233 353 222 225 223 188 200 288 152 241 279 340 260 203 292 295 306 198 288 261 223 247 271 240 203 205 305 319 326 204 254 253 201 241 198 209 212 265 172 257 259 213 350 311 223 325 267 205 388 227 251 292 326 353 334 290 289 237 324 261 310 125 231 246 277 277 221 254 223 291 266 309 266 293 272 235 293 321 293 210 276 314 283 305 258 268 299 220 249 282 240 259 365 244 229 278 254 261 224 217 280 293 261 279 234 260 240 292 257 325 226 279 246 267 236 226 268 282 201 264 270 273 258 284 274 311 246 268 245 330 322 202 224 248 289 260 387 242 259 266 341 217 308 256 252 182 350 253 272 171 356 257 201 234 245 230 230 294 247 220 212 223 236 195 316 389 328 209 312 337 282 354 269 269 191 265 241 294 306 314 224 206 258 277 247 256 291 258 305 278 201 306 240 224 183 238 211 228 233 296 279 162 274 283 197 278 267 363 281 235 157 304 333 256 227 254 294 295 260 348 304 186 252 273 207 238 319 179 236 210 232 223 214 245 199 290 150 258 200 295 183 305 278 252 190 302 268 272 251 308 353 283 279 233 241 234 226 221 298 350 267 236 295 304 201 212 335 209 240 333 263 283 278 272 249 131 253 274 331 227 238 266 299 293 266 291 222 262 279 259 266 269 259 217 302 369 185 188 223 250 290 250 321 230 290 186 277 318 237 247 250 307 285 287 335 310 209 308 345 263 248 326 329 265 308 187 353 217 303 216 250 385 283 255 175 262 242 276 218 289 237 214 351 324 229 249 225 217 293 166 303 210 283 351 306 231 291 229 259 219 337 234 163 246 272 308 230 248 241 179 216 203 265 267 272 247 244 264 175 325 305 175 186 277 247 372 312 252 269 319 341 234 192 324 243 234 260 327 201 268 241 231 277 276 255 264 205 286 241 326 328 334 275 220 320 255 177 230 331 237 124 157 167 203 269 183 122 234 384 361 260 340 303 242 230 161 224 291 253 275 324 191 268 279 154 240 205 372 187 215 265 322 262 310 242 165 292 234 315 184 190 293 311 164 298 288 275 324 235 282 267 173 194 265 283 272 253 222 195 218 248 266 319 260 182 376 282 210 279 153 240 240 202 279 203 322 182 201 158 319 319 252 291 146 297 230 398 244 251 239 232 229 237 235 265 273 229 244 172 334 225 264 213 256 229 239 322 325 265 239 388 259 274 181 237 211 336 334 253 135 246 201 246 238 233 306 200 240 319 290 155 281 225 305 293 236 301 238 255 261 396 162 212 277 259 241 260 286 294 355 252 282 228 231 243 303 317 259 310 260 253 271 222 240 269 278 256 276 312 280 311 204 294 251 229 285 266 243 198 309 312 337 352 271 307 296 275 241 192 299 203 320 224 234 283 305 246 223 299 391 293 239 315 240 317 265 302 198 326 224 287 234 319 219 289 223 300 263 236 232 283 301 221 276 218 267 252 317 182 235 311 169 290 235 254 295 290 269 309 231 175 168 220 203 205 188 340 274 197 293 236 266 299 255 324 258 225 296 223 207 226 198 274 288 297 274 203 119 277 262 292 183 257 218 176 170 223 318 251 265 169 273 214 243 282 235 342 243 232 244 232 355 299 228 208 235 251 289 280 393 225 322 252 281 336 217 246 244 218 300 258 259 227 308 278 228 244 202 304 212 279 307 234 272 172 240 238 287 308 432 240 350 305 258 265 213 248 189 254 343 325 236 234 239 256 241 202 266 242 228 234 255 153 247 294 248 283 282 312 217 336 286 342 262 327 286 294 194 356 224 326 196 279 408 163 207 339 282 324 178 263 235 354 241 263 266 222 269 296 254 193 225 243 259 226 313 223 247 218 220 220 280 241 218 365 170 268 329 201 346 211 229 270 227 292 132 226 185 298 237 309 233 348 234 274 350 238 258 256 225 270 289 233 172 274 276 191 320 239 216 258 213 319 294 368 209 203 297 308 306 300 303 296 308 274 264 272 322 206 260 207 410 241 220 242 269 274 262 291 319 284 168 370 261 280 291 261 233 186 318 246 226 343 326 336 237 302 260 211 315 271 292 261 333 296 208 299 259 223 282 161 143 192 260 218 295 297 276 285 266 258 286 215 303 209 291 242 316 180 257 319 260 306 258 295 265 179 220 214 324 199 256 214 309 236 214 233 238 207 225 326 330 289 215 203 251 303 231 262 278 337 239 328 331 207 100 245 349 197 201 333 304 255 300 199 233 259 154 375 327 270 246 337 313 248 266 250 294 196 296 275 268 211 215 241 331 267 236 183 275 299 238 358 259 312 314 228 254 286 307 189 251 249 288 212 250 303 241 237 246 241 234 290 256 253 151 312 276 272 274 216 277 296 280 255 130 327 189 326 313 248 263 318 315 198 265 286 264 200 320 183 328 270 356 202 345 300 344 447 135 304 347 170 309 304 280 419 247 233 300 217 211 370 307 278 273 279 282 378 278 272 302 207 309 241 302 322 198 283 208 287 265 325 211 235 213 273 275 210 332 232 396 67 273 241 252 236 200 288 247 281 215 235 353 171 201 248 289 209 274 261 364 247 322 287 261 212 262 282 318 201 215 163 189 195 207 292 223 323 312 242 298 355 250 253 225 389 348 241 321 209 189 189 307 294 323 358 326 257 263 342 195 274 252 255 313 302 246 316 253 218 294 241 338 233 254 235 250 189 237 227 302 198 237 291 188 176 339 322 295 271 323 233 256 165 353 292 199 161 226 212 236 225 214 271 193 207 303 282 227 240 311 270 357 234 317 279 251 269 276 257 326 263 258 300 228 187 413 273 269 303 356 193 224 376 314 293 269 275 317 306 246 320 189 198 215 243 313 231 213 284 114 209 295 248 317 238 310 262 217 207 394 187 268 196 343 158 256 290 301 222 378 233 222 313 273 234 241 315 165 279 274 273 229 231 328 295 210 223 238 265 288 216 258 212 270 257 312 187 254 262 205 207 325 268 314 199 292 225 253 308 216 254 238 198 264 192 218 285 294 293 350 317 329 228 211 168 240 259 302 360 173 286 239 289 292 311 302 237 222 203 261 240 211 276 191 265 238 266 225 269 249 244 268 245 265 227 254 268 202 344 336 227 226 161 223 225 226 275 335 193 323 241 280 266 341 324 247 257 236 252 255 344 318 192 297 301 241 309 324 169 341 251 212 299 208 267 305 204 354 274 356 289 271 271 323 194 241 273 307 211 240 185 241 238 258 211 202 366 262 360 294 315 289 291 292 340 247 210 192 195 291 169 227 252 203 254 212 153 184 261 248 273 294 221 333 298 281 244 248 236 235 227 269 328 259 308 276 307 203 251 237 296 214 258 330 204 190 222 251 211 339 220 302 240 289 219 249 309 221 213 290 295 134 290 232 269 247 264 218 192 304 165 342 163 359 245 201 211 237 246 386 266 293 250 259 320 242 289 318 235 255 185 374 264 240 329 244 313 291 361 147 262 228 279 229 259 258 271 253 265 268 328 274 251 188 208 244 197 243 177 261 248 357 202 452 229 243 256 248 223 220 249 197 336 314 366 298 228 274 346 328 319 254 183 156 225 320 344 299 331 266 301 365 300 312 295 300 387 262 239 239 301 277 234 285 200 172 244 353 270 235 240 354 273 225 170 257 275 271 222 258 250 361 317 209 316 221 307 292 359 314 165 320 296 283 299 218 234 252 310 300 209 251 219 243 209 337 343 232 241 294 234 276 148 256 225 220 329 191 222 219 299 217 279 263 251 179 233 293 189 281 269 445 243 243 342 293 255 250 218 244 250 346 334 258 259 247 353 301 351 313 289 271 318 207 218 229 329 220 220 297 348 236 273 130 292 330 263 191 301 289 182 192 272 252 209 259 284 271 288 278 309 237 253 260 316 325 199 261 241 187 333 261 303 290 297 191 302 277 258 277 235 276 232 189 209 282 187 195 321 225 274 250 273 273 372 410 217 179 329 246 376 194 201 282 212 285 324 233 254 280 210 263 222 334 292 299 160 316 177 211 311 206 292 260 191 252 287 164 317 262 244 187 240 275 204 298 336 303 264 331 290 220 286 271 211 179 253 233 342 258 274 228 269 358 319 325 371 358 260 285 281 287 215 295 213 349 302 297 247 340 248 231 247 187 244 220 265 314 277 226 239 280 207 293 207 234 234 247 261 273 236 161 239 244 319 266 362 300 285 266 271 310 331 179 238 233 250 229 283 264 189 338 252 171 265 167 214 254 274 224 353 262 250 289 192 336 235 190 276 217 180 226 249 272 225 260 283 292 355 316 263 246 343 238 332 129 291 256 247 359 235 360 294 319 238 202 174 356 265 250 351 258 256 189 361 276 321 232 361 252 243 217 225 226 266 231 269 328 310 295 278 322 181 233 360 237 253 232 296 206 247 336 240 318 248 288 167 313 269 222 269 259 308 210 265 340 226 277 277 261 342 258 260 213 313 334 179 308 229 190 340 186 267 224 288 245 309 217 293 271 205 278 273 210 311 249 241 292 299 279 256 260 294 216 403 174 244 271 254 231 249 332 236 262 261 233 245 282 313 245 271 320 377 246 199 242 159 224 231 267 387 209 274 303 262 272 258 191 258 175 185 245 245 189 363 300 240 273 240 228 179 283 313 320 202 213 212 251 294 344 264 257 249 240 233 281 326 212 271 300 255 376 216 268 334 217 374 259 240 293 389 206 239 262 270 288 311 332 306 264 258 297 233 275 274 206 220 308 255 274 209 325 305 251 265 284 215 309 345 279 226 225 249 208 327 323 234 331 216 296 311 252 330 352 205 303 306 228 293 273 357 249 317 286 227 194 315 274 164 195 322 193 256 256 309 258 303 395 179 203 248 242 205 286 243 231 187 247 162 241 230 274 236 243 240 350 228 289 348 321 397 266 212 232 353 308 339 331 301 196 178 327 251 226 291 302 302 313 333 230 181 324 307 201 331 367 279 145 307 206 317 252 215 362 234 239 304 316 240 335 243 147 193 273 218 181 243 162 293 223 240 342 299 282 269 258 290 262 284 232 282 291 321 270 238 267 220 288 345 317 220 284 266 202 330 205 331 280 248 301 292 151 254 335 314 329 170 225 224 353 198 287 248 201 221 202 177 287 267 311 224 298 147 251 209 266 306 240 194 289 249 184 278 221 264 446 234 266 275 171 287 190 282 307 290 175 230 207 211 230 303 313 229 290 229 238 361 281 244 212 248 270 208 325 237 242 197 293 364 239 318 271 305 168 213 285 256 298 268 288 274 214 376 265 235 267 293 293 215 255 235 221 234 276 289 274 248 213 188 178 370 268 295 195 275 230 215 228 268 245 160 364 229 217 232 265 186 290 190 255 298 289 223 294 159 260 233 283 272 326 225 246 203 190 307 170 231 198 164 285 254 251 298 284 360 345 224 303 309 188 299 186 248 256 188 272 194 278 309 290 242 320 308 286 340 214 245 301 310 189 223 302 255 237 261 375 277 253 329 218 251 232 284 306 260 275 304 225 260 211 244 228 313 285 170 220 257 250 346 232 271 137 260 274 414 286 287 260 135 201 260 235 246 233 256 350 282 253 182 304 269 138 259 217 223 221 227 355 231 289 337 207 266 264 325 244 196 303 234 400 321 321 271 322 268 238 264 256 283 209 227 225 169 343 332 299 186 239 161 250 213 275 207 310 331 273 344 338 257 400 123 251 256 290 345 239 357 304 248 270 177 194 187 229 211 285 194 329 312 280 265 212 251 242 252 253 294 250 265 205 291 269 263 298 318 211 215 211 238 267 265 196 244 287 208 327 263 329 476 222 255 250 306 272 267 170 254 230 217 307 173 243 254 342 378 347 222 286 256 320 282 239 326 346 305 284 185 280 323 184 241 268 244 354 246 286 281 157 262 275 208 214 353 337 237 309 260 269 243 318 314 330 163 190 253 219 251 229 202 198 287 280 224 261 233 235 303 258 238 412 212 319 292 278 209 301 283 211 249 298 260 319 324 294 282 249 245 306 230 165 187 251 205 269 324 217 289 165 270 212 345 222 294 235 277 326 257 287 224 281 242 368 295 414 233 271 247 221 258 237 337 185 228 244 275 310 244 338 282 367 232 253 267 297 354 235 230 358 287 361 258 176 210 300 271 236 298 332 246 205 202 333 316 326 310 202 269 309 323 239 310 301 363 185 259 204 256 219 349 317 280 296 194 282 194 272 242 323 258 269 278 284 230 232 246 299 328 183 273 174 267 207 296 337 141 231 193 241 272 322 316 241 262 214 284 209 220 240 187 232 252 217 225 278 220 233 178 320 205 227 294 272 253 296 255 348 242 286 276 344 255 236 157 267 296 271 256 336 238 240 249 270 214 220 248 252 302 328 303 293 256 306 277 244 227 323 233 176 207 300 244 134 460 187 311 303 304 171 298 265 343 263 309 316 174 253 227 258 236 166 289 232 195 278 322 303 187 219 306 256 172 278 341 259 317 271 223 248 303 282 299 185 322 266 337 299 321 295 242 314 174 263 176 311 226 292 150 354 264 306 238 221 259 239 234 387 182 264 316 176 228 307 205 362 272 244 280 308 158 133 369 179 278 274 192 158 204 214 259 146 255 344 185 244 202 251 258 282 274 212 355 325 201 196 292 325 226 201 261 288 335 245 321 266 290 277 396 226 263 311 244 284 209 302 275 260 321 356 227 415 240 290 238 279 317 267 224 172 249 215 198 181 301 291 275 292 242 254 233 206 235 280 149 318 256 196 322 297 134 282 305 251 293 220 254 323 368 284 239 312 246 193 322 277 272 244 267 253 145 175 228 262 172 266 173 177 256 264 253 237 246 336 247 271 376 240 284 235 311 249 226 302 363 321 272 281 190 200 310 178 284 348 366 254 266 143 219 278 257 283 357 312 220 209 240 307 284 259 297 287 283 267 251 180 303 232 289 226 284 201 273 240 274 339 265 252 317 212 230 246 255 228 366 306 255 275 365 378 249 241 255 227 279 226 262 249 202 284 283 305 214 279 243 274 258 272 184 185 365 204 268 325 236 264 269 265 256 281 289 289 288 329 325 258 272 201 292 284 336 361 348 336 252 214 360 313 319 320 307 253 230 266 275 80 259 239 233 229 242 321 320 286 258 247 265 210 308 199 282 293 309 283 304 303 334 182 186 233 319 214 250 283 261 312 225 343 300 301 252 276 215 273 276 219 364 306 259 216 293 312 344 245 197 324 283 298 222 305 364 263 165 351 270 202 165 255 225 180 354 217 309 263 313 291 221 238 174 223 247 358 352 354 189 349 279 252 244 300 188 312 344 248 274 291 251 297 229 169 252 252 190 299 355 190 224 324 247 322 263 249 248 263 245 276 266 277 345 276 302 240 338 259 149 207 196 326 257 246 304 213 341 261 252 270 301 174 240 232 263 225 245 389 269 266 230 271 309 254 277 240 275 252 290 224 180 228 287 225 335 308 316 221 248 342 272 269 185 302 218 168 400 242 273 278 205 254 238 220 291 213 305 196 227 179 342 325 220 294 247 315 261 299 318 255 140 348 285 192 269 214 132 221 313 156 322 232 321 342 354 250 225 221 190 250 187 345 230 212 244 141 261 235 278 222 256 265 326 290 243 276 389 276 247 274 219 314 193 331 186 242 229 344 266 251 296 169 441 310 252 241 310 357 236 284 207 226 247 201 258 259 255 337 241 305 275 271 150 289 221 255 276 238 209 215 259 348 322 225 251 242 268 260 188 153 251 271 268 198 306 220 204 263 255 160 273 282 312 276 200 256 221 273 268 191 331 263 311 480 273 243 272 311 320 129 272 247 235 277 278 274 323 310 292 278 201 260 199 244 310 234 254 147 278 156 281 299 278 402 245 211 389 232 252 290 246 253 283 255 339 337 187 214 354 277 216 258 333 249 218 272 252 204 298 219 197 268 126 190 192 260 204 188 282 263 203 285 249 261 225 262 268 288 178 202 269 276 319 282 343 215 207 282 339 281 240 341 364 275 219 380 214 256 163 280 331 414 282 275 295 313 373 176 253 267 283 251 297 137 254 265 338 250 207 311 208 275 343 298 283 282 254 259 252 232 194 141 185 226 251 220 261 432 180 297 393 366 284 325 171 274 257 317 296 162 306 252 210 202 288 251 295 281 320 219 256 288 275 293 174 304 269 168 322 285 336 205 202 287 338 290 220 256 276 321 210 233 294 185 199 272 282 192 258 160 277 118 317 215 218 315 288 220 359 243 234 216 322 178 285 226 239 266 241 324 285 231 373 339 266 260 251 253 314 299 297 348 299 330 188 155 244 257 315 397 259 267 279 232 350 430 220 294 256 286 147 286 343 230 297 249 270 208 207 246 253 249 208 292 211 228 264 180 191 165 262 241 298 321 233 187 384 331 205 303 216 286 246 239 208 272 384 253 171 206 237 306 307 287 392 291 279 379 270 264 326 238 255 249 305 388 172 318 223 332 221 226 275 217 236 194 293 348 275 258 285 233 234 233 241 276 234 185 314 240 278 297 208 236 307 171 162 230 203 285 254 218 303 280 304 221 256 202 379 315 305 285 206 232 199 248 148 316 269 218 239 196 333 281 241 216 230 315 292 216 262 349 156 277 291 179 201 246 384 210 226 210 319 271 272 375 342 274 242 213 336 252 302 324 279 351 267 382 314 271 189 315 314 240 229 196 313 375 308 216 286 317 255 285 279 254 296 278 235 230 206 270 173 283 307 236 224 246 380 208 319 272 310 297 306 272 245 238 227 326 217 301 232 214 330 294 224 195 239 248 295 250 379 267 236 263 261 231 178 313 282 231 269 230 301 254 205 255 238 223 310 232 202 255 281 242 283 426 220 232 229 292 265 271 342 272 169 190 321 254 332 211 264 343 221 277 211 248 230 327 339 280 235 193 207 366 262 297 259 268 297 269 270 282 286 226 173 263 266 276 218 334 161 371 334 231 213 250 306 235 299 374 248 248 254 344 280 207 315 235 252 243 236 272 190 231 267 325 281 328 257 291 334 282 287 323 309 270 258 263 166 254 210 247 218 249 246 223 227 367 268 163 305 297 280 224 347 227 203 287 255 251 278 243 324 211 222 276 297 211 261 303 285 219 214 323 279 202 231 277 207 257 186 186 171 252 318 272 271 343 226 182 305 189 267 287 161 197 234 265 194 233 318 249 298 350 269 230 268 242 299 273 212 259 285 224 362 259 269 238 177 268 277 280 313 215 327 289 200 180 171 188 301 342 319 244 271 250 269 294 204 333 251 293 183 206 330 271 288 262 323 234 271 260 230 332 229 299 207 260 263 270 205 249 311 245 290 313 260 253 264 235 300 230 403 238 221 223 197 352 289 270 152 236 318 289 179 253 242 278 192 302 247 264 252 224 376 259 274 201 242 281 290 270 283 215 205 260 263 210 294 383 295 199 256 233 203 215 330 282 308 273 274 243 261 341 328 333 269 246 208 249 244 168 228 307 306 298 216 202 282 244 312 271 230 354 305 242 253 276 306 243 214 304 365 224 252 275 258 234 228 422 232 226 314 252 257 286 397 285 198 256 209 307 217 211 216 286 228 330 305 269 253 212 259 343 234 358 268 273 259 314 305 265 250 295 236 252 212 267 214 257 374 325 183 330 328 348 265 301 355 272 312 282 244 276 232 237 318 206 208 291 213 242 299 323 253 300 320 227 271 139 303 232 179 248 249 263 316 202 257 236 270 240 314 216 266 238 321 285 239 257 167 223 352 202 184 224 386 336 227 296 263 259 320 295 369 172 318 253 347 226 285 209 214 282 190 221 262 221 269 250 285 308 259 344 197 287 183 258 309 295 199 207 196 299 290 228 259 126 275 289 298 233 318 240 247 242 292 250 351 333 163 318 152 211 276 195 295 462 298 289 256 253 309 249 277 279 213 233 232 365 332 205 209 372 194 297 247 336 235 299 355 193 152 373 286 219 365 304 302 309 192 236 310 340 219 301 257 222 210 229 220 251 169 230 230 230 229 217 228 298 266 255 315 177 249 123 232 303 285 279 243 273 197 267 226 230 253 282 209 256 281 279 215 220 230 376 255 307 274 124 239 203 355 336 209 194 270 316 225 172 237 211 231 349 159 293 187 246 214 258 220 261 236 343 356 286 218 213 323 215 273 215 194 254 223 318 281 270 226 326 250 367 287 264 232 196 302 260 284 211 319 200 367 393 264 318 150 246 323 125 240 162 193 216 267 276 285 281 217 265 221 173 298 208 197 297 315 253 274 233 310 180 229 227 212 256 196 278 260 300 249 240 216 253 323 324 316 252 302 243 224 300 248 295 252 125 231 236 299 271 228 251 198 311 255 235 182 248 222 289 336 225 290 279 339 357 265 273 233 278 164 320 324 364 226 213 195 196 234 428 343 256 290 211 209 284 304 321 274 273 280 345 240 281 250 365 218 251 348 169 218 199 281 231 175 274 266 224 322 173 277 240 198 344 319 229 294 247 343 259 236 279 209 250 232 333 254 221 270 227 165 184 219 214 280 153 137 199 243 223 316 345 324 226 276 231 194 276 243 288 179 309 264 286 201 232 248 309 315 232 316 304 280 240 272 188 256 210 271 280 231 296 308 304 275 356 303 198 294 268 294 289 222 244 257 212 312 227 355 307 284 271 307 263 271 286 283 248 348 274 327 179 326 285 307 187 225 295 187 243 358 380 276 274 260 240 220 209 204 315 273 267 339 243 315 223 217 197 202 202 295 282 308 245 325 245 263 251 175 218 343 163 203 147 306 295 266 352 321 304 323 200 179 236 316 205 324 341 262 204 260 359 289 230 293 310 225 307 220 216 288 334 226 268 312 183 222 236 252 278 316 205 178 254 281 271 303 287 299 181 236 274 231 188 316 215 363 280 263 266 203 256 236 364 186 338 312 297 271 217 299 294 220 283 245 158 336 275 285 133 224 192 289 309 300 259 366 321 179 273 332 265 264 297 283 334 269 312 209 256 284 131 279 196 318 331 294 240 179 199 266 243 262 161 282 230 206 218 307 324 220 279 272 228 187 293 287 317 259 302 365 217 329 302 207 280 166 239 191 306 254 246 234 211 352 179 334 274 274 284 197 294 216 296 241 224 156 271 306 309 235 279 366 286 348 196 336 249 213 310 293 269 338 242 195 290 187 261 282 206 341 299 329 245 226 284 279 214 312 262 190 268 265 252 210 283 243 315 185 309 200 374 308 231 238 348 208 249 199 281 212 298 196 213 244 284 237 270 206 280 253 222 375 185 167 360 314 247 279 353 196 255 222 266 274 262 311 222 223 299 279 245 284 223 297 277 251 208 247 273 347 182 288 254 256 316 315 360 260 199 234 302 331 225 285 277 184 190 221 355 287 292 303 279 305 237 217 314 301 120 229 197 360 239 225 295 314 257 241 220 286 306 372 267 336 306 315 321 270 247 203 292 313 336 308 299 225 333 225 225 321 271 158 247 218 303 297 278 260 307 242 208 264 214 344 229 257 211 240 267 223 254 190 215 230 224 255 357 222 291 147 306 278 344 214 281 321 400 265 270 203 301 267 269 266 270 286 292 295 251 259 246 272 209 203 225 217 304 357 270 286 292 261 272 214 275 246 302 268 215 342 248 293 295 306 147 300 224 249 319 229 171 207 249 148 266 244 266 177 318 367 229 289 261 283 240 239 293 334 282 254 249 305 191 364 278 203 225 322 261 276 256 289 286 267 290 287 336 188 252 277 192 271 209 160 231 313 303 259 311 232 347 168 248 217 292 240 262 349 217 294 253 229 268 236 286 242 175 196 189 293 342 119 296 270 282 263 263 280 248 306 290 233 268 275 272 264 284 208 271 236 247 303 334 307 291 253 234 206 207 240 228 318 246 306 247 259 263 237 253 243 345 393 240 163 306 370 249 402 193 288 294 290 228 249 253 214 235 331 184 284 210 306 358 305 412 23</t>
+  </si>
+  <si>
+    <t>MIE(0.6962007087906821, 4.952030190908638, -1.0700511161055015e-24, 2.9346594701676922)</t>
+  </si>
+  <si>
+    <t>0 2 1 3 2 2 2 2 2 1 2 2 1 1 2 1 1 2 2 3 2 2 1 1 3 2 2 2 2 1 1 3 2 2 2 0 1 4 3 1 1 2 1 2 1 3 0 1 1 0 1 1 3 2 3 2 1 2 1 1 3 3 1 1 2 3 1 2 4 0 3 0 1 1 1 2 2 1 3 1 2 2 0 0 2 2 2 2 2 2 2 2 3 1 1 2 2 1 2 0 2 4 2 2 1 2 1 2 2 2 2 1 0 0 1 0 3 3 1 3 0 0 3 1 1 0 1 2 0 0 1 1 4 2 2 2 2 2 3 0 3 2 1 1 2 1 2 2 3 3 0 0 1 2 1 1 0 2 2 2 2 1 1 0 1 1 2 2 0 1 4 2 2 0 3 3 1 2 3 2 2 1 1 0 2 1 2 1 3 2 1 2 1 1 1 4 4 4 3 2 2 1 1 3 1 2 2 1 2 4 1 2 0 1 1 1 3 3 3 2 1 2 1 1 2 1 1 4 1 2 4 1 2 2 2 3 2 2 1 0 2 2 3 1 3 2 1 1 1 2 3 3 2 1 2 3 2 3 3 2 0 2 1 2 1 3 1 1 1 2 1 2 2 1 2 2 3 0 2 2 1 2 2 0 2 0 2 0 0 2 0 2 3 2 0 0 2 1 0 3 1 1 2 1 0 2 2 1 1 0 1 1 2 3 1 0 1 1 1 1 4 1 0 3 1 1 3 2 2 1 2 3 4 3 1 0 2 1 1 1 0 3 3 1 1 1 3 2 1 3 2 2 3 1 2 2 1 1 2 1 3 2 1 2 2 1 1 1 1 3 1 3 3 3 4 4 1 2 3 1 1 1 2 1 1 1 2 1 2 3 1 3 0 0 1 0 1 1 1 1 1 0 0 2 0 1 4 0 1 1 2 1 5 2 3 2 1 2 2 2 4 1 2 3 0 2 3 2 4 2 3 1 2 1 2 3 4 2 1 0 2 1 2 2 0 1 2 1 1 2 2 4 3 1 1 2 2 2 2 1 2 1 1 1 2 3 2 2 2 3 2 2 2 2 5 3 4 2 2 1 1 1 2 2 0 2 3 3 2 0 1 2 0 1 2 1 2 2 1 2 2 2 1 2 1 2 2 2 2 3 2 3 3 2 1 1 3 0 1 2 1 3 1 2 3 3 1 1 4 2 1 1 1 1 3 2 2 2 2 2 2 1 0 2 1 2 1 1 1 1 3 1 3 4 3 2 0 3 2 1 3 2 1 3 0 2 0 0 2 2 2 2 2 5 3 3 3 2 2 1 1 3 0 4 2 1 1 3 1 1 3 1 2 2 1 0 1 0 4 2 3 2 1 0 5 3 1 1 1 3 2 0 2 1 3 0 0 2 3 3 1 2 2 3 0 2 1 3 2 3 1 1 3 1 2 3 1 0 3 1 2 1 2 2 2 1 1 0 2 3 3 3 3 1 2 1 2 1 2 2 2 1 0 1 2 0 2 1 2 1 3 2 4 0 0 0 1 1 1 3 1 3 3 1 0 1 2 3 2 1 1 3 2 0 3 1 2 3 1 1 4 0 2 0 2 2 1 1 3 1 2 3 1 1 4 3 0 0 2 2 1 1 3 4 1 1 1 0 0 3 1 1 1 2 1 2 2 1 4 1 1 3 2 0 3 1 3 2 0 2 0 1 3 1 2 2 1 4 1 1 1 3 1 0 1 2 1 3 2 3 1 2 2 0 1 2 3 2 4 1 2 3 3 0 2 2 2 3 1 2 2 0 1 3 0 1 0 0 1 3 2 1 2 1 1 3 2 1 0 3 3 1 3 1 3 0 1 1 1 2 0 1 2 1 1 2 2 1 1 1 3 1 0 2 1 1 3 2 4 2 3 0 0 1 1 2 2 2 2 1 2 4 1 1 0 3 1 0 2 2 2 2 1 1 2 2 1 2 1 3 1 3 2 1 2 0 2 2 2 3 4 1 1 0 2 1 2 1 0 2 3 1 1 2 2 2 3 3 3 2 0 1 1 3 3 2 2 2 1 1 2 0 3 0 2 2 1 0 1 1 1 2 0 2 2 5 0 3 2 0 1 1 2 1 1 0 1 3 0 0 1 0 3 3 0 1 2 1 3 2 2 3 2 2 3 3 1 1 1 1 4 1 2 2 2 4 0 1 1 0 2 1 1 1 1 1 0 2 1 2 1 0 1 1 2 1 2 1 0 2 1 1 2 2 4 2 1 0 2 2 0 4 1 1 3 1 0 2 2 1 3 3 3 1 1 3 0 0 0 1 1 4 4 2 2 0 4 2 2 5 1 2 1 3 3 1 2 1 2 2 1 2 4 3 3 1 2 2 2 1 1 1 1 3 1 2 3 3 1 2 4 2 1 2 1 1 1 2 3 2 1 3 2 1 3 1 4 3 1 4 2 2 2 2 3 1 1 4 2 2 1 2 2 4 2 3 3 3 1 2 1 1 2 1 2 2 2 0 1 2 1 2 3 3 1 1 1 0 2 1 2 1 0 2 4 1 3 2 2 0 3 2 1 2 2 2 1 1 3 0 4 5 1 2 1 1 0 1 4 1 2 1 1 1 3 3 2 0 2 2 1 1 1 3 2 3 2 2 2 1 1 3 1 1 0 2 2 1 4 0 2 4 0 2 1 1 1 3 2 3 2 3 1 2 2 2 1 2 2 1 2 3 0 2 1 2 1 2 2 1 1 1 2 0 2 3 3 3 1 3 4 2 2 3 1 1 1 1 1 2 2 1 2 3 4 3 2 3 0 3 1 0 1 2 2 1 1 2 3 0 1 2 3 2 2 1 2 4 1 1 3 1 1 2 1 0 0 1 4 3 1 0 1 1 1 3 2 2 1 0 2 2 1 2 2 2 1 2 3 3 2 2 2 2 2 2 3 3 2 2 1 2 1 2 4 3 2 1 3 2 1 1 3 2 3 1 1 5 3 1 1 0 3 2 1 2 3 1 2 2 1 2 2 1 2 2 3 2 3 3 2 1 0 2 1 2 0 2 2 3 3 2 3 2 1 1 1 0 2 0 1 3 3 0 3 1 1 2 0 2 2 0 1 2 2 1 1 1 3 0 1 2 4 1 3 2 2 3 2 2 1 2 4 2 2 2 3 2 2 2 2 0 3 1 1 2 0 3 1 0 3 2 1 1 4 1 1 1 2 1 3 2 0 0 1 2 3 0 3 2 1 3 3 3 1 2 1 1 2 2 1 3 2 3 1 2 1 1 1 2 5 0 1 2 1 1 2 1 0 4 1 1 0 3 0 0 0 2 4 4 3 2 1 2 3 3 1 0 3 2 1 0 1 1 1 3 3 2 2 1 3 2 1 2 3 1 3 4 0 2 2 4 2 2 1 0 3 1 1 2 2 2 1 1 3 2 2 2 1 1 1 1 2 2 0 1 1 5 2 0 1 5 2 2 3 1 3 2 2 3 2 3 0 3 1 2 2 2 2 0 0 2 1 2 2 1 3 0 1 3 1 1 1 2 3 0 4 1 3 0 3 0 2 2 3 2 3 1 1 4 3 2 2 1 4 0 4 1 0 0 0 2 1 0 1 2 0 2 5 2 2 0 1 0 2 2 1 1 2 2 3 2 2 2 3 1 1 1 3 0 1 2 2 2 0 2 4 1 2 2 1 1 1 1 1 2 3 3 2 3 0 2 1 0 1 4 2 4 3 1 2 1 1 1 2 1 2 3 1 2 2 2 2 2 1 1 0 0 0 4 0 2 3 3 1 2 1 2 2 3 5 2 2 1 2 3 1 1 2 2 1 2 2 2 1 0 1 0 2 2 4 1 1 1 3 1 2 0 2 2 1 3 2 1 1 1 2 4 2 1 1 1 4 3 2 3 1 3 2 2 1 1 2 0 4 1 4 3 4 4 1 2 1 2 0 1 2 2 0 1 3 1 2 1 2 3 1 3 2 2 2 1 0 1 0 1 1 1 1 1 2 2 3 2 1 0 0 1 0 3 2 2 1 2 1 3 0 1 3 1 1 1 2 2 0 3 2 0 0 1 1 0 3 1 2 2 3 2 1 2 2 1 1 2 2 1 1 1 2 1 1 2 1 2 2 0 2 0 1 1 3 3 0 2 0 0 3 1 0 2 2 0 3 1 1 3 1 2 3 2 1 0 1 0 2 1 1 0 1 0 3 1 2 1 0 3 2 1 3 2 2 3 1 2 1 2 2 0 3 0 4 3 4 4 2 3 0 3 3 2 0 2 3 3 3 3 1 3 3 0 1 0 2 2 1 2 1 2 2 2 2 2 2 2 1 0 4 0 2 1 0 2 0 3 5 2 2 1 6 1 1 4 4 1 1 1 1 2 1 1 2 3 1 1 3 2 1 1 2 1 2 2 2 1 1 1 1 0 1 3 2 2 1 1 1 2 1 2 2 0 0 0 3 2 1 3 2 2 3 3 2 1 3 2 4 3 2 3 0 3 2 2 1 1 2 4 0 1 3 2 1 1 2 2 2 2 3 4 2 2 0 2 1 1 2 1 1 1 3 2 2 0 0 1 1 1 3 2 2 1 2 1 4 2 1 0 1 3 1 1 2 2 5 3 2 2 2 1 1 3 2 3 1 3 2 2 1 2 1 2 3 1 3 2 3 0 3 2 1 1 0 1 3 2 2 2 0 0 2 2 1 3 3 2 2 1 1 1 0 0 1 1 1 1 1 1 1 1 4 2 3 2 3 1 1 1 2 3 2 3 2 2 3 1 2 1 2 3 2 1 3 2 2 0 1 3 1 2 2 0 0 1 2 1 0 1 1 3 1 2 1 0 1 2 1 0 0 2 1 1 1 2 2 1 1 3 2 3 1 2 1 2 1 1 3 1 3 2 3 3 0 0 1 4 1 1 2 1 2 2 3 1 1 1 4 0 1 0 3 2 1 3 2 2 1 3 1 1 4 2 0 2 0 1 2 3 0 1 2 2 2 2 1 1 2 2 3 2 1 1 2 1 3 3 2 1 2 2 2 1 2 1 3 2 1 1 2 2 0 1 1 2 2 1 1 0 1 4 2 0 1 1 0 2 2 0 2 3 1 0 2 2 1 3 2 0 2 4 3 1 2 2 2 1 1 2 2 3 1 3 1 2 1 0 2 3 2 1 2 2 1 2 4 3 3 2 3 2 1 1 3 0 2 2 2 4 3 1 1 3 3 0 1 3 2 2 4 1 2 3 0 3 1 2 3 2 2 2 0 0 2 0 2 3 3 1 0 1 4 3 3 1 2 2 3 3 1 1 1 3 1 0 3 4 1 1 3 3 2 3 1 3 0 3 0 1 1 1 0 1 2 3 0 1 2 1 1 3 2 4 1 3 3 3 1 2 2 0 1 2 1 3 3 2 2 1 1 1 1 4 2 1 0 3 2 1 2 2 2 4 3 1 3 0 1 2 0 2 3 0 2 0 1 3 4 0 1 3 0 1 3 3 0 1 0 1 1 2 2 2 2 1 5 3 1 1 1 2 1 1 3 1 6 0 0 1 1 3 2 2 0 1 1 1 2 1 0 3 2 2 2 2 1 1 3 3 3 2 4 0 1 0 2 4 3 2 3 2 2 3 2 2 0 4 1 4 3 2 2 1 3 1 3 4 1 2 2 2 0 3 1 1 2 1 2 1 4 3 0 3 1 1 2 3 3 2 2 2 1 3 2 2 2 3 2 1 3 2 2 0 2 1 2 1 1 2 4 3 1 1 0 2 2 2 0 3 0 0 0 3 0 1 3 1 2 1 0 2 2 1 2 3 1 0 3 3 2 2 1 4 2 1 2 1 4 2 1 3 2 3 1 1 1 2 2 1 0 0 2 3 3 1 2 1 1 2 1 2 2 1 0 1 2 2 3 1 1 4 0 3 2 1 3 2 0 1 1 2 4 2 2 1 1 1 1 2 2 1 2 3 2 0 1 3 1 2 1 1 0 2 2 1 1 3 0 2 1 0 1 2 1 3 0 2 2 1 2 1 2 1 1 3 1 1 2 2 2 1 3 1 4 3 2 2 2 2 2 1 2 2 2 2 2 2 1 1 3 4 1 1 3 2 1 3 1 2 1 2 1 0 0 3 2 0 1 0 1 1 1 0 0 1 1 3 1 0 1 0 2 3 1 1 3 3 3 1 2 3 1 2 4 2 3 0 1 0 1 0 1 2 4 1 2 1 2 2 2 3 2 2 3 1 2 1 3 1 1 1 0 0 2 2 4 0 1 1 1 3 2 1 0 3 3 1 0 3 3 2 3 2 1 0 1 1 1 0 0 0 0 1 1 3 1 2 4 1 2 1 0 3 2 2 1 1 1 1 1 1 1 0 2 2 2 2 1 4 2 2 2 2 0 4 0 1 2 0 0 1 1 0 1 0 0 0 2 1 2 1 1 1 1 3 2 2 4 1 3 0 1 2 0 0 0 1 1 2 0 0 2 1 2 0 0 1 1 3 2 2 1 3 4 1 6 1 2 0 2 3 1 2 3 3 1 2 1 1 1 3 1 1 1 1 2 3 1 3 4 1 1 1 2 2 2 1 1 1 1 0 1 3 1 1 1 0 1 4 3 1 2 2 1 2 2 2 3 1 2 1 1 1 2 2 1 1 1 3 6 1 3 2 0 1 1 2 1 1 1 2 3 1 2 2 1 2 4 2 3 1 2 2 5 2 0 4 3 1 1 0 1 2 1 2 2 4 3 0 1 2 3 2 4 0 3 2 2 4 3 1 1 2 1 2 2 1 1 2 2 0 1 2 2 2 0 1 2 0 1 2 1 2 2 1 1 0 2 2 2 1 1 2 2 3 0 0 2 2 3 2 2 3 1 3 1 1 2 2 1 2 2 1 1 2 3 0 0 3 2 1 3 0 2 2 2 1 2 1 2 1 2 0 2 1 1 0 2 3 2 0 1 2 4 0 2 2 2 1 2 4 2 3 1 3 0 2 2 1 2 2 2 2 2 2 3 3 2 2 0 3 2 2 0 1 2 1 1 1 1 1 2 2 3 1 2 1 2 4 2 1 0 0 3 2 3 1 1 2 2 3 3 1 1 2 0 3 2 2 1 1 3 0 1 3 2 3 0 3 3 3 1 2 2 1 3 2 1 3 3 0 1 2 0 2 1 2 2 3 2 3 4 1 4 2 1 1 3 2 1 4 2 2 1 3 1 0 0 0 3 2 3 3 3 2 1 1 2 2 3 2 4 1 1 1 2 4 3 2 1 2 2 1 2 0 2 0 2 5 0 2 1 3 1 2 1 2 1 4 2 0 1 3 1 3 3 1 3 1 2 2 1 5 3 0 1 1 1 2 1 1 1 0 3 2 1 3 2 2 0 1 1 1 1 3 2 3 3 0 2 1 4 1 1 2 2 2 0 2 1 0 1 1 1 2 2 1 0 2 1 2 1 1 0 4 1 4 3 3 0 2 3 1 1 1 1 1 4 1 0 2 2 1 3 1 3 1 0 2 2 5 2 2 3 1 4 4 1 1 2 1 0 1 0 1 2 0 0 1 1 3 1 4 4 3 1 1 2 2 2 2 1 3 0 3 3 3 1 3 1 1 1 2 2 2 2 1 1 1 4 1 1 0 2 1 3 2 2 1 2 2 3 1 1 0 1 0 2 3 2 0 0 2 2 1 1 4 4 2 1 0 1 2 1 3 1 4 1 0 1 2 2 2 1 1 3 3 4 1 3 2 2 0 2 1 3 2 3 1 0 2 2 3 1 1 1 0 3 3 1 3 0 0 1 1 2 0 3 3 3 0 0 0 2 1 0 2 1 1 4 1 3 1 1 1 0 2 2 3 2 2 2 0 0 1 1 2 3 2 3 3 2 3 1 1 1 4 1 3 3 0 2 2 1 2 0 2 1 2 1 3 4 2 2 3 3 0 2 3 1 1 1 1 2 2 2 2 2 1 1 2 2 4 1 1 3 2 1 0 2 4 3 1 3 5 2 1 2 1 3 1 1 0 4 2 2 1 1 2 1 3 0 3 2 1 0 1 2 3 1 1 4 2 1 0 3 2 3 2 2 3 2 0 2 1 1 2 2 3 2 2 2 0 2 3 2 1 1 3 2 2 2 0 2 2 3 0 2 0 2 1 2 1 2 1 2 1 2 2 2 2 0 3 2 1 1 1 3 2 2 0 1 2 1 0 2 1 2 2 2 4 1 4 2 2 3 1 1 1 1 3 0 2 2 1 3 1 0 1 2 2 1 1 2 1 0 2 1 3 1 5 3 3 4 0 2 1 3 0 1 2 1 1 1 1 4 1 2 1 1 1 0 0 1 0 2 2 2 2 3 1 1 4 3 2 2 2 4 1 4 0 3 1 3 3 0 1 1 3 3 1 1 0 3 3 1 1 2 2 2 0 1 2 2 3 2 2 2 1 1 0 1 1 1 1 4 1 1 4 2 4 1 1 2 0 2 2 3 2 2 2 1 1 1 1 1 3 2 2 2 2 1 3 3 0 0 2 3 2 2 3 0 0 2 0 4 0 0 2 3 3 3 3 2 3 0 1 2 1 1 1 2 2 2 2 1 3 2 1 3 2 1 2 4 1 1 1 2 2 1 2 2 1 5 1 0 0 3 0 2 3 2 1 2 3 1 2 3 3 0 2 1 0 0 2 1 2 2 4 2 0 2 3 1 1 1 2 1 2 2 1 3 1 2 4 2 3 1 1 0 2 3 5 2 4 1 1 0 2 1 0 4 2 2 3 0 3 3 1 2 4 3 1 2 4 1 0 2 2 2 1 2 2 1 2 1 0 3 0 3 1 5 2 3 1 0 2 1 3 0 1 1 3 1 2 1 2 3 2 1 2 4 1 4 2 3 2 3 0 4 4 1 2 0 3 0 1 2 3 1 1 1 1 1 3 1 1 2 3 1 0 0 0 1 2 3 0 2 2 2 2 1 3 2 2 2 1 3 1 1 2 1 3 3 3 3 3 3 3 4 1 2 3 0 2 1 1 3 1 1 1 2 3 2 3 1 2 3 0 2 2 3 3 1 1 1 0 3 0 4 3 3 3 3 1 1 2 2 2 1 2 1 3 0 1 1 1 2 3 1 2 1 2 2 2 3 1 2 2 2 1 2 1 3 3 3 2 1 1 3 0 2 0 2 1 2 2 1 2 2 2 2 2 1 3 2 2 3 3 0 4 0 1 1 1 2 3 1 4 1 3 4 1 1 1 3 3 3 2 1 2 2 1 2 2 2 2 2 1 1 1 1 3 2 2 1 1 1 4 5 2 1 1 1 2 1 4 1 1 0 1 1 4 2 2 4 3 0 4 3 1 2 1 3 4 1 2 3 1 2 1 1 3 1 3 2 2 1 1 2 2 1 2 1 1 4 2 2 2 2 3 4 1 2 1 1 1 0 1 3 1 2 0 0 3 3 3 1 1 5 1 1 3 1 3 0 3 1 0 3 2 0 3 1 1 1 1 2 2 1 0 2 1 1 2 1 1 2 1 1 3 1 1 2 1 2 2 1 3 1 2 1 3 0 3 1 2 1 2 1 2 2 2 3 1 0 3 1 1 1 2 1 3 2 3 0 3 1 2 2 3 2 1 2 1 1 2 4 1 1 1 2 4 1 1 2 0 1 0 2 2 1 3 2 3 2 3 0 1 1 2 1 2 2 1 1 1 0 1 2 1 2 1 2 2 0 3 2 1 0 2 2 4 2 2 1 3 2 2 3 1 0 2 2 1 1 0 1 2 1 2 3 2 0 3 1 1 2 2 3 1 1 0 0 1 3 2 1 1 4 2 2 1 1 1 1 2 2 2 2 2 0 1 2 2 1 1 2 1 1 0 3 2 5 1 0 2 2 0 1 2 1 1 1 1 2 1 2 2 2 0 1 3 3 1 1 3 3 1 0 2 1 3 1 2 2 1 2 2 2 1 3 0 0 1 1 1 2 3 2 1 1 2 1 3 2 2 0 1 1 1 2 4 1 1 1 2 2 1 4 1 2 1 1 3 2 2 2 0 2 3 1 1 3 2 2 3 1 0 2 1 0 2 3 0 1 0 2 1 1 2 2 2 2 5 2 2 0 3 1 2 2 1 2 1 2 4 4 1 3 1 3 1 1 0 1 1 2 4 1 1 2 1 2 2 3 2 4 0 2 2 1 1 1 1 1 1 1 1 3 1 3 1 1 2 2 1 0 1 4 1 1 3 3 2 3 2 1 2 1 1 3 2 1 3 3 2 2 0 2 0 4 1 1 0 3 0 1 3 1 0 3 2 2 3 1 2 1 2 3 1 1 1 2 1 2 2 2 2 3 1 1 1 2 2 1 2 3 1 2 1 2 1 0 4 4 3 1 3 4 2 5 3 3 3 3 1 3 1 0 1 2 4 1 2 2 0 1 2 3 0 2 2 2 1 1 1 3 1 2 3 0 3 2 2 3 0 3 1 1 3 2 0 2 1 3 4 1 2 2 1 2 1 2 2 1 0 1 3 1 0 4 1 3 2 4 2 3 5 1 1 4 0 3 2 2 0 1 3 3 2 2 2 1 2 3 3 4 1 3 2 2 1 3 2 3 0 0 2 2 1 1 1 1 0 2 2 1 2 2 0 2 1 4 1 2 1 1 2 2 1 3 2 0 0 0 4 2 2 1 3 2 3 1 1 2 1 4 5 0 3 1 3 1 2 2 1 1 1 1 1 3 1 1 2 1 2 2 2 2 0 1 2 1 1 2 2 4 2 2 2 3 3 0 2 2 0 2 0 2 1 1 0 0 1 2 0 1 1 2 1 1 0 3 1 1 2 1 2 2 1 1 3 0 2 1 2 3 0 2 3 2 1 1 1 1 1 0 0 2 2 2 2 3 4 3 3 1 1 1 1 3 1 2 4 1 2 1 2 3 3 2 2 1 2 2 1 2 2 2 1 3 2 2 1 2 3 3 1 2 0 0 2 1 2 1 3 1 2 2 1 2 2 2 3 3 1 2 2 1 3 2 1 3 0 3 1 2 1 1 2 2 1 2 0 2 2 2 2 2 1 2 3 0 1 3 1 2 2 2 2 1 3 3 2 3 1 3 1 1 3 0 3 2 1 1 2 2 2 1 2 3 3 0 4 3 1 1 2 1 2 1 2 3 3 1 2 3 1 3 2 1 1 2 0 1 1 5 1 1 2 1 0 2 2 3 3 2 1 1 3 0 2 1 0 0 2 0 1 3 2 1 2 1 3 1 1 2 2 3 1 1 4 3 1 1 3 3 1 3 4 1 2 3 2 1 3 1 0 1 2 0 3 1 4 1 1 3 3 1 2 2 2 1 2 2 2 5 2 2 2 1 2 2 1 4 1 2 3 5 0 0 3 5 1 3 1 0 2 2 2 1 1 4 2 1 1 2 4 2 2 0 1 2 2 0 1 1 1 2 0 2 1 1 2 2 3 3 3 1 2 2 2 1 1 3 2 2 4 2 1 3 3 0 2 2 1 1 3 1 2 4 1 2 2 3 0 2 3 2 0 3 1 4 2 2 2 2 0 1 1 2 4 1 1 1 0 2 1 0 1 0 0 2 2 2 0 3 3 2 1 2 1 1 3 3 3 1 2 2 1 3 2 1 1 1 2 2 1 1 1 0 3 1 3 1 5 3 2 0 3 1 3 1 1 0 3 0 2 0 1 0 1 1 2 0 1 2 3 3 2 1 2 0 1 1 3 2 4 2 3 2 1 4 1 1 4 4 2 1 1 1 2 2 1 2 2 1 1 3 1 4 1 2 0 0 3 2 3 1 3 3 2 3 2 2 2 1 1 3 1 2 1 3 1 4 1 0 0 3 1 2 2 2 2 0 3 1 1 1 2 1 1 4 3 2 1 4 1 1 3 1 2 0 3 2 0 1 2 0 2 0 4 2 2 2 1 0 2 2 1 4 4 2 2 2 2 3 0 2 1 1 1 1 1 3 1 3 3 1 2 1 1 0 1 0 0 1 1 1 0 2 2 1 2 0 3 0 0 1 1 2 3 0 3 2 1 3 4 3 2 4 2 3 2 3 1 0 1 3 1 3 1 0 1 2 2 1 1 1 2 4 1 2 2 3 0 2 1 3 2 2 0 1 2 1 2 1 3 3 2 1 4 2 0 1 1 1 0 2 4 0 3 3 1 2 1 4 1 3 0 1 1 1 3 2 3 3 1 1 3 5 1 1 2 2 2 5 3 1 1 0 1 1 1 1 3 3 2 0 1 2 4 3 3 0 2 2 2 3 3 2 1 1 2 0 0 1 1 1 2 4 2 2 2 3 2 2 0 1 1 2 1 2 2 2 2 3 1 2 1 2 0 3 4 1 1 0 3 0 1 5 0 2 2 2 3 3 1 1 1 0 1 2 1 2 2 4 2 2 2 1 2 4 2 2 1 3 3 1 2 4 0 2 2 1 5 1 1 2 0 4 2 0 0 3 5 1 1 1 3 3 3 2 5 0 2 2 2 1 2 2 0 1 1 2 2 3 1 1 2 2 3 2 1 3 5 1 2 1 2 3 1 1 2 3 2 3 1 2 4 2 1 1 2 3 2 1 2 3 0 2 2 2 1 1 2 3 2 1 2 1 1 2 2 2 2 0 2 1 2 3 2 3 3 2 1 3 3 1 1 3 3 2 0 1 2 2 2 0 1 0 4 0 3 1 2 2 1 3 2 1 0 2 3 2 1 4 0 1 2 4 2 1 2 5 1 2 1 2 0 2 4 3 3 3 2 2 3 1 1 1 2 2 0 1 0 0 2 3 0 3 1 2 0 1 2 2 1 0 2 3 1 3 0 1 1 3 1 3 1 1 0 2 2 0 5 1 0 2 3 0 3 2 2 2 2 2 2 1 1 1 2 2 2 2 1 3 3 3 2 3 2 3 2 2 3 2 1 1 3 2 1 1 2 4 0 1 1 2 2 1 2 2 0 4 1 4 3 1 0 4 3 1 2 2 1 0 2 0 1 1 0 3 1 1 2 2 2 2 2 1 3 0 2 2 1 2 2 1 1 1 1 1 1 1 1 0 1 1 2 2 1 0 3 2 2 2 3 1 1 4 3 0 2 4 1 1 3 2 3 1 2 2 3 2 2 3 3 2 2 0 1 3 0 2 3 1 2 2 0 1 0 1 3 1 3 2 2 3 1 0 2 2 3 3 3 1 3 1 0 2 3 4 0 3 1 3 2 3 1 3 2 2 2 2 2 1 1 3 2 2 3 1 1 2 1 0 2 1 1 1 2 0 1 3 3 2 1 2 2 1 1 2 1 1 2 3 1 3 2 0 2 0 1 1 2 1 2 3 0 0 3 3 1 4 2 2 3 2 3 1 0 1 1 1 0 1 1 4 1 3 0 2 2 2 2 1 2 2 2 2 3 2 2 3 3 2 2 3 0 2 0 3 4 2 2 2 0 2 1 1 2 3 3 1 2 1 1 3 2 2 0 1 3 1 1 2 1 1 2 2 1 1 2 2 1 2 1 1 2 3 4 2 0 2 1 2 1 2 3 2 3 1 0 3 1 2 2 1 0 1 2 1 4 1 4 4 1 2 1 2 0 2 2 3 0 3 1 1 2 2 2 2 1 2 0 2 0 2 2 0 2 3 2 0 1 3 3 3 1 1 2 1 3 1 0 3 1 3 2 1 2 2 3 3 3 2 0 1 1 1 2 3 2 3 3 3 0 2 2 3 1 2 1 2 3 2 1 1 1 1 2 0 1 4 3 2 4 0 2 2 0 3 3 3 1 2 1 1 1 3 3 0 1 1 3 0 3 1 0 3 1 2 0 3 2 1 4 1 1 3 2 4 4 1 1 2 2 1 3 1 2 1 3 2 0 3 3 1 2 2 0 2 4 3 1 2 1 3 3 3 2 3 0 2 2 1 3 5 0 3 2 1 3 0 1 0 2 2 2 3 1 3 3 1 0 2 0 2 1 2 1 1 3 3 4 1 3 3 0 3 1 1 2 0 1 0 1 3 3 2 2 3 1 1 2 1 1 0 4 1 1 3 0 2 0 0 5 3 1 2 1 2 0 2 2 2 2 3 1 3 3 1 3 1 2 1 2 4 0 3 1 0 4 1 1 2 2 1 0 2 1 1 2 0 2 1 1 1 0 3 2 2 0 0 2 1 2 3 3 0 1 3 2 2 2 1 0 0 3 0 1 1 1 2 2 1 1 2 1 3 1 3 2 1 1 1 1 3 3 1 2 1 3 2 1 0 2 0 2 2 3 2 0 2 0 1 3 0 0 1 2 4 3 1 1 1 1 2 1 1 3 1 2 3 1 2 2 1 2 2 3 1 3 3 2 3 3 2 1 0 2 2 1 1 1 3 0 2 1 3 2 2 2 2 1 3 2 0 2 2 1 2 0 0 2 2 3 3 4 1 0 1 3 3 3 2 1 1 1 2 2 0 1 4 2 2 3 3 1 1 2 2 1 1 1 1 1 1 0 1 1 0 1 1 2 3 2 0 2 0 1 3 4 2 2 2 3 0 1 2 1 1 1 2 2 1 1 3 2 3 4 2 1 1 3 3 6 1 2 2 4 5 0 3 1 3 2 4 0 2 3 2 2 1 2 2 0 2 0 1 1 1 2 2 0 0 0 0 0 0 1 2 5 0 2 2 2 0 2 1 1 0 1 3 1 2 1 0 2 2 3 1 2 4 1 3 2 1 2 0 3 1 2 5 1 2 2 0 2 3 2 2 0 2 2 2 0 2 0 0 4 2 1 2 1 1 0 3 1 2 3 2 1 1 1 0 0 5 0 1 2 2 0 3 1 3 3 2 3 2 3 1 3 2 0 4 0 4 1 1 0 1 4 3 2 1 1 2 1 2 3 3 2 1 1 1 3 3 1 2 1 1 1 1 1 1 0 2 3 0 1 2 1 0 1 2 0 3 4 2 0 1 3 4 4 1 0 1 1 1 3 5 4 0 1 2 2 3 3 5 1 1 4 3 0 1 2 4 2 0 2 0 1 2 4 0 2 1 0 3 1 1 2 2 1 2 1 0 0 0 3 1 0 2 2 2 3 1 3 3 0 1 3 2 2 1 1 1 0 3 4 2 1 1 2 2 1 1 0 3 1 1 4 1 3 2 1 3 2 2 0 1 2 4 1 1 2 1 2 3 2 2 1 3 1 0 3 2 0 2 1 2 2 1 1 2 3 1 2 2 1 3 3 2 3 3 4 3 2 3 1 4 4 3 2 1 2 2 3 3 0 3 1 2 2 2 1 1 2 1 3 3 2 1 2 4 1 1 4 2 2 2 1 1 1 2 2 1 0 1 2 2 0 1 2 2 0 4 2 4 2 1 2 2 0 1 2 1 3 2 1 2 2 1 2 2 2 1 3 2 2 2 3 2 2 0 1 3 3 2 1 1 1 2 1 0 0 0 4 2 1 2 1 1 1 3 3 1 1 1 4 2 3 0 0 4 2 2 0 1 0 2 4 3 2 2 2 0 5 2 3 2 2 2 0 5 1 2 1 3 3 1 0 3 1 1 1 2 2 1 1 0 3 2 3 1 2 2 2 2 3 1 3 3 3 1 2 1 1 3 2 2 3 1 3 2 2 0 2 1 2 2 1 2 2 2 2 2 1 3 1 1 3 2 1 3 2 2 1 1 3 3 1 1 2 0 3 2 0 1 3 2 4 0 4 2 1 1 1 2 2 2 0 1 3 1 1 3 2 4 4 2 0 2 2 2 1 1 2 1 2 4 2 1 2 2 1 2 1 1 1 4 1 1 1 1 1 2 3 1 3 1 2 1 2 1 4 3 1 1 2 1 2 2 1 4 2 1 1 0 5 1 0 1 1 1 3 2 0 2 2 2 1 1 1 2 1 3 0 3 1 3 1 2 1 1 2 0 0 2 2 1 1 2 2 1 4 3 3 1 1 1 2 2 2 1 3 1 2 4 1 0 4 1 0 2 1 3 1 1 3 1 1 3 2 3 4 2 1 0 2 1 2 3 3 0 2 2 2 0 2 1 3 2 2 3 1 3 1 2 2 5 2 1 3 2 2 2 1 3 2 2 2 2 0 3 2 2 2 4 1 0 1 4 2 0 1 1 1 1 1 1 2 1 3 1 0 1 1 3 3 1 5 1 1 2 1 1 1 2 1 2 1 2 4 2 2 5 4 0 1 0 1 3 1 2 1 1 2 1 2 3 1 2 1 0 3 2 2 2 2 3 1 3 2 1 0 2 1 0 1 1 2 1 1 2 3 1 1 2 1 2 1 1 1 1 1 1 1 2 1 1 4 1 3 1 2 2 3 2 2 2 1 2 4 3 0 2 0 1 2 2 2 3 2 2 1 1 2 3 2 3 2 0 1 3 1 2 2 1 3 1 1 2 1 4 2 4 1 0 1 2 5 1 2 4 3 2 3 1 1 1 2 2 3 3 3 1 0 2 1 1 3 1 2 2 2 3 3 1 4 0 1 0 1 2 1 3 2 1 2 3 2 1 3 2 2 1 0 3 4 2 2 5 2 1 3 2 2 1 4 1 0 2 2 1 3 2 1 2 2 2 2 3 1 2 1 3 1 1 1 2 2 2 1 2 3 1 1 2 2 1 3 1 1 1 0 2 1 5 5 0 0 1 3 1 0 0 0 1 2 2 2 1 0 2 3 2 2 1 3 2 2 1 2 3 1 2 1 1 2 1 3 3 1 2 1 2 3 1 2 3 2 2 1 3 0 3 1 2 3 1 0 2 1 2 1 2 0 3 1 1 2 1 1 0 1 3 1 2 3 0 0 1 2 2 2 2 2 0 0 2 1 2 2 2 2 2 2 1 2 2 1 3 2 2 1 2 0 2 1 3 1 1 2 4 2 1 2 2 4 0 1 1 1 2 4 3 1 2 3 3 3 2 2 1 1 1 1 3 3 1 1 0 1 2 4 4 1 2 2 1 1 2 3 3 1 3 1 1 2 2 2 1 0 1 1 1 0 2 3 0 2 2 2 1 1 3 3 0 2 1 2 2 1 1 3 0 1 3 2 0 1 1 0 2 2 1 3 2 1 2 1 1 1 1 0 4 2 4 3 1 3 0 2 2 1 2 2 2 0 1 0 2 3 5 0 1 2 1 2 2 2 3 1 1 2 4 3 3 4 1 2 2 1 3 1 1 2 2 2 1 1 0 0 3 2 2 0 2 1 2 3 2 1 2 2 2 0 0 2 2 1 1 2 2 1 2 2 4 0 2 2 0 1 0 2 3 2 3 1 4 0 1 3 1 1 3 2 2 3 5 2 2 1 1 2 2 0 1 0 0 2 1 3 1 1 2 2 1 2 4 1 2 3 0 1 1 2 3 1 2 2 1 3 1 0 2 2 0 2 4 1 3 3 1 1 3 3 1 2 3 2 1 2 3 1 2 1 2 1 2 3 3 1 0 3 0 2 1 0 2 2 3 1 2 2 2 2 2 2 2 0 2 1 3 0 1 2 3 3 2 1 2 2 2 2 2 2 1 3 3 3 2 3 1 1 2 1 2 1 1 1 1 0 1 1 2 2 1 2 1 2 1 2 1 3 1 1 3 0 1 3 2 2 3 3 2 3 1 2 1 1 0 1 1 3 2 2 1 1 1 2 3 2 1 1 0 2 0 2 2 1 1 1 3 3 1 2 3 3 2 3 2 1 1 0 3 3 1 1 1 2 2 3 1 1 4 2 4 1 1 3 4 2 3 3 1 2 0 2 1 2 2 4 1 0 0 2 3 2 1 3 1 2 1 4 0 2 2 1 2 2 0 1 0 3 0 5 3 1 1 3 1 0 2 1 1 2 1 1 1 1 1 1 2 2 1 1 1 1 3 2 3 0 2 1 2 2 4 1 4 2 2 2 1 2 2 0 1 1 1 4 1 0 2 2 2 1 4 2 2 1 1 1 2 0 3 2 3 2 2 2 2 2 1 2 4 2 5 2 3 2 2 3 1 1 1 4 1 2 2 1 0 2 1 1 4 3 1 2 1 5 1 2 1 0 1 1 1 4 1 2 0 2 2 3 3 1 0 2 1 1 2 2 3 1 1 2 3 4 2 2 3 3 1 3 0 1 1 1 3 1 3 3 3 0 2 0 1 2 2 1 3 1 0 1 1 1 1 2 3 4 2 5 2 0 3 1 2 4 2 0 2 2 0 2 2 1 2 2 0 2 3 2 1 2 4 2 1 3 2 1 2 1 2 2 1 1 2 2 3 2 1 1 1 1 3 1 0 0 2 2 3 2 0 1 2 0 2 2 2 3 1 2 2 1 1 3 1 1 0 1 1 1 2 3 1 1 1 2 2 2 2 0 2 1 3 2 0 3 2 3 0 3 2 2 2 3 1 2 2 1 1 3 0 2 2 2 3 3 2 1 2 0 0 1 1 0 2 1 3 1 1 0 0 1 1 2 4 2 0 1 2 0 2 1 2 2 1 3 0 1 0 1 3 1 0 2 0 3 2 3 2 2 2 1 1 2 3 2 2 1 1 2 2 3 2 1 2 3 1 2 1 0 0 1 5 2 2 0 2 1 4 2 0 1 1 2 1 5 2 3 2 1 4 3 3 1 2 1 2 1 1 2 1 2 2 1 3 2 1 3 1 2 1 1 2 2 2 3 2 1 3 2 2 2 2 1 2 1 0 2 2 1 3 1 2 1 3 2 3 1 3 1 2 1 0 0 3 1 2 3 0 3 1 1 2 0 2 1 1 1 0 4 1 2 3 3 3 1 1 2 2 3 5 0 2 1 2 1 2 2 0 2 1 1 2 1 2 2 2 2 1 3 2 4 0 4 1 2 2 2 1 2 4 0 2 2 0 2 2 3 2 3 2 1 2 0 4 2 2 1 1 1 2 0 3 1 2 1 0 2 2 1 2 2 1 0 1 1 2 0 3 3 0 1 1 2 0 2 1 4 2 1 1 1 1 2 1 2 2 1 3 3 1 3 3 2 1 0 0 2 1 2 3 1 1 1 2 0 1 1 2 2 3 1 1 3 1 3 1 1 2 3 0 2 2 1 3 1 1 1 1 2 2 1 1 2 1 1 2 2 5 3 3 2 4 1 1 2 3 2 2 3 1 3 3 0 0 0 2 2 3 4 1 0 1 1 2 1 2 2 1 1 3 1 1 4 0 3 1 2 0 1 3 3 4 0 2 2 1 2 1 0 1 1 0 2 3 2 2 3 1 3 0 3 2 1 1 2 2 0 1 0 1 2 2 4 2 1 1 3 1 2 2 1 1 2 2 1 2 2 3 2 1 3 3 3 3 1 1 1 3 3 3 1 4 1 2 2 2 2 1 2 1 1 2 3 3 3 3 1 1 2 0 1 1 2 2 2 1 2 3 1 2 3 2 2 1 1 3 3 1 1 0 1 1 0 0 2 4 4 2 2 1 3 2 2 2 1 4 2 2 3 3 1 0 2 2 1 4 1 0 3 1 2 3 2 1 0 3 2 2 1 2 1 2 2 2 1 3 1 1 2 0 1 3 1 2 1 2 0 3 1 0 1 4 1 1 3 1 2 1 1 1 1 3 1 1 1 1 0 0 2 2 2 3 1 1 0 0 2 1 2 3 0 0 0 1 0 2 3 1 3 2 1 1 2 3 3 1 2 1 0 3 2 2 0 2 2 3 2 3 2 3 3 3 1 1 2 3 4 2 1 2 2 2 3 1 2 3 3 2 0 4 3 3 1 2 3 2 1 1 1 1 0 2 0 2 2 2 1 3 2 1 1 1 1 1 0 0 2 1 1 4 2 2 2 2 3 4 4 1 3 1 2 2 1 1 1 1 3 2 1 1 0 1 4 1 3 2 2 2 1 2 2 2 3 1 2 4 0 1 1 3 3 3 1 3 1 2 0 2 2 3 2 3 3 2 2 1 2 2 0 2 4 6 1 2 1 1 3 2 1 5 2 1 1 3 4 1 0 2 1 2 3 1 0 2 1 1 2 1 1 2 2 2 0 3 1 2 2 3 2 3 3 2 2 4 0 1 3 1 1 3 2 2 1 2 2 3 1 4 3 1 0 2 3 1 0 3 1 2 2 1 1 2 1 1 1 2 2 0 2 1 2 2 1 3 1 0 1 0 3 1 2 1 1 1 2 1 2 1 3 2 2 2 3 2 2 3 0 2 1 2 1 2 2 3 2 2 1 2 2 0 3 3 2 2 4 3 1 1 1 0 2 2 1 0 4 1 1 4 1 0 2 1 1 1 0 1 1 1 3 0 1 1 2 0 0 2 4 1 1 4 2 1 2 0 2 2 1 2 0 1 0 0 0 2 1 1 1 4 3 2 3 2 3 2 0 2 0 2 2 3 0 1 5 1 3 1 4 2 2 1 3 1 1 3 3 2 4 1 2 0 3 1 2 1 2 2 3 0 1 1 1 3 4 3 2 2 2 3 2 1 2 0 0 2 4 2 2 3 0 2 2 3 4 5 0 2 1 3 1 1 0 1 0 0 2 4 2 3 4 1 4 1 3 3 3 1 2 2 1 0 1 1 2 3 3 1 2 2 2 1 2 1 1 1 1 0 2 4 1 3 4 1 3 3 2 0 3 3 1 0 2 1 2 1 2 1 2 2 2 1 0 2 1 2 3 3 1 4 4 1 1 1 1 1 5 2 3 1 2 3 1 0 1 1 1 1 3 2 1 2 3 3 2 0 1 1 0 2 1 3 2 1 1 0 2 3 3 3 3 1 1 0 0 2 2 3 0 1 3 1 1 2 0 0 1 2 2 1 1 3 3 0 4 1 1 3 3 3 0 3 2 4 3 2 4 2 2 1 2 3 1 2 2 2 4 2 2 0 2 1 0 3 2 2 1 0 1 4 1 3 4 4 2 2 4 1 0 1 2 1 0 1 0 1 2 0 0 2 3 0 1 2 3 1 0 0 4 1 2 4 0 0 1 2 0 3 1 1 3 2 2 1 1 2 2 2 2 2 0 0 2 1 0 3 3 0 3 2 1 3 4 1 0 1 3 1 1 0 3 1 1 0 0 2 3 2 2 2 1 2 1 1 2 1 1 2 1 1 0 1 3 2 1 1 0 2 0 4 2 1 1 1 2 1 2 2 3 0 1 1 4 1 2 0 2 2 0 1 1 2 3 1 2 0 2 2 1 3 2 1 3 3 2 2 2 2 1 1 2 1 1 3 2 1 1 2 2 2 1 1 3 2 2 0 1 2 2 3 2 2 2 2 1 2 1 0 4 1 1 3 2 2 1 3 2 0 1 1 2 4 5 2 3 2 0 2 1 1 3 1 1 0 1 0 2 2 1 1 0 3 1 1 2 1 1 0 3 2 1 3 2 2 2 2 2 2 2 1 0 3 2 3 1 0 3 1 2 2 2 2 0 1 1 1 2 1 1 5 3 2 0 1 1 3 1 2 2 1 2 1 1 4 2 0 3 2 2 2 1 0 4 2 3 1 1 0 3 3 2 1 4 2 3 1 0 2 2 3 3 0 3 1 0 1 0 1 2 2 1 2 1 2 3 1 2 3 2 1 1 0 1 3 2 4 2 1 1 1 0 0 2 0 3 1 3 0 3 2 2 2 1 2 4 0 3 2 2 3 2 2 0 0 1 1 1 1 0 1 0 3 2 1 1 1 2 1 2 1 2 3 1 1 2 3 0 3 2 1 2 3 1 1 3 1 2 2 2 2 0 3 1 1 0 2 2 0 2 2 1 1 0 1 1 1 3 0 1 2 1 0 2 0 1 1 2 0 1 1 2 0 3 1 4 1 3 4 3 2 2 2 1 2 1 0 0 2 1 2 4 2 2 1 1 1 4 2 1 1 3 1 2 3 2 2 3 3 0 2 3 2 3 2 3 1 1 3 1 2 2 2 2 3 0 2 2 3 2 2 0 2 2 0 3 0 0 3 2 1 1 2 0 1 0 2 1 0 0 1 0 0 2 3 1 2 2 1 4 4 2 2 2 2 2 0 2 0 1 1 1 2 0 1 1 2 3 2 3 1 4 2 2 2 2 2 1 3 1 3 2 2 2 1 1 3 2 2 1 1 2 3 2 1 1 1 2 0 1 2 5 2 3 2 2 1 0 2 0 3 0 1 2 2 3 2 2 2 2 1 1 2 1 2 1 2 0 1 1 2 2 3 3 2 1 1 2 1 3 2 1 2 2 4 2 3 1 0 3 0 3 0 1 1 2 1 2 4 4 4 2 3 1 2 1 1 0 2 2 5 2 3 0 0 1 1 0 1 0 2 5 2 2 1 2 1 1 3 2 2 1 2 1 2 1 4 3 1 3 1 2 2 2 3 1 1 0 2 2 3 1 1 3 2 2 2 1 1 1 3 2 3 1 2 1 1 0 3 2 2 1 2 2 1 3 2 1 2 1 2 1 1 0 2 5 2 0 1 2 3 2 3 2 1 0 1 2 2 2 1 0 1 0 2 1 1 2 2 0 3 1 1 0 1 3 1 2 1 1 0 1 1 1 0 3 2 2 0 0 1 3 2 0 3 3 3 3 3 0 1 1 4 3 1 2 2 2 4 1 1 1 1 1 2 3 4 2</t>
+  </si>
+  <si>
+    <t>GAM(0.49196999413770504, -1.6186673439236476e-28, 0.5127327991603056)</t>
+  </si>
+  <si>
+    <t>1 0 0 0 0 0 1 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 2 1 1 0 0 0 0 1 0 1 0 1 2 1 0 0 0 1 0 1 0 2 1 0 0 1 0 0 1 1 1 1 1 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 2 0 1 1 0 1 1 1 1 1 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 1 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 1 0 1 0 1 1 0 0 0 0 1 1 2 0 1 0 1 1 0 1 1 0 1 0 0 1 0 1 0 2 1 0 3 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 2 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 2 1 2 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 2 1 1 1 0 2 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 1 1 1 0 1 1 0 0 0 2 1 0 1 3 1 0 1 2 1 0 1 3 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 0 2 1 1 2 1 2 0 0 2 1 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 2 0 0 1 0 0 3 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 1 1 1 0 1 0 1 0 1 0 2 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 2 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 1 0 1 3 1 1 1 0 3 2 0 0 1 0 1 1 0 2 0 1 0 0 0 1 0 0 2 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 0 2 0 2 1 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 0 2 2 0 2 2 0 3 1 1 0 1 1 2 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 3 1 0 0 0 0 1 0 1 0 2 0 0 1 1 0 0 0 0 0 1 0 2 1 1 0 0 0 0 1 1 0 0 0 2 1 2 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 1 0 1 0 0 1 1 1 1 1 0 0 2 1 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 0 0 0 0 0 0 2 1 0 0 0 2 2 2 0 1 2 0 0 0 0 0 0 0 1 0 0 2 1 2 0 1 2 1 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 2 0 3 0 0 2 0 1 0 0 0 1 2 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 2 1 1 0 2 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 2 1 1 1 1 1 1 0 0 1 2 1 3 0 1 0 0 0 2 0 0 1 0 1 1 1 0 1 1 1 2 1 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 2 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 3 2 1 0 3 1 0 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 2 1 0 2 1 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 3 0 1 1 1 1 0 1 1 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 1 0 1 0 1 0 0 0 0 2 1 0 0 0 2 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 2 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 1 2 1 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 1 1 0 1 2 1 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 2 0 1 0 0 1 0 0 0 0 1 1 1 1 1 0 0 1 0 2 1 1 1 0 0 0 1 0 2 0 0 0 0 2 1 0 0 0 1 0 1 0 2 1 1 1 0 1 1 0 0 2 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 0 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 1 0 2 1 0 1 1 1 0 1 0 2 1 1 1 1 0 1 1 0 0 1 0 2 1 1 0 1 1 0 0 0 1 0 0 0 0 0 2 0 0 2 0 2 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 1 2 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 2 1 1 2 0 1 0 2 1 0 0 0 1 0 1 0 0 0 1 0 1 0 2 0 1 1 0 1 0 1 1 0 1 0 2 0 0 1 1 0 0 1 0 2 0 0 0 0 1 1 0 3 1 1 0 0 0 1 0 1 1 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 1 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 2 0 0 2 0 1 0 0 2 0 0 1 0 3 0 0 0 1 1 3 0 2 2 1 1 2 1 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 2 1 0 2 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 2 3 1 2 0 0 1 0 0 1 0 2 0 0 0 2 0 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 2 1 0 0 1 0 1 1 1 1 1 1 1 3 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 1 1 0 2 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 1 0 2 0 1 1 0 0 2 0 0 0 0 0 0 2 0 2 1 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 1 0 2 0 0 0 1 0 0 0 2 0 0 1 0 0 0 1 0 1 1 1 2 0 0 1 0 1 1 1 1 0 0 1 2 0 0 0 0 0 2 0 0 1 1 2 2 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 1 1 0 0 0 2 0 0 2 0 0 0 2 0 0 0 1 1 0 1 0 1 1 0 2 1 0 1 2 0 0 1 1 0 0 0 2 0 2 0 0 1 0 0 0 0 1 0 0 1 1 2 4 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 2 1 0 0 1 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 2 1 0 0 0 0 0 2 0 0 1 1 1 1 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 1 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 1 0 1 0 1 1 2 0 1 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 3 1 1 1 0 1 1 2 1 0 1 0 0 0 1 2 1 0 1 0 0 0 0 2 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 2 1 1 0 1 1 0 1 3 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 1 3 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 2 1 1 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 2 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 2 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 3 0 0 1 0 0 0 0 0 1 1 0 0 0 2 2 1 2 1 2 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 2 2 1 1 1 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 2 0 3 0 0 1 0 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 2 1 0 0 0 2 0 0 0 0 2 0 0 1 0 1 2 0 0 1 2 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 1 0 1 1 0 2 0 1 1 0 2 0 0 0 0 0 1 2 1 0 0 1 0 0 0 0 0 0 2 1 0 0 2 0 0 0 2 0 0 0 1 1 0 0 2 0 0 3 0 2 1 0 0 2 3 1 0 0 0 1 1 1 0 1 0 1 0 2 0 1 0 1 0 0 0 0 0 2 2 0 0 0 0 2 3 1 0 0 3 1 0 0 1 0 1 0 0 0 1 1 2 1 0 0 0 0 1 0 0 1 3 3 0 1 2 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 2 1 1 0 1 1 2 0 0 2 0 0 0 0 0 0 0 0 0 1 1 2 0 1 2 0 0 0 0 3 1 2 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 1 2 1 0 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 2 0 1 0 2 1 0 0 2 2 2 0 0 0 1 0 0 1 0 0 3 0 1 0 1 0 1 3 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 0 0 1 2 0 1 1 1 1 0 0 0 0 2 0 0 2 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 1 0 1 1 1 3 0 0 0 0 0 0 0 2 2 0 1 0 1 0 0 0 0 0 1 1 0 0 0 2 0 1 0 1 2 0 1 2 1 1 1 0 1 1 1 1 1 0 1 0 0 0 1 1 1 1 0 0 2 1 0 0 2 1 1 0 0 0 0 0 0 1 1 1 1 1 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 3 0 0 2 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 1 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 2 0 1 1 1 0 0 0 0 1 0 1 0 3 0 0 0 1 0 0 2 0 0 0 0 2 0 2 2 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 2 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 2 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 2 0 0 1 1 1 0 1 3 0 0 1 0 0 0 1 0 2 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 2 1 1 1 0 0 1 0 1 0 2 1 0 0 0 1 2 0 0 1 1 2 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 1 0 1 1 2 0 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 1 0 2 1 1 0 0 1 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 3 1 0 0 0 0 2 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 3 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 2 1 1 0 1 0 1 1 0 0 0 0 2 1 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 2 0 1 0 1 1 1 2 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 2 0 1 1 1 0 0 0 1 1 0 0 2 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 2 1 0 0 1 1 1 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 2 0 1 0 0 1 1 0 0 2 0 0 0 0 1 2 0 1 1 0 0 2 1 1 0 1 0 1 0 0 0 0 2 0 1 2 1 1 0 0 0 0 0 1 2 1 2 0 0 1 1 2 0 1 0 0 0 0 2 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 1 1 2 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 1 0 1 2 1 1 0 1 0 0 3 2 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 3 2 1 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 2 0 1 3 1 0 0 0 0 0 0 1 2 0 1 0 1 0 0 1 1 1 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 3 0 0 0 0 1 1 0 1 1 1 1 0 1 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 2 2 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 1 2 1 0 0 0 0 2 0 0 0 0 2 0 1 1 0 1 1 0 0 0 0 1 0 2 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 2 1 0 0 2 0 0 1 0 0 0 1 2 0 0 0 1 1 1 1 0 0 0 1 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 1 0 1 1 0 2 0 2 0 0 1 0 0 0 0 1 0 0 1 1 2 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 1 1 0 2 0 0 0 1 1 1 0 2 0 0 1 1 0 1 1 0 0 0 1 0 2 0 1 0 1 0 1 0 0 0 1 2 0 2 1 0 0 0 0 0 1 2 0 0 1 3 1 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 2 0 1 1 0 0 0 2 1 3 0 0 1 0 0 0 3 1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 2 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 3 0 0 1 3 1 0 2 2 0 1 1 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 2 0 2 1 1 2 1 0 1 1 2 0 1 0 0 1 2 0 0 2 1 1 2 0 0 2 0 0 0 1 0 0 1 0 1 0 0 0 1 3 2 1 1 0 0 0 0 0 1 0 1 0 1 0 1 0 2 0 2 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 2 1 1 0 2 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 2 1 0 1 2 0 0 0 0 0 1 0 0 1 0 0 1 1 1 2 0 1 0 3 1 0 0 0 0 1 0 0 1 0 1 0 2 1 0 0 1 0 2 1 0 1 0 0 1 1 0 1 0 1 1 1 0 2 2 0 1 1 1 0 0 1 2 1 0 0 1 0 2 1 0 0 1 0 2 0 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 2 0 1 1 1 2 1 0 0 0 1 0 2 0 0 0 1 2 0 0 0 2 1 0 0 1 0 2 1 0 0 3 0 0 0 0 2 0 1 2 0 0 2 1 0 1 0 0 1 0 0 0 0 0 0 0 1 2 1 1 2 1 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 3 1 0 0 1 0 2 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 2 1 0 0 1 0 0 1 0 0 2 1 0 1 1 0 0 0 0 1 0 1 2 2 0 0 2 0 0 1 1 0 2 0 1 0 0 1 0 0 0 1 1 0 0 2 0 1 0 0 1 0 0 0 1 2 3 0 0 4 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 1 1 1 0 0 1 1 1 1 0 2 0 0 0 1 1 0 2 1 2 0 0 1 0 0 2 1 0 2 0 1 0 1 0 1 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 3 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 2 0 0 1 0 0 1 0 2 1 0 1 0 1 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 3 0 0 0 1 2 0 0 0 0 0 0 1 1 3 1 1 1 1 1 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 1 0 0 3 0 2 0 0 0 0 0 0 0 0 1 0 1 0 3 0 0 1 0 0 1 0 2 0 1 0 4 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 4 1 0 0 0 2 1 1 1 1 2 1 0 0 0 1 1 0 1 0 1 0 1 0 1 2 0 1 1 0 2 0 2 2 0 0 2 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 2 0 1 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 2 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 2 1 0 0 0 0 0 5 0 0 0 0 2 1 0 3 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 2 3 2 2 1 1 0 0 0 0 2 1 0 1 0 0 0 0 0 1 1 0 1 3 0 1 0 2 0 0 0 1 1 0 2 1 1 0 0 2 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 1 1 2 0 0 1 0 0 0 0 0 1 0 1 0 0 0 2 1 1 0 0 0 1 2 1 2 0 0 0 1 0 0 3 0 0 0 0 0 1 0 0 1 1 0 0 0 2 1 0 1 0 2 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 2 0 0 1 0 1 0 0 2 0 0 1 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 3 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 3 2 0 0 0 1 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 1 2 2 0 0 0 0 2 1 2 0 0 0 0 0 2 0 0 0 0 0 1 0 1 1 1 1 1 0 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 2 0 1 2 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 2 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 3 2 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 2 0 1 1 1 1 2 1 0 1 1 0 0 2 1 1 0 0 0 1 1 1 1 2 0 2 1 1 1 0 1 1 0 0 0 0 2 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 2 0 1 2 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 0 4 0 0 0 0 0 2 1 0 0 0 2 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 1 1 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 1 0 0 1 1 1 0 0 1 1 0 0 2 0 0 0 0 0 1 1 0 1 1 3 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 3 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 2 0 2 0 1 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 2 0 0 2 1 0 1 1 0 0 2 0 2 0 1 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 1 1 0 0 2 1 0 2 1 2 0 1 1 1 0 0 0 0 1 1 0 1 3 2 1 3 0 0 0 2 1 2 0 2 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 2 0 1 1 0 0 0 0 1 0 0 1 1 0 2 2 2 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 0 2 2 1 0 0 0 0 0 0 1 2 0 1 1 0 0 1 0 1 2 2 1 0 0 0 0 0 1 1 1 0 1 0 1 1 0 0 2 1 1 0 1 0 1 0 1 0 0 2 1 1 0 0 0 0 3 0 1 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 4 0 1 0 1 0 1 3 1 0 0 0 1 0 1 2 1 0 1 0 2 0 0 0 1 0 2 0 1 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 2 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 1 3 0 0 1 1 1 0 1 0 0 0 1 0 0 0 2 1 0 1 0 0 0 0 2 1 0 1 0 1 1 0 0 1 0 1 1 0 0 0 1 2 0 1 2 0 0 0 1 1 0 0 0 0 1 0 0 0 2 2 0 0 1 0 1 0 0 0 0 1 1 0 0 3 0 0 1 1 0 0 0 1 1 1 0 0 0 1 2 0 0 2 0 1 0 1 0 2 0 2 0 0 1 0 0 0 1 0 0 2 0 1 1 0 0 1 0 0 0 2 1 2 1 0 1 1 0 1 0 0 1 0 1 2 1 0 0 1 0 0 1 1 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 2 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 2 1 0 0 1 0 0 1 0 0 0 0 2 0 0 0 2 0 1 0 2 2 0 1 1 1 0 0 1 0 1 1 0 0 1 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 1 1 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 3 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 1 2 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 1 2 2 1 0 0 0 2 1 0 0 4 0 1 0 0 2 0 2 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 2 1 1 0 0 0 0 1 0 0 3 1 1 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 2 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 2 1 1 1 0 1 2 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 3 1 1 0 1 2 3 0 0 1 0 1 0 0 0 2 0 0 1 0 0 1 0 1 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 2 0 0 2 0 0 3 0 0 0 3 1 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 1 2 0 1 2 0 1 1 0 0 1 1 1 0 0 1 0 0 2 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 1 1 0 2 1 0 0 2 1 1 0 1 1 3 1 0 1 0 0 1 2 3 0 0 1 1 0 1 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 2 0 2 1 0 1 0 0 0 0 0 1 1 1 2 0 1 0 2 0 0 2 1 0 0 0 0 0 0 1 2 0 1 0 0 0 1 1 0 1 0 0 2 1 0 1 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 1 0 0 1 1 0 2 0 1 0 0 0 0 0 0 1 1 2 1 2 0 1 0 2 0 1 0 2 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 2 0 1 1 0 1 0 3 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 2 0 0 1 1 0 1 1 0 0 2 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 2 1 0 2 2 0 0 0 0 0 1 0 1 1 2 0 1 1 1 1 1 0 0 0 1 0 0 2 0 2 0 0 0 0 0 1 0 0 0 0 2 1 1 0 0 4 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 2 1 2 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 1 0 0 1 2 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 1 0 1 0 0 1 2 2 1 0 1 2 0 1 2 0 2 1 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 2 3 0 0 1 4 2 1 0 0 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 1 0 1 0 1 0 0 1 4 3 1 0 1 1 1 2 0 0 0 1 0 0 1 2 2 1 2 2 1 0 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 2 1 1 1 0 0 1 0 0 0 0 2 0 1 0 0 1 2 0 2 0 0 0 2 0 1 0 1 0 0 0 1 2 2 0 0 1 2 2 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 1 2 0 0 1 1 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 2 0 0 1 3 0 1 0 1 2 1 0 1 1 1 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 3 0 0 0 1 1 2 0 1 1 0 0 0 0 1 0 1 0 0 1 1 2 0 0 1 2 0 0 1 0 1 1 0 1 0 0 0 1 0 0 2 0 3 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 2 1 1 2 1 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 1 1 0 1 0 1 0 2 0 2 0 0 5 0 0 1 1 3 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 2 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 2 0 0 0 0 1 1 2 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 1 3 2 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 2 1 0 1 0 0 0 0 0 0 2 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 2 1 0 0 2 0 0 2 0 0 0 1 0 2 1 0 0 0 1 0 3 1 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 1 1 0 0 0 0 0 1 0 1 0 3 0 0 0 1 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 1 0 0 0 0 1 1 4 1 0 1 0 0 0 1 1 0 3 0 0 0 1 0 0 2 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 2 1 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 1 1 0 1 1 0 0 2 2 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 2 0 2 0 1 0 1 0 0 0 0 2 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 3 1 0 0 0 1 1 0 0 2 1 1 2 0 0 0 1 1 0 1 0 0 0 2 1 1 1 0 0 0 0 1 1 1 0 0 0 2 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 2 1 0 0 1 1 0 1 0 2 1 1 2 1 2 0 0 1 0 1 0 1 1 0 2 0 2 0 1 0 0 1 0 2 1 1 1 0 1 0 0 0 0 2 1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 2 0 0 1 2 0 0 0 0 0 1 1 0 2 1 0 1 0 0 2 0 1 1 0 0 0 1 0 0 0 0 1 1 0 3 0 0 0 2 1 0 2 0 2 1 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 3 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 2 1 0 1 1 0 1 0 1 4 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 1 2 1 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 1 0 0 1 1 0 0 0 3 1 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 0 1 1 1 0 0 1 1 1 0 1 2 1 0 1 0 1 2 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 2 0 0 0 2 0 0 0 0 0 2 1 1 1 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 1 3 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 2 0 1 0 0 1 1 0 0 0 0 2 0 1 0 1 0 3 1 0 0 0 0 3 0 0 0 1 0 1 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 1 0 1 0 1 0 1 0 0 0 1 1 0 0 2 0 1 1 2 1 0 0 1 0 2 0 1 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 1 0 0 2 1 0 1 0 0 0 0 1 2 1 1 1 0 0 0 0 0 0 0 1 3 0 0 1 0 0 0 1 0 1 1 0 1 0 0 1 0 2 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 2 1 0 0 0 2 1 0 1 0 0 0 2 1 0 1 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1 2 2 2 2 0 1 1 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 1 2 0 1 1 0 0 1 0 1 0 1 0 2 1 1 0 2 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 1 1 1 1 2 1 1 0 0 0 2 3 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 2 0 2 1 0 1 2 0 0 1 1 0 1 2 1 1 0 3 0 0 2 0 0 0 0 2 0 1 0 0 1 1 1 0 0 1 2 0 0 0 0 1 0 0 0 0 1 2 0 2 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 2 1 0 1 1 0 0 0 1 0 2 0 2 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 2 0 0 0 0 2 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 0 0 2 0 0 1 0 2 0 0 0 0 0 0 0 1 2 2 0 0 1 0 0 0 0 0 2 2 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 2 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 2 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 1 2 1 0 0 1 0 1 1 2 2 1 0 0 0 1 2 0 0 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 4 0 0 0 0 1 2 0 2 2 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 3 0 0 0 0 0 0 0 1 1 1 2 1 2 0 0 0 1 1 0 0 0 0 1 1 0 0 2 0 2 1 2 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 1 2 0 0 0 0 2 0 0 2 0 0 1 0 0 0 0 0 1 1 0 1 0 2 0 0 0 0 1 0 0 0 0 1 4 2 0 0 1 1 0 1 0 1 1 0 0 2 1 0 1 1 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 2 1 0 2 0 0 0 1 1 1 0 2 0 0 0 0 0 2 2 0 1 0 2 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 1 2 1 0 1 0 0 0 1 0 2 0 1 0 1 0 0 1 1 0 1 0 1 1 0 0 0 2 0 1 1 0 0 0 1 0 0 0 0 0 1 2 1 0 1 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 2 0 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 2 2 1 0 0 0 0 0 0 0 0 0 0 3 1 0 1 2 0 0 0 1 0 0 1 1 1 0 0 2 0 0 2 1 1 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 3 0 2 1 0 0 1 2 0 0 0 2 0 0 2 1 0 1 0 0 1 0 0 0 1 1 1 1 2 0 1 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 3 2 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 0 1 0 1 1 3 1 0 2 2 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 1 1 2 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 2 0 2 0 1 0 0 4 0 2 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 2 0 1 1 1 1 0 1 0 0 0 3 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 2 0 1 1 0 0 1 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>JSU(-13.521208969091262, 10.820639089237822, -215.01710187603646, 199.70025941783132)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94 98 103 179 77 97 149 131 158 104 116 93 73 134 92 84 62 77 110 160 180 98 138 67 103 127 102 162 78 98 110 107 202 107 152 75 126 104 125 118 73 121 172 79 69 38 81 84 66 122 121 100 96 155 84 122 113 111 157 83 102 108 34 51 152 118 108 70 52 180 88 124 92 122 124 89 118 61 104 60 84 144 70 114 34 96 127 128 57 122 153 63 70 122 55 82 90 119 85 61 112 82 104 148 145 97 129 127 107 108 51 75 138 85 145 103 111 84 66 64 80 37 87 32 183 103 76 159 163 60 82 65 99 167 122 151 79 98 89 61 136 71 168 122 131 88 124 113 147 146 104 70 59 50 75 91 95 109 150 114 152 115 101 110 124 37 70 82 126 33 72 98 139 146 77 123 84 160 160 108 136 133 60 51 54 81 103 162 116 168 154 177 104 39 115 85 108 119 82 119 102 182 174 150 76 90 83 6 51 85 149 125 67 63 90 152 99 71 155 121 129 115 105 86 165 72 79 116 52 101 159 129 164 126 127 147 180 166 56 122 64 110 131 119 168 124 83 107 110 102 231 146 111 89 100 73 89 52 148 89 158 138 149 44 123 55 76 46 158 89 123 89 47 175 103 113 156 119 181 100 152 114 62 110 117 44 144 113 94 134 154 108 101 38 160 180 124 149 98 124 77 144 41 64 163 31 174 106 97 140 128 108 137 152 103 104 135 164 77 88 71 97 139 176 109 72 143 48 127 140 127 148 116 135 123 58 83 170 112 95 128 71 117 104 42 181 82 67 55 92 98 85 59 59 98 136 109 140 149 143 137 86 79 45 83 26 146 160 121 162 106 88 80 108 82 177 90 94 75 144 150 97 111 46 96 79 120 97 133 73 85 55 122 87 130 128 121 128 118 89 69 77 110 132 112 114 70 131 146 124 106 89 137 56 154 82 62 143 85 36 136 108 80 94 154 48 143 103 106 104 164 164 118 103 128 38 94 74 129 76 125 38 160 165 123 117 72 79 93 81 155 146 102 108 174 137 95 115 144 51 64 30 126 84 73 58 146 117 46 60 52 90 64 85 99 84 106 134 120 120 75 89 69 92 132 101 106 121 113 167 80 159 103 48 69 87 188 101 140 120 110 86 102 77 83 123 120 73 110 82 99 64 111 105 81 79 92 54 108 108 17 103 44 98 122 128 135 86 218 97 113 99 120 130 196 171 168 148 90 124 71 69 98 113 87 105 85 97 96 140 109 110 110 137 217 120 130 106 102 78 134 93 116 132 55 58 143 77 165 137 73 86 100 138 110 111 102 113 109 99 147 121 103 118 95 87 196 169 125 88 72 109 102 53 89 133 59 142 90 94 177 165 85 127 130 103 136 107 109 139 195 82 172 112 142 45 123 66 107 63 75 88 128 116 72 83 91 169 161 144 124 105 69 95 114 140 136 139 162 147 96 130 190 98 82 47 114 102 56 187 113 56 109 128 92 102 100 127 95 79 114 55 94 96 126 121 101 228 179 72 59 119 169 78 108 81 66 164 95 76 100 104 139 140 115 132 105 90 127 130 97 120 104 71 158 105 79 74 142 146 48 67 55 82 111 103 44 108 218 98 133 127 55 104 93 81 148 108 138 145 101 116 92 131 104 101 164 89 162 77 99 119 184 116 88 97 109 103 82 155 89 118 106 59 96 96 160 50 194 88 104 35 76 88 132 100 114 117 67 166 110 172 79 123 98 67 48 97 134 133 115 124 49 57 150 112 49 129 122 118 77 96 135 124 105 78 104 124 182 77 44 61 136 81 103 81 77 110 106 77 125 122 87 185 123 89 95 113 155 195 103 74 161 56 98 78 73 107 75 93 105 127 118 149 112 62 165 174 155 65 111 120 47 80 96 75 144 133 93 147 88 77 106 89 156 92 147 68 128 137 139 109 171 123 77 108 143 93 112 115 159 95 116 81 118 71 84 63 116 104 132 97 81 131 84 51 86 102 115 94 131 85 99 68 97 133 118 102 105 100 73 165 100 73 95 30 81 124 81 113 89 70 111 135 135 90 104 113 78 96 91 28 75 84 99 136 86 73 65 98 96 58 95 109 147 85 108 130 60 142 75 88 91 100 118 72 115 124 112 106 86 50 126 131 128 70 152 73 106 110 114 103 70 154 154 69 102 86 154 167 79 85 64 34 137 116 168 125 116 129 107 61 104 140 121 80 145 157 144 95 98 80 109 88 106 89 176 93 104 117 75 60 176 78 97 114 110 56 87 173 95 177 29 95 88 119 106 183 50 134 136 116 73 159 36 107 46 70 98 160 94 138 95 93 105 111 121 110 85 152 104 88 126 157 110 104 80 77 112 92 112 179 136 150 81 109 137 56 72 149 100 136 66 154 57 57 160 87 121 57 50 105 126 117 146 164 144 89 93 117 207 86 63 161 170 96 146 104 57 89 90 40 126 74 86 99 106 111 121 63 51 76 127 105 104 219 78 62 101 73 168 93 79 91 84 129 65 118 92 102 75 41 134 137 158 106 90 147 139 99 120 103 99 113 54 140 122 105 53 77 144 101 115 130 133 129 125 90 159 90 156 149 149 119 100 93 95 117 151 84 96 58 150 108 126 99 110 116 97 147 75 84 83 134 64 88 84 166 141 75 122 120 41 97 121 76 55 183 112 103 67 93 126 91 69 109 67 93 156 144 137 74 119 109 76 149 109 157 118 64 147 65 192 125 85 112 95 168 84 59 89 120 116 42 154 58 178 135 48 194 83 96 111 81 103 79 124 121 123 147 120 59 144 106 136 101 74 157 137 90 76 116 83 69 95 67 134 161 67 140 51 108 112 120 112 81 111 151 86 136 82 56 139 46 143 83 60 101 84 147 68 111 104 109 76 63 99 102 113 89 108 105 107 138 150 108 121 154 103 131 74 27 170 110 122 170 111 110 103 25 104 44 106 84 153 150 141 127 130 102 104 93 150 96 140 128 95 83 93 80 80 52 58 109 141 114 151 117 88 109 68 91 125 125 159 157 91 68 57 122 66 54 52 87 106 159 147 74 76 102 77 145 116 102 72 150 129 155 83 99 133 158 71 59 173 65 135 104 145 132 133 114 75 125 83 68 51 83 69 85 98 83 57 81 45 127 91 73 43 124 129 151 136 49 58 140 199 104 159 159 71 98 136 76 105 67 116 118 132 75 172 49 94 75 112 118 112 184 66 90 155 108 31 83 70 101 164 89 138 88 82 105 136 95 79 75 50 138 147 121 83 127 149 159 105 84 74 119 66 89 186 38 78 132 83 94 74 142 118 114 63 93 78 170 96 42 137 78 122 106 100 96 77 145 86 104 96 62 101 137 116 49 218 136 88 130 130 75 107 142 99 81 104 129 117 118 76 85 158 146 94 189 121 69 113 129 74 149 124 163 101 47 87 78 155 113 84 150 26 144 123 81 111 91 108 148 146 143 67 108 105 85 172 103 122 134 137 147 128 87 145 97 73 131 103 102 128 155 76 104 119 107 116 93 105 129 120 116 127 129 103 110 146 92 129 129 163 59 151 135 188 80 96 127 134 103 96 41 112 137 145 81 243 98 175 83 126 101 95 48 101 79 90 55 107 132 100 92 128 73 96 120 180 149 94 135 197 82 150 114 92 66 123 168 84 136 71 63 152 102 141 143 130 94 123 97 101 110 74 97 78 146 131 105 99 97 134 126 85 84 142 33 138 104 159 106 88 111 120 103 95 105 114 175 114 88 62 110 53 126 92 77 84 107 88 90 50 113 78 83 168 104 99 106 40 170 39 79 154 105 111 28 90 126 115 145 167 66 121 112 44 154 117 51 160 133 119 96 111 85 164 146 124 122 94 25 118 149 136 91 119 91 148 125 90 117 126 124 93 65 105 103 153 30 55 77 104 90 47 78 71 43 141 129 74 106 126 122 80 115 19 115 101 67 67 98 119 98 111 100 69 63 101 83 88 239 147 85 99 90 124 82 80 85 100 107 100 139 73 85 123 112 105 109 75 128 166 102 84 98 107 104 155 102 81 95 128 81 25 107 96 49 125 72 79 62 104 92 50 139 42 48 149 164 150 150 147 117 114 99 73 169 174 115 108 38 73 123 54 161 99 136 61 142 101 76 209 122 78 126 88 118 65 143 159 111 116 79 88 19 62 69 103 99 122 89 115 139 132 149 82 129 99 71 94 108 78 139 53 143 139 148 115 68 99 142 115 83 134 72 151 59 50 98 102 48 142 128 84 131 139 123 125 177 47 91 89 33 100 60 115 95 100 164 132 50 70 59 185 58 148 119 112 132 84 79 86 96 107 77 134 115 130 189 94 200 126 91 113 116 95 111 76 104 107 148 44 30 91 153 104 176 118 72 173 116 96 82 110 47 102 107 168 92 112 130 82 143 106 95 136 134 104 126 99 61 97 62 49 100 89 135 107 113 113 133 80 78 56 77 75 137 74 100 66 201 74 107 95 154 42 76 158 97 87 63 79 90 56 76 99 148 117 99 138 85 98 61 137 99 59 116 106 95 127 85 106 169 135 73 117 56 107 72 115 49 157 87 110 80 107 130 121 103 107 144 126 141 101 179 98 104 147 123 135 135 102 110 99 51 117 84 120 147 116 113 132 113 22 128 51 98 116 131 63 163 152 98 37 108 103 111 158 155 96 66 142 102 112 119 175 204 100 101 159 39 101 75 66 96 71 128 126 74 131 114 84 37 84 57 131 87 174 64 149 105 71 105 118 118 113 162 149 136 100 59 121 81 134 97 157 106 124 53 191 114 71 38 133 96 137 172 75 102 73 229 151 125 76 138 54 65 143 93 174 53 69 87 64 133 116 192 118 35 58 161 91 135 78 87 83 125 92 145 139 163 95 103 94 70 143 101 162 63 88 160 82 49 118 99 137 109 52 157 130 92 83 87 67 48 143 47 49 104 159 93 132 46 118 131 62 62 119 49 130 174 123 48 76 153 122 145 74 118 61 89 129 85 147 92 120 140 141 77 112 95 151 31 35 126 97 114 113 108 137 128 101 61 71 84 93 124 139 104 69 141 44 112 110 105 103 202 88 75 147 83 93 143 76 146 58 91 147 31 69 69 71 90 34 152 128 110 79 89 78 39 114 78 160 74 105 115 105 137 108 88 134 76 114 48 80 109 111 65 79 98 106 76 81 130 40 121 100 170 78 96 114 121 49 83 86 87 98 91 131 140 97 63 118 95 141 63 130 76 118 111 107 94 113 180 141 126 117 113 125 91 123 130 36 78 68 65 122 115 112 86 122 133 121 120 50 102 192 112 75 120 87 151 99 111 35 75 200 85 149 99 123 84 100 104 48 108 95 75 128 72 44 148 95 48 149 138 32 85 127 82 55 101 141 50 133 113 97 112 119 134 73 100 105 37 31 62 114 132 86 152 139 110 74 101 103 92 137 104 119 106 123 105 101 96 127 128 161 104 84 104 86 91 128 102 112 149 89 93 82 91 85 114 66 118 116 156 126 191 104 149 98 53 53 167 80 48 128 116 82 166 154 136 125 81 136 150 143 88 125 90 138 67 121 99 85 64 123 139 201 71 85 67 96 128 58 77 126 144 92 79 124 149 164 71 94 98 89 129 168 103 146 54 146 75 78 153 93 106 25 92 71 130 125 80 96 123 124 68 126 133 117 119 94 82 22 128 193 67 125 99 135 121 88 138 89 146 157 90 52 33 108 80 127 123 146 115 48 86 132 112 164 124 157 30 114 116 138 162 144 128 132 99 118 82 78 112 87 58 94 66 148 149 150 135 136 99 168 152 136 109 147 116 115 104 114 97 85 67 78 116 34 59 74 93 41 93 144 15 106 92 153 70 110 60 72 71 125 140 145 75 94 78 52 106 89 80 140 75 118 110 88 101 142 181 145 84 163 126 89 87 190 146 129 92 90 86 87 68 103 134 117 80 103 94 96 91 149 162 145 110 143 101 138 104 41 79 60 159 109 99 85 69 139 101 124 81 124 165 90 99 180 116 182 133 76 92 134 39 103 159 146 85 94 51 42 101 99 86 114 57 123 101 95 95 100 56 60 72 144 67 39 78 96 70 86 72 169 59 60 131 79 99 92 99 138 125 75 120 77 92 121 98 105 109 118 148 32 88 59 96 118 106 144 138 116 100 102 184 155 120 55 141 88 61 88 86 124 151 89 120 101 119 128 109 158 96 85 102 149 99 138 132 85 108 119 99 106 138 46 146 98 137 109 123 113 82 71 166 149 124 132 98 160 101 66 53 87 66 126 105 92 105 95 142 125 95 135 61 74 31 120 109 99 85 139 80 124 59 164 104 104 132 81 115 83 92 76 166 99 142 159 149 126 74 108 113 40 72 53 164 35 131 86 87 142 123 110 55 100 96 83 86 112 136 85 133 86 45 134 106 84 50 60 134 119 109 161 114 131 63 172 168 134 83 68 157 88 85 154 77 131 56 133 215 60 109 72 77 134 144 78 86 73 67 34 70 97 137 71 113 92 146 98 153 155 100 122 77 86 131 158 118 112 109 140 103 59 80 176 66 71 100 157 64 177 34 108 103 134 147 80 51 73 96 74 127 150 89 133 117 111 66 111 95 77 118 120 130 112 91 84 70 69 138 125 110 139 137 121 157 115 157 127 103 62 146 46 87 124 140 118 113 61 104 105 121 71 129 105 118 119 41 78 109 73 136 171 115 87 90 71 119 76 102 59 80 66 113 44 93 117 93 94 120 78 142 136 160 77 175 79 74 132 109 207 151 109 126 125 177 104 37 50 105 79 117 92 90 110 39 149 98 95 100 86 49 75 94 157 73 71 132 141 69 84 168 149 110 141 131 145 129 101 142 138 105 206 71 95 170 129 132 71 99 98 115 113 101 141 88 81 78 18 153 73 102 114 93 40 73 64 94 121 125 77 132 65 115 66 115 83 92 126 70 166 140 103 89 145 133 172 122 124 136 120 25 140 107 129 172 50 123 132 68 109 125 162 98 107 15 138 64 106 99 132 125 124 138 87 200 84 103 145 120 54 107 86 101 114 95 119 166 110 63 160 119 130 109 79 102 58 83 43 78 123 134 102 47 113 127 82 62 147 127 130 105 42 171 146 107 111 124 114 117 135 164 111 121 126 160 77 84 130 128 74 123 151 84 196 93 130 124 125 84 37 132 85 131 91 83 79 34 94 96 141 140 53 102 157 139 60 111 71 104 100 112 82 125 108 152 106 93 210 123 112 97 81 107 100 138 106 106 186 127 74 122 81 153 67 113 117 63 154 90 148 121 88 75 142 103 152 77 108 89 117 69 75 155 20 89 172 72 86 119 73 135 106 89 104 106 33 109 133 136 91 129 47 161 104 149 153 85 96 67 68 95 31 118 76 109 110 39 110 114 123 150 54 133 86 100 122 93 94 118 125 76 115 102 81 61 112 97 122 72 91 60 153 53 47 96 143 170 107 112 101 99 112 88 92 137 181 58 117 97 122 135 134 112 138 116 120 105 64 84 93 79 200 102 61 104 109 144 131 100 77 16 144 123 48 155 146 103 102 112 163 80 106 94 62 146 80 134 135 165 82 96 140 136 87 119 152 74 58 182 114 167 103 136 113 134 67 120 119 100 100 92 156 105 14 58 128 65 93 123 78 99 105 118 91 214 113 112 181 81 114 98 100 99 133 103 168 57 63 101 117 115 123 94 152 84 99 53 121 77 127 100 65 98 89 110 93 163 107 103 103 11 139 182 126 47 108 140 81 101 31 114 77 127 83 124 103 70 193 149 129 171 36 123 144 115 47 101 73 34 122 117 67 83 47 95 125 41 166 129 69 130 119 76 184 143 134 109 98 157 81 63 129 81 119 125 102 81 119 114 154 70 134 110 111 75 85 95 102 109 207 147 50 127 136 79 122 204 105 95 155 98 167 91 199 106 102 119 124 67 80 135 111 125 114 88 62 70 68 100 122 58 106 104 98 64 130 94 148 120 146 79 119 42 110 103 100 40 97 64 95 157 154 166 99 153 98 130 60 120 75 113 144 84 51 60 112 173 86 139 63 99 77 72 112 128 47 98 128 152 136 77 146 83 88 85 98 79 66 89 60 89 144 93 168 116 120 115 163 71 54 129 168 152 107 90 117 92 90 118 89 77 125 91 93 102 141 61 73 124 120 60 132 132 71 161 90 83 151 147 109 106 113 61 105 71 146 85 130 94 85 98 67 122 41 82 108 106 133 84 201 104 108 107 86 98 181 77 70 97 118 105 113 79 124 88 99 120 98 74 137 99 50 116 108 109 61 74 114 118 131 151 121 61 99 137 82 96 87 107 91 133 120 91 99 108 105 91 95 123 168 96 112 95 101 104 118 109 39 118 78 168 98 110 148 67 105 88 58 138 129 88 152 106 29 219 69 128 133 171 85 199 79 80 92 138 107 75 130 162 128 99 140 108 106 88 88 120 73 140 127 53 78 105 69 94 98 40 55 160 126 107 124 138 147 121 86 101 132 103 109 148 76 97 149 114 106 77 65 98 151 89 77 93 125 78 112 114 132 102 118 84 108 74 90 123 107 120 71 103 146 147 115 72 98 151 103 107 95 98 62 127 68 103 117 132 108 65 150 112 108 119 155 153 102 84 163 79 149 117 175 130 45 93 93 88 103 138 100 83 120 93 138 103 145 52 68 101 153 96 111 69 131 85 112 73 59 145 118 130 139 114 102 121 97 79 101 70 165 151 88 112 106 101 92 44 151 175 175 173 114 102 115 127 44 105 81 14 150 88 114 190 156 133 117 114 121 183 172 89 62 123 84 48 99 111 134 135 38 73 56 83 85 96 132 158 146 119 182 110 163 61 28 154 142 108 91 133 85 96 36 89 102 119 107 134 85 74 106 126 125 82 72 71 79 82 132 147 111 120 86 140 62 54 108 139 108 67 114 136 90 145 98 146 141 136 43 226 78 147 69 38 85 97 106 161 116 106 143 117 61 116 125 90 84 124 64 77 162 100 151 117 114 149 106 100 75 131 114 64 79 161 138 109 109 69 146 122 184 220 9 108 91 166 131 94 125 121 115 90 113 153 110 54 94 97 150 101 148 146 96 122 119 100 28 78 85 67 60 93 50 82 106 175 94 95 134 106 124 140 90 144 177 107 115 100 81 52 121 91 200 101 121 58 136 110 129 162 139 58 122 93 163 90 78 131 51 122 69 125 115 106 71 114 98 92 112 162 138 143 54 33 126 70 108 76 141 128 122 76 76 144 146 128 119 138 115 102 70 95 115 69 64 83 120 89 152 141 134 146 88 150 161 76 110 112 151 131 103 139 92 115 100 151 68 75 56 95 110 196 139 122 71 92 83 81 136 78 210 81 102 146 94 13 72 83 79 90 122 116 81 92 94 91 141 91 103 149 40 118 128 148 122 10 63 139 117 57 178 27 134 87 86 128 64 124 157 70 149 109 163 155 189 112 96 62 168 59 81 59 44 107 77 102 81 75 142 109 64 39 147 41 39 118 130 120 57 84 127 106 94 114 78 48 112 75 116 92 148 91 77 132 157 137 115 154 158 129 141 103 63 100 145 130 76 88 77 95 93 121 121 71 93 68 46 119 99 32 63 40 131 84 52 136 120 125 130 165 97 92 60 99 112 170 123 154 93 92 56 118 177 100 59 81 113 118 65 28 148 145 86 122 174 97 112 84 108 110 75 113 111 168 71 108 144 114 63 64 61 77 115 121 112 83 62 126 95 126 141 135 108 39 142 132 55 103 93 94 54 40 84 129 53 110 114 29 45 87 133 155 120 83 122 103 58 120 104 77 92 118 107 109 136 155 90 83 88 87 92 104 78 53 148 104 100 51 181 96 61 72 76 52 139 126 70 103 66 102 92 43 203 63 231 94 89 121 59 79 121 96 125 79 91 73 94 166 116 61 65 190 197 54 23 120 152 161 164 60 113 42 110 130 141 110 149 92 62 134 84 83 87 79 84 48 85 99 37 147 107 107 84 62 30 156 57 93 54 100 65 130 80 110 114 82 149 75 135 95 112 84 101 100 109 99 159 70 103 108 118 94 107 176 114 168 87 22 142 93 89 93 118 112 59 145 102 160 111 68 107 188 62 89 102 42 131 136 111 99 87 99 93 62 53 115 132 107 107 116 119 118 79 97 75 98 67 176 108 62 62 111 156 59 83 137 127 72 92 43 118 68 60 88 133 54 63 125 96 104 121 97 80 98 84 69 93 103 168 47 92 109 104 115 113 63 89 87 107 95 138 158 96 101 119 116 155 83 60 88 89 60 137 160 175 100 61 34 126 105 85 94 181 95 138 99 102 126 89 89 50 71 136 99 88 75 120 113 154 126 82 108 120 75 119 168 132 82 119 56 136 52 126 55 78 72 130 145 136 130 148 105 87 92 96 142 66 139 100 94 131 135 76 76 82 103 95 168 113 104 98 82 80 79 70 102 115 166 121 57 81 124 92 161 167 103 119 65 97 146 38 36 118 81 115 117 148 141 124 61 114 78 77 172 82 98 69 124 44 145 146 138 69 73 150 99 101 70 69 115 74 140 115 62 98 103 130 96 80 61 110 139 54 148 154 37 105 114 139 147 76 65 150 116 102 160 111 144 45 156 141 110 153 151 119 46 125 73 102 127 85 116 167 59 91 72 182 103 72 105 145 54 130 92 73 65 78 109 87 98 74 173 105 96 108 96 173 170 119 74 138 119 118 104 47 144 29 85 122 105 75 67 129 69 90 130 149 60 42 65 161 91 142 69 127 128 76 151 94 94 78 139 111 97 116 55 102 84 125 115 74 86 184 40 169 124 156 123 83 69 143 119 101 80 49 129 114 80 124 60 115 81 12 159 130 107 113 41 67 33 61 25 80 99 93 142 62 124 136 109 84 90 89 74 111 93 86 127 124 115 71 157 98 90 113 165 129 130 80 155 33 68 182 114 87 127 122 110 109 103 137 121 114 121 122 123 73 109 68 99 81 167 69 143 45 103 69 130 133 112 126 82 86 143 78 212 122 124 55 125 124 106 155 127 84 98 127 102 85 96 137 109 131 118 79 102 85 84 85 90 145 116 16 89 95 108 90 130 153 129 96 79 87 93 113 111 165 62 136 95 77 140 141 128 100 80 80 137 114 67 128 162 143 154 68 61 78 154 70 72 82 97 74 75 57 132 99 65 74 176 42 129 134 88 83 111 108 39 103 92 53 44 116 71 96 126 172 142 141 93 67 86 56 145 91 74 97 94 104 92 153 151 80 59 89 170 103 50 98 131 122 113 97 187 107 113 112 97 132 76 76 84 83 98 69 122 91 51 118 63 134 112 99 125 88 29 76 138 112 132 172 97 112 84 99 121 102 138 129 165 103 95 100 99 104 95 125 74 136 24 120 99 130 118 77 158 83 132 143 90 120 160 105 108 103 99 65 188 78 76 119 104 100 120 42 94 96 56 106 170 171 97 118 85 78 118 241 83 120 132 95 105 113 132 118 28 115 169 93 134 135 113 108 76 73 45 110 63 82 120 157 73 163 52 93 90 165 65 113 55 148 110 138 131 74 67 103 62 105 58 178 77 169 79 133 76 94 103 106 104 165 62 135 87 53 91 128 91 99 85 150 70 117 99 113 142 72 115 180 74 141 70 97 105 121 115 134 115 166 90 148 66 94 168 112 101 148 71 113 136 124 124 88 115 59 114 56 141 104 109 135 73 152 182 102 117 82 147 116 97 88 86 74 152 73 148 151 47 119 107 134 63 104 72 137 112 139 151 105 60 109 135 79 188 98 39 66 88 82 92 199 152 87 93 101 90 123 138 90 139 70 69 86 55 123 119 161 160 108 112 78 83 135 169 78 68 138 146 168 107 71 67 66 103 102 98 85 47 82 128 47 143 88 119 106 133 79 92 111 117 72 106 122 103 184 97 107 66 80 92 86 141 69 100 90 112 108 108 103 93 134 110 92 129 130 63 113 74 99 61 150 67 110 158 98 87 122 113 81 148 63 96 112 122 94 135 119 88 77 43 149 46 105 133 52 97 110 99 115 86 145 100 103 70 127 143 113 125 156 91 88 61 110 160 82 96 134 139 110 21 93 101 112 73 66 118 93 170 109 104 126 119 76 102 87 31 155 60 87 84 146 135 117 111 90 49 105 131 69 123 81 113 105 46 124 33 59 79 42 163 53 132 158 81 100 73 71 131 71 75 33 127 74 79 87 97 182 23 83 97 130 102 55 82 98 100 140 103 185 46 97 108 85 131 57 66 106 119 135 110 160 123 106 74 182 54 129 43 65 123 122 176 56 106 79 79 203 157 98 110 115 81 233 139 108 133 118 30 93 85 145 88 111 144 132 80 134 63 169 179 61 74 110 154 142 103 93 80 49 97 46 102 90 109 87 145 84 104 160 107 79 92 163 108 125 99 163 53 84 54 113 146 134 66 145 58 117 66 114 120 131 88 108 138 119 146 83 86 134 95 151 66 77 65 119 131 170 185 66 114 108 132 60 134 68 182 82 96 129 115 146 61 73 82 151 85 151 62 81 78 118 97 56 130 111 147 91 99 130 83 120 112 209 87 118 150 156 114 107 136 107 91 69 93 143 168 125 109 147 73 93 53 70 75 63 117 85 137 103 118 100 117 88 153 139 125 84 154 130 96 88 105 126 130 86 92 176 136 128 66 89 63 60 122 121 143 70 85 32 82 92 83 59 115 175 84 87 72 115 101 124 136 158 120 64 154 202 138 126 103 125 127 133 94 130 90 116 65 131 165 108 139 115 86 181 27 160 201 109 139 121 105 85 52 68 139 107 103 118 68 95 89 110 88 96 62 102 178 113 71 136 82 150 78 160 134 123 70 69 38 97 94 93 154 87 138 130 131 86 140 106 135 122 102 109 142 109 86 70 111 79 118 80 107 123 127 195 116 236 83 99 171 77 55 134 144 148 160 105 90 59 132 107 44 123 49 156 54 90 135 88 85 62 60 80 80 121 52 133 140 95 96 130 115 61 81 152 148 67 102 118 189 99 143 84 134 76 34 136 76 88 92 160 112 131 80 107 70 137 125 126 122 57 134 30 37 180 61 77 107 146 100 104 124 62 114 70 141 127 98 78 107 120 55 122 81 111 95 129 94 139 94 85 130 131 66 80 115 110 108 133 90 124 17 96 83 124 91 92 128 95 135 79 78 101 169 141 77 82 126 91 112 67 118 154 145 12 119 86 121 126 102 79 95 126 93 93 106 118 127 69 100 92 95 143 148 67 67 75 73 107 69 35 68 97 104 154 52 104 76 155 136 104 145 124 156 116 157 89 104 42 75 85 148 118 88 107 28 21 148 74 64 67 60 59 90 69 83 105 107 130 88 58 79 99 70 47 95 137 53 80 115 88 131 148 109 114 70 161 99 107 79 109 90 52 132 54 94 145 127 82 103 136 116 113 114 167 61 132 74 97 179 64 131 114 139 43 35 89 124 133 136 116 99 121 129 70 144 45 108 64 65 71 59 134 111 103 147 151 98 97 134 76 163 155 95 90 60 63 95 150 144 79 80 76 93 160 87 51 102 123 53 18 125 103 103 51 90 59 115 90 126 111 98 53 121 115 140 143 99 78 142 47 157 149 89 90 17 44 73 81 59 137 62 112 63 183 122 126 81 101 67 123 65 145 68 144 112 87 180 101 92 115 103 186 65 158 180 129 75 28 116 107 107 161 86 43 138 117 50 56 142 126 125 141 117 138 79 186 57 179 94 143 69 129 75 50 72 120 99 153 93 101 132 171 114 59 133 62 76 81 121 163 101 122 74 116 108 91 100 129 120 83 77 72 154 34 186 129 124 101 64 132 77 138 62 160 134 108 121 167 154 56 90 40 86 74 110 230 122 94 80 81 210 162 72 50 131 100 119 72 122 132 57 148 86 117 115 82 139 115 85 122 91 67 165 102 63 75 73 105 86 143 61 108 151 200 59 95 106 74 123 101 132 104 110 87 103 142 107 126 99 88 67 71 157 111 131 128 116 166 173 50 222 187 103 140 34 102 137 101 144 123 89 61 134 102 94 125 123 87 73 97 124 174 133 87 157 149 90 168 70 137 73 91 60 133 72 121 137 103 152 36 98 51 79 131 53 130 104 119 85 66 170 125 88 136 142 94 88 97 40 124 105 123 85 81 152 117 112 98 79 94 74 78 201 102 97 171 90 27 109 111 109 60 112 71 171 95 187 47 68 74 150 54 97 108 86 54 95 123 64 99 87 52 83 141 36 116 55 89 64 57 64 98 102 125 115 135 105 169 192 98 101 111 131 138 105 51 160 78 117 106 74 143 110 103 64 107 200 70 89 137 111 149 113 79 99 119 127 51 128 122 123 146 120 136 111 112 83 70 134 102 90 61 83 106 74 84 67 79 105 79 76 178 133 152 101 99 103 32 132 92 127 72 69 81 105 126 90 101 98 114 113 110 102 162 118 38 119 165 113 53 137 135 64 163 107 85 119 86 60 200 145 158 66 94 104 67 104 98 54 27 108 66 117 119 93 71 72 73 94 124 114 186 118 119 70 105 93 118 155 68 84 148 90 106 99 88 112 145 117 112 146 148 140 77 113 74 89 99 83 114 96 129 98 92 177 111 107 139 117 100 84 129 160 47 81 115 83 139 58 107 95 125 129 66 82 93 123 130 94 143 140 80 43 128 135 104 95 105 104 120 108 72 98 125 128 71 68 108 103 118 97 124 98 186 90 93 67 133 94 93 125 120 74 99 118 85 155 125 80 82 180 104 46 119 156 90 78 70 121 111 106 101 100 155 129 119 78 71 82 94 49 101 181 152 93 187 96 54 107 159 81 69 105 100 96 103 42 84 127 79 130 102 97 78 61 131 121 113 120 48 136 152 42 86 117 168 106 131 97 124 51 52 60 82 93 111 139 45 123 124 168 54 142 63 112 155 106 107 51 167 100 146 102 95 144 63 114 93 146 149 128 128 110 77 43 112 56 124 152 81 135 69 121 169 146 125 128 142 78 143 104 199 78 108 74 136 142 151 100 109 93 104 102 116 67 77 92 74 167 102 120 59 156 140 117 71 93 193 135 99 56 133 63 148 149 64 72 48 121 102 110 144 127 130 86 125 166 84 134 115 104 89 123 92 69 114 51 130 111 44 104 71 125 106 85 30 127 129 60 115 98 153 45 110 168 103 67 99 108 74 167 54 43 69 69 83 87 139 173 127 69 92 108 93 112 160 120 172 60 89 176 113 76 84 94 92 132 141 88 150 136 58 132 104 63 103 89 82 113 71 59 129 132 137 106 56 81 130 101 92 118 87 192 161 86 142 117 95 59 138 85 104 55 103 96 85 94 47 89 142 141 123 101 113 94 85 105 112 100 93 95 81 95 101 82 58 99 120 61 76 89 162 62 83 126 89 112 71 121 52 105 118 75 13 175 105 179 88 62 77 107 55 74 53 155 74 155 133 179 113 104 77 136 126 95 86 167 98 183 142 125 88 100 115 116 121 108 125 109 86 135 66 59 86 80 78 97 96 41 90 166 107 62 117 128 112 84 70 70 18 81 77 87 84 133 93 109 110 101 113 112 99 64 90 139 152 112 172 119 96 200 147 118 98 122 139 31 133 93 128 66 141 68 136 95 77 81 126 96 77 83 207 106 68 111 132 108 72 90 112 138 153 106 118 87 127 114 82 67 117 109 70 128 108 141 171 55 132 137 110 140 129 121 164 113 107 87 122 98 129 132 103 39 123 67 89 106 89 136 100 134 58 132 66 88 103 129 56 91 90 40 110 101 39 147 94 134 103 116 119 122 96 111 80 163 76 90 72 126 143 153 70 127 116 104 148 94 33 113 70 121 149 105 120 88 93 107 87 145 129 80 128 69 92 93 107 66 84 95 118 63 147 92 150 82 109 44 164 121 151 96 106 92 91 92 160 92 69 95 103 123 161 161 122 112 181 62 100 124 131 90 138 101 118 141 156 73 190 120 62 100 108 66 157 72 121 115 159 115 92 64 70 119 127 114 114 92 127 81 115 112 106 169 111 124 110 149 71 50 92 102 112 155 87 74 133 51 176 173 135 58 119 43 50 107 78 99 104 116 101 100 48 95 117 30 149 108 78 89 61 111 25 161 106 136 75 111 71 125 196 94 59 100 141 82 36 118 112 116 71 99 35 146 78 121 98 93 121 99 99 115 83 151 110 102 109 113 76 81 120 92 176 89 88 134 71 120 86 105 108 96 91 101 91 93 112 116 229 109 172 152 21 155 100 115 96 203 35 92 110 124 43 138 139 98 185 148 71 126 141 68 129 44 116 76 134 76 63 134 159 191 87 74 124 104 69 178 139 50 87 103 164 142 96 122 105 40 93 161 161 52 127 99 107 108 75 93 165 108 149 133 93 102 213 112 92 68 154 56 91 112 151 118 106 84 137 82 79 80 115 79 128 109 127 94 147 160 161 58 114 117 133 111 168 100 101 79 69 111 94 83 123 172 108 97 109 117 146 92 113 118 71 122 130 42 124 171 75 82 114 85 107 123 118 81 113 88 102 140 106 94 157 88 93 123 134 105 198 123 139 104 129 135 71 49 159 148 72 110 135 139 115 56 71 93 108 124 144 66 132 85 201 135 140 127 111 96 110 125 66 55 74 96 120 61 130 117 142 112 67 42 125 87 103 101 79 70 75 91 56 151 142 97 109 131 106 42 121 151 48 103 119 136 107 75 161 66 87 128 103 86 132 105 136 100 59 111 69 87 141 134 106 65 165 109 74 116 105 180 128 70 170 143 89 107 25 95 162 135 121 165 103 82 81 80 170 154 111 109 150 84 108 114 131 33 91 159 80 93 107 110 104 135 120 121 139 98 85 133 111 97 22 77 149 213 70 24 108 78 85 146 84 115 50 50 105 98 169 84 77 152 123 126 116 113 121 192 48 104 78 120 85 180 54 80 97 117 117 108 77 123 81 92 78 150 92 110 107 178 84 78 77 38 97 112 106 102 90 198 125 133 50 92 84 136 121 46 148 157 181 77 106 136 115 116 113 64 144 54 77 114 158 86 175 102 143 140 120 116 123 106 105 99 209 141 81 98 78 156 50 140 82 123 85 74 106 84 166 103 159 178 92 95 122 82 79 29 82 110 112 129 103 126 161 113 93 102 104 140 157 150 87 99 117 111 59 105 150 127 67 122 107 154 145 123 121 132 142 102 119 129 83 52 125 87 83 57 116 114 68 147 85 120 106 131 46 129 110 111 66 173 103 98 120 99 28 103 94 86 73 143 112 67 106 134 80 139 96 71 98 155 120 133 40 79 176 84 111 98 159 63 112 157 94 98 92 141 72 85 79 98 82 133 23 147 82 124 74 66 66 110 125 67 90 142 74 102 170 52 154 155 137 69 125 100 90 115 93 95 110 85 116 86 130 97 175 208 120 123 96 136 91 135 152 102 130 109 122 87 124 76 136 91 24 172 97 162 48 89 122 153 85 63 116 183 69 123 71 81 159 84 66 88 94 73 92 168 123 99 115 64 80 81 61 96 81 78 99 112 115 94 87 213 82 115 85 166 73 83 66 118 74 73 82 83 118 125 117 88 107 141 77 39 141 163 117 110 83 97 76 150 102 79 106 111 41 120 141 93 116 62 108 114 44 97 136 125 114 74 63 88 139 61 99 68 33 67 124 125 134 141 131 33 108 70 168 113 139 96 105 111 35 105 155 50 133 144 123 72 83 103 82 112 101 111 119 110 74 48 129 105 123 109 103 71 111 92 82 102 73 163 94 90 112 53 117 72 113 175 135 133 114 142 64 185 101 105 141 179 126 125 119 157 73 103 29 141 70 66 121 97 100 110 106 98 69 155 113 43 131 95 38 85 175 56 194 136 110 92 73 53 143 76 124 75 121 163 101 75 145 101 78 133 63 127 142 98 44 117 99 130 86 91 74 108 57 21 122 64 77 134 97 155 62 119 114 157 57 126 187 127 72 111 155 119 155 91 78 50 137 106 155 74 142 109 130 190 75 125 63 116 79 46 91 128 182 86 107 110 124 105 48 53 70 112 75 78 127 144 35 73 91 83 77 107 117 121 112 108 122 118 94 100 112 117 150 98 109 103 132 122 79 152 97 91 108 38 24 119 88 107 93 98 71 137 81 126 107 147 86 172 146 142 89 122 62 52 74 141 120 92 62 153 122 54 152 66 146 99 159 123 78 106 36 102 66 97 119 120 83 171 44 135 113 150 109 81 141 73 73 177 82 143 80 129 134 88 91 124 133 162 165 142 90 80 107 151 100 101 72 84 82 118 104 117 65 101 87 109 155 47 73 147 133 112 97 191 185 72 78 148 125 88 98 121 71 85 68 78 108 122 105 143 99 82 110 69 81 137 90 146 80 141 94 44 66 63 207 139 86 91 132 136 82 180 110 31 90 125 115 73 60 147 115 77 85 119 145 114 107 183 101 72 45 101 51 123 139 80 69 63 97 70 151 130 132 98 96 86 59 82 72 110 76 77 85 157 116 111 129 159 112 97 97 113 19 131 160 147 211 69 186 83 51 153 120 62 142 168 70 86 66 64 129 108 119 106 144 118 134 111 96 149 57 141 65 167 85 104 72 120 61 117 152 96 133 162 123 193 60 81 124 119 99 138 27 92 186 75 134 142 138 37 113 125 150 70 76 92 67 177 74 146 106 109 180 127 151 116 144 86 130 38 120 113 53 65 150 62 101 84 56 80 133 87 40 65 145 44 23 62 94 105 74 138 68 163 91 106 32 108 80 130 85 9 149 184 152 83 178 76 135 80 116 145 83 92 107 133 171 42 36 161 169 99 95 77 82 129 103 106 75 98 128 96 82 135 143 91 92 91 171 65 206 94 125 101 30 136 114 75 101 149 120 124 102 66 142 145 135 98 101 106 141 135 78 69 106 48 1 131 77 94 96 135 65 112 96 67 112 84 89 57 95 73 139 108 93 74 145 102 123 106 49 103 120 95 96 126 97 111 115 114 103 149 90 130 65 131 105 67 103 119 110 97 85 141 64 124 165 79 125 142 116 87 77 103 121 122 63 138 66 79 136 94 119 102 174 150 87 110 94 76 76 107 111 64 132 176 98 113 121 65 150 111 160 50 71 115 47 112 106 129 80 149 113 181 74 58 50 89 72 226 118 94 89 104 87 153 123 64 78 100 46 106 24 116 180 99 80 98 103 89 134 134 88 85 154 122 68 15 61 147 34 97 116 188 156 36 112 71 91 106 101 181 31 127 127 112 134 175 50 163 131 133 160 174 163 115 108 130 149 136 163 182 66 120 167 115 149 135 147 77 131 84 156 74 103 87 90 89 45 69 97 85 190 188 81 127 110 172 126 107 137 58 87 60 76 110 87 122 90 81 90 92 70 103 133 103 134 122 73 78 53 55 85 99 91 76 117 103 140 92 104 134 121 91 164 36 143 130 59 41 86 100 92 92 111 90 131 130 182 172 131 113 120 60 116 185 149 153 97 125 126 149 95 113 74 35 88 86 172 104 81 125 83 90 93 104 131 148 183 108 87 106 111 130 124 98 92 130 126 98 96 85 61 116 103 103 73 94 66 69 118 88 77 77 139 59 205 82 135 56 62 47 146 173 90 195 77 179 80 60 100 132 84 60 122 49 121 100 68 147 53 81 163 161 89 87 37 71 63 150 79 28 87 154 125 180 86 175 112 77 121 69 93 109 120 120 94 82 144 95 53 122 30 219 22 79 126 38 111 68 87 77 87 103 127 125 51 120 57 101 67 151 79 74 135 167 110 150 69 121 118 118 50 42 98 107 75 76 163 132 90 81 129 81 81 92 123 76 143 105 121 145 63 59 72 101 102 149 83 118 130 203 148 129 120 88 113 82 114 117 117 83 94 133 88 127 190 94 112 163 119 87 174 129 142 86 50 148 119 124 118 74 111 155 55 80 114 122 55 62 143 129 140 8 81 115 77 73 72 47 106 144 91 144 69 181 99 55 97 146 127 50 77 114 97 51 101 127 166 159 106 93 162 133 145 108 131 110 87 133 108 70 92 70 70 66 40 240 105 100 90 72 86 33 113 88 114 110 93 95 78 90 120 141 130 122 200 63 85 93 103 118 99 75 106 39 58 137 112 100 70 117 126 171 166 72 86 50 88 100 114 123 75 121 118 165 138 93 19 158 104 8 128 167 82 55 113 82 128 105 44 138 55 150 152 120 56 127 73 114 65 98 82 159 85 125 125 204 54 75 56 86 165 176 39 108 128 68 107 70 126 37 90 129 170 23 168 54 94 139 91 110 52 102 56 104 55 157 57 129 156 122 140 74 127 86 61 102 85 71 87 122 71 119 136 134 166 114 126 157 112 76 92 110 71 64 91 125 115 95 90 43 71 147 68 108 79 140 73 106 145 47 91 44 101 105 62 105 85 79 113 142 92 53 51 103 154 124 75 93 91 126 113 139 140 91 93 111 102 98 106 111 80 74 144 120 129 170 124 96 89 140 98 143 125 74 187 114 132 48 134 143 64 101 132 130 87 111 119 79 100 110 48 42 109 90 159 80 112 90 117 74 90 89 87 107 191 102 186 113 106 105 162 108 108 79 104 112 121 94 88 116 128 123 86 130 130 71 170 117 92 119 67 89 120 143 108 109 52 167 83 103 124 110 176 74 94 67 68 95 133 132 120 57 89 146 89 103 127 59 137 122 109 98 120 75 60 103 119 133 153 68 106 79 57 115 131 78 101 160 106 95 88 43 74 100 130 139 108 202 46 83 71 106 111 61 103 89 90 118 106 143 164 52 124 81 53 140 114 71 82 130 86 </t>
+  </si>
+  <si>
+    <t>GAM(0.28911103093249313, -6.989402027384379e-29, 0.6119863287920286)</t>
+  </si>
+  <si>
+    <t>1 1 0 3 0 1 0 1 0 1 1 0 0 2 1 0 0 1 0 1 4 0 1 0 0 1 2 0 1 1 0 1 0 0 2 0 0 1 1 1 0 4 3 0 0 0 3 1 2 2 2 1 1 0 0 0 0 3 3 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 1 1 0 1 1 0 1 2 0 0 1 1 2 0 3 0 0 0 0 0 1 2 0 4 1 0 0 0 0 1 0 1 2 1 0 1 0 1 0 0 0 1 0 2 2 4 0 1 1 1 4 0 2 1 1 0 1 1 1 0 4 1 1 0 2 1 1 0 0 2 0 1 2 0 0 0 2 1 1 2 2 2 1 1 2 2 0 0 0 1 1 0 0 1 3 3 2 3 3 0 0 0 0 0 1 0 2 1 4 0 2 0 2 1 0 0 2 0 2 1 0 1 2 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 2 3 2 0 1 0 1 1 3 2 1 2 1 0 2 2 1 2 1 0 0 0 1 1 1 1 1 0 2 1 0 1 0 0 0 0 0 0 4 0 3 0 2 0 0 1 2 2 0 0 0 1 2 0 2 1 3 2 3 1 1 2 1 0 2 0 1 1 3 0 0 0 1 3 0 0 2 1 0 1 0 1 2 0 1 2 3 2 1 1 0 0 1 2 1 1 1 2 0 0 3 1 0 1 1 0 3 1 1 0 1 1 2 0 1 3 0 1 3 0 2 2 2 0 0 1 1 0 0 0 0 1 0 1 2 2 1 0 1 0 1 0 0 0 2 2 1 0 1 1 1 1 0 0 1 1 0 2 2 1 0 0 1 0 0 2 0 0 1 0 1 2 2 2 1 3 0 0 0 1 1 1 1 0 0 2 3 2 1 1 0 0 0 1 1 0 1 0 1 0 0 0 2 0 2 1 0 0 1 3 1 0 0 0 1 0 1 2 1 0 1 0 2 0 0 1 1 0 1 1 1 1 1 1 2 2 1 0 1 0 1 0 0 0 1 0 0 0 1 1 0 2 0 0 1 1 1 2 1 1 0 2 2 0 2 0 0 1 0 2 2 1 0 0 2 0 0 2 2 1 1 2 0 2 0 0 3 0 0 0 1 1 1 0 0 1 1 2 0 0 0 1 0 0 1 1 1 0 2 0 1 1 0 2 2 1 0 4 0 1 3 0 0 1 1 1 0 1 0 1 1 0 3 1 1 1 1 1 0 0 1 1 0 1 1 2 3 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 2 0 2 0 0 2 0 3 1 1 0 3 1 1 1 1 1 2 2 1 1 2 2 0 0 1 2 0 1 0 0 0 3 2 1 0 1 0 0 0 4 0 0 0 2 1 1 1 0 1 2 0 1 2 0 1 1 0 0 1 1 1 0 2 1 3 2 0 1 1 0 0 2 1 0 0 1 1 1 0 0 2 2 3 0 1 0 1 1 1 1 2 0 1 0 0 0 1 1 1 1 2 0 0 0 0 0 1 0 1 0 2 0 0 0 2 1 2 0 3 1 1 0 2 2 0 4 3 1 2 0 0 3 2 2 1 0 1 0 1 1 2 2 2 1 1 1 1 1 0 2 0 2 1 1 2 1 1 1 0 0 0 2 0 4 0 4 0 1 1 0 0 1 0 0 1 3 3 0 1 0 0 0 0 1 0 3 2 0 0 0 1 0 2 0 2 2 0 0 4 1 0 0 0 2 1 0 1 1 1 2 1 2 0 0 1 0 0 0 2 1 1 1 2 1 2 1 0 0 0 0 0 1 0 1 0 2 1 3 2 0 0 0 0 1 0 0 0 1 0 2 1 2 2 0 0 1 2 1 1 1 1 2 0 1 2 2 0 2 1 0 1 4 0 1 0 0 1 1 0 0 0 0 0 1 2 2 0 0 2 1 1 0 0 0 2 0 0 2 2 0 0 2 3 1 0 0 1 0 0 1 0 0 1 0 2 0 0 2 1 0 1 0 0 0 1 2 0 0 0 0 0 1 2 0 2 3 0 0 2 1 0 0 2 0 1 1 1 0 0 0 1 1 0 2 1 0 0 1 0 0 1 2 0 1 2 2 0 0 1 3 0 0 0 2 3 0 0 1 1 1 0 1 2 1 1 1 0 1 2 0 2 2 2 0 0 1 2 1 2 1 0 2 0 0 2 1 2 2 1 0 1 3 0 2 2 1 0 0 1 0 0 1 3 1 2 1 2 0 1 1 2 0 2 2 3 0 2 0 0 1 2 0 2 2 0 0 1 2 0 0 0 0 0 2 0 1 3 0 0 0 2 1 0 0 1 1 2 0 1 0 0 2 1 2 0 0 0 0 1 0 1 1 1 0 0 0 0 1 2 1 1 1 0 0 0 0 0 1 0 0 1 2 0 1 0 0 1 1 0 0 2 0 1 1 0 2 1 0 1 1 1 0 3 1 0 0 0 2 0 1 1 0 3 0 0 1 1 1 2 1 2 3 1 1 1 3 2 0 0 1 2 1 0 2 1 1 0 1 1 1 0 1 1 0 0 0 0 2 2 1 0 1 0 0 2 0 2 0 1 1 1 1 2 0 0 1 0 0 1 2 0 0 2 0 2 0 0 1 1 1 2 0 0 3 0 1 1 3 1 1 1 1 1 0 0 1 0 3 1 0 1 1 1 0 0 1 1 1 0 0 1 1 0 0 1 1 0 0 1 1 0 1 0 3 0 0 0 0 0 1 0 1 1 3 2 0 1 0 0 1 2 1 1 0 2 0 2 0 3 2 0 1 1 0 0 0 1 0 1 1 3 0 1 1 2 1 0 0 0 0 0 2 1 3 1 0 0 0 0 2 1 1 0 2 2 0 0 3 1 2 2 0 0 0 0 2 0 1 2 0 1 1 2 2 0 3 3 1 1 1 1 2 0 0 1 0 0 0 1 2 0 1 1 0 0 1 0 2 1 1 1 1 0 0 1 0 0 1 0 0 2 3 1 1 1 0 0 1 1 1 3 2 1 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 2 0 1 0 1 1 1 0 0 0 2 1 1 0 1 0 1 1 2 0 0 2 0 2 2 1 1 0 0 1 0 0 3 1 1 1 0 0 1 0 0 1 1 1 0 1 0 1 0 0 1 0 3 1 0 2 0 1 0 0 0 0 2 0 0 1 0 3 1 1 1 0 2 1 1 1 1 1 0 0 1 1 1 0 1 0 1 0 0 0 1 0 2 0 1 0 2 1 1 3 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 2 2 2 1 1 0 0 1 1 2 3 0 0 2 0 1 1 0 1 2 1 1 0 2 2 2 2 1 2 1 1 1 1 0 0 3 1 3 0 0 0 3 0 1 1 2 3 2 1 4 1 0 1 1 1 1 0 3 0 1 1 1 1 0 0 1 0 1 0 1 2 1 0 0 2 0 0 0 0 0 1 1 2 1 1 3 0 0 0 0 2 0 0 1 2 1 1 0 0 0 0 2 1 0 2 1 2 1 1 0 0 1 2 0 0 1 0 0 1 1 1 1 1 0 2 0 0 2 0 0 0 2 2 2 1 1 0 1 0 0 2 0 2 0 2 0 0 1 0 1 2 0 1 1 1 0 0 0 0 0 0 0 0 1 1 1 1 2 1 0 1 1 0 1 0 3 1 0 1 1 0 0 2 2 1 1 2 1 0 0 0 3 2 0 0 1 0 2 0 1 1 3 2 1 0 0 0 2 1 0 0 0 0 2 1 0 1 0 1 2 1 1 1 0 0 3 0 1 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 4 0 0 2 1 2 3 0 0 0 0 0 0 1 0 0 4 1 0 1 3 1 1 0 0 0 0 1 0 0 2 1 0 0 2 1 0 1 0 1 0 1 2 0 2 1 0 0 1 2 0 0 2 4 1 0 3 2 0 1 1 2 3 0 2 0 2 0 2 0 3 1 3 0 0 0 1 1 1 3 1 1 1 2 0 0 1 0 0 1 0 0 2 0 0 0 2 1 0 2 2 0 2 0 1 0 0 1 0 0 2 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 0 0 1 2 2 0 0 1 1 1 2 1 1 0 0 1 0 0 0 1 0 0 2 0 0 0 1 1 2 0 1 1 0 1 2 1 1 0 1 1 2 0 1 1 0 1 0 1 0 1 0 0 1 0 0 1 0 2 2 0 1 0 0 2 0 0 1 0 4 0 0 0 2 0 1 1 1 0 1 0 1 0 0 0 1 1 0 0 0 2 0 0 0 0 1 1 1 2 0 3 0 3 0 1 0 1 1 0 2 1 0 0 0 0 2 3 1 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 2 0 0 1 3 0 1 1 0 0 0 3 0 0 0 0 2 1 3 1 1 0 1 0 1 1 1 0 0 0 0 0 0 2 1 0 1 0 3 0 2 0 0 1 1 0 1 0 0 0 2 4 1 1 1 1 2 1 2 1 1 1 2 1 0 0 1 0 1 1 0 2 1 3 2 0 0 1 0 2 1 0 4 1 1 0 0 1 0 1 0 0 0 3 1 1 1 0 1 0 0 2 2 1 0 1 1 0 1 0 0 0 0 1 0 0 0 1 2 1 1 2 2 0 1 1 1 0 1 0 0 0 1 1 2 0 1 0 0 0 0 1 3 1 2 0 0 1 0 0 1 2 0 2 0 1 2 1 2 2 1 0 1 0 0 0 0 4 0 1 0 0 2 1 3 0 1 2 0 1 1 0 0 2 0 1 1 0 1 0 0 1 1 1 0 0 0 1 0 0 2 0 1 3 1 1 0 3 0 0 1 0 0 0 0 1 2 0 0 1 0 2 1 2 2 0 0 0 0 1 1 0 0 1 0 1 0 1 1 2 1 2 0 1 0 2 1 1 0 1 1 0 2 2 0 0 1 0 1 3 2 0 0 0 0 0 2 0 2 0 0 0 0 0 1 0 0 0 0 2 0 0 2 1 1 1 0 1 0 0 2 0 1 1 0 1 3 1 0 1 1 1 0 0 2 1 2 0 1 0 2 0 2 3 0 1 2 1 0 2 0 0 0 0 1 2 1 0 1 0 1 1 1 0 1 2 0 0 0 0 0 1 1 2 1 1 0 1 1 0 2 0 2 0 2 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 1 1 0 1 2 1 1 1 3 2 2 1 0 0 0 1 0 0 0 0 1 1 2 2 0 1 1 0 1 4 1 0 0 0 0 1 0 1 2 1 0 3 1 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 3 3 1 2 0 0 0 0 2 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 3 0 0 0 0 1 1 1 1 1 1 1 0 1 2 0 1 0 0 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 0 2 2 0 1 1 1 0 1 2 1 0 0 0 4 1 3 0 2 1 0 2 1 2 3 1 1 2 1 1 0 0 0 2 0 0 1 1 0 0 1 0 2 0 2 0 3 0 0 0 2 2 2 0 2 2 1 0 0 0 1 2 2 0 2 1 0 2 2 1 1 1 0 2 2 2 3 2 0 1 0 0 1 1 1 0 2 0 1 0 2 1 1 0 2 2 0 0 1 1 1 1 0 2 1 0 1 1 0 1 2 1 1 0 2 1 3 3 1 1 2 0 1 1 2 1 0 0 1 0 0 2 1 1 0 2 0 1 0 1 0 1 0 0 0 1 1 2 0 0 1 0 0 1 0 0 1 0 0 2 1 1 0 1 2 1 0 1 2 1 0 1 1 0 1 1 1 2 0 2 1 0 3 0 0 0 0 0 1 1 1 1 1 0 0 1 2 1 0 1 0 1 4 0 1 2 1 0 0 1 0 1 1 2 2 0 3 0 0 0 0 2 2 2 0 1 1 3 1 0 1 0 2 2 1 0 1 0 1 1 1 1 0 0 1 1 0 1 1 1 3 0 2 0 2 2 0 0 1 0 0 1 0 2 1 0 1 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 2 0 0 1 0 2 0 0 3 2 0 1 1 2 0 0 2 1 1 2 0 1 0 0 1 2 1 2 2 1 2 2 2 1 2 1 0 0 1 2 1 1 1 0 1 1 3 1 1 3 2 1 1 0 1 0 0 2 1 1 2 0 2 0 1 0 2 1 1 1 0 0 0 1 0 0 0 0 1 3 0 2 1 0 0 1 1 0 0 2 0 1 0 2 0 3 1 0 1 2 0 1 0 2 0 2 0 1 0 1 3 1 0 1 0 1 2 0 0 2 1 0 0 0 1 0 0 3 1 2 0 0 0 2 0 1 0 1 1 0 0 1 4 2 1 0 0 3 2 0 0 3 1 0 1 1 1 2 1 0 1 0 0 0 1 1 0 2 1 1 1 0 1 1 1 0 0 1 0 0 1 1 1 0 2 1 1 2 1 2 0 1 0 2 0 1 1 0 2 1 0 1 0 2 0 0 1 1 1 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 1 0 1 2 2 0 1 1 1 2 1 0 0 0 2 1 1 0 1 0 0 0 0 0 3 1 0 0 2 0 0 0 1 1 1 2 0 1 1 0 1 1 0 1 0 2 1 2 1 2 0 0 2 1 0 2 1 0 1 3 0 0 1 1 0 1 0 2 1 0 1 1 1 1 0 1 0 0 0 2 1 2 1 0 0 2 1 2 0 1 0 2 0 0 1 1 2 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 2 0 1 2 1 2 1 0 1 1 0 2 0 1 2 0 1 1 0 1 1 2 1 1 1 1 0 2 2 2 1 2 1 0 0 1 0 1 1 0 1 0 1 1 0 2 0 1 0 3 0 1 2 0 1 2 2 1 1 1 0 1 0 0 0 0 0 1 1 1 2 0 2 2 1 2 2 0 1 2 0 0 1 1 2 4 0 0 1 1 2 0 0 1 0 3 2 0 1 2 0 0 0 0 0 2 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 3 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 1 3 0 0 2 0 0 2 1 0 0 0 2 0 1 1 0 2 1 1 3 2 0 0 0 1 1 0 1 1 1 0 2 1 0 1 0 2 1 1 1 2 1 0 2 0 0 1 0 1 0 2 0 1 0 0 0 4 1 2 1 1 0 2 1 0 0 0 2 1 0 1 1 1 0 1 1 0 1 0 0 1 2 1 0 0 0 1 0 2 1 1 0 0 1 1 0 0 1 1 1 1 0 1 0 2 0 1 0 2 2 0 1 2 0 1 1 1 0 0 2 0 1 1 0 0 1 0 1 0 1 1 0 2 3 1 2 0 1 1 0 1 1 1 3 1 2 0 0 0 1 2 3 1 2 1 1 1 0 1 0 0 2 1 0 0 0 1 0 3 0 0 2 0 2 0 2 0 2 0 2 0 1 2 0 1 2 0 2 1 1 3 1 1 0 0 1 0 0 1 0 0 1 0 0 1 3 1 0 0 1 0 1 0 0 2 3 1 0 0 0 3 0 0 2 0 1 0 0 1 2 2 0 1 1 1 1 0 0 1 0 0 2 1 1 0 1 0 0 0 0 1 0 1 2 0 2 0 0 0 2 1 0 1 2 2 2 0 0 0 0 1 1 1 0 2 1 1 0 1 0 0 1 0 1 1 0 1 0 1 3 0 0 1 2 0 1 0 0 0 3 1 2 2 0 2 0 1 0 1 1 1 1 0 0 1 0 1 2 1 2 1 0 1 0 1 3 1 0 1 0 0 0 2 0 1 2 0 1 1 0 2 1 2 1 1 0 0 0 0 2 0 0 0 0 2 0 0 0 1 2 3 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 1 1 2 1 1 1 1 1 1 2 1 0 0 1 1 0 1 0 1 0 2 2 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0 1 1 0 0 1 1 1 3 0 0 1 1 1 1 0 0 2 0 1 1 0 1 0 0 1 1 2 2 0 0 0 0 0 2 0 1 2 1 1 1 1 2 0 0 0 1 0 1 0 1 1 0 1 0 2 0 1 1 0 1 2 1 1 3 1 1 1 1 2 1 1 1 0 0 2 1 2 0 1 0 1 0 1 1 1 0 1 2 0 0 0 0 1 1 0 1 0 1 2 1 1 1 1 1 1 1 2 1 2 1 1 1 0 1 1 1 0 1 1 0 0 3 2 0 1 1 0 2 2 0 0 1 1 0 0 1 0 1 0 0 0 0 2 2 1 0 1 0 0 0 1 1 1 1 0 0 1 0 1 0 1 0 2 1 0 2 0 0 0 2 0 1 2 0 0 0 0 3 2 0 2 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 3 0 0 1 0 3 2 1 1 1 3 0 0 4 2 2 2 1 0 0 0 0 0 2 1 0 0 2 1 1 0 0 1 1 1 1 1 0 0 2 0 1 0 0 2 0 0 1 2 0 1 1 3 2 2 0 0 0 1 2 1 3 2 0 0 0 0 2 1 1 0 1 0 0 0 2 1 1 1 0 1 0 0 0 1 0 0 2 2 1 1 0 1 0 1 1 1 1 0 0 1 0 0 0 3 3 1 0 0 1 1 1 0 4 0 2 0 0 0 0 1 1 1 2 0 1 2 1 1 0 2 1 0 2 1 2 0 1 0 0 3 0 1 1 1 0 0 2 2 0 1 1 2 1 0 1 0 1 0 0 0 1 2 2 3 2 0 1 1 0 1 0 1 2 3 3 1 3 1 2 0 0 0 1 1 1 1 0 1 0 1 0 0 2 1 0 1 2 1 0 0 1 1 2 1 2 1 0 1 1 2 2 1 0 1 1 2 2 2 0 0 0 0 0 0 0 1 0 0 0 0 3 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 3 1 1 0 0 1 0 1 1 0 1 0 0 1 2 1 1 1 0 1 1 1 0 1 1 0 2 2 2 1 0 1 1 2 0 2 1 1 1 0 0 1 0 1 0 1 2 1 1 0 1 2 0 1 1 1 1 1 1 1 0 1 1 1 2 1 1 0 2 1 1 0 0 1 0 2 0 1 0 1 1 1 0 1 1 1 0 1 0 2 1 2 0 2 1 1 1 0 1 0 1 2 0 1 2 1 1 1 1 0 1 2 0 0 1 2 2 1 1 0 1 1 2 0 0 0 1 0 1 2 1 0 1 0 2 0 0 1 1 0 1 0 1 0 2 0 0 1 0 0 0 0 0 1 0 2 1 2 2 1 0 3 2 2 0 0 0 0 1 1 1 0 0 0 0 1 1 2 0 1 1 1 1 1 1 2 2 0 0 2 1 1 1 0 2 0 0 1 0 0 2 0 1 1 0 0 1 0 2 0 1 1 1 0 1 1 0 2 0 1 0 0 0 0 1 0 0 0 3 1 0 2 1 0 1 0 1 2 0 0 0 0 1 1 1 0 1 1 0 4 1 2 0 4 0 0 1 1 2 2 0 1 2 2 1 1 2 1 3 0 1 2 0 0 2 0 0 1 1 2 0 2 0 1 0 1 1 0 0 1 2 1 3 1 1 1 1 1 0 0 1 1 0 0 2 1 1 0 2 0 1 0 1 1 0 0 1 1 1 1 1 0 2 1 1 1 0 0 2 1 0 0 0 1 0 0 2 1 0 0 0 0 1 0 2 0 1 0 0 3 2 1 0 0 0 0 2 1 0 1 0 0 0 0 0 1 2 1 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 0 0 1 3 1 1 2 1 0 0 1 0 2 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 2 0 0 1 3 1 1 1 2 3 0 1 1 0 0 1 0 0 1 3 1 0 0 1 1 1 1 1 0 0 0 0 0 0 3 1 1 0 1 0 2 0 0 2 0 1 2 1 1 1 0 1 0 1 0 0 0 1 2 0 0 1 0 2 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 1 1 0 2 2 2 1 1 0 2 1 1 0 1 0 1 1 0 4 0 1 0 0 0 0 2 0 0 1 0 1 2 2 1 1 1 1 0 1 1 0 1 2 1 1 0 0 3 0 1 0 1 0 0 1 0 0 1 2 0 1 2 0 0 3 2 0 1 2 0 0 1 0 1 2 0 1 2 1 0 2 2 2 0 0 2 1 0 2 0 1 3 0 3 1 2 1 1 2 1 2 0 1 0 2 0 2 0 0 2 0 0 1 1 1 1 2 0 0 0 1 0 1 0 1 1 1 1 2 0 2 1 1 0 1 1 1 1 1 0 3 0 0 1 1 2 2 1 1 1 0 1 0 0 2 1 1 1 1 1 3 0 1 0 0 0 1 1 1 1 2 0 2 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 1 3 2 2 1 0 2 1 3 0 0 1 2 1 0 2 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 2 2 0 0 1 1 1 1 0 1 0 1 0 0 2 0 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 2 0 0 1 1 0 0 0 0 2 1 0 2 1 1 3 2 0 1 1 0 1 2 3 0 1 0 2 1 0 1 0 1 0 0 2 0 1 0 0 1 0 1 0 0 2 0 1 1 1 2 1 2 2 1 1 1 0 0 0 1 1 5 0 1 0 1 1 0 2 0 2 0 2 0 0 0 2 1 0 0 0 1 1 0 0 1 0 2 0 2 0 1 1 1 0 0 0 0 0 0 1 2 1 1 1 1 1 0 1 1 2 1 1 3 2 1 0 2 1 2 1 2 2 1 2 0 0 1 1 1 3 1 0 0 0 1 1 2 0 1 1 3 1 1 0 1 1 2 0 0 0 1 0 0 0 0 1 1 1 2 0 2 0 1 0 2 1 1 1 1 1 3 0 1 3 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 1 1 2 0 2 3 0 1 1 4 0 2 0 1 1 0 1 1 1 0 1 0 2 0 1 1 0 1 0 1 1 3 0 1 1 1 0 0 0 1 0 0 0 2 0 1 0 1 1 0 1 0 0 0 0 2 0 0 0 1 0 0 2 0 2 0 0 0 2 1 0 2 3 0 2 1 0 1 2 1 0 1 1 1 0 0 0 0 0 1 1 1 1 0 3 1 0 2 3 0 0 0 1 1 1 0 0 1 1 0 3 1 1 0 0 0 0 0 1 0 0 0 1 2 1 1 2 2 0 1 1 0 2 0 0 1 3 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 1 3 0 1 2 1 0 2 0 1 3 2 1 2 2 1 0 0 0 0 1 2 1 0 2 1 1 0 0 0 1 1 4 1 0 0 1 1 0 0 1 2 0 1 1 0 1 0 1 1 1 0 0 1 2 1 1 0 1 1 0 1 0 0 3 0 1 0 1 2 2 1 0 0 2 1 0 1 0 1 0 0 2 0 2 2 0 2 1 0 0 1 0 2 0 2 0 2 1 2 1 1 1 2 1 0 1 0 0 1 1 0 0 1 0 1 2 0 2 1 0 3 0 0 1 1 2 2 0 0 0 0 2 2 0 0 1 0 0 4 0 0 1 1 2 3 0 0 0 0 2 1 1 1 0 0 3 2 1 0 1 2 1 1 2 0 2 2 1 1 0 0 0 0 1 0 1 2 0 2 1 0 1 0 0 0 0 1 0 1 1 1 0 1 3 1 0 0 1 2 0 0 0 0 0 0 1 1 0 1 0 0 2 1 0 0 1 0 1 1 0 0 2 0 3 3 0 0 1 2 1 0 2 1 2 1 2 1 1 1 1 2 0 0 2 1 1 1 1 1 0 1 1 0 1 1 2 0 0 0 0 0 1 1 1 1 0 2 0 1 0 1 0 3 1 1 0 1 0 0 0 0 1 0 2 2 1 2 1 0 1 1 0 2 1 2 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 2 3 0 0 0 2 1 0 0 0 2 2 0 0 0 0 0 1 0 1 1 1 2 1 0 0 0 1 2 0 1 0 1 1 0 2 2 1 0 1 1 0 1 2 1 3 0 0 0 0 0 2 1 0 0 0 1 0 1 1 1 0 0 2 1 1 0 0 2 2 2 0 2 0 0 1 0 1 0 0 0 0 2 2 2 1 3 1 1 1 1 2 1 0 0 2 1 2 0 1 0 1 1 0 1 1 0 1 0 0 0 2 1 2 1 2 0 2 1 1 1 0 1 1 0 0 1 1 0 2 2 0 1 0 1 2 0 0 3 2 0 1 1 1 1 1 0 0 0 1 1 1 1 0 0 1 2 0 2 0 2 1 1 1 1 1 2 2 1 1 0 0 4 1 2 0 1 1 1 0 0 1 0 1 0 1 1 1 1 0 1 0 0 2 1 0 1 0 0 1 1 2 0 1 0 0 1 0 1 0 0 0 0 1 0 1 1 1 1 1 0 1 0 0 0 1 2 0 0 0 0 0 0 3 0 1 1 0 0 0 0 0 1 1 2 0 0 1 0 1 2 1 0 0 0 1 1 0 0 0 2 0 1 0 1 0 1 0 0 0 1 0 1 4 0 0 0 1 0 2 1 0 0 0 0 0 0 0 3 0 1 0 0 1 0 1 2 1 0 0 1 0 0 0 1 0 0 0 1 1 2 3 1 1 1 0 0 1 1 2 0 0 1 0 1 0 0 0 1 1 1 0 2 0 0 1 1 3 0 2 1 0 2 0 0 1 2 0 1 2 2 1 0 1 0 1 1 1 0 0 2 1 1 1 3 0 2 2 0 1 2 2 1 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 1 0 0 0 2 2 0 0 0 0 0 0 3 1 1 1 2 0 2 1 1 0 0 0 0 0 0 3 2 2 0 1 1 1 0 1 2 0 0 2 0 1 0 0 3 2 1 0 0 2 0 1 1 1 1 0 1 1 0 1 0 0 3 2 0 0 2 1 1 3 1 1 0 1 0 3 0 1 1 2 1 0 1 1 2 1 1 0 2 2 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 1 1 1 0 2 0 1 2 0 0 0 1 0 3 0 0 2 1 2 1 1 0 1 1 1 3 1 1 1 0 1 1 3 0 1 1 1 2 1 2 0 3 1 1 2 1 1 1 0 1 1 1 2 1 0 0 0 0 0 4 1 0 0 2 1 1 1 0 2 1 1 1 2 0 0 0 1 2 1 0 1 0 0 1 0 2 1 1 2 1 2 2 1 1 0 0 1 1 1 0 0 0 2 1 1 2 1 0 0 2 2 0 3 1 0 1 0 2 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 2 0 0 1 2 1 0 0 0 1 2 1 1 3 1 1 1 0 1 0 2 1 0 0 2 0 0 0 1 0 0 0 0 3 1 2 1 0 0 1 1 1 2 0 1 1 1 0 1 3 0 1 0 0 0 0 1 1 1 0 0 0 2 0 1 1 1 1 2 2 0 1 1 2 1 4 0 0 0 0 3 0 1 1 0 2 1 0 0 0 0 0 0 0 3 2 0 0 0 0 1 1 0 0 1 1 1 0 0 0 2 0 0 2 2 0 1 1 1 1 3 2 1 0 1 1 0 0 0 3 0 0 0 2 0 0 1 0 2 0 0 0 1 0 0 2 2 1 1 1 0 0 2 1 0 1 0 0 1 0 2 0 0 2 0 3 0 1 0 1 1 0 1 1 2 0 0 1 2 0 2 1 1 0 0 1 1 1 1 0 2 1 1 2 1 1 1 1 0 1 1 1 0 1 0 0 1 0 0 1 1 1 0 0 0 1 2 0 2 0 1 1 0 3 1 2 1 0 1 0 1 1 0 1 1 2 1 1 1 0 0 0 2 2 1 0 2 2 1 1 0 0 1 2 1 0 0 1 4 0 1 1 2 3 0 2 0 0 0 0 0 1 3 0 2 1 1 0 1 1 0 1 1 2 1 1 1 0 0 2 1 1 0 0 1 0 1 2 1 0 1 1 1 2 0 1 0 0 0 0 0 4 0 2 1 0 0 1 0 1 1 1 0 0 0 1 1 1 1 0 0 0 2 3 0 1 2 0 1 0 1 0 0 0 1 1 0 3 1 1 0 0 0 2 1 0 2 0 2 0 3 2 1 3 0 1 0 1 1 2 0 0 1 2 2 1 1 0 0 1 1 0 2 1 1 2 2 0 1 1 0 1 4 1 0 2 3 2 1 2 2 0 0 0 2 0 0 1 0 0 0 1 0 1 1 1 2 0 0 0 3 0 1 0 1 0 0 0 1 0 1 0 1 0 3 4 0 0 1 1 3 2 1 0 0 0 0 1 0 0 0 0 1 1 0 1 3 0 2 1 3 1 0 3 0 1 1 0 0 1 1 1 0 0 1 3 1 5 1 1 1 1 1 0 2 1 2 1 1 2 1 0 0 0 0 1 1 0 0 2 0 0 1 1 0 0 1 0 0 0 1 1 2 3 0 0 2 0 1 0 1 2 2 2 1 0 1 1 1 0 0 1 0 1 2 3 1 0 1 2 1 0 2 1 1 1 0 1 0 0 0 2 1 1 1 0 1 1 0 0 0 0 1 1 0 2 2 1 0 0 0 0 0 5 0 1 1 0 1 1 0 1 0 4 1 1 0 2 1 2 0 1 1 0 1 1 1 2 2 0 1 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 3 0 0 2 1 1 0 1 1 1 0 0 0 2 0 0 1 0 1 2 0 0 0 1 1 0 1 1 2 3 3 1 0 2 2 1 1 2 0 0 1 0 0 1 1 1 0 1 1 1 1 1 1 0 0 0 1 0 0 1 2 0 0 1 3 0 1 0 1 0 0 1 1 0 0 1 2 0 1 1 0 1 2 0 2 0 2 0 1 0 2 1 1 1 0 0 1 0 2 0 0 2 0 2 1 0 0 0 1 2 0 0 0 0 1 1 0 3 0 3 1 1 0 2 1 1 0 2 2 0 1 1 1 1 1 1 0 0 0 2 0 2 0 1 3 0 0 0 0 2 1 1 1 0 1 0 2 1 1 1 0 1 0 1 2 1 1 1 1 0 1 1 0 0 0 1 0 0 2 2 1 2 1 0 1 2 1 0 1 0 1 1 3 1 1 1 1 0 3 0 1 0 1 0 1 0 1 1 1 1 2 0 0 1 0 1 0 0 0 2 1 0 1 1 2 1 1 1 0 1 0 1 1 2 0 1 0 0 0 1 2 4 1 0 0 0 0 0 0 1 2 1 0 0 0 1 1 0 1 0 0 1 3 1 1 1 1 3 0 0 1 1 1 1 0 1 2 1 0 1 1 1 1 1 0 1 0 2 0 1 0 0 0 2 0 0 0 0 1 2 1 0 2 2 1 0 0 1 0 1 1 1 0 1 0 0 1 0 0 2 1 1 0 1 0 2 3 1 0 3 0 1 2 1 0 1 2 0 4 2 0 1 0 0 2 0 0 1 1 2 0 0 1 1 1 1 0 1 1 2 2 0 0 0 2 1 1 0 0 0 1 2 1 0 0 0 0 1 0 2 1 0 0 1 1 1 1 1 0 1 1 0 3 1 0 0 0 1 0 0 3 1 0 0 1 1 2 0 2 1 1 0 0 1 0 1 1 0 1 0 1 1 0 0 0 2 0 1 1 0 2 0 1 3 0 0 0 1 1 0 0 1 0 0 2 1 1 0 1 1 0 1 0 2 0 2 1 0 1 0 1 0 1 1 1 1 0 0 2 3 1 0 1 0 0 1 0 3 0 1 0 1 0 0 1 0 2 1 1 2 0 1 0 0 0 1 1 1 1 1 0 0 2 0 1 0 1 0 0 0 0 1 0 2 0 2 1 1 0 1 1 2 1 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 1 2 1 0 0 1 3 1 1 2 3 0 0 0 2 2 0 1 0 1 0 1 0 0 0 1 0 1 1 0 1 2 0 1 2 2 1 1 0 0 2 1 1 0 0 2 1 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 3 1 1 0 1 0 2 1 0 0 2 2 0 1 2 0 0 1 0 2 0 3 1 0 0 0 1 1 0 1 1 1 1 2 0 1 0 0 0 1 2 3 0 0 0 1 0 2 3 1 1 0 0 0 4 1 1 1 1 0 1 0 4 0 0 1 1 0 4 0 1 3 0 2 1 3 1 1 2 0 0 0 1 1 0 1 2 1 0 1 0 1 1 0 2 1 1 0 0 2 0 1 0 1 0 1 0 1 1 0 1 2 1 1 2 1 0 1 0 1 0 1 2 1 1 2 1 0 2 0 1 2 1 1 1 2 1 0 3 0 1 1 1 2 0 1 2 0 1 1 0 4 2 0 0 1 0 0 1 0 0 2 0 1 0 0 1 0 2 2 0 3 0 1 1 2 2 0 1 1 2 0 2 1 1 0 0 1 0 1 1 1 2 2 0 0 2 1 0 3 1 1 0 0 1 1 4 1 0 1 1 2 0 0 2 1 1 0 0 3 0 1 3 0 0 0 0 0 2 0 2 1 0 2 2 0 3 0 1 1 1 1 0 0 2 0 2 2 1 1 2 0 0 1 0 0 0 1 0 2 0 1 0 1 1 2 1 1 0 0 0 0 1 1 1 0 1 0 0 1 2 0 0 0 1 1 0 2 1 2 0 1 0 0 1 1 1 0 1 0 1 1 2 0 0 2 0 0 2 2 0 2 1 0 1 1 0 1 0 0 1 1 2 0 1 0 1 2 0 0 1 1 1 1 1 1 2 0 1 2 2 0 1 0 1 2 0 0 0 0 2 0 2 1 2 0 1 1 1 1 1 0 2 1 0 0 0 1 2 0 1 0 0 0 2 0 0 0 1 1 1 0 0 1 1 1 0 0 0 0 2 1 1 2 1 0 0 0 0 0 0 3 0 2 0 0 2 1 2 0 0 0 0 0 1 1 1 2 1 1 0 3 0 0 2 1 0 1 1 0 4 1 2 2 0 0 2 3 1 2 2 1 0 2 0 0 0 3 2 0 1 0 2 2 1 1 0 0 0 1 1 0 0 0 0 2 1 2 0 0 0 1 0 1 1 0 0 1 2 1 0 0 0 1 2 0 1 0 3 2 0 1 2 1 0 1 0 0 0 1 2 1 0 1 0 0 0 0 1 2 2 0 2 0 0 0 2 1 0 1 0 1 3 0 0 2 0 1 0 2 1 1 1 0 1 2 1 3 0 0 2 0 0 1 0 1 0 1 1 1 0 1 0 1 0 1 1 1 1 2 0 0 1 2 0 0 0 0 0 0 3 1 1 0 1 0 0 2 0 0 0 0 0 0 0 3 0 2 2 2 1 0 1 0 0 1 0 2 1 1 1 0 1 1 4 1 1 0 3 0 0 2 1 1 0 1 1 1 0 1 0 0 0 0 0 0 0 2 1 1 1 2 0 1 1 1 0 0 0 0 0 2 0 0 1 0 0 2 0 0 0 1 0 2 0 1 3 0 1 0 0 0 2 1 0 1 1 1 0 1 2 1 1 1 0 1 0 1 1 0 2 3 0 2 0 2 2 4 0 0 1 1 2 0 0 0 1 1 4 0 1 2 3 0 1 0 0 2 0 2 1 0 2 2 2 1 1 0 0 2 0 0 0 0 2 0 1 0 1 1 1 0 0 1 2 0 0 0 2 2 0 1 0 1 2 2 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 2 2 2 0 1 2 0 1 1 0 0 1 1 1 0 3 0 1 2 2 0 0 1 0 0 0 0 0 3 0 1 1 1 3 1 2 1 0 1 1 0 2 1 0 1 0 0 1 0 0 0 1 1 0 1 0 0 4 0 0 4 0 1 0 3 2 0 0 0 1 1 1 1 0 0 1 0 0 2 0 0 1 0 2 0 0 1 1 1 0 0 1 2 1 1 1 1 1 0 2 0 2 2 0 0 2 1 2 1 1 0 1 1 0 0 1 1 0 1 1 2 0 0 1 2 0 1 2 0 1 0 0 0 0 2 1 0 0 1 1 2 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 1 1 0 0 3 1 0 3 1 0 2 0 2 1 1 0 1 0 1 0 2 0 1 2 2 1 0 0 1 0 0 1 2 1 1 1 0 2 1 0 2 1 0 1 1 1 1 0 1 1 1 0 0 0 1 1 0 0 2 1 0 1 0 0 0 2 0 0 0 1 4 2 0 0 0 0 3 1 3 0 0 0 1 1 0 0 0 1 3 0 0 4 0 1 0 0 1 2 1 0 3 1 1 0 1 1 2 1 2 2 2 0 0 1 0 0 1 0 2 0 0 1 0 1 1 1 1 2 0 1 0 1 1 1 0 2 0 1 2 1 1 1 1 2 0 2 0 0 1 1 0 1 0 0 0 0 0 1 0 1 2 3 3 1 2 1 1 1 0 2 1 0 2 0 2 0 3 1 0 0 2 1 0 1 0 0 1 0 0 0 0 1 2 0 1 1 1 2 2 1 1 1 0 0 1 0 0 1 0 0 1 0 0 2 1 3 1 0 1 1 0 2 1 0 1 1 0 2 0 0 0 1 1 1 1 1 1 2 2 0 2 2 1 1 1 3 1 0 2 1 2 1 3 1 1 0 2 1 1 0 1 1 1 0 0 1 1 4 0 0 2 2 0 2 1 2 0 0 0 1 3 1 0 1 2 0 0 1 2 0 0 3 1 1 0 0 0 0 0 2 2 0 0 0 0 0 1 0 0 1 2 1 2 0 0 2 0 1 0 2 1 1 1 0 1 1 2 0 1 0 2 0 0 0 1 0 0 0 0 2 2 1 0 0 3 1 1 0 2 1 1 0 1 0 3 0 0 1 2 1 1 1 2 2 1 3 0 1 0 0 2 0 0 2 0 2 2 0 1 0 3 1 1 0 1 0 2 1 2 1 0 2 0 0 2 0 1 1 1 1 2 0 1 1 2 1 1 1 0 3 1 0 1 0 1 1 2 1 1 0 0 1 1 1 2 0 2 1 1 1 0 0 1 0 0 1 0 0 0 0 2 1 1 1 0 1 0 1 0 1 2 2 0 1 1 1 1 2 0 4 1 1 1 1 0 0 1 0 1 0 1 0 2 0 0 2 1 0 1 2 0 1 0 1 0 0 0 0 1 0 0 3 2 2 1 0 0 0 0 1 2 1 0 1 1 2 0 0 2 1 2 1 1 3 0 2 0 1 3 2 2 1 2 2 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 3 2 0 3 0 3 1 0 2 1 1 0 0 2 1 1 3 0 2 2 0 2 1 1 1 1 2 0 1 1 1 0 2 0 0 1 2 0 1 1 2 1 0 1 1 1 1 2 2 1 0 3 0 1 1 0 0 0 0 1 1 2 0 2 1 2 1 0 1 1 1 1 2 1 1 2 1 0 0 2 0 0 1 1 1 0 3 0 0 0 1 1 1 0 0 1 1 0 0 1 1 0 1 1 0 1 0 3 1 0 1 1 2 0 0 1 1 0 1 0 2 0 1 4 2 0 2 1 0 0 0 3 1 1 1 0 1 1 2 1 0 1 0 1 1 0 0 0 0 0 0 1 2 1 1 2 2 1 0 2 0 1 3 0 3 0 2 1 1 1 2 0 2 0 0 1 0 1 2 0 1 2 2 1 1 2 2 1 1 0 1 3 1 0 0 1 2 2 3 2 3 0 0 1 0 0 1 1 1 1 1 0 0 0 1 0 1 3 0 0 1 0 1 0 1 1 0 0 0 1 3 0 3 1 0 2 2 0 0 0 0 3 0 1 0 1 0 1 1 2 1 0 1 1 1 1 2 2 0 1 2 1 1 0 0 0 0 1 1 0 0 0 1 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 2 1 1 0 0 0 0 1 0 1 0 0 1 0 2 1 3 2 1 0 1 1 0 0 1 2 1 0 0 1 1 2 3 2 2 0 2 2 3 0 0 0 2 0 2 0 0 1 0 2 1 1 2 0 0 2 1 1 0 1 0 1 2 0 0 3 0 0 0 3 0 2 0 2 1 0 0 2 4 2 1 0 0 0 0 0 1 1 0 0 0 4 1 1 2 0 1 0 0 0 1 1 1 1 0 1 2 2 0 3 1 1 0 1 0 1 1 0 3 1 2 2 3 1 2 2 0 2 0 1 1 1 2 1 1 2 1 2 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 2 1 1 2 1 1 0 2 1 1 0 0 0 3 2 2 1 2 0 1 0 0 0 0 1 0 1 2 1 0 1 3 0 2 0 0 1 3 2 1 1 0 1 0 2 0 1 1 0 0 1 2 0 1 2 1 2 1 0 2 2 0 0 2 0 2 1 1 1 0 0 2 2 0 2 1 0 0 1 1 2 1 0 1 0 0 2 1 1 1 0 1 0 3 0 1 0 1 1 1 0 2 0 0 1 2 0 2 1 1 0 2 0 2 4 0 1 3 0 1 2 2 0 0 1 0 1 2 0 0 2 2 2 2 2 1 0 0 1 0 1 1 0 0 0 0 1 4 1 2 1 1 0 0 0 1 2 1 2 1 2 0 0 0 0 0 0 1 2 0 0 1 0 1 1 1 2 1 2 1 0 0 0 0 3 0 1 0 3 0 0 0 2 2 0 0 1 1 0 1 2 1 0 1 1 0 0 2 0 1 2 0 1 2 1 0 0 0 1 1 1 0 2 2 0 1 0 1 2 2 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 1 1 2 0 3 2 0 1 1 0 1 0 2 0 1 0 1 1 0 0 0 1 1 1 2 0 0 2 1 0 2 0 0 3 0 0 0 1 3 1 0 1 0 0 0 1 2 0 0 2 1 0 1 1 2 0 4 0 2 1 0 1 1 2 1 0 1 2 1 1 2 0 1 1 1 0 0 1 1 1 1 2 0 1 0 0 0 0 1 2 1 1 0 0 1 0 0 0 0 0 0 1 2 0 0 2 2 2 1 1 2 0 1 1 1 0 2 0 0 0 1 1 0 3 1 0 0 1 0 1 1 1 0 0 0 0 1 0 2 1 1 1 1 2 0 0 2 0 1 0 2 0 1 1 1 1 2 0 0 0 2 0 2 0 0 2 0 0 1 1 0 2 1 0 0 1 1 0 0 1 0 0 1 1 0 0 2 0 3 0 2 1 0 2 0 0 0 1 0 2 1 0 0 1 0 0 2 0 0 1 0 3 2 2 0 1 2 0 0 0 0 2 1 0 0 0 2 2 0 1 0 1 0 0 0 1 0 1 3 1 1 2 0 1 1 1 1 0 1 1 2 1 0 1 2 0 0 1 1 1 0 0 0 2 1 1 0 0 0 1 2 0 0 0 1 2 2 1 1 0 0 3 0 0 1 0 0 2 0 0 0 0 1 2 1 0 0 0 0 1 1 1 0 1 0 2 0 1 3 1 1 0 2 2 1 1 2 0 2 2 0 1 0 1 0 1 1 1 2 1 0 1 1 1 0 2 1 0 0 0 3 3 2 2 0 1 1 1 1 2</t>
   </si>
   <si>
     <t>Name</t>
@@ -213,12 +213,12 @@
     <t>K.Blanton</t>
   </si>
   <si>
+    <t>B.Hopkins</t>
+  </si>
+  <si>
     <t>J.Mundt</t>
   </si>
   <si>
-    <t>B.Hopkins</t>
-  </si>
-  <si>
     <t>M.Sargent</t>
   </si>
   <si>
@@ -258,52 +258,52 @@
     <t>M.Gay</t>
   </si>
   <si>
-    <t>JSB(11.02789320996354, 7.161080412757617, -48.51678943121449, 377.4931460312888)</t>
-  </si>
-  <si>
-    <t>10 10 26 7 18 14 24 12 10 13 12 14 21 18 6 32 16 30 17 10 26 17 27 10 17 25 13 20 19 20 26 7 10 16 12 39 23 13 25 24 10 21 23 16 35 7 23 17 23 17 14 10 23 24 19 17 20 24 29 28 51 8 16 21 14 11 16 12 9 17 10 10 25 13 17 23 14 14 25 27 6 24 15 24 12 16 13 20 31 22 10 10 13 28 12 28 6 7 13 27 31 10 19 24 13 3 34 17 16 21 9 19 19 16 7 28 7 15 22 34 21 15 10 20 19 26 7 13 20 19 17 18 10 23 14 5 24 20 20 20 9 14 23 7 17 27 12 20 13 24 10 13 35 30 19 16 22 17 20 38 33 12 27 20 15 16 12 22 17 10 27 45 23 13 31 24 7 10 21 7 21 24 22 27 27 7 21 13 7 33 3 10 16 21 17 10 23 16 20 14 20 14 16 27 13 21 23 17 17 6 23 7 15 19 41 15 17 34 17 26 16 20 14 27 17 10 25 13 0 12 14 14 23 27 7 33 7 20 15 22 17 24 24 0 16 17 13 9 20 15 19 27 22 26 10 28 9 7 19 15 7 20 22 24 21 22 12 23 21 10 17 10 10 22 20 26 15 8 12 16 6 6 17 16 33 37 9 21 19 20 31 16 35 13 18 15 24 17 10 23 20 15 21 19 9 21 13 27 21 13 17 9 22 18 12 23 14 21 14 22 23 7 24 28 19 19 21 13 7 16 15 29 27 16 20 19 21 14 12 16 24 13 17 13 23 17 7 16 27 24 14 13 14 14 34 6 16 17 15 3 13 29 17 9 23 23 16 20 10 10 23 20 14 30 27 9 24 20 20 13 16 19 14 6 3 9 24 17 13 22 14 14 16 13 34 7 6 17 9 16 23 16 17 10 34 31 16 17 14 17 22 17 23 16 3 12 21 24 17 13 10 12 10 10 10 10 12 13 16 14 14 27 20 6 9 31 31 26 34 27 21 17 38 26 24 15 9 10 19 30 31 13 16 17 30 17 31 14 21 7 23 22 7 13 17 18 38 21 22 10 14 24 10 30 20 17 13 17 18 23 13 23 31 24 14 28 26 17 13 31 13 3 16 7 20 31 15 24 22 15 15 21 20 23 13 16 28 13 23 23 20 30 12 24 12 18 38 9 24 13 6 17 27 28 26 21 26 24 24 14 13 22 23 16 21 19 12 20 10 23 28 17 10 13 3 15 20 23 28 10 17 24 17 14 23 10 25 17 22 20 23 16 28 27 34 35 12 24 29 24 25 19 10 24 16 24 22 25 23 17 21 26 17 14 3 17 27 17 7 9 9 13 12 27 14 31 19 24 9 24 19 26 18 12 6 24 16 14 16 20 27 24 10 26 16 27 10 6 19 8 17 14 20 14 13 24 14 17 17 24 17 30 21 6 15 6 15 15 10 6 16 12 11 16 17 13 21 0 17 10 16 23 21 22 21 0 10 6 16 20 27 34 28 23 10 14 12 26 29 16 28 16 20 6 27 24 22 15 23 25 30 23 38 38 27 16 23 14 9 10 13 24 16 20 13 6 26 26 17 30 12 30 20 23 14 25 12 37 19 34 27 13 15 14 16 31 21 20 13 18 21 20 7 17 3 7 31 16 22 20 21 7 30 22 28 19 40 16 24 20 16 8 38 20 20 16 14 23 18 6 28 34 26 20 19 24 6 17 20 23 33 16 16 15 20 16 24 31 0 3 24 14 31 6 23 20 27 37 20 28 13 24 23 20 21 34 7 19 7 13 23 14 10 13 28 14 24 17 20 27 25 10 24 24 9 17 9 24 6 10 19 21 19 23 10 13 11 34 23 13 13 15 17 24 27 24 3 14 13 10 20 16 20 16 31 18 20 27 24 15 31 12 27 17 14 16 24 20 10 20 21 28 17 3 21 31 27 17 28 7 19 18 19 13 21 26 17 10 27 19 13 27 15 21 27 17 0 23 7 13 17 23 14 22 28 22 7 13 17 18 17 12 21 17 29 20 27 17 17 23 15 17 10 16 13 14 17 10 21 32 24 19 31 12 20 3 24 10 13 13 10 10 6 3 12 21 13 14 24 0 17 20 26 29 0 13 25 23 21 11 14 24 32 20 30 16 17 30 17 16 17 38 22 17 12 21 20 13 19 17 14 20 23 27 20 23 30 17 27 0 20 9 9 31 28 21 12 28 16 10 23 17 24 3 16 21 21 15 9 30 17 33 15 16 24 22 24 13 26 24 13 14 22 20 27 16 13 26 20 27 29 20 24 20 17 34 13 18 17 21 15 22 17 20 10 10 17 15 14 7 17 20 6 27 24 31 20 42 16 14 26 35 21 21 31 33 26 33 17 9 23 17 20 17 20 30 17 14 6 16 14 25 34 13 7 13 28 7 21 13 13 16 22 10 20 0 7 19 5 14 22 16 27 18 10 27 17 10 17 15 17 28 26 9 12 14 17 24 20 26 6 19 14 18 26 21 22 19 12 23 13 9 27 6 31 6 24 12 20 10 37 13 30 31 21 22 16 22 3 27 25 17 10 27 23 17 13 24 16 20 32 15 10 13 17 16 24 19 19 27 10 21 6 20 22 30 6 25 21 15 27 19 27 13 9 13 16 23 24 16 21 21 23 20 6 20 21 20 27 19 9 10 16 24 16 21 14 38 16 30 16 16 18 29 21 10 8 9 23 29 20 18 24 16 16 20 10 20 25 14 19 17 20 8 7 19 30 10 6 20 21 23 25 17 17 14 31 25 11 24 13 16 19 21 13 24 10 6 10 14 16 22 13 31 24 14 10 20 21 13 13 23 21 7 28 27 14 11 19 9 24 14 15 10 20 10 24 22 24 31 14 23 15 28 16 22 26 20 38 22 21 16 21 27 30 7 20 22 31 31 11 17 18 7 24 6 13 23 21 13 26 12 13 12 13 22 20 27 21 21 8 24 23 20 13 20 7 10 17 27 44 13 7 10 28 10 21 17 14 20 14 17 24 18 23 6 22 18 14 23 15 13 28 17 20 24 18 21 24 14 18 7 20 13 23 31 13 21 19 6 0 13 5 27 33 23 28 29 10 28 6 14 23 19 20 14 3 26 24 29 25 28 15 16 24 13 16 34 3 17 28 13 24 17 15 20 20 20 1 10 16 7 10 7 20 8 10 12 28 28 16 18 33 17 17 31 20 7 24 13 17 30 20 14 24 20 7 20 41 20 19 22 12 10 6 33 9 16 24 9 19 17 24 12 24 20 6 16 20 24 31 21 21 20 6 17 13 14 27 6 16 27 21 17 14 21 19 9 28 23 7 13 42 23 17 16 20 17 14 17 30 16 18 9 31 6 13 17 16 35 27 13 21 9 31 13 28 34 21 17 18 31 17 10 15 10 16 16 21 23 16 13 13 14 21 10 27 13 31 27 21 17 18 28 19 3 10 16 6 16 21 10 26 21 14 22 17 16 20 27 27 13 18 17 38 19 23 13 9 37 16 10 19 9 20 8 31 2 20 20 10 27 18 14 0 19 32 17 3 13 10 10 20 14 17 19 21 10 28 20 13 14 31 13 15 14 12 16 37 27 12 3 31 17 3 9 30 14 16 16 20 14 13 24 13 8 30 22 19 31 27 21 10 10 17 15 28 17 14 20 13 6 19 9 35 10 15 7 10 24 37 13 14 20 20 7 18 10 21 37 5 8 18 14 10 41 24 32 15 23 13 28 33 20 12 21 13 13 18 29 10 14 13 25 10 30 13 17 36 17 23 27 14 10 14 17 15 19 13 14 24 28 28 20 10 23 28 17 29 27 20 3 14 25 24 34 20 18 31 6 7 22 24 22 10 10 17 10 13 31 17 14 13 17 19 23 29 14 30 16 30 19 30 12 10 17 7 38 23 34 14 10 14 24 6 20 23 29 13 13 20 23 20 29 17 27 21 7 24 19 23 10 21 16 9 17 16 20 26 16 19 22 34 23 24 21 34 9 15 40 10 34 17 14 13 23 20 15 14 16 15 23 17 30 24 17 21 16 13 23 11 31 3 20 17 21 17 23 6 29 19 17 16 6 28 26 9 19 21 21 20 20 38 30 23 15 10 23 8 3 14 28 13 17 34 16 26 20 3 14 24 8 14 14 28 19 19 7 24 19 22 20 12 12 21 24 31 14 13 20 17 21 17 17 16 21 20 20 7 12 16 13 7 21 16 18 0 17 6 10 17 7 6 10 44 6 16 31 3 8 13 34 3 20 13 13 14 0 7 24 20 19 16 6 21 16 3 23 7 37 15 31 21 10 22 24 17 10 21 13 7 31 10 10 33 17 20 27 7 13 13 10 29 14 20 20 9 21 28 24 28 28 26 13 9 17 23 10 21 12 13 19 19 24 7 6 20 13 23 3 27 10 12 7 14 16 23 13 21 24 16 18 23 13 17 17 13 3 7 31 29 17 10 13 31 24 28 37 14 22 7 14 17 10 14 17 14 15 27 27 14 13 23 7 14 19 26 9 23 28 6 21 10 20 36 21 24 21 10 14 13 10 28 10 41 27 10 16 3 16 17 32 33 17 23 16 27 31 24 27 21 29 18 23 24 45 19 29 13 20 14 23 14 19 14 11 40 17 11 10 23 23 12 19 16 14 19 12 15 16 17 16 30 17 44 27 20 12 20 13 13 6 30 32 13 18 31 14 17 27 24 10 20 31 31 31 13 27 20 27 24 10 22 19 20 12 13 28 20 18 12 21 13 13 13 21 28 17 10 27 17 16 21 13 13 23 28 21 24 31 3 15 20 16 16 20 11 30 7 16 23 3 23 29 15 19 19 13 20 22 3 19 36 21 28 16 13 21 17 10 16 30 9 5 3 23 20 29 27 24 16 11 27 19 28 14 20 13 30 9 13 9 41 21 18 30 39 10 19 23 16 17 22 24 21 17 7 16 15 27 0 10 9 27 17 20 14 17 13 9 20 16 16 21 14 21 12 27 9 24 24 19 20 30 30 17 6 31 41 14 19 36 14 24 24 24 24 10 10 16 24 13 7 26 3 15 30 30 15 23 20 34 10 7 17 14 24 12 23 24 17 10 9 38 13 20 20 23 15 9 22 16 22 14 16 16 20 14 13 10 21 13 14 27 19 21 6 12 22 7 27 33 6 3 17 10 23 16 9 23 16 34 19 27 19 20 13 29 14 27 20 17 27 24 29 23 6 23 13 19 6 13 17 21 23 27 14 9 21 22 6 16 6 13 23 7 19 17 21 13 17 23 7 14 6 13 17 34 22 9 21 10 22 24 40 27 12 23 10 17 24 21 30 10 21 22 18 14 13 21 20 13 17 20 7 9 22 17 16 21 13 17 24 24 17 16 14 10 22 12 26 13 12 31 23 13 38 21 27 24 13 10 17 14 8 13 34 17 36 0 22 28 13 17 28 24 16 23 10 27 11 14 24 10 6 9 14 6 28 17 17 17 17 27 6 21 27 17 6 6 26 33 34 27 17 21 20 10 19 31 16 19 16 28 3 10 19 16 10 14 14 10 16 11 30 20 6 21 38 21 13 3 11 10 21 17 14 20 20 33 23 27 14 16 13 14 20 24 10 23 18 27 9 11 21 26 0 20 13 29 7 15 15 20 12 27 20 18 9 19 12 25 21 10 13 3 21 23 10 33 17 26 21 17 12 16 19 6 21 13 20 15 23 10 28 28 16 10 34 14 16 17 7 29 10 27 13 3 9 16 20 20 7 13 23 19 28 27 9 14 27 6 10 22 13 3 20 14 11 24 16 27 27 17 34 20 7 10 23 3 17 17 27 16 20 6 15 10 23 3 3 19 27 28 20 22 21 17 24 18 13 29 9 15 13 13 20 17 20 20 11 7 7 28 18 18 16 10 18 25 14 12 29 23 16 7 22 17 10 14 23 31 24 19 23 15 6 24 13 24 13 21 9 20 14 30 24 20 17 23 24 24 13 20 10 19 23 16 9 24 34 31 3 26 17 20 13 10 7 10 19 30 30 12 6 14 24 30 36 15 30 17 14 29 3 3 27 28 24 18 6 18 12 26 24 20 27 26 17 17 19 34 23 31 13 16 24 29 10 16 3 20 20 20 16 20 30 25 0 10 32 20 9 10 16 13 16 16 20 20 19 3 20 20 13 27 14 23 20 3 18 13 25 20 20 17 10 37 31 21 17 10 17 14 24 17 19 45 6 13 28 27 25 20 7 13 16 6 40 24 20 24 17 5 24 17 15 10 15 25 14 13 35 21 21 21 17 20 17 31 14 37 21 26 19 27 18 28 14 20 24 14 22 31 6 17 21 6 9 27 17 16 13 17 24 10 20 35 31 10 7 20 9 24 14 10 16 14 30 18 21 21 16 21 19 34 27 14 7 7 21 31 13 13 16 41 26 23 24 17 20 21 13 17 25 17 13 9 13 27 7 3 20 13 20 23 20 14 13 7 17 16 9 20 17 52 31 28 19 22 20 24 24 27 21 6 9 14 7 29 29 12 6 26 17 31 24 23 15 13 19 27 13 20 18 27 16 20 19 20 13 20 20 8 17 17 22 10 13 14 24 19 20 20 12 20 38 13 20 10 27 29 13 17 19 10 21 24 23 13 10 21 16 16 14 15 14 8 14 16 17 6 16 16 29 13 10 22 27 24 13 15 10 27 6 9 15 17 24 13 24 18 28 14 20 20 17 21 27 17 31 27 18 14 20 23 13 27 14 17 17 17 24 20 14 3 7 20 14 20 10 13 23 23 24 25 20 20 3 31 13 3 28 20 20 27 34 24 23 10 13 3 21 19 30 24 14 28 25 14 19 30 29 10 17 13 24 27 13 14 9 30 10 20 16 31 17 23 24 13 10 20 3 19 22 10 21 25 0 15 17 20 25 14 13 20 20 8 27 17 20 9 9 16 12 17 16 31 13 13 26 22 20 9 7 31 20 23 12 27 20 17 28 16 21 10 26 17 27 27 22 19 17 32 27 22 23 6 21 7 13 3 13 16 7 21 11 30 27 23 17 27 13 19 35 31 19 23 30 17 23 24 26 10 16 23 14 17 27 3 6 14 24 3 14 21 9 6 14 34 22 23 16 10 30 23 20 17 20 27 36 24 14 6 10 23 30 17 17 17 21 15 24 23 12 6 18 14 21 13 13 30 23 30 24 20 23 30 23 20 13 20 19 7 23 19 13 17 27 7 34 12 30 21 19 13 20 10 23 23 24 6 24 14 20 26 30 24 12 23 25 23 17 30 34 20 20 17 26 14 14 17 10 13 2 10 21 10 28 23 13 10 19 13 17 9 20 28 31 21 16 16 13 17 25 20 7 6 29 23 27 24 16 14 19 26 21 3 19 29 3 17 23 23 19 27 13 7 20 20 31 23 3 13 28 35 24 16 20 10 16 19 12 21 19 16 12 13 22 24 15 15 13 13 24 17 15 27 20 17 22 13 20 6 17 20 10 13 30 13 13 10 21 24 3 3 26 13 18 0 27 16 13 20 17 10 22 24 23 16 12 6 20 17 7 17 13 20 13 13 13 13 23 13 10 34 21 34 28 34 23 13 14 26 17 6 13 14 13 3 21 12 17 13 7 27 3 24 24 34 18 25 20 6 21 14 8 22 17 3 20 20 7 22 20 11 20 14 9 16 6 11 34 17 21 14 10 12 10 13 24 35 17 20 14 20 16 20 20 33 21 10 23 14 13 24 24 24 21 27 30 13 20 19 16 15 13 28 0 13 30 13 22 28 16 23 14 17 26 21 20 31 17 14 21 20 20 17 20 20 7 13 17 27 20 23 24 23 34 21 26 6 38 14 28 13 16 16 27 33 23 20 27 27 24 17 19 25 14 10 27 10 23 9 20 10 19 23 31 14 34 17 26 10 23 10 16 16 8 13 20 6 16 27 22 13 20 17 20 20 18 27 21 18 24 20 21 6 13 35 20 9 3 12 24 23 19 28 31 28 10 28 7 16 14 22 29 9 23 7 17 26 21 35 12 17 10 28 20 25 17 14 23 21 13 20 23 15 17 14 13 22 14 15 20 21 19 17 12 6 18 10 14 19 0 17 14 14 20 24 20 24 18 20 17 19 26 6 23 16 14 17 18 23 23 24 20 9 34 6 19 27 27 27 26 13 23 6 13 10 14 21 17 32 10 24 10 18 25 27 23 17 10 10 23 10 17 14 10 14 9 14 30 16 16 24 20 12 16 16 20 14 13 20 17 6 30 30 23 16 27 23 14 12 37 27 13 24 24 23 10 26 20 22 27 10 10 7 7 16 16 27 25 17 33 34 31 21 16 13 16 3 24 35 27 13 0 21 21 12 10 16 23 20 14 25 37 16 17 11 18 16 10 13 0 17 14 13 37 12 9 13 16 17 17 24 20 21 19 14 32 0 14 13 21 24 20 24 24 14 33 3 37 25 24 19 17 19 7 17 23 20 12 17 10 25 16 17 13 17 15 6 26 0 17 17 7 10 31 10 15 12 21 28 30 7 24 20 32 23 24 16 17 9 21 31 23 33 17 20 13 24 31 27 29 17 14 20 30 16 9 10 13 24 24 5 24 26 27 20 10 17 14 20 6 23 23 18 17 13 31 17 24 31 27 28 24 24 35 17 28 24 20 27 20 31 16 17 7 15 18 33 17 17 16 20 3 17 13 10 20 20 17 21 13 14 10 10 9 14 14 19 14 24 21 10 13 29 21 23 28 6 9 20 10 10 17 27 24 16 26 13 21 6 17 17 19 3 20 20 15 26 12 18 16 17 16 27 14 22 25 24 20 21 9 17 24 16 13 23 21 30 12 21 17 19 21 10 16 17 16 14 24 17 25 7 27 21 20 33 28 13 20 13 17 11 17 2 24 3 27 16 24 14 26 17 27 12 27 7 9 10 6 24 25 21 17 3 31 27 24 20 16 17 13 17 17 27 19 18 24 13 19 14 24 20 12 6 15 27 13 15 20 13 17 17 20 0 17 10 24 6 20 33 14 26 16 6 20 28 13 14 20 0 17 20 14 6 7 23 9 15 21 13 12 20 27 20 10 14 13 9 10 31 13 31 20 14 13 31 19 20 23 16 37 13 16 20 9 13 14 17 26 28 21 24 8 7 18 10 14 26 23 13 14 29 7 14 17 20 28 21 16 23 21 19 14 23 17 6 27 20 24 17 20 11 34 42 10 27 20 20 24 34 15 23 27 14 20 23 10 23 16 34 9 30 3 27 7 17 15 33 13 20 9 3 13 21 20 21 12 14 10 10 23 14 19 13 35 6 0 20 22 24 23 20 12 7 27 17 33 24 10 14 13 27 10 17 16 17 13 23 12 12 6 24 20 20 17 34 30 35 24 9 7 10 16 20 28 3 11 10 13 9 16 31 13 16 15 21 10 6 16 27 35 24 24 33 0 10 10 23 17 20 21 22 13 20 17 13 10 13 20 37 17 16 15 24 20 21 10 6 17 30 23 32 16 7 11 0 17 20 17 7 9 13 10 24 20 15 26 17 16 26 20 22 24 24 24 25 31 20 7 23 21 26 14 13 29 18 18 20 17 25 13 24 19 20 0 12 16 24 27 20 6 18 27 23 12 23 10 30 20 7 16 3 7 24 16 14 57 16 14 31 13 24 30 24 7 23 15 44 16 14 27 22 9 7 26 16 24 22 10 10 17 17 23 24 10 20 22 24 20 28 11 7 18 29 24 23 9 16 13 23 14 23 24 28 3 13 35 28 27 15 13 17 20 24 13 0 20 16 35 14 20 30 14 19 32 14 14 20 24 3 13 17 7 6 17 13 17 23 26 16 19 16 14 33 13 13 13 10 20 27 14 16 20 27 14 22 17 3 21 7 14 10 20 24 17 23 20 17 3 21 26 24 3 20 27 16 13 17 26 31 20 17 27 24 22 13 27 24 20 24 6 20 20 7 17 10 6 13 17 23 27 26 16 10 27 3 30 28 16 23 3 9 10 6 26 20 10 20 27 24 20 17 13 22 13 22 13 27 18 28 23 25 24 21 19 20 17 9 13 24 31 24 29 22 14 13 23 24 19 28 17 14 20 8 13 15 13 24 16 10 20 26 16 9 27 10 6 21 14 15 23 7 20 6 13 6 14 13 13 14 24 23 13 17 9 16 26 20 20 9 10 10 11 38 10 27 26 29 13 23 6 34 22 20 18 22 20 24 20 9 31 12 13 20 27 36 10 6 17 9 14 12 24 0 22 10 17 28 21 9 23 38 24 13 14 16 3 38 11 9 21 16 19 14 19 28 20 18 33 21 9 14 26 24 27 9 6 16 23 6 6 25 38 17 10 21 24 20 13 13 25 20 31 30 14 16 24 0 13 27 23 9 6 24 45 20 10 20 25 7 6 20 22 28 16 17 16 13 25 14 16 3 10 24 7 20 23 14 14 20 17 15 13 17 17 23 13 13 34 41 11 20 20 22 11 14 23 19 28 20 17 27 17 31 14 27 19 46 24 23 10 13 24 7 31 7 22 7 27 27 7 9 22 21 16 20 10 10 17 36 21 26 17 31 16 24 27 34 7 21 10 18 27 27 14 16 27 20 13 12 10 22 19 33 27 15 25 27 14 20 23 8 14 19 18 30 16 5 12 37 23 7 14 16 24 17 27 25 20 7 19 20 16 24 17 13 17 23 10 20 13 6 6 25 20 15 10 9 25 14 19 15 3 28 14 27 32 17 17 10 14 27 16 6 19 3 34 20 14 14 26 19 16 14 29 28 3 21 13 13 19 24 24 24 6 13 20 23 23 12 20 19 13 10 30 13 22 13 17 24 14 20 16 32 13 16 17 20 10 21 13 20 3 17 20 21 20 22 24 24 25 27 10 7 13 13 14 13 28 16 3 14 20 20 20 19 27 27 19 13 14 20 21 23 26 19 3 13 19 21 23 27 24 24 21 17 17 13 23 24 20 17 16 6 7 24 13 13 16 32 17 3 14 27 15 30 35 22 51 10 7 13 29 23 21 19 7 17 30 24 19 17 34 13 15 20 3 16 28 19 21 20 22 17 21 23 24 27 3 16 31 13 14 20 16 24 20 26 26 40 3 29 28 21 21 13 17 23 16 24 23 24 16 7 20 16 7 28 24 13 21 23 13 20 17 29 7 20 10 20 20 24 20 6 14 9 20 19 22 23 16 22 27 24 20 20 24 17 26 20 13 37 24 24 7 20 11 13 14 13 9 10 28 6 35 9 19 19 12 27 23 15 30 6 24 12 17 16 21 14 14 14 13 20 9 23 16 17 14 24 15 12 17 40 31 30 10 23 19 24 22 9 16 24 3 21 10 23 17 19 19 7 27 21 7 20 20 10 24 17 13 10 17 29 24 23 12 12 20 12 19 26 18 29 23 17 13 16 24 9 10 9 23 12 22 14 10 27 21 24 20 7 15 14 30 24 10 25 10 27 24 10 19 24 9 27 19 24 10 23 10 20 27 31 29 15 0 23 3 17 24 15 27 17 14 21 19 14 20 17 21 24 20 31 33 18 10 26 33 28 26 13 16 22 28 14 30 16 6 10 13 20 21 24 23 10 19 20 10 20 35 27 19 35 38 23 14 16 22 20 10 33 27 11 21 27 18 37 27 24 30 24 14 7 10 10 14 28 30 11 27 21 21 23 9 13 20 21 14 14 10 7 13 13 6 16 8 36 9 17 20 25 25 23 20 21 13 13 16 12 31 16 0 28 17 3 22 24 20 22 31 20 28 16 21 24 10 17 16 9 34 21 35 17 17 14 28 20 21 23 13 14 20 27 13 21 20 37 17 6 31 17 16 18 10 33 24 34 20 17 23 20 13 20 17 34 13 3 17 22 6 22 13 31 26 24 27 28 16 14 17 21 10 23 9 21 22 27 27 16 10 26 21 13 19 10 40 26 10 16 23 24 23 20 13 31 17 9 24 9 10 24 13 21 14 22 10 20 22 17 40 17 28 13 7 13 18 20 34 12 13 20 15 16 16 23 10 10 27 20 20 20 14 27 34 20 19 21 37 7 16 7 24 15 10 14 31 40 14 13 20 19 20 14 20 19 19 17 22 9 10 16 13 14 27 10 23 17 21 20 13 13 17 7 17 14 27 7 34 27 17 25 23 21 17 20 23 13 13 7 14 27 17 22 13 7 15 22 35 17 31 9 20 18 31 7 12 13 25 30 15 20 35 24 21 18 22 9 13 10 26 27 11 16 9 21 10 20 9 17 34 14 13 24 16 29 12 13 14 7 13 27 17 20 14 27 10 37 27 17 10 19 23 16 15 14 22 27 24 28 3 27 17 16 10 20 17 12 24 21 20 14 11 34 7 24 20 19 12 9 17 15 18 13 20 11 12 24 13 24 27 18 6 18 24 14 17 0 8 27 27 6 26 24 17 13 30 22 17 0 10 17 27 24 20 20 24 13 37 34 17 16 14 20 28 24 15 13 6 21 23 37 22 28 22 10 10 17 24 17 0 17 0 19 0 18 19 13 23 35 3 16 21 22 22 35 35 16 23 13 16 16 37 14 11 12 22 29 21 19 16 38 27 27 10 22 19 14 14 27 20 13 21 6 19 20 21 0 3 7 16 28 17 16 16 13 17 27 17 16 20 28 26 37 13 17 29 25 34 28 13 23 9 36 24 31 23 31 20 13 25 13 16 7 21 18 23 14 17 27 17 36 6 23 10 25 17 10 13 30 19 6 6 33 21 24 25 21 17 16 28 17 10 34 31 3 17 10 18 13 19 19 9 19 21 3 12 10 6 32 17 10 10 7 16 19 15 15 17 12 14 13 26 7 29 44 13 17 19 13 21 30 10 23 15 20 20 21 23 14 14 21 21 15 21 14 19 26 20 37 23 24 15 9 23 15 24 18 24 6 23 13 24 31 13 15 19 17 16 13 24 17 40 30 7 23 17 17 13 14 32 17 8 21 24 12 16 21 10 16 20 28 10 29 10 10 17 19 16 27 9 26 17 16 33 20 30 13 0 3 10 17 22 22 23 37 16 3 16 33 24 14 23 23 7 12 14 19 22 6 12 10 28 14 18 9 28 17 21 19 11 21 13 13 17 24 17 23 10 30 17 20 15 13 13 27 29 14 6 19 20 3 30 23 17 13 24 13 24 34 13 20 17 6 13 11 27 8 27 17 14 19 23 21 6 23 27 14 21 10 27 13 23 27 16 21 19 31 22 16 18 17 19 10 24 10 13 10 16 35 13 14 23 10 17 23 21 17 9 20 13 15 17 10 17 22 14 28 17 27 0 16 22 37 11 24 16 16 0 16 21 28 3 27 34 20 21 25 22 9 30 16 21 23 17 13 14 21 20 14 24 13 24 9 20 27 6 24 24 21 12 21 17 10 2 29 17 14 16 37 20 13 23 30 31 22 11 23 13 17 30 31 19 20 24 24 14 17 19 27 23 14 21 6 27 20 17 6 21 21 24 13 17 20 24 7 19 28 23 21 24 23 27 27 0 17 13 24 35 26 6 26 27 19 27 8 24 6 10 3 18 27 21 23 17 23 9 17 19 7 28 10 14 15 14 13 11 10 14 24 10 14 14 27 27 15 6 10 11 15 20 9 19 10 15 35 22 23 34 16 20 19 23 10 13 23 17 10 16 10 23 26 20 26 26 29 27 13 10 13 27 22 13 16 24 9 16 13 27 7 22 23 17 21 3 20 6 6 7 22 20 23 15 28 13 7 16 21 14 24 22 23 6 21 10 24 26 20 23 11 10 21 23 6 8 21 27 28 23 16 24 7 24 10 19 26 20 10 11 38 16 20 28 21 28 24 23 13 16 27 15 24 20 16 18 31 0 20 3 29 3 7 20 27 13 22 14 23 12 19 14 13 13 24 31 16 16 9 26 14 17 19 14 23 23 17 35 13 26 9 16 13 9 10 24 16 17 22 21 6 15 20 21 0 17 16 23 10 13 15 28 17 24 6 21 16 6 20 17 27 45 23 12 26 24 17 14 30 6 21 21 10 22 28 6 24 13 23 18 14 17 7 23 13 13 16 24 31 21 13 21 22 10 30 29 23 18 8 16 9 19 13 30 17 17 20 20 28 17 7 21 44 9 24 9 10 24 13 25 31 10 29 17 19 16 10 3 16 17 9 9 24 31 10 14 23 27 24 10 20 13 17 15 21 17 23 10 20 29 13 29 10 14 12 16 24 24 9 21 12 19 25 28 14 13 23 13 0 10 23 14 14 23 23 24 8 10 13 14 24 10 33 21 17 12 16 17 16 7 23 10 24 20 14 15 20 24 17 20 27 17 15 18 38 3 14 17 17 38 17 27 12 17 39 9 17 21 12 18 26 14 14 20 30 10 12 28 24 20 9 20 20 3 27 27 27 14 13 24 24 17 9 21 27 24 10 10 26 26 15 16 23 8 13 20 27 13 14 14 20 9 24 14 13 24 17 20 22 10 19 24 14 23 16 10 12 16 24 27 27 10 7 34 20 10 17 13 20 29 29 14 28 19 24 21 17 21 18 13 22 12 13 36 33 15 20 10 23 20 14 7 16 27 19 17 35 34 10 20 23 6 16 7 20 14 13 27 20 24 21 20 27 21 24 16 3 26 30 13 24 31 13 31 25 17 13 13 23 14 10 13 6 10 13 32 19 17 20 22 21 20 12 20 6 27 6 13 13 15 20 13 20 25 20 20 17 31 10 22 27 3 10 13 30 27 25 10 23 23 17 20 20 16 13 26 22 13 11 14 13 20 15 18 19 20 10 6 12 28 20 29 10 22 25 17 10 9 21 16 13 13 16 24 31 21 9 21 20 20 18 34 16 6 17 24 3 17 14 10 16 24 9 7 11 8 17 13 13 12 20 3 16 10 13 26 24 14 20 27 14 18 0 16 9 10 24 14 17 10 16 10 31 15 13 19 14 10 24 17 13 24 13 20 21 19 21 15 23 11 10 41 14 17 27 27 21 24 12 20 27 27 27 7 17 3 6 19 38 19 10 22 17 7 27 26 7 16 37 15 38 20 27 10 23 24 27 31 10 7 30 6 14 16 25 22 16 17 16 7 23 17 13 21 15 26 20 26 21 10 23 23 17 14 21 15 21 9 9 41 10 24 10 6 7 22 21 19 21 24 20 25 12 13 27 19 16 25 16 7 20 21 10 13 22 17 21 17 16 40 27 10 15 7 19 20 3 27 37 3 14 24 31 37 21 10 9 15 21 17 13 20 21 17 28 13 14 13 21 14 21 30 10 34 17 10 14 19 25 29 26 7 30 26 17 23 19 13 11 30 9 22 31 13 19 23 22 17 6 31 22 21 56 16 24 20 14 35 20 15 17 10 14 23 28 7 20 20 24 20 14 31 26 25 30 22 34 26 22 31 9 17 23 17 24 22 20 17 21 17 27 21 20 31 31 7 21 35 9 19 28 17 14 3 13 28 17 10 7 13 17 14 24 13 20 24 25 22 16 20 9 20 38 21 10 16 19 20 21 23 12 10 23 32 14 22 20 22 13 27 21 25 21 7 14 13 7 7 7 23 16 22 16 11 16 12 26 17 21 31 27 14 17 14 17 10 10 21 14 11 0 29 30 28 17 16 24 24 20 10 3 9 26 33 26 17 11 7 9 27 31 20 13 9 25 13 15 25 17 20 21 24 10 24 30 36 24 16 12 16 14 15 25 10 19 17 24 9 9 20 27 10 17 28 26 13 41 20 3 20 22 33 17 23 14 27 12 28 16 17 18 20 24 13 20 21 27 15 34 28 9 21 17 31 14 30 17 7 10 10 0 9 17 13 28 23 20 19 10 27 10 8 7 16 19 24 16 12 10 8 45 17 24 24 21 17 17 9 17 2 30 13 21 7 21 13 28 16 31 17 20 16 17 23 23 28 17 17 10 31 31 40 23 23 3 3 20 20 30 22 19 20 21 28 29 16 38 17 0 7 17 11 18 13 27 19 30 16 24 0 19 16 6 20 23 17 20 13 19 22 34 13 21 23 16 6 27 16 27 25 28 28 29 3 7 23 20 17 13 27 21 10 17 13 27 27 31 23 20 18 10 7 6 10 10 17 29 22 29 14 16 22 13 24 29 18 26 3 13 14 27 16 21 27 29 16 24 10 19 12 18 13 3 17 24 14 14 17 18 14 14 14 18 20 11 18 19 19 7 44 17 17 27 17 13 7 23 16 20 37 26 3 24 24 14 27 19 26 24 16 13 52 34 28 24 24 19 14 24 14 14 21 34 20 17 20 17 18 35 17 14 18 20 27 6 33 23 24 24 28 15 12 20 30 14 16 17 24 13 19 18 23 16 27 26 9 19 17 23 27 24 18 22 27 15 10 17 20 24 17 18 18 20 31 35 28 10 27 19 24 21 14 27 17 23 20 10 20 9 23 28 20 24 16 21 24 17 10 16 17 12 20 15 28 12 33 24 17 13 6 21 17 21 7 24 22 10 21 12 30 24 13 22 0 14 20 15 20 0 8 27 14 23 22 27 22 23 34 16 18 14 13 14 15 15 24 10 15 47 10 24 12 14 16 24 27 13 20 3 16 34 24 13 3 21 20 17 16 31 31 14 25 20 10 13 24 8 6 14 15 24 20 16 17 12 14 20 21 12 16 27 27 20 13 34 22 31 20 23 15 17 17 20 10 13 14 13 16 8 20 9 17 14 10 3 10 23 20 23 13 23 7 20 13 23 14 14 13 24 15 16 16 20 7 22 9 14 31 16 0 18 22 10 21 10 26 9 10 22 24 26 21 9 23 17 7 0 23 21 16 18 17 21 31 7 21 26 28 28 34 24 7 20 28 21 21 31 21 17 20 24 13 25 15 6 3 20 21 20 17 21 31 24 28 23 22 20 16 21 25 10 31 7 9 21 10 23 14 13 8 27 23 12 20 10 28 20 16 14 7 13 31 20 14 14 15 15 21 33 30 17 34 17 13 20 26 23 9 33 21 17 9 21 14 3 7 26 20 14 16 10 7 13 14 38 20 13 23 15 20 20 26 33 13 16 21 20 13 7 31 24 26 17 16 27 30 14 9 19 10 14 24 9 21 9 19 28 13 25 13 17 2 10 12 20 30 23 13 20 13 25 14 11 28 13 10 31 28 34 9 22 22 13 9 10 26 6 10 20 17 7 13 22 6 9 23 13 20 15 21 17 17 20 13 13 13 27 14 19 10 14 7 27 21 27 27 13 20 20 13 26 16 17 20 6 24 22 9 21 17 10 19 20 3 14 24 17 19 10 27 16 17 10 38 14 22 23 34 13 17 27 24 17 26 18 37 9 24 7 10 25 27 22 19 10 17 37 37 27 21 6 17 7 12 17 12 16 42 23 18 16 37 17 23 24 24 31 14 3 10 31 13 16 19 12 16 17 14 12 28 13 16 27 21 17 20 14 14 31 20 17 16 21 31 17 22 19 9 13 16 17 27 16 24 6 38 9 23 30 13 22 13 28 26 24 15 30 10 15 19 27 20 10 24 21 9 21 14 24 34 13 12 20 21 25 45 16 22 15 16 27 16 20 20 27 14 24 17 14 25 27 10 20 14 20 13 15 18 27 9 18 41 12 10 24 12 19 21 19 23 26 33 5 21 38 29 16 11 24 19 24 13 23 20 18 26 19 17 24 20 9 13 12 10 15 21 17 0 17 20 26 6 21 16 24 17 10 24 24 25 7 15 20 20 17 34 14 30 26 21 37 30 6 21 34 21 20 34 7 25 14 10 16 17 21 13 19 0 24 20 28 3 13 7 21 33 27 30 27 9 10 10 17 34 29 20 21 27 20 15 16 24 17 13 31 26 26 17 17 17 30 28 26 13 21 26 19 19 26 17 6 21 17 19 28 23 17 34 17 23 23 8 0 7 33 20 24 9 23 14 42 26 26 10 19 16 20 10 17 24 28 31 7 13 18 3 27 14 31 27 28 21 28 24 14 24 30 21 15 13 28 10 12 20 28 23 7 27 6 13 6 24 24 13 24 23 20 23 10 17 32 22 19 16 31 10 20 18 20 31 20 27 10 25 17 24 19 13 23 13 35 15 14 14 28 10 14 10 27 22 23 10 14 16 14 17 10 7 21 18 20 17 29 22 24 17 28 21 14 24 7 10 14 13 20 13 40 23 20 23 23 22 14 14 24 10 23 21 21 14 20 16 13 27 13 28 7 21 20 21 17 31 25 27 23 9 18 24 18 6 20 3 23 3 32 21 11 22 10 12 23 10 19 21 17 21 23 15 26 20 24 22 29 20 14 31 24 16 13 27 24 33 13 22 22 10 9 19 27 10 23 21 9 20 19 16 32 21 19 10 17 31 20 16 26 12 23 23 10 9 23 10 17 13 14 17 30 17 19 23 14 6 20 23 31 22 21 19 10 17 10 15 28 17 9 16 22 18 7 9 9 25 14 21 13 17 23 10 33 13 17 17 21 12 21 9 17 6 25 20 25 20 20 6 17 10 30 12 3 17 18 33 17 26 10 13 20 23 29 12 10 13 43 32 10 17 34 27 27 27 6 14 27 24 14 29 32 27 20 20 39 16 19 20 17 23 10 17 14 0 20 10 10 23 28 24 23 21 13 42 13 19 14 15 15 42 13 18 28 17 26 10 40 24 10 11 27 21 16 17 3 36 10 23 34 24 7 21 21 17 6 21 9 18 29 13 12 3 17 3 23 19 36 13 16 11 16 31 21 10 11 9 33 16 23 3 20 16 22 12 17 13 16 34 30 24 27 24 20 13 6 10 6 0 17 14 13 14 9 20 33 21 10 28 26 11 20 14 20 28 15 3 13 20 6 24 16 10 13 27 17 15 17 23 26 24 6 12 21 27 26 27 6 18 16 16 27 22 27 7 13 20 17 21 25 3 21 30 10 20 12 12 13 21 13 15 24 20 17 7 14 23 26 6 20 9 16 13 13 30 9 21 16 6 20 17 17 14 3 30 24 10 14 18 16 21 35 26 20 10 14 6 17 10 6 7 39 8 0 17 15 9 16 30 27 17 21 14 17 9 26 13 23 29 28 33 16 13 20 27 19 26 26 3 0 23 19 17 14 16 9 14 20 10 18 13 17 17 16 6 21 17 17 20 0 27 17 31 24 25 23 23 10 14 21 27 31 23 10 25 19 9 20 20 14 15 22 3 17 0 33 27 16 24 27 9 16 23 20 13 7 24 3 17 20 12 30 14 13 30 16 25 18 17 13 17 20 10 21 6 20 22 10 13 23 20 18 9 23 21 6 18 13 29 24 20 17 12 19 31 11 20 10 23 27 20 20 20 21 14 30 9 16 24 41 7 19 22 14 20 16 24 14 21 14 16 17 27 6 6 22 14 21 20 24 20 13 10 0 5 24 27 15 24 10 20 6 13 24 20 21 6 22 6 16 27 29 20 17 20 26 9 34 17 13 3 13 37 24 38 22 10 29 7 10 24 27 13 26 16 24 15 14 12 17 10 28 13 19 30 3 20 17 12 21 20 30 24 17 22 17 23 10 28 14 30 26 27 26 17 19 10 19 20 23 22 21 28 13 17 17 14 34 16 13 17 7 6 24 22 17 27 24 14 14 12 35 21 40 20 24 24 27 24 37 20 9 9 15 20 21 27 13 27 16 21 13 17 17 13 26 12 31 21 28 17 12 30 14 31 20 18 10 14 16 13 9 21 14 10 13 13 35 31 17 17 13 17 14 17 12 34 18 23 6 0 23 26 20 20 16 20 10 19 21 31 20 16 22 20 23 9 10 31 6 30 19 30 24 31 7 13 34 6 19 23 7 13 21 6 14 20 10 7 13 25 31 24 16 6 30 9 27 3 14 20 29 16 14 9 14 18 6 20 30 8 31 3 34 27 17 21 28 16 17 10 23 10 17 10 20 20 11 6 7 27 14 24 17 15 9 20 12 20 13 11 23 41 13 0 30 15 26 23 19 17 24 8 24 21 3 23 27 21 23 27 0 26 13 3 14 20 21 3 13 21 20 10 16 10 16 20 18 6 7 23 6 21 20 23 20 4 13 27 13 9 14 10 10 20 19 24 24 13 6 6 16 29 26 11 10 10 0 29 3 18 3 14 6 17 23 16 17 21 12 24 30 17 9 24 23 23 16 10 21 11 10 37 20 16 15 21 17 23 12 24 0 19 28 17 38 11 34 20 9 17 30 13 17 14 20 3 16 19 21 13 34 35 30 10 19 33 7 19 21 25 13 25 16 24 7 24 12 26 17 34 17 26 13 24 23 15 35 19 10 13 12 37 13 32 26 27 15 23 17 17 27 24 23 17 9 28 17 16 24 10 17 20 19 20 6 25 19 13 17 22 28 19 20 34 14 6 17 20 28 13 17 20 14 16 28 13 24 10 16 17 24 14 36 21 31 23 17 26 5 10 12 30 20 22 20 21 24 14 23 20 13 27 22 13 19 9 28 10 12 28 26 21 28 17 19 21 19 10 23 22 28 6 24 23 16 14 21 21 10 19 17 21 14 10 28 24 10 21 24 17 25 17 27 34 37 23 17 6 21 27 14 16 14 32 12 21 14 21 24 6 9 26 27 24 16 6 14 10 10 33 21 0 26 9 10 0 0 17 34 15 21 17 10 17 10 27 29 21 6 13 13 16 34 29 17 19 10 30 22 30 16 19 16 16 28 9 16 11 16 19 31 16 10 14 7 19 12 21 12 16 16 19 14 25 14 21 23 24 13 26 50 14 19 13 27 21 16 26 20 27 9 27 16 17 20 10 26 15 13 14 24 20 12 17 13 20 14 16 20 17 13 10 33 17 24 29 23 21 30 17 16 17 19 12 20 24 31 28 13 10 26 20 17 21 27 9 15 23 3 10 7 6 19 12 16 12 23 7 20 25 27 10 18 20 30 14 27 27 14 17 12 19 10 13 6 16 20 21 23 24 30 27 20 16 31 10 9 23 10 24 30 9 26 17 31 21 18 10 3 23 3 20 0 12 26 24 38 17 16 26 14 13 16 26 30 16 10 24 10 16 16 19 16 19 13 12 19 13 10 9 27 18 17 15 21 28 15 17 23 27 10 20 19 24 14 27 23 24 20 20 21 21 23 17 16 10 22 18 19 10 0 21 13 16 30 21 27 16 21 6 24 6 17 21 23 20 28 14 14 21 23 17 21 17 16 15 16 13 20 17 11 21 20 27 28 13 24 20 21 14 23 17 26 10 13 20 27 20 17 24 20 20 14 17 22 13 10 17 3 16 20 20 28 30 34 3 32 6 19 26 7 22 21 30 20 18 12 28 6 22 7 17 20 16 14 30 20 20 27 24 7 17 17 24 17 24 32 10 27 33 14 10 27 20 22 20 27 22 20 24 12 33 13 13 20 24 26 28 34 21 23 6 16 15 10 27 28 12 15 6 21 27 27 30 20 24 34 14 14 31 27 13 20 23 26 16 30 28 51 33 24 17 21 3 21 19 18 16 10 13 14 16 26 31 11 28 13 21 16 21 16 13 22 16 14 13 9 20 34 24 20 14 20 19 14 19 23 24 14 6 24 15 27 28 35 17 20 13 27 6 10 23 20 23 12 23 31 19 27 23 20 10 10 15 24 7 24 24 13 26 18 10 13 17 24 16 17 36 32 29 0 13 24 21 20 15 3 7 23 21 23 20 15 19 24 21 27 20 27 24 7 24 26 6 19 23 23 14 9 10 14 29 6 30 20 20 31 18 17 24 38 17 10 3 17 10 21 3 10 28 29 21 27 34 13 29 16 27 11 9 13 10 12 17 10 12 24 19 38 13 10 12 23 35 20 7 17 23 38 17 21 17 19 26 31 10 19 17 13 24 3 12 6 21 20 17 25 21 17 10 21 13 17 17 31 24 3 14 10 30 15 6 13 20 28 14 31 23 36 6 16 26 21 21 10 13 22 26 21 22 6 6 27 38 15 16 17 23 17 13 18 22 17 23 17 13 24 18 22 21 12 23 26 17 14 15 16 10 17 22 20 20 13 17 31 10 10 17 21 26 15 12 24 13 21 7 17 31 20 19 17 14 12 34 29 20 29 31 28 20 10 20 17 17 19 17 20 19 14 21 21 23 17 14 13 6 17 13 6 6 17 28 24 18 24 14 21 10 27 6 27 10 20 26 17 28 17 27 24 9 24 19 22 28 21 13 3 10 19 10 28 30 15 15 17 16 17 17 24 20 13 21 16 21 16 27 19 21 16 17 20 24 8 21 14 11 19 37 16 28 3 33 13 24 23 20 20 9 17 34 13 20 26 28 9 18 17 9 19 19 37 15 25 10 13 28 14 17 23 17 17 6 20 27 28 17 20 37 19 11 12 27 13 24 16 20 19 12 10 13 16 30 31 17 17 21 23 19 16 9 20 13 24 14 21 16 23 31 30 14 48 20 24 17 17 16 13 14 14 16 17 22 9 17 23 25 13 24 10 17 23 21 21 27 24 17 24 31 15 24 23 13 9 14 20 10 16 6 3 20 9 12 27 20 23 24 14 22 9 18 21 13 19 17 17 33 16 17 10 20 14 17 26 10 10 27 10 14 13 21 16 14 17 14 17 9 13 19 17 10 10 28 27 7 20 20 13 20 23 27 26 27 9 13 17 28 9 24 21 9 34</t>
-  </si>
-  <si>
-    <t>JSB(12.30993998580108, 11.96269971994197, -47.80604424331551, 272.110356677985)</t>
-  </si>
-  <si>
-    <t>20 20 25 26 26 20 17 30 24 31 29 22 28 24 23 15 19 27 24 22 20 18 26 21 21 24 21 18 23 33 27 24 35 17 25 32 26 20 34 23 21 25 27 19 29 24 33 29 29 19 21 23 27 20 27 26 26 26 23 20 28 26 22 17 24 27 19 23 25 21 20 18 26 23 25 26 19 21 30 22 27 27 27 17 22 23 27 21 21 28 16 16 26 28 26 23 21 28 19 22 26 17 24 28 24 17 34 28 18 25 20 28 27 20 13 28 22 26 24 25 28 30 16 22 28 28 13 32 32 23 25 24 22 35 22 15 19 23 26 16 20 26 26 18 19 23 26 28 14 26 27 24 33 24 22 17 27 19 26 27 23 25 29 23 18 27 26 24 19 30 27 22 22 22 26 24 27 24 33 20 23 31 31 27 24 22 23 25 19 22 26 30 26 23 16 31 32 23 22 25 25 21 30 24 15 26 23 21 22 22 29 17 27 28 34 20 21 28 21 23 21 15 21 24 25 20 28 24 20 26 25 23 29 19 26 30 29 25 18 28 25 24 25 19 25 22 24 22 19 21 27 18 21 26 21 32 28 27 25 22 12 19 33 26 18 25 23 27 22 19 26 18 22 23 17 29 29 22 18 19 15 22 30 20 23 29 17 22 31 15 27 25 25 25 22 27 28 22 27 24 22 20 31 30 23 28 18 30 23 25 22 19 32 24 25 20 24 23 18 26 31 28 26 33 22 30 23 21 20 23 31 22 23 23 22 25 28 17 33 25 18 18 23 16 23 17 16 20 32 37 25 22 22 17 31 21 25 24 27 29 21 33 33 24 18 24 22 19 20 20 29 28 25 23 24 22 23 29 25 25 34 28 33 17 22 20 24 21 28 27 23 20 21 20 26 10 28 36 19 24 26 26 20 27 25 19 34 26 24 31 29 18 30 28 23 26 23 31 21 22 24 29 22 32 23 20 19 18 26 28 27 24 29 19 17 23 19 23 25 23 22 22 29 22 26 22 21 19 23 23 27 27 24 26 25 17 23 20 27 17 27 28 20 22 23 22 30 26 26 21 28 20 23 27 29 27 28 27 22 22 33 23 23 20 15 30 25 29 20 24 22 25 26 19 30 22 22 21 29 20 20 24 28 24 19 18 20 27 24 24 29 26 31 27 31 28 29 28 33 26 26 19 23 21 29 27 19 27 24 21 19 29 31 23 23 22 28 22 21 28 21 22 18 18 23 31 25 24 29 22 23 22 22 27 25 26 26 26 23 23 32 23 29 25 32 31 25 18 34 20 29 24 22 26 24 23 20 31 25 26 25 24 27 25 18 22 26 21 27 16 20 24 22 29 25 23 26 28 26 24 23 19 23 15 22 26 19 20 23 34 24 19 23 27 27 26 23 25 33 24 17 18 28 20 18 20 21 23 25 25 20 28 30 20 21 29 18 27 20 25 23 29 20 21 19 25 17 17 16 22 26 33 18 26 25 26 24 21 24 29 22 27 23 26 25 28 30 30 29 27 27 26 26 24 31 22 26 19 24 12 23 26 32 37 28 21 32 13 27 21 26 19 23 24 25 27 26 28 21 30 15 16 28 26 21 30 19 23 22 30 20 22 26 24 21 27 21 22 24 24 25 23 21 19 21 21 31 22 31 16 19 25 29 35 27 19 25 22 26 25 26 23 22 20 26 30 20 30 19 22 24 28 24 22 19 22 22 26 27 26 26 25 22 26 17 23 26 18 17 22 23 25 32 18 29 26 24 30 25 28 19 25 15 25 25 30 17 29 25 28 22 19 18 23 29 24 29 33 24 29 28 20 23 23 26 12 22 23 17 27 31 25 20 18 24 26 25 25 31 16 27 22 22 25 23 25 21 16 25 20 25 26 21 21 30 23 22 19 22 17 31 27 18 22 28 28 24 26 25 25 20 20 21 21 27 24 23 25 25 23 18 25 20 21 26 25 23 23 25 30 29 31 25 23 22 29 19 20 20 24 27 26 17 18 28 22 13 19 23 22 22 26 25 29 31 25 21 20 23 22 19 18 20 24 19 29 27 21 30 36 32 23 32 22 25 20 25 26 26 26 18 23 20 19 21 15 20 22 27 24 28 24 21 25 21 26 23 19 25 17 19 17 19 16 19 31 33 22 18 24 27 30 30 22 21 22 26 24 23 26 22 21 30 28 25 28 24 21 28 24 21 23 25 27 25 23 18 32 30 20 33 22 22 27 21 20 26 20 29 31 24 25 27 29 23 19 21 21 26 21 25 21 26 28 24 27 19 26 22 29 26 25 28 22 22 31 21 22 31 18 19 27 25 16 26 20 24 19 25 23 15 26 26 26 16 25 21 21 27 22 22 21 23 27 24 30 31 32 24 20 23 26 24 16 29 21 23 17 26 21 14 26 27 28 18 18 19 24 20 20 39 15 27 25 21 28 15 25 18 25 28 21 27 27 27 28 24 22 22 26 27 28 22 24 26 19 20 32 31 25 20 25 24 23 20 20 24 22 18 34 13 24 35 27 21 34 29 19 25 29 25 24 23 27 25 30 19 19 9 18 32 29 21 21 16 23 16 23 29 16 20 16 29 25 18 18 24 27 31 26 25 22 20 20 28 17 24 28 27 26 29 23 25 27 24 29 23 22 27 23 22 26 18 17 16 22 26 26 32 23 20 25 25 25 27 20 21 32 20 26 27 24 28 28 20 23 19 29 29 26 16 24 20 28 27 20 18 30 21 21 25 23 23 26 26 24 25 22 19 20 25 23 25 26 22 22 28 26 21 25 26 28 25 23 28 27 18 30 22 21 22 27 23 24 24 23 19 31 24 35 28 21 19 22 24 26 25 24 24 20 15 26 24 19 23 18 26 24 24 23 23 18 22 33 22 29 21 22 25 24 30 33 27 31 29 29 24 16 23 30 29 23 26 18 21 23 25 24 20 23 28 30 23 20 23 26 31 31 25 27 26 25 21 23 26 23 22 25 26 20 27 21 21 23 27 20 27 20 28 32 29 30 26 21 25 18 20 19 26 24 14 22 16 22 20 27 28 24 27 27 23 31 21 22 22 27 19 21 19 17 16 18 18 28 22 20 26 19 20 24 21 20 22 24 23 27 31 24 17 29 21 26 29 22 30 20 24 26 23 25 25 13 20 21 31 21 21 32 20 23 31 22 24 25 25 16 21 29 24 29 20 33 32 22 19 21 21 18 20 20 19 27 24 22 25 20 23 24 28 31 18 19 23 25 22 28 23 32 25 25 23 30 26 22 24 25 25 26 20 29 27 29 25 20 31 16 27 20 21 26 22 22 26 20 19 22 18 26 33 32 25 20 35 26 24 21 25 24 26 19 33 18 31 21 17 22 27 32 22 28 25 28 23 18 23 22 26 25 19 23 31 23 23 26 14 22 23 25 28 27 25 25 29 30 16 24 25 32 20 21 27 28 29 22 27 22 20 22 24 23 21 27 27 26 21 28 20 24 21 26 21 22 26 23 25 27 28 27 15 29 24 28 29 29 20 27 28 14 24 23 16 26 28 26 28 30 25 28 19 25 18 28 20 21 31 23 26 17 21 24 23 23 30 29 27 26 27 21 28 26 21 23 30 23 20 17 30 28 26 28 24 18 25 19 16 20 26 25 32 25 21 29 16 23 26 24 21 24 21 18 23 26 25 23 28 30 22 22 20 24 31 23 21 24 19 16 27 26 26 28 16 22 29 19 26 24 31 21 24 24 25 27 32 27 29 19 22 27 22 26 18 20 26 23 20 29 24 24 21 32 17 23 20 28 26 26 25 27 26 29 26 33 27 24 21 31 18 19 31 21 27 19 22 23 31 28 22 22 21 22 25 17 30 27 19 20 20 32 26 23 19 19 20 22 28 26 28 28 30 23 32 29 21 30 16 24 23 27 22 30 26 26 17 25 33 23 21 32 23 23 23 28 25 26 23 23 30 18 25 28 24 27 17 15 18 20 25 29 21 27 27 18 24 24 29 24 32 18 25 31 19 28 21 23 23 26 32 23 15 23 27 28 15 25 24 25 26 28 27 26 21 24 21 24 32 24 20 25 25 28 23 22 26 15 21 17 29 31 28 26 29 16 25 31 22 23 24 23 18 19 25 23 20 27 32 17 26 29 23 19 24 27 27 24 22 22 23 17 29 24 29 22 21 20 28 17 30 19 19 19 19 16 19 32 25 23 23 17 18 22 28 24 16 26 17 23 21 23 22 28 20 22 22 28 30 16 29 27 14 23 18 33 16 22 23 21 21 21 19 25 25 31 28 14 31 26 23 23 16 23 30 23 23 14 28 21 14 13 22 29 24 27 24 20 28 26 23 26 23 15 16 16 18 34 28 19 18 20 23 29 31 22 20 28 25 18 22 22 26 18 26 22 25 18 16 25 29 15 24 16 31 29 19 21 22 23 33 25 21 29 14 20 29 32 21 26 30 14 18 29 25 18 19 27 23 31 26 33 18 24 18 22 27 17 21 23 31 18 32 27 24 29 25 28 25 22 26 21 24 25 18 23 20 26 25 26 25 27 17 25 19 19 25 18 27 37 20 20 15 29 19 25 21 22 24 28 23 20 27 24 19 25 21 28 32 26 25 24 27 22 18 27 30 28 30 19 29 22 20 20 29 25 29 18 21 22 22 29 14 17 21 20 24 32 33 24 26 24 17 21 23 21 22 24 18 28 24 26 29 18 15 27 26 32 34 24 27 24 23 21 23 23 26 26 25 23 27 26 24 16 25 26 22 25 17 20 30 29 21 22 29 29 23 24 18 24 26 24 31 36 20 35 27 22 25 30 20 34 26 15 32 23 22 30 21 21 19 27 32 22 17 36 25 28 25 25 27 22 23 21 26 23 22 30 19 31 23 22 22 28 22 18 24 23 25 27 24 15 26 20 23 23 29 28 17 27 30 29 25 32 30 24 21 21 23 22 20 27 23 26 27 23 32 27 22 18 20 18 26 21 29 18 30 28 21 30 32 21 25 23 30 20 22 21 30 14 17 27 28 18 21 31 23 21 25 25 24 26 21 24 26 21 23 17 18 27 32 23 21 22 27 22 23 23 24 20 19 31 25 26 24 21 19 25 21 33 25 29 20 27 22 14 26 25 17 25 24 23 25 22 25 22 19 25 20 25 18 19 25 26 21 27 19 16 24 24 25 22 23 22 18 25 30 30 18 25 31 27 20 35 23 18 13 21 26 25 21 24 20 19 21 23 22 28 18 26 21 28 25 22 23 20 17 21 21 22 26 22 21 16 25 27 23 21 22 32 28 20 17 17 23 24 26 24 29 24 13 22 18 21 26 29 32 33 24 19 27 20 19 24 26 34 21 33 23 28 29 22 30 21 27 25 29 25 24 28 24 22 22 29 34 17 23 27 26 23 27 22 28 20 28 16 25 24 21 20 31 24 27 12 25 28 21 28 20 28 21 17 25 23 24 23 30 20 25 22 21 25 19 21 26 22 21 33 15 19 29 21 19 24 26 22 26 22 28 26 21 23 26 27 21 30 20 26 23 22 21 16 21 30 24 21 23 26 25 29 24 23 26 21 20 17 24 18 21 20 21 26 16 26 24 34 27 26 25 22 22 22 29 24 27 30 27 16 27 29 23 26 21 26 17 34 20 17 29 24 24 26 25 19 19 23 23 27 24 23 18 23 24 26 13 24 19 19 23 28 26 22 28 16 22 23 33 23 23 16 23 23 23 27 31 27 17 25 19 31 24 23 18 29 27 32 21 28 28 26 24 24 23 24 18 21 22 26 23 21 24 25 23 17 18 25 28 27 28 24 18 21 25 20 26 23 33 19 24 15 21 15 22 27 22 27 23 26 24 33 25 17 23 22 24 26 15 24 26 23 31 32 17 30 21 26 20 28 28 33 28 18 32 25 25 25 18 29 20 22 21 29 25 27 20 26 24 23 23 19 25 28 28 26 21 28 27 26 21 27 26 25 30 25 26 25 23 20 28 23 25 23 29 17 30 30 16 19 26 31 26 20 22 19 30 31 29 15 27 16 23 24 29 23 25 26 22 42 19 18 21 23 30 35 27 25 19 22 28 32 29 26 20 25 22 28 25 31 28 26 33 32 26 25 16 22 21 27 22 24 24 30 17 17 28 19 23 20 19 31 22 21 27 32 22 17 19 18 19 23 18 23 26 25 27 26 35 23 22 31 30 19 27 20 22 19 28 16 24 21 19 28 16 18 25 24 25 26 22 24 28 22 27 24 24 23 28 18 23 33 34 21 20 13 27 22 30 29 23 28 21 26 28 21 19 29 26 30 25 25 26 30 22 30 30 16 27 36 33 23 17 26 23 17 26 24 18 20 27 20 24 20 20 23 24 11 23 20 20 31 23 21 26 21 27 21 29 26 24 28 20 24 22 26 26 25 30 32 22 25 25 21 30 24 33 23 22 32 28 23 19 13 28 26 21 17 18 23 32 24 31 20 26 25 25 25 24 19 16 34 26 25 23 26 24 24 25 21 17 18 19 20 17 22 31 25 17 18 22 33 25 22 29 25 20 31 27 23 10 22 27 25 22 21 18 19 26 21 22 20 26 22 27 23 30 19 30 23 27 21 31 20 19 19 25 29 21 28 24 28 14 29 17 20 22 25 30 16 25 35 19 21 24 20 25 23 21 23 27 23 19 31 27 27 29 23 19 24 19 20 15 29 23 20 28 26 25 16 15 26 24 29 20 25 23 30 25 22 26 24 26 29 27 23 26 25 22 24 25 18 21 25 22 22 24 16 20 27 28 21 26 21 19 25 18 25 27 24 18 23 21 22 23 21 21 18 35 22 25 23 23 23 25 21 22 28 30 18 28 30 23 24 20 21 24 23 17 22 19 26 27 29 27 25 25 26 21 24 26 24 21 29 16 17 25 25 27 20 26 25 34 22 29 17 24 27 22 30 18 29 12 17 28 24 25 23 28 25 26 27 17 18 25 28 21 23 32 22 23 24 26 29 24 30 28 24 23 21 25 21 22 25 27 22 30 19 24 20 21 21 17 27 34 27 27 23 27 25 19 22 25 19 24 29 26 30 13 16 15 30 32 22 18 23 20 22 18 11 29 27 21 25 27 25 17 27 18 28 29 27 16 22 25 21 25 31 25 16 11 22 28 20 18 19 21 24 19 18 24 24 26 27 27 26 21 32 22 31 20 24 28 23 23 28 29 20 25 19 22 26 25 22 34 26 20 23 24 16 20 19 29 15 21 29 27 18 26 23 33 29 21 25 24 22 25 28 21 25 25 24 24 27 26 20 18 20 22 24 26 15 25 22 22 27 29 22 28 21 22 27 22 20 27 16 25 26 26 17 23 22 32 17 26 25 27 30 23 18 34 23 26 28 27 22 20 27 17 19 27 29 23 25 24 26 20 32 21 20 22 25 31 27 25 25 27 28 22 23 26 26 26 25 24 24 20 31 26 23 14 30 21 28 27 23 17 25 20 23 30 28 25 21 32 15 20 23 22 26 21 19 27 19 31 19 31 18 24 19 28 21 24 25 24 31 21 25 26 27 25 35 17 24 23 26 20 18 24 13 25 26 23 25 25 21 25 15 19 25 27 23 21 22 24 14 28 15 28 19 25 21 27 24 21 24 25 28 24 20 27 26 21 26 27 23 34 23 20 23 23 21 23 23 21 33 20 20 20 19 29 21 24 20 22 20 27 20 23 29 17 23 30 30 25 20 25 22 31 20 20 20 24 28 28 32 22 25 23 20 24 21 28 24 18 21 17 26 30 21 22 27 19 30 25 31 25 23 27 27 21 28 25 34 33 27 12 16 33 20 16 19 21 20 30 25 26 27 31 17 26 30 22 30 23 32 29 20 26 30 25 27 27 21 18 23 28 24 21 22 19 22 23 28 27 21 24 29 19 21 22 20 28 18 23 26 21 16 27 24 31 18 27 23 21 28 21 28 26 24 23 29 20 18 21 32 22 17 26 25 26 28 18 25 25 18 17 25 18 24 17 26 25 26 34 19 20 14 33 27 19 32 22 25 21 21 25 19 27 28 31 22 35 28 22 21 27 31 22 26 30 23 22 23 24 27 20 23 25 25 22 27 19 17 23 19 28 24 28 25 24 26 25 22 20 31 21 20 29 23 26 26 28 20 21 23 21 26 30 34 14 22 27 25 23 22 23 30 21 28 16 23 20 26 23 33 26 25 24 20 21 18 20 23 18 32 15 18 21 28 26 27 27 23 24 23 21 21 28 20 15 26 24 25 30 20 30 21 21 22 29 26 20 27 22 30 24 28 23 22 27 22 15 32 22 26 23 17 29 32 37 23 23 21 30 25 25 12 25 25 26 21 18 28 23 21 22 23 31 23 16 25 22 24 21 27 28 25 25 21 21 19 23 24 25 29 24 19 28 25 22 24 26 20 27 25 29 20 29 28 27 23 20 40 26 18 29 23 31 20 24 23 20 21 27 34 20 20 20 31 20 18 25 15 18 19 25 20 26 22 21 31 22 23 25 17 18 15 26 21 26 25 19 30 26 25 20 24 20 29 24 27 29 21 27 20 18 34 29 25 33 25 20 22 29 23 18 24 20 19 21 21 23 32 21 23 25 21 19 28 23 22 19 20 15 22 25 25 26 24 22 34 27 26 22 24 18 25 25 26 22 26 21 22 11 23 20 31 15 19 21 22 22 20 27 26 23 27 23 26 18 31 22 23 21 36 24 30 23 17 27 22 27 25 17 23 28 23 27 29 23 17 25 20 27 23 34 18 24 20 23 22 24 22 26 26 26 24 17 20 28 20 24 23 31 26 30 24 26 21 23 24 20 25 27 19 28 23 25 21 34 31 18 22 27 21 19 22 31 24 23 20 26 31 22 19 26 24 20 21 25 30 18 19 26 15 28 19 24 19 26 26 34 23 26 18 19 26 23 20 23 22 28 22 35 30 24 29 29 24 19 29 28 30 21 19 27 18 21 27 30 22 23 21 29 28 25 16 25 23 24 35 23 28 23 30 22 25 24 17 20 28 23 32 20 25 20 20 24 24 25 26 21 20 24 22 25 27 19 23 23 36 22 27 16 23 27 25 16 29 21 20 34 32 21 21 26 22 28 29 28 29 19 23 21 17 18 21 29 19 29 26 27 19 25 22 22 19 24 20 22 22 17 20 29 21 25 26 28 21 24 23 29 25 27 21 25 31 22 23 27 32 29 22 18 33 17 27 26 25 23 25 25 30 30 24 22 24 26 21 19 27 20 20 18 29 19 26 27 32 26 25 21 18 21 28 20 22 29 30 29 23 22 22 27 18 16 18 31 26 19 27 20 29 19 23 28 21 23 21 29 27 20 31 24 26 18 27 24 22 26 26 21 31 22 20 20 26 27 28 18 19 29 21 20 15 24 20 22 22 30 30 23 22 27 19 19 23 29 29 28 33 25 18 22 22 30 23 26 29 26 27 28 28 23 23 16 24 17 35 27 23 21 26 24 26 20 25 21 24 17 26 25 12 20 18 23 22 32 18 18 24 22 23 22 26 26 24 32 26 26 28 23 25 28 28 25 25 16 24 26 23 25 32 22 22 20 25 23 27 18 18 27 26 21 28 32 25 20 27 23 30 22 27 21 27 20 28 22 23 22 16 23 20 32 25 27 23 20 27 21 26 27 19 19 24 26 34 22 25 27 31 28 18 29 23 31 21 27 23 26 22 24 30 23 25 20 25 22 25 15 18 21 23 27 28 23 12 24 17 31 24 26 26 27 22 24 28 28 30 16 24 20 24 21 20 25 30 18 13 21 21 25 18 30 21 26 24 30 27 22 28 23 26 21 22 22 28 18 18 21 23 31 30 19 29 18 21 19 26 20 29 24 21 25 20 27 20 23 27 32 19 23 26 18 22 20 25 15 18 22 20 25 20 25 19 23 29 29 27 24 24 26 24 25 18 21 29 26 26 21 24 23 28 13 21 18 24 18 29 20 29 28 21 19 18 26 20 27 27 25 18 19 23 21 25 25 30 24 18 21 18 25 31 24 34 33 28 22 28 19 21 25 23 24 17 20 26 20 24 23 26 32 25 19 27 22 22 22 26 19 19 20 24 26 28 27 30 12 23 23 26 23 20 26 24 23 16 25 22 25 22 28 26 21 17 26 16 19 27 27 23 25 26 23 25 23 24 18 18 18 27 19 25 21 27 26 23 28 27 20 31 30 28 29 21 31 24 27 26 25 17 19 26 17 27 22 35 28 18 30 27 26 18 30 19 26 20 26 19 27 30 26 23 22 20 20 36 30 22 33 21 26 26 23 26 26 20 31 23 19 26 31 28 27 27 27 25 21 24 19 18 32 24 18 25 18 19 19 24 29 24 24 24 23 25 33 13 13 25 19 27 22 27 32 24 20 21 25 21 22 22 19 22 23 21 27 24 27 18 25 20 25 19 22 14 28 25 20 27 11 27 26 25 19 21 34 27 33 31 27 21 27 31 22 25 25 25 27 24 28 26 26 35 24 24 25 36 29 28 19 30 25 14 28 23 21 19 26 33 17 18 22 20 24 26 17 21 27 21 19 23 19 33 29 21 21 25 16 22 21 29 20 22 27 19 28 27 22 23 21 33 28 31 21 25 28 23 17 18 27 14 25 23 28 24 21 22 21 32 26 27 21 23 27 16 22 34 25 23 29 25 27 21 23 26 29 28 20 20 24 16 24 27 33 26 27 21 32 16 21 26 19 21 27 26 28 29 24 16 26 20 25 21 24 22 21 25 18 23 25 7 27 29 18 23 14 33 20 25 13 20 29 23 16 22 26 27 24 21 34 21 22 18 29 23 20 24 17 23 23 21 28 31 22 16 29 28 22 30 22 24 17 17 24 16 24 25 21 27 25 27 29 28 20 26 22 19 22 25 20 21 15 17 23 27 22 26 18 25 26 25 25 28 23 26 26 32 27 27 27 26 16 23 13 21 27 22 28 22 23 23 20 23 26 29 27 20 20 29 29 23 34 27 26 28 31 26 36 15 13 24 27 26 25 20 20 27 24 29 21 23 27 17 17 22 16 28 26 21 23 28 20 22 18 22 25 21 26 23 22 21 23 26 28 22 27 24 23 28 16 26 24 21 26 18 25 19 21 22 21 22 24 21 27 25 20 32 31 16 22 21 25 23 18 30 22 16 24 18 28 24 22 23 21 23 28 27 26 27 27 29 18 27 24 26 19 21 21 25 17 27 31 21 20 22 25 23 26 32 19 20 21 17 23 16 19 19 27 28 18 22 29 22 16 26 28 17 22 32 25 20 30 19 25 22 19 28 23 25 28 18 23 22 27 24 19 22 23 26 31 22 22 24 22 23 26 23 22 25 16 19 30 27 29 33 24 28 19 26 29 16 21 24 23 21 26 21 26 17 16 32 24 26 23 21 20 26 23 24 27 22 30 22 33 27 23 30 24 23 25 16 22 23 19 25 21 30 25 32 18 18 25 26 17 33 28 24 18 29 18 17 26 26 21 35 17 26 21 19 22 25 23 28 26 16 25 19 26 16 16 29 29 22 32 28 20 20 20 30 22 20 20 27 25 23 24 17 21 25 22 22 18 20 27 27 19 27 14 32 21 29 25 27 30 29 18 33 28 24 28 21 24 24 25 26 20 22 25 28 21 33 31 14 15 25 29 18 22 27 28 20 26 27 22 19 19 24 27 19 40 21 24 21 17 29 24 25 17 21 19 27 25 24 19 19 15 27 22 24 26 20 16 26 27 19 27 23 23 24 22 20 20 31 25 30 19 28 26 29 21 27 30 22 26 27 29 26 22 30 22 22 22 23 30 25 22 27 23 28 24 20 24 33 25 31 26 30 22 25 30 25 24 22 22 23 23 13 30 24 24 24 15 26 23 22 27 24 25 26 14 19 21 24 18 19 26 25 26 29 21 23 17 24 26 22 30 27 27 17 25 24 24 23 22 30 20 26 20 25 30 24 23 24 14 23 20 19 24 20 27 22 38 24 21 25 21 24 33 27 21 27 21 24 25 27 25 17 22 23 28 19 26 24 26 33 30 21 37 22 24 16 18 28 23 25 30 31 25 23 27 25 31 18 20 13 30 25 21 22 22 18 16 20 19 22 23 27 22 28 24 26 25 25 27 24 22 27 28 26 25 28 27 24 26 20 28 24 23 21 23 20 29 27 23 20 27 26 34 23 34 31 33 24 23 18 22 21 25 23 19 28 29 21 22 26 29 24 24 16 27 27 26 17 29 25 19 20 27 21 26 23 18 25 28 26 24 25 22 17 24 26 24 18 19 25 26 21 32 18 14 29 23 22 24 25 30 34 25 22 19 21 23 22 18 24 20 31 29 21 18 28 22 22 25 27 27 28 16 21 23 24 27 28 26 28 25 22 24 27 21 21 22 18 23 22 22 13 25 24 20 27 26 20 20 29 22 19 25 28 17 24 27 29 24 14 31 21 36 28 23 19 16 19 28 32 19 14 23 20 19 35 16 26 24 18 32 24 24 26 13 21 19 26 23 27 24 20 20 31 19 20 25 26 24 28 20 30 29 21 30 23 28 23 21 26 27 21 23 21 25 31 27 20 24 29 22 15 26 24 17 19 21 24 23 27 32 25 23 20 28 21 19 12 26 31 21 23 28 23 18 21 21 25 18 19 27 30 20 29 29 32 29 35 21 28 26 34 20 18 26 24 26 28 30 26 21 17 25 27 20 31 20 26 27 33 27 20 24 24 18 29 21 30 22 20 27 23 21 24 23 22 19 28 30 24 29 25 31 23 23 25 21 20 23 21 17 23 16 29 22 14 20 22 30 21 23 30 20 23 27 22 22 21 27 30 31 22 19 16 21 23 26 36 21 22 21 28 23 29 20 24 31 15 16 19 21 33 24 21 28 25 21 23 23 22 21 26 26 30 28 25 25 37 11 21 25 27 31 24 30 23 25 29 19 25 20 18 22 22 24 25 26 28 21 24 27 21 22 24 22 27 23 26 30 23 16 22 22 25 22 22 16 31 26 24 30 26 29 17 19 28 29 24 16 23 23 16 29 28 23 23 16 18 23 21 23 28 26 19 24 23 26 28 32 27 29 26 21 25 19 23 24 24 24 29 18 28 24 22 13 30 23 19 19 24 39 24 23 31 28 24 19 29 26 20 28 17 19 28 28 29 28 21 15 18 23 18 36 25 23 30 17 24 18 23 23 24 24 22 28 16 28 24 25 33 26 20 29 23 25 27 23 26 17 21 29 17 19 25 26 21 24 21 16 18 26 24 22 21 29 30 31 23 21 25 24 18 31 25 21 22 25 29 23 20 16 34 26 29 23 28 19 28 20 17 25 23 27 19 23 25 19 25 31 15 24 24 22 20 26 25 31 19 26 29 28 29 28 24 20 24 28 24 21 26 27 19 19 26 29 25 30 31 22 29 27 25 26 26 20 25 21 19 23 26 25 27 22 19 22 23 20 20 24 28 28 21 20 28 24 15 22 28 27 25 26 30 21 21 19 29 27 22 19 22 22 24 25 27 20 22 29 26 23 19 23 22 26 22 33 22 20 26 24 23 25 23 25 34 30 23 22 19 28 21 24 28 23 31 22 26 22 27 29 25 26 27 26 26 19 20 27 24 23 23 26 29 21 26 22 24 25 31 22 30 32 24 19 20 23 24 26 30 25 29 27 22 21 31 27 25 14 29 29 21 23 24 29 27 26 22 27 21 21 23 19 26 18 22 27 28 19 21 28 23 21 24 22 27 22 20 27 27 24 19 24 21 33 22 23 17 19 21 28 21 23 19 24 17 26 20 24 25 23 33 21 25 23 28 22 21 26 21 25 22 23 28 23 26 21 23 23 30 20 23 31 22 24 29 24 22 24 26 25 17 23 25 29 28 18 23 25 22 28 24 25 24 24 16 19 25 30 24 32 24 21 25 28 23 26 22 19 18 28 19 25 23 20 23 23 20 28 20 18 21 30 17 21 26 17 23 21 21 26 26 20 28 21 30 30 27 22 35 27 26 23 20 27 26 25 19 21 31 27 16 21 24 30 28 27 16 19 20 24 25 22 30 28 23 21 23 19 25 25 25 22 21 19 23 23 25 22 21 24 24 29 32 23 30 29 33 26 26 21 22 30 23 26 28 27 32 25 19 23 26 18 21 30 17 26 28 37 21 22 22 23 33 20 23 21 21 34 27 23 29 19 22 29 24 28 19 27 29 24 19 19 33 27 18 24 25 21 22 23 18 24 21 19 26 21 30 25 22 24 30 30 26 23 29 17 22 20 29 19 23 19 23 20 24 16 22 27 20 22 23 24 31 25 21 28 25 17 29 27 21 16 32 26 21 17 24 23 32 20 26 28 17 30 28 32 25 39 21 20 20 30 25 22 26 19 22 28 24 21 24 29 17 35 25 25 15 19 25 22 28 21 24 27 21 21 26 29 30 18 20 22 30 23 18 27 27 18 26 22 33 26 26 23 25 26 28 22 25 32 27 22 27 22 28 22 24 25 33 20 18 26 26 24 24 25 30 18 23 27 30 25 15 19 28 23 17 18 29 26 28 15 28 27 31 25 28 30 20 22 31 32 17 26 17 18 26 23 22 26 25 31 22 27 27 25 25 30 27 17 24 23 26 19 27 34 23 24 28 29 18 25 22 24 25 30 24 27 25 30 18 28 21 23 25 23 17 22 20 33 21 21 32 23 21 24 21 27 18 25 21 26 25 18 25 22 22 19 26 19 25 19 24 25 25 25 27 19 17 27 20 24 19 21 30 31 27 17 28 30 18 26 24 20 24 22 21 26 25 31 30 23 24 32 13 25 36 26 29 29 30 29 19 27 20 21 20 14 24 24 26 27 29 19 24 26 19 16 24 17 29 18 27 29 25 21 17 30 25 20 26 26 24 29 20 20 27 28 13 21 32 31 18 23 29 21 24 33 19 31 21 24 18 18 19 34 24 21 31 17 27 16 26 8 23 22 29 13 33 31 28 25 26 22 26 21 18 17 25 25 18 22 26 22 18 28 26 22 25 26 27 22 26 18 25 20 28 23 20 24 29 29 29 28 25 23 20 24 26 23 28 23 21 19 19 23 22 24 22 24 27 26 23 23 23 21 22 26 25 23 25 26 26 27 21 25 19 27 16 21 23 24 23 32 18 26 24 17 20 20 25 16 18 24 33 25 27 33 24 34 18 34 28 25 26 21 26 24 27 19 19 21 25 22 21 20 26 30 21 21 14 21 15 31 20 24 22 15 30 24 21 23 27 24 22 18 23 26 21 24 22 28 19 21 24 21 24 22 24 32 27 21 20 27 25 31 24 15 32 22 20 37 23 24 28 32 30 23 25 28 22 21 32 14 23 21 27 32 32 16 27 33 21 29 31 33 26 27 27 27 33 27 27 19 23 20 25 20 22 27 27 23 25 29 21 25 23 37 30 23 23 24 20 25 23 22 23 23 22 24 25 24 26 28 21 23 18 28 18 25 22 25 23 20 21 28 29 27 17 23 23 29 27 17 24 19 27 22 27 27 26 27 27 27 21 30 26 21 28 22 22 22 19 21 32 19 23 20 22 27 21 19 26 30 19 13 30 22 22 27 19 25 22 27 11 17 28 23 26 17 28 25 28 20 22 22 25 27 30 29 29 19 16 30 27 22 23 14 27 23 16 27 24 25 21 19 28 28 28 25 33 18 20 20 17 19 29 29 30 20 30 16 30 19 28 15 27 27 27 24 24 23 22 19 20 31 23 26 27 19 19 20 21 21 20 28 24 19 26 28 20 31 22 21 19 25 23 20 19 40 22 24 12 20 18 25 22 19 19 20 22 20 21 14 17 19 24 23 26 29 24 33 21 15 34 16 27 25 28 27 22 29 20 20 23 18 21 22 23 22 31 28 21 33 21 24 17 22 16 25 21 22 19 29 21 24 25 29 15 19 22 24 29 17 25 22 26 29 31 22 30 28 25 28 28 24 20 19 30 19 34 26 26 25 31 24 20 23 24 16 23 20 27 24 23 18 22 23 23 12 27 24 13 21 36 19 22 21 25 28 23 27 17 33 21 18 24 23 29 28 27 24 20 36 16 24 24 22 22 16 21 23 26 13 24 24 23 19 24 21 23 20 26 17 30 18 21 20 32 25 19 20 32 24 20 25 17 20 18 23 17 22 16 27 23 25 26 24 23 22 29 21 23 33 21 19 33 30 22 20 28 26 24 22 26 18 24 25 17 22 26 22 25 26 21 31 26 20 23 24 21 24 24 19 24 25 25 20 24 24 29 28 33 22 21 29 27 32 21 37 26 26 23 24 21 19 26 30 23 20 16 24 15 19 22 22 21 28 24 22 27 25 13 31 24 20 31 18 26 27 26 25 24 23 27 20 20 24 24 27 14 25 29 25 25 27 30 27 20 30 20 33 20 32 20 26 22 25 31 30 30 22 30 26 18 27 35 29 29 27 29 25 21 19 18 17 22 22 25 24 29 24 19 22 28 28 23 18 20 21 16 28 20 26 16 17 28 22 22 28 25 21 24 29 25 19 18 20 24 21 17 33 30 21 18 23 26 29 26 30 24 26 23 21 24 24 32 19 28 28 29 27 31 30 23 27 20 25 26 33 18 15 22 18 24 25 21 24 23 14 25 24 26 27 21 32 22 21 36 26 25 28 28 17 15 23 34 22 24 19 22 21 23 17 13 24 11 16 18 26 28 23 29 21 25 19 25 25 25 31 24 19 21 28 16 17 23 28 31 20 26 25 22 12 27 32 22 20 19 34 27 25 15 26 23 28 25 23 22 22 18 24 20 17 24 28 26 24 18 28 19 21 26 30 23 20 21 27 25 23 28 26 24 27 27 28 28 27 20 21 26 27 17 25 30 27 22 29 24 21 26 26 20 27 25 26 13 28 22 21 21 31 28 26 20 25 20 23 21 29 18 26 21 20 20 29 19 24 20 22 25 29 25 27 23 27 20 16 26 25 21 26 31 23 27 17 27 18 24 23 24 24 26 20 24 22 22 22 29 26 29 26 21 25 17 27 28 25 22 23 23 18 16 24 19 20 23 22 33 32 30 23 23 21 28 24 22 19 26 19 22 33 27 22 20 34 22 27 19 30 27 20 21 20 24 23 35 26 20 24 30 27 25 24 26 30 28 23 19 25 25 26 30 31 19 28 24 30 13 23 17 23 23 23 19 23 26 28 26 25 19 23 22 15 21 15 21 23 21 30 29 24 28 28 23 18 23 20 18 26 23 26 22 25 26 18 20 23 22 23 20 22 16 34 26 26 19 29 27 21 24 24 20 23 30 19 18 29 17 30 18 29 23 22 27 28 24 26 22 23 25 29 25 22 13 27 15 27 14 31 19 26 22 29 26 26 20 16 23 26 23 21 17 23 28 24 19 23 24 24 17 21 19 23 21 22 22 18 22 22 25 19 28 19 26 31 13 27 31 24 18 23 20 18 20 22 27 16 25 34 23 24 20 28 26 15 27 18 23 20 24 26 19 15 26 27 23 20 14 22 28 30 22 26 23 25 30 32 24 26 17 25 15 22 29 22 24 21 32 23 22 25 19 20 20 24 25 22 19 22 21 31 18 19 21 22 30 28 23 22 21 24 28 32 27 33 21 27 30 26 25 27 19 22 19 21 27 25 36 26 27 16 26 21 28 23 18 34 27 18 22 14 22 20 31 21 27 25 19 24 34 26 32 20 27 19 24 30 20 27 23 27 28 24 26 27 21 19 24 21 26 33 27 32 25 23 23 28 20 24 24 22 18 31 28 20 20 27 24 21 25 20 22 23 28 26 25 28 23 21 30 28 32 18 18 27 20 23 25 27 22 24 29 30 35 23 26 27 21 24 25 25 24 21 22 25 23 29 25 26 26 27 18 21 27 26 21 26 33 23 34 20 23 21 33 22 23 19 22 28 21 17 22 23 29 27 18 17 29 25 30 21 35 30 21 26 32 26 19 24 26 26 28 26 29 23 21 24 31 20 25 29 22 23 20 31 39 22 23 28 35 28 32 29 20 26 25 31 28 21 22 23 17 21 23 28 17 30 25 22 29 23 24 22 22 31 25 24 29 22 32 22 19 25 22 20 24 30 23 32 24 31 26 24 26 30 23 29 18 17 24 20 20 23 22 22 21 18 23 23 30 36 23 27 27 18 22 23 23 24 22 15 25 23 24 27 21 27 29 30 20 23 17 20 18 23 22 21 27 23 26 26 33 32 25 22 30 16 31 28 16 23 19 33 21 22 19 24 20 25 21 26 22 26 25 19 30 18 24 30 23 22 28 30 24 24 21 21 27 24 29 25 26 22 22 18 24 25 20 19 24 30 28 19 35 26 28 24 29 24 27 21 29 23 23 27 28 27 20 20 32 20 33 21 20 22 19 30 32 22 25 31 19 20 19 27 28 24 26 27 24 26 29 21 17 33 19 27 21 25 27 23 24 18 26 32 21 29 24 28 17 16 26 20 28 25 28 15 23 23 30 19 23 16 29 27 26 25 26 25 22 26 30 28 23 30 33 32 27 25 30 31 33 23 23 27 23 30 25 21 34 29 23 19 30 25 29 23 27 19 22 29 27 31 27 24 26 22 19 26 23 30 26 21 18 17 28 26 23 28 26 29 20 32 28 22 24 23 19 21 27 20 28 16 22 30 21 23 33 27 21 25 25 25 20 20 30 23 28 20 21 22 23 22 26 34 34 21 18 23 24 28 25 26 21 22 37 16 27 25 24 23 23 22 26 20 24 23 30 22 24 24 18 17 27 24 23 19 27 12 19 22 21 24 23 26 23 27 27 21 28 25 27 26 19 17 21 24 22 25 22 31 22 28 15 22 21 19 29 18 23 30 28 20 31 34 29 25 26 26 26 26 22 24 19 20 20 17 16 15 15 29 19 16 16 26 24 23 28 26 21 27 23 18 19 26 18 16 16 23 25 19 29 24 14 29 30 23 20 22 23 21 25 34 22 23 19 26 14 26 21 26 18 18 23 22 24 15 15 23 31 26 25 27 20 12 22 35 22 22 35 20 20 19 31 22 27 25 20 30 28 19 26 19 23 24 28 27 24 18 27 22 24 22 23 31 23 21 18 28 27 27 23 24 23 30 21 20 20 35 29 28 26 26 27 19 14 24 18 24 22 30 11 27 23 19 26 19 21 22 27 18 25 24 31 29 26 18 26 20 19 30 15 28 19 25 17 27 19 25 26 34 29 25 13 22 32 20 19 28 23 30 16 21 21 22 28 29 20 20 24 25 33 26 26 21 33 27 27 25 31 24 22 16 25 24 17 29 28 31 28 22 30 18 22 18 22 28 32 25 26 26 30 21 34 27 24 24 24 20 16 21 23 26 23 23 26 26 25 29 18 24 18 17 22 26 28 24 18 21 28 27 27 22 23 17 26 21 24 32 22 22 15 26 23 19 33 20 24 21 22 33 23 22 28 31 23 26 20 26 22 20 37 30 24 24 26 23 20 19 24 25 24 26 16 29 17 20 22 26 27 27 26 23 25 21 27 31 26 23 24 21 25 22 21 27 26 19 24 23 25 25 22 23 29 32 19 26 23 29 18 23 24 35 23 20 24 22 22 21 30 24 31 23 20 31 27 28 31 24 25 23 26 30 25 34 30 20 25 30 19 32 20 19 31 30 28 18 27 27 22 23 17 26 25 20 19 25 26 24 25 25 30 34 23 29 23 27 27 25 24 19 17 25 22 26 24 29 20 22 28 22 18 25 25 21 34 28 26 16 25 20 24 25 30 22 25 24 23 31 25 20 28 22 22 26 31 26 19 19 23 22 18 19 31 23 19 20 26 41 25 22 24 23 25 25 30 24 20 27 25 24 32 21 20 26 17 26 20 27 19 23 29 32 19 26 26 24 25 19 23 17 24 20 28 28 29 20 22 23 27 28 31 22 26 21 20 25 20 18 30 25 33 23 26 23 32 25 24 24 20 28 26 25 22 22 26 17 28 28 28 16 21 24 24 16 24 21 25 18 26 24 16 19 29 19 27 23 25 32 20 26 23 20 16 17 24 29 22 24 21 21 21 23 22 27 27 20 32 17 28 35 23 23 27 26 12 24 19 27 20 29 16 20 22 25 24 26 14 29 23 29 20 19 22 27 19 23 25 21 34 27 26 27 26 25 17 28 15 30 28 26 27 21 31 19 29 24 20 23 17 22 21 16 26 23 14 13 29 29 20 24 27 27 24 26 20 19 17 27 18 24 28 32 19 22 21 20 25 25 23 23 20 27 31 23 29 29 22 28 28 37 25 31 23 21 28 22 25 22 39 28 26 19 23 36 32 23 27 23 32 21 25 24 23 21 22 22 21 19 18 27 19 32 30 21 27 25 28 21 25 23 19 23 25 19 29 23 26 19 27 28 24 20 23 25 30 28 24 15 30 30 25 23 25 23 22 23 29 23 16 29 17 23 24 21 22 17 22 16 19 24 24 23 20 27 25 24 19 24 31 16 18 26 25 17 22 25 25 30 28 26 18 23 22 28 28 31 28 24 26 17 23 29 32 17 34 21 16 30 19 20 28 29 24 28 21 22 26 20 22 27 26 20 29 27 24 32 32 21 26 14 23 23 26 23 20 28 31 22 26 25 26 22 27 25 21 29 22 24 27 21 23 30 21 24 25 25 23 26 22 23 23 18 25 19 27 21 18 22 21 19 25 23 18 19 16 21 19 28 22 27 24 25 25 28 25 26 21 28 25 26 29 21 25 17 28 25 22 22 26 21 15 36 24 21 26 25 24 31 25 29 18 22 27 35 23 32 18 18 25 19 26 24 23 22 31 24 31 26 24 21 21 20 21 26 30 24 19 18 29 29 24 20 27 24 21 24 28 27 28 17 26 22 21 18 28 24 23 25 26 14 20 15 23 26 23 28 23 25 18 33 19 26 18 18 19 24 28 20 28 25 22 26 23 22 21 22 22 26 22 17 30 27 24 23 27 21 16 25 19 21 19 28 24 33 39 27 23 24 17 23 23 19 29 34 26 25 18 27 28 28 22 28 22 25 27 14 22 21 21 20 22 20 18 21 24 19 25 23 21 26 19 28 19 25 24 29 23 26 24 23 26 28 28 19 22 23 19 25 21 24 15 19 23 22 26 25 26 20 23 31 20 24 25 28 23 16 22 26 29 22 19 20 19 26 24 23 20 24 22 38 20 21 29 20 26 23 25 24 26 26 23 22 23 20 23 26 22 28 22 35 18 21 26 19 22 25 26 22 24 31 28 22 27 25 28 20 23 26 25 26 24 22 23 34 33 26 26 26 15 20 19 26 19 33 25 22 24 17 23 22 28 28 17 23 27 23 28 34 29 23 22 21 25 24 23 24 27 24 27 27 25 25 31 22 22 28 26 34 29 10 26 19 25 21 23 26 20 30 35 29 30 28 23 19 32 23 29 23 21 19 25 28 31 22 30 25 30 22 27 21 24 22 21 32 31 18 24 28 24 21 22 27 26 21 24 26 20 25 19 17 25 24 26 18 25 18 29 23 21 20 35 17 27 18 31 27 24 23 26 24 24 19 32 17 21 18 28 22 29 26 30 25 25 27 29 28 27 20 27 21 25 24 31 19 22 23 23 32 21 23 19 34 26 27 26 26 24 28 20 22 21 21 26 20 25 28 26 25 21 21 19 21 19 21 27 18 24 27 19 24 17 32 29 21 25 27 25 20 19 24 22 28 24 23 22 31 21 20 28 26 29 21 34 17 22 15 22 24 32 24 23 27 22 26 19 29 31 18 21 20 19 24 16 21 29 21 30 28 24 30 36 34 28 28 23 17 24 27 28 29 25 29 26 17 24 25 23 24 25 25 16 31 23 24 26 25 17 23 25 19 21 28 24 16 21 18 28 28 24 18 24 25 29 26 22 29 30 25 22 28 29 27 21 24 22 23 21 29 16 14 27 30 22 27 26 28 18 19 28 30 29 22 23 24 21 29 22 29 25 28 23 21 21 24 23 23 20 27 26 31 21 23 32 24 20 24 24 31 17 21 26 26 18 30 21 25 18 30 39 23 24 28 23 22 23 36 31 31 13 25 23 26 33 30 17 28 30 20 20 28 25 19 18 18 24 25 23 25 15 28 26 18 27 18 22 22 25 20 26 21 17 22 17 27 20 24 24 19 27 18 30 21 27 24 20 17 19 20 26 22 21 21 21 19 24 21 25 31 23 27 23 27 20 30 27 27 19 22 34 25 18 25 23 27 15 30 21 22 21 24 24 28 22 23 19 23 22 27 24 25 19 29 12 25 23 24 19 21 22 16 32 28 21 30 27 30 18 21 20 24 26 26 23 22 31 35 25 22 25 32 22 24 20 24 25 28 36 23 11 22 30 22 31 25 24 24 30 20 20 21 23 31 27 19 20 28 26 26 36 23 25 25 21 25 26 18 20 15 15 23 22 26 26 28 14 18 21 26 21 20 20 30 26 22 25 24 28 31 21 28 17 36 17 25 20 21 21 22 23 20 31 25 33 24 30 27 26 21 25 11 37 17 27 22 23 29 27 29 35 21 24 20 20 21 30 22 15 20 23 18 27 24 23 19 20 22 23 19 26 31 28 28 28 24 22 30 20 24 31 29 28 21 25 26 24 21 24 27 30</t>
-  </si>
-  <si>
-    <t>JSU(-5.992591203747699, 7.055046551835543, 5.977616494142146, 29.768279141406154)</t>
-  </si>
-  <si>
-    <t>27 28 42 39 38 31 26 50 38 43 37 36 37 40 37 22 30 32 34 40 32 26 29 30 27 37 33 24 36 49 42 37 53 34 31 39 36 31 43 36 34 40 40 31 38 34 49 38 38 28 31 37 40 27 43 35 34 34 37 31 34 39 35 25 30 46 29 35 44 31 28 28 35 38 39 39 30 31 51 37 40 36 45 25 30 29 45 29 30 42 25 25 36 37 37 29 40 36 34 31 35 26 38 36 29 29 46 38 32 30 30 43 41 36 29 31 32 37 37 34 34 46 27 31 34 35 24 42 39 36 36 34 36 41 33 31 31 31 34 28 34 37 33 38 24 30 37 39 23 34 34 34 43 31 30 26 38 30 36 39 31 42 36 35 34 38 50 28 29 38 39 27 32 34 33 30 40 33 47 36 31 40 39 39 33 33 35 34 27 31 35 46 41 30 26 46 46 30 38 33 34 25 46 31 25 37 34 38 33 34 38 25 41 42 43 29 30 36 30 32 33 20 34 33 39 35 47 36 39 42 31 41 41 30 44 39 46 34 26 34 30 28 35 32 31 28 42 33 30 28 37 29 28 37 33 48 45 41 36 31 25 29 41 33 25 37 33 35 32 27 34 28 36 32 27 42 41 44 26 29 26 40 41 27 35 43 24 32 44 29 41 37 38 36 31 43 37 32 35 38 32 25 38 41 32 40 23 38 30 32 25 32 47 32 39 30 38 34 27 37 44 45 37 44 29 42 33 36 31 35 45 39 31 31 33 33 48 27 48 36 30 29 37 29 33 25 29 31 41 46 39 31 29 29 40 37 42 32 39 40 31 51 45 31 25 31 31 27 29 34 42 34 35 31 33 36 37 36 34 42 47 31 44 29 33 36 36 32 33 39 31 32 29 32 35 21 45 51 30 34 37 40 29 35 33 26 56 39 34 42 43 24 41 33 36 41 33 37 27 39 28 45 37 49 37 35 31 31 39 41 40 31 40 36 34 31 25 33 30 32 38 29 39 28 44 31 35 33 36 36 34 36 36 35 34 26 38 31 39 30 37 39 36 39 30 34 40 37 34 27 42 25 33 39 41 36 34 42 37 26 48 33 33 28 23 40 41 43 34 32 37 39 31 28 42 28 30 36 37 28 29 38 37 37 33 35 26 37 43 30 34 32 43 34 44 38 32 41 43 47 37 26 31 30 36 38 26 33 32 38 33 37 43 32 34 25 45 28 29 40 34 44 29 28 30 50 37 27 44 35 37 31 34 40 32 36 35 33 35 37 38 34 39 35 45 36 38 25 43 31 38 31 32 31 33 29 30 41 34 43 35 38 38 40 32 32 32 31 34 26 33 41 30 43 35 30 39 38 41 32 30 27 37 24 35 35 24 25 38 50 35 24 39 37 43 35 36 41 46 34 26 29 46 31 27 25 30 38 38 33 29 37 44 34 34 43 26 41 29 41 40 41 27 29 26 44 26 29 27 42 35 38 27 36 34 44 33 35 34 42 27 38 30 37 39 43 43 44 35 32 36 35 37 42 39 32 36 31 35 19 28 40 40 45 41 34 43 23 41 33 38 26 33 38 36 41 36 35 30 42 19 26 42 32 35 40 26 42 29 36 32 35 33 31 33 34 29 32 37 35 34 25 30 33 28 33 42 38 35 31 31 36 46 46 37 34 32 34 33 40 36 34 35 28 35 37 25 51 36 41 34 33 36 27 31 32 36 39 36 34 38 33 25 38 32 29 39 27 26 34 28 42 37 31 44 41 31 41 31 36 28 41 25 36 43 39 30 36 39 41 24 30 32 34 40 32 37 51 33 34 36 30 27 37 35 23 29 33 40 37 44 36 30 31 37 35 40 31 40 24 38 36 31 38 31 37 40 33 32 33 32 35 29 30 41 35 34 31 32 33 40 45 27 34 46 36 30 37 40 35 34 28 37 41 43 32 32 37 32 29 28 40 33 38 36 38 33 33 30 44 42 37 41 40 32 37 27 29 33 37 34 36 23 23 33 32 18 30 30 32 31 32 27 38 37 32 37 27 34 29 36 29 25 42 27 42 42 28 37 48 45 31 46 36 37 29 38 34 38 38 30 35 30 31 33 31 29 34 37 39 32 35 26 40 32 45 31 26 33 27 29 25 25 25 28 41 50 32 32 33 43 34 37 29 33 33 31 33 32 43 40 30 38 41 38 42 36 32 36 37 34 37 38 37 31 38 23 44 41 27 45 36 29 51 32 30 33 30 35 40 33 29 39 42 31 30 32 33 32 32 42 34 39 40 30 33 33 31 32 39 40 27 40 28 30 33 32 26 44 29 35 43 34 28 38 32 27 33 36 35 25 39 39 36 28 34 33 31 41 38 31 30 29 36 35 34 39 40 34 32 27 41 33 25 35 32 33 28 39 27 21 38 38 39 30 32 29 37 27 30 60 26 41 36 34 45 23 36 35 36 39 38 32 39 39 41 34 32 34 42 37 36 28 31 37 32 29 47 44 34 27 36 37 32 30 30 34 42 32 52 27 35 44 48 27 49 42 33 36 41 37 34 28 33 37 43 30 30 18 32 35 42 33 26 25 34 31 33 40 28 31 25 43 33 27 28 30 38 40 39 33 33 33 27 39 26 32 46 40 33 35 36 33 45 36 44 39 27 36 32 27 37 26 24 26 33 39 34 40 33 35 32 36 30 38 32 27 43 31 33 35 33 37 38 32 38 31 39 40 37 26 35 27 48 33 24 27 35 33 32 32 34 28 40 33 36 35 37 36 30 48 32 31 39 33 34 34 41 37 36 34 38 35 31 38 37 27 41 31 31 31 37 37 36 29 39 30 44 32 50 43 32 31 40 32 35 37 33 39 32 20 34 34 29 28 30 31 35 34 33 36 27 38 50 35 44 35 28 35 31 40 44 34 44 43 43 33 21 29 36 37 30 37 32 25 40 35 31 29 35 38 42 36 36 37 36 49 48 34 38 36 35 27 29 43 35 30 38 42 26 38 30 27 41 37 38 37 27 38 52 39 43 32 34 33 26 31 29 36 34 25 36 26 30 33 33 37 36 39 39 32 45 30 34 30 40 25 28 25 36 33 29 32 36 34 29 34 28 32 30 39 31 34 36 31 33 48 33 25 39 31 40 45 36 42 31 32 40 36 34 35 27 25 31 53 29 37 45 32 33 47 38 33 47 38 28 36 46 30 37 27 51 41 36 28 35 32 31 28 33 32 40 28 32 34 28 38 35 35 41 30 27 35 42 32 33 34 42 34 42 36 40 35 32 31 37 37 39 27 38 34 41 35 30 46 31 49 30 31 42 32 33 35 30 25 30 28 34 42 43 44 34 48 38 30 34 38 34 38 27 42 31 51 35 21 36 40 46 34 35 30 42 42 30 29 33 38 34 27 32 38 30 29 38 23 39 40 40 36 43 35 37 44 47 23 35 37 43 33 27 33 46 40 31 37 35 30 31 34 34 31 41 33 35 30 42 27 32 29 36 32 27 41 42 34 40 37 39 27 38 32 48 37 43 30 41 36 30 33 31 29 35 39 41 47 38 35 37 33 39 29 33 30 32 44 37 40 26 29 37 36 33 40 47 34 38 37 29 36 35 29 42 40 39 37 30 37 39 38 34 33 30 39 27 25 33 31 38 47 36 29 40 27 38 43 41 30 37 34 27 38 41 40 36 35 42 30 32 29 37 40 35 36 39 29 25 36 42 40 32 28 39 37 31 40 32 50 37 37 30 37 39 43 37 44 28 39 39 31 39 29 31 37 30 28 36 30 39 30 46 26 30 32 36 29 32 35 42 41 38 36 48 33 35 34 39 29 24 40 27 39 27 38 33 37 34 27 42 32 36 38 27 38 37 30 33 30 47 32 37 27 31 33 34 38 36 43 40 38 36 44 41 37 42 33 37 38 36 33 43 37 33 26 35 46 38 31 36 36 32 32 32 34 38 33 31 37 29 30 35 37 33 18 22 30 38 36 49 38 39 43 24 34 33 36 37 44 28 44 39 33 36 32 30 30 37 41 30 29 28 37 33 25 31 32 35 36 35 39 39 40 37 29 32 41 33 34 36 41 34 31 37 37 26 24 26 42 48 45 39 45 27 34 40 30 41 38 36 28 32 33 33 32 46 39 29 32 37 37 30 31 38 40 33 31 29 33 27 41 37 37 30 42 30 42 27 40 31 25 34 29 26 25 50 39 35 31 25 31 29 38 41 26 32 28 34 33 29 28 38 31 36 32 41 38 31 48 33 23 33 27 40 36 29 41 31 31 39 35 31 33 42 40 33 45 34 37 32 29 32 44 33 33 25 43 30 25 21 37 44 37 33 31 23 35 36 36 36 38 33 31 29 30 47 33 26 31 24 29 39 46 28 26 41 41 28 29 31 33 26 37 27 36 29 24 43 39 22 32 32 44 44 31 34 33 31 49 38 27 40 20 33 39 51 36 34 45 31 36 36 33 30 33 43 29 44 36 43 29 39 32 35 37 26 27 34 38 29 42 40 38 41 35 44 34 36 33 31 37 31 27 31 41 34 31 31 36 44 27 37 30 25 31 27 33 44 25 31 29 44 31 30 31 33 33 36 37 25 33 39 37 30 29 40 51 32 35 33 39 32 32 32 42 35 38 32 37 27 27 32 41 30 42 31 28 36 34 37 26 25 31 26 33 45 42 28 39 38 30 32 30 35 31 32 30 37 30 36 46 27 19 36 38 43 43 31 42 32 29 29 35 41 36 41 37 37 38 33 32 30 44 33 36 39 30 26 42 40 32 30 41 47 36 39 31 36 35 37 45 39 32 58 35 31 40 35 29 44 38 23 46 42 35 37 32 28 32 41 48 38 26 55 38 41 33 30 39 28 38 34 38 32 36 41 39 38 32 28 28 39 39 28 46 37 38 37 32 30 38 32 34 37 37 35 27 38 35 42 32 40 45 34 32 26 36 28 42 37 34 33 38 37 48 30 30 29 28 26 38 40 46 31 44 38 33 45 52 30 40 37 41 33 30 34 36 24 27 38 37 29 30 44 33 31 32 37 33 36 28 35 37 37 30 22 27 39 39 32 28 24 37 29 25 40 31 29 29 51 32 35 29 34 40 30 35 45 32 36 25 39 33 24 36 37 26 39 27 35 33 27 40 27 30 30 32 37 29 28 33 46 23 35 30 28 33 38 33 33 31 27 32 37 35 42 28 35 44 40 30 40 34 30 20 32 34 36 33 33 30 35 30 35 30 37 24 32 27 38 31 36 36 34 26 25 30 38 38 34 31 26 35 35 33 40 31 49 42 22 29 27 34 29 33 42 36 31 23 28 31 28 36 41 43 51 34 29 42 28 36 31 34 51 31 47 41 40 41 35 49 28 31 42 40 37 35 42 35 35 30 40 49 25 36 41 36 32 36 28 33 35 39 25 36 33 33 30 39 35 35 23 32 37 26 41 29 36 31 26 43 27 32 30 39 28 39 33 28 38 27 33 37 36 29 38 40 32 37 36 37 41 39 29 30 30 43 37 28 34 36 38 30 42 34 35 38 38 32 22 31 43 37 34 33 36 33 34 39 35 33 25 34 30 42 27 34 25 36 39 24 34 27 40 43 38 32 31 30 29 43 32 39 43 37 33 37 38 40 36 31 37 35 43 30 28 34 27 32 43 37 34 28 37 31 36 38 34 35 36 39 36 24 33 31 26 34 39 37 34 36 29 31 40 43 38 28 26 38 34 33 40 46 37 30 43 28 37 37 35 27 37 34 44 29 40 37 34 28 36 37 37 25 33 30 36 31 35 33 42 37 28 24 35 31 37 37 34 32 29 32 28 37 32 41 30 35 27 31 27 27 45 34 34 35 37 29 42 29 32 30 35 37 33 29 39 35 31 44 46 22 42 29 38 41 29 40 43 41 31 47 39 35 42 28 41 34 35 34 39 34 39 27 36 31 37 32 28 39 40 52 37 30 39 35 40 27 35 39 32 41 30 34 31 35 31 42 28 34 31 42 27 40 39 30 29 39 47 39 39 36 28 42 38 36 26 41 23 32 36 33 32 30 43 31 53 35 33 27 30 44 46 37 36 29 34 43 46 36 34 30 31 33 35 42 45 42 42 43 39 32 31 34 32 31 37 32 39 26 39 30 25 40 25 32 37 27 48 37 28 39 41 38 31 28 30 25 35 31 29 39 36 41 35 44 32 29 41 44 28 33 37 32 34 41 30 33 28 33 35 29 28 32 29 32 40 31 39 45 36 37 34 36 32 38 38 28 45 46 34 33 20 43 45 41 34 30 39 34 39 38 27 28 38 39 42 30 38 37 43 30 45 39 26 36 47 52 32 25 43 36 27 30 38 26 33 34 33 33 29 26 32 35 22 39 32 28 44 33 29 32 32 36 33 44 37 32 40 23 36 33 40 34 41 43 44 35 35 41 31 45 39 48 29 33 46 41 31 28 22 41 35 31 30 25 33 38 32 43 29 34 36 32 43 38 27 20 46 32 30 32 34 36 37 31 29 21 31 35 30 33 31 36 35 37 30 35 39 35 35 44 42 29 37 43 33 17 36 37 32 37 35 27 24 30 35 31 33 32 31 41 26 41 27 39 28 35 38 39 31 28 27 30 39 36 44 40 40 21 33 31 27 32 39 44 32 38 50 26 34 39 26 34 35 41 30 34 35 32 46 32 38 53 34 31 39 32 29 32 38 34 26 39 39 29 36 25 37 29 36 33 37 31 42 30 28 39 39 31 37 53 34 40 34 32 32 34 41 29 34 30 34 33 21 31 36 30 31 34 30 25 30 31 40 36 39 27 30 31 33 33 38 39 23 41 30 39 26 34 34 37 35 39 31 36 27 35 44 33 31 30 40 39 30 24 29 31 38 40 40 34 30 35 33 29 28 36 43 30 38 26 27 31 36 35 29 36 35 46 37 40 24 34 40 37 43 28 37 21 30 39 35 35 41 37 39 43 41 26 24 34 34 35 39 40 25 34 36 33 39 29 38 39 34 34 28 31 31 37 40 32 34 41 30 37 29 32 31 30 35 40 43 32 29 38 34 28 30 32 25 36 37 34 39 27 27 22 42 48 39 24 33 42 33 29 22 40 33 29 39 40 34 26 37 29 43 41 36 21 29 33 28 30 40 35 23 23 38 38 31 29 27 30 34 27 22 26 39 39 40 36 38 31 43 32 38 32 33 42 34 32 33 40 31 37 36 31 38 33 36 43 35 29 40 35 25 28 25 40 21 33 41 36 28 35 32 46 43 30 34 38 29 36 35 32 32 34 36 42 40 35 34 36 31 34 37 41 26 38 31 32 35 38 38 36 32 32 42 34 27 31 26 34 41 34 33 35 33 51 27 37 32 41 38 31 26 46 32 35 40 43 31 33 41 32 29 35 40 37 40 28 46 26 44 34 29 28 31 48 32 36 37 37 35 33 29 40 33 43 31 35 33 29 43 40 32 23 44 25 40 42 37 23 34 32 36 41 38 36 28 39 30 34 35 30 32 29 33 33 30 39 31 39 31 35 30 39 32 36 32 38 41 25 35 34 39 41 41 30 28 35 39 35 27 43 24 39 40 36 27 34 27 31 23 30 38 37 34 37 34 41 27 34 21 36 31 42 27 44 35 31 32 34 38 33 32 41 42 31 31 32 34 41 24 35 36 37 33 35 29 36 39 32 40 28 29 51 26 36 31 31 34 31 26 31 38 29 33 44 48 31 33 31 34 41 30 33 28 36 36 35 41 31 39 35 27 33 44 39 28 27 34 34 36 41 31 38 36 29 38 40 45 36 34 37 40 31 38 34 47 43 42 30 35 40 24 25 28 29 31 41 35 39 47 36 24 32 41 35 48 33 41 37 30 40 38 29 43 35 30 32 37 40 41 30 39 27 29 31 38 37 31 33 46 23 31 36 37 38 28 37 38 31 30 43 34 38 36 41 36 30 52 32 31 35 35 32 34 26 28 32 41 33 27 42 36 33 48 30 37 33 28 24 36 22 33 25 37 36 39 44 36 35 20 42 34 31 40 39 36 28 28 42 32 34 41 42 34 44 42 39 35 41 55 37 36 39 35 34 33 40 43 31 32 37 32 37 35 25 24 31 27 46 36 42 33 29 36 41 33 29 48 32 35 37 37 44 38 34 31 30 39 39 30 48 42 31 34 31 38 40 34 35 35 31 40 26 32 39 42 31 38 38 41 42 29 29 30 30 36 25 40 27 30 31 35 36 34 33 36 34 33 30 32 44 31 22 36 31 38 41 31 36 30 34 29 34 36 29 39 28 47 32 42 33 34 37 33 24 44 34 37 35 29 44 41 41 30 35 34 43 36 40 22 33 35 31 36 30 43 40 29 34 32 44 33 32 34 34 32 32 42 42 36 39 26 35 29 37 40 40 45 40 32 41 33 34 35 44 29 35 34 39 29 38 39 35 37 37 51 42 29 42 33 43 35 30 32 35 36 37 45 29 36 33 45 30 25 30 26 30 26 38 35 36 36 34 47 36 41 31 26 30 27 36 35 35 40 34 43 36 39 30 36 31 43 30 36 40 27 35 26 28 45 35 33 38 40 33 29 41 34 32 33 34 28 32 35 34 38 31 30 46 31 26 43 30 34 24 26 29 30 35 39 34 32 29 42 39 35 31 31 31 34 36 39 31 32 32 29 24 33 27 38 24 34 33 37 38 31 35 36 32 33 32 37 25 46 32 39 31 58 31 41 34 34 36 32 39 36 28 31 41 41 39 36 34 32 29 28 45 35 44 25 34 37 28 36 30 36 36 36 36 34 27 38 35 36 36 33 40 36 36 33 34 30 36 34 25 34 43 26 39 34 46 31 50 41 27 36 42 25 29 33 37 34 38 30 39 42 29 30 36 30 29 37 40 45 26 29 35 29 33 34 38 28 44 35 46 33 38 26 28 40 36 30 33 31 41 33 41 36 34 36 40 38 30 42 40 42 37 27 35 30 35 39 39 33 40 32 42 36 38 32 35 43 34 46 37 48 33 48 35 31 33 29 33 34 35 46 29 36 30 32 31 41 36 33 28 36 42 30 39 39 29 42 40 45 32 37 25 27 38 48 30 32 39 29 41 38 33 33 37 32 43 40 36 42 31 30 33 28 29 32 40 30 42 33 50 32 35 35 34 25 31 33 40 26 27 27 38 36 32 31 37 28 41 40 39 36 38 34 30 42 37 35 39 46 40 28 31 42 28 38 31 28 33 29 37 45 37 35 39 37 38 26 33 37 35 27 35 42 37 36 40 40 43 43 34 28 38 35 34 33 41 41 33 37 28 34 35 27 29 23 44 40 23 37 43 43 26 41 38 32 37 30 48 34 30 45 31 37 30 41 40 32 34 31 29 48 31 25 28 38 36 45 32 26 40 29 24 27 40 31 32 31 44 34 35 29 42 26 39 45 40 37 35 48 27 26 32 35 44 38 33 43 38 39 34 40 31 38 31 33 26 44 36 33 27 37 29 37 30 35 28 34 28 33 33 25 29 32 33 27 45 28 34 36 35 37 33 35 36 31 52 35 41 40 34 37 32 46 39 32 29 35 45 28 31 47 31 26 28 36 36 35 26 26 40 37 40 41 50 40 32 36 36 46 34 43 35 47 33 37 28 37 40 35 35 23 46 38 37 33 31 40 31 37 32 30 35 34 36 40 32 32 31 55 44 25 36 32 44 29 43 36 34 39 30 39 38 27 26 31 32 32 32 37 34 37 43 39 37 20 32 25 49 37 33 39 44 29 29 35 34 43 24 41 34 33 37 30 35 39 29 24 29 32 37 33 44 28 42 36 39 38 30 35 42 42 26 30 36 37 27 29 32 32 47 41 37 43 29 33 35 36 28 41 34 29 42 28 43 38 31 47 48 31 35 41 25 35 33 37 31 31 33 29 45 36 38 23 35 45 35 32 30 36 38 30 34 32 28 38 39 36 31 35 33 42 23 31 32 43 26 37 32 35 49 33 26 24 33 29 34 41 37 26 29 38 30 36 39 45 34 27 34 22 35 42 36 45 48 37 29 37 24 30 33 29 42 37 33 36 31 38 30 29 43 33 28 40 39 29 34 33 28 31 33 45 47 46 40 42 24 28 33 31 33 29 32 31 35 30 33 32 38 35 35 40 31 24 35 31 26 34 37 38 37 34 42 39 33 34 29 24 36 40 33 33 32 41 32 30 44 36 31 40 45 39 41 35 42 30 41 44 31 32 34 33 23 34 34 47 35 33 46 39 33 28 43 28 41 29 34 39 36 34 41 32 35 35 36 48 43 36 39 36 35 37 31 29 37 32 42 30 27 35 38 41 36 34 39 32 29 37 26 27 40 32 25 32 28 27 31 35 41 34 32 34 35 38 47 26 25 32 26 34 34 36 43 38 32 31 42 38 31 31 23 30 32 29 41 34 35 30 29 31 31 27 36 21 42 35 24 41 13 44 40 33 24 33 47 43 41 43 45 31 39 40 32 37 38 31 35 38 38 42 36 43 36 36 45 43 36 38 27 38 34 21 38 43 33 31 37 37 27 28 29 34 31 35 25 34 44 30 25 34 34 40 36 33 23 30 35 32 37 42 30 27 42 27 37 35 33 30 33 49 32 38 37 34 42 36 23 34 38 29 32 31 42 34 33 38 31 39 33 39 39 33 39 26 32 50 37 35 48 34 38 31 39 40 42 42 32 27 30 37 37 40 52 34 50 31 43 25 31 38 33 29 45 37 43 39 39 33 35 28 34 39 27 41 30 31 29 37 34 20 36 45 29 27 30 47 29 36 23 43 42 32 34 33 33 39 33 38 44 29 32 28 35 39 35 42 26 37 31 27 42 40 31 24 37 42 35 49 38 32 25 29 28 25 38 39 31 33 35 38 45 42 32 33 34 30 32 39 34 27 26 23 38 38 30 39 27 32 34 34 34 37 36 40 32 47 38 35 35 39 26 27 23 32 36 36 37 25 30 35 29 38 43 41 39 30 25 37 43 33 50 37 36 34 39 32 44 30 22 36 32 31 35 33 28 36 32 44 30 32 33 27 28 27 24 36 38 35 37 37 27 29 26 32 44 26 44 27 32 34 43 38 34 30 34 32 34 41 23 35 28 38 38 30 40 30 36 32 30 31 30 35 32 38 33 41 41 32 27 28 35 38 25 38 36 26 35 27 41 33 31 36 34 40 39 42 32 40 39 38 28 37 35 41 25 32 29 34 29 36 38 32 28 31 34 34 44 36 33 32 29 28 36 29 32 30 38 39 29 35 38 32 25 38 42 26 31 46 35 29 40 30 31 28 27 39 29 41 40 29 34 31 42 30 28 29 39 34 42 29 29 36 34 34 36 34 28 37 28 30 40 44 51 47 37 39 28 41 48 28 33 35 31 28 39 31 34 32 30 41 34 39 33 32 32 40 30 44 40 32 39 31 47 33 29 39 31 36 37 28 34 36 23 34 27 50 45 39 23 25 41 34 31 44 36 33 29 41 25 26 32 32 26 52 32 35 33 31 30 43 37 37 41 22 32 28 35 26 24 47 42 36 41 34 31 26 35 44 30 32 26 39 34 31 31 24 31 37 34 39 26 25 37 39 24 38 25 45 28 42 35 32 38 41 27 44 40 33 41 29 32 35 35 39 28 29 34 35 35 40 47 28 24 42 42 31 36 41 34 30 33 36 35 33 24 36 40 32 54 30 37 34 27 43 32 36 24 24 27 41 32 37 25 25 25 42 37 37 33 31 29 40 39 27 47 33 31 34 34 25 28 42 30 41 32 40 36 43 34 35 35 33 33 42 35 33 36 42 35 30 27 29 41 34 32 35 33 36 31 34 34 48 37 41 32 39 30 32 42 34 36 32 29 39 40 19 37 37 41 32 25 30 34 28 35 33 32 40 26 24 33 34 30 28 36 36 33 42 32 34 24 31 37 35 33 35 42 33 33 37 39 37 32 38 28 33 28 37 45 32 37 34 23 33 27 25 34 31 37 29 48 28 36 34 27 27 39 42 27 36 27 35 40 33 32 28 29 30 43 26 43 35 35 39 41 32 42 37 34 29 32 35 35 30 43 42 39 41 40 35 39 24 30 23 38 34 27 30 34 21 25 36 28 33 32 41 33 37 43 38 42 46 44 39 29 44 39 35 33 42 37 31 33 33 43 45 30 40 31 31 38 45 38 31 46 37 46 30 42 46 42 36 31 31 37 35 29 34 32 38 40 38 31 37 41 39 37 28 38 38 34 27 45 33 30 30 36 30 33 43 27 39 41 33 38 41 31 25 37 39 34 25 30 34 43 31 46 31 22 43 30 29 35 38 37 41 33 32 38 30 36 31 27 34 35 43 42 29 26 38 36 34 38 38 37 40 27 34 34 32 41 40 35 40 44 37 33 35 29 32 37 28 35 32 32 20 39 33 27 35 35 27 28 37 31 24 39 38 30 34 41 35 30 23 37 36 44 38 32 31 32 30 42 42 33 26 35 28 25 45 25 36 36 30 45 26 32 38 30 34 33 39 38 37 35 29 33 36 33 36 37 33 30 35 25 48 40 39 44 36 39 29 35 41 35 27 35 33 39 38 34 25 34 36 34 25 36 33 27 27 25 33 37 39 49 37 38 35 36 27 29 17 37 47 28 28 45 35 32 34 26 35 27 31 39 40 24 41 36 45 40 44 31 36 38 44 25 35 31 32 37 39 45 36 24 30 32 38 29 38 30 37 40 47 39 31 40 36 26 45 28 41 33 28 36 39 28 35 35 30 31 33 44 36 35 37 48 32 29 36 35 35 33 35 35 36 30 40 28 22 25 34 49 35 32 47 32 31 35 37 36 34 39 38 45 32 32 28 32 34 40 50 23 25 40 40 30 42 29 32 39 28 25 31 34 41 33 29 36 35 34 32 34 32 30 44 34 43 41 38 34 49 24 30 41 34 40 38 39 36 42 39 34 40 32 33 33 35 36 36 39 39 30 33 40 34 35 37 30 35 35 31 43 41 25 33 30 34 34 30 27 50 39 39 43 34 35 23 39 41 39 38 22 31 30 34 40 38 33 33 26 34 42 28 38 40 26 31 41 41 35 35 45 43 38 35 29 37 32 35 33 33 34 33 35 42 35 34 23 36 29 33 32 34 50 41 34 42 37 38 23 38 37 32 33 29 26 40 51 37 44 33 25 36 35 28 45 35 37 43 26 31 29 29 33 30 34 34 39 25 40 32 36 52 40 32 46 33 34 47 28 41 27 32 46 30 32 29 30 28 39 34 27 26 40 34 31 29 40 51 44 30 34 34 32 25 41 33 33 34 35 40 32 27 23 43 35 37 32 38 32 43 28 25 33 39 33 24 37 36 24 44 46 23 37 32 34 25 35 32 46 30 37 41 43 36 38 33 33 31 37 33 38 28 36 32 25 34 39 39 38 42 33 41 48 35 39 37 28 39 29 28 30 32 32 33 30 27 30 32 30 34 32 42 33 30 27 33 31 26 32 43 39 38 39 42 31 29 34 41 36 28 34 30 34 38 27 38 35 28 37 31 33 29 33 36 38 35 43 30 32 39 35 38 43 36 31 46 38 35 31 33 42 34 36 42 35 46 37 38 37 44 37 39 41 41 33 44 32 30 38 36 30 38 37 39 28 40 33 36 40 47 31 45 46 40 24 34 36 32 46 42 33 40 36 25 31 49 34 34 22 42 44 38 34 37 36 40 39 33 35 32 32 27 27 38 28 36 44 42 29 31 41 40 31 30 31 33 30 28 34 36 38 26 35 33 42 32 37 27 29 37 38 27 36 30 34 31 37 39 35 39 32 45 27 37 37 39 31 29 43 29 33 32 29 54 35 38 33 33 33 46 30 34 42 34 30 38 42 35 35 29 36 28 35 39 42 36 31 36 43 30 43 31 32 45 37 28 30 43 47 35 40 30 32 38 39 30 39 29 33 31 42 25 38 31 34 36 36 27 41 30 27 29 38 25 34 37 25 32 29 34 33 38 31 43 35 43 36 35 29 38 35 32 38 28 36 33 40 28 29 45 40 26 31 36 42 40 36 30 28 28 35 35 29 44 38 36 27 29 35 30 29 33 34 27 31 31 40 35 26 26 27 33 39 46 32 49 32 40 34 36 33 35 37 34 34 34 32 41 36 32 36 44 30 28 42 27 42 39 60 33 31 31 37 46 37 29 29 32 40 38 34 33 23 28 36 36 34 30 31 51 37 34 28 48 46 27 35 31 28 37 35 23 43 33 29 42 34 44 36 32 36 40 42 33 30 43 35 30 27 39 28 33 29 30 33 33 20 26 39 28 36 34 31 43 36 29 40 31 28 42 38 27 26 51 35 28 23 39 43 42 32 36 53 25 43 39 44 30 49 32 31 32 37 34 34 43 27 36 45 39 30 30 40 30 47 28 41 30 23 31 29 43 32 35 36 31 32 35 41 39 23 28 29 44 35 25 42 37 28 37 32 47 32 32 40 39 34 38 29 36 45 38 33 38 33 39 36 32 38 42 30 26 45 36 32 32 37 38 28 27 40 41 37 20 27 35 32 31 25 36 44 53 25 39 43 48 34 32 41 30 30 41 39 26 38 25 31 39 35 32 38 40 34 34 39 33 35 37 39 40 32 42 28 34 28 34 43 29 36 38 39 30 43 34 31 32 43 35 38 33 46 24 42 29 31 32 32 30 33 44 47 31 32 45 36 30 36 34 39 30 35 34 34 41 28 37 30 36 25 38 26 32 29 35 32 36 35 33 31 34 35 34 37 28 29 56 45 33 26 38 40 29 39 40 24 34 30 31 35 31 46 35 33 44 46 18 36 50 34 34 42 42 47 32 38 29 27 31 25 44 29 35 37 42 32 35 34 34 26 38 31 44 33 49 43 35 41 27 40 37 28 37 43 34 38 33 24 47 36 19 36 40 38 25 37 41 32 27 50 31 44 32 36 23 33 40 43 30 31 39 30 44 27 36 17 37 29 39 21 39 41 40 33 37 30 30 28 25 30 36 44 38 33 36 29 32 36 33 36 32 37 40 35 37 24 34 31 34 31 30 34 35 36 42 41 38 37 31 36 37 30 36 33 31 28 31 28 31 32 29 37 36 37 29 30 32 33 37 35 40 33 43 44 41 32 34 33 36 33 29 28 31 35 30 47 23 39 35 26 27 32 35 19 25 41 45 37 37 46 32 45 29 43 36 32 34 35 39 33 36 26 29 36 36 45 28 27 34 38 33 34 29 32 23 47 33 34 29 30 40 35 31 35 34 34 28 30 34 32 30 35 34 35 30 28 31 31 31 35 44 44 43 27 42 45 38 37 37 20 37 34 29 54 37 35 43 43 44 36 32 35 28 33 47 29 36 30 31 40 51 24 37 48 27 41 47 42 33 37 40 36 41 37 36 27 37 31 35 24 29 37 41 36 35 43 30 36 32 53 36 36 34 36 37 42 32 29 36 33 34 31 44 33 36 35 28 30 26 39 27 33 31 32 34 23 28 35 32 46 24 34 30 40 39 30 34 31 33 27 36 32 40 36 40 41 30 41 37 33 36 40 41 38 29 31 45 37 28 29 29 44 29 28 35 39 31 20 49 32 30 41 27 35 37 39 28 26 34 32 35 22 40 38 39 28 35 31 39 36 40 47 41 28 29 42 36 32 31 25 39 38 26 35 33 30 34 30 40 42 43 33 41 29 28 32 30 31 43 47 39 31 40 26 42 34 39 17 34 39 39 38 40 28 43 28 28 40 35 36 45 24 32 27 29 30 34 42 35 31 42 38 29 46 28 24 32 33 34 27 27 49 31 30 20 28 28 40 38 31 30 23 34 25 31 25 26 29 51 35 36 35 39 49 31 30 41 25 38 35 38 41 38 43 32 29 28 31 26 41 28 34 37 34 27 50 27 33 26 34 29 33 29 31 29 40 31 35 31 39 29 35 38 31 33 23 33 36 37 50 43 37 37 38 38 36 38 33 30 34 38 29 43 39 31 39 46 34 34 32 37 28 33 31 48 38 36 31 32 38 29 22 33 33 20 28 44 29 33 30 41 41 39 37 25 46 27 32 34 44 40 40 33 40 32 55 29 37 34 30 27 29 26 31 36 20 29 34 33 22 31 27 33 29 40 28 43 30 31 30 48 34 26 34 49 42 24 34 34 29 29 29 26 30 25 38 33 41 33 31 35 32 49 27 37 41 33 31 40 43 35 31 40 31 30 34 38 25 30 36 24 32 41 33 34 40 35 38 33 29 35 38 27 37 32 26 39 35 35 29 38 32 45 42 40 33 29 36 39 39 32 50 36 37 35 33 25 28 31 38 27 31 28 35 25 31 26 30 29 42 37 36 38 34 15 40 36 26 46 29 40 35 42 33 32 36 34 33 32 34 32 38 26 35 37 34 36 37 46 39 29 41 26 43 33 44 26 44 30 37 40 39 42 38 44 34 31 34 47 42 48 34 38 36 29 26 27 31 29 34 34 31 42 34 29 29 39 40 29 28 30 27 25 43 29 37 27 25 39 24 33 42 36 29 38 38 35 25 31 30 36 28 24 50 40 33 25 33 37 46 36 38 31 47 32 31 37 38 44 25 46 34 39 36 42 39 29 37 34 42 38 47 30 24 32 31 36 36 29 35 37 26 34 38 33 39 31 44 32 32 46 41 35 40 41 29 23 34 41 32 31 29 34 30 40 30 24 31 18 31 37 40 38 33 37 36 34 30 33 38 34 41 39 36 37 42 27 29 31 48 51 29 40 32 38 25 42 41 35 26 25 39 41 41 20 35 29 41 37 35 30 32 29 32 30 27 43 43 39 33 31 40 34 25 34 38 34 37 30 35 37 32 42 37 37 34 40 43 34 43 29 31 37 38 26 42 42 34 31 41 39 33 36 39 33 34 36 34 21 45 33 31 27 41 39 38 30 38 32 30 32 34 29 43 33 40 33 38 27 35 32 40 36 34 35 36 34 34 31 27 33 37 30 35 41 33 42 31 41 28 32 36 31 29 32 28 34 36 32 38 34 44 40 33 35 36 26 34 39 42 35 31 30 32 32 38 27 27 35 29 47 39 51 37 32 33 36 32 35 24 37 30 33 47 34 40 28 52 36 32 24 43 36 38 30 26 31 39 49 37 30 35 41 38 33 39 35 39 41 36 24 34 36 44 45 48 30 34 32 47 23 30 27 28 38 30 29 34 34 41 37 41 27 34 31 29 32 21 23 32 30 44 37 33 44 44 29 30 36 32 34 31 37 43 32 31 32 26 28 41 29 35 28 37 29 47 33 38 30 41 52 28 32 32 31 33 40 30 26 37 26 39 20 38 34 28 49 34 32 37 34 30 31 37 36 32 22 39 26 34 26 37 29 33 29 45 40 32 31 21 32 33 40 27 29 37 34 40 30 34 33 30 28 34 27 37 35 39 35 28 32 26 32 27 32 27 36 49 19 38 47 31 26 32 30 32 28 30 39 23 39 47 35 30 28 41 31 23 31 30 29 34 28 44 28 23 30 47 34 25 23 39 38 44 31 37 31 39 38 41 40 36 32 30 30 33 34 33 37 30 44 34 28 38 29 29 26 34 34 35 30 35 31 41 26 26 35 28 41 44 32 30 30 32 35 41 35 44 33 35 38 31 35 41 38 35 29 29 35 36 49 36 37 36 34 29 38 40 26 49 35 24 36 22 30 30 42 37 40 41 32 38 54 35 39 28 39 27 39 48 27 39 34 37 37 33 31 36 34 27 37 29 34 43 39 42 38 40 34 40 30 36 33 33 29 43 40 33 30 37 34 29 33 27 32 34 40 43 35 34 33 32 46 46 46 33 28 39 33 32 28 33 25 40 42 43 46 34 36 37 28 33 32 37 30 28 35 31 36 41 29 31 33 39 24 31 39 42 34 37 43 31 42 33 32 33 40 31 32 31 39 35 30 24 32 39 41 35 29 34 42 34 42 32 44 35 28 38 37 33 32 35 30 31 36 38 42 43 34 33 39 29 36 39 34 35 39 43 55 33 29 37 44 42 48 42 33 40 33 41 37 34 32 37 33 36 32 44 24 41 33 27 37 32 32 37 27 44 36 30 41 38 45 33 33 39 29 31 28 45 30 44 38 42 30 33 32 43 31 45 26 31 31 23 24 31 35 37 29 29 30 34 39 53 29 37 32 28 37 33 30 40 32 26 36 38 32 38 38 36 35 43 36 30 27 28 27 35 35 31 32 31 38 37 53 46 33 34 38 26 39 41 28 31 30 50 34 39 26 32 24 36 32 36 29 29 33 27 38 29 33 38 32 30 38 38 31 33 34 31 38 38 40 40 35 35 35 25 41 36 31 30 35 41 41 28 53 31 36 30 48 44 36 32 50 36 32 36 38 38 34 27 41 30 48 30 29 35 28 41 41 34 33 47 29 26 30 35 37 38 40 46 34 36 45 37 28 43 30 39 35 38 39 29 30 23 46 44 37 44 31 46 30 30 40 34 34 31 43 26 35 38 40 24 37 24 40 40 36 38 38 35 30 35 40 44 43 39 41 38 33 32 41 40 51 36 49 44 35 34 37 29 42 36 33 30 36 37 41 34 39 26 31 40 35 46 34 43 40 30 29 29 34 36 41 28 29 31 38 42 41 35 41 36 27 42 39 35 28 36 32 38 39 27 41 27 33 39 30 37 38 38 41 45 33 33 31 25 41 33 37 31 30 31 40 32 36 47 44 36 34 34 38 37 35 46 36 38 47 31 41 40 32 29 32 37 35 30 39 31 40 41 34 29 28 30 38 32 34 30 35 19 34 32 35 39 28 34 33 33 35 34 45 30 35 35 25 35 30 31 34 35 33 47 31 34 22 36 28 27 35 27 45 44 44 30 35 45 48 35 39 37 38 36 31 33 32 34 27 20 31 25 26 40 28 24 26 36 36 31 38 36 28 35 34 29 29 34 32 28 23 29 37 26 38 35 25 40 38 40 37 30 36 32 47 42 34 39 32 34 25 33 27 39 31 34 31 40 39 30 28 41 42 41 35 35 26 28 29 42 32 35 49 31 33 32 38 31 37 39 28 44 40 37 38 33 32 41 34 48 32 26 33 35 31 34 32 43 29 32 28 42 38 37 42 34 29 43 31 27 29 45 35 36 39 37 34 25 27 34 29 33 30 38 20 44 31 38 29 31 26 46 36 29 33 36 49 42 38 29 33 33 27 41 25 39 29 34 27 37 28 37 36 52 38 31 19 34 46 28 25 37 34 47 20 38 33 31 39 41 32 27 39 33 39 32 46 29 43 39 35 38 38 34 31 33 31 33 30 35 34 44 41 34 47 28 30 29 43 39 47 44 38 36 48 26 47 39 35 36 44 29 26 28 33 40 31 38 41 35 32 38 28 43 30 31 30 36 44 34 30 34 37 38 40 33 30 35 34 26 35 40 30 31 21 39 28 26 43 34 33 34 31 37 31 32 34 46 33 43 33 38 26 30 48 40 35 33 45 29 29 29 32 36 33 37 28 40 30 28 34 34 35 37 35 28 34 29 39 41 41 31 32 32 37 32 38 34 35 29 37 34 30 37 38 29 41 50 27 38 32 34 30 39 30 41 34 27 31 30 35 31 37 35 40 35 32 38 32 37 38 33 36 45 29 39 39 36 39 26 42 42 26 49 27 31 42 42 39 28 35 38 36 31 27 42 33 32 30 32 32 36 35 33 44 53 35 40 33 38 42 33 35 31 25 41 37 39 36 39 30 33 41 34 34 34 40 27 53 39 35 25 31 33 36 46 42 36 39 35 37 46 37 31 40 25 34 42 38 40 33 34 31 33 26 36 42 42 30 27 40 58 41 30 42 30 33 42 44 36 31 38 33 33 51 39 27 41 34 40 25 44 27 41 36 43 31 36 39 44 39 35 30 23 39 36 38 49 44 26 27 29 43 36 43 35 42 33 36 28 29 29 38 33 46 37 39 38 44 34 31 37 29 44 33 34 36 32 33 26 35 35 52 19 37 38 37 25 33 41 37 28 37 37 31 30 43 32 35 33 47 42 35 35 34 29 29 34 37 36 29 32 33 35 36 38 29 39 38 29 41 43 44 48 31 39 37 36 22 35 30 41 27 38 30 30 32 42 35 38 23 46 26 45 30 24 31 44 34 36 35 32 50 39 32 36 40 29 23 36 26 48 42 34 37 33 42 30 40 32 35 28 24 32 32 28 44 38 24 25 45 43 28 27 39 36 42 38 30 27 22 35 29 34 40 43 30 30 28 28 32 34 31 31 34 36 38 39 39 45 37 36 43 44 47 40 34 26 39 29 34 33 48 38 41 25 44 44 43 32 40 37 50 32 38 31 41 29 32 27 32 29 22 37 31 40 45 38 35 35 37 30 35 27 34 35 29 34 44 36 42 33 42 38 31 28 29 35 35 35 37 27 40 44 30 32 33 31 38 36 35 32 31 37 21 25 31 27 31 24 29 25 31 30 35 29 30 36 36 33 25 33 45 33 24 39 38 32 28 32 38 40 39 33 27 40 32 34 40 40 36 36 33 29 29 40 37 26 44 31 22 38 24 27 38 43 38 49 33 28 32 38 34 39 34 31 39 42 35 51 46 29 37 24 29 44 45 34 34 46 39 32 42 36 35 35 41 37 24 39 36 35 42 31 29 38 27 38 43 35 34 34 42 29 34 32 36 30 43 27 28 28 31 30 33 40 32 32 26 25 29 37 30 38 33 38 37 36 34 33 35 33 39 39 40 29 34 19 40 34 30 33 34 28 24 49 37 34 46 45 37 52 33 40 25 28 45 44 35 53 27 27 37 26 35 31 29 31 40 33 41 38 33 33 30 25 37 31 41 38 34 32 37 42 30 35 36 46 32 32 38 46 43 29 35 33 30 33 42 39 32 32 34 22 28 26 36 45 32 43 30 36 32 48 30 36 30 35 25 38 40 28 39 32 35 38 29 31 31 28 31 36 28 27 42 41 35 30 42 37 24 36 32 32 30 38 29 47 48 45 31 29 27 36 36 24 38 49 32 34 29 33 48 45 30 39 31 40 41 25 28 30 31 22 35 34 26 29 33 32 32 30 35 34 27 37 31 30 32 41 37 39 36 39 35 38 39 36 36 37 26 38 32 30 21 35 35 33 36 36 34 36 31 46 27 29 32 36 30 21 37 32 37 34 26 31 29 35 40 35 27 37 30 46 29 28 39 27 35 33 37 36 39 42 35 34 34 36 33 34 37 38 32 46 29 34 33 30 36 30 34 38 35 41 41 27 35 37 43 29 36 37 39 34 33 26 31 47 48 37 41 36 26 30 38 36 31 40 31 41 36 25 37 25 40 44 25 33 38 38 41 47 44 36 31 35 36 29 34 35 37 31 37 36 37 37 41 29 29 35 35 42 43 28 42 27 37 31 29 37 32 43 51 38 42 43 29 30 40 37 44 32 27 31 36 40 43 32 37 37 41 32 37 28 31 35 29 44 40 29 40 47 33 31 29 32 48 33 35 41 31 38 30 33 35 33 38 29 43 29 38 32 31 29 42 28 37 27 40 35 33 34 34 30 34 27 41 26 37 27 41 36 39 36 37 31 37 33 36 41 39 29 37 35 37 34 40 27 27 31 36 47 32 35 32 43 35 39 37 34 29 36 28 35 33 31 37 40 43 43 33 38 30 30 32 35 24 30 32 23 33 35 35 34 26 49 36 30 39 37 37 32 31 31 29 40 31 34 30 39 24 28 32 42 42 36 46 24 27 26 34 36 42 31 34 34 36 40 27 37 49 28 36 34 27 37 26 31 44 34 34 34 38 39 46 38 35 42 33 26 33 37 44 40 37 42 35 29 32 34 35 29 38 40 29 43 30 32 35 31 28 36 34 35 29 40 31 29 29 30 36 34 36 30 36 36 40 42 37 37 37 43 34 39 40 43 34 33 36 32 33 39 29 26 36 44 35 40 39 35 28 28 41 35 47 32 32 42 32 45 30 36 35 42 36 36 29 35 30 30 31 34 40 35 30 35 46 31 27 32 35 41 22 33 41 38 23 40 28 34 24 40 48 32 38 39 27 30 33 46 38 52 27 36 31 37 45 37 26 42 42 23 28 35 38 30 30 33 30 40 42 34 24 38 36 25 42 26 30 38 36 36 33 35 29 32 31 38 27 47 31 30 37 29 42 29 35 40 34 31 28 32 35 36 29 30 27 30 31 33 37 45 33 41 33 39 29 38 40 41 33 29 48 37 29 36 35 40 26 38 32 35 41 30 38 33 28 35 33 30 30 37 34 35 28 34 19 43 38 36 34 29 30 28 45 38 38 42 36 46 21 30 31 37 35 36 28 30 44 48 38 40 44 45 38 30 33 36 39 40 43 30 17 38 41 35 39 36 36 41 57 30 26 35 31 46 36 36 28 33 42 34 43 33 35 34 30 30 40 25 31 27 27 28 32 36 34 38 26 23 32 32 31 29 29 36 35 29 31 33 43 44 26 41 32 50 27 36 30 36 30 28 33 34 39 33 47 32 47 32 50 31 37 21 51 28 40 34 35 42 36 38 46 27 32 37 25 35 48 33 29 30 31 26 34 31 32 31 33 36 29 34 37 44 41 36 38 38 30 39 28 31 40 40 43 31 31 36 28 30 36 35 34</t>
-  </si>
-  <si>
-    <t>JSB(15.494901135512528, 13.349509301626775, -616.7360420398948, 3650.9672504385326)</t>
-  </si>
-  <si>
-    <t>194 208 284 277 313 215 204 289 221 334 324 234 308 276 254 152 182 289 258 265 201 202 263 212 246 246 200 227 276 376 313 221 356 200 256 341 299 232 392 245 199 231 316 220 289 235 339 285 303 209 238 246 317 256 272 280 271 248 228 238 339 293 216 158 232 268 220 218 254 189 221 191 281 218 249 285 200 203 347 237 275 293 273 175 254 245 296 242 235 341 151 187 271 291 265 283 218 294 212 209 304 171 252 287 214 183 371 275 150 270 244 296 256 209 140 299 241 264 311 278 276 292 178 214 273 288 145 337 318 278 286 236 231 395 245 169 220 225 250 210 238 232 291 188 201 252 281 243 134 267 296 253 352 242 265 174 276 188 283 301 249 246 300 243 191 292 261 248 212 322 344 224 223 230 306 229 315 279 310 220 216 319 296 303 305 216 260 259 200 246 291 297 303 256 165 296 332 248 226 260 260 228 257 265 199 266 214 220 231 263 313 188 300 317 395 235 280 317 232 262 239 142 227 241 235 216 304 252 187 270 246 283 299 229 290 303 276 277 229 289 271 265 273 203 242 221 240 235 203 208 273 194 249 303 189 365 266 285 296 233 113 222 384 308 209 282 234 282 226 188 273 173 251 230 174 305 306 260 210 211 172 281 299 216 298 298 173 235 329 130 286 281 309 273 201 296 284 235 282 255 245 210 309 320 242 317 186 322 253 246 242 194 322 282 286 243 230 229 176 297 369 330 262 362 242 315 230 217 228 244 314 315 245 249 230 239 323 184 303 288 199 196 246 127 252 175 182 228 359 395 264 226 255 201 307 233 284 239 290 292 224 333 339 266 160 219 255 232 250 205 309 307 263 260 247 239 230 313 273 245 341 322 307 176 236 231 244 188 325 330 249 221 202 207 270 98 296 338 176 227 282 262 178 314 246 221 352 268 259 298 304 196 295 267 224 277 253 315 196 211 251 316 265 328 261 184 190 186 292 292 324 302 299 186 168 230 208 263 328 229 228 237 343 216 310 248 231 187 296 246 327 265 236 345 268 196 257 226 290 161 315 325 205 199 254 188 289 281 296 209 318 217 219 277 284 278 318 276 258 224 332 258 286 209 171 337 281 286 221 227 233 261 257 200 315 263 224 228 308 196 192 294 299 272 186 215 217 257 315 236 268 264 337 277 335 281 337 287 355 285 314 185 276 267 313 317 178 304 246 218 212 322 330 264 246 228 284 182 204 293 242 232 192 180 215 330 249 252 285 211 282 218 236 255 249 258 282 297 250 234 343 282 322 317 359 359 238 207 377 219 293 254 216 311 224 243 213 297 221 243 268 283 329 256 219 207 251 202 275 145 235 264 277 303 248 253 283 316 240 276 253 242 251 154 224 263 224 194 258 352 261 205 233 295 301 289 208 262 354 257 157 205 280 219 181 221 200 242 268 299 223 308 339 194 235 310 200 291 199 294 266 317 202 229 189 258 159 173 131 210 277 361 181 278 286 281 241 199 242 327 295 315 255 260 286 257 294 336 335 294 312 250 292 230 343 237 288 195 265 131 226 266 344 370 317 193 353 147 288 197 287 208 244 256 248 281 263 309 236 348 139 178 278 274 229 334 193 260 280 320 214 242 252 254 198 282 229 253 256 246 242 259 266 218 239 201 380 226 356 166 176 264 309 341 324 259 281 242 298 284 246 216 298 247 258 296 213 322 211 217 281 305 259 228 216 257 232 273 262 271 275 303 289 305 186 251 269 164 177 231 260 274 354 204 294 255 241 333 241 316 188 259 161 278 306 327 174 314 225 267 223 200 175 222 279 215 270 347 278 313 370 216 275 245 261 111 193 222 189 306 375 280 219 208 239 248 256 304 314 164 300 211 208 279 247 277 193 180 292 200 303 249 250 250 322 279 224 242 266 172 336 300 184 260 265 300 266 306 262 289 205 242 238 185 307 275 231 233 269 240 188 253 202 225 284 258 214 253 281 324 335 287 278 324 240 288 184 212 220 264 268 315 187 194 263 208 124 188 241 287 244 272 290 338 388 269 239 230 246 266 195 197 182 256 207 314 301 267 304 413 317 250 326 242 287 223 293 268 254 258 212 229 184 188 192 133 227 229 266 209 321 251 232 276 228 253 235 190 268 183 219 171 236 181 240 317 328 191 184 284 274 356 306 223 212 238 265 245 278 270 232 209 304 307 297 281 279 223 306 241 225 245 227 269 248 255 190 350 376 201 295 222 224 301 239 177 267 231 335 334 269 265 278 287 289 176 210 202 287 224 301 205 263 263 278 289 196 302 258 316 277 275 290 240 238 342 234 241 297 231 233 320 267 204 253 206 238 194 286 216 188 314 264 311 174 288 246 292 293 237 252 220 287 288 273 283 343 368 284 194 273 264 227 137 333 227 224 198 262 212 159 293 294 282 188 185 181 242 215 215 389 142 294 260 211 256 152 288 170 290 283 224 307 284 297 312 204 234 231 296 289 304 272 236 284 178 189 341 351 270 235 262 260 233 198 224 281 231 196 347 132 248 380 265 242 311 272 207 301 309 245 258 256 277 301 310 199 198 76 210 334 255 242 213 158 315 185 274 277 196 218 166 291 276 191 210 243 302 305 242 240 227 231 232 318 183 263 295 292 256 290 219 296 275 192 330 226 244 282 245 208 258 199 168 170 271 285 290 331 239 217 265 274 260 291 220 211 314 205 259 309 216 293 298 222 231 242 297 345 280 166 255 262 295 273 212 165 301 216 236 257 229 227 253 247 228 252 227 199 204 260 250 247 290 228 222 283 273 227 317 264 281 291 259 327 314 170 315 244 209 237 290 234 243 268 253 228 259 244 349 281 220 223 220 232 265 272 246 277 233 181 269 248 179 253 184 272 270 285 215 231 205 223 330 223 303 241 264 259 246 344 323 272 291 323 275 271 176 240 311 278 242 249 202 198 229 280 252 200 242 322 294 189 214 246 284 296 350 315 295 253 276 211 269 280 226 220 283 256 233 280 252 219 270 290 204 295 196 250 305 274 303 286 216 268 222 214 201 299 274 173 224 173 250 219 268 311 284 280 290 275 310 270 239 246 296 200 217 208 170 172 178 221 291 276 235 276 222 213 290 206 196 225 242 259 310 269 245 202 340 213 232 293 199 311 204 285 299 216 261 296 155 203 244 333 232 201 381 212 258 356 225 267 250 278 157 226 276 248 328 190 375 343 262 167 272 251 198 254 189 214 291 222 228 286 226 257 215 298 327 180 202 252 285 214 282 253 320 270 263 261 353 251 237 255 298 249 296 177 306 310 282 248 224 301 155 304 194 238 261 229 269 276 197 193 236 197 292 367 311 242 209 387 291 242 200 276 245 238 227 362 206 324 234 214 230 251 351 212 334 286 273 267 195 249 216 264 273 187 257 326 238 252 282 159 224 244 264 296 286 264 273 297 312 158 276 235 379 233 221 291 284 263 273 265 209 234 220 248 236 197 312 299 249 217 350 236 207 235 301 259 228 263 245 259 309 302 284 139 318 271 318 301 298 198 275 313 137 255 239 175 279 340 283 304 289 301 284 206 244 189 290 245 246 349 261 299 243 257 235 235 236 288 304 255 241 292 216 299 257 248 262 343 243 173 204 327 290 251 296 270 190 287 246 177 188 259 293 306 268 205 296 176 253 285 220 244 261 223 192 256 266 280 273 319 328 228 258 204 261 334 256 215 267 207 166 252 278 315 336 202 226 321 215 281 265 303 238 266 267 297 275 381 272 307 209 242 280 240 272 214 188 293 261 256 308 261 302 219 342 174 245 231 313 264 292 308 313 261 299 272 343 287 249 257 293 182 212 342 207 280 179 223 243 301 280 223 223 267 232 272 163 323 312 192 236 236 338 267 264 200 193 208 236 306 287 319 287 289 237 363 311 238 297 159 266 255 282 237 326 245 237 174 241 343 297 188 286 209 267 256 279 272 280 245 267 395 206 294 297 244 298 151 172 174 236 274 344 262 276 345 219 271 244 347 241 340 169 237 395 160 274 227 253 264 276 365 238 166 250 239 289 154 285 250 270 257 359 283 269 223 263 202 233 288 259 242 287 245 302 232 264 317 153 207 182 285 315 295 258 301 160 310 313 236 219 230 276 191 172 226 231 214 322 348 217 259 291 229 218 213 270 295 237 231 253 247 180 340 264 325 237 245 208 279 193 305 221 218 209 199 176 198 321 305 247 228 177 167 219 289 251 155 276 202 222 207 211 221 306 215 258 207 323 391 165 295 291 150 230 206 373 146 263 198 215 260 218 250 259 258 365 315 150 318 249 235 257 172 251 305 250 289 157 281 230 182 124 199 313 265 280 270 195 254 259 252 253 276 167 175 136 230 374 306 198 209 213 279 332 319 276 210 304 269 176 234 263 255 205 267 240 281 215 202 235 313 135 271 176 381 288 187 221 214 244 389 234 235 307 152 240 315 287 217 284 322 141 172 321 280 204 192 302 288 338 308 367 229 296 210 198 286 172 207 247 320 177 333 281 221 281 265 279 278 240 262 224 271 288 207 244 212 265 240 291 238 279 193 271 195 188 260 170 277 371 204 239 157 316 219 289 207 251 254 299 247 207 279 243 222 248 204 313 320 303 260 276 286 272 205 315 315 286 260 173 316 238 196 230 295 224 330 181 192 201 239 274 144 186 228 206 266 319 350 290 243 265 214 198 223 220 242 228 180 266 248 264 294 209 179 281 279 323 352 228 334 252 271 257 278 254 305 260 288 211 253 297 253 170 264 260 256 247 155 216 317 262 205 251 288 320 240 290 158 221 260 293 342 357 202 340 274 295 279 290 213 382 280 151 313 238 230 284 246 207 232 263 355 215 179 424 279 292 275 309 285 245 262 245 268 239 283 311 145 349 245 234 243 288 220 182 265 237 277 271 292 125 287 205 266 269 353 322 175 280 360 292 253 315 289 251 260 246 241 223 225 283 230 267 267 243 319 306 239 201 206 183 273 198 303 194 312 291 231 292 338 210 287 249 324 224 241 257 319 146 184 317 298 199 202 380 287 215 222 243 239 275 221 260 283 226 203 187 193 309 353 275 212 245 311 225 238 200 253 215 194 348 288 257 217 229 206 269 227 323 253 286 217 250 222 177 250 246 199 273 217 246 257 254 294 257 212 272 198 252 159 196 240 278 255 291 189 161 257 283 247 241 270 241 209 265 313 300 171 280 278 304 171 442 243 186 135 236 271 249 247 255 195 196 233 252 254 278 216 306 218 274 275 231 225 215 204 214 244 177 295 214 248 182 283 262 271 194 255 377 316 214 176 204 252 249 260 245 347 256 127 240 167 211 287 335 346 315 260 211 263 193 220 255 290 347 222 343 258 280 324 236 307 209 290 284 307 285 226 293 203 208 249 301 362 200 251 310 292 241 300 220 306 205 339 142 290 262 237 195 330 261 299 111 230 336 204 306 210 268 222 169 308 264 247 282 365 237 256 235 218 237 235 309 260 262 241 333 150 229 295 253 190 231 254 243 280 270 304 291 236 268 231 287 208 328 214 310 240 215 204 176 225 291 236 196 243 317 286 324 299 232 294 228 194 204 258 193 250 218 271 252 157 291 256 381 283 285 257 218 230 227 311 254 308 339 278 154 278 337 228 303 220 266 178 338 262 169 288 255 249 256 289 229 185 263 295 249 254 211 184 278 246 282 126 256 239 187 198 287 292 214 321 166 237 220 379 232 264 175 278 238 254 259 318 275 197 292 201 322 264 251 208 303 238 352 232 276 284 268 243 255 227 230 218 209 234 303 242 208 241 265 234 236 214 251 330 281 310 280 177 242 258 206 270 240 339 218 287 179 210 166 250 269 226 265 255 330 274 334 283 181 292 237 232 281 139 263 254 261 288 317 183 294 206 255 204 338 297 301 297 180 335 309 255 273 222 298 220 217 199 301 260 275 214 286 280 236 228 208 267 294 327 297 208 298 253 261 229 266 269 248 304 225 281 261 267 253 290 289 231 250 300 182 294 330 183 201 296 334 274 185 243 196 317 366 315 163 293 169 260 294 346 243 321 310 262 410 207 205 237 238 291 341 275 258 222 260 285 305 316 263 195 266 239 349 278 363 326 308 327 368 288 312 154 250 220 299 269 281 244 306 152 194 317 227 240 212 169 307 210 244 296 315 244 161 218 207 196 236 191 231 243 232 237 274 338 264 262 279 295 238 268 243 238 184 319 166 248 266 218 324 179 193 242 268 252 314 213 281 294 253 294 268 283 259 285 169 217 337 319 210 183 129 281 213 320 299 245 288 220 273 284 250 199 332 260 276 248 292 279 329 217 323 330 174 256 407 336 242 159 268 278 189 265 253 176 195 289 195 262 233 236 280 268 102 257 194 243 279 249 229 268 184 286 244 317 268 241 328 250 262 220 254 300 298 315 312 248 302 249 186 304 252 354 280 223 327 330 291 183 138 314 265 206 180 201 295 323 218 329 218 285 233 246 223 266 193 168 402 268 269 238 253 228 243 250 235 141 181 190 249 192 227 363 230 198 233 221 366 263 232 313 233 235 364 312 230 145 216 308 267 197 227 195 228 280 208 233 232 264 217 262 272 315 200 324 272 297 230 362 234 210 204 288 308 219 316 254 307 162 302 198 204 202 255 351 171 297 364 176 254 281 183 311 216 262 238 306 264 203 350 312 294 278 243 213 263 182 239 165 311 233 237 257 269 280 205 159 285 267 307 205 254 271 288 259 253 280 252 281 254 273 258 305 235 225 269 264 201 226 253 231 243 251 193 250 308 321 225 262 250 195 286 219 256 247 265 192 268 244 242 237 207 238 197 306 235 286 303 280 258 276 213 254 310 279 172 268 314 204 314 213 214 279 255 162 229 227 281 280 329 292 256 258 307 242 259 239 253 228 320 172 171 235 245 311 216 268 262 337 233 326 187 267 302 267 317 185 301 127 194 295 263 261 270 309 252 276 272 171 179 247 317 245 239 366 215 238 258 295 294 274 296 311 237 251 203 241 221 243 244 299 221 291 198 209 202 227 202 187 311 385 303 300 229 280 283 190 218 267 233 275 270 270 335 134 165 170 302 324 234 188 217 225 221 196 109 255 268 239 266 295 275 218 280 185 288 312 309 158 241 225 217 300 298 273 148 102 225 314 213 194 238 245 252 169 190 238 264 292 370 278 227 190 375 271 332 239 267 272 249 247 261 257 256 281 182 233 260 269 263 380 272 204 261 245 171 243 217 318 174 230 311 320 177 291 244 314 307 262 260 241 237 265 276 252 258 252 253 246 299 314 202 170 207 279 213 268 174 276 250 227 272 304 248 274 231 268 301 228 173 254 189 246 302 280 182 252 238 292 184 285 280 265 340 260 172 350 262 256 291 294 227 249 302 177 214 281 340 243 244 272 281 214 349 227 191 257 269 319 288 241 243 305 294 235 227 284 281 264 245 270 291 223 359 288 255 153 330 183 306 284 241 207 270 204 246 319 297 252 208 347 146 230 239 238 262 205 198 279 229 321 187 358 214 239 167 296 245 263 264 258 323 258 220 267 279 261 319 184 219 261 281 252 185 230 139 250 273 214 273 287 227 258 165 179 274 311 231 216 225 250 149 306 182 265 220 257 260 294 256 250 281 277 263 288 221 247 283 232 232 287 238 359 203 218 219 255 218 284 237 223 315 196 262 278 197 292 234 251 186 242 245 288 207 309 316 165 273 284 304 266 227 249 259 350 220 204 268 242 281 286 301 235 249 265 216 232 229 298 274 205 203 202 279 352 236 223 305 189 318 307 346 254 266 292 290 225 299 265 393 374 286 151 170 346 216 163 181 221 242 331 237 265 250 349 172 284 348 266 310 269 306 341 198 312 305 226 303 270 257 188 243 305 245 214 220 202 238 253 285 303 243 253 306 210 220 229 238 256 213 258 257 234 159 276 260 329 207 277 237 223 302 181 264 304 249 257 273 212 193 226 332 242 197 300 264 285 293 208 254 297 204 186 278 193 242 181 272 246 263 375 211 238 148 386 296 189 312 218 316 233 228 283 204 282 271 374 218 370 321 260 212 263 308 183 251 339 212 245 224 247 260 245 257 238 269 256 329 202 187 248 175 291 233 329 280 272 274 282 189 181 319 224 216 311 215 265 286 272 205 224 251 227 280 339 380 137 240 292 253 244 232 239 277 218 295 132 231 219 291 253 366 300 235 249 214 244 194 188 244 162 345 137 175 263 313 276 281 338 243 250 224 212 214 300 210 157 269 267 301 294 216 314 189 226 222 262 247 175 310 239 302 225 287 234 265 295 243 163 339 227 317 260 205 358 349 368 254 230 226 334 275 275 140 290 318 303 201 184 276 273 283 242 263 363 246 204 280 263 260 214 255 288 310 233 238 226 221 262 246 253 313 240 197 290 250 241 261 282 188 323 282 314 222 309 292 260 237 219 438 275 202 302 262 356 183 235 213 213 250 247 352 222 261 236 381 226 191 268 142 196 202 271 198 306 203 200 347 241 243 257 181 200 164 259 225 275 259 225 333 302 267 200 261 228 303 262 302 319 235 249 201 176 355 283 287 396 303 218 221 294 265 202 242 238 194 226 197 285 353 249 223 208 239 177 297 253 257 193 215 187 226 291 252 293 239 229 343 255 255 238 248 198 251 229 256 248 288 210 232 113 217 200 302 159 180 236 245 244 234 276 270 255 296 257 270 206 309 233 226 223 375 255 287 230 175 304 233 300 262 166 230 292 205 293 294 214 199 226 208 264 265 392 191 254 226 229 230 273 263 299 253 264 240 164 219 263 242 262 242 313 285 333 280 255 268 276 277 203 251 292 231 300 243 249 220 313 337 212 215 292 217 183 228 312 268 250 227 275 316 239 202 244 251 252 212 267 317 197 183 275 150 278 173 251 201 266 284 332 246 295 184 230 239 267 228 259 226 325 184 381 316 272 280 305 222 214 296 288 349 232 193 268 208 208 272 288 240 239 217 309 274 241 161 257 261 229 372 246 306 226 291 226 263 240 190 214 313 263 309 218 249 198 208 253 228 255 288 256 202 243 250 288 314 189 230 237 354 264 287 162 263 328 226 192 297 244 247 370 295 222 225 290 231 304 279 307 300 214 254 203 178 201 216 337 186 295 273 255 214 244 200 224 180 252 176 247 246 215 217 248 245 259 225 292 238 290 273 306 257 302 201 262 356 211 251 300 293 298 233 206 390 197 283 264 267 259 292 277 336 304 258 235 257 256 205 221 321 213 238 193 334 238 269 330 348 287 275 254 214 263 309 186 231 276 304 335 225 236 252 311 193 163 214 305 270 228 321 207 298 215 260 313 195 254 242 281 235 241 305 261 283 190 298 251 220 276 278 251 338 218 235 236 278 283 314 197 228 291 222 216 131 241 201 217 214 263 329 233 236 295 217 259 278 296 349 282 335 250 197 211 200 299 277 265 302 281 283 294 285 253 237 170 253 159 430 313 268 229 291 275 324 191 197 215 291 199 263 274 134 199 167 255 266 342 182 177 256 227 285 272 278 295 250 361 339 275 337 234 280 307 270 319 266 175 240 268 226 285 310 272 225 216 253 236 281 185 252 262 274 232 303 324 288 230 283 258 284 265 274 223 310 206 257 220 226 211 171 249 252 332 253 311 251 230 292 245 286 272 190 232 274 258 353 204 289 306 343 293 177 281 237 302 214 317 228 289 251 259 330 243 292 215 263 219 293 174 220 218 288 291 311 230 148 267 211 363 228 342 267 262 222 234 293 282 259 153 267 210 277 203 205 275 326 205 120 208 204 230 194 352 222 299 244 347 306 227 343 274 296 234 257 207 300 193 208 233 238 303 355 175 325 199 199 189 302 219 292 272 208 274 231 298 206 235 287 358 187 259 292 205 240 223 241 178 220 231 184 268 248 296 193 255 295 301 285 246 272 286 274 281 182 177 301 251 286 231 279 256 310 167 234 175 213 202 301 231 298 312 233 204 226 298 213 258 258 267 203 220 215 236 248 244 314 329 215 250 194 259 311 233 333 345 299 230 276 202 186 313 254 238 223 222 287 217 273 231 259 331 288 195 275 266 261 242 289 239 211 231 269 294 308 287 345 138 224 266 253 260 183 278 236 242 161 250 215 261 221 305 246 194 179 236 168 193 253 290 251 267 277 239 299 268 256 210 191 193 260 184 260 224 297 312 306 268 266 202 317 343 267 323 232 287 226 308 257 255 190 209 312 202 280 261 374 250 182 322 269 295 183 339 190 313 198 304 189 277 332 293 273 217 226 220 377 283 233 334 251 311 276 245 277 261 204 360 257 192 245 304 274 289 290 283 240 229 259 179 204 361 243 170 261 182 189 198 248 318 255 268 269 220 257 378 127 125 264 221 248 268 314 342 252 221 203 282 199 221 267 200 221 236 204 262 263 291 213 234 209 272 216 224 148 317 223 233 303 137 279 279 266 215 257 347 309 379 337 248 227 301 339 237 288 291 280 317 256 286 308 313 338 264 246 259 413 296 276 228 349 289 158 280 252 229 193 284 346 209 195 228 196 255 285 188 252 294 220 206 253 222 348 309 224 253 304 168 240 199 351 227 245 294 210 309 309 237 225 202 381 285 351 261 267 312 257 157 200 281 142 278 234 304 293 252 208 225 347 271 282 244 262 270 177 263 364 270 219 308 252 269 240 261 265 316 260 204 225 227 178 250 311 350 272 307 232 342 198 210 277 186 220 277 264 334 284 270 173 288 205 262 250 250 227 243 261 227 263 255 67 318 341 177 289 169 393 203 245 158 226 316 238 199 207 282 297 267 214 361 209 240 181 348 251 238 248 210 226 219 223 259 366 250 174 285 354 215 298 256 259 181 221 223 186 264 298 238 302 283 296 302 292 210 283 289 177 233 271 206 239 168 135 267 328 227 307 226 272 244 242 274 292 237 294 269 358 231 308 281 289 173 224 157 254 240 218 257 204 257 256 176 244 279 294 275 200 218 316 305 254 363 309 265 273 309 311 369 138 164 250 298 278 250 225 193 285 262 280 250 271 290 174 185 235 164 255 266 239 253 250 202 242 192 227 278 228 288 264 246 234 220 282 251 261 262 263 229 337 181 277 277 239 267 199 288 191 231 278 226 211 286 236 262 273 230 357 336 171 203 234 258 245 164 298 239 170 244 225 291 275 233 241 235 261 258 278 261 267 310 293 199 292 256 303 198 267 244 261 165 277 323 226 200 227 284 260 275 330 185 229 243 214 256 178 200 178 296 314 202 239 309 227 180 274 336 174 223 348 251 231 271 206 281 245 169 290 203 259 286 197 229 242 307 277 170 253 263 289 326 248 245 283 250 255 282 262 256 269 201 182 325 269 285 306 290 296 175 267 286 191 219 265 255 264 269 211 283 179 171 314 271 275 241 237 214 270 239 250 311 246 313 210 305 298 223 314 264 271 251 195 241 232 225 287 251 345 296 298 202 208 275 228 195 324 279 259 187 284 212 178 274 304 238 322 165 280 249 217 273 275 252 315 278 184 310 215 290 161 169 303 294 225 373 259 204 234 227 301 240 253 217 311 256 240 268 165 239 217 248 259 191 218 293 294 197 290 139 349 248 321 287 300 357 297 188 355 268 253 338 214 266 226 270 274 216 231 250 287 223 320 287 165 170 276 277 211 255 280 257 232 274 271 260 197 167 238 316 168 411 238 268 200 163 301 250 285 181 230 177 289 267 259 214 219 147 268 238 234 275 215 169 298 259 188 295 269 255 251 301 207 212 359 225 297 193 286 253 306 264 307 367 238 289 309 287 302 253 369 267 222 216 268 307 267 211 331 268 278 222 202 280 283 250 339 297 287 237 250 334 270 212 225 221 260 261 142 308 277 261 264 162 293 244 237 295 267 268 285 139 247 207 281 203 259 267 284 249 296 234 248 187 260 301 224 337 253 289 199 251 275 263 215 254 373 179 258 186 276 328 284 235 281 154 296 249 190 256 246 281 211 393 210 222 265 231 270 316 277 239 290 246 252 247 290 283 200 230 238 292 181 287 270 305 327 342 195 382 226 268 153 182 297 254 268 295 338 299 262 309 292 369 184 228 150 279 233 253 236 255 200 179 228 212 238 224 303 242 270 276 285 267 239 238 247 274 267 326 281 231 335 305 254 280 253 327 254 249 217 251 204 308 280 241 207 266 272 380 227 321 327 368 225 233 165 247 221 262 271 180 281 330 219 230 286 340 258 256 133 261 283 277 169 294 270 168 233 258 244 288 210 189 262 341 269 212 259 213 199 243 274 249 198 189 275 282 275 366 203 134 273 228 242 235 277 298 342 254 256 231 212 246 209 194 281 219 342 313 194 176 275 221 224 287 259 283 280 166 225 246 240 267 304 294 287 264 266 268 290 188 205 248 176 256 205 223 168 259 267 221 270 264 237 213 302 225 255 266 264 148 241 326 285 262 158 300 209 348 288 253 192 156 208 302 352 201 117 264 196 224 344 171 308 238 203 366 240 252 278 136 239 196 293 227 251 277 238 224 297 187 201 251 278 262 287 254 291 311 193 307 276 291 258 226 273 270 227 246 216 263 368 263 227 224 348 256 170 269 234 164 207 206 266 230 266 327 239 235 204 295 249 189 123 261 347 223 258 274 249 211 256 245 256 213 196 293 300 239 350 325 326 314 370 250 286 258 331 232 185 297 244 278 252 295 283 243 177 224 319 227 301 211 254 271 291 351 223 253 225 187 272 250 338 229 214 311 287 213 238 267 220 200 314 351 232 274 304 330 225 229 265 240 233 243 225 187 257 174 262 239 180 189 228 337 242 236 305 208 280 288 236 248 236 337 336 349 226 223 185 217 215 272 361 209 207 220 266 223 300 207 264 341 185 179 222 227 373 240 249 305 267 257 199 257 264 203 293 253 311 304 244 240 417 102 225 296 282 311 250 264 212 287 332 206 240 205 181 212 239 294 230 239 289 217 228 289 243 215 264 210 331 244 254 326 216 161 235 231 286 240 222 167 305 308 244 323 263 256 176 267 320 338 310 225 290 258 193 277 341 279 234 174 211 270 264 252 281 247 218 281 235 291 278 343 292 339 262 260 257 220 236 268 263 247 311 199 295 258 226 152 301 246 191 214 241 428 244 246 334 297 240 184 321 271 215 327 171 214 328 313 259 291 208 169 186 230 205 365 296 235 304 190 253 187 242 254 264 310 241 291 181 312 222 270 344 312 210 298 241 272 282 261 233 212 204 305 160 205 257 257 229 273 203 169 184 263 268 221 232 309 311 313 237 254 265 265 180 334 291 193 242 277 346 246 219 164 341 281 279 258 354 229 296 191 191 301 277 293 195 255 242 204 280 303 154 253 231 236 192 315 227 348 174 305 316 296 323 285 267 207 249 256 275 229 253 312 186 210 319 297 273 326 348 269 309 307 260 282 281 184 282 242 201 221 286 259 279 217 205 243 254 189 207 271 347 287 212 203 297 221 120 235 306 248 246 265 312 221 255 232 309 303 200 200 234 220 318 291 287 211 259 314 286 282 160 242 238 268 247 334 269 224 260 249 235 260 249 243 348 347 272 235 214 350 257 272 284 263 291 245 251 237 312 331 246 284 274 258 246 187 189 272 245 232 257 273 328 249 308 232 260 250 303 221 290 310 290 214 174 244 251 282 294 257 278 293 233 249 333 306 274 154 307 394 229 249 249 275 253 287 258 246 226 240 258 230 278 210 252 311 279 189 228 282 233 253 226 243 279 243 224 274 291 253 213 270 233 358 240 228 218 209 230 282 216 255 189 249 185 252 205 267 253 211 353 233 238 232 279 224 200 281 216 251 234 241 291 240 287 194 243 283 343 216 236 324 265 241 287 286 252 282 237 237 179 250 275 346 309 235 232 260 236 357 280 254 278 204 134 207 277 333 304 326 230 230 243 280 237 268 249 206 162 308 219 283 297 272 235 251 234 282 200 205 233 333 195 228 278 198 258 214 213 217 286 178 290 232 308 342 293 226 334 290 296 228 229 250 267 266 187 226 352 278 164 231 245 319 287 295 178 217 236 246 264 221 288 280 245 216 259 200 278 244 281 237 214 202 220 272 301 219 204 271 250 316 316 266 319 316 367 254 311 212 239 327 230 285 295 275 331 237 214 235 254 186 207 304 164 278 318 408 229 217 266 300 368 179 221 227 231 325 289 224 318 198 224 299 255 306 191 297 301 247 219 181 337 286 209 228 262 231 191 239 220 259 208 191 299 210 314 288 252 285 295 320 271 244 320 197 272 260 295 231 236 220 241 205 255 138 222 278 224 271 248 300 301 258 222 351 269 139 360 251 217 186 337 274 215 186 244 244 348 243 298 289 227 312 294 361 254 378 221 226 208 354 288 215 257 147 207 273 280 288 244 238 189 377 256 269 180 192 243 233 281 205 261 293 241 197 257 284 318 194 209 232 332 251 219 290 265 189 305 220 311 255 343 237 285 264 303 246 274 348 260 249 349 215 309 212 238 255 354 221 164 295 283 285 237 288 304 225 298 266 300 230 172 201 344 247 185 210 291 277 305 177 325 266 297 272 273 301 230 241 389 351 180 258 204 214 258 217 251 310 271 338 207 328 298 235 285 297 285 194 265 252 280 189 307 331 240 244 326 270 194 242 243 274 321 283 219 295 273 333 184 275 246 222 266 242 192 228 198 383 202 227 313 227 244 225 216 307 166 249 211 260 265 195 245 239 259 216 278 238 288 198 295 261 255 247 288 221 194 300 229 272 216 212 307 331 294 183 312 311 187 249 312 216 241 232 236 273 223 336 311 260 241 319 120 241 400 264 316 324 299 321 189 281 217 265 225 144 235 234 306 282 292 213 236 265 196 163 284 158 260 174 282 294 289 208 159 303 229 193 279 271 254 348 221 189 254 267 122 206 330 287 255 230 264 234 264 371 192 291 218 242 208 170 228 344 271 229 327 188 267 167 247 79 220 260 338 165 363 353 326 261 225 222 267 209 190 192 239 284 199 289 278 234 210 282 279 222 266 235 252 245 270 181 263 186 313 245 223 290 289 325 279 290 298 208 227 293 309 217 248 230 221 179 205 205 222 227 241 286 285 252 246 235 230 236 215 269 312 244 262 290 260 269 214 242 172 301 182 217 255 269 239 358 201 323 290 189 225 224 279 191 203 254 311 277 238 330 284 348 195 398 286 288 297 223 260 240 316 195 155 231 363 255 201 237 295 330 213 207 161 216 179 344 243 256 227 156 310 272 240 251 293 243 210 176 220 261 232 265 227 301 201 222 244 229 292 238 267 341 308 206 199 301 246 347 257 149 380 246 183 406 286 246 293 337 334 228 276 266 202 263 303 141 256 226 266 333 375 151 306 374 251 317 338 334 268 300 312 301 300 297 270 213 233 219 236 251 251 284 284 238 264 303 270 247 249 433 330 224 214 252 163 226 215 216 264 225 212 242 281 259 275 310 234 216 225 277 168 304 270 282 248 232 204 297 294 266 187 219 209 289 240 191 233 197 269 231 275 240 263 324 324 253 245 338 276 221 298 237 229 204 173 208 290 242 282 188 243 247 228 203 264 296 207 120 323 239 248 301 183 265 205 253 108 182 297 255 264 173 272 250 306 220 198 238 253 290 303 288 326 172 164 289 272 248 230 155 309 234 169 285 260 270 248 239 274 268 268 307 321 226 220 231 211 191 339 316 301 211 311 160 350 201 297 134 298 300 326 247 282 252 217 207 247 329 218 255 265 233 165 216 192 243 202 301 297 210 303 312 250 298 227 232 229 240 239 194 209 425 234 269 138 193 193 235 235 215 212 220 215 191 202 154 180 191 251 263 309 349 240 344 241 136 367 174 305 296 305 303 218 327 227 198 234 208 253 216 241 220 332 319 233 331 198 249 185 203 200 260 215 202 197 299 203 263 299 289 146 178 212 282 292 181 254 257 273 309 301 243 326 275 220 310 301 251 245 202 330 253 382 270 260 230 308 251 192 263 241 165 221 217 280 252 229 176 233 252 269 130 304 222 141 213 361 212 235 222 277 292 264 276 161 337 217 221 280 246 331 312 324 229 197 364 157 246 268 204 283 171 239 233 235 149 229 247 210 231 245 254 243 199 300 196 325 214 249 220 336 273 194 213 332 267 227 275 181 179 163 268 202 229 186 277 223 252 267 219 231 237 268 230 221 368 189 183 384 304 261 242 319 273 271 230 318 208 262 268 165 272 314 281 256 278 239 352 275 230 240 303 233 290 274 181 253 302 263 197 269 280 298 327 362 201 194 310 308 389 216 389 282 310 258 268 251 192 270 308 225 214 198 223 170 205 228 228 201 325 310 227 288 228 159 351 231 187 364 189 299 326 279 280 284 267 244 208 229 244 233 307 124 248 344 290 293 282 359 288 223 349 247 346 243 356 251 294 227 242 299 302 314 229 303 266 223 268 355 306 286 298 313 253 229 217 208 222 249 241 262 251 295 189 186 277 279 271 242 187 217 237 156 308 240 261 192 186 284 244 253 299 257 243 248 282 277 199 202 231 282 244 176 333 351 251 175 262 272 280 265 261 290 320 255 201 251 269 284 184 289 309 311 274 339 321 236 323 218 250 282 353 207 168 239 202 220 276 243 229 240 127 290 234 290 320 224 336 207 206 381 300 314 282 303 197 178 264 329 259 228 168 230 242 229 215 126 250 111 146 195 279 315 266 317 241 245 236 243 276 243 299 228 201 232 266 168 195 243 291 330 181 269 273 274 125 315 379 190 214 190 316 262 288 171 305 244 297 228 235 217 240 175 257 233 178 276 300 269 267 191 274 245 222 294 313 244 209 207 290 282 239 262 282 286 237 300 294 311 245 222 185 307 278 151 267 337 316 247 289 273 239 266 282 214 308 239 298 152 269 286 192 218 343 304 283 235 289 200 221 221 302 198 281 206 243 211 274 201 251 211 201 255 273 257 287 222 282 191 162 290 265 225 305 341 217 286 191 303 178 234 221 250 238 299 214 247 225 196 206 318 310 275 257 200 272 166 295 313 244 255 255 242 178 164 269 209 206 220 239 333 324 325 235 242 224 267 260 251 205 268 224 249 345 286 258 255 325 263 299 247 357 298 182 234 200 290 230 372 258 207 258 322 291 286 250 248 310 305 228 199 271 279 246 315 341 201 268 240 296 144 242 172 233 253 248 237 233 314 253 269 244 214 240 224 187 194 144 214 282 246 319 302 301 321 295 247 199 277 208 191 301 286 264 233 268 265 195 200 249 225 213 236 208 192 395 294 265 194 322 286 217 265 273 215 250 327 201 182 305 196 310 194 305 240 272 322 304 230 246 226 251 243 328 279 255 130 278 169 288 147 304 187 303 215 305 296 295 188 171 271 246 252 216 194 238 289 243 225 230 254 257 219 205 208 281 206 240 250 182 227 184 270 205 315 200 271 321 131 270 351 225 221 239 209 186 205 261 284 201 261 335 242 256 239 325 255 164 270 192 236 226 242 299 202 160 284 312 225 222 153 246 274 291 279 272 226 267 331 342 240 278 194 291 123 233 275 224 260 254 332 206 255 275 191 174 240 291 266 257 220 223 213 326 214 179 239 248 342 311 225 236 223 233 298 351 275 380 210 307 396 295 303 258 233 233 202 213 289 264 392 281 264 169 290 182 295 260 204 335 271 193 216 146 219 201 337 203 255 240 211 219 376 294 372 238 260 193 259 335 223 297 241 270 314 258 324 265 201 190 299 229 297 378 300 295 259 240 228 283 200 330 249 232 190 328 305 226 231 289 272 213 274 241 261 243 291 260 287 329 249 210 304 274 341 188 175 302 234 246 255 272 238 255 302 315 368 298 273 262 266 269 281 242 301 206 180 235 252 344 296 265 264 280 192 197 257 260 176 264 344 230 343 244 265 200 385 245 242 209 259 292 215 150 251 279 314 273 210 175 256 217 321 203 351 323 230 298 338 288 180 260 258 316 278 288 289 256 242 214 303 223 270 323 207 274 232 342 405 241 242 302 367 298 332 322 204 277 259 337 294 187 272 289 163 258 230 285 190 309 272 280 311 242 225 237 233 290 227 244 324 248 325 256 191 313 241 198 284 297 255 330 267 286 285 252 296 316 230 294 193 187 230 212 222 268 241 214 198 180 284 233 325 430 223 335 320 190 288 258 250 227 220 156 285 248 230 290 244 262 317 343 183 254 182 204 177 248 227 227 304 223 294 272 376 314 250 205 322 174 312 300 182 225 213 372 240 230 206 249 225 319 236 244 216 288 256 197 327 185 245 332 252 212 297 314 280 293 231 245 316 253 302 260 274 226 249 204 261 211 212 194 270 348 290 227 384 264 318 257 284 254 307 232 312 226 254 302 314 292 215 193 368 213 382 205 237 248 229 280 345 245 269 280 223 220 224 281 319 267 269 300 218 255 303 241 193 373 185 296 216 260 313 214 248 218 303 349 242 293 247 272 185 182 256 195 292 282 336 162 263 257 309 207 232 153 278 330 253 286 299 319 207 243 288 269 231 299 312 330 284 261 332 325 354 233</t>
-  </si>
-  <si>
-    <t>MIE(0.21504125759411244, 1.0301994768826341, -2.7853008400501566e-28, 2.5124716829890987)</t>
-  </si>
-  <si>
-    <t>0 1 1 0 0 2 0 0 1 1 1 1 2 1 0 2 1 2 1 0 2 1 2 1 1 0 1 2 1 1 2 1 1 0 1 2 2 1 2 1 1 3 2 1 3 1 1 2 1 0 1 0 1 2 1 2 1 2 2 1 3 0 2 2 1 1 2 1 1 2 1 0 1 0 2 1 1 1 2 0 0 1 2 0 1 1 1 0 2 2 1 0 0 2 0 3 0 1 1 2 2 1 1 1 1 0 2 2 0 1 0 1 2 0 0 3 1 0 1 3 0 1 0 1 1 2 1 1 1 1 1 1 0 0 2 0 3 2 1 0 1 2 3 1 1 1 1 1 1 3 1 2 5 1 1 1 1 2 1 5 2 0 3 1 0 1 2 2 0 1 1 1 2 1 4 1 1 0 2 0 1 3 0 2 3 1 2 1 0 2 0 1 1 1 1 1 2 1 0 2 2 1 1 3 1 2 1 1 0 0 3 1 1 1 4 1 2 4 2 0 0 2 1 1 2 0 2 1 0 1 1 2 2 1 1 2 1 2 1 2 1 1 2 0 2 1 0 0 1 1 2 3 1 0 0 3 1 0 0 2 0 0 1 1 2 1 1 1 1 1 2 0 1 3 1 0 2 0 0 1 0 1 1 2 2 3 0 2 1 1 3 1 3 1 0 0 2 2 1 2 1 1 2 1 1 3 2 3 1 1 2 1 3 2 1 2 1 3 1 2 1 1 2 3 0 0 3 0 1 1 1 1 3 0 1 2 2 2 2 1 2 1 2 1 1 2 0 1 4 1 1 0 2 2 2 0 0 1 0 0 0 3 2 1 3 1 1 1 0 0 2 1 1 2 2 1 3 2 1 2 2 3 2 0 0 1 2 1 1 2 2 2 0 0 2 0 0 1 0 1 2 2 0 0 2 2 2 1 1 2 1 2 2 2 0 1 2 1 2 1 0 1 1 1 1 1 1 0 1 1 1 3 1 0 1 3 0 2 5 2 1 1 2 3 2 0 0 0 0 2 3 0 0 1 0 1 2 0 2 1 2 1 1 2 2 1 3 0 1 0 1 2 1 3 2 2 1 0 2 1 2 2 0 2 2 3 1 2 1 1 0 0 1 0 2 1 2 1 2 2 1 2 2 0 0 0 4 1 2 2 2 2 1 3 2 0 2 1 1 0 0 0 2 1 2 1 1 1 3 2 1 3 1 1 1 1 1 2 1 2 3 1 0 1 0 2 0 3 3 1 1 2 2 1 2 1 1 1 2 1 1 2 3 1 3 4 1 2 2 1 2 0 1 3 1 2 2 2 1 1 1 3 1 2 0 2 2 1 1 0 1 0 1 3 0 3 2 1 0 1 0 2 1 0 0 3 0 2 0 3 1 2 1 1 0 2 1 0 1 1 1 1 2 0 1 2 1 2 0 1 1 1 2 0 2 1 0 2 1 1 1 1 1 2 2 1 2 0 1 1 1 2 1 2 1 0 1 0 2 1 1 1 3 2 1 1 1 2 3 2 3 1 2 0 3 2 2 1 2 1 1 1 3 2 2 1 2 2 0 1 0 1 0 1 2 0 2 2 1 3 0 0 2 1 1 3 0 2 0 2 3 1 2 0 0 4 1 1 1 1 3 2 1 0 0 1 2 1 3 0 0 1 3 1 1 2 3 1 2 1 1 1 3 1 1 1 1 2 0 0 2 3 1 1 1 1 0 2 2 2 1 0 0 2 1 1 2 1 0 0 2 2 2 1 2 2 2 0 2 2 0 2 1 0 2 2 0 2 1 1 2 1 0 1 4 1 3 1 2 3 0 1 2 1 0 0 0 1 0 0 1 2 1 1 0 2 1 0 2 1 1 0 1 2 1 2 0 1 1 1 1 1 1 1 3 1 2 1 3 2 1 1 1 2 2 1 2 2 1 2 2 1 1 0 1 2 3 2 3 0 2 2 1 1 2 2 2 0 3 2 2 1 2 2 3 2 0 2 1 1 0 1 1 1 4 1 0 1 2 0 2 1 3 1 3 0 4 1 2 1 0 1 1 2 0 2 1 0 3 3 3 1 2 0 0 0 2 0 2 1 0 0 0 0 1 1 2 1 2 0 1 0 2 2 0 1 2 2 2 1 2 1 2 1 2 2 1 2 1 0 2 3 2 2 0 1 0 1 1 2 1 2 2 2 1 3 1 1 1 0 2 0 0 3 3 1 0 4 2 0 1 1 1 0 0 2 1 1 0 2 1 2 1 2 1 2 1 0 1 3 2 0 1 2 3 0 0 1 1 3 2 2 3 1 2 1 0 0 1 2 0 1 1 0 1 1 1 0 2 1 0 2 0 3 0 4 1 5 2 2 2 2 2 2 2 3 2 2 2 1 2 2 2 0 2 1 1 1 0 1 2 3 3 1 1 0 1 1 1 0 2 0 1 1 1 0 1 0 0 1 0 1 3 2 1 1 1 0 1 1 1 2 2 0 0 2 2 2 1 2 1 2 2 2 1 1 2 2 1 3 1 1 3 0 3 0 2 0 1 1 3 1 2 4 1 2 1 1 0 1 3 0 1 1 0 1 0 3 1 0 2 0 1 1 2 0 3 2 1 1 1 2 0 1 1 2 0 2 3 1 3 1 2 1 0 1 1 1 3 1 1 1 2 1 1 1 3 3 2 1 1 1 2 1 0 2 1 2 1 2 1 0 2 1 2 1 1 0 2 0 2 1 2 0 1 3 0 3 3 1 2 1 2 1 1 2 3 1 0 1 2 1 1 2 0 2 4 2 1 3 0 1 2 1 1 2 0 1 1 0 1 2 1 2 1 2 0 3 2 2 2 1 1 1 1 3 1 1 0 0 1 1 1 0 1 1 2 1 3 1 0 2 1 3 1 2 0 0 4 1 2 2 2 3 3 0 3 2 2 2 1 2 1 1 1 1 1 1 2 0 2 1 1 0 1 2 1 1 2 2 1 2 2 0 2 2 0 1 2 2 5 1 0 1 1 0 2 1 1 2 2 2 2 1 3 0 0 2 2 1 0 1 1 1 1 3 1 2 3 2 2 0 2 0 1 4 2 1 2 0 0 0 0 3 3 1 4 3 1 2 0 2 2 0 0 1 0 1 0 2 3 2 2 1 3 2 2 3 0 2 2 2 1 2 1 1 1 1 0 0 1 1 1 0 2 1 1 1 3 3 2 2 3 2 1 3 1 0 1 1 0 2 1 2 3 2 1 3 2 1 2 3 1 1 0 2 1 2 3 0 1 2 2 0 3 2 0 1 1 2 2 3 2 1 0 2 1 1 1 0 1 2 1 1 1 2 1 0 1 2 1 2 2 2 1 0 1 1 2 1 3 0 2 0 2 1 1 2 1 2 2 1 2 0 1 1 1 3 2 0 2 1 2 1 1 1 0 1 2 0 1 1 1 2 3 1 2 0 1 2 0 1 2 2 1 0 1 2 0 0 1 1 3 2 2 2 1 0 1 2 1 1 1 1 2 2 1 1 1 4 1 1 1 0 1 1 3 0 1 2 1 2 1 2 0 0 3 1 0 1 1 1 1 2 2 2 2 0 1 1 1 1 3 1 2 2 1 1 5 4 2 0 3 1 0 0 3 0 1 1 1 1 1 1 1 1 2 2 1 2 3 2 1 1 2 2 3 1 1 1 0 0 1 1 4 1 0 0 0 2 2 0 1 1 2 1 2 1 1 2 0 1 2 1 1 3 1 2 1 1 1 3 3 2 0 2 0 1 1 2 0 2 1 0 0 2 0 2 2 2 2 2 0 0 0 2 2 0 1 2 2 3 2 2 1 3 3 0 1 1 1 0 1 1 3 3 0 2 2 0 1 2 3 1 1 1 1 1 1 3 1 1 2 0 2 1 3 2 4 2 1 1 1 1 0 1 0 3 1 1 2 1 1 2 1 2 1 3 0 0 1 3 1 2 0 1 2 1 2 2 1 1 3 1 0 1 2 2 0 2 1 2 3 2 2 1 2 0 2 3 1 1 1 1 0 2 2 0 0 1 1 2 0 3 2 2 2 1 1 2 1 1 0 2 0 1 1 0 0 2 3 1 0 1 3 1 0 0 2 1 3 1 2 4 1 1 0 0 1 0 1 3 1 1 2 1 1 2 0 0 1 1 2 1 4 0 1 1 2 2 1 3 0 1 2 1 2 1 1 1 0 1 0 2 0 1 2 0 0 1 1 1 0 2 1 1 0 1 0 1 1 1 0 1 5 0 1 1 0 1 1 3 0 1 1 0 1 0 1 1 1 2 2 0 2 2 0 0 0 3 2 2 1 0 3 3 1 0 3 0 1 2 1 1 3 2 2 3 0 1 1 0 0 2 2 0 0 1 0 1 3 1 1 1 1 1 3 1 2 1 1 0 2 2 0 1 2 0 1 0 1 1 0 1 1 1 3 0 3 3 2 1 2 2 1 1 2 0 1 4 0 1 1 0 4 2 1 4 0 2 0 1 2 1 1 0 0 0 3 3 2 2 2 1 2 1 1 1 2 2 0 2 1 2 2 1 2 1 0 2 1 1 2 0 3 3 1 0 0 2 1 2 3 0 2 2 2 2 2 4 1 3 0 1 3 3 2 3 1 2 2 2 2 1 2 1 3 0 1 1 1 2 1 1 1 0 0 1 1 1 2 1 1 1 4 1 1 1 1 1 0 1 4 2 1 2 3 0 2 2 2 0 0 4 4 3 0 2 2 3 2 1 2 2 1 1 2 1 2 2 1 1 0 2 1 1 3 2 0 1 1 1 2 1 1 1 2 2 2 2 0 2 1 2 0 1 0 3 1 1 1 0 1 4 1 1 0 0 3 3 0 1 4 1 3 0 1 0 0 1 1 3 0 0 0 1 1 1 1 2 1 1 1 1 2 2 0 0 2 1 0 0 3 2 0 2 5 1 1 2 2 1 2 2 3 2 0 2 2 2 0 0 0 1 0 1 2 1 0 0 2 1 1 2 0 0 1 1 1 3 3 2 1 0 3 2 0 2 3 1 2 1 1 2 2 2 2 0 1 1 2 1 1 1 0 0 3 3 1 2 1 2 0 1 2 2 1 2 3 1 1 1 0 3 1 3 2 1 0 1 3 0 2 2 0 2 2 1 0 0 3 0 1 2 2 2 0 2 2 0 3 4 0 0 1 0 3 0 1 1 2 1 2 3 1 1 1 2 1 4 0 2 1 1 3 1 0 2 1 0 0 1 2 3 1 2 1 1 1 0 1 1 0 1 2 0 1 0 1 1 0 3 0 1 0 1 2 2 3 0 1 0 1 1 1 2 1 2 1 2 2 1 2 1 1 1 2 1 0 3 1 2 2 2 0 0 2 2 0 1 1 1 3 2 2 0 2 0 0 1 3 1 0 3 2 1 3 0 2 3 2 0 1 2 0 2 4 0 3 0 2 3 0 2 3 2 1 2 1 2 1 1 2 0 0 1 2 1 2 0 2 2 2 2 0 1 3 1 0 0 1 3 4 0 2 2 2 1 2 3 1 1 1 1 0 1 2 1 0 1 1 1 0 0 2 3 0 2 3 1 1 0 1 0 1 1 1 1 1 3 2 1 1 1 1 1 2 2 1 1 1 1 1 1 2 3 0 1 1 3 1 1 1 1 1 3 1 1 0 0 1 2 3 1 1 0 0 1 1 1 1 4 3 2 1 1 2 0 0 2 1 2 1 1 3 0 0 1 1 1 2 2 0 3 0 3 1 0 1 0 2 1 1 0 1 2 1 1 1 2 0 0 1 3 0 0 2 1 1 3 1 2 2 1 2 2 1 1 1 0 2 2 2 0 2 1 1 0 2 0 0 2 2 2 1 3 3 0 0 1 2 3 0 1 1 0 2 1 0 1 0 1 1 3 2 2 1 0 2 1 2 2 1 2 1 1 2 1 1 1 2 2 2 1 2 1 0 2 1 1 0 3 1 0 1 3 1 2 2 0 2 2 1 0 1 1 3 1 1 1 4 1 0 1 0 1 1 1 1 1 1 2 4 1 0 1 2 3 5 1 3 2 1 4 0 0 3 1 3 2 0 1 1 2 2 2 0 2 1 1 0 2 3 4 0 0 3 2 1 1 0 1 2 0 1 2 3 2 0 0 2 1 0 0 2 2 2 0 2 0 2 0 0 2 1 2 0 1 2 0 2 1 3 0 1 2 1 1 3 2 1 0 2 1 0 1 1 4 0 0 3 3 2 1 1 2 2 0 2 3 2 3 1 0 2 2 2 0 2 3 2 1 2 2 0 3 1 1 2 2 2 2 0 2 1 1 2 3 1 2 3 1 1 3 0 2 3 1 0 3 2 0 1 1 1 1 1 4 3 0 1 0 1 3 1 1 1 1 2 2 3 0 1 3 1 2 1 0 1 0 2 3 0 2 1 4 1 2 2 1 1 1 1 2 1 2 1 1 1 2 1 0 0 0 2 2 2 1 1 1 1 2 0 2 1 6 2 2 2 2 0 1 3 3 2 0 0 1 1 2 0 1 0 0 2 2 3 0 2 0 2 3 0 1 0 3 0 2 2 1 1 2 2 0 1 1 2 0 1 2 2 0 3 0 2 1 2 0 1 0 4 3 1 1 2 1 2 2 1 0 1 2 1 2 1 2 2 1 1 0 1 0 1 1 1 2 1 2 3 2 0 1 0 3 0 1 0 2 2 1 1 1 3 1 1 0 2 2 2 1 2 1 1 2 2 1 1 2 1 1 1 2 2 1 2 0 0 1 1 1 1 1 1 0 3 2 1 2 0 2 1 0 1 1 2 2 3 1 1 1 2 0 3 2 2 1 2 2 1 0 1 2 3 1 2 2 1 1 1 1 0 3 1 2 0 1 1 3 1 1 1 2 0 1 3 1 1 1 0 1 1 1 2 1 1 1 2 1 2 1 0 0 0 2 0 1 0 1 1 0 1 0 1 0 1 2 1 1 2 2 2 1 3 1 1 1 2 1 1 2 1 1 0 1 3 2 2 0 3 1 1 0 1 1 1 3 1 0 3 1 1 2 1 1 2 3 1 0 2 2 1 1 1 0 1 2 2 2 1 0 0 0 3 0 2 2 0 0 2 1 0 1 1 1 1 1 1 2 2 1 3 2 2 0 0 1 4 2 1 0 1 1 2 0 0 0 1 2 3 0 2 2 1 3 2 2 1 3 1 2 1 2 2 0 2 1 2 2 4 1 2 1 3 0 0 0 1 1 2 1 2 0 2 2 1 3 1 2 1 2 3 2 2 1 3 1 2 1 2 1 1 0 1 1 0 1 1 1 2 1 1 0 2 1 1 1 2 1 1 1 2 2 0 0 2 1 1 0 4 3 3 2 1 1 2 2 3 0 2 2 0 1 2 1 2 3 1 0 1 1 2 2 0 0 4 3 3 0 2 0 1 2 1 1 2 2 1 1 1 1 1 2 0 1 1 0 2 2 1 0 0 1 3 0 2 2 1 0 1 0 1 0 2 3 0 0 1 1 2 0 2 1 0 2 2 1 2 2 2 1 1 0 2 2 0 2 0 1 0 0 0 1 1 0 0 2 2 1 2 4 2 2 1 2 1 0 1 2 0 0 1 0 2 0 1 1 0 1 2 2 1 3 2 0 2 1 1 2 1 0 2 2 1 3 2 1 1 2 1 2 0 0 1 2 2 1 1 0 1 1 1 2 1 1 1 0 2 2 1 3 1 1 1 0 1 1 2 3 2 1 1 1 1 2 1 2 2 1 0 1 1 0 2 2 1 3 2 2 3 3 1 2 1 2 2 2 2 2 2 2 0 1 2 2 2 2 1 3 2 1 3 0 2 1 3 0 2 2 2 3 0 2 3 2 1 2 2 0 2 0 2 1 1 0 2 0 1 0 1 1 2 1 1 0 1 1 0 1 0 1 0 0 1 2 0 1 2 1 2 2 2 3 1 0 2 1 2 0 2 3 2 1 0 1 2 1 1 1 2 3 1 3 1 0 2 1 1 0 3 0 2 1 3 2 0 2 1 4 1 0 0 2 1 2 1 1 2 1 2 0 2 3 1 0 1 1 1 1 0 0 2 1 1 0 0 2 0 1 1 2 1 2 2 0 2 0 3 0 1 2 1 1 0 1 2 2 2 0 3 0 2 4 3 2 1 1 3 0 1 1 2 3 1 2 1 3 1 1 2 2 2 2 1 1 1 1 1 1 0 2 0 1 0 1 2 2 2 0 1 1 1 2 1 2 2 0 4 4 1 1 3 2 1 0 4 3 1 2 2 2 1 2 2 2 2 0 0 1 1 0 1 1 3 0 4 2 3 3 1 1 2 0 1 2 0 1 0 2 3 1 1 1 1 1 2 3 1 2 2 1 2 0 0 1 0 0 1 1 4 0 1 1 2 2 2 1 2 3 2 2 2 0 0 1 1 1 1 3 1 2 3 0 3 1 1 2 2 0 1 2 1 2 0 1 1 0 1 1 2 1 0 0 2 0 2 1 0 1 4 0 1 1 3 2 2 1 2 2 2 2 1 1 1 1 2 3 2 0 2 2 0 2 1 1 3 2 1 1 3 2 1 1 0 2 3 0 0 3 3 1 1 0 1 2 0 1 3 1 1 0 3 1 1 1 1 4 2 1 4 1 3 3 1 1 1 2 1 1 1 1 1 2 1 1 1 1 0 1 1 1 1 2 0 3 1 2 1 0 0 2 0 2 0 2 2 0 2 3 2 1 2 0 1 2 1 1 2 2 1 0 2 0 2 0 1 2 3 0 1 3 1 2 1 0 2 1 2 3 2 2 0 0 0 1 0 2 2 2 0 0 1 1 1 1 2 1 0 0 1 1 2 1 3 2 1 0 1 2 2 2 2 0 1 0 2 1 2 0 1 0 1 2 3 2 1 2 0 1 2 1 0 0 1 2 3 3 1 0 1 2 1 3 2 1 1 1 2 2 2 0 3 0 1 1 3 1 0 0 2 3 0 1 1 1 1 1 1 0 1 1 1 1 1 1 2 3 0 0 3 4 2 0 1 0 1 2 1 1 1 2 0 2 1 2 1 3 3 1 0 1 0 1 1 2 2 0 1 1 2 3 1 0 2 0 2 1 1 2 1 0 2 0 3 2 1 2 1 0 1 0 2 4 2 1 1 2 1 1 1 1 1 3 2 1 0 1 1 1 1 0 3 1 1 1 2 1 4 2 1 3 0 2 3 3 1 1 3 1 0 2 1 2 1 2 1 2 0 3 0 2 0 1 1 2 0 0 2 1 2 3 1 1 1 1 1 1 2 1 4 0 0 2 2 2 0 2 1 0 0 2 2 2 1 2 2 2 1 1 1 2 0 2 1 0 0 2 1 2 1 2 3 2 3 1 1 1 2 2 1 0 1 1 0 0 2 2 2 1 2 2 0 0 1 2 3 3 2 0 0 1 0 2 0 2 2 2 1 1 1 2 0 0 2 3 1 1 1 2 2 2 0 0 0 2 0 4 2 0 1 0 1 1 2 1 1 0 1 1 1 1 1 1 2 1 2 1 3 1 2 3 2 3 1 1 3 1 2 0 3 2 2 1 2 1 0 1 1 0 0 1 2 2 1 2 0 2 1 2 0 3 0 3 1 0 1 0 1 3 2 2 3 1 1 3 1 0 2 3 1 1 1 6 0 1 2 2 1 0 1 1 2 2 1 0 2 1 0 2 1 1 1 2 1 1 0 1 1 3 2 3 0 0 2 1 2 1 2 2 0 0 2 3 3 1 0 2 0 3 0 0 2 2 2 2 2 1 2 1 3 1 1 1 2 0 1 2 0 0 2 1 2 2 1 1 1 0 1 4 2 2 1 0 1 2 0 1 1 2 2 1 2 0 1 1 2 0 1 2 0 2 1 1 0 1 2 2 0 2 2 1 0 0 3 2 2 1 1 2 2 1 3 2 1 2 0 2 2 1 0 1 0 1 2 3 2 2 2 1 3 0 2 0 2 3 0 0 0 1 2 1 0 2 0 2 0 1 1 2 0 3 0 0 2 2 0 2 2 1 2 2 0 0 2 2 1 2 1 2 1 1 1 2 2 3 1 1 2 1 1 2 1 3 0 1 2 3 1 0 2 0 0 1 0 0 2 1 0 1 0 0 1 1 0 2 2 2 1 2 1 0 0 1 2 1 1 1 0 2 1 1 1 2 1 3 0 3 2 1 1 3 2 1 1 0 3 0 1 2 1 3 1 1 1 1 1 1 2 0 2 1 2 3 3 0 2 5 2 1 1 0 0 2 1 0 2 1 0 1 3 3 2 2 4 3 0 2 3 2 3 0 1 0 3 0 0 1 1 2 0 3 1 0 1 1 1 3 2 3 2 1 2 0 1 2 1 1 1 2 5 3 1 2 3 1 0 0 1 4 1 1 1 1 1 1 1 0 1 0 1 1 1 2 1 1 2 0 2 1 2 0 2 0 2 4 1 1 2 2 0 1 3 0 0 1 2 2 1 4 0 2 2 5 2 2 0 1 0 0 4 1 2 1 2 3 1 1 3 1 2 2 1 0 2 2 2 1 1 4 1 1 1 1 1 1 1 2 0 2 2 2 4 1 0 1 1 1 0 4 2 0 3 2 2 2 3 1 1 2 2 1 2 0 0 2 1 1 2 1 2 1 2 1 2 1 1 1 1 3 1 1 2 3 0 1 1 0 0 2 0 1 1 1 3 1 2 0 0 1 1 2 2 2 1 0 2 1 1 0 2 0 1 2 2 0 3 1 1 2 0 1 0 2 1 1 2 3 2 2 0 1 1 2 1 1 0 2 1 1 3 1 2 0 2 2 1 1 2 1 1 1 2 1 1 1 1 2 0 1 1 0 1 0 2 3 2 1 1 0 1 1 1 1 1 0 0 2 0 2 2 1 2 3 2 1 2 1 0 1 2 1 0 0 1 1 2 3 2 2 1 1 1 1 1 3 1 2 0 0 1 1 1 2 1 2 1 0 2 3 2 3 4 3 5 0 0 1 1 2 3 1 1 1 1 2 1 1 5 1 1 1 0 2 2 1 1 2 0 0 2 2 1 1 0 0 1 0 1 2 2 2 2 3 2 2 0 0 3 3 2 0 2 0 1 3 1 3 1 1 1 1 1 3 1 1 2 2 0 2 2 3 1 2 1 0 2 0 1 0 1 1 2 0 3 1 1 2 1 3 2 1 2 1 0 2 0 3 3 2 1 2 0 0 1 1 0 1 2 0 2 1 1 1 1 3 1 1 1 1 0 2 1 2 0 1 1 2 1 1 0 2 2 2 2 1 2 1 1 2 1 0 1 2 1 2 2 0 1 1 0 0 0 1 1 2 1 1 3 2 1 3 0 1 3 2 1 0 1 1 1 0 1 0 2 0 1 3 1 4 0 2 0 1 3 1 0 0 1 1 3 0 0 1 3 2 2 1 1 1 1 3 0 2 1 1 2 0 2 2 0 3 0 1 0 3 0 1 2 1 2 2 0 2 0 0 1 2 1 1 1 1 1 0 3 1 0 1 2 2 2 0 1 2 4 3 1 0 1 2 3 0 1 1 0 1 0 2 3 1 1 0 0 1 0 2 2 2 1 4 4 3 0 1 3 1 0 2 3 1 0 3 0 1 3 1 1 3 2 1 1 1 1 3 1 1 3 1 2 3 0 0 1 2 1 1 1 0 1 2 0 1 1 2 0 1 2 3 0 1 2 0 1 2 1 1 3 0 0 2 2 0 2 2 1 0 2 2 2 1 2 1 0 2 0 0 2 3 3 0 0 2 2 0 1 2 0 2 1 0 0 3 2 1 1 0 2 1 0 1 0 3 1 4 3 1 3 3 1 2 1 1 0 0 1 1 0 2 1 4 2 0 1 2 1 2 2 0 0 1 0 0 2 1 2 2 1 3 2 2 1 0 5 0 1 1 2 3 2 1 2 3 2 1 2 0 1 2 0 2 0 2 1 2 1 2 2 2 2 0 0 1 0 3 3 0 2 1 1 0 2 3 1 1 2 0 2 1 2 2 4 1 1 1 2 1 1 0 0 2 1 1 3 4 2 0 1 2 2 2 2 1 1 2 1 0 1 2 0 0 2 1 2 1 2 1 0 1 2 1 1 1 1 1 2 3 1 2 2 2 2 0 2 1 0 1 2 2 2 2 1 1 2 1 4 2 1 1 2 0 3 0 1 1 2 1 2 2 2 2 2 1 3 1 0 1 2 2 1 1 0 3 1 0 1 1 2 1 0 2 0 3 0 0 1 0 1 4 2 2 1 1 0 2 3 0 1 1 2 0 1 2 1 3 2 1 0 0 1 1 1 2 1 1 2 2 2 2 1 2 0 2 1 2 0 1 2 1 2 1 1 0 0 2 2 2 2 1 1 0 2 2 0 0 0 2 1 1 3 2 0 1 1 1 0 0 0 2 1 2 2 1 0 1 3 1 2 1 2 1 2 1 0 0 0 2 2 3 3 3 2 1 1 2 3 2 0 2 0 1 0 2 1 0 0 4 0 1 2 2 2 2 3 1 1 1 0 1 4 1 1 1 3 2 3 2 1 1 2 2 1 2 2 0 2 3 0 0 2 0 1 3 2 0 0 1 2 2 1 1 2 1 1 3 2 2 2 3 1 4 0 0 2 3 1 2 1 2 0 3 3 3 1 3 1 0 0 1 2 1 3 2 2 2 2 2 1 3 0 2 0 2 2 1 1 2 2 1 0 2 3 2 3 2 1 2 1 2 1 2 3 0 0 1 1 1 3 0 1 0 3 0 0 1 0 1 2 0 1 1 1 1 1 2 1 0 2 1 1 1 2 5 1 2 0 1 0 2 0 2 1 3 1 2 1 0 2 1 2 1 2 0 2 3 2 1 2 1 1 0 3 0 1 2 3 1 2 1 2 3 0 1 1 1 0 1 3 1 3 3 0 3 1 2 2 0 3 2 1 2 2 1 2 3 0 1 1 2 1 2 1 0 1 2 1 2 0 1 1 1 4 0 1 0 0 0 1 1 1 3 1 3 0 0 2 1 2 1 1 3 1 1 1 2 1 0 0 1 1 2 1 1 2 0 1 2 1 3 1 1 1 0 0 3 0 1 1 2 1 1 2 2 3 1 0 2 1 0 3 3 2 1 3 0 1 2 1 2 1 0 1 1 2 1 4 2 2 2 0 2 0 2 1 1 3 1 2 1 3 0 1 2 1 2 2 2 1 1 1 1 1 1 1 0 0 3 1 2 2 1 2 2 3 1 1 0 2 2 1 1 1 2 1 1 2 1 0 1 2 2 1 1 1 1 0 0 1 2 0 3 2 1 3 2 1 0 1 1 3 2 1 1 1 1 2 0 2 2 3 1 2 1 0 2 2 2 0 2 1 1 0 2 1 2 2 3 1 2 3 4 3 3 1 1 1 0 3 3 0 2 2 3 1 1 2 2 2 1 2 0 1 1 2 0 1 2 1 0 1 2 2 1 2 4 3 1 2 1 4 2 0 1 1 3 2 3 0 2 2 1 3 0 2 1 0 0 2 2 3 1 1 2 0 1 0 1 3 1 2 2 2 0 1 1 2 1 0 1 1 1 2 0 0 1 1 0 1 0 0 1 2 4 3 2 4 0 1 2 1 1 0 2 1 0 1 1 1 1 0 3 1 3 2 1 0 1 3 3 1 0 1 0 1 2 1 1 1 0 2 2 0 1 0 0 0 3 2 2 0 0 0 1 0 1 1 1 2 2 0 2 1 1 0 0 2 1 1 3 2 0 0 1 2 3 0 1 2 1 2 1 2 1 1 1 1 2 0 1 2 2 2 3 2 1 0 2 2 1 2 1 1 2 0 1 0 1 0 1 1 2 0 0 1 3 1 0 1 1 1 1 3 2 0 0 2 1 1 0 1 1 3 1 4 0 2 1 1 2 1 1 2 1 2 2 1 0 1 1 3 0 1 0 2 1 1 0 3 1 2 0 3 0 1 1 2 4 5 1 0 3 2 1 1 2 0 1 0 1 0 1 0 1 2 2 0 2 0 0 2 1 1 0 2 3 2 1 1 1 0 2 4 1 2 1 0 1 1 1 2 1 2 2 3 3 2 1 2 4 0 1 0 0 3 1 1 3 1 3 1 0 0 0 0 2 2 1 0 2 3 0 1 2 2 1 1 1 0 0 1 2 2 3 0 2 1 1 1 1 2 1 2 1 2 1 1 0 0 1 2 2 1 1 2 0 0 3 0 2 0 1 2 1 0 1 1 3 1 4 2 1 0 0 1 1 0 2 0 1 2 0 1 1 3 2 2 1 2 2 1 3 0 1 2 1 3 1 0 1 1 2 0 2 1 1 2 2 1 1 3 2 0 1 2 2 1 0 2 1 0 2 2 3 2 1 3 3 1 0 1 2 1 1 1 3 1 1 0 2 0 1 1 2 2 1 2 0 0 2 2 0 1 1 2 2 1 2 2 1 3 2 0 0 1 0 2 1 1 1 2 2 1 1 1 2 2 3 1 4 2 1 2 2 2 0 1 2 1 0 1 4 1 3 0 2 3 2 1 0 2 1 1 3 2 0 2 0 0 2 1 1 2 0 2 1 1 2 2 2 3 2 2 0 3 1 1 3 3 1 3 2 2 1 0 2 1 1 0 0 1 1 1 2 1 1 2 3 1 0 2 0 2 0 0 0 2 1 1 2 3 2 1 2 0 1 0 2 0 0 2 2 2 1 1 2 2 2 3 2 0 0 2 1 0 0 1 2 3 1 1 1 3 1 0 1 4 1 1 1 2 2 1 1 0 2 1 1 1 1 2 2 2 0 3 1 1 1 3 2 1 2 1 0 1 1 0 1 1 1 0 1 1 1 1 2 1 2 0 0 1 1 1 2 1 2 2 1 0 0 2 0 0 1 1 0 0 1 0 3 2 1 3 2 1 2 0 1 2 0 1 2 0 2 0 2 1 1 4 0 1 4 1 1 3 1 2 3 1 2 1 1 0 1 0 5 0 1 1 2 1 1 1 1 0 3 0 4 1 3 1 0 2 0 2 1 1 2 1 1 1 2 0 0 1 2 0 0 0 2 1 0 2 1 2 2 0 2 1 1 2 1 0 1 1 0 2 1 2 1 0 0 2 1 1 2 2 0 3 1 1 1 1 1 1 0 1 1 2 0 1 2 2 1 1 0 3 1 0 2 1 1 2 0 1 2 0 1 0 3 1 2 1 0 2 1 2 1 1 1 1 2 0 2 1 2 2 2 3 0 3 2 1 2 0 0 1 1 0 1 2 1 3 1 0 1 2 1 2 3 0 2 1 2 1 0 3 2 2 3 1 2 1 2 2 3 1 1 1 1 1 2 1 2 2 1 1 2 2 3 2 2 1 4 1 3 1 0 1 2 0 2 2 1 1 1 1 1 1 2 3 2 1 2 5 0 1 4 1 0 0 1 1 1 0 1 1 1 1 2 1 2 0 0 2 2 0 1 1 2 2 1 1 2 2 2 1 1 1 1 2 1 2 3 1 1 3 3 3 2 1 2 0 0 1 0 1 1 1 2 0 0 1 1 2 3 3 2 2 1 1 2 1 0 1 2 1 0 1 1 2 2 2 2 3 1 0 0 0 2 1 1 1 1 1 1 3 2 1 1 0 2 2 0 1 1 1 1 2 1 1 1 2 2 1 1 2 1 1 2 1 1 1 2 0 0 3 1 1 1 2 2 1 1 0 0 1 2 2 1 1 1 2 0 1 2 1 2 1 3 1 2 1 1 2 1 1 1 3 1 3 0 2 0 1 1 1 0 1 2 0 1 1 1 2 0 2 0 0 0 1 2 3 1 1 1 0 5 1 1 3 1 2 0 1 0 0 2 2 2 1 2 1 3 1 2 2 2 1 1 2 0 3 1 2 0 3 2 3 0 2 0 0 2 0 3 1 1 1 2 2 4 1 4 1 0 0 2 1 1 1 3 0 3 2 2 0 1 1 0 1 0 1 2 2 1 0 2 1 1 0 1 0 2 1 2 1 4 1 1 0 1 2 1 0 1 2 2 1 0 1 1 2 2 3 1 2 0 1 0 1 0 2 1 1 2 1 1 0 1 1 1 1 0 0 2 1 2 1 0 1 2 2 2 0 2 2 1 1 0 2 1 2 1 2 1 1 1 2 1 2 1 1 2 2 1 3 2 2 1 1 1 1 2 2 1 2 2 0 1 2 1 1 1 0 1 1 1 4 5 2 3 2 0 1 1 2 1 3 3 0 1 1 1 2 4 1 1 1 1 1 0 4 1 2 2 3 1 1 1 1 2 1 0 2 1 1 2 1 2 1 1 0 2 1 1 3 1 2 2 2 0 1 1 1 3 1 0 2 0 4 3 4 1 2 3 1 2 1 2 2 1 2 0 2 0 2 2 2 0 2 3 3 1 1 2 2 0 2 2 3 1 1 2 1 1 0 1 0 2 1 2 3 1 1 1 1 3 1 0 0 1 2 0 2 0 1 3 1 3 2 3 1 3 3 1 2 2 1 1 2 1 1 1 1 4 1 1 0 2 1 3 2 1 2 0 1 3 1 1 0 3 1 1 1 2 2 2 1 2 0 1 2 1 0 0 2 2 2 1 1 0 0 1 1 1 1 0 3 2 0 2 2 1 1 1 1 1 0 2 0 0 2 1 0 1 1 0 2 1 0 0 1 2 2 3 1 2 1 1 1 1 2 2 1 3 1 0 2 2 1 1 0 2 1 1 0 2 3 1 1 0 2 1 1 0 2 1 2 0 1 1 0 0 1 1 0 2 1 3 2 1 1 0 2 1 4 2 1 0 4 3 1 4 1 2 2 2 1 1 2 0 0 1 1 2 2 2 2 2 3 2 1 2 2 2 1 1 1 0 1 1 1 0 2 1 1 1 2 1 1 1 2 1 1 2 1 0 3 2 0 0 2 2 3 2 1 2 2 1 1 1 2 2 1 1 2 2 0 2 2 0 1 2 3 1 0 1 0 1 1 3 2 1 3 0 2 0 2 2 2 1 1 1 0 0 3 3 1 1 1 3 2 1 1 1 0 1 2 0 3 0 1 2 0 2 1 1 0 1 1 2 3 2 1 1 1 1 2 1 3 0 0 4 4 2 1 1 3 1 1 0 2 1 0 2 2 0 1 1 1 0 2 1 2 1 2 0 2 0 1 2 1 1 1 1 1 2 1 1 1 0 1 2 2 1 0 1 2 2 1 0 1 2 0 1 2 1 2 1 0 1 2 2 1 1 2 2 2 1 3 1 1 1 2 2 2 3 1 2 2 0 2 0 2 1 1 2 3 1 2 0 2 4 1 2 2 0 1 0 0 2 1 1 3 2 1 1 4 0 1 1 2 2 2 0 0 2 2 2 1 1 1 1 2 1 1 1 1 0 1 1 2 0 1 2 1 1 1 1 3 2 1 0 0 1 2 2 1 1 0 1 3 1 1 2 1 0 0 0 0 1 1 3 1 1 1 2 1 1 3 0 1 2 1 2 2 1 0 2 3 1 2 1 2 0 1 2 2 0 1 4 2 3 2 2 1 1 1 1 0 1 2 1 1 2 0 1 2 0 0 2 0 2 3 1 2 3 3 0 2 3 2 1 1 3 0 1 1 2 3 3 3 1 1 2 1 1 2 0 1 1 1 0 0 0 1 1 0 2 0 2 1 1 1 1 1 1 1 0 2 1 3 1 2 0 2 2 2 0 1 2 2 2 2 1 3 2 1 1 2 2 1 1 0 1 2 3 0 1 1 2 1 1 2 1 0 1 1 2 5 2 1 2 1 2 1 2 2 1 1 3 2 1 1 0 1 2 2 1 1 2 2 1 2 0 1 0 0 1 1 2 1 1 2 0 1 0 1 0 1 3 2 3 0 0 1 2 2 2 0 1 2 2 1 1 3 2 4 1 0 2 0 3 1 3 0 2 2 2 3 2 1 2 2 1 2 4 1 1 1 3 1 0 2 0 1 1 3 3 1 2 1 0 1 1 1 2 2 2 1 2 0 2 2 0 3 2 2 1 2 1 0 2 2 2 0 3 2 2 2 4 1 1 1 1 1 3 1 1 1 2 2 0 1 1 2 2 2 3 1 2 1 2 0 2 1 1 1 2 1 2 0 4 3 2 1 1 0 1 2 1 1 2 2 2 2 2 1 1 3 1 3 1 1 2 1 1 2 1 2 2 0 2 3 1 0 2 0 2 0 2 3 1 1 0 1 1 1 1 2 1 2 0 1 0 1 2 1 3 1 2 3 2 0 2 3 2 3 1 1 0 1 1 0 2 0 2 1 1 2 1 0 1 3 1 0 1 2 2 0 2 1 1 3 1 1 1 0 2 1 0 2 4 2 1 1 2 0 0 1 2 1 2 2 1 1 1 1 3 1 0 2 1 1 1 0 0 3 1 3 0 1 1 1 3 0 1 1 2 1 2 1 1 0 2 1 1 0 3 0 0 1 4 1 0 1 2 2 2 0 0 2 2 3 2 1 1 0 3 3 1 1 4 3 4 2 1 2 2 2 1 3 3 4 2 1 2 2 3 1 2 2 0 2 2 0 0 1 1 1 1 2 3 3 1 1 0 0 2 2 1 4 1 2 3 2 0 1 2 1 0 1 2 3 1 1 0 3 0 2 3 0 1 2 2 2 0 1 1 2 3 1 1 0 1 0 1 1 3 1 0 1 1 4 3 0 1 0 3 1 2 0 0 2 0 1 1 0 1 2 4 1 3 2 2 0 1 0 0 0 2 0 0 2 0 0 1 1 1 2 3 1 2 2 3 1 1 0 1 1 0 1 0 1 2 3 1 1 1 1 1 2 0 1 2 3 3 3 0 2 2 1 3 1 2 0 1 2 0 1 2 0 2 3 1 1 1 1 1 3 1 1 3 2 0 0 2 2 2 0 2 1 1 1 2 3 1 1 1 0 0 2 1 2 0 3 1 1 1 1 0 2 1 1 1 0 1 0 2 0 0 1 4 0 0 1 2 0 1 3 2 0 1 1 1 0 2 1 2 1 2 1 2 2 1 2 2 2 3 0 0 2 2 2 2 0 0 1 1 1 1 1 2 2 1 0 3 2 0 2 0 2 2 3 3 3 1 2 0 1 1 2 3 3 0 1 2 1 2 0 2 2 2 0 1 0 4 1 1 1 3 1 0 3 1 1 1 1 0 1 0 0 0 2 1 3 1 4 2 2 1 2 2 0 0 1 1 1 1 0 2 1 1 0 2 1 0 1 1 1 0 1 2 0 3 0 0 3 0 3 2 2 2 2 3 1 3 0 1 2 2 1 1 2 2 2 2 2 2 3 2 1 2 1 1 0 3 1 2 1 0 2 1 1 0 0 3 2 2 2 1 0 0 1 3 0 3 0 2 0 1 3 2 2 2 2 3 0 2 2 1 0 1 2 2 2 0 1 1 1 1 3 3 1 3 2 2 1 1 1 1 1 3 0 3 3 0 1 1 1 2 3 2 2 1 0 2 2 1 1 1 3 1 3 1 1 1 1 2 1 2 3 2 3 2 2 2 2 1 0 1 2 1 0 3 2 2 2 1 2 1 1 3 1 4 1 0 2 1 2 3 2 1 0 1 1 2 3 1 2 1 2 1 0 1 1 2 0 4 2 2 0 0 4 2 2 2 0 1 1 1 1 1 3 1 0 0 1 4 1 1 2 0 2 2 0 0 4 2 2 0 0 1 2 0 2 1 0 1 1 1 2 1 0 1 2 1 0 0 2 0 2 1 3 1 1 1 0 3 0 1 3 1 1 2 0 2 1 1 0 1 3 2 2 2 0 0 0 3 0 2 2 1 0 1 1 2 2 0 2 1 1 1 0 2 3 2 1 2 1 1 1 1 1 2 0 0 1 1 0 1 2 1 1 2 2 1 1 0 3 1 1 1 1 0 0 3 1 3 2 1 1 3 1 2 3 0 2 2 3 2 2 0 1 0 0 1 1 0 0 2 1 2 0 0 1 0 2 0 0 1 2 0 3 2 2 1 0 1 1 2 1 0 1 1 1 1 3 1 1 1 0 1 3 2 1 1 0 0 4 0 2 0 1 0 1 2 2 1 3 1 2 1 2 1 1 2 2 1 0 1 1 1 3 1 1 2 2 1 2 1 3 0 2 3 0 3 1 4 2 0 1 2 1 2 0 2 0 1 0 2 2 4 2 2 1 0 3 1 0 1 2 0 2 1 1 1 2 0 2 2 3 0 3 1 2 0 1 3 2 1 2 1 4 1 3 2 3 2 2 1 2 3 2 2 0 1 4 2 1 2 1 2 2 2 1 0 1 2 0 1 1 1 3 2 3 1 0 2 2 2 1 2 2 2 1 3 0 1 0 1 0 3 2 2 1 3 2 1 1 0 1 1 2 2 1 0 2 2 2 2 1 1 2 0 2 2 0 0 1 0 3 2 1 1 0 1 2 1 1 2 1 2 0 1 2 0 0 2 1 0 2 2 1 2 1 2 1 1 1 2 1 1 2 2 1 4 2 1 0 1 4 0 1 2 4 1 2 1 1 2 0 1 2 2 1 1 0 2 0 1 1 2 0 0 1 1 0 0 2 2 1 1 2 1 1 1 3 1 2 1 0 0 1 3 2 0 1 1 3 1 2 1 1 1 1 3 0 1 1 1 0 2 2 1 1 1 1 0 1 0 0 0 2 1 2 2 2 2 2 0 3 4 1 1 1 3 2 1 2 2 1 0 1 0 2 1 1 2 1 1 2 1 1 0 1 2 2 1 2 3 1 1 0 3 1 1 3 3 1 2 2 2 1 2 1 1 2 1 3 1 0 2 1 2 2 2 1 0 2 0 1 0 0 1 1 0 0 0 1 3 1 1 0 0 1 2 1 1 2 1 2 1 2 1 1 0 0 1 2 1 1 3 4 1 1 2 0 0 3 1 2 0 1 2 1 2 3 1 1 0 2 0 1 0 0 1 1 4 2 1 2 0 1 0 2 2 2 1 2 0 1 2 0 2 2 0 2 1 0 0 1 2 2 1 0 2 2 2 0 2 1 1 1 1 1 1 2 2 3 2 2 1 2 2 1 1 1 2 1 0 0 0 3 1 2 1 3 2 0 2 1 2 0 2 3 1 2 3 2 1 2 3 2 3 1 1 0 2 2 2 2 0 2 1 2 4 1 2 2 2 1 2 2 3 0 1 0 2 2 1 3 3 2 2 0 1 1 0 0 0 2 1 1 2 2 5 0 1 0 3 1 1 1 2 1 1 2 2 3 0 1 1 2 2 1 2 2 1 1 2 1 1 1 0 1 1 3 1 1 1 4 2 1 1 0 1 2 0 2 1 1 1 2 0 0 2 2 1 4 4 2 3 1 0 0 1 1 2 0 1 0 3 1 2 2 2 2 4 2 1 3 2 0 0 3 2 1 3 4 5 4 2 1 2 0 2 2 1 2 1 2 0 1 2 3 1 1 0 3 1 1 1 0 1 1 2 1 0 1 2 1 1 0 2 1 1 1 1 2 2 1 1 0 2 3 3 1 1 1 2 0 1 3 1 1 1 2 2 0 3 0 1 1 1 1 2 1 2 1 0 4 1 0 0 2 1 1 2 4 3 1 0 1 1 2 2 0 0 1 1 1 1 2 1 2 2 3 2 1 1 2 1 2 1 0 1 2 1 2 0 1 1 2 0 1 2 1 2 1 1 1 3 1 0 0 2 1 2 0 0 3 3 1 1 2 2 2 1 3 0 1 0 1 0 1 1 1 3 1 3 1 1 1 1 4 1 1 1 2 4 2 3 1 1 1 1 1 1 1 1 2 0 1 0 2 0 1 2 1 1 1 1 0 2 0 3 2 0 1 1 2 2 0 0 2 4 2 1 0 2 0 2 3 3 3 1 2 1 2 1 2 0 0 2 4 0 1 1 1 1 0 2 1 2 2 2 1 2 1 1 2 1 3 1 1 0 1 1 0 0 1 2 2 0 2 3 1 0 1 1 1 1 1 2 0 0 1 1 3 3 1 1 2 0 2 2 0 1 4 2 2 0 2 1 1 3 1 0 0 1 2 1 2 1 1 2 0 1 0 0 0 1 3 1 1 2 0 1 1 2 1 1 1 2 1 1 1 1 3 2 0 3 1 0 1 1 0 0 0 1 0 2 2 0 0 2 0 0 2 2 2 1 3 2 3 0 3 0 3 1 2 2 0 0 2 1 1 0 2 0 3 0 3 1 3 1 2 0 1 2 1 0 3 1 3 0 1 2 1 1 1 1 0 1 0 2 3 1 1 1 2 2 0 2 1 1 1 1 4 2 1 1 3 1 3 2 0 2 1 1 0 1 2 2 2 1 2 2 2 2 0 2 1 2 2 3 1 0 1 2 2 4 1 2 2 1 1 0 2 1 1 1 1 1 1 1 3 1 1 1 1 3 2 3 1 1 1 2 2 2 2 0 2 0 2 2 0 0 0 0 2 1 0 2 0 2 3 2 1 1 1 3 1 2 0 2 2 2 1 0 2 2 1 1 1 1 2 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 3 1 1 0 1 2 1 1 2 2 3 1 2 2 1 0 2 2 1 4</t>
-  </si>
-  <si>
-    <t>GAM(0.3293206390239786, -2.8554218475601166e-27, 0.589564285432751)</t>
-  </si>
-  <si>
-    <t>0 1 0 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 1 1 0 0 0 0 0 1 0 0 1 2 0 0 1 1 1 0 0 1 2 0 0 1 1 0 0 1 0 1 0 0 0 2 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 0 1 2 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 2 1 0 1 1 0 0 0 1 0 0 0 0 3 1 0 1 0 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 1 1 0 1 0 1 2 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 3 1 0 0 0 0 0 0 1 0 1 0 0 2 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 1 1 1 0 0 0 0 1 1 2 0 0 1 0 1 1 2 0 0 0 0 2 0 0 0 1 1 0 0 0 3 0 0 1 0 0 0 1 1 1 1 0 0 2 0 1 0 0 1 2 1 0 0 0 0 1 1 0 2 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 1 1 2 1 1 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 2 2 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 3 1 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 2 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 3 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 2 1 0 1 0 0 0 2 0 1 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 2 2 0 0 0 0 0 0 0 2 0 1 1 1 0 1 0 2 0 0 1 2 1 1 2 0 1 1 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 2 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 2 0 0 0 1 1 1 0 0 1 0 0 1 0 2 1 0 0 0 1 2 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 2 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 1 3 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 2 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 1 0 0 2 1 0 0 0 0 0 1 2 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 1 3 0 1 1 2 2 2 1 1 0 0 0 0 3 1 4 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 2 0 4 0 0 0 0 1 0 0 2 0 0 2 1 0 1 0 1 0 0 2 0 0 0 1 0 0 2 0 0 0 0 1 2 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 2 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 2 2 1 1 0 0 0 2 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 2 2 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 2 1 0 0 0 1 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 3 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 2 2 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 0 1 2 0 0 2 0 0 1 0 1 0 0 0 0 1 1 1 0 0 1 2 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 2 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 2 0 2 2 0 0 0 0 0 0 2 2 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 2 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 3 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 2 0 1 2 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 3 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 2 0 1 0 1 1 1 0 2 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 1 0 0 1 1 0 1 2 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 2 1 0 1 0 0 0 0 1 0 0 0 0 4 0 2 0 1 0 0 0 1 0 0 1 0 2 1 0 0 2 0 0 0 2 0 0 0 1 2 0 0 0 0 0 0 3 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 2 1 2 0 0 0 1 2 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 2 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 2 1 1 3 0 0 1 1 1 0 0 0 0 0 2 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 1 2 2 2 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 2 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 2 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 2 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 2 0 0 0 0 0 1 0 2 0 0 1 0 1 2 0 2 0 0 1 3 2 2 1 0 1 0 0 0 0 1 0 1 0 0 2 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 1 2 2 0 0 0 1 2 0 0 0 0 0 1 1 0 0 0 2 0 0 1 0 1 0 0 1 0 0 1 1 0 1 1 2 1 0 1 1 0 0 0 0 0 1 0 0 2 1 1 0 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 4 0 1 0 0 0 0 0 0 2 2 1 1 0 0 0 1 0 0 1 1 1 0 0 0 0 2 0 1 0 0 1 0 0 2 2 0 0 1 0 0 0 0 1 1 0 0 1 1 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 1 0 2 1 0 1 0 3 0 0 0 1 0 3 0 0 1 0 0 0 1 1 1 0 0 2 1 1 0 3 2 0 1 1 1 1 2 0 0 2 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 3 0 0 0 2 2 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 2 0 2 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 2 2 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 1 3 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 2 1 2 0 0 2 0 0 0 0 0 0 0 1 0 2 2 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 2 1 0 1 0 2 0 0 0 0 0 0 0 2 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 1 0 0 2 1 1 1 2 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 2 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 0 0 1 0 1 0 2 1 0 0 1 0 1 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 3 0 0 1 0 0 0 0 1 2 2 0 1 0 0 0 0 0 1 0 0 0 1 2 0 2 0 1 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 0 0 2 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 2 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 2 0 1 0 0 1 0 0 0 1 0 0 2 0 1 0 0 1 1 2 0 0 0 1 0 2 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 2 2 0 0 1 0 2 0 2 0 0 1 0 1 0 0 0 2 2 1 0 2 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 1 1 0 0 0 2 1 0 2 0 1 0 0 0 1 0 2 0 1 0 1 1 1 2 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 3 1 0 0 0 0 0 0 0 0 1 1 0 1 0 2 2 2 0 0 0 0 2 0 1 1 0 0 2 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 3 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 0 3 2 1 1 0 0 1 1 0 1 1 0 2 0 0 0 1 0 1 0 3 2 0 1 1 0 1 2 1 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 4 0 0 1 1 0 2 0 1 0 0 1 1 3 0 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 3 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 2 1 1 3 1 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 1 3 0 1 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 3 1 0 0 1 0 1 1 2 0 1 0 1 1 1 0 1 2 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 2 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 2 0 0 0 1 0 1 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 3 2 0 0 0 2 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 2 2 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 2 2 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 2 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 2 2 0 0 0 0 0 0 1 1 2 0 1 0 0 1 0 1 0 0 1 0 0 0 0 3 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 2 0 0 0 2 0 0 0 0 1 0 0 1 0 1 1 1 2 0 3 2 1 1 0 0 0 2 0 1 0 0 0 0 1 0 2 0 0 1 0 0 1 2 1 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 2 0 1 0 1 3 0 0 0 2 0 0 0 1 1 1 0 1 0 1 2 0 1 0 1 0 1 0 0 1 0 1 2 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 3 0 0 0 1 2 0 0 0 1 0 1 1 0 0 0 1 1 0 1 1 1 1 0 3 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 0 2 0 0 1 1 0 1 0 1 1 0 2 1 0 2 0 1 1 0 0 3 1 1 1 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 2 1 0 0 1 0 0 1 0 0 1 1 0 0 0 2 0 1 0 0 0 2 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 1 0 0 1 1 0 2 0 0 0 1 1 0 0 3 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 0 2 0 0 0 0 0 2 0 1 0 0 0 0 1 1 1 0 3 1 1 1 0 0 0 1 2 0 1 2 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 2 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 2 2 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 3 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 2 0 3 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 3 0 0 0 0 2 1 1 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 2 1 0 1 0 1 1 1 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 2 2 2 1 1 1 1 0 1 1 0 1 0 1 0 1 0 0 0 1 0 1 1 1 0 2 0 1 0 1 0 1 1 0 1 0 1 0 2 1 4 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 1 0 0 2 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 2 1 1 3 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 1 0 0 2 2 1 0 1 0 0 0 0 0 0 0 0 0 0 2 2 1 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 1 0 0 0 2 0 1 0 0 0 0 1 1 2 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 4 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 1 1 0 1 2 0 0 0 0 1 0 1 2 0 2 0 0 1 1 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 0 0 1 0 0 0 0 2 2 0 0 2 0 1 0 0 0 2 1 2 1 1 1 2 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 2 0 0 0 1 0 1 1 0 1 0 1 1 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 2 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 3 0 0 0 0 1 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 1 1 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 2 1 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 2 0 1 0 0 0 0 1 0 0 0 1 1 1 2 1 0 1 1 0 0 1 0 2 0 1 0 0 2 0 0 1 0 2 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 1 1 0 2 0 0 1 0 2 0 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 2 0 1 1 1 2 0 0 0 0 0 0 0 0 2 0 4 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 2 0 0 1 1 1 0 0 0 1 1 2 0 1 0 0 1 2 0 0 0 0 0 0 0 1 3 0 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 3 1 1 1 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 1 0 0 1 0 1 2 0 1 0 0 1 1 0 2 2 1 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 2 0 1 0 0 1 1 0 0 0 0 0 2 0 1 2 0 1 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 0 1 0 1 3 2 1 0 1 2 0 1 2 0 1 1 0 0 0 1 1 0 0 0 2 1 0 0 0 0 2 1 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 1 1 1 0 1 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 2 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 2 0 1 0 0 0 0 1 0 1 1 0 0 1 1 1 0 2 1 0 0 1 1 0 2 0 1 0 0 1 1 0 0 0 1 1 0 1 0 0 2 2 0 0 2 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 2 0 1 0 0 1 2 1 0 0 0 0 0 0 1 1 1 0 1 2 0 1 0 0 0 2 2 0 0 0 0 1 0 1 1 1 0 0 2 0 1 1 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 0 1 3 0 0 0 0 1 1 0 0 1 2 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 2 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 3 2 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 2 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 2 1 2 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 1 1 0 0 1 0 1 0 1 1 0 1 1 0 2 1 1 1 0 0 0 2 0 1 0 2 1 0 0 0 0 0 0 0 0 0 1 3 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 3 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 3 0 0 0 0 1 1 0 1 0 0 0 2 1 1 1 0 2 0 0 1 0 0 1 2 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 2 1 1 0 0 1 1 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 2 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 3 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 2 0 0 3 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 3 1 1 0 1 0 1 0 1 0 2 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 2 0 2 0 0 0 0 0 4 0 2 0 0 0 2 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 2 0 2 0 1 2 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 3 1 1 1 0 0 1 1 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 1 1 0 0 0 0 2 0 1 0 0 0 2 2 1 0 0 0 0 0 0 1 0 2 0 2 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 3 1 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 1 0 2 3 1 1 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 0 1 2 0 0 0 1 0 0 2 1 1 1 0 0 2 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 2 1 1 1 0 0 1 1 0 1 1 0 0 0 3 0 1 3 1 0 1 1 0 1 0 1 0 0 0 0 1 2 1 1 0 0 2 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 2 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 2 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 2 2 0 0 1 2 1 0 1 1 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 3 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 1 2 0 1 0 0 0 1 0 2 0 1 1 0 1 0 0 1 1 0 1 0 0 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 2 1 0 1 0 2 1 0 1 0 0 0 0 1 0 0 1 0 3 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 2 0 0 0 0 1 0 3 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 3 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 1 0 1 0 1 0 0 1 1 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 2 0 0 0 0 0 0 0 2 1 1 1 0 0 1 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 2 0 1 1 0 0 0 0 2 2 0 0 1 0 1 0 0 2 1 1 0 1 0 0 0 1 2 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 1 2 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 1 1 2 2 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 2 1 0 0 2 1 0 0 1 1 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 2 0 0 0 1 0 3 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 1 0 0 1 1 1 2 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 2 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 1 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 1 0 1 1 0 2 1 0 0 1 1 1 1 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 1 0 2 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 2 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 2 0 0 2 1 1 2 2 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 2 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 0 0 0 3 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 1 1 0 0 2 1 3 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 1 1 0 0 1 0 1 0 2 0 0 1 1 0 0 1 2 1 2 0 0 0 2 1 2 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 0 1 2 0 0 0 0 1 1 1 0 0 0 2 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 1 0 0 0 1 2 2 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 1 1 2 0 0 1 0 0 0 3 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 2 1 2 1 0 0 0 1 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 0 2 1 1 2 0 0 0 0 1 0 0 3 0 0 0 0 0 0 1 1 0 1 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 2 0 0 1 0 0 0 0 1 0 2 1 1 0 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 2 0 0 1 1 1 0 0 1 1 1 0 1 0 0 3 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 2 1 1 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 2 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 1 2 1 1 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 2 1 2 2 0 2 0 0 0 1 0 0 1 0 1 1 1 0 0 1 1 0 0 1 2 0 2 1 0 1 0 0 0 0 1 1 0 2 0 0 1 0 1 0 1 2 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1 0 1 1 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 2 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 2 0 2 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 0 1 0 0 2 0 1 0 1 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 2 1 0 2 0 0 0 1 0 0 1 0 0 0 1 2 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 1 1 0 0 1 0 1 0 1 0 2 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 2 1 2 2 0 0 0 1 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 2 1 0 1 0 2 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 2 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 1 1 2 1 1 1 0 0 1 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 2 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 0 2 1 1 1 0 3 1 0 1 1 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 2 0 0 1 1 0 2 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 1 1 1 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 3 0 1 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 1 1 0 1 0 1 2 0 0 2 0 1 0 2 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 2 0 1 0 0 0 1 1 1 1 0 0 1 0 0 1 2 0 0 0 1 0 0 1 0 1 0 3 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 2 2 1 1 0 0 0 0 0 1 0 1 0 0 2 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 2 1 1 3 0 0 1 0 1 0 2 2 0 0 0 0 1 3 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 0 2 1 1 1 0 0 0 0 2 0 0 0 2 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 2 0 3 0 1 0 0 0 0 1 0 1 1 1 0 0 2 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 1 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 1 1 0 1 0 1 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1 3 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 2 0 1 2 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 2 0 1 0 2 0 1 1 0 1 0 0 0 3 1 1 0 0 0 2 0 4 0 1 2 1 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 1 2 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1</t>
-  </si>
-  <si>
-    <t>JSB(3.342435041870173, 2.9234651410850034, -62.79095642475166, 630.8728769595064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98 73 81 46 78 82 163 40 85 85 44 151 80 79 65 153 134 140 82 63 186 106 99 106 117 106 36 95 127 62 81 41 53 91 60 122 130 78 109 71 76 125 62 69 75 58 64 72 149 49 103 73 116 81 89 62 113 77 205 99 158 32 59 140 54 41 131 42 13 70 63 60 33 70 75 91 165 100 88 129 77 118 133 138 59 123 97 111 79 13 99 97 46 122 64 106 78 45 67 126 102 92 94 104 111 22 86 79 101 55 51 99 89 140 50 83 34 132 146 129 146 34 88 81 138 73 73 80 50 117 72 86 84 31 144 59 93 103 90 94 65 57 92 49 108 139 79 101 74 103 80 30 77 144 101 61 79 140 28 121 102 61 194 65 99 90 30 131 205 38 90 219 134 44 124 142 69 89 61 86 131 54 79 73 109 45 54 76 77 96 33 66 131 131 124 58 135 83 160 76 132 66 63 48 46 106 92 101 77 129 97 43 57 83 103 102 26 82 63 77 112 169 67 111 70 77 48 77 39 63 59 35 147 170 53 144 44 115 100 85 78 168 83 46 69 169 133 88 133 117 70 132 166 108 94 102 41 64 97 42 92 55 41 63 147 95 37 111 96 113 120 77 72 87 96 94 54 89 76 91 51 12 94 75 236 157 66 94 73 148 159 70 120 41 70 82 54 86 67 104 110 75 51 111 45 37 89 81 67 127 149 90 89 135 25 143 66 108 92 107 47 29 127 67 120 81 93 88 108 136 38 84 99 145 75 53 75 88 48 115 80 77 31 82 119 62 95 79 117 69 63 75 28 56 115 126 89 81 84 23 123 124 36 52 151 55 104 166 112 70 51 88 72 130 125 58 89 77 125 48 19 72 82 84 38 46 55 114 70 118 71 48 179 99 165 130 50 56 138 78 92 97 162 37 211 159 57 113 25 71 99 82 114 66 42 136 33 146 116 103 70 64 56 23 66 125 90 86 64 43 82 85 123 110 48 144 176 155 120 167 111 168 129 67 68 117 71 68 98 158 134 61 110 81 162 106 125 97 84 74 61 58 89 165 69 63 137 116 84 76 25 190 102 127 83 94 41 106 64 80 59 124 135 145 135 49 158 54 87 202 185 21 44 56 115 93 78 148 116 47 156 138 48 89 121 94 77 143 93 121 80 129 23 172 27 63 132 36 95 94 73 139 111 135 147 37 184 95 132 70 69 67 126 133 78 116 67 100 89 82 122 96 112 35 23 34 150 88 77 150 75 75 112 20 198 72 133 87 46 149 58 31 66 138 142 35 136 129 114 99 102 107 74 47 115 121 86 44 121 59 22 65 73 88 45 120 75 52 1 147 58 41 43 60 124 84 113 130 130 97 86 111 44 81 70 113 88 91 95 32 116 134 42 136 46 78 82 113 132 61 110 130 88 92 168 58 123 189 112 106 116 168 66 65 69 38 81 47 48 82 79 43 70 68 55 45 137 45 117 63 77 34 89 81 71 61 69 40 99 43 87 108 85 94 42 68 110 108 63 70 135 91 108 58 88 161 91 117 78 195 89 98 116 105 82 121 99 66 34 60 93 140 106 53 21 59 82 116 83 130 63 160 71 112 79 86 76 83 114 147 126 61 27 95 113 111 50 113 90 60 81 103 104 136 70 135 94 120 96 146 95 10 99 75 95 65 200 123 95 81 50 45 121 124 88 119 125 94 56 62 211 131 111 53 128 95 37 75 143 114 114 106 40 33 130 159 158 155 39 77 116 80 141 78 86 89 90 158 150 96 74 65 129 74 61 127 32 57 70 48 104 88 83 83 120 93 132 59 116 107 76 67 73 97 140 186 85 151 141 76 119 136 84 109 63 60 22 119 101 115 82 106 51 174 102 83 56 134 105 71 79 138 100 129 68 41 81 80 68 24 122 93 132 78 99 63 50 57 94 37 75 159 92 18 120 78 87 61 79 21 99 66 96 87 55 147 78 91 105 55 27 77 93 63 122 82 43 135 98 113 58 87 133 67 84 120 98 135 109 127 112 93 85 51 118 90 105 66 95 57 110 105 114 64 78 41 55 141 113 62 61 118 125 57 139 31 119 53 27 106 137 66 63 15 97 102 132 77 164 13 103 98 122 154 90 120 102 165 96 88 96 176 121 172 153 77 57 105 103 62 51 127 125 81 135 157 95 46 78 135 58 94 75 118 77 62 97 139 108 17 87 52 99 121 126 98 100 23 89 113 104 124 134 107 90 142 134 63 58 161 63 124 66 45 73 122 141 93 128 116 78 141 93 56 126 48 93 101 125 151 115 114 89 65 45 108 121 82 78 108 157 140 81 108 117 54 136 123 74 96 144 89 33 106 180 47 158 158 80 53 178 107 79 95 173 181 76 109 59 97 113 69 73 132 42 177 100 78 38 121 166 80 104 70 68 122 151 77 117 115 30 187 84 65 123 29 44 147 87 111 68 73 127 28 27 78 47 66 82 57 52 77 101 124 108 67 72 88 95 108 48 50 111 131 84 23 86 66 40 54 97 58 68 32 79 13 161 66 108 91 155 93 136 103 85 102 145 104 23 105 70 139 65 97 193 137 86 101 140 170 128 89 46 73 151 181 158 39 131 179 52 147 80 90 104 128 119 40 81 53 82 63 126 39 52 56 97 106 112 76 53 116 132 140 119 115 98 89 166 120 66 38 34 68 66 49 144 205 85 156 33 142 99 144 32 66 65 77 109 105 128 110 65 51 111 67 96 62 75 65 109 48 111 14 92 120 140 120 17 101 90 108 75 50 104 55 107 81 59 121 61 100 118 133 84 61 95 111 59 90 86 66 100 77 111 103 71 33 91 55 57 213 125 48 164 74 121 125 139 69 80 102 37 130 120 102 159 78 125 205 139 143 22 87 148 114 253 132 208 168 78 17 57 114 119 34 64 131 188 139 69 119 70 52 125 27 61 127 119 99 124 50 93 86 106 153 99 124 68 52 51 76 104 129 37 53 56 37 57 93 137 117 126 40 120 75 65 37 58 105 77 59 111 78 153 83 112 69 75 79 94 89 181 85 132 92 61 121 82 129 78 24 102 58 123 109 139 82 87 58 88 162 109 86 78 133 117 66 124 109 43 55 159 85 70 25 46 107 159 143 125 128 23 136 75 63 85 189 80 88 162 38 167 111 29 110 145 37 58 53 119 46 38 87 150 41 44 21 117 80 101 72 88 112 120 94 124 113 136 80 76 113 62 93 116 161 26 38 212 81 142 70 33 65 84 115 23 102 59 106 126 43 100 125 127 80 30 73 164 134 143 16 69 82 25 80 4 44 141 33 82 97 91 86 108 155 75 80 58 115 34 61 117 119 95 95 91 115 129 85 104 69 15 95 170 6 88 57 105 118 69 64 117 81 81 124 141 141 132 129 60 168 57 119 69 56 100 35 118 113 111 19 135 86 82 94 163 57 165 114 129 67 68 73 98 25 71 116 109 122 125 124 106 60 81 81 75 127 43 88 124 80 91 85 171 50 93 53 95 178 126 47 83 93 147 83 93 23 66 85 65 94 94 46 50 111 90 91 77 52 56 83 65 77 85 88 53 37 106 140 74 33 109 51 71 75 94 60 125 114 53 43 156 92 54 90 113 96 58 113 55 95 68 76 112 14 97 133 125 104 128 147 68 67 97 66 105 62 71 72 56 87 51 67 96 36 71 28 127 122 134 127 86 61 148 55 90 71 96 109 22 23 65 130 98 104 75 154 105 83 73 110 73 90 64 213 107 79 75 111 93 61 54 135 95 140 88 14 125 33 190 89 65 39 51 55 39 113 37 70 99 58 123 81 46 64 103 146 178 157 55 53 55 119 69 72 117 58 164 87 109 202 109 148 124 38 118 78 66 98 96 27 59 83 74 60 94 120 74 49 98 62 114 81 128 34 79 163 143 126 57 82 141 96 54 58 141 90 79 86 52 71 95 78 134 122 101 76 112 26 69 43 69 154 79 108 18 20 203 67 73 139 102 93 108 97 95 49 102 162 56 96 159 56 76 83 101 77 67 107 78 95 130 124 189 122 90 116 82 105 53 121 31 123 66 96 72 98 62 156 65 89 102 62 164 234 69 44 56 91 61 141 114 60 108 114 75 132 54 59 72 118 112 61 89 144 132 56 90 99 185 29 32 80 117 74 86 58 73 86 98 106 90 49 29 147 111 88 38 159 84 111 121 53 58 108 113 148 24 45 46 72 104 136 64 60 68 135 81 45 139 70 86 46 100 49 69 128 52 103 70 111 109 127 135 94 83 31 76 107 93 111 65 92 78 91 54 125 58 157 58 145 95 59 74 67 139 111 70 93 32 106 88 63 153 49 118 115 40 108 67 107 116 46 106 141 89 144 148 86 64 112 138 71 43 81 133 109 57 156 93 96 79 130 105 39 68 179 89 26 103 103 77 27 154 72 104 145 78 56 165 61 77 40 67 62 30 92 111 178 94 124 81 48 87 84 143 80 56 69 131 85 83 72 97 52 40 113 86 127 2 59 79 56 77 147 131 86 98 136 38 90 94 79 121 111 121 111 107 3 84 72 84 46 167 64 128 170 96 43 45 93 174 78 173 61 112 158 74 72 38 167 107 125 53 150 46 98 67 102 61 74 48 92 62 133 128 112 48 76 38 90 69 108 103 129 102 121 77 106 69 170 127 115 102 154 71 53 158 73 67 31 105 141 181 96 85 50 72 172 147 95 80 87 130 142 48 126 92 68 101 45 40 89 64 77 97 134 85 39 62 124 148 77 91 84 111 90 67 145 74 63 103 42 106 180 110 48 76 94 53 36 72 97 70 78 62 103 19 153 117 34 122 69 66 73 99 77 26 127 50 93 154 84 132 67 34 96 54 32 122 186 40 50 38 99 98 123 112 63 68 79 111 111 52 80 118 130 111 84 88 94 122 115 90 156 130 38 132 129 40 87 103 114 121 52 91 99 68 138 60 63 26 56 92 166 102 159 104 77 118 106 70 75 29 156 42 166 85 110 44 73 165 171 105 65 61 82 149 74 42 135 78 165 74 193 38 47 78 76 74 63 56 227 26 43 80 84 73 119 83 195 124 32 89 99 152 70 56 119 65 31 75 90 61 108 129 95 76 69 100 151 101 64 74 31 97 130 119 78 89 46 162 141 89 68 62 82 90 30 134 105 34 97 88 54 178 103 86 86 81 170 81 83 138 128 41 34 101 12 143 115 216 70 124 143 61 331 135 118 50 78 71 177 82 117 101 68 100 107 18 76 72 113 128 127 71 178 98 122 54 126 58 118 82 111 25 195 79 80 100 63 145 140 82 131 119 189 54 83 143 99 69 9 55 148 134 142 65 57 40 32 25 39 17 59 64 98 67 86 86 81 68 106 148 89 114 46 106 28 65 132 139 80 77 54 135 104 85 106 85 85 66 58 53 124 66 172 81 43 80 120 76 19 138 53 99 157 21 129 13 123 86 103 75 25 64 129 122 51 112 88 84 55 119 143 105 47 60 47 132 81 109 98 30 96 101 68 142 118 70 77 149 128 70 105 76 96 70 33 84 46 85 111 112 87 52 177 143 92 83 39 51 82 93 150 90 146 153 129 177 63 129 130 122 104 122 91 58 118 94 110 69 83 75 160 31 149 46 161 60 67 115 138 70 150 87 93 69 104 135 113 41 82 129 70 109 129 88 150 171 111 84 112 72 14 75 36 70 69 86 48 117 45 206 149 68 75 158 100 41 77 105 122 156 78 59 66 160 93 62 116 57 87 103 61 87 119 46 68 143 130 130 77 126 33 114 81 51 134 157 120 76 73 171 47 101 68 124 58 116 137 117 74 82 48 174 51 92 64 38 86 132 57 123 58 93 120 137 156 42 143 59 56 100 105 101 27 147 101 117 61 48 84 53 66 104 86 58 137 76 96 155 114 128 29 76 57 83 137 116 143 118 88 65 105 17 106 41 101 59 86 104 108 123 111 136 116 70 152 142 114 142 112 31 71 70 75 50 140 65 90 102 162 99 129 52 37 92 40 97 110 114 118 52 64 80 78 70 87 125 39 103 94 8 43 114 94 48 34 96 47 85 129 92 14 110 85 104 86 146 60 69 111 76 89 72 66 71 82 41 89 84 129 37 106 136 57 72 102 51 134 80 73 43 51 130 46 93 106 73 89 143 84 72 157 80 113 49 77 73 34 62 102 61 83 67 131 164 48 77 72 52 73 70 76 140 129 61 83 194 128 116 84 53 16 38 80 133 94 161 135 78 101 190 69 54 82 84 179 60 47 131 59 116 77 130 135 29 93 61 97 150 110 86 70 70 133 69 56 56 117 126 98 33 60 109 41 71 117 71 88 72 84 100 38 89 155 113 108 104 144 41 71 78 45 41 67 162 81 100 160 82 110 137 110 159 40 84 75 111 56 53 33 103 106 158 146 45 86 83 118 114 75 103 134 20 66 53 103 32 34 114 89 94 141 27 89 88 15 92 56 83 109 89 149 89 101 46 89 90 152 67 108 168 113 130 56 47 62 169 61 36 172 92 103 137 167 49 79 116 69 67 78 242 145 69 143 144 102 168 90 46 44 90 134 97 57 25 64 89 142 132 105 59 147 55 159 88 101 169 97 49 59 48 88 132 126 164 132 118 62 89 101 50 105 47 68 101 217 79 38 121 99 88 99 75 97 95 149 124 39 154 103 46 77 88 52 127 106 116 75 110 45 130 61 73 86 142 165 103 126 53 48 112 104 72 156 92 66 34 105 86 80 63 52 75 149 65 99 77 40 77 77 55 116 130 64 24 181 40 75 132 84 143 180 199 125 92 90 23 37 92 131 173 60 88 106 91 132 80 108 179 53 104 45 91 142 77 58 81 150 103 119 89 85 58 84 71 86 34 57 35 113 67 85 92 89 43 99 126 143 60 118 49 126 29 14 120 86 93 91 52 63 134 112 105 227 109 74 74 122 37 102 58 184 128 114 46 100 26 114 75 105 112 81 83 56 92 137 121 99 59 127 108 136 74 61 93 70 77 49 97 70 108 94 35 210 57 147 63 110 92 145 182 192 113 144 122 58 71 107 142 71 93 49 16 77 166 93 94 110 102 89 119 88 67 56 37 183 113 103 84 71 103 95 232 144 151 135 178 126 65 50 79 164 90 109 87 95 93 53 180 97 118 53 46 47 103 53 124 88 54 90 125 85 157 117 163 53 86 32 132 118 124 72 150 48 76 26 122 84 168 134 96 80 89 112 126 98 84 77 83 84 151 52 132 93 81 146 151 70 91 115 135 111 91 53 116 72 68 82 34 132 55 87 86 116 182 90 91 9 123 24 61 19 96 217 129 77 96 67 39 147 79 54 50 115 104 49 129 37 47 131 80 164 106 103 84 110 137 178 143 210 45 78 121 79 68 59 159 129 22 104 90 173 36 103 80 72 63 50 109 93 91 64 63 91 138 107 117 15 93 70 123 83 44 156 74 165 141 51 90 93 136 84 66 125 164 143 39 56 83 62 35 35 168 85 48 37 101 52 98 102 83 49 96 133 64 70 33 66 49 103 116 59 98 160 120 59 106 138 107 97 17 179 152 94 86 151 128 144 63 183 84 59 133 62 58 94 106 113 83 68 57 129 42 81 131 125 56 87 51 22 67 46 16 68 37 53 43 116 76 91 135 33 92 93 19 28 114 77 132 109 57 95 45 116 64 67 98 194 87 41 136 101 51 61 87 130 95 72 60 72 76 71 85 106 59 118 158 83 75 115 80 17 86 135 61 49 247 101 53 107 138 130 82 80 120 37 151 116 133 61 61 110 58 58 53 51 62 104 60 209 158 183 140 85 168 116 117 139 128 96 97 82 42 85 107 83 120 133 141 132 156 16 121 42 63 67 127 75 203 42 143 130 58 121 173 104 173 84 155 46 83 1 69 104 78 71 120 72 120 55 69 16 68 63 164 56 64 91 145 86 72 69 146 41 42 155 162 110 35 57 38 166 102 86 144 188 77 150 46 132 108 102 156 86 42 65 129 117 43 172 53 82 88 107 90 156 159 58 94 92 95 65 139 59 66 53 67 52 42 76 79 90 80 167 70 121 133 15 56 83 65 71 69 86 113 140 105 58 46 119 178 141 76 103 215 87 95 58 115 111 86 95 61 121 176 35 47 146 70 79 274 88 73 15 19 116 79 84 116 95 91 85 97 30 139 98 168 99 72 101 98 108 104 79 92 68 117 118 115 88 35 199 91 39 130 102 156 66 67 94 108 97 155 109 82 133 130 138 159 71 173 55 36 107 104 54 66 155 84 131 192 64 162 82 35 49 121 140 37 85 92 90 136 83 64 12 33 34 121 163 98 40 26 41 121 94 115 58 61 114 55 69 120 132 58 29 40 86 33 93 6 125 39 63 156 107 20 81 65 86 95 60 68 116 102 102 148 42 70 72 119 121 100 44 64 78 147 65 83 172 135 91 63 127 52 38 69 139 57 47 44 185 72 131 140 66 72 103 104 82 149 55 107 43 74 86 77 20 59 114 116 56 195 41 89 66 157 97 96 44 77 135 86 141 124 124 71 47 191 103 62 62 100 189 117 48 143 80 72 200 123 90 103 83 50 106 65 59 114 72 31 125 113 132 140 82 143 100 101 122 237 94 59 149 132 98 123 66 132 119 73 108 66 79 61 124 174 95 97 168 118 89 79 72 113 132 126 98 50 93 45 90 126 72 131 9 77 37 79 111 95 51 86 215 133 102 198 73 46 101 120 54 160 150 103 142 103 98 71 75 114 75 71 6 81 76 53 64 84 116 98 38 35 59 34 86 126 89 117 135 93 82 79 97 118 91 69 159 49 85 27 120 186 82 90 99 158 91 124 88 120 100 127 44 108 199 176 77 80 103 48 16 90 44 89 101 193 109 51 116 114 61 174 63 93 86 102 64 66 65 64 165 65 80 118 107 85 84 21 151 145 95 38 74 106 86 124 95 103 66 70 122 28 20 33 100 80 47 151 52 77 43 102 38 158 34 185 99 129 154 99 158 75 96 33 138 51 174 124 42 51 44 56 18 67 72 65 56 141 74 25 90 82 54 112 105 86 23 42 164 73 174 83 135 15 166 94 132 51 58 172 60 105 118 30 118 75 160 107 157 87 44 61 54 70 67 69 201 135 86 98 179 74 103 80 94 126 123 94 128 130 145 42 94 82 42 100 60 118 84 126 98 134 162 81 71 98 24 54 202 39 61 133 61 79 186 74 71 46 228 111 57 34 112 42 66 167 153 138 76 87 24 13 98 150 76 77 98 84 27 125 149 159 32 109 71 41 124 88 131 139 117 31 56 164 56 120 230 71 57 58 99 78 58 84 39 154 69 79 96 87 122 85 67 152 126 106 150 84 43 82 57 26 126 159 79 65 92 134 122 88 119 89 30 24 211 17 70 140 73 217 156 135 182 71 154 70 113 73 61 59 103 100 99 59 41 112 58 134 77 64 29 93 80 108 99 94 62 127 131 97 155 82 47 47 24 58 75 23 92 72 135 68 152 138 52 138 105 62 142 147 28 97 139 110 88 101 121 14 105 61 173 43 86 150 92 40 90 76 98 66 107 83 118 38 158 11 52 104 132 44 45 113 129 54 82 85 115 68 53 81 68 43 117 40 88 227 122 99 118 71 132 121 136 26 115 78 144 109 114 112 28 55 79 69 74 29 140 79 71 64 80 144 62 19 110 108 114 168 83 76 63 133 113 104 122 103 94 60 186 17 48 53 117 37 87 191 143 50 97 105 56 127 105 67 13 63 90 127 112 117 152 73 105 111 132 75 100 54 72 86 74 88 34 43 76 70 132 124 78 142 91 68 83 47 23 81 125 110 70 118 32 78 140 56 54 94 50 165 24 14 116 86 118 108 130 114 117 57 126 116 129 39 66 73 95 79 52 148 171 91 88 169 87 89 57 106 57 82 66 71 139 97 19 147 82 54 129 105 100 104 140 45 59 76 103 139 110 61 80 57 38 83 35 89 155 56 75 113 137 90 98 120 84 76 25 80 145 153 122 214 175 83 89 73 93 122 61 15 118 143 68 83 73 92 63 92 69 71 108 91 170 59 23 66 44 112 53 119 123 53 132 104 89 83 73 52 58 137 95 32 56 85 22 105 127 65 114 50 106 151 91 77 98 29 98 107 112 125 104 72 48 75 78 56 187 85 112 107 108 36 108 108 77 66 81 103 198 110 61 91 94 124 93 98 114 49 23 78 46 139 25 90 79 48 74 101 169 73 94 78 100 113 117 47 85 33 114 60 66 39 59 98 74 63 137 87 92 71 82 104 43 53 35 53 98 66 138 120 66 61 114 141 125 95 157 167 146 141 66 129 114 153 175 24 109 53 5 142 143 87 16 44 70 139 56 82 55 77 46 104 121 142 107 186 83 125 19 67 27 56 38 73 140 91 94 106 111 84 41 171 84 66 72 128 233 33 68 95 138 52 104 41 65 70 7 86 141 100 75 26 91 120 89 105 98 16 149 119 120 109 50 115 53 135 62 67 55 127 65 70 86 99 119 16 40 73 69 76 186 133 144 62 110 77 85 151 138 65 126 66 49 195 190 55 57 59 140 100 147 92 25 106 171 135 119 74 128 88 84 155 12 80 106 35 79 86 93 94 89 106 97 19 120 77 68 100 110 50 113 58 95 113 98 68 54 47 84 107 85 91 64 106 88 75 95 102 65 73 104 115 60 73 177 124 96 123 83 64 53 43 133 90 81 106 11 129 70 64 74 142 150 79 49 122 103 99 24 129 102 79 102 89 134 53 61 50 57 122 112 136 125 97 49 77 81 65 72 92 82 72 95 6 103 96 106 80 91 26 48 103 121 54 97 71 124 79 198 144 144 136 156 13 25 57 52 46 91 138 93 111 119 92 163 100 83 116 103 51 52 65 88 87 105 40 82 71 46 80 79 78 95 101 76 112 123 85 48 105 140 88 68 115 67 40 93 39 70 93 65 79 113 43 171 78 97 95 109 171 43 104 35 108 58 44 84 93 140 129 63 81 67 79 83 96 109 54 50 217 66 78 65 90 193 112 96 70 134 58 111 168 114 65 18 96 177 98 89 93 130 79 134 164 74 116 88 107 171 53 84 119 98 71 94 103 33 81 107 50 34 198 123 70 63 135 171 105 146 126 60 95 126 81 83 121 82 96 65 166 80 64 103 154 55 64 139 186 56 129 134 83 144 117 140 106 163 47 52 103 61 55 59 94 70 182 21 115 135 38 97 202 44 107 42 162 121 29 41 145 5 55 41 61 224 85 164 121 107 118 141 88 144 91 212 170 126 44 83 109 119 67 91 94 51 85 125 95 99 108 99 119 39 36 58 45 100 131 88 132 121 30 89 39 150 154 148 139 74 112 62 118 108 78 26 110 90 101 63 56 45 118 61 43 2 49 67 101 135 154 95 100 108 111 93 148 82 73 55 108 112 145 82 59 72 105 38 69 182 83 73 71 104 91 132 142 64 87 119 26 173 110 26 122 50 58 174 79 107 34 81 95 94 66 147 126 65 45 69 139 79 105 60 73 74 53 71 107 72 39 75 36 86 97 117 68 87 102 128 111 28 183 108 141 130 216 47 78 70 81 47 40 185 90 82 104 135 120 219 144 163 112 81 29 80 94 71 63 98 114 30 81 95 106 94 67 58 184 53 98 56 46 106 68 102 65 63 26 168 92 75 82 55 144 102 104 72 154 24 129 85 153 163 114 62 146 15 39 104 95 92 72 81 96 57 86 154 42 15 49 89 83 76 48 125 69 118 130 128 98 49 42 104 100 97 65 64 64 136 106 43 156 95 135 93 81 95 122 108 127 71 86 68 143 90 71 209 115 90 68 60 148 105 70 94 134 101 112 130 73 80 141 90 65 107 127 73 141 122 75 74 30 147 83 107 54 99 138 138 43 63 94 54 81 122 23 140 132 47 113 31 85 139 120 82 97 89 88 71 62 49 139 25 99 80 18 91 93 94 95 93 71 55 34 61 41 82 67 101 116 76 97 197 54 165 120 70 89 159 151 71 129 95 165 68 76 41 155 130 60 65 90 121 104 79 80 128 50 73 208 67 26 145 144 28 85 50 147 109 77 81 147 105 74 36 86 29 187 33 94 98 114 97 85 167 46 113 120 45 111 10 102 101 78 71 50 40 60 131 64 122 98 43 35 86 100 72 57 117 120 123 83 81 192 154 83 101 45 40 68 123 54 121 11 115 37 109 93 97 54 178 140 129 78 66 118 95 61 88 73 58 60 105 106 127 92 138 76 152 68 87 98 82 87 117 89 107 66 155 37 123 45 129 93 199 89 83 124 37 125 95 125 189 78 136 83 75 114 80 96 84 96 118 114 53 87 77 50 58 71 165 113 91 33 130 106 105 122 46 58 73 133 25 100 127 68 61 123 110 111 35 136 65 115 138 93 134 136 134 126 214 122 154 101 54 126 30 119 106 43 108 110 97 141 88 70 118 38 52 86 124 41 70 87 102 26 92 134 123 154 60 49 132 79 91 47 150 118 41 78 65 70 58 133 94 63 38 108 144 125 154 109 154 173 155 92 91 68 105 40 134 205 83 106 65 80 40 116 58 41 16 51 134 146 81 103 98 95 163 18 83 152 131 155 167 96 110 139 78 229 102 98 105 60 81 101 116 59 126 100 100 75 85 89 13 81 69 120 123 97 95 64 166 50 100 43 64 30 96 62 107 140 12 121 103 33 75 99 40 80 113 125 114 37 202 127 10 120 95 81 102 52 149 48 87 50 56 54 78 39 178 61 82 141 102 56 81 53 25 82 115 50 61 161 62 139 117 79 107 115 145 145 137 128 86 80 107 184 99 170 87 76 110 125 98 149 115 61 46 58 195 105 131 66 77 111 88 78 47 89 9 69 51 128 95 158 118 110 104 80 84 78 70 154 59 97 57 61 113 28 42 113 106 44 38 146 86 127 87 59 73 92 136 85 69 67 100 116 171 128 127 63 105 137 47 195 105 180 62 63 125 59 141 114 119 69 124 90 8 34 104 119 135 152 126 18 54 64 97 132 76 58 75 111 103 55 81 54 170 98 99 109 84 117 52 86 73 54 79 124 128 93 109 88 98 19 103 65 80 66 101 104 68 166 71 72 104 46 116 126 66 72 84 54 81 111 57 74 121 41 95 39 73 199 92 62 103 134 116 117 102 103 117 22 166 86 71 45 198 69 29 33 76 118 44 130 107 64 100 154 149 92 95 59 89 165 87 82 132 75 138 59 32 77 101 69 49 90 207 78 115 116 64 127 107 53 86 95 73 83 101 134 91 49 119 180 204 50 148 84 82 123 79 117 98 47 144 79 123 85 55 90 34 26 62 118 128 130 83 124 89 83 96 53 51 29 109 57 60 65 86 64 87 68 104 109 75 42 140 120 93 161 149 122 110 143 72 53 94 85 148 133 97 110 55 105 65 107 48 105 94 178 137 160 36 134 35 53 91 220 85 103 105 74 172 33 123 55 64 163 180 53 137 108 185 105 53 79 47 79 46 116 92 73 111 130 117 8 141 103 65 83 60 61 55 18 88 44 35 51 146 53 157 72 126 117 110 58 92 63 45 73 129 126 50 110 111 96 61 138 124 118 113 70 46 60 113 138 80 54 97 148 161 147 96 160 94 125 71 64 44 65 59 73 99 112 107 20 94 88 79 148 169 116 142 69 117 57 28 43 137 58 77 153 143 41 84 96 55 63 146 145 195 7 98 39 89 145 117 56 29 74 75 119 52 40 42 157 130 157 165 127 86 160 47 67 114 85 95 99 120 97 135 98 77 150 68 171 86 39 75 28 120 107 37 111 111 70 110 93 125 42 61 81 124 196 160 103 27 40 54 91 93 24 95 103 88 98 77 144 89 55 111 87 74 60 106 155 81 163 103 101 30 67 88 59 131 66 88 76 54 80 83 32 40 74 106 124 80 117 111 152 82 109 37 103 97 97 64 151 86 187 83 42 116 104 90 85 143 56 98 68 110 122 66 83 134 94 96 56 70 86 65 158 57 88 103 75 78 85 104 77 73 55 140 131 157 151 102 113 13 66 69 130 61 150 73 60 108 91 113 68 113 74 110 94 54 81 89 118 115 32 76 115 116 44 84 37 100 43 141 77 96 44 87 95 97 147 39 114 164 130 87 118 71 66 50 52 108 112 56 119 102 83 28 82 112 114 16 48 105 147 202 148 70 123 244 73 18 123 70 126 80 113 102 125 67 44 48 82 36 114 138 112 125 142 100 70 58 122 89 107 132 94 81 36 129 45 99 119 175 169 68 157 118 69 145 132 92 158 99 126 78 55 149 74 101 36 134 88 139 47 100 59 162 95 58 109 66 103 71 107 139 39 134 167 114 49 88 83 74 95 102 98 167 124 58 77 144 94 97 126 129 50 90 141 81 52 71 81 133 86 72 129 54 122 60 58 116 41 46 123 39 73 81 19 143 83 66 90 166 58 89 134 8 86 95 28 69 95 132 30 108 68 108 100 47 74 57 102 107 95 100 92 114 79 44 57 87 14 106 67 64 66 126 107 91 145 52 46 128 115 59 80 71 79 75 138 160 55 74 98 97 112 146 113 52 121 116 62 100 114 74 110 33 83 55 49 80 79 102 64 33 76 91 141 79 65 114 118 56 72 100 148 38 96 164 92 88 65 116 108 75 87 110 154 65 126 105 178 74 55 49 52 132 139 100 81 73 150 80 77 107 94 95 127 95 71 88 95 51 45 68 86 27 124 65 22 44 125 164 226 42 61 101 72 69 78 61 46 92 51 28 91 97 86 86 34 88 142 129 48 105 77 48 203 57 125 67 131 92 96 104 69 37 11 109 137 84 129 52 64 64 80 5 131 116 78 84 174 70 130 22 122 50 24 77 80 101 87 64 134 84 26 103 64 126 74 138 116 76 104 97 106 42 79 90 75 145 40 40 186 94 153 103 141 69 97 66 41 127 166 122 45 104 34 55 41 72 111 70 131 55 82 111 117 66 104 207 115 170 98 36 101 154 110 101 163 75 62 162 26 76 79 166 145 150 138 121 78 125 89 64 58 52 146 155 70 119 84 62 99 127 29 83 88 118 20 66 175 91 141 28 144 50 91 114 77 92 59 85 75 89 124 128 120 32 127 133 99 30 89 102 90 116 65 132 57 90 158 103 98 68 123 59 78 114 123 146 43 85 122 86 137 125 69 101 52 186 72 63 114 134 68 109 157 80 88 90 16 118 219 64 211 81 37 99 119 92 182 55 83 120 161 52 79 52 84 58 53 72 97 135 187 77 119 182 36 52 117 74 73 191 68 144 78 112 112 65 81 134 80 58 125 52 70 79 66 160 206 96 142 67 53 78 50 116 97 72 123 101 116 66 113 88 31 110 125 131 102 121 97 52 98 92 46 117 115 44 117 64 92 112 56 134 143 77 112 94 74 36 124 119 84 196 85 113 102 89 76 104 109 168 88 99 101 114 121 117 166 38 76 63 163 79 45 66 84 62 121 109 113 91 62 72 97 89 47 67 118 56 140 53 65 120 70 134 149 105 96 91 82 30 79 67 59 64 49 53 40 29 181 115 89 129 117 64 77 101 99 72 116 132 193 120 83 49 86 120 116 120 98 114 92 99 101 106 128 180 77 95 116 56 85 132 153 83 67 138 116 178 141 82 77 112 103 50 76 96 85 129 68 52 92 121 69 236 92 103 197 145 111 121 94 71 149 152 124 99 130 106 126 90 121 62 72 92 48 175 123 46 102 77 225 78 123 96 64 46 69 11 33 88 122 189 95 83 135 88 238 128 63 36 92 46 43 78 63 64 90 130 64 137 79 96 105 98 79 186 14 118 163 89 47 42 106 127 115 140 54 125 72 151 95 116 134 132 78 165 52 192 156 58 141 64 52 61 74 128 101 84 117 105 70 139 50 99 76 70 76 63 57 67 76 103 87 79 70 101 25 82 117 72 130 67 110 107 140 44 88 142 122 56 186 59 109 134 111 143 64 37 120 177 53 95 86 103 50 105 64 132 123 113 73 51 160 56 77 93 76 91 87 81 108 65 99 141 156 151 172 75 114 64 149 117 78 143 63 33 105 71 117 118 159 155 85 138 71 67 26 110 107 17 64 200 86 80 41 145 77 95 34 114 73 60 149 95 82 3 140 116 141 133 65 129 45 121 91 41 176 35 60 96 125 69 136 64 163 100 78 31 195 148 97 70 54 107 90 119 130 139 40 129 83 72 140 56 35 65 153 49 81 83 100 47 46 128 71 137 70 27 131 99 121 98 51 77 111 88 85 176 132 110 79 77 66 65 101 132 88 89 55 63 173 42 82 72 53 74 109 107 59 172 111 203 97 115 162 104 105 31 59 77 180 110 96 110 84 76 76 145 51 153 81 63 83 59 37 100 118 98 140 58 101 68 170 80 182 64 94 134 132 94 65 89 124 49 114 62 191 121 107 85 75 81 49 101 80 78 54 127 129 116 128 124 76 92 113 89 78 39 56 141 57 78 127 53 70 172 53 99 102 83 88 71 102 74 68 71 54 185 128 99 59 73 65 108 83 106 86 79 88 99 58 145 110 35 65 50 79 68 73 80 146 123 182 40 120 80 55 180 62 39 96 86 68 63 120 72 118 121 65 30 95 111 135 89 107 54 124 71 95 195 105 25 55 104 94 119 119 105 52 113 34 68 12 90 83 100 57 166 91 97 34 116 49 58 152 95 25 83 72 78 79 87 84 8 55 94 68 91 69 90 58 74 67 74 132 83 163 18 49 86 136 142 78 102 106 151 61 183 123 96 56 30 72 157 91 86 143 124 71 57 53 36 25 83 74 109 57 121 120 86 134 67 111 92 41 146 89 73 160 78 16 92 97 161 44 83 108 98 87 69 89 29 106 166 34 123 42 55 75 115 138 37 99 106 106 98 45 98 98 103 79 136 123 93 26 129 104 64 105 115 93 17 49 125 113 77 113 100 80 81 75 132 44 36 57 85 63 138 125 62 35 81 84 86 83 37 205 147 114 91 102 88 64 20 95 102 40 137 87 111 55 86 108 81 39 84 73 69 31 65 38 65 79 115 87 66 90 59 57 68 113 84 49 96 113 121 52 108 65 119 33 71 77 56 70 70 7 55 119 106 36 108 126 97 71 93 69 76 100 77 123 83 103 128 112 76 107 108 67 108 92 157 140 124 82 81 41 77 69 112 100 82 144 71 19 86 31 59 116 122 69 84 142 131 131 82 75 52 86 75 132 38 143 50 115 69 126 94 77 117 110 115 126 128 52 84 93 53 98 188 68 95 64 144 84 108 95 67 91 56 62 98 28 105 133 142 60 94 131 95 216 115 110 146 126 30 97 103 33 29 66 94 94 87 103 160 146 127 131 108 126 67 134 128 75 89 141 97 57 123 161 70 73 92 64 90 100 113 171 79 148 52 113 42 129 162 49 143 175 123 105 126 138 68 40 99 150 115 93 84 103 132 88 100 45 93 176 11 126 101 50 82 156 115 104 241 73 58 51 109 117 116 55 117 91 147 115 84 139 93 97 139 50 79 79 212 31 72 128 56 75 167 147 153 74 93 53 117 75 66 81 121 105 88 44 96 105 158 84 108 123 80 78 106 158 56 110 111 60 35 23 116 163 85 26 158 129 102 54 81 87 161 49 9 95 56 149 97 196 99 146 73 98 88 106 119 36 89 134 37 133 106 95 180 92 20 46 60 68 99 103 132 58 162 6 111 60 84 70 119 33 100 190 115 132 82 88 78 67 46 159 49 96 99 119 95 89 118 69 115 110 141 121 39 58 87 52 92 109 143 57 105 71 84 112 95 52 35 128 85 87 103 125 112 135 76 91 83 18 43 0 97 149 45 57 122 81 104 112 121 116 112 26 54 131 150 118 133 140 108 78 73 91 138 70 104 172 59 51 108 94 14 97 131 111 54 18 43 82 64 93 100 94 48 93 114 64 23 50 35 50 157 112 129 79 49 60 112 90 54 43 146 97 152 36 112 116 130 116 54 89 131 83 48 43 79 64 143 22 35 56 75 74 46 65 83 74 85 78 67 57 105 162 58 34 97 105 75 76 131 119 131 38 165 134 77 55 60 146 84 102 153 102 184 66 123 134 100 191 78 129 62 38 98 100 87 74 113 56 38 106 98 65 170 76 69 91 47 124 136 124 73 63 101 42 54 36 100 24 129 34 118 31 68 111 45 58 123 15 131 91 87 83 163 73 156 73 130 143 93 131 93 119 119 98 87 31 107 132 148 80 81 73 43 93 146 52 148 133 32 62 75 133 117 105 137 82 60 159 60 75 29 98 89 101 48 56 72 72 59 42 114 61 206 107 31 94 135 48 116 122 100 76 101 95 65 104 77 45 90 137 53 70 63 74 82 53 95 14 97 70 70 124 166 63 69 166 16 28 86 35 104 33 130 64 129 63 103 108 80 84 89 55 51 61 79 142 98 91 130 102 62 108 170 113 136 30 120 71 158 135 42 108 178 120 62 137 53 102 84 103 65 107 95 73 78 133 136 94 68 49 46 138 42 82 27 48 95 53 20 126 124 65 90 67 68 234 97 112 43 53 151 153 107 110 117 28 96 115 211 134 157 11 153 144 101 110 29 144 107 137 152 57 15 97 54 71 81 70 47 79 101 73 57 3 72 48 106 85 89 40 130 55 108 167 84 104 53 63 88 232 75 33 143 57 122 104 138 103 91 153 79 115 110 160 142 113 26 98 97 62 76 109 75 62 95 59 173 150 103 117 93 22 67 85 123 141 108 39 108 80 96 74 117 85 30 162 121 123 116 188 144 55 51 18 42 126 53 54 33 61 61 106 66 112 186 55 106 96 76 125 105 85 182 121 116 73 83 79 109 62 72 71 138 70 122 132 39 138 168 144 127 110 122 66 49 177 79 50 120 65 90 133 104 73 26 123 94 49 25 105 66 145 147 114 174 129 144 75 83 95 42 43 129 51 76 63 145 95 80 119 152 172 112 106 66 114 98 96 145 127 99 118 89 134 67 96 97 100 109 73 59 131 133 66 67 109 79 86 117 105 126 60 94 14 93 89 116 67 77 107 46 175 50 91 87 54 126 165 81 98 80 80 87 97 100 76 78 12 107 112 146 85 72 73 64 18 78 61 125 163 121 62 106 79 106 56 55 34 66 89 100 116 165 96 100 133 109 88 26 81 143 84 58 73 59 40 104 133 16 43 133 100 76 61 125 127 43 104 71 172 108 85 126 86 112 189 60 81 58 36 47 21 57 122 49 97 172 27 58 152 106 38 112 101 70 121 92 74 115 86 73 57 84 116 73 75 90 17 72 102 112 56 96 60 58 145 125 82 88 179 66 121 79 102 120 176 45 30 98 72 59 68 182 123 117 92 192 108 163 88 58 82 81 118 136 106 75 58 138 34 90 39 107 60 53 68 68 94 27 83 73 115 48 137 52 146 47 83 79 98 136 65 121 78 135 110 88 130 39 172 33 74 65 92 115 103 58 85 172 77 88 71 59 99 32 75 35 75 132 94 182 104 96 25 85 100 65 152 95 64 88 53 193 70 154 67 87 93 106 129 126 138 87 59 74 67 91 108 80 109 90 72 115 68 102 193 131 65 112 124 96 115 85 101 123 162 79 140 90 65 123 86 67 97 36 76 62 37 190 79 62 91 86 85 79 87 177 149 70 73 58 77 57 122 128 104 57 84 62 89 62 144 37 111 103 85 148 123 37 103 111 154 103 148 146 150 13 105 106 28 112 120 73 68 123 65 51 141 80 87 41 60 161 75 5 92 120 66 123 59 71 32 132 25 16 8 29 81 59 72 77 54 138 88 140 88 63 85 164 103 134 103 152 90 42 72 64 53 18 87 78 158 90 144 64 81 39 111 134 87 74 87 90 121 45 31 77 61 72 150 97 104 129 14 75 84 51 80 106 118 74 136 70 123 131 73 87 212 165 41 32 61 94 32 139 47 84 146 73 81 82 56 52 95 96 149 76 25 96 62 61 87 82 39 98 104 116 201 49 37 27 48 52 23 92 9 96 85 76 99 106 53 99 48 42 75 153 85 116 85 66 80 127 54 111 110 143 53 62 89 121 41 25 174 94 53 20 108 225 84 122 111 35 123 118 117 122 30 79 61 34 116 155 153 157 124 84 79 124 101 48 34 115 116 107 51 106 115 36 167 149 74 102 89 102 99 92 124 92 82 54 144 58 133 196 86 74 129 108 91 61 75 121 145 77 80 56 197 64 107 93 180 74 47 58 102 73 74 38 143 103 58 21 92 130 75 46 115 161 95 108 104 161 62 121 142 74 68 69 138 98 83 158 126 65 118 141 56 77 45 51 67 95 56 129 171 141 87 60 40 110 108 19 133 76 59 111 150 149 36 84 111 120 160 134 60 100 61 92 179 131 155 115 78 100 95 167 106 82 111 115 80 81 65 98 119 57 59 93 157 51 22 96 88 93 63 120 112 88 108 81 55 48 78 64 223 98 152 121 57 129 91 82 125 50 64 45 49 97 122 83 55 122 127 152 96 48 46 44 46 34 151 103 50 119 85 45 67 23 23 82 96 58 155 73 73 72 177 145 135 35 54 67 105 141 107 86 91 26 158 114 102 108 137 81 107 103 87 56 12 87 127 173 77 35 21 20 72 159 87 122 25 77 100 96 77 27 106 97 86 57 75 241 97 100 70 154 132 111 66 119 163 66 155 129 117 103 65 159 66 65 78 130 106 57 68 28 44 32 40 43 99 121 140 174 104 135 105 68 119 83 96 19 79 109 90 129 124 94 108 69 63 96 130 85 62 159 24 107 121 42 26 70 118 115 52 122 48 98 9 171 167 149 130 136 145 207 63 300 95 72 35 67 33 31 41 104 100 127 168 99 170 101 145 111 90 60 80 93 126 98 94 124 61 72 53 185 120 98 26 9 130 69 126 78 94 141 61 75 128 125 68 43 135 111 176 123 54 105 109 103 75 18 42 75 68 54 44 118 95 76 83 124 33 94 126 100 124 39 173 119 158 5 92 87 98 85 132 107 102 42 74 71 54 91 56 89 93 65 154 141 84 81 113 86 86 97 84 119 162 136 76 81 61 49 125 48 67 111 96 129 91 97 104 142 54 124 71 111 71 146 67 108 45 71 91 44 90 76 69 103 72 56 49 100 70 180 105 187 89 33 145 119 33 68 126 62 159 121 58 99 49 125 147 82 124 93 86 168 58 49 121 62 80 120 129 95 56 55 166 51 30 18 100 66 88 99 145 94 195 112 248 104 143 139 166 104 40 122 67 111 145 86 96 90 133 96 155 144 92 87 83 165 190 116 93 47 110 121 98 166 59 73 28 101 81 47 147 100 26 40 50 6 110 175 105 46 150 60 110 58 156 163 37 79 120 57 77 147 54 156 189 160 145 128 92 120 73 81 110 41 17 82 86 112 73 32 136 48 90 89 104 118 94 109 95 36 82 93 106 186 83 102 99 122 103 84 63 125 60 102 73 175 82 105 48 79 144 66 66 84 50 60 105 146 90 72 87 108 63 110 164 53 32 60 50 86 63 74 133 169 80 79 78 62 94 117 79 49 105 83 123 137 67 120 116 86 66 80 20 161 62 163 39 103 46 131 85 119 73 168 66 28 161 179 20 39 153 138 97 69 65 61 115 47 180 145 108 70 91 103 104 142 50 37 24 52 78 105 97 97 78 90 174 85 108 82 156 79 115 76 118 46 143 88 83 85 115 95 164 118 72 62 75 68 </t>
-  </si>
-  <si>
-    <t>GAM(0.7046732814717052, -2.6840115123187823e-28, 0.5030750987511343)</t>
-  </si>
-  <si>
-    <t>1 0 1 1 2 0 3 0 0 0 0 1 0 1 0 2 0 2 1 1 2 0 1 0 1 2 0 0 1 1 0 0 0 1 0 4 0 0 1 2 0 0 1 1 1 0 1 0 1 2 1 1 2 1 0 0 2 1 1 3 4 1 0 1 1 0 0 0 0 0 0 1 2 1 0 2 1 1 1 3 0 2 0 3 0 1 0 2 2 0 0 1 1 2 0 1 0 0 0 1 2 0 0 2 0 0 2 0 1 2 1 0 0 1 1 1 0 1 1 2 3 1 1 1 1 0 0 0 1 1 1 1 1 2 0 0 0 0 2 2 0 0 0 0 1 2 1 1 0 0 0 0 0 2 2 1 1 0 1 0 1 0 0 2 0 0 0 1 2 0 2 5 1 1 0 2 0 1 0 1 2 0 2 1 0 0 1 0 1 2 0 0 1 1 1 0 0 1 2 0 0 1 0 0 0 0 1 1 2 0 0 0 0 1 1 0 0 0 0 3 1 0 1 2 0 1 1 0 0 0 1 0 1 3 0 2 0 1 0 0 1 2 1 0 0 1 1 0 1 0 0 0 2 3 1 0 0 1 2 0 1 2 2 1 1 2 0 2 1 0 0 1 0 0 1 2 0 0 0 0 0 0 1 0 2 1 1 1 0 0 1 0 1 0 1 2 1 0 0 0 1 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 1 1 0 1 1 1 1 0 1 0 0 0 2 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 2 1 1 0 0 3 0 1 1 0 0 2 1 0 0 0 1 0 2 1 1 0 1 1 2 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 2 2 1 0 1 0 1 1 0 2 1 2 2 0 1 0 0 2 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 4 1 0 1 1 1 3 0 1 1 0 1 1 1 1 1 1 1 3 1 2 2 1 0 1 2 0 0 0 1 2 3 0 1 1 1 0 0 0 0 0 1 0 1 0 0 4 1 0 1 3 0 1 3 1 0 0 1 0 3 0 2 1 0 0 1 0 2 1 1 0 1 1 0 1 2 0 0 0 1 3 0 1 1 1 2 1 3 0 2 2 1 0 0 0 0 0 1 2 1 0 0 0 1 1 1 1 0 0 0 2 0 1 0 1 1 0 0 0 0 2 1 1 1 1 0 0 2 1 1 0 0 2 2 1 2 0 0 0 0 0 1 1 1 2 0 1 0 0 0 1 1 0 1 0 2 0 0 2 1 0 2 0 2 1 1 1 1 0 0 2 0 1 0 2 1 0 1 1 1 0 0 2 0 1 1 1 1 1 1 1 0 2 2 1 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 2 1 2 0 0 0 0 1 3 4 1 1 0 0 0 1 1 0 1 1 0 1 1 1 1 0 1 1 3 1 2 3 1 1 0 0 0 0 1 2 1 1 0 1 1 1 1 1 1 3 0 1 1 0 0 2 1 2 0 0 0 2 1 0 2 1 0 1 0 1 0 2 0 0 2 1 0 2 2 0 1 1 3 0 3 0 1 2 0 0 2 1 1 0 1 0 2 0 1 1 2 1 1 2 0 0 0 1 3 1 2 0 1 1 1 3 0 0 1 0 2 0 1 0 1 4 1 2 1 1 2 2 1 1 1 0 0 0 1 0 1 0 0 1 0 1 0 1 3 0 1 2 1 2 1 2 0 1 1 1 1 2 1 0 0 4 1 0 0 0 1 1 2 1 0 1 0 0 1 1 0 0 1 1 0 2 0 0 3 0 3 0 0 0 0 0 0 1 1 3 1 0 1 2 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 2 1 1 2 0 2 1 0 0 2 0 0 0 1 0 2 0 1 0 2 2 1 0 0 2 0 1 1 0 1 0 1 2 0 2 0 1 1 0 0 1 1 0 0 0 1 0 1 1 0 1 2 1 0 0 0 1 1 1 0 0 2 2 1 2 0 1 1 1 1 0 2 0 0 0 2 2 0 1 0 0 0 1 1 1 0 3 1 2 0 0 0 0 1 1 2 1 0 0 1 1 1 2 0 2 0 1 1 0 1 1 3 0 0 2 1 2 1 2 0 0 2 1 0 1 1 1 3 1 0 1 0 0 1 0 4 1 2 1 1 0 2 1 3 0 0 1 0 0 0 2 0 0 0 2 0 1 1 0 0 1 1 1 0 2 1 2 3 0 0 1 0 1 2 0 2 1 1 1 1 0 0 1 0 0 1 3 0 2 1 0 2 1 0 1 0 0 1 0 1 2 0 0 0 0 2 1 1 1 1 1 2 1 0 1 0 0 1 1 1 0 0 0 0 1 2 1 0 0 0 1 0 0 1 1 0 1 1 1 0 2 0 1 0 2 0 0 0 0 2 0 2 0 3 2 1 1 0 1 2 1 1 0 0 0 1 0 0 1 2 0 1 0 1 2 2 0 1 0 1 0 0 1 0 0 0 0 2 0 1 2 1 1 1 0 1 0 0 1 1 0 0 0 2 1 1 1 3 0 2 1 2 0 2 0 0 0 0 0 3 0 0 1 2 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 2 0 0 1 0 0 1 1 0 2 0 1 1 0 0 2 0 1 0 2 2 0 1 0 1 0 0 1 2 0 2 0 1 0 1 0 2 1 1 1 2 0 1 2 0 3 2 1 0 1 0 1 3 2 1 1 0 0 1 0 0 1 0 1 2 2 0 0 1 0 2 0 1 2 1 1 0 0 0 0 0 1 1 2 1 0 0 1 1 2 0 0 1 0 0 2 1 0 1 0 3 1 1 1 1 0 0 0 1 1 0 0 2 0 0 1 0 0 3 1 1 0 1 1 0 0 0 1 0 2 1 0 0 2 1 0 0 1 0 1 0 1 0 0 0 2 0 0 0 2 2 1 0 2 3 2 0 2 0 0 0 0 0 1 0 0 2 0 2 0 0 2 1 2 0 1 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 1 1 2 1 2 1 1 0 0 0 0 0 3 1 0 0 0 0 0 2 0 0 0 0 1 0 1 1 0 1 0 1 1 1 2 0 1 1 0 0 0 1 2 0 0 2 2 1 1 1 1 0 3 0 0 0 2 1 1 2 1 1 0 1 0 1 0 1 2 0 0 0 0 3 1 0 1 0 3 0 2 1 1 2 0 3 0 0 1 0 1 0 1 2 0 0 1 0 0 0 1 2 3 1 3 1 0 2 1 0 0 0 0 2 2 0 0 1 0 1 1 1 1 1 2 0 1 1 3 0 1 0 0 1 0 0 1 0 1 0 1 0 1 1 0 2 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 1 2 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 0 1 0 0 2 0 0 2 0 1 2 0 0 0 0 0 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 2 1 0 1 0 0 0 0 2 3 0 0 0 1 0 2 2 1 1 2 0 1 1 0 0 1 1 0 1 2 1 0 0 3 1 1 2 0 3 0 1 1 2 1 2 0 0 2 0 0 1 1 2 0 0 0 1 2 1 2 1 0 1 1 0 1 3 0 2 0 0 1 0 1 0 0 1 0 0 1 1 0 0 2 0 2 1 0 0 0 2 0 2 0 1 1 1 2 1 3 0 0 1 1 0 0 1 1 1 1 1 0 1 1 2 3 0 0 1 0 2 0 0 1 0 1 0 0 2 0 0 0 1 0 1 2 3 0 0 2 0 3 1 1 1 1 1 1 2 1 0 0 2 1 1 0 1 1 0 1 0 3 0 1 2 2 1 2 0 1 0 1 2 0 1 2 0 1 0 1 0 1 3 0 2 0 1 3 0 0 1 1 1 1 2 0 1 0 0 2 2 0 0 1 0 1 0 0 1 0 2 0 0 1 1 2 2 1 1 1 2 2 2 0 2 1 1 2 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 0 3 0 0 1 1 0 2 0 1 1 0 0 2 1 0 0 1 0 0 0 2 1 2 0 2 1 1 0 0 1 1 0 1 0 2 0 0 2 0 1 0 1 1 0 1 3 0 1 2 0 2 4 2 1 3 2 0 0 1 0 0 0 0 0 2 0 1 1 0 0 1 1 0 2 0 1 0 1 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 2 1 0 1 0 1 2 1 2 1 1 1 0 0 1 2 2 0 0 1 0 0 0 0 0 1 3 0 0 2 0 0 0 0 2 1 1 1 1 0 0 0 2 1 3 0 0 2 0 0 1 2 1 2 1 0 2 2 1 0 2 0 2 1 0 3 0 0 0 0 0 0 0 0 0 0 2 2 0 0 2 1 0 1 0 2 2 0 0 0 0 1 2 1 2 2 0 0 1 0 1 0 0 2 0 0 1 1 0 2 1 1 2 0 0 1 1 1 0 0 1 0 1 0 1 0 0 3 1 0 0 2 1 0 0 1 1 0 1 2 1 1 1 0 0 2 2 1 1 2 0 0 1 0 2 1 0 1 0 1 1 0 1 0 0 0 2 1 0 0 0 1 1 1 1 1 0 3 2 0 1 1 0 0 0 2 1 2 2 1 0 0 2 1 1 0 2 1 1 0 1 0 3 1 1 2 0 0 1 1 0 1 1 1 0 0 1 0 0 1 0 1 0 2 2 1 0 1 1 1 0 0 0 1 1 1 0 1 0 0 0 1 1 4 1 0 0 2 3 1 1 2 1 0 1 1 1 1 0 0 1 0 0 3 0 2 1 1 0 1 1 3 1 0 0 0 1 0 0 2 1 0 0 2 0 0 1 1 1 0 0 1 1 0 1 0 1 1 1 1 0 1 0 2 0 1 1 0 0 1 1 1 0 0 1 1 0 1 0 2 0 3 0 0 2 1 0 1 1 0 1 0 2 1 1 2 0 1 0 1 0 0 0 0 1 1 1 0 1 2 0 0 0 0 1 1 1 2 2 0 2 0 1 1 0 0 0 3 0 1 1 1 1 2 4 2 0 1 0 0 1 2 1 0 2 1 0 1 2 0 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 1 0 1 2 0 0 0 0 1 0 0 2 3 2 0 0 1 1 0 0 0 1 2 1 0 0 1 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 2 2 0 0 0 1 0 2 1 1 0 0 2 1 1 4 0 0 1 0 0 1 1 2 0 3 0 0 0 0 1 1 1 0 1 1 1 0 1 1 2 2 0 0 0 1 2 1 1 1 1 1 1 2 1 1 0 1 0 1 0 2 0 2 0 0 1 1 0 2 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 3 2 0 3 1 0 0 0 0 1 0 0 3 0 1 0 1 0 1 4 2 0 3 0 0 0 1 1 1 0 0 0 0 1 1 1 0 1 1 0 2 2 0 0 3 0 0 0 2 0 0 1 0 0 0 2 1 1 2 0 0 0 2 0 0 0 1 1 0 0 1 1 1 0 0 0 1 2 1 0 0 2 3 0 0 0 0 0 1 1 0 1 3 0 1 0 0 1 0 1 1 1 0 2 0 0 1 1 1 0 1 1 0 1 1 2 1 1 1 1 0 1 0 2 1 0 0 2 1 1 2 0 0 2 1 1 0 2 0 0 0 0 0 2 1 3 0 1 2 1 1 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 2 0 0 0 1 0 1 1 0 3 1 1 0 1 2 0 0 1 1 0 1 0 1 0 1 1 2 1 0 1 1 0 1 1 1 1 1 0 0 0 1 0 3 1 0 2 0 0 1 2 2 0 0 0 0 1 1 2 0 0 3 1 1 1 1 0 1 3 1 1 2 0 1 1 0 1 1 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 3 0 3 0 1 1 0 2 0 3 3 1 1 3 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 1 2 0 1 1 1 1 0 2 0 0 1 0 1 1 1 0 0 3 0 0 1 2 2 2 0 1 1 1 1 0 1 1 2 0 1 1 1 2 1 0 1 0 1 0 0 2 0 0 3 1 1 1 0 1 0 0 1 0 0 0 1 1 2 2 1 0 2 2 0 0 1 0 0 1 0 1 3 0 0 3 0 1 0 3 0 1 0 0 1 1 2 1 1 1 0 1 0 1 1 1 1 1 0 0 0 0 1 1 0 2 0 1 3 1 1 1 0 1 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 2 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 2 1 1 1 1 2 0 1 1 1 2 2 1 0 0 1 0 1 1 1 1 0 1 1 0 0 1 1 1 1 0 0 1 2 0 1 1 0 0 2 0 0 3 1 0 1 1 2 1 0 0 0 0 0 1 2 0 1 2 2 1 2 1 0 0 0 1 2 0 1 0 1 0 1 1 3 1 0 2 0 0 1 0 2 0 0 2 2 0 1 1 1 0 1 0 1 1 0 2 1 2 0 0 0 1 1 1 3 0 1 2 1 0 0 0 2 2 1 0 1 1 1 1 1 2 0 2 1 2 1 1 0 2 3 1 1 1 0 0 0 1 0 0 1 0 0 0 3 1 1 1 1 0 1 2 1 1 3 2 0 1 2 2 1 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 3 1 2 0 0 2 2 1 0 1 3 1 1 0 0 1 1 0 0 1 2 2 1 1 2 2 0 1 0 0 1 0 2 1 1 1 0 1 1 2 0 1 0 0 1 1 0 0 0 0 0 2 0 0 3 2 1 2 0 0 1 1 1 0 0 1 1 2 1 0 1 0 0 0 2 1 1 0 0 2 1 0 2 0 1 0 0 2 0 2 1 0 1 0 1 1 0 0 3 3 1 0 0 1 2 1 1 0 0 0 0 0 1 1 1 0 2 0 0 1 2 0 1 0 1 1 0 0 1 1 1 2 1 0 1 0 2 0 2 0 0 1 0 0 2 1 0 0 0 0 2 0 0 1 0 2 2 0 1 1 2 3 0 0 1 0 0 0 2 3 1 0 1 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 1 1 0 2 1 1 2 1 4 2 1 1 0 1 1 1 1 1 0 1 0 1 2 0 1 0 2 0 2 1 3 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 1 3 0 1 1 0 1 0 0 2 3 1 1 1 2 0 0 1 2 2 0 1 2 1 2 1 0 1 3 3 0 1 0 0 0 0 3 0 0 2 1 1 2 0 0 0 0 0 0 1 2 1 0 1 0 0 0 0 1 1 0 0 2 1 1 2 0 2 2 0 0 3 1 1 2 0 0 2 0 3 0 0 1 2 0 0 2 0 1 1 0 1 0 1 1 1 2 3 1 3 1 2 1 1 0 2 0 0 1 2 0 1 1 2 0 1 1 0 0 0 0 1 1 1 2 1 0 0 2 0 0 0 0 1 1 2 3 2 1 0 1 0 2 0 2 3 1 0 1 0 1 0 3 0 0 0 0 1 3 2 0 1 1 0 0 1 0 0 1 0 0 0 1 1 2 1 1 1 0 0 0 1 3 0 0 2 1 1 0 1 1 0 2 0 2 1 0 2 0 1 1 2 1 0 1 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 1 2 0 0 0 1 1 1 1 0 0 0 2 0 1 1 1 0 1 1 3 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 1 0 1 0 0 1 1 1 0 0 1 1 2 0 2 0 3 1 0 1 0 0 0 2 3 4 0 0 1 0 0 0 0 1 1 0 0 3 0 0 0 0 1 1 1 0 2 1 0 1 0 0 0 0 0 0 2 1 0 0 0 1 0 2 0 2 2 1 0 2 0 1 0 1 0 2 1 0 2 0 0 1 1 1 0 0 3 0 1 0 1 2 0 1 0 0 1 1 0 0 1 0 0 0 1 1 0 1 1 1 0 2 0 1 0 1 1 0 4 0 0 1 1 3 1 1 0 1 2 1 0 0 0 1 1 0 0 3 0 0 2 0 2 1 0 0 1 0 1 1 1 1 1 2 3 2 0 1 2 1 1 1 0 1 2 1 2 0 1 0 0 0 2 1 1 1 1 0 1 1 0 1 0 2 0 0 0 0 1 0 0 2 0 2 1 1 1 0 1 1 1 1 0 0 0 0 0 0 1 2 1 1 1 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 2 3 2 2 0 0 1 0 1 2 2 3 0 1 0 1 0 1 0 1 0 0 0 0 2 1 2 0 1 2 2 1 1 1 0 0 0 0 2 0 2 0 0 0 2 0 3 0 1 0 1 1 0 1 0 0 1 0 3 1 2 0 0 0 0 1 0 1 1 2 0 1 1 1 0 1 1 0 0 0 1 1 1 0 1 1 1 0 1 0 2 0 1 3 0 0 2 0 0 0 0 2 1 0 1 1 1 0 0 1 0 0 2 0 0 0 1 1 1 1 1 0 0 2 0 4 1 1 0 1 1 2 0 2 2 0 1 0 0 1 0 2 0 1 2 1 0 1 0 1 0 0 1 0 1 1 0 1 1 1 3 0 0 2 1 0 1 1 1 0 1 1 2 1 1 0 0 4 0 1 2 0 0 1 1 1 1 0 2 1 0 1 1 3 0 1 0 0 1 0 0 3 0 0 1 0 0 2 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 1 3 0 0 1 4 0 2 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 1 0 1 2 0 3 0 0 0 0 0 0 3 0 0 0 1 1 0 2 0 0 0 1 1 0 1 1 2 0 1 3 0 0 1 1 2 0 1 0 0 2 1 0 1 1 1 2 1 1 0 1 0 0 1 0 2 1 2 0 0 1 0 0 1 1 0 0 0 1 0 2 1 1 1 1 0 2 1 2 0 2 1 0 2 0 0 2 0 2 0 1 0 0 0 1 0 2 1 2 1 2 0 0 0 0 2 0 0 0 2 0 0 0 1 1 1 1 0 0 0 0 0 0 4 0 1 1 0 3 1 0 0 2 0 0 2 1 1 1 0 1 2 0 0 0 0 1 0 1 2 1 0 2 2 1 1 3 1 0 0 1 1 0 1 2 0 1 0 1 1 2 0 1 3 1 1 1 1 0 3 0 1 0 0 0 3 0 1 2 0 0 1 1 0 1 1 0 1 0 1 0 0 1 0 1 1 0 1 1 1 0 0 0 0 1 1 1 2 1 1 1 0 1 0 0 2 0 0 1 2 1 2 0 1 1 0 2 1 1 0 0 1 1 1 2 0 2 0 1 2 1 0 0 0 1 1 1 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 4 0 0 0 0 1 0 1 1 1 1 3 1 2 1 0 0 1 0 1 3 0 0 2 0 1 2 0 0 2 0 0 1 2 1 2 1 1 0 2 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 2 2 0 1 0 2 0 1 0 0 0 2 0 1 0 1 0 0 2 2 1 0 0 0 0 0 3 0 2 1 1 0 0 0 1 0 1 0 0 0 2 1 1 1 0 0 0 2 2 0 0 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 1 2 0 3 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 4 0 1 0 2 2 0 0 2 0 2 1 0 1 1 0 0 1 2 0 0 1 1 0 0 1 0 0 0 2 1 0 0 1 0 0 2 1 1 0 0 3 0 1 1 0 1 1 0 1 0 1 0 2 0 1 2 1 0 2 0 1 1 0 0 2 2 1 0 1 1 0 2 0 0 1 1 0 1 1 3 1 0 0 0 0 2 1 0 0 0 2 0 1 0 1 0 2 1 1 1 0 1 2 3 4 0 1 0 0 3 2 0 0 0 1 1 1 0 0 3 1 1 0 0 1 0 0 0 0 1 0 0 2 0 0 1 3 1 0 0 1 1 1 1 0 1 0 1 1 1 0 1 0 0 0 1 2 1 0 0 1 2 0 0 0 0 1 1 1 0 3 1 1 2 0 1 1 0 2 0 0 0 0 3 0 0 2 0 1 1 0 3 3 0 0 1 0 0 0 1 1 0 0 1 0 2 0 2 0 1 0 0 0 1 2 0 1 1 1 0 1 0 1 0 1 0 2 0 1 0 1 1 3 1 2 1 0 0 2 0 1 0 0 1 0 2 2 0 0 2 0 0 1 2 0 0 1 0 1 3 2 1 0 0 1 1 2 1 0 1 1 2 1 1 0 2 0 1 0 2 0 0 2 0 0 1 2 1 0 0 0 0 1 1 0 1 1 1 0 2 0 0 1 0 1 3 1 1 1 0 0 1 1 0 0 2 1 2 1 1 2 1 1 2 2 0 1 3 1 0 1 0 1 0 0 0 3 0 3 1 0 1 2 0 3 1 0 2 0 0 0 1 0 0 1 2 0 1 1 1 0 0 1 0 0 0 2 1 3 1 0 1 0 0 2 0 1 0 1 3 0 0 1 1 1 3 1 1 2 0 1 0 0 1 1 1 0 0 0 2 0 3 0 1 0 0 1 1 0 3 0 3 0 0 0 2 0 0 0 0 1 0 1 0 0 0 2 0 0 1 3 3 3 0 0 1 1 1 0 1 2 0 2 1 1 1 1 1 0 1 1 0 0 2 0 0 0 0 1 1 3 2 2 0 0 1 0 1 0 1 0 2 0 1 0 0 0 1 0 1 0 0 2 1 2 0 1 0 0 0 1 2 0 1 1 0 2 1 1 0 1 0 0 2 2 1 0 1 1 2 3 2 0 0 0 0 2 2 0 2 0 1 2 1 1 0 1 3 2 1 2 2 2 0 1 0 1 3 1 0 1 0 2 2 0 0 0 1 0 0 2 2 1 2 1 1 0 3 1 1 1 1 0 2 0 0 1 1 2 0 0 2 0 1 4 0 2 2 0 0 0 0 0 1 0 2 0 1 2 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0 3 1 1 0 0 2 1 0 2 0 0 0 0 1 1 0 1 0 0 0 1 1 1 2 1 1 0 1 2 1 0 1 1 2 0 1 2 2 0 2 2 1 1 1 0 1 3 2 0 0 4 1 1 2 1 1 1 1 1 2 1 0 1 0 0 0 0 1 3 2 0 1 1 1 1 0 0 0 3 2 2 0 0 0 3 1 2 1 3 1 2 1 0 0 0 1 0 1 1 0 3 0 0 0 0 0 1 0 1 0 0 1 1 0 1 1 1 1 0 0 0 1 0 3 0 2 1 1 0 2 0 2 0 0 1 1 1 0 0 0 0 1 2 0 1 0 1 0 1 1 2 2 0 1 1 3 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 2 1 0 1 1 1 1 1 0 0 0 1 1 2 0 2 0 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 3 0 0 1 1 1 0 1 2 2 0 0 3 1 1 1 0 0 2 0 1 1 0 0 0 0 0 2 0 1 2 1 1 1 1 0 0 1 0 1 0 0 0 0 1 2 1 3 0 2 0 1 1 2 0 0 1 0 1 2 0 3 1 1 0 1 1 0 1 1 1 0 0 2 1 1 1 0 1 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 0 2 0 0 1 2 0 0 1 2 0 3 1 2 0 1 0 3 1 0 1 3 1 2 2 0 0 0 2 2 2 0 1 0 1 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 1 0 1 1 0 1 3 2 0 1 0 2 0 1 1 0 0 0 2 0 1 1 4 1 1 0 1 0 2 0 0 2 1 1 0 0 0 1 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 2 1 1 2 1 0 3 2 0 1 1 1 0 1 1 1 2 1 3 0 0 0 0 0 0 0 0 2 1 1 0 1 0 1 0 0 0 2 0 0 0 2 0 1 0 1 1 0 3 0 0 3 1 0 2 0 1 0 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 1 0 0 1 1 0 0 2 0 2 1 1 0 2 1 3 2 1 0 0 0 2 1 1 2 0 2 1 0 1 2 0 0 0 3 1 2 0 0 0 1 2 0 0 0 1 0 1 1 1 0 1 1 1 0 0 1 2 0 1 0 1 0 0 2 1 0 0 1 1 0 0 0 1 0 1 2 0 2 0 1 1 0 0 1 1 1 1 0 1 3 3 1 0 0 0 1 2 0 2 2 2 0 0 3 1 1 2 0 0 0 0 0 2 0 0 0 1 0 1 0 2 2 2 0 0 0 0 0 1 3 2 0 1 2 1 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 2 2 0 0 1 0 1 0 1 0 0 0 0 0 3 1 0 1 2 1 0 0 2 0 0 3 0 0 1 2 0 0 0 0 1 0 2 0 0 1 2 2 0 0 1 0 0 1 0 1 0 2 0 0 1 0 1 1 1 3 0 2 0 0 0 2 0 1 1 1 0 1 2 2 0 1 2 2 0 1 2 0 2 0 0 1 1 0 1 2 0 2 1 0 0 0 0 2 0 1 1 0 1 1 1 0 0 2 1 0 0 2 1 0 0 0 1 0 0 1 0 1 1 1 2 0 1 0 1 1 0 1 1 1 1 0 3 1 0 0 2 1 2 2 1 0 1 0 0 0 0 2 1 2 0 1 0 1 0 0 3 0 0 1 1 0 0 1 1 0 1 0 0 1 0 1 1 1 1 1 1 0 1 0 0 0 0 1 0 0 0 1 1 1 1 3 1 0 0 0 0 1 1 1 2 0 0 0 0 0 1 1 1 0 2 0 2 0 1 1 1 0 2 1 2 0 2 0 1 0 1 0 1 0 0 1 2 0 0 0 2 0 0 2 0 1 0 1 0 0 1 0 0 0 0 3 2 0 1 2 1 2 0 1 0 1 0 2 2 2 0 0 0 0 0 0 0 1 2 1 3 0 1 0 1 0 0 2 1 0 0 3 1 2 1 1 2 0 1 0 2 1 0 2 0 0 0 2 0 1 0 2 0 0 1 1 1 2 1 0 0 2 1 0 0 2 0 0 1 0 1 1 1 2 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 1 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 1 1 0 0 1 1 1 1 0 2 3 0 2 3 0 2 0 0 0 0 2 1 1 0 0 2 1 1 0 0 2 1 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 2 1 2 0 1 0 0 2 1 0 1 1 1 1 1 0 0 0 0 0 1 1 1 1 1 1 1 0 1 1 2 0 0 0 0 1 0 2 0 2 0 0 0 0 2 1 0 2 0 2 3 2 0 0 2 0 0 1 0 2 0 3 1 1 0 1 0 1 0 0 0 1 1 1 2 0 1 1 1 1 2 0 2 0 1 0 0 0 2 0 0 1 2 0 1 0 1 2 1 4 0 1 2 1 0 1 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0 0 1 2 0 0 0 0 0 1 0 2 1 2 0 0 0 1 0 1 0 0 0 1 1 0 1 0 2 1 1 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 3 1 2 0 0 2 0 0 1 0 0 1 1 0 0 1 2 1 0 1 2 0 1 0 1 3 1 0 0 1 1 0 0 0 1 1 1 1 1 3 1 0 2 0 0 0 1 0 1 1 1 2 1 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 2 0 1 1 1 0 1 1 1 0 1 0 1 1 0 1 1 1 0 1 1 0 4 0 2 1 0 1 0 1 1 2 0 1 0 0 0 0 2 1 2 2 1 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 1 0 0 0 1 0 0 1 1 2 0 1 0 1 1 2 1 0 0 0 2 0 1 1 1 0 2 0 1 0 0 1 0 0 0 1 0 1 0 1 3 1 1 1 2 1 2 0 0 0 1 2 1 2 1 0 1 1 0 0 0 0 0 1 2 0 1 2 1 0 1 1 1 1 0 0 1 2 1 0 2 1 0 0 1 1 2 1 0 1 0 0 1 0 1 0 1 0 0 2 2 0 1 1 1 1 1 1 0 2 1 3 2 0 0 1 0 1 1 1 1 2 1 0 1 2 2 0 2 1 1 1 1 1 1 1 1 1 0 2 1 2 0 0 3 0 1 0 0 1 1 2 1 1 1 2 0 0 0 3 0 1 2 1 0 1 1 1 0 0 0 2 0 1 1 2 1 0 0 1 0 0 2 3 0 1 3 1 3 1 0 0 0 2 0 0 1 2 1 1 1 0 0 1 0 1 1 1 1 0 0 0 1 3 3 1 1 2 1 1 0 0 1 0 2 0 1 1 2 0 1 0 1 0 1 1 1 5 0 1 1 0 3 0 0 1 0 1 1 1 0 0 0 2 2 0 2 0 1 1 1 0 2 0 3 1 1 1 2 1 1 1 0 2 1 2 2 1 1 2 0 1 0 0 0 0 1 2 0 0 3 0 1 0 0 1 1 0 0 0 3 3 0 0 2 0 1 3 1 0 1 1 1 1 1 0 0 2 2 0 1 0 1 0 1 0 0 1 0 0 1 1 0 1 1 0 1 0 1 1 0 2 0 0 1 0 0 0 1 0 0 1 1 0 0 0 2 3 1 0 0 0 0 1 1 0 1 1 3 1 0 0 0 0 0 2 1 1 0 0 0 0 2 1 1 2 1 0 2 2 2 1 1 0 0 1 1 0 0 1 1 1 0 1 0 2 0 1 2 1 0 4 2 0 1 1 1 1 1 1 0 0 3 0 1 0 1 0 0 1 2 2 0 3 3 0 0 1 1 2 2 2 0 0 0 0 0 0 1 2 1 1 0 1 1 1 0 1 0 0 0 1 0 0 0 1 1 1 0 2 0 2 0 2 0 2 0 1 0 1 0 0 1 2 0 0 0 1 1 2 1 1 0 1 1 2 2 2 1 0 0 1 2 1 1 1 1 1 2 0 0 1 0 0 1 0 0 1 0 0 2 0 0 1 0 2 0 0 1 2 1 0 0 1 2 2 0 1 3 1 1 2 0 2 2 0 3 2 0 0 0 2 2 1 1 1 0 2 0 2 1 2 0 1 0 1 0 0 0 1 0 3 1 2 1 1 2 0 2 3 0 2 0 0 1 1 1 2 2 1 0 1 1 1 0 1 1 0 0 2 0 1 0 1 0 1 0 1 0 0 0 1 0 0 2 0 0 2 1 0 0 1 0 1 2 1 0 2 1 1 3 2 2 2 1 0 3 0 2 0 1 1 1 2 0 1 0 2 2 1 1 1 0 0 1 1 1 1 2 0 0 1 1 1 1 1 0 1 3 0 0 2 1 1 0 0 2 0 2 2 0 0 1 2 0 2 0 1 2 1 0 1 1 0 1 1 0 2 0 2 0 0 1 0 2 1 1 1 0 2 0 1 1 0 1 2 0 3 0 0 0 1 0 0 0 0 0 0 1 0 4 0 1 0 0 2 2 1 0 1 0 0 2 1 3 0 0 2 0 1 1 2 1 0 0 1 1 0 0 0 1 0 2 1 0 0 0 1 0 0 2 0 0 2 0 2 1 0 0 0 2 0 1 0 0 1 2 0 0 0 1 1 0 2 2 0 1 0 1 0 1 0 0 1 0 1 1 0 1 0 2 1 1 0 0 3 0 0 1 1 0 3 1 1 0 1 2 0 1 1 0 1 1 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 3 0 0 0 0 0 1 1 1 0 0 2 1 1 1 0 2 1 1 0 1 1 1 0 0 0 2 0 2 2 2 3 1 1 0 2 0 0 2 0 1 0 1 0 0 1 0 0 0 1 2 1 0 1 2 1 1 0 2 0 0 1 2 0 3 1 0 2 0 2 0 1 0 2 1 0 1 0 2 1 1 0 0 1 1 1 1 1 0 0 0 2 2 0 2 1 0 1 1 1 0 2 1 0 0 1 0 0 0 1 0 1 1 0 1 0 0 2 0 1 0 0 1 2 2 2 0 0 1 1 1 1 1 0 2 0 0 0 2 1 0 0 1 1 1 1 0 0 0 2 1 1 0 1 0 0 0 0 1 0 1 1 0 2 0 0 1 1 1 0 0 2 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 2 0 2 0 0 0 2 0 0 0 0 0 3 2 3 2 0 1 1 1 2 0 0 0 0 2 1 0 2 0 0 1 1 0 1 1 0 1 0 1 0 0 0 2 0 2 1 2 0 0 0 2 0 1 1 2 0 1 0 0 0 1 0 0 1 0 0 4 1 1 0 1 1 0 0 0 0 3 1 0 0 1 2 2 2 1 2 0 0 1 2 0 0 1 0 1 0 0 0 2 1 1 3 2 1 1 2 1 2 1 1 1 2 1 0 0 2 0 0 0 0 2 1 3 0 2 0 2 1 0 2 1 4 2 2 0 1 0 0 0 1 0 0 0 2 0 0 0 1 2 0 0 0 0 2 4 1 0 2 0 1 0 2 1 0 0 0 0 0 1 3 0 2 2 1 0 0 1 1 0 1 3 0 1 1 1 0 0 1 1 0 2 0 1 2 2 0 0 0 1 2 1 1 0 0 0 0 1 1 1 0 0 1 0 0 2 1 0 2 2 3 0 0 1 1 1 0 2 1 2 0 0 2 0 1 1 1 1 3 1 3 1 0 2 2 1 1 3 0 0 0 0 1 0 1 1 1 0 2 0 1 0 1 0 1 3 2 1 2 0 0 0 0 0 1 2 1 2 0 0 0 1 1 1 1 1 3 1 2 0 2 2 2 1 1 1 0 0 3 1 0 2 1 1 2 2 1 2 2 1 2 0 0 0 1 0 0 0 2 1 4 1 0 1 0 0 0 0 1 0 2 0 0 1 0 0 0 1 1 3 2 0 2 0 0 2 1 1 1 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 1 2 1 1 0 1 2 0 0 1 2 1 0 0 2 1 1 1 0 1 1 3 0 0 1 1 2 0 0 0 0 0 0 0 2 2 0 0 1 1 0 0 1 0 2 0 0 0 1 1 1 1 1 2 0 2 0 0 0 0 1 1 1 0 0 2 1 3 1 0 2 0 1 1 1 0 0 1 0 1 0 1 0 1 0 2 1 2 2 1 1 0 0 0 1 0 1 0 1 0 2 0 0 1 1 0 1 0 1 1 1 1 2 0 3 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 3 0 0 2 2 1 1 2 0 1 2 1 3 0 1 1 1 2 0 1 1 0 1 0 0 0 1 1 0 0 2 0 0 0 1 1 0 0 2 1 1 2 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 2 0 1 1 1 1 1 0 1 0 1 0 1 2 2 2 0 0 2 0 0 0 0 1 0 2 0 2 1 0 0 0 1 0 0 1 2 1 0 1 0 1 0 1 0 0 1 1 1 0 0 0 0 1 3 0 0 1 0 1 1 0 0 0 2 0 0 2 3 1 0 0 0 5 1 1 0 0 0 2 0 0 1 0 2 0 3 2 1 0 1 0 1 1 0 2 1 0 1 2 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 2 0 2 0 1 1 1 2 0 2 0 1 1 1 0 1 0 0 0 2 1 0 0 2 4 2 0 2 0 0 0 0 0 3 1 0 0 1 0 2 1 0 0 1 1 1 1 2 1 1 0 0 0 1 1 0 1 0 0 0 1 2 2 1 0 0 2 2 1 0 1 0 0 1 0 0 0 0 1 1 0 0 2 1 0 0 1 0 1 0 1 0 0 0 0 2 1 0 2 0 1 0 0 1 1 0 1 1 1 1 4 1 1 1 1 0 0 1 0 0 1 1 0 1 0 1 1 1 1 2 2 1 1 0 2 0 1 2 2 2 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 1 2 0 1 1 0 0 1 0 0 0 2 0 0 1 0 1 0 0 2 0 1 1 2 1 1 0 1 3 0 0 0 2 0 0 1 0 1 0 1 3 1 2 1 0 2 0 1 0 0 2 0 1 2 0 3 0 0 1 0 0 0 0 0 0 1 1 3 0 1 1 0 1 1 1 0 0 0 2 0 1 0 2 3 1 0 0 0 4 0 0 1 0 1 0 0 0 0 1 0 1 1 1 3 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 1 1 3 0 0 0 0 0 0 1 0 1 0 2 0 0 0 2 0 0 1 0 1 1 1 0 0 0 0 0 2 0 0 0 0 2 1 3 2 0 3 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 1 1 1 1 0 1 1 1 3 0 0 0 3 0 0 3 0 2 1 0 0 1 1 1 0 1 1 0 0 0 0 3 1 1 0 0 1 0 0 0 1 1 0 1 0 2 2 2 2 3 1 2 1 2 0 0 0 1 1 1 0 0 1 0 0 1 2 1 0 1 0 0 1 2 2 0 0 0 2 0 2 0 1 0 0 0 0 1 1 1 0 1 3 1 0 2 0 0 2 0 1 0 1 0 0 2 0 2 1 1 3 0 0 2 2 2 2 1 0 1 0 1 2 0 1 0 1 0 3 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 2 1 0 0 3 0 1 0 0 0 3 1 1 0 0 0 0 0 3 0 3 0 2 0 0 0 1 0 1 0 1 0 0 1 2 1 0 0 0 1 1 2 0 0 0 1 1 0 0 0 1 5 1 0 1 0 1 1 1 1 0 0 1 0 0 1 1 0 0 1 0 2 1 0 1 1 3 0 0 1 0 1 1 0 1 1 2 0 0 1 0 0 0 1 1 0 0 2 0 0 2 0 0 2 1 0 2 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 3 0 0 2 1 0 1 1 2 0 0 2 2 1 0 1 1 0 0 0 0 0 1 2 2 0 0 0 1 1 0 0 0 2 0 0 0 1 1 0 1 3 2 0 1 1 0 2 2 1 1 1 1 2 0 1 1 1 0 1 2 1 0 1 2 0 2 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 1 2 0 0 0 1 1 0 0 0 0 1 0 2 0 1 1 1 3 0 0 1 1 0 0 0 2 0 0 1 0 1 1 1 2 1 1 2 0 0 3 2 1 1 1 2 0 0 0 2 1 1 2 1 1 0 1 1 0 1 2 0 0 0 4 0 0 1 1 2 3 2 0 1 0 0 1 0 0 0 2 1 1 2 1 2 1 0 0 1 0 0 2 2 0 1 1 1 2 0 1 3 1 1 1 0 2 0 2 0 0 0 0 1 1 2 1 0 0 0 1 2 0 0 0 1 0 3 1 0 2 0 0 0 0 0 3 1 1 0 0 1 0 0 3 1 0 1 1 0 2 1 2 1 0 1 2 2 1 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 2 0 1 1 0 1 1 0 1 0 1 1 1 3 1 0 0 0 1 1 1 0 2 1 2 2 0 0 0 1 1 0 0 2 1 0 1 0 0 0 0 0 1 0 1 1 1 2 1 0 2 1 0 0 1 0 0 1 1 3 1 0 1 0 1 0 0 2 0 1 0 0 0 1 0 1 0 1 1 2 0 0 2 2 1 2 1 2 1 2 1 1 0 0 0 0 1 0 1 2 1 2 2 0 0 1 0 2 1 0 0 0 1 4 0 1 1 2 0 0 0 0 0 0 1 0 1 2 2 1 0 0 1 2 0 1 1 2 0 0 0 1 1 0 2 0 1 1 0 0 1 1 0 1 0 1 1 1 2 0 2 0 2 0 1 0 2 1 1 1 0 0 0 2 1 0 1 0 0 1 0 1 1 0 0 0 0 2 0 1 1 1 0 1 0 0 0 1 1 1 0 1 1 0 0 0 1 1 2 0 0 0 0 1 0 1 1 0 1 1 1 1 0 1 0 0 1 0 1 1 1 1 0 0 1 0 2 1 0 1 2 0 0 1 1 2 2 0 0 1 0 0 1 0 1 1 3 2 0 0 1 1 0 0 0 0 0 0 2 1 1 1 2 0 1 2 2 1 0 3 0 2 0 0 0 2 2 2 0 3 1 1 1 0 1 1 1 0 1 2 0 0 0 0 0 2 2 0 3 2 1 1 0 0 2 1 2 0 1 0 0 0 1 1 1 2 0 1 0 1 0 2 1 1 1 1 0 1 0 1 0 0 0 2 1 1 1 0 3 1 0 1 2 1 1 1 1 0 0 0 1 3 1 1 2 1 0 1 2 2 1 0 0 2 1 1 0 2 1 0 0 2 0 0 0 1 2 0 0 2 1 0 3 1 0 0 1 1 0 1 2 1 0 1 1 1 0 1 1 0 1 0 1 0 0 2 1 0 1 0 0 2 1 2 1 1 0 1 0 1 1 2 1 0 1 2 0 1 1 2 0 0 0 1 2 1 3 0 1 2 1 1 2 2 1 1 0 0 0 1 0 1 1 1 2 2 2 0 1 1 0 1 0 1 0 1 1 0 0 0 0 2 0 0 0 1 1 2 0 1 1 1 0 0 1 0 1 3 0 1 1 0 1 0 0 0 0 2 1 1 2 1 0 1 1 0 2 1 1 0 1 0 2 0 0 1 0 0 0 2 2 2 0 0 0 0 0 0 0 2 1 2 1 0 0 1 1 1 1 1 1 1 1 0 2 0 0 0 0 1 1 1 0 0 0 2 1 2 0 1 1 2 2 0 1 1 0 1 0 1 1 2 2 0 0 1 1 3 0 1 1 0 1 1 0 0 2 1 2 2 0 2 0 1 0 1 1 0 1 2 2 1 1 1 1 1 1 0 0 1 1 0 0 1 1 2 1 1 2 1 0 1 0 2 0 0 2 1 1 1 0 1 1 0 1 1 2 1 1 0 1 1 1 2 1 1 1 0 2 2 0 1 1 1 0 0 0 1 0 1 0 0 0 1 3 1 0 0 0 1 3 1 1 0 1 0 0 1 0 3 0 0 3 1 0 2 1 1 1 0 0 0 1 3 1 2 1 0 1 1 0 2 0 0 0 0 1 3 1 1 1 1 0 1 0 0 0 0 2 0 0 0 1 0 1 2 0 1 0 0 0 0 0 1 0 1 0 0 1 2 3 1 0 2 1 0 0 1 0 1 0 1 0 1 1 0 1 1 0 0 2 0 1 0 1 0 2 2 1 1 2 0 1 2 0 1 0 1 1 2 0 0 0 0 0 1 1 1 0 0 2 0 2 0 0 0 2 0 2 0 1 1 0 0 1 2 0 0 1 1 1 0 2 0 1 1 0 1 0 1 1 1 0 0 0 2 0 2 1 0 1 1 1 1 0 0 0 0 3 0 1 1 0 1</t>
+    <t>EXN(0.5830887623974577, 14.696895755786606, 6.659359778397574)</t>
+  </si>
+  <si>
+    <t>13 20 22 19 10 24 10 24 12 17 20 21 30 6 35 28 21 27 35 20 21 10 23 10 16 13 21 23 13 7 17 14 17 3 27 10 3 18 3 13 16 11 16 3 30 34 35 30 14 14 24 10 14 17 13 24 10 3 28 19 21 34 33 30 20 25 9 13 16 16 7 14 20 21 20 24 20 28 18 34 18 13 15 17 17 16 9 20 17 10 13 45 24 20 6 20 14 21 23 30 6 14 26 17 30 16 3 20 23 19 16 24 17 20 3 13 24 23 23 24 16 23 7 10 7 18 23 15 7 21 21 27 7 15 34 22 18 28 24 10 9 17 7 13 27 14 6 21 6 9 20 13 31 40 27 10 20 31 16 17 25 22 14 10 23 13 21 12 19 34 17 17 17 17 13 15 26 24 14 14 21 13 16 29 20 6 23 13 9 18 6 13 13 18 26 17 14 21 14 23 17 21 16 6 26 16 20 38 17 19 7 13 25 17 3 16 20 19 14 3 14 14 26 3 10 19 19 21 24 18 41 10 6 27 19 27 10 26 33 22 26 23 12 33 24 7 24 20 17 3 3 10 14 14 23 28 23 20 27 19 10 3 16 27 13 17 14 16 25 15 24 32 34 7 19 10 20 7 0 20 20 21 23 14 26 31 10 12 31 21 10 7 16 28 20 13 7 20 23 14 9 10 19 24 10 36 16 22 20 9 13 13 7 14 7 27 24 20 6 20 14 10 23 3 20 26 11 33 16 13 16 9 15 18 19 23 27 24 13 13 13 16 9 13 16 16 20 22 31 13 23 14 25 14 14 24 15 24 24 10 24 13 20 20 14 17 21 10 9 24 23 16 10 19 33 13 20 13 10 29 3 17 20 16 20 8 21 26 20 18 23 37 28 13 6 6 3 15 13 23 33 3 10 21 24 0 19 10 17 10 17 38 6 20 12 27 30 17 26 24 25 21 23 23 20 45 34 10 35 23 31 11 19 0 16 23 6 23 17 9 6 27 27 10 6 13 16 17 23 17 9 16 19 7 6 14 21 6 19 20 17 30 27 18 17 26 14 13 31 12 23 13 24 24 30 27 16 15 21 29 28 16 27 17 19 24 22 16 20 20 30 27 17 10 34 19 12 23 9 9 16 34 11 7 17 20 17 23 24 6 24 21 23 27 17 14 20 12 21 10 34 3 24 13 28 21 20 20 14 31 13 33 14 16 13 20 21 27 22 32 37 26 13 27 23 17 15 14 12 27 14 14 7 25 21 20 11 17 6 10 13 17 26 13 30 26 6 26 8 18 29 16 14 17 27 16 31 17 10 7 14 14 23 20 23 20 21 19 3 6 24 15 3 14 17 31 19 12 22 21 21 14 18 12 11 21 16 20 20 28 34 16 21 18 17 23 23 16 10 20 10 21 27 10 20 10 27 3 13 28 13 21 22 25 14 21 14 23 17 17 21 9 25 24 26 10 20 19 13 3 16 19 21 29 20 7 23 28 20 23 20 17 7 20 16 26 10 21 24 13 27 21 17 24 10 24 17 17 14 28 14 23 13 6 19 26 20 22 9 20 6 17 30 21 23 24 23 23 13 19 20 7 26 24 7 19 6 6 22 19 6 6 24 10 13 30 20 13 9 14 13 26 28 15 20 19 14 24 21 23 24 21 27 17 19 13 10 21 9 10 15 31 16 20 24 10 6 24 24 21 10 17 20 8 24 6 26 13 13 20 24 19 10 23 23 10 19 38 18 12 14 20 35 12 17 7 23 26 24 7 33 19 11 19 13 29 14 6 17 21 25 19 20 16 10 27 23 15 13 24 29 17 23 22 20 7 14 28 9 9 23 12 3 34 21 20 6 22 9 27 17 21 24 14 24 22 14 12 16 23 21 24 20 20 17 21 17 26 23 20 16 21 6 14 23 19 23 12 19 10 25 7 27 11 27 10 13 16 21 14 20 14 21 20 33 29 13 21 22 10 16 16 26 19 6 14 16 20 21 37 35 17 26 19 11 17 26 10 13 27 26 13 10 27 16 31 41 10 14 7 37 17 19 3 13 17 14 14 17 23 3 26 24 9 23 10 32 20 17 26 9 16 21 23 15 18 3 16 13 23 20 15 24 13 6 27 19 26 14 3 24 29 34 6 28 20 16 28 15 15 27 13 20 17 10 24 17 22 13 24 7 14 28 20 17 12 19 24 12 16 21 17 19 7 9 17 14 21 19 17 28 21 20 17 20 28 17 24 23 9 6 22 25 30 31 11 10 26 26 15 13 0 23 17 35 13 0 3 34 11 20 29 41 14 27 25 20 21 19 15 23 11 23 16 10 8 16 23 17 20 10 7 24 14 30 20 27 12 31 24 15 15 21 14 22 20 24 16 34 19 13 21 31 14 34 33 17 6 17 27 10 16 16 16 16 27 23 10 10 8 17 27 30 33 16 23 22 32 23 14 21 14 27 30 27 31 27 21 21 20 21 20 14 10 9 6 20 10 19 12 13 29 28 14 20 31 22 14 13 16 23 15 7 16 21 14 23 6 22 12 21 24 15 6 26 19 12 24 27 27 6 19 19 10 20 10 10 7 15 7 18 13 14 31 15 16 3 17 13 20 13 29 10 17 21 24 10 13 9 20 20 23 28 6 21 37 19 20 27 9 13 17 31 19 14 20 36 9 6 26 34 30 3 22 13 21 33 24 17 13 23 6 19 8 23 33 13 11 20 20 10 23 14 17 27 16 10 6 24 6 30 17 16 27 20 13 9 3 20 32 3 24 3 38 6 29 6 17 31 13 10 20 17 13 13 18 38 17 12 16 20 9 28 22 16 21 15 16 24 15 24 22 20 3 17 17 25 14 16 14 19 27 20 34 13 20 21 16 16 21 22 9 23 17 27 17 20 27 13 20 18 14 3 24 23 19 9 28 26 27 24 29 19 20 32 35 22 17 14 38 17 27 16 25 9 26 9 21 11 20 12 21 14 13 24 9 9 22 17 22 31 31 13 15 14 13 20 24 10 10 13 11 17 7 8 21 31 23 27 11 18 30 20 28 13 6 13 15 20 24 14 7 6 27 3 33 17 7 23 3 16 14 21 17 9 23 21 0 27 14 14 13 17 21 19 14 23 16 20 6 16 27 15 28 24 20 28 10 20 3 26 17 28 16 27 20 25 3 14 21 13 16 18 26 20 24 17 20 30 17 19 21 21 19 13 31 27 13 19 25 10 12 16 17 17 14 23 13 10 12 24 14 12 24 8 24 20 11 13 27 16 20 27 17 24 7 24 22 16 30 14 24 13 19 16 3 16 20 10 17 14 34 13 16 30 28 27 28 16 22 16 16 24 30 10 29 14 12 17 17 31 30 19 17 10 12 26 20 21 9 16 10 19 27 23 30 10 14 3 13 12 13 23 31 20 24 27 9 30 17 30 10 23 6 13 16 9 10 13 30 28 16 24 23 23 8 6 7 23 17 27 23 3 15 9 23 14 10 20 21 21 17 6 15 24 16 14 12 17 25 13 22 23 31 3 16 27 23 3 19 16 17 7 17 24 20 7 24 21 17 3 9 23 20 23 17 13 20 3 24 12 31 17 16 3 17 24 16 17 20 16 13 28 10 7 9 7 20 9 3 12 20 13 18 17 12 6 23 19 13 12 28 27 9 20 16 20 24 24 3 15 23 27 23 20 21 21 14 27 6 20 17 9 13 24 28 21 13 27 30 17 30 21 12 0 24 24 24 14 17 29 20 29 6 7 8 10 13 22 17 13 20 22 13 15 16 20 22 17 17 12 27 19 40 34 22 22 24 14 13 24 24 7 23 20 14 11 30 3 17 21 16 25 37 20 17 24 23 27 17 13 14 18 19 16 34 14 3 17 16 16 21 29 21 17 35 23 21 23 17 17 26 20 27 13 24 17 18 18 28 17 30 21 13 23 34 12 9 9 7 41 13 14 29 17 31 16 27 14 17 19 17 16 16 16 0 20 16 24 21 23 34 24 41 3 19 22 10 22 7 19 23 17 12 28 20 16 13 21 23 6 10 23 17 14 22 13 13 31 7 16 17 20 23 13 16 16 10 35 17 22 10 18 9 7 23 14 30 26 15 27 0 12 21 34 10 16 17 34 11 21 15 17 21 23 14 20 16 15 17 9 10 17 21 24 20 34 11 13 24 30 27 10 17 26 31 13 16 18 14 16 23 17 20 17 19 13 6 23 13 19 21 19 6 20 18 17 17 15 17 6 17 30 14 27 13 30 24 21 10 12 35 17 14 16 6 16 31 13 23 23 10 27 24 27 24 24 21 24 14 7 10 20 10 22 20 23 9 13 13 14 14 17 23 26 14 17 29 16 10 13 14 20 21 20 3 38 23 27 9 10 18 12 24 13 7 7 33 22 30 17 7 17 19 13 17 13 17 17 16 13 24 18 23 13 21 17 16 27 23 11 17 17 6 27 13 21 6 16 14 20 21 29 27 10 10 24 31 20 22 37 20 37 16 14 24 26 13 23 19 13 9 0 24 18 39 6 37 19 22 27 27 10 24 17 28 18 22 26 37 23 19 17 26 20 9 16 15 19 12 10 8 28 24 18 24 0 14 26 24 13 3 22 9 6 16 20 16 16 17 17 19 10 21 21 13 21 23 24 24 15 15 9 31 23 17 19 9 29 11 28 24 16 22 13 9 22 14 18 31 7 12 21 26 18 15 27 16 20 22 33 23 24 13 10 19 14 41 14 26 13 13 6 7 12 15 17 23 23 20 20 23 13 14 14 10 33 37 17 14 17 22 25 33 11 20 21 33 19 24 15 20 17 22 19 17 13 20 17 6 16 24 7 21 20 27 23 27 17 20 13 0 14 20 21 14 17 13 16 23 14 20 34 17 8 10 10 34 16 43 24 21 20 7 14 17 24 3 24 13 20 16 14 20 10 42 14 14 24 10 25 24 27 26 9 22 9 25 18 20 28 13 7 22 13 7 24 13 12 24 16 14 26 18 40 11 13 14 35 14 6 0 10 21 7 10 17 40 24 8 24 3 15 34 17 28 25 0 17 28 12 17 13 16 25 16 23 19 9 20 10 20 17 8 13 9 6 20 14 3 10 20 3 27 10 15 3 24 35 24 12 21 3 13 24 34 17 24 30 14 16 13 15 14 21 25 10 19 13 24 27 9 17 17 13 21 21 13 19 27 31 24 28 14 19 7 7 25 23 12 34 27 17 23 17 9 14 28 27 13 24 16 30 23 9 17 13 16 13 6 6 28 20 19 16 20 9 17 24 18 23 15 15 29 28 16 14 14 34 17 27 22 13 17 9 24 7 24 6 20 30 14 10 20 10 20 18 23 14 17 37 23 13 16 7 20 30 13 16 9 9 27 22 17 19 23 25 24 17 24 23 10 30 7 20 15 28 21 21 34 30 34 21 17 24 27 13 23 7 23 10 13 17 31 19 22 13 23 3 35 28 10 18 0 16 13 10 24 17 23 14 17 6 16 23 20 21 24 21 21 28 12 12 16 20 24 16 27 29 18 12 16 22 13 13 17 17 22 27 14 17 20 15 13 7 20 14 30 23 14 17 17 15 3 20 20 17 15 7 20 16 14 24 23 26 16 20 14 27 23 33 12 21 24 19 19 3 7 24 21 29 16 10 6 25 21 24 13 20 23 11 23 25 27 19 17 21 17 13 19 12 6 13 17 7 20 22 18 13 24 16 26 15 21 33 20 9 17 13 21 10 17 31 14 26 23 10 23 13 20 13 16 19 18 24 12 15 14 23 26 13 13 28 16 23 30 14 13 11 21 22 21 23 13 18 24 3 10 14 24 16 15 14 20 31 20 31 34 31 35 16 10 13 18 17 17 10 30 26 33 37 20 23 24 22 30 3 6 24 22 20 28 21 34 24 16 10 13 21 24 7 19 15 16 0 5 21 27 17 10 29 21 24 25 19 16 24 14 18 24 21 18 16 23 21 16 25 24 14 33 24 20 12 23 13 23 6 17 14 21 20 11 12 13 20 27 21 19 3 16 24 16 7 31 18 10 35 30 24 34 29 28 26 27 30 21 24 15 13 38 23 16 30 14 26 18 22 20 12 24 14 27 10 41 34 16 8 13 33 17 10 20 16 0 21 31 17 21 13 20 27 7 24 16 16 6 20 20 26 23 16 14 20 6 14 13 20 12 23 9 24 24 10 26 20 17 17 28 10 23 17 17 3 9 17 34 17 17 13 37 23 9 24 17 41 13 20 14 24 13 24 12 13 13 17 16 17 12 16 24 22 13 26 13 28 27 6 25 16 6 23 20 9 21 10 47 22 19 13 24 13 10 13 26 28 24 24 20 17 16 9 24 15 10 30 7 14 23 20 22 12 21 19 13 20 17 36 19 17 19 24 20 20 21 10 23 10 29 24 10 26 31 27 24 7 20 10 33 23 17 18 0 9 16 20 21 23 20 13 13 20 11 3 20 16 30 24 15 17 14 37 13 16 31 20 22 33 31 16 13 27 16 17 9 21 17 20 17 31 23 7 21 13 24 24 13 21 24 7 19 13 10 29 21 11 13 21 27 10 26 10 13 14 13 23 11 31 22 20 20 20 34 16 19 20 14 19 23 15 19 14 13 24 27 18 21 16 27 17 13 17 6 15 19 17 7 19 17 13 26 32 19 26 22 13 8 16 24 13 15 7 10 17 20 9 23 12 17 23 29 8 27 10 21 24 23 24 9 17 0 10 9 17 0 30 7 27 30 21 17 20 9 7 21 21 14 16 22 20 9 11 23 16 14 30 20 21 33 40 14 16 26 10 24 25 19 14 17 15 13 23 14 23 10 14 27 21 7 30 13 18 18 20 15 3 24 10 19 25 13 6 30 16 17 22 7 21 25 17 13 14 19 13 16 17 20 12 19 35 13 19 23 13 19 13 20 35 10 6 11 16 24 18 23 17 17 14 10 13 13 13 23 21 17 24 7 17 38 17 9 7 35 22 13 9 10 26 10 27 30 17 15 22 30 14 33 7 27 21 21 14 10 10 29 24 13 20 14 14 21 21 17 13 20 13 17 10 15 17 13 16 26 20 22 26 17 25 31 27 6 14 24 24 24 0 23 29 23 6 19 17 10 27 14 20 3 18 21 16 21 10 24 9 13 20 16 15 24 20 14 28 13 7 15 22 8 31 16 16 21 34 17 21 26 27 24 24 32 20 23 13 22 17 14 9 10 25 20 19 21 20 39 17 27 16 20 13 27 28 21 18 7 24 0 22 21 21 20 28 17 17 10 23 21 26 17 24 12 3 24 21 27 14 7 16 14 14 6 13 28 13 23 10 28 29 20 3 10 28 24 14 14 15 16 14 20 39 28 17 25 27 14 22 19 6 3 20 27 20 26 7 30 19 16 29 28 26 30 16 17 19 16 22 7 26 16 17 20 20 14 21 30 10 28 28 41 20 8 7 23 17 40 10 35 28 17 19 19 9 12 19 31 6 20 16 20 10 20 10 36 22 19 10 22 24 10 20 13 23 18 28 20 24 20 28 14 14 23 30 19 23 43 14 17 26 13 21 17 7 10 24 16 22 22 35 31 20 22 3 21 36 24 20 29 23 10 17 6 3 21 13 11 14 17 20 21 10 30 10 9 20 10 6 24 33 17 28 13 24 15 22 30 19 6 18 15 33 20 16 38 14 34 31 24 27 17 21 18 10 13 14 27 10 20 26 13 13 15 16 31 12 16 27 24 15 6 17 3 24 13 31 41 6 16 16 13 21 20 9 16 17 17 14 16 16 7 17 20 21 24 21 26 20 10 24 0 27 14 21 20 13 9 16 17 16 28 10 20 7 17 12 12 29 41 7 20 24 17 16 0 31 31 17 9 13 41 20 24 14 12 16 24 10 14 3 29 19 34 20 24 9 13 9 19 16 31 27 10 27 21 28 34 17 24 30 21 21 21 10 19 17 17 20 3 14 28 14 30 27 29 20 12 14 15 23 38 24 12 13 27 12 22 30 33 10 16 10 37 27 15 20 29 14 17 19 10 30 19 7 10 30 27 16 13 12 24 10 20 26 14 29 20 17 20 20 27 11 3 21 9 18 17 16 20 22 24 26 24 17 17 6 23 23 24 3 20 15 7 27 20 6 21 32 20 23 23 26 25 13 18 27 34 9 16 19 17 7 22 28 17 19 31 19 10 27 17 34 35 24 24 21 17 29 10 11 9 17 28 31 16 21 14 30 18 28 10 6 20 13 20 14 19 10 14 17 24 6 13 19 19 14 17 28 10 20 26 23 13 23 19 20 28 34 6 17 14 0 9 17 10 23 20 17 6 27 18 6 14 21 6 25 23 14 19 13 14 23 9 28 20 14 30 23 10 18 15 15 10 27 20 14 9 0 20 28 20 28 9 27 10 28 13 9 13 30 9 19 10 33 22 10 6 20 17 14 13 20 10 13 16 17 27 19 27 28 23 23 24 27 19 10 27 14 13 23 25 13 6 20 17 30 13 13 16 19 10 16 10 23 13 13 18 19 13 16 6 16 10 14 23 20 14 14 27 16 27 16 17 15 23 41 17 7 26 24 10 17 21 38 16 3 17 19 17 17 12 14 17 15 16 31 17 19 7 16 10 16 13 21 19 13 30 21 9 13 20 17 23 24 20 22 13 24 22 16 34 14 21 21 29 15 35 16 22 17 30 12 25 39 10 18 9 27 13 7 21 16 9 14 21 10 31 14 17 24 24 18 7 13 14 24 20 12 17 14 14 12 7 14 17 13 19 9 21 20 41 31 30 14 6 16 20 13 6 20 14 25 12 17 14 24 27 23 19 13 14 18 21 19 33 21 28 13 29 13 15 20 21 3 19 0 17 30 7 17 3 23 22 14 27 30 19 16 30 34 14 10 17 7 13 7 13 15 12 30 10 13 22 16 27 0 24 21 19 26 7 10 20 18 12 13 33 21 10 12 23 17 29 19 17 18 20 19 13 17 17 20 20 27 30 26 17 19 10 24 10 34 36 26 18 15 23 19 15 26 10 15 10 34 28 20 14 7 17 14 16 20 33 17 20 38 17 25 24 19 24 21 10 15 23 16 17 20 24 6 18 12 28 8 28 10 12 27 13 22 12 17 17 15 3 16 22 20 20 19 17 16 27 19 16 13 24 16 10 20 17 7 16 10 12 9 20 31 19 27 16 18 3 20 30 29 17 17 16 17 31 27 21 9 13 24 11 16 26 14 10 13 22 12 10 20 38 20 17 17 12 28 14 28 23 37 14 17 21 10 9 6 24 16 14 15 24 16 13 16 9 9 26 24 15 12 14 16 7 20 10 21 21 13 13 13 26 26 14 9 16 23 10 32 13 23 10 20 15 20 21 25 19 3 26 23 12 21 34 30 10 14 17 16 21 14 30 17 23 20 24 29 7 25 18 31 18 22 26 25 17 12 28 17 38 10 17 17 16 19 24 10 45 24 10 10 13 24 7 23 20 20 13 23 9 21 27 39 32 18 35 14 20 16 16 7 27 38 3 38 17 28 12 23 22 9 17 0 30 17 17 22 21 22 27 19 27 13 18 32 7 26 13 14 10 20 31 6 19 22 28 7 9 16 20 18 26 18 13 26 20 17 28 23 31 15 22 44 7 6 24 30 17 17 27 30 17 17 33 22 14 23 21 22 13 26 10 19 10 20 23 14 34 8 20 17 22 3 22 45 27 23 20 16 23 10 9 19 17 10 21 23 27 27 24 19 21 6 24 30 31 22 13 16 21 31 17 19 10 28 16 9 10 25 3 39 17 34 14 9 41 28 7 27 6 9 20 3 27 29 34 12 15 9 23 17 6 9 17 31 24 24 33 27 10 24 13 13 19 28 17 20 15 7 17 27 27 17 18 31 20 16 17 13 41 13 30 22 19 24 13 20 16 25 17 28 19 10 7 31 28 14 14 35 17 22 41 39 10 31 22 10 20 23 19 23 17 6 16 24 3 30 16 13 17 17 20 29 30 19 17 10 13 20 14 13 17 27 21 17 24 21 14 27 13 30 19 18 27 26 24 20 26 3 26 12 28 25 30 15 29 20 20 26 16 10 17 20 21 16 13 31 21 24 20 17 16 23 22 14 10 24 31 21 23 13 38 30 17 17 16 21 23 16 13 28 10 11 34 16 19 21 16 6 20 17 13 10 10 3 24 17 17 21 24 20 33 10 17 21 21 20 27 17 14 31 14 21 16 24 15 31 31 24 20 23 27 24 27 29 16 22 24 21 16 16 20 20 21 16 13 20 20 10 14 22 7 27 14 9 10 22 13 23 31 19 0 14 13 13 27 0 17 30 14 6 20 17 9 30 22 30 20 24 20 0 23 10 30 19 17 16 13 28 17 20 13 21 15 13 41 20 30 12 26 20 8 18 17 7 21 10 7 17 10 7 13 31 20 18 14 33 17 13 20 16 27 17 23 12 17 24 15 14 31 23 31 24 22 22 16 16 29 27 29 13 24 10 10 10 23 27 9 27 27 3 23 34 21 11 26 23 10 10 13 9 13 13 7 16 7 20 14 10 3 6 24 17 16 18 20 13 21 19 10 16 20 21 23 13 27 17 18 14 17 13 19 20 10 20 0 17 13 37 24 7 11 16 24 26 19 34 23 6 10 9 13 10 13 26 19 20 22 10 28 21 20 31 27 13 23 21 17 17 23 11 27 7 28 20 17 18 19 13 12 16 9 27 17 3 0 28 16 17 14 19 13 33 13 41 23 22 0 27 20 28 21 7 25 14 37 28 30 28 22 18 27 10 19 12 28 20 17 26 21 10 20 24 17 23 16 14 19 27 16 16 6 20 36 14 24 17 6 22 13 20 27 27 10 9 24 20 3 27 20 32 17 21 15 20 44 17 24 20 19 28 23 24 23 14 24 27 23 26 13 19 10 16 6 34 10 13 7 25 14 3 24 14 13 0 16 17 24 33 22 14 9 26 19 3 6 33 13 10 7 6 20 19 17 17 14 28 26 17 20 14 3 33 17 19 31 23 24 20 26 14 27 11 13 7 15 22 21 24 18 15 10 18 16 13 13 20 30 23 19 3 23 24 13 27 27 13 10 20 35 23 14 25 21 23 15 13 7 13 27 13 14 14 16 7 31 15 7 16 27 17 7 24 3 26 24 23 14 6 23 13 20 13 19 17 22 25 22 33 21 20 14 13 24 16 37 26 6 28 3 16 13 24 16 25 27 13 25 31 19 14 17 30 10 17 10 7 17 3 21 22 10 6 13 23 26 17 17 21 15 25 28 16 3 26 36 6 10 13 10 7 13 9 21 22 17 16 18 29 22 10 26 13 13 24 19 20 31 14 28 33 26 23 27 16 16 17 14 21 17 31 16 28 13 16 26 27 0 21 23 13 20 24 17 16 36 24 31 17 19 26 13 28 3 24 9 9 24 19 7 10 24 27 19 21 23 13 31 27 10 13 23 34 30 16 15 15 13 27 20 24 29 28 24 13 13 30 19 23 6 20 27 25 28 24 18 6 9 16 16 10 13 18 17 10 10 9 10 34 27 12 20 15 34 16 10 24 15 22 24 15 14 20 14 20 7 20 16 19 11 20 13 17 24 28 10 20 24 13 6 10 20 41 23 18 22 7 21 26 20 18 13 16 19 22 21 27 24 23 30 21 31 35 17 22 10 3 26 23 22 21 23 29 12 14 31 10 27 27 30 19 10 6 21 21 3 15 20 20 31 29 18 20 20 28 16 22 17 17 19 17 20 25 30 9 31 24 9 31 27 7 24 17 33 21 29 3 16 18 21 24 35 17 22 30 13 17 19 28 18 6 16 23 19 24 26 9 18 25 28 27 21 7 24 13 3 24 7 28 3 17 26 10 41 10 10 27 14 10 17 24 23 6 20 34 38 20 17 17 9 17 17 23 21 21 17 10 34 12 16 10 38 10 6 17 26 23 7 10 7 27 15 20 13 9 3 22 10 16 21 16 14 10 35 3 7 15 24 9 19 24 9 9 24 14 24 14 17 10 24 17 28 20 17 14 12 13 28 17 22 18 26 14 26 18 16 22 20 14 19 23 21 31 17 27 37 17 11 21 19 22 17 17 14 0 7 14 30 20 6 16 30 23 23 25 20 21 20 23 12 27 12 31 24 21 30 7 17 31 14 16 16 21 34 9 12 22 17 13 13 20 12 22 10 19 35 19 34 21 17 7 21 14 21 20 31 19 16 24 27 17 32 18 10 24 20 28 12 13 17 34 15 9 22 20 15 21 34 10 14 17 16 10 31 13 21 24 3 13 3 13 24 7 23 17 33 20 16 12 17 24 30 27 10 14 11 26 21 20 23 6 25 20 27 12 26 11 27 29 21 16 13 24 9 14 17 29 13 27 17 19 34 10 10 19 33 21 27 19 20 7 17 24 13 27 21 17 41 28 30 21 23 13 3 18 28 21 16 14 10 6 22 14 23 24 27 20 10 16 9 23 21 15 17 31 13 3 14 27 43 15 13 14 18 13 8 22 24 16 13 23 26 23 23 28 17 14 13 26 18 19 24 21 19 22 25 17 11 23 20 10 20 15 20 20 28 26 24 15 13 6 16 12 14 13 19 26 14 23 19 15 21 13 13 7 15 12 19 10 20 14 13 28 18 21 16 27 10 13 20 14 0 7 14 27 9 17 27 16 20 17 24 13 23 21 10 9 16 17 35 16 19 20 21 22 34 15 30 24 34 14 17 27 8 20 17 22 10 30 20 19 9 24 7 24 10 13 11 21 21 13 24 13 13 24 17 14 16 34 15 24 21 13 34 10 14 16 22 26 12 8 34 6 26 17 16 11 13 28 7 24 20 16 28 15 33 22 14 24 14 20 13 14 23 20 10 30 26 23 10 14 10 17 23 8 6 20 3 15 10 21 13 20 10 30 14 17 0 37 14 27 10 24 29 7 27 9 19 24 10 27 33 22 13 10 16 27 30 27 19 17 16 24 20 13 35 17 17 15 23 34 34 9 23 17 37 17 10 20 18 16 27 16 27 6 13 10 23 17 13 21 13 24 9 17 32 13 14 27 17 13 20 10 14 24 13 7 23 23 9 19 21 17 27 13 23 22 15 20 15 13 18 20 17 21 24 16 17 24 19 13 24 31 33 23 23 15 19 20 10 20 19 17 14 9 27 15 24 7 24 24 34 24 24 3 20 23 14 21 7 13 7 26 17 26 17 26 22 30 20 30 13 16 17 33 10 10 20 25 16 26 23 13 23 21 21 9 3 13 20 19 13 28 30 16 27 17 24 13 23 20 3 24 16 14 24 10 26 20 28 21 24 18 16 6 10 13 12 34 14 20 10 13 8 14 43 35 20 26 21 7 18 6 16 16 23 0 21 23 23 34 14 13 17 27 20 13 14 20 13 23 24 14 7 21 19 13 10 24 20 16 24 27 30 20 14 16 27 19 13 0 14 16 16 28 45 13 20 21 26 24 24 24 20 38 37 11 10 24 20 3 3 10 28 6 19 21 7 28 14 13 17 29 10 11 17 7 21 10 17 21 13 17 23 20 16 15 6 12 20 21 36 22 30 10 6 20 7 20 23 41 14 27 15 20 13 28 13 35 3 17 18 12 14 19 9 16 16 21 28 21 16 18 31 20 38 20 26 17 16 21 27 9 31 17 10 22 21 10 19 20 30 10 34 15 27 34 21 17 15 14 26 17 23 41 20 26 26 27 12 17 20 31 20 16 20 24 24 22 17 17 16 18 25 27 24 13 30 17 17 3 18 14 34 13 17 6 24 13 29 26 14 22 25 6 16 16 21 29 7 24 14 31 27 14 13 7 9 17 13 3 27 15 22 22 7 21 14 17 26 14 31 7 20 24 6 14 13 17 9 37 20 25 17 20 30 13 24 13 20 23 13 10 20 26 24 22 27 34 6 19 35 7 20 20 11 18 24 24 13 21 20 14 13 10 33 18 10 25 34 27 21 20 20 10 16 17 18 6 16 14 23 17 14 16 25 13 12 21 17 17 11 30 25 13 10 23 10 13 19 20 24 27 10 10 17 13 16 20 7 27 28 21 17 17 20 16 10 20 23 27 20 23 28 16 27 24 20 24 3 7 26 34 26 0 20 13 25 13 12 14 15 26 17 20 38 15 3 9 19 24 28 12 26 17 10 24 24 20 23 18 21 16 24 17 24 14 19 22 20 21 22 6 10 20 20 22 24 26 14 13 13 24 20 20 7 5 10 27 19 9 6 34 10 24 16 15 27 17 9 31 24 23 10 16 29 18 26 33 34 17 31 27 9 23 16 16 20 21 28 10 12 18 20 7 18 14 13 17 14 23 34 26 28 20 29 35 16 17 19 14 21 24 18 23 20 13 16 27 21 7 16 17 14 20 24 10 10 14 35 24 10 24 17 27 17 25 17 20 24 14 17 24 28 23 15 16 13 20 10 9 18 27 16 3 28 12 9 13 20 24 17 16 7 27 14 27 6 11 7 17 19 17 17 6 16 16 16 42 27 7 33 27 22 7 20 13 16 10 33 33 9 28 24 21 28 12 17 17 9 12 3 14 13 13 27 10 20 10 12 13 10 23 13 21 13 21 10 24 16 10 17 9 13 30 21 22 26 13 30 18 17 15 12 14 21 28 12 17 13 24 24 10 14 25 17 10 23 7 31 14 20 17 13 27 12 30 28 13 17 7 10 22 38 12 14 22 24 22 27 13 20 24 16 6 30 5 21 17 36 20 17 18 15 15 24 13 25 6 21 24 24 16 28 23 13 24 3 21 17 22 10 27 14 20 17 26 6 15 19 17 13 22 10 24 14 13 29 17 24 26 30 13 13 22 15 10 14 6 27 7 14 27 28 29 16 10 37 12 21 17 24 27 20 22 35 10 21 19 26 10 13 14 14 19 35 10 21 13 24 18 21 13 31 23 23 30 21 17 16 12 17 31 23 19 14 6 9 13 36 0 10 21 16 29 23 21 9 14 12 26 9 18 26 17 27 13 33 10 10 22 13 26 17 14 28 20 14 16 16 12 22 13 21 29 20 17 13 27 21 10 21 15 31 24 24 13 24 37 20 10 3 21 17 27 20 5 16 27 15 13 33 12 27 10 33 20 25 24 3 16 15 19 28 17 20 14 18 10 30 17 28 10 37 3 6 16 30 16 6 26 20 10 21 20 22 34 6 24 16 17 18 13 13 10 6 10 19 34 14 27 28 23 26 20 28 21 15 7 18 17 10 25 15 35 27 12 16 14 12 26 27 24 9 24 24 25 26 33 33 11 20 33 17 24 18 20 17 27 10 11 17 21 22 23 7 20 30 30 23 26 6 10 11 13 17 10 14 33 23 16 16 0 19 17 18 10 16 20 17 24 16 20 33 21 30 21 20 25 10 9 20 34 13 17 18 31 20 30 16 24 28 17 19 10 27 24 13 23 16 20 7 14 24 38 18 13 13 30 37 21 26 37 6 34 26 14 29 17 27 16 13 20 17 16 21 21 9 15 16 28 0 13 16 13 26 16 17 27 6 35 14 18 30 13 13 24 29 17 23 26 16 20 13 27 7 12 23 24 33 30 22 3 24 31 14 23 20 28 16 15 23 20 13 16 7 24 16 10 14 7 20 31 23 11 21 23 33 10 19 14 21 12 22 13 13 20 16 17 18 24 17 15 20 18 10 0 11 25 28 24 26 7 16 13 17 30 20 12 17 16 6 29 7 18 14 15 21 3 6 20 13 20 13 10 13 20 23 13 31 13 26 14 24 10 26 22 17 32 17 15 24 26 13 16 9 9 17 3 29 20 23 26 35 15 20 17 7 21 17 19 31 33 28 16 13 23 16 3 19 20 17 23 0 16 17 3 23 27 17 23 17 24 10 18 23 20 7 21 0 34 13 17 29 13 19 15 16 16 17 21 36 17 10 22 14 20 15 20 22 27 21 17 16 13 19 14 13 21 16 24 20 17 17 13 26 15 17 23 26 7 31 23 21 28 16 6 18 18 9 9 13 15 34 13 26 16 17 16 7 13 22 21 24 6 25 9 21 6 21 14 21 21 7 3 21 20 18 13 31 21 16 27 16 10 31 23 17 14 6 11 10 21 28 30 20 29 13 3 26 23 7 24 26 21 33 26 10 27 21 33 13 12 7 6 15 16 17 7 14 17 11 28 18 17 16 17 19 15 24 18 29 21 10 19 7 17 27 24 17 23 25 24 21 17 31 10 16 16 20 23 10 22 9 27 9 13 10 14 30 17 13 13 13 23 33 31 21 19 33 30 24 48 16 21 18 20 18 31 10 20 24 24 20 17 17 12 7 31 16 3 29 24 34 26 14 23 22 28 14 13 24 20 15 7 18 17 14 21 33 3 33 10 25 14 17 29 17 17 9 14 30 13 21 21 11 8 12 21 23 26 21 17 28 0 23 24 33 10 21 22 26 20 0 17 16 13 27 32 19 3 20 15 21 9 13 26 10 7 31 13 20 20 31 16 31 14 17 24 22 6 30 10 16 26 13 29 21 13 20 17 21 30 10 25 27 24 14 20 18 18 27 21 10 17 13 20 23 19 9 17 13 15 17 14 13 16 22 17 24 7 7 6 21 21 27 20 31 30 26 8 23 20 31 20 7 10 14 19 28 13 19 24 6 9 23 20 26 14 17 29 34 6 24 10 27 14 16 13 20 24 13 13 12 17 18 13 10 23 20 33 25 14 13 17 24 14 21 14 15 33 37 22 24 21 17 20 20 21 9 12 13 18 28 17 14 31 11 31 27 20 12 17 12 15 20 18 18 7 7 30 27 28 18 15 15 24 34 9 17 20 14 26 31 22 13 18 17 23 23 14 40 13 21 20 33 20 21 9 13 22 17 17 17 11 20 27 20 13 18 45 10 36 14 20 13 20 31 34 16 34 16 26 13 34 10 20 28 16 13 12 13 29 12 13 10 21 10 10 26 20 12 14 8 10 33 23 25 26 13 27 13 23 13 16 0 31 13 21 6 17 37 7 22 27 24 16 12 7 23 6 10 34 20 24 26 15 17 20 16 20 17 24 13 6 24 19 37 15 35 17 18 14 21 6 17 0 23 20 23 20 25 16 9 23 21 20 22 16 21 36 10 34 10 17 3 23 17 11 20 13 10 23 7 16 27 33 19 21 16 10 7 16 0 26 13 29 16 14 27 21 10 24 24 7 3 20 24 16 10 20 14 24 22 21 27 17 7 23 17 17 17 23 16 24 17 31 17 6 17 17 24 20 7 35 19 40 16 13 33 27 13 9 13 10 14 37 17 19 13 21 21 20 23 24 34 21 14 15 27 19 17 10 20 13 7 29 16 24 13 10 24 26 16 36 24 13 16 28 30 21 16 21 17 31 3 33 17 19 13 8 3 27 11 10 13 13 0 27 23 7 21 16 21 3 17 10 3 16 7 10 14 13 14 10 29 16 13 16 17 36 14 3 14 14 31 24 34 23 27 20 14 20 17 42 15 13 23 9 19 33 20 23 17 24 21 40 19 23 16 19 17 24 10 21 3 9 13 20 11 20 15 20 17 21 20 7 24 17 16 20 17 16 0 21 23 27 13 30 40 29 28 27 12 19 20 23 20 16 21 22 16 10 38 28 38 9 14 20 17 9 11 9 21 7 7 32 20 17 17 7 33 20 30 33 14 7 20 10 21 26 19 23 26 10 28 16 26 12 24 16 22 10 30 28 34 16 12 10 14 17 19 21 20 10 17 21 20 21 24 19 8 27 12 22 17 20 30 26 31 3 25 14 20 14 20 24 24 17 20 9 27 20 13 9 16 19 21 11 19 9 17 13 10 20 23 20 6 24 17 21 3 20 23 20 18 29 14 10 17 20 20 17 9 3 17 24 7 20 34 19 19 27 29 29 30 25 24 27 10 21 31 26 3 27 19 24 6 0 24 24 17 20 7 17 3 18 21 36 19 9 20 19 30 23 23 28 34 27 37 36 10 13 14 24 14 13 17 7 19 13 21 24 25 10 16 24 13 38 19 17 13 3 19 16 18 22 6 19 0 33 20 20 20 23 14 13 31 22 19 20 23 34 24 24 23 13 16 9 14 45 23 24 12 6 20 6 17 16 17 16 19 19 21 22 22 6 12 21 7 14 10 13 6 17 27 17 23 30 3 31 17 13 13 22 22 14 10 10 19 16 7 6 16 13 23 27 21 23 12 16 37 17 9 15 29 14 21 22 29 23 10 27 10 27 13 26 17 19 6 28 3 17 24 27 17 17 16 7 7 16 17 21 27 17 24 24 16 20 15 22 14 20 16 16 14 18 7 23 9 23 9 26 15 10 17 38 15 10 30 13 13 13 11 20 23 16 12 10 34 0 16 10 23 26 42 31 14 20 16 21 14 14 9 22 16 27 12 12 29 27 32 17 14 9 20 37 18 30 16 17 26 30 16 17 23 3 13 25 18 24 7 21 16 22 15 20 20 6 22 3 16 6 23 37 23 34 6 10 21 21 13 10 16 7 17 0 16 22 20 22 28 13 13 14 23 16 20 34 10 10 16 17 27 34 29 35 10 27 23 14 13 13 23 17 10 27 9 7 27 6 24 7 24 10 9 17 7 18 3 9 21 22 17 36 24 33 7 7 6 12 14 23 3 16 27 19 10 10 30 34 17 28 15 13 10 23 13 7 34 6 13 16 27 23 17 10 24 24 16 24 17 16 20 14 7 10 16 13 20 22 9 12 24 13 3 37 13 32 20 26 12 35 37 38 16 24 27 18 20 17 29 7 16 12 13 24 20 22 21 24 10 10 15 10 40 22 6 27 19 13 21 30 20 9 24 16 7 14 30 22 24 19 27 6 31 13 29 13 13 27 9 7 23 20 16 17 15 30 31 17 22 12 13 13 9 24 20 50 14 23 13 24 24 20 16 16 12 20 17 24 13 0 19 23 14 24 27 16 38 27 6 30 17 21 13 13 12 22 9 6 10 13 13 17 3 24 20 13 15 16 34 30 7 12 17 10 17 31 9 28 21 13 20 23 11 27 13 16 7 20 33 6 26 16 10 18 19 31 23 23 19 27 17 28 28 32 31 3 18 20 14 18 31 13 27 9 27 17 13 20 27 24 31 23 23 14 13 24 10 17 17 28 40 22 23 28 28 10 13 17 13 28 20 20 24 20 23 26 27 38 13 23 17 21 24 14 16 20 17 33 22 6 14 0 13 30 18 12 38 22 14 21 22 18 24 19 21 13 16 20 31 24 17 29 30 19 17 21 21 13 16 23 30 20 12 30 23 7 20 20 10 23 14 27 19 17 14 10 20 21 28 14 14 10 24 21 14 18 17 17 13 21 34 35 28 24 9 16 22 13 30 10 24 13 22 28 15 13 14 19 13 13 19 17 24 28 35 31 16 23 18 10 28 12 21 13 27 28 23 20 10 24 23 9 9 21 24 13 10 25 20 27 6 9 10 17 21 17 33 25 28 27 30 22 37 37 14 12 7 10 12 19 20 27 12 14 27 21 6 23 9 20 24 21 8 21 13 7 6 20 21 21 16 27 24 20 16 21 10 20 15 0 10 34 21 7 11 20 10 14 13 17 16 17 20 23 23 20 16 17 17 20 13 10 22 21 24 21 30 13 17 14 30 23 45 16 20 13 6 20 13 14 36 40 0 12 20 29 16 9 27 21 17 9 17 19 28 20 21 33 19 25 20 25 34 18 3 18 17 31 12 27 7 10 15 10 24 9 29 18 28 14 24 30 10 29 14 30 28 14 20 17 17 9 30 23 17 21 22 31 16 20 18 20 17 20 9 24 20 19 14 26 23 27 22 13 19 18 21 9 20 22 8 3 13 21 34 17 14 14 21 12 6 20 14 33 17 26 11 14 21 13 23 20 20 17 14 16 25 9 33 14 13 3 27 10 10 17 19 9 24 20 19 26 23 28 9 13 16 32 7 21 24 9 31 6 14 26 10 17 20 35 16 10 7 0 27 30 17 6 16 36 27 17 14 3 27 14 21 27 13 29 17 23 22 12 20 18 30 13 15 13 23 9 10 20 23 28 22 6 17 23 16 35 17 16 18 28 39 24 21 20 13 18 20 16 20 16 13 30 17 28 9 22 13 24 20 10 15 10 20 14 13 20 12 13 14 16 37 17 16 16 25 33 27 21 22 17 23 24 6 13 27 17 16 21 20 10 21 16 17 47 22 28 40 26 14 24 28 16 17 27 12 17 10 23 9 17 9 21 26 30 12 14 23 21 19 14 3 12 20 33 7 22 6 17 14 16 15 3 27 16 17 24 26 15 18 10 43 9 14 13 9 20 10 38 18 41 17 20 6 31 10 13 16 12 13 21 28 25 27 10 27 31 10 13 20 24 7 16 17 19 29 20 13 23 16 17 10 18 17 23 39 10 29 27 15 20 16 9 11 24 7 17 10 10 17 3 19 13 28 14 10 28 3 27 24 38 27 14 24 17 19 23 23 19 13 14 15 26 7 6 9 19 27 3 10 10 0 20 21 17 17 19 20 22 23 20 20 19 24 16 22 10 17 16 33 10 21 24 6 13 13 14 28 27 40 16 13 17 14 17 12 10 20 9 10 10 21 5 20 14 6 16 13 28 24 10 13 13 23 34 17 19 24 27 27 28 17 12 13 21 21 24 25 24 16 14 7 7 31 26 17 27 7 23 26 0 7 28 40 23 10 14 21 13 29 23 18 23 31 20 23 30 15 20 16 12 37 23 10 32 20 6 24 11 23 38 7 13 15 19 17 21 10 13 23 12 21 10 14 17 24 16 10 28 13 10 23 12 14 13 16 20 21 21 36 14 19 19 10 24 17 20 24 17 17 14 20 3 24 13 16 11 30 20 14 3 17 23 16 23 24 22 8 24 15 24 29 24 26 10 10 20 26 14 14 25 9 10 30 0 17 11 20 34 30 13 15 24 12 27 31 16 10 9 10 13 24 23 34 9 18 21 23 20 12 12 27 20 9 13 7 21 19 21 34 27 30 19 10 24 28 17 3 24 21 24 26 15 20 25 33 10 17 14 17 27 17 27 24 22 20 22 3 22 26 24 19 24 13 13 13 10 16 22 21 13 24 10 23 10 15 17 17 34 24 6 15 17 10 19 6 13 31 38 23 15 24 24 24 19 10 10 19 23 21 6 13 21 13 17 24 20 13 28 11 14 34 14 6 21 13 22 12 20 13 16 7 17 13 30 16 10 18 20 41 22 10 22 6 13 27 33 22 20 13 14 20 12 20 16 12 17 20 19 16 31 17 13 31 14 26 17 16 13 21 38 21 23 14 8 30 37 6 14 17 16 10 31 13 24 17 18 20 27 14 20 29 6 20 20 25 27 22 17 27 16 20 28 15 19 20 34 13 20 30 19 23 35 31 23 34 25 30 31 21 10 12 14 21 27 13 3 20 10 21 3 15 6 7 16 3 14 21 17 25 20 6 20 27 9 23 21 20 17 26 0 7 17 19 18 20 10 27 31 20 20 17 14 19 14 17 15 23 10 35 16 19 0 19 17 36 20 6 9 16 18 13 10 9 14 16 13 13 17 10 40 26 9 23 29 16 25 10 13 15 18 17 13 13 31 17 21 6 16 9 31 10 14 16 8 33 22 6 20 21 16 10 3 21 13 14 24 19 17 26 23 21 27 38 9 14 24 10 34 27 26 16 23 30 17 27 10 15 13 27 14 15 12 13 6 17 25 14 24 6 27 16 20 15 20 16 22 13 20 20 17 27 7 12 15 16 17 13 10 17 19 26 20 10 33 24 9 23 13 32 13 17 10 20 22 27 17 24 20 6 20 13 27 17 26 6 24 9 13 15 27 7 9 24 13 20 13 28 31 33 17 3 14 10 16 16 13 20 29 12 9 26 18 29 18 13 22 19 17 24 10 31 16 20 24 13 20 13 24 10 28 31 28 12 27 11 13 13 11 6 11 28 26 20 18 17 10 26 23 22 6 20 21 28 48 18 10 17 23 7 20 13 22 10 6 17 26 9 19 24 16 24 13 27 13 20 19 14 10 16 20 3 16 21 23 13 19 20 13 23 16 21 16 23 21 34 16 31 16 28 21 19 26 37 26 13 16 17 18 28 27 26 27 17 17 15 26 16 3 31 16 24 17 3 23 20 3 20 10 27 17 24 28 12 27 13 27 24 28 13 24 13 7 17 19 13 14 12 17 14 12 20 13 20 24 17 21 18 23 28 9 17 23 12 13 36 13 27 9 14 14 20 7 29 17 10 9 9 27 13 27 26 20 13 20 27 18 17 13 14 27 3 19 16 20 23 16 36 10 23 16 8 22 15 16 22 13 7 12 23 14 15 27 14 27 21 17 17 21 31 14 23 16 28 6 17 16 13 27 12 17 16 23 11 19 23 26 20 9 6 14 16 27 16 7 10 10 22 24 23 22 19 13 19 17 22 21 12 19 24 23 10 17 23 17 23 10 24 11 15 33 14 7 22 9 23 17 7 26 20 10 24 17 21 15 22 22 24 17 26 23 22 17 27 9 20 24 14 6 7 28 28 19 20 35 14 33 23 17 21 10 28 0 17 23 7 31 17 17 13 21 9 14 19 20 30 30 6 9 9 26 13 14 21 13 10 13 15 13 11 24 6</t>
+  </si>
+  <si>
+    <t>EXN(0.4694347362612251, 22.164140059925067, 4.059257530378401)</t>
+  </si>
+  <si>
+    <t>21 25 25 28 23 32 22 23 24 23 16 25 18 20 23 29 21 22 23 24 24 18 23 26 27 28 38 13 27 28 23 19 23 16 27 21 9 30 24 26 21 23 27 18 22 35 20 29 32 24 21 16 20 15 22 18 20 25 24 20 24 26 21 22 21 22 23 26 25 27 22 19 19 24 18 27 24 33 27 22 31 23 17 29 25 26 27 23 24 20 28 31 21 22 27 20 24 22 30 22 24 26 23 21 23 21 22 22 19 18 22 26 28 25 19 12 28 26 31 26 26 28 20 18 20 20 25 25 25 24 30 26 27 27 25 23 27 21 22 20 23 27 15 24 25 28 13 23 26 30 27 26 28 34 25 18 25 24 16 31 26 21 24 21 32 26 31 20 17 36 29 23 34 27 17 24 29 28 20 26 27 25 20 25 23 29 21 19 16 23 16 29 20 29 27 29 21 28 27 27 22 26 19 22 27 28 29 31 34 25 23 31 23 23 17 23 32 18 28 25 28 21 20 25 21 21 26 32 23 25 30 30 21 30 22 23 23 27 29 23 23 26 22 28 27 22 27 31 25 21 25 28 21 28 22 28 26 19 24 21 26 23 22 28 21 25 21 22 24 23 25 18 25 22 31 17 19 21 12 29 22 29 21 20 26 33 29 22 30 23 24 26 24 28 22 23 28 16 29 21 23 18 20 27 19 29 23 24 23 19 26 19 16 23 16 20 24 17 29 21 28 17 28 17 22 20 17 22 28 24 33 20 29 21 19 27 21 22 30 23 28 21 23 24 18 23 29 36 30 22 22 25 28 23 29 29 13 25 23 22 24 24 26 29 26 29 27 22 18 27 33 28 22 30 29 20 26 22 21 29 24 23 24 37 25 21 23 22 22 32 24 30 19 12 27 18 17 30 21 25 33 24 24 20 23 18 27 24 28 26 12 31 32 28 24 28 25 17 30 31 28 21 25 28 25 27 35 26 28 29 25 22 26 17 17 24 21 23 27 26 26 29 27 22 20 17 23 25 25 23 19 27 30 24 22 19 22 23 23 23 21 37 23 27 26 27 24 27 18 24 22 22 25 43 28 28 24 27 28 24 32 22 25 22 26 23 32 22 27 21 27 22 28 25 26 28 23 20 19 26 25 20 24 20 20 26 16 26 30 30 26 23 36 22 22 22 24 21 23 27 29 21 33 17 25 26 20 25 19 27 25 27 20 20 23 20 20 17 17 28 24 23 25 29 29 25 19 14 22 17 28 24 28 35 31 24 18 29 19 29 32 20 18 21 31 27 20 19 27 32 24 14 23 25 21 29 28 22 22 24 20 29 17 24 23 15 26 19 16 23 15 26 23 29 25 36 16 23 29 19 25 31 27 15 24 18 24 23 25 24 20 14 22 27 22 26 24 26 23 22 24 27 22 28 31 24 27 19 26 23 24 24 23 25 28 19 21 25 23 24 25 21 28 21 25 21 20 25 23 26 26 26 21 21 16 19 25 23 25 19 19 24 16 19 19 32 20 19 21 13 28 22 26 21 17 22 18 15 30 35 19 26 20 28 21 28 24 19 25 22 24 25 27 19 22 25 33 30 18 26 29 26 28 24 20 23 22 26 25 28 27 27 27 24 28 15 25 20 23 24 20 26 32 29 16 26 28 23 18 33 18 26 28 19 23 22 20 19 22 22 20 32 29 25 25 16 21 27 20 21 20 26 22 22 21 19 32 19 15 26 19 26 25 30 25 23 34 28 22 21 28 28 27 23 21 21 27 33 25 16 23 18 31 26 26 27 23 23 18 22 25 14 23 20 22 26 24 23 24 36 21 18 27 26 22 24 20 27 17 29 30 25 19 25 29 26 19 15 25 28 24 26 36 25 31 27 22 21 26 27 25 25 26 20 33 25 22 27 29 29 21 32 19 21 20 30 27 26 23 17 23 22 29 27 33 29 28 18 32 22 30 25 24 26 25 20 15 22 28 21 35 20 25 19 23 25 21 26 18 22 31 20 17 19 14 20 17 31 24 24 21 15 19 18 22 25 30 30 29 26 25 20 28 27 26 21 25 20 25 23 25 18 18 24 21 23 19 21 27 21 29 27 22 19 19 38 22 26 16 25 24 23 26 16 15 26 33 30 21 22 28 28 29 24 25 24 25 30 24 24 23 28 25 22 24 31 23 21 23 23 22 25 26 27 23 22 25 30 21 19 22 26 17 13 21 34 18 33 23 24 24 26 30 25 26 26 23 23 21 23 28 25 24 21 28 27 15 25 25 26 18 25 25 25 29 25 20 23 28 21 19 31 27 27 30 30 29 32 19 24 22 23 28 24 25 15 23 23 26 20 13 26 29 18 19 25 28 25 22 30 26 29 20 22 22 22 24 25 35 18 20 29 34 25 22 28 22 19 23 24 23 18 26 20 11 21 29 26 25 22 16 25 20 31 33 30 30 22 25 18 21 22 16 27 18 22 22 21 20 22 27 29 25 34 25 21 25 23 24 20 24 17 27 15 25 28 22 23 26 25 26 28 22 25 22 22 29 27 28 26 19 25 28 27 29 19 22 23 24 26 24 20 27 22 20 21 24 25 21 21 24 17 21 24 20 25 15 20 20 22 23 25 24 26 21 25 25 21 24 20 28 30 19 19 25 34 18 27 28 26 23 27 28 26 30 19 21 22 15 24 23 25 23 24 17 25 21 27 20 23 28 19 31 21 22 32 25 19 25 17 22 31 20 22 27 29 16 17 21 24 23 25 25 30 29 33 16 18 21 24 23 21 15 21 21 25 19 14 28 22 20 28 24 19 19 29 24 28 18 29 28 17 16 18 25 25 22 23 22 23 32 28 27 18 26 22 16 25 21 20 24 28 19 27 18 24 20 20 29 28 17 17 21 26 26 22 21 20 21 21 26 23 21 25 21 19 21 27 34 26 31 22 32 30 27 25 24 21 22 31 26 27 17 29 21 24 19 29 24 25 23 24 21 24 30 17 28 24 23 32 35 25 26 24 21 27 21 27 28 20 34 23 21 19 28 16 25 30 26 21 27 29 30 25 21 22 18 35 22 19 36 18 25 29 22 27 26 20 21 11 25 22 27 24 27 21 22 24 33 30 22 19 24 25 27 21 32 25 24 20 29 27 24 24 28 24 27 18 20 31 31 26 33 22 33 28 22 26 28 31 25 25 30 30 19 28 30 19 22 20 18 32 22 20 25 26 26 21 28 25 22 26 24 28 20 27 22 23 26 25 29 22 31 23 17 22 17 22 22 27 28 19 20 25 27 25 25 23 27 29 30 31 24 24 33 22 21 26 20 28 21 20 15 22 19 26 22 22 19 32 32 23 28 19 30 28 14 31 19 23 24 21 27 24 31 30 20 34 19 24 29 14 26 27 24 25 24 26 22 17 17 21 26 23 20 20 19 14 29 21 24 29 22 22 19 24 18 12 22 27 30 24 24 25 27 24 23 30 29 26 27 31 24 21 30 36 15 22 32 25 22 26 16 22 27 22 25 14 23 33 21 30 29 26 25 28 34 14 19 25 23 22 16 20 25 19 22 28 23 25 19 18 33 19 31 23 27 28 27 23 22 21 23 22 28 17 25 14 24 20 20 25 22 21 25 21 14 23 30 22 21 17 23 30 32 22 17 31 29 29 28 30 31 18 25 18 17 21 32 17 17 25 33 18 23 28 29 27 20 18 22 25 24 30 26 22 27 28 34 20 20 26 20 18 20 26 17 31 29 23 30 23 26 18 19 24 31 17 24 26 26 22 28 24 21 28 27 23 17 34 21 23 25 24 31 26 25 20 25 22 29 26 25 29 30 33 27 28 22 20 25 27 25 30 17 26 23 20 29 26 26 24 26 21 31 28 25 24 27 22 29 31 27 22 18 24 25 23 31 29 24 29 31 26 28 27 23 23 19 23 22 33 23 22 28 25 21 24 25 14 30 17 22 27 20 31 18 14 18 31 22 26 21 25 26 18 22 27 26 19 19 32 22 28 19 27 15 21 23 26 19 27 22 22 20 21 26 19 19 19 18 30 20 21 19 33 31 25 26 21 29 20 27 24 24 22 19 20 36 28 31 23 29 21 20 18 26 28 27 22 27 27 24 18 24 19 24 22 32 17 22 29 28 24 19 36 21 26 32 24 26 27 25 27 26 24 25 22 23 27 29 24 19 16 22 22 23 29 22 15 24 23 29 25 24 25 23 25 24 17 24 19 30 26 22 30 30 27 23 30 18 27 21 30 24 25 28 25 19 20 28 23 26 18 25 22 18 29 24 19 20 19 25 17 34 28 25 16 30 23 17 19 26 26 33 24 23 18 24 28 35 28 19 18 23 18 34 33 15 25 23 22 19 31 28 17 31 30 32 21 21 26 23 28 22 23 21 37 26 23 24 32 31 26 20 28 21 21 25 21 22 24 29 25 20 27 21 18 32 23 22 36 16 22 26 24 23 24 22 21 26 18 30 23 21 27 21 24 18 25 31 21 31 24 30 32 25 29 26 23 20 18 17 24 15 24 26 30 23 17 20 22 30 28 19 26 30 26 41 19 25 28 25 23 24 28 19 25 23 23 25 19 27 27 25 23 24 19 24 28 21 27 25 21 21 16 19 20 21 22 26 30 33 18 20 23 23 24 23 23 31 17 26 23 24 20 24 20 23 21 24 27 32 31 21 21 26 28 24 31 28 23 22 27 26 25 25 22 25 24 26 21 33 23 16 28 21 31 27 32 23 20 30 27 22 26 22 23 32 19 27 20 32 28 22 23 29 22 30 26 26 24 26 30 19 27 24 22 20 29 22 22 18 25 20 26 14 30 21 20 26 24 19 23 27 20 24 30 27 22 16 17 23 22 24 18 22 27 24 19 25 16 31 27 21 9 23 29 23 26 21 21 22 23 26 16 24 26 26 21 23 20 23 18 25 33 13 24 32 35 34 26 25 22 22 25 24 30 38 24 22 20 22 29 27 21 24 25 18 20 24 23 25 20 33 25 20 18 36 29 22 21 25 26 33 29 27 27 28 26 27 20 28 26 18 28 33 15 26 25 21 21 23 28 31 22 25 20 18 23 22 23 22 30 19 26 17 23 24 24 25 22 23 31 21 29 23 32 24 28 21 23 22 29 22 30 19 29 36 27 20 24 27 15 20 23 21 26 23 28 23 19 20 18 29 34 28 24 27 31 32 32 22 29 27 17 24 30 27 28 24 21 24 19 15 25 28 28 30 25 21 28 26 29 21 21 23 27 32 16 24 21 20 20 23 20 22 20 30 30 22 23 21 16 32 21 23 24 24 30 22 22 25 29 30 23 21 23 24 33 29 23 22 22 18 22 25 32 22 24 27 29 30 24 18 33 23 18 27 25 18 35 26 29 23 22 22 27 21 28 25 21 28 15 21 28 28 26 21 23 29 25 20 22 30 18 17 24 29 35 27 21 30 21 29 23 20 21 25 33 24 15 24 17 24 24 27 23 24 25 25 17 23 31 22 25 22 23 21 21 28 22 19 21 22 34 23 22 27 20 24 30 27 21 30 28 16 27 30 18 29 20 28 17 23 21 24 30 23 15 32 22 28 19 27 16 23 32 23 25 31 25 17 24 31 21 24 30 30 27 25 19 31 28 27 27 24 22 25 24 27 18 20 24 27 22 27 23 23 19 26 24 22 24 25 26 23 17 22 25 27 21 25 29 23 19 20 31 30 31 24 24 27 33 33 22 18 16 24 30 21 22 28 28 18 22 25 18 25 29 28 23 24 24 24 24 26 24 22 27 22 31 23 25 28 33 30 23 20 25 23 23 20 21 24 26 20 22 19 23 24 32 22 23 28 25 30 25 26 25 29 21 23 23 32 23 26 23 26 23 28 20 26 14 19 19 27 23 17 21 27 24 24 23 27 25 22 28 24 23 16 24 17 23 16 17 21 27 17 29 20 19 22 23 30 19 22 20 23 26 29 27 25 25 32 27 23 37 23 22 26 27 29 25 22 18 20 27 19 19 27 13 26 22 28 20 16 27 12 22 17 24 19 24 30 16 24 30 19 28 21 21 22 28 30 26 21 23 22 28 26 30 26 35 30 24 20 18 23 22 24 30 23 28 28 20 27 27 28 26 25 31 21 21 28 22 26 29 19 26 22 27 26 26 23 17 26 27 24 26 20 23 26 24 30 24 28 17 31 26 23 26 24 21 25 25 21 29 18 24 25 23 22 19 35 30 19 20 26 27 23 23 28 19 26 24 27 22 31 20 22 27 23 23 28 24 20 22 18 26 23 25 28 28 30 27 25 27 27 17 20 21 28 25 19 32 26 30 22 25 17 18 30 22 22 26 21 23 23 23 17 21 22 22 25 27 24 20 18 30 21 22 24 17 23 26 23 17 22 18 24 20 21 23 27 24 14 32 27 17 24 24 24 31 20 20 18 22 29 24 25 16 29 20 26 22 22 26 22 27 25 21 27 15 38 28 28 28 23 26 23 22 26 27 30 28 25 30 30 24 27 16 21 22 32 20 25 24 16 26 25 20 26 28 17 21 20 25 23 22 26 18 27 31 19 25 22 27 23 22 19 25 31 26 24 21 25 26 14 23 23 20 21 26 23 23 19 30 18 27 22 25 23 25 29 21 25 25 29 24 15 29 25 27 21 23 24 20 24 23 26 26 31 23 27 26 24 19 26 26 18 17 20 25 21 23 23 21 34 23 20 24 19 23 24 31 33 17 22 25 27 12 23 31 24 27 33 27 26 24 19 20 17 21 20 16 24 21 25 19 23 17 24 24 21 32 29 27 32 31 27 24 22 25 20 26 21 26 27 15 18 29 23 12 25 28 26 21 24 27 24 22 24 24 18 28 21 29 23 18 18 24 18 24 18 23 31 24 19 26 22 20 25 31 23 29 29 20 23 17 21 31 24 27 18 24 32 29 24 21 20 28 20 22 21 18 23 25 19 19 23 28 22 22 23 21 18 28 24 24 26 31 28 22 23 17 25 28 29 26 23 25 24 25 21 29 19 34 29 24 24 34 25 23 21 25 26 21 24 24 20 21 27 25 22 21 24 24 29 24 25 25 28 27 22 20 32 30 30 16 36 31 21 29 17 25 20 23 15 29 20 21 30 23 30 24 20 19 20 23 23 23 25 26 19 24 29 20 24 20 23 22 27 27 25 32 25 25 26 26 18 27 21 27 27 21 22 27 27 19 23 23 26 22 18 24 23 26 24 23 33 22 28 24 23 26 16 26 37 20 24 26 28 18 23 24 26 28 36 20 20 18 31 29 21 18 24 20 21 26 25 25 22 21 26 27 20 26 23 22 23 19 22 25 30 20 18 39 27 22 23 26 17 26 26 22 35 25 19 26 30 21 28 20 22 20 21 21 26 26 23 21 24 27 21 29 22 28 21 20 25 27 22 28 23 23 22 26 23 25 29 30 21 26 27 29 32 20 28 23 17 28 23 35 26 24 19 13 20 17 21 23 24 29 31 23 17 24 19 21 26 20 26 23 28 22 30 23 24 26 24 19 17 23 21 18 27 24 28 34 23 37 32 24 21 21 26 24 26 28 22 23 25 18 29 28 26 17 19 30 24 23 22 25 25 16 20 23 20 27 22 24 25 24 17 26 22 29 24 24 20 22 27 28 25 27 28 24 32 22 22 35 25 19 22 25 25 26 26 30 22 24 21 25 26 24 23 15 17 28 24 25 20 23 29 25 16 24 19 19 23 27 25 28 22 22 23 19 24 22 17 32 15 21 29 16 26 20 29 26 25 23 24 21 22 18 26 24 28 30 25 26 23 23 23 16 24 33 26 20 20 21 28 23 24 25 20 28 16 24 18 22 26 28 25 24 19 22 29 13 25 23 26 29 23 25 19 23 23 21 26 21 20 19 28 27 21 23 28 29 22 19 22 27 18 25 21 22 26 26 23 25 19 21 26 24 24 28 24 25 26 28 21 19 21 22 31 29 27 26 27 23 21 16 29 24 20 24 24 24 19 20 21 28 31 21 16 27 35 17 27 29 15 25 28 23 22 25 20 19 25 28 26 22 25 21 19 21 19 21 28 22 28 26 22 30 32 24 23 18 20 19 22 28 29 21 25 27 26 32 20 27 23 24 15 37 23 21 31 18 18 26 32 21 24 25 29 36 23 16 32 22 16 19 25 25 13 31 26 26 18 26 15 20 35 21 27 24 19 22 31 23 30 20 24 24 23 21 20 23 26 22 29 31 24 23 15 24 26 30 16 24 21 17 24 15 27 28 21 23 20 15 22 23 23 23 22 23 24 17 22 22 32 25 18 25 24 29 20 27 33 26 25 28 26 22 21 17 30 13 25 28 28 27 28 20 19 23 26 21 20 29 18 19 29 23 21 21 33 27 24 25 26 19 24 28 32 24 23 24 32 23 27 24 27 18 18 26 21 16 26 20 26 23 20 28 30 25 20 22 19 30 29 26 30 18 25 17 29 21 30 24 26 18 24 32 26 25 27 17 21 22 28 31 20 22 25 27 30 25 24 23 22 16 20 19 18 24 21 21 17 26 29 28 23 26 23 24 25 20 26 18 18 31 25 21 21 22 23 17 17 28 22 21 18 14 21 20 27 29 27 30 26 23 17 17 29 23 25 26 22 26 27 22 24 22 18 21 28 19 27 28 24 22 26 24 27 22 22 25 22 26 21 27 19 20 21 26 29 20 21 18 28 25 26 37 26 20 21 23 21 30 26 31 31 29 30 14 21 27 27 21 28 32 21 19 22 18 25 28 30 27 17 22 20 25 26 31 27 18 22 20 15 24 27 23 27 32 19 25 22 28 30 26 28 18 18 27 25 27 26 22 25 26 22 20 22 24 23 21 21 24 25 10 24 23 20 18 20 27 35 24 24 35 22 32 23 30 21 31 19 21 32 27 29 18 23 29 23 15 23 22 23 27 19 27 19 24 23 29 23 22 28 33 21 24 12 19 24 17 22 30 21 20 21 25 23 14 27 26 19 25 21 22 26 18 27 26 21 25 19 27 33 30 27 29 25 21 19 26 22 19 17 22 20 26 24 31 23 24 27 19 16 22 32 25 25 21 28 31 19 20 28 20 20 21 20 22 21 22 15 25 20 29 30 21 23 24 32 23 23 25 26 17 21 31 16 29 23 22 30 19 26 24 24 16 19 26 23 22 22 26 21 31 22 21 26 18 31 30 30 28 24 27 21 31 30 21 33 24 14 31 20 17 27 21 19 23 13 22 29 22 23 24 30 22 25 18 32 25 30 19 26 18 30 19 20 30 23 24 23 30 19 20 22 17 31 27 23 25 24 26 20 23 21 19 27 31 31 21 23 29 21 19 25 13 27 28 32 22 22 9 30 27 20 20 27 22 17 23 28 24 33 36 24 22 27 21 20 19 25 24 29 24 23 27 21 15 25 25 31 23 24 29 20 21 23 23 27 30 26 21 19 19 24 18 23 34 32 24 22 27 21 16 29 25 28 23 24 21 31 22 34 27 29 26 28 26 20 21 19 29 29 19 29 30 27 26 25 25 25 20 23 28 23 24 20 33 20 26 26 27 21 22 28 17 27 18 21 22 28 23 26 23 31 21 20 22 23 33 26 25 27 25 23 21 24 25 26 27 25 28 28 18 18 22 21 22 25 21 31 25 25 22 27 18 22 26 22 25 22 22 18 24 26 31 25 33 16 30 32 25 22 25 24 23 39 19 30 24 24 22 34 28 23 22 26 21 22 30 34 27 17 30 25 22 17 21 18 32 26 27 19 21 20 22 24 20 28 23 29 24 24 22 25 28 26 22 31 23 15 28 19 22 24 25 30 27 19 29 21 24 21 24 31 22 25 26 19 25 28 28 23 28 23 27 29 30 29 23 25 24 17 22 26 23 29 25 26 29 26 23 17 16 21 24 30 18 29 26 25 22 20 14 31 20 26 25 30 31 21 35 33 18 17 26 12 30 32 26 20 25 21 25 20 18 24 19 37 22 23 35 25 22 21 18 25 29 22 26 19 24 30 26 19 20 25 18 27 30 25 19 28 23 25 27 23 20 34 20 25 29 30 19 16 25 29 22 26 19 20 20 21 22 23 29 24 28 19 23 24 23 30 25 24 23 33 29 29 28 23 22 31 26 28 24 31 30 20 32 18 28 33 24 25 15 28 22 23 11 19 24 23 19 15 27 23 25 21 28 15 33 20 23 26 24 21 25 28 25 30 24 29 23 24 24 31 23 25 24 22 21 24 24 25 24 28 22 23 18 22 22 20 21 22 26 24 22 15 19 22 21 18 20 28 34 25 22 30 26 24 20 24 16 18 23 14 21 28 22 18 25 21 25 23 27 37 27 30 22 13 20 26 23 28 30 28 30 24 19 32 28 18 15 18 32 15 25 19 28 28 37 34 21 26 20 27 19 26 17 27 24 24 19 22 17 22 32 16 27 32 22 25 25 29 22 25 23 25 27 22 30 30 22 24 28 26 31 23 26 24 22 23 16 24 21 28 24 24 31 25 19 20 26 25 27 25 18 18 22 31 15 28 19 24 28 26 23 26 20 22 27 31 29 24 30 18 20 20 19 25 26 26 22 23 25 19 25 23 18 26 21 27 35 27 17 25 25 25 19 23 31 17 16 24 20 33 24 15 18 16 26 24 22 23 25 24 16 23 17 27 20 26 24 19 28 22 37 18 28 26 22 27 30 26 21 21 25 27 21 25 19 28 22 21 23 25 33 21 18 29 22 29 16 34 23 16 27 34 31 25 24 22 33 22 26 29 31 19 17 32 32 23 24 28 21 13 19 24 34 22 24 22 23 20 15 22 29 24 31 16 22 18 28 12 25 17 21 27 29 19 23 26 26 23 28 21 20 25 20 34 20 18 23 27 27 28 30 21 26 24 23 18 26 24 18 27 27 26 21 30 19 32 24 25 21 17 19 21 28 19 30 23 29 19 27 23 29 26 26 16 21 23 24 20 16 28 21 23 28 24 24 20 29 21 27 27 21 22 24 23 15 25 14 28 18 22 24 27 29 29 24 26 18 24 25 23 23 31 30 33 22 28 22 21 28 26 24 27 28 25 17 28 28 25 19 21 19 19 30 29 22 31 29 21 20 18 21 19 31 27 20 25 24 17 24 20 32 22 23 22 17 28 19 22 22 23 29 19 24 12 30 23 26 27 23 25 25 18 21 20 27 25 25 30 33 29 14 27 20 32 27 26 25 29 28 22 31 28 30 27 15 20 16 24 22 23 20 25 22 27 25 19 21 22 27 22 25 26 21 19 24 19 26 28 32 24 19 19 20 20 20 15 30 24 19 26 26 23 23 21 23 23 21 24 23 30 23 27 24 25 28 23 29 22 23 24 21 29 22 30 19 32 21 25 33 21 23 29 25 16 24 25 24 28 24 27 27 15 22 29 26 30 21 26 21 16 23 26 28 25 27 19 24 26 19 23 17 19 24 25 24 30 24 25 24 31 20 30 30 28 23 27 31 25 22 28 27 23 24 16 26 32 24 23 34 25 20 21 27 21 20 22 28 20 20 19 25 34 31 20 28 24 32 18 21 24 30 31 26 28 15 19 22 25 27 27 13 31 20 27 22 27 24 26 26 23 35 20 23 20 22 27 19 28 22 17 24 20 24 19 25 17 24 30 23 21 21 28 22 22 24 26 21 21 30 21 22 21 29 25 33 27 28 28 22 20 27 19 24 24 15 23 34 29 14 26 35 19 19 25 21 25 17 27 18 29 29 23 20 19 23 27 22 23 18 31 26 22 28 22 24 25 28 26 18 24 24 27 22 21 26 21 17 24 26 23 16 27 23 25 26 22 23 25 26 17 21 35 30 31 24 19 29 31 17 26 16 19 23 19 27 27 28 22 27 28 17 29 36 26 22 20 19 23 30 21 36 30 22 27 17 28 19 26 27 24 24 21 24 25 26 28 23 24 23 26 26 23 22 23 22 28 23 22 18 19 29 25 25 27 26 18 31 24 25 20 22 20 29 19 26 26 21 20 25 26 24 24 27 24 26 16 33 25 25 20 28 22 21 28 25 30 24 20 25 24 16 24 21 23 24 24 25 22 28 22 24 37 27 22 24 31 25 15 25 23 27 29 26 19 23 23 26 37 29 24 32 30 21 30 23 30 30 18 34 21 23 20 26 23 27 26 28 26 23 40 25 20 27 24 28 21 22 24 28 23 29 17 21 26 23 23 26 32 24 25 23 22 25 22 31 20 25 36 25 23 30 28 28 27 30 25 29 30 26 27 24 26 24 24 29 23 25 29 31 21 25 23 29 28 28 26 29 22 31 22 28 17 30 31 21 25 24 19 22 26 24 18 22 19 24 26 25 17 28 28 27 33 24 24 18 28 20 26 20 26 23 30 27 22 37 18 16 29 20 31 34 28 25 21 22 24 16 39 25 16 26 25 20 27 24 25 21 24 25 29 19 16 24 20 27 25 28 21 22 25 25 23 24 34 19 20 21 27 22 23 22 23 29 31 27 21 22 24 23 23 22 26 22 22 26 34 20 26 26 21 19 27 15 28 31 20 40 28 23 22 29 23 18 32 28 27 30 19 29 20 29 21 18 25 22 22 27 25 22 29 34 21 27 29 27 25 20 24 29 19 24 16 27 22 22 21 19 28 22 23 22 21 21 25 17 15 23 27 27 30 29 19 27 20 30 24 20 19 15 10 25 23 24 22 25 27 28 20 28 23 36 16 24 27 33 21 32 25 25 19 28 17 18 21 19 24 23 26 17 18 17 22 33 13 18 22 33 26 22 18 21 26 24 18 26 25 31 18 25 24 29 19 25 21 29 20 28 24 25 22 20 26 25 31 26 19 25 23 29 22 27 24 17 24 22 19 26 28 29 31 28 29 20 21 23 25 27 33 23 27 20 28 25 24 23 31 17 31 23 24 19 24 26 22 21 29 28 12 24 20 27 20 28 26 31 21 24 30 22 27 30 20 27 22 27 39 25 28 25 22 26 26 23 28 31 21 28 28 31 10 18 22 26 24 26 15 23 18 21 23 20 17 22 30 28 30 22 25 25 19 24 30 22 24 23 17 21 33 19 16 17 24 28 24 23 25 29 13 25 27 21 26 22 30 20 29 30 30 24 26 25 28 27 11 24 32 30 20 24 26 19 18 20 21 22 24 29 18 32 22 21 21 28 18 40 28 28 20 19 32 25 26 24 21 21 30 24 23 27 24 21 26 31 24 23 27 27 31 26 19 23 22 26 26 25 20 25 27 26 23 23 23 28 22 28 35 35 33 20 24 27 20 23 30 19 23 28 13 28 25 30 22 30 19 29 27 17 25 18 19 23 27 25 24 17 23 21 20 36 24 18 24 27 21 24 19 26 24 24 30 23 22 29 29 22 24 25 22 24 20 32 24 23 29 24 18 20 22 29 19 15 18 29 20 27 30 20 29 24 21 24 28 23 31 21 18 25 18 24 24 21 30 24 25 24 23 24 33 30 25 22 22 25 22 23 25 28 18 30 29 34 18 17 21 23 32 26 21 21 14 26 22 29 22 21 33 26 21 27 21 14 25 28 25 26 22 24 22 16 21 25 27 24 29 19 21 23 26 27 26 28 20 17 20 25 22 25 27 28 26 29 19 19 20 23 27 27 21 30 23 25 22 23 18 21 25 29 22 17 30 20 13 31 28 25 21 30 21 34 29 25 21 24 19 27 27 33 28 19 25 30 34 24 25 23 28 28 37 27 15 28 18 23 23 20 30 24 25 24 17 42 26 27 22 32 22 26 23 31 21 26 21 23 20 17 29 30 29 19 24 24 23 13 21 22 21 29 25 20 17 21 18 13 25 22 26 27 26 29 22 26 23 23 24 22 27 18 28 26 27 20 31 22 28 28 30 28 26 26 20 28 23 22 30 25 19 22 29 32 21 25 25 22 32 33 17 29 28 25 28 28 28 18 22 22 29 17 19 33 25 20 27 22 19 27 25 19 27 27 30 25 25 29 21 26 26 22 35 19 19 29 19 25 24 29 27 27 19 19 23 18 26 29 15 26 20 21 22 18 22 22 21 17 20 25 24 26 23 18 24 25 29 27 15 21 26 21 21 32 26 24 25 24 17 30 28 29 28 28 29 23 25 25 29 25 28 23 23 25 24 23 16 28 28 29 23 23 22 27 24 15 26 26 26 21 25 33 26 19 16 25 32 32 26 25 22 17 24 26 26 22 30 22 27 21 24 18 26 17 21 19 28 23 14 21 26 21 24 25 22 29 28 22 30 19 25 17 23 23 28 29 21 27 19 23 29 16 23 23 25 22 21 28 26 17 29 22 21 23 20 20 32 18 38 24 27 23 21 29 26 22 24 27 22 22 18 22 23 19 18 31 25 23 22 23 37 29 20 32 20 19 22 24 22 15 28 25 21 28 31 18 18 25 22 21 24 30 27 19 26 25 25 20 20 27 24 28 18 29 22 25 21 26 25 23 18 19 24 18 23 22 19 19 24 20 34 29 25 24 21 20 37 24 20 26 20 29 21 25 29 24 21 30 31 24 28 18 25 27 19 28 25 25 24 23 20 22 23 23 22 20 14 20 30 19 26 19 17 27 27 26 31 30 29 22 22 24 22 26 26 25 26 34 22 28 28 26 17 22 20 25 30 27 25 22 18 22 28 17 19 18 23 26 25 25 30 19 23 29 26 23 22 31 22 25 20 32 21 18 24 21 29 35 18 20 30 28 20 23 21 32 24 28 27 18 31 22 24 35 24 26 20 28 29 23 24 24 24 19 31 22 19 22 30 25 24 35 17 25 23 27 21 32 21 22 24 28 19 16 24 30 27 26 24 31 19 18 18 23 25 21 20 31 9 26 25 27 25 33 25 24 29 22 23 25 24 22 33 29 17 23 28 22 34 25 20 18 23 35 15 22 25 27 21 20 18 17 28 25 24 20 22 18 20 22 28 28 29 16 21 26 20 29 16 26 23 23 24 25 25 22 20 18 27 26 29 29 30 26 19 32 24 21 31 29 22 16 18 20 34 23 32 23 22 30 22 26 27 27 32 20 26 29 28 27 26 27 21 23 28 16 21 28 22 22 25 21 32 23 18 24 16 19 22 31 21 22 18 21 27 20 29 17 22 28 27 27 26 23 30 33 21 20 20 29 20 39 23 20 17 35 25 16 28 28 23 30 29 23 24 24 31 22 26 27 25 26 20 15 11 29 23 25 33 27 20 25 23 27 28 26 31 22 25 18 20 25 24 26 22 24 25 35 34 24 24 23 29 33 22 27 31 30 20 30 23 27 18 23 25 32 25 16 22 24 21 29 27 21 24 24 21 25 31 22 20 21 30 30 25 19 25 23 22 24 16 22 21 23 28 30 21 26 23 21 23 21 30 25 28 30 23 30 20 26 29 20 20 18 28 24 24 25 27 28 14 18 14 26 24 26 29 22 25 24 24 27 30 27 25 24 29 28 27 37 23 30 22 30 20 20 20 25 21 24 18 22 25 27 22 25 26 23 29 27 24 19 28 22 18 15 24 28 26 30 24 31 23 22 28 30 25 22 31 30 24 31 21 25 25 24 33 31 21 27 23 30 28 22 28 28 23 15 19 26 27 24 21 11 23 26 26 17 17 29 24 26 26 20 20 30 28 24 20 25 23 34 26 25 17 26 21 23 25 25 13 24 19 24 20 21 24 25 27 23 21 20 25 20 29 22 23 22 25 20 33 20 23 27 23 25 19 21 22 26 19 19 18 17 26 26 21 30 20 26 18 28 24 26 31 27 26 31 20 22 25 17 24 20 16 23 24 24 33 29 34 23 31 36 25 22 22 21 29 18 35 29 25 15 24 29 20 24 27 28 22 19 28 19 18 19 30 26 16 24 22 24 32 22 24 30 17 24 24 18 33 27 24 26 27 17 15 18 24 25 18 22 22 23 26 24 18 31 26 23 23 28 18 25 26 24 19 27 25 19 22 23 23 25 26 26 24 27 20 29 23 26 16 26 22 25 29 25 20 21 24 24 21 20 24 29 20 21 20 22 31 28 21 25 24 32 23 29 23 24 34 23 19 30 23 22 26 31 19 26 27 22 22 24 15 24 25 20 28 23 18 30 26 30 26 23 27 28 30 16 25 21 25 26 23 21 32 22 27 24 24 16 17 24 20 18 23 21 23 24 30 25 20 16 25 24 29 31 23 30 27 23 22 23 26 20 17 24 17 22 23 25 29 27 18 22 27 25 24 15 20 11 17 15 30 22 28 25 31 27 28 23 20 29 26 31 13 21 25 20 24 26 31 22 26 20 35 33 17 22 20 24 26 15 28 16 29 21 13 29 24 24 28 17 23 26 27 23 22 24 19 27 16 17 25 21 20 29 17 19 26 32 17 22 26 22 18 26 19 28 27 25 19 29 20 23 21 22 25 23 27 28 19 22 22 35 19 31 25 23 25 22 34 21 16 28 24 24 23 25 13 19 29 26 24 18 23 26 19 26 16 24 20 25 24 22 22 29 18 28 25 26 22 16 24 23 22 18 25 25 23 17 20 26 19 18 25 26 26 24 24 20 30 18 24 24 18 26 26 24 35 27 26 18 22 23 23 33 20 21 34 24 23 26 30 27 31 27 23 28 27 25 23 23 20 23 23 25 22 24 29 20 15 27 23 22 23 17 25 32 19 16 15 24 20 22 23 35 31 23 19 30 20 29 18 24 21 21 21 23 16 27 22 23 17 28 22 25 26 28 27 21 21 27 20 27 19 27 17 25 18 26 24 21 28 24 24 24 26 28 17 28 27 26 22 25 24 14 20 19 27 23 24 24 31 25 34 18 23 25 17 28 19 19 23 20 21 34 26 30 24 23 19 37 18 32 28 21 28 27 22 25 23 20 21 20 26 30 33 21 30 20 20 22 24 26 27 27 22 23 21 20 21 21 32 31 25 27 21 27 28 24 23 23 23 20 24 24 17 20 19 16 14 27 20 18 29 20 28 28 32 29 17 15 23 21 19 24 29 38 24 23 30 25 32 26 22 28 16 17 26 22 27 19 19 22 25 18 23 28 27 22 23 23 20 33 26 24 21 25 22 29 18 22 17 33 26 22 24 15 21 24 21 23 18 23 22 25 27 26 31 21 26 25 26 24 24 28 26 30 21 19 27 30 25 24 25 17 31 16 19 15 28 14 23 35 22 19 27 21 26 27 12 22 35 25 25 27 24 19 32 24 28 13 25 24 26 20 24 25 25 24 29 26 29 24 12 22 23 24 23 16 28 18 18 32 21 30 24 21 21 22 16 26 27 24 27 23 30 27 14 31 26 22 25 31 25 20 30 28 26 26 28 26 20 23 20 23 25 25 24 19 29 20 19 32 24 36 18 21 19 31 30 13 31 19 17 29 32 20 22 23 18 22 25 19 27 26 24 29 28 28 23 23 26 26 28 27 29 28 26 30 17 26 28 28 28 22 35 28 22 14 24 24 27 17 25 23 19 29 34 18 34 21 23 23 20 28 20 23 19 20 22 25 28 22 24 24 25 28 27 25 25 24 27 25 25 31 31 23 17 16 22 21 24 18 23 29 28 24 18 12 23 20 29 17 24 34 26 22 22 21 24 18 35 26 29 30 19 29 15 28 24 25 26 26 30 19 37 26 21 26 28 24 21 21 23 17 25 22 26 29 37 24 16 31 19 33 28 21 23 30 23 27 26 27 20 19 24 30 22 28 29 29 28 21 31 18 25 35 23 26 23 16 24 26 18 29 20 22 24 29 20 27 31 20 27 27 21 24 27 22 21 37 26 20 15 23 20 27 19 20 23 21 28 27 19 27 19 25 30 24 31 28 20 26 23 25 25 18 23 18 27 26 24 33 23 18 26 21 13 21 26 27 27 24 31 28 20 33 24 30 21 24 30 22 24 22 25 31 43 23 18 30 32 26 19 30 30 30 22 20 20 20 22 29 28 23 15 22 23 19 30 24 25 32 26 23 30 21 17 16 24 23 25 35 26 18 23 23 23 26 28 19 23 20 24 25 19 23 19 25 28 21 21 14 25 19 26 18 24 24 21 23 25 23 26 34 20 25 25 25 20 24 20 17 28 22 30 22 22 22 24 19 20 22 25 26 21 28 25 26 23 25 23 27 22 23 30 31 28 23 22 29 22 24 25 20 26 25 24 31 26 20 27 22 16 21 28 23 26 21 25 24 22 26 28 17 26 21 26 27 24 21 30 32 25 21 16 16 22 24 31 19 30 26 28 25 30 26 27 28 26 27 23 30 25 24 22 24 26 31 24 23 17 19 22 37 22 23 30 26 22 19 26 18 21 19 21 29 24 27 22 26 26 18 24 22 27 30 17 17 21 15 25 24 28 28 18 22 19 20 31 24 21 19 22 18 25 24 24 23 29 24 22 21 21 22 23 25 25 17 17 23 23 32 21 25 20 28 30 29 20 25 21 26 15 28 14 19 34 17 21 18 23 25 20 27 23 24 13 33 29 22 28 24 16 25 23 24 14 26 12 29 20 34 24 33 25 28 23 22 21 31 24 15 23 26 28 23 32 30 22 29 25 16 26 21 28 24 25 28 35 24 20 20 24 22 32 30 21 30 20 27 30 20 23 15 25 22 31 26 26 17 29 23 24 26 27 29 21 18 29 26 24 21 28 27 27 27 26 25 16 17 23 23 24 27 23 30 30 22 34 24 19 18 21 26 27 23 24 18 18 17 15 19 18 24 23 30 24 27 23 27 30 28 34 29 22 17 32 23 31 25 32 21 26 22 21 28 18 21 24 33 28 30 20 22 21 25 28 29 24 32 26 22 30 25 25 22 23 29 26 19 29 15 19 27 26 23 35 23 16 24 22 25 27 22 26 27 23 26 29 20 21 33 23 26 24 24 25 26 25 22 26 21 32 28 30 27 29 22 21 19 19 26 31 20 22 21 17 16 22 20 34 27 16 32 22 16 27 19 20 23 29 20 25 19 19 26 23 26 25 18 26 16 22 25 17 20 24 25 24 22 23 23 25 24 26 24 24 23 25 26 21 22 24 17 22 29 23 18 19 28 21 22 26 26 27 25 21 19 24 23 25 30 21 24 22 16 26 34 29 22 20 24 24 21 21 19 24 34 26 29 23 34 21 26 22 27 35 28 19 19 21 31 20 24 23 23 31 25 21 30 23 26 22 23 27 21 28 25 18 21 25 27 22 24 32 24 27 17 22 27 34 20 23 31 20 25 20 24 25 19 32 26 12 28 23 27 25 24 25 21 24 22 33 28 15 21 19 26 20 23 26 24 27 21 19 14 25 19 29 21 20 17 19 20 23 26 20 31 23 26 25 19 26 21 29 20 33 34 23 33 33 26 23 19 36 33 18 28 24 23 39 17 28 22 17 18 21 26 20 21 24 29 26 28 27 20 25 30 19 24 23 30 22 24 26 17 31 29 27 25 25 23 23 27 20 26 21 26 23 24 23 14 19 27 26 29 27 23 20 22 32 27 25 17 26 27 26 25 19 15 24 26 19 17 25 19 24 18 23 21 23 20 31 27 20 26 35 29 26 23 27 25 25 22 19 21 19 25 23 18 19 34 26 23 24 24 24 22 21 29 30 28 24 29 30 30 27 24 28 22 20 34 25 24 22 29 18 29 20 24 21 21 25 13 20 15 16 26 26 19 21 26 23 26 25 29 30 26 30 20 29 17 23 21 23 22 29 26 28 31 31 14 30 22 25 22 29 21 19 27 23 21 22 21 20 25 20 38 25 24 27 22 28 27 32 31 26 32 23 34 34 21 26 27 24 28 27 25 23 25 30 27 27 21 24 21 20 20 32 35 22 25 23 24 24 29 23 18 27 21 22 24 24 19 28 15 17 23 26 20 28 32 25 22 20 26 21 27 23 27 19 26 21 26 14 29 21 25 24 24 23 28 22 32 24 19 28 22 30 19 33 23 17 23 24 21 25 24 25 19 21 24 27 23 21 23 32 21 22 17 13 28 19 18 21 20 24 26 35 24 28 22 23 33 26 21 30 19 25 25 26 19 31 29 15 26 16 19 29 18 22 25 27 24 18 26 25 30 27 29 22 32 28 24 21 20 30 22 22 25 27 28 24 29 18 22 25 24 24 17 28 25 32 25 19 23 17 29 21 18 19 24 15 23 25 19 24 30 27 21 18 21 21 23 25 27 24 32 20 17 26 26 15 29 25 17 37 24 29 35 20 25 16 26 35 21 20 24 15 25 28 18 20 20 25 34 31 30 22 21 39 22 20 15 25 23 27 23 23 26 25 22 25 27 21 22 31 29 21 29 27 20 19 32 19 24 19 32 25 19 30 29 31 28 30 28 28 34 18 22 25 19 20 18 24 27 22 31 23 22 20 28 19 22 16 21 30 26 24 20 31 23 23 21 33 27 31 28 19 34 22 19 25 36 20 26 33 27 28 16 23 23 26 17 23 28 27 24 25 17 25 24 30 27 26 27 25 22 26 21 25 21 15 25 30 25 26 25 25 28 20 20 28 22 27 29 22 25 23 32 31 27 22 17 31 24 29 26 23 23 25 24 24 24 31 29 16 25 21 19 28 28 22 30 34 29 24 31 19 18 25 27 18 28 18 23 25 19 28 21 24 28 27 24 29 30 21 30 24 21 26 22 36 20 20 24 25 19 22 28 33 28 22 16 21 23 27 28 27 18 26 32 25 18 17 25 28 18 26 18 24 26 29 28 18 24 21 26 35 23 24 23 23 29 23 12 28 22 23 29 20 30 22 16 31 18 26 19 33 17 29 27 23 27 21 22 18 30 24 22 24 23 31 27 21 16 22 36 25 22 25 29 18 28 22 22 23 22 20 22 17 28 25 21 24 17 26 18 27 18 25 35 16 28 25 28 19 21 21 27 19 19 19 33 26 31 25 22 21 25 27 25 21 20 28 21 24 21 26 25 24 22 22 23 25 23 29 22 29 22 16 15 26 29 18 25 22 27 24 17 21 31 24 28 22 21 18 26 27 22 26 27 26 28 35 22 26 31 22 17 17 30 27 24 32 30 21 21 23 25 20 19 32 31 24 27 20 19 26 26 26 25 22 37 19 31 25 19 21 28 26 22 22 20 22 26 24 26 29 28 30 27 23 31 26 16 24 18 18 18 31 20 26 22 30 19 28 15 24 21 24 26 21 20 30 24 23 23 26 19 23 25 27 24 22 23 17 27 26 26 21 24 24 23 20 16 29 24 24 32 29 31 23 17 20 25 20 27 27 25 29 29 21 29 21 27 30 20 16 23 23 20 29 26 19 31 22 24 22 25 23 29 20 20 25 19 23 29 39 13 19 25 23 20 29 27 25 22 23 24 24 20 34 22 17 28 24 29 24 24 22 30 20 31 27 24 19 22 25 24 25 25 22 21 23 28 20 27 21 28 23 21 25 26 20 29 25 14 26 25 26 26 23 27 21 21 23 25 26 26 30 27 15 21 23 21 25 23 27 22 19 26 27 22 24 29 33 17 25 27 26 27 25 27 21 17 27 18 27 25 24 27 26 28 23 22 20 29 23 21 23 22 25 24 21 18 22 24 20 27 14 27 21 29 14 27 27 22 20 25 17 21 27 25 39 22 29 25 25 13 29 20 30 17 20 29 29 25 20 29 21 19 27 18 23 35 22 29 14 24 25 24 25 20 20 25 23 23 24 25 26 25 22 26 18 31 26 23 24 19 24 19 18 22 24 22 14 26 24 22 23 24 24 16 20 25 27 24 28 24 26 27 25 26 24 22 31 21 25 20 25 26 23 22 27 24 27 21 23 32 22 23 25 26 22 26 29 21 23 23 22 22 26 20 25 27 21 13 18 21 28 18 26 30 32 27 18 31 23 25 23 25 23 19 23 30 34 21 24 22 21 23 22 32 32 22 25 19 22 24 23 28 15 21 27 19 19 23 16 29 26 19 25 34 30 22 26 21 30 20 29 27 26 21 23 25 30 21 19 30 23 31 23 20 23 32 30 26 19 32 21 26 26 21 17 24 20 30 29 27 22 27 27 30 14 27 31 16 28 27 19 23 32 24 16 24 26 29 20 23 22 19 22 30 26 33 19 25 22 30 26 29 21 20 28 22 20 24 26 20 20 22 34 23 25 25 25 27 29 26 14 23 24 17 23 19 27 27 19 23 20 20 27 26 25 25 23 23 24 22 22 24 30 17 27 18 24 23 28 18 25 19 28 21 25 20 25 21 27 30 26 22 27 26 31 24 22 26 23 22 15 23 20 23 26 30 26 26 20 27 36 20 25 25 25 20 32 24 27 27 31 21 27 26 17 20 29 28 21 24 27 22 31 12 27 24 26 26 19 11 36 25 18 19 24 30 27 25 24 21 19 22 19 34 29 25 25 18 27 22 27 20 28 21 28 30 34 24 28 21 17 21 21 25 23 23 13 24 25 22 23 27 17 23 31 22 27 27 21 21 18 27 19 15 30 27 27 24 22 21 21 29 36 21 14 26 24 28 25 20 19 27 22 21 22 22 33 23 23 18 25 24 27 26 25 24 26 25 21 22 20 28 21 24 25 26 17 16 26 25 24 23 25 24 14 21 20 18 26 18 25 26 33 23 27 25 20 26 20 20 23 24 22 28 23 25 20 27 20 29 24 27 26 22</t>
+  </si>
+  <si>
+    <t>NIG(102.98488355835659, 73.45846067107482, -1.2488711837613078, 35.58528493534562)</t>
+  </si>
+  <si>
+    <t>32 37 41 43 38 44 33 30 42 28 24 34 28 32 29 37 32 30 31 37 39 26 33 43 44 41 53 22 35 40 30 28 35 31 38 33 20 42 41 43 29 36 36 26 32 43 29 42 42 37 30 29 38 20 34 29 28 39 39 35 41 38 25 34 34 31 38 39 36 40 35 27 27 32 27 36 36 45 33 32 42 33 26 40 37 35 36 42 39 27 42 38 28 30 41 33 34 37 42 35 39 43 32 30 33 29 41 29 25 24 32 34 39 30 33 21 40 35 40 37 34 40 34 25 26 29 38 39 38 34 40 34 44 48 32 35 36 26 32 31 38 44 19 40 35 42 24 29 38 46 39 38 38 53 32 30 33 28 27 43 34 33 35 33 44 49 40 32 22 49 43 36 49 38 27 39 41 43 34 38 39 41 31 34 30 41 30 36 26 34 31 42 34 42 39 38 37 35 37 35 30 34 26 36 38 38 41 43 46 36 36 46 33 35 31 26 42 31 37 33 35 29 26 44 28 28 34 48 29 36 43 47 36 38 31 35 36 43 36 32 37 34 34 37 33 47 37 40 40 38 39 44 35 43 33 37 37 35 32 29 38 43 32 32 33 35 26 31 31 33 33 29 36 40 45 31 38 36 27 42 32 43 29 27 31 47 41 31 37 40 36 37 30 39 30 34 40 30 41 34 33 32 27 36 27 40 33 41 39 36 38 36 28 36 25 28 34 25 44 35 52 25 34 30 36 28 32 32 42 36 45 33 38 31 31 36 29 30 37 31 38 28 35 36 35 31 40 44 41 32 32 35 42 34 41 40 24 34 33 31 34 38 35 39 33 36 39 42 33 39 41 40 36 42 40 32 40 29 32 40 49 36 39 48 40 31 37 33 31 49 28 41 25 22 43 30 31 47 33 38 44 37 32 30 33 36 41 35 38 30 17 38 47 46 31 38 30 33 41 42 44 30 35 37 36 35 44 34 32 35 33 35 35 27 30 38 37 30 38 34 40 44 36 35 34 29 35 36 36 40 32 40 49 40 39 28 33 37 40 32 32 50 32 33 41 35 36 44 28 44 35 32 38 55 39 38 42 37 37 36 39 41 38 41 35 30 50 30 38 33 34 37 45 35 37 39 33 33 29 36 37 26 43 37 30 46 24 37 43 44 36 39 46 37 29 31 29 31 32 35 35 37 44 25 33 33 35 31 36 31 33 36 29 29 35 26 29 24 24 41 33 32 32 37 36 34 26 22 31 22 42 32 41 46 39 39 33 38 32 39 43 27 31 34 41 33 31 29 36 40 38 22 33 40 33 38 30 30 37 32 32 41 23 31 30 27 34 31 24 41 27 43 41 39 33 42 27 35 38 29 42 38 38 29 37 27 31 33 36 28 27 21 29 37 25 36 34 42 30 29 34 39 31 42 37 36 35 35 34 30 36 38 31 40 39 30 30 33 28 34 43 35 38 29 36 35 26 34 29 53 37 47 28 33 22 31 38 28 33 28 32 36 25 30 27 51 29 34 35 34 37 35 38 35 23 30 26 25 40 44 32 36 33 47 38 43 39 31 37 31 44 39 40 27 32 38 39 38 30 41 51 37 36 33 30 34 41 36 32 38 36 43 38 42 44 24 34 27 34 36 30 35 40 46 23 35 39 31 24 44 26 35 41 27 33 30 36 28 37 33 28 45 44 29 37 28 30 38 25 26 32 38 35 35 31 27 44 32 27 37 27 46 36 38 33 37 48 33 29 32 40 40 35 29 31 32 36 44 36 31 31 28 40 30 36 37 35 38 31 28 39 23 35 31 34 36 33 30 34 54 31 22 38 36 35 42 30 39 33 40 35 36 37 43 35 40 28 24 35 37 36 40 48 44 46 34 31 33 35 35 41 36 33 27 43 32 34 39 41 43 33 32 38 30 28 41 37 43 32 31 33 44 42 46 38 44 40 25 46 37 41 39 35 34 32 27 19 34 35 37 47 31 36 27 32 38 35 31 24 31 38 30 27 29 24 29 21 44 34 35 31 33 27 24 36 36 44 44 43 39 42 28 34 40 44 34 38 29 41 30 42 33 25 33 30 32 25 27 34 27 41 39 36 31 32 52 39 46 28 32 36 29 32 25 28 37 43 40 29 34 37 41 39 38 34 38 44 35 35 34 36 43 30 37 46 41 33 29 31 31 43 35 35 34 35 31 32 40 26 33 33 38 23 22 28 53 28 42 33 33 30 35 43 41 34 34 36 30 29 39 47 38 31 30 39 46 21 31 31 41 24 37 33 36 34 41 39 38 35 33 33 39 35 41 41 45 44 42 29 39 30 38 39 41 33 31 38 32 43 33 24 40 39 30 28 31 39 32 30 37 33 44 28 32 29 35 28 42 46 29 32 41 46 39 35 44 35 32 32 40 36 27 31 28 23 34 43 41 33 37 29 32 30 38 45 46 42 26 43 23 29 35 22 41 25 32 38 34 33 31 32 38 32 46 34 35 33 34 35 28 35 27 31 23 36 37 35 32 40 36 39 42 39 40 33 33 41 36 40 38 31 38 34 38 47 28 36 40 30 36 36 34 29 31 31 35 39 38 36 30 39 27 29 29 36 34 29 32 31 28 40 33 33 34 26 31 39 33 35 29 35 39 27 36 38 38 34 38 38 36 34 37 37 37 36 26 28 28 29 39 29 32 27 38 28 40 31 41 30 34 39 33 44 42 35 39 42 34 35 26 33 38 35 29 33 39 27 23 28 37 32 31 37 35 37 48 31 29 28 34 41 30 27 29 28 35 31 18 42 26 31 38 38 29 36 42 27 40 28 39 38 29 22 25 31 33 32 34 38 34 43 39 38 35 38 33 25 36 33 29 32 43 29 39 35 40 28 33 50 42 27 31 29 34 34 33 29 23 31 32 43 36 35 35 31 38 36 36 44 33 39 31 42 36 30 29 34 31 25 45 37 35 27 36 36 29 32 36 35 36 40 30 33 34 46 28 41 36 34 46 44 31 34 39 30 41 33 33 39 37 47 34 36 29 34 24 38 39 37 31 36 36 39 35 39 35 29 54 40 25 43 37 42 39 36 42 45 30 34 23 47 30 38 32 50 28 28 38 46 42 32 27 30 34 37 29 43 34 35 30 37 39 32 35 37 32 31 34 28 46 49 32 43 32 42 39 29 41 41 41 36 40 53 41 27 33 43 27 28 29 28 37 32 30 36 31 37 29 42 41 38 32 36 43 32 42 33 36 38 40 42 32 43 30 30 32 31 42 39 31 41 26 29 37 38 43 38 33 35 36 50 43 34 35 38 39 27 44 29 38 33 25 29 31 27 42 29 32 39 39 43 31 36 29 47 38 24 44 28 34 33 28 40 32 44 38 36 45 24 41 46 23 36 34 28 33 35 38 35 33 27 41 34 34 31 26 30 25 37 32 36 40 37 34 33 31 32 26 34 41 36 41 35 37 36 42 38 50 48 35 33 50 40 31 37 51 25 34 40 35 28 36 30 39 34 32 40 30 35 48 34 45 36 34 40 40 46 27 34 41 31 31 26 30 36 25 34 35 33 32 32 28 40 29 43 32 39 39 35 27 33 29 35 35 39 24 32 20 34 29 31 37 36 32 35 31 25 32 50 34 38 23 32 43 47 28 31 47 39 42 47 40 39 32 39 36 28 27 36 24 30 36 48 27 33 39 39 39 27 32 34 34 33 37 31 31 41 45 44 28 32 41 30 30 31 39 23 41 45 29 41 36 40 26 27 34 46 32 32 43 42 39 37 42 37 39 38 35 22 45 28 30 32 33 44 36 35 31 36 32 44 38 42 41 44 49 38 39 39 33 30 33 39 35 27 43 36 22 31 34 36 38 38 29 41 36 33 35 33 34 40 40 33 34 34 28 32 35 39 39 38 43 38 32 33 45 32 36 28 28 33 38 45 32 42 33 27 32 39 29 41 26 32 41 28 46 29 22 30 41 35 37 38 30 36 37 30 46 35 30 28 43 29 35 32 40 29 32 43 41 34 44 30 34 26 30 35 27 29 29 27 41 33 31 26 44 42 41 33 30 41 30 39 38 32 32 23 27 48 37 42 36 47 29 30 21 36 37 39 32 35 36 32 32 28 30 32 34 39 29 30 49 43 36 25 44 33 38 40 34 47 38 36 38 39 36 33 34 35 32 41 34 27 24 35 24 32 43 37 22 34 29 40 30 37 41 36 36 33 31 39 28 43 37 28 42 43 45 38 41 29 30 27 39 32 39 40 33 27 28 46 28 35 27 37 33 30 36 35 28 32 27 37 24 46 36 31 27 41 27 29 29 42 36 42 34 32 25 39 45 54 45 26 26 30 29 48 40 31 34 37 36 27 42 41 29 41 36 46 36 35 42 38 34 28 47 36 48 31 37 37 45 41 36 29 38 36 34 42 29 30 35 36 34 40 37 28 25 37 38 32 48 24 34 35 28 33 42 37 29 38 20 38 33 37 41 32 28 29 36 41 27 40 41 46 42 39 49 31 35 34 34 28 39 24 32 39 47 35 30 29 30 39 35 26 36 38 35 48 23 37 40 38 30 41 43 33 34 34 36 39 29 39 36 45 29 40 29 33 37 25 42 36 26 36 21 33 25 31 32 34 43 49 30 28 34 38 35 33 39 47 28 42 26 33 31 37 28 38 29 32 34 43 45 26 31 38 41 37 40 41 28 25 33 34 44 32 34 33 36 42 29 45 29 33 38 31 39 35 37 33 33 40 36 27 38 40 36 45 31 44 27 43 37 32 36 38 31 43 36 44 38 32 34 30 35 38 30 32 35 33 32 30 37 30 41 24 41 27 38 38 30 31 29 36 28 41 37 42 37 23 33 32 33 33 36 34 41 36 24 41 30 39 38 33 16 36 40 35 33 28 32 27 30 36 23 29 37 38 29 29 29 31 35 37 38 20 40 43 44 47 36 39 29 37 35 38 46 49 33 36 29 37 37 35 35 31 31 29 28 36 34 33 24 44 38 26 32 45 53 37 30 42 38 46 41 38 30 40 41 33 30 45 33 31 41 51 28 35 34 32 29 30 40 42 28 34 33 24 33 35 34 33 44 26 39 29 29 34 37 37 28 36 39 36 41 46 43 33 39 38 40 30 47 31 43 32 32 51 34 26 44 31 28 27 34 38 36 38 37 35 32 26 31 45 49 39 36 38 36 44 49 35 41 38 26 37 43 40 40 40 33 32 29 34 35 42 41 50 36 33 42 34 40 26 26 36 35 47 29 34 29 26 30 37 25 33 29 40 43 30 32 28 25 43 31 33 35 33 39 30 31 35 44 43 37 30 37 39 43 37 29 34 31 26 30 36 40 40 32 31 41 47 37 32 54 37 31 37 45 34 40 39 40 35 32 27 36 31 37 32 35 37 26 30 37 33 29 29 26 36 33 31 35 42 31 29 44 44 51 40 32 37 25 41 40 31 29 40 45 34 21 36 34 33 35 34 34 39 36 33 19 35 46 33 38 29 32 28 28 32 34 29 29 29 42 31 33 39 30 39 36 45 33 40 39 32 44 34 24 34 31 39 28 39 29 34 38 33 23 39 28 37 28 38 21 32 45 32 39 43 39 26 31 38 35 31 34 40 37 33 24 41 49 40 33 46 34 39 33 38 29 28 41 42 33 35 28 34 27 41 32 29 28 36 39 37 29 38 30 33 28 37 36 35 27 29 42 38 46 37 29 43 46 41 31 29 25 31 42 38 38 39 38 26 36 38 30 41 39 39 33 32 31 37 41 52 40 27 36 34 43 32 39 34 41 50 30 28 36 27 31 29 29 35 33 30 33 29 40 37 56 33 32 36 34 42 31 33 37 47 29 37 33 48 38 41 32 34 28 33 35 38 23 26 32 38 36 25 27 38 32 35 29 43 32 30 43 30 37 24 37 25 34 33 36 31 41 27 44 32 26 37 28 45 37 29 30 38 36 39 44 41 36 47 35 40 41 40 33 39 38 39 32 37 33 39 35 34 30 37 23 37 30 38 24 24 41 26 34 31 36 31 29 41 34 33 40 27 41 29 30 28 36 43 38 34 31 33 37 33 38 31 48 48 35 29 29 41 30 37 38 35 35 32 30 41 43 36 32 42 43 30 37 38 26 39 43 28 38 31 40 34 37 40 31 36 37 35 37 25 36 37 38 39 36 39 26 45 41 35 36 35 33 31 32 27 38 32 32 38 29 35 27 57 41 31 29 33 37 35 32 34 28 35 38 43 35 47 37 27 38 43 29 40 32 28 32 27 39 28 35 39 44 41 32 38 37 49 29 26 31 41 33 31 39 35 42 31 32 30 24 50 34 39 35 26 37 30 36 22 28 38 35 39 46 37 25 23 41 30 37 32 26 30 35 35 25 30 32 36 31 26 31 36 32 25 45 35 28 34 37 32 38 33 30 32 38 41 36 28 36 44 29 35 30 31 36 31 38 40 34 39 24 46 37 41 38 26 31 29 30 34 36 45 38 30 42 41 40 34 29 33 33 39 32 38 33 23 37 41 32 44 38 27 44 30 33 33 34 38 28 35 44 34 32 33 35 36 27 29 36 42 44 30 34 34 35 19 30 38 30 31 41 32 31 30 39 27 39 34 32 33 35 44 31 38 36 46 37 23 41 38 40 27 34 35 30 34 27 34 37 43 31 42 42 41 32 45 37 29 31 36 39 34 37 28 28 52 30 32 40 28 32 34 42 46 34 31 41 52 24 36 44 31 42 41 36 36 39 26 35 28 34 29 22 32 32 42 26 37 24 39 35 29 39 40 40 44 48 37 35 35 33 26 39 30 39 38 26 27 45 32 25 39 41 33 31 34 37 36 27 40 33 33 38 31 41 37 23 35 34 27 32 29 33 43 33 26 42 34 35 44 37 42 36 42 30 37 33 31 42 36 36 26 32 40 43 36 29 27 40 28 29 28 32 37 39 28 28 37 37 31 31 31 32 32 39 33 37 42 37 36 33 33 28 37 42 39 33 32 37 36 31 30 42 32 42 39 39 40 50 36 31 33 36 34 31 36 37 28 34 39 39 38 31 44 37 39 39 36 39 36 40 32 28 48 43 44 30 49 40 34 38 28 35 31 33 27 41 29 33 37 38 41 36 31 30 34 38 33 30 36 37 27 35 44 28 29 31 26 28 35 32 36 50 26 38 37 34 25 41 33 35 38 30 31 38 41 24 33 34 34 29 27 36 36 37 32 30 47 31 39 33 35 38 30 33 44 28 32 38 39 27 34 33 38 38 46 31 29 36 41 45 30 24 33 30 30 34 33 35 28 30 37 38 29 39 38 23 33 31 34 33 43 30 34 46 38 27 34 38 35 40 40 31 44 29 25 36 41 29 44 34 38 35 28 27 34 39 42 27 31 39 34 36 30 31 35 30 30 46 33 44 34 35 39 36 34 41 43 42 40 32 36 40 40 32 45 28 26 40 39 41 32 34 30 21 31 28 29 33 37 41 49 32 22 39 38 30 31 31 47 29 35 33 40 37 29 35 39 28 23 33 27 33 34 40 38 50 30 47 46 36 35 39 39 39 45 37 39 35 34 32 39 38 36 27 34 45 31 30 31 41 35 23 27 39 42 34 32 39 37 32 27 35 33 45 28 40 27 32 52 36 33 34 38 37 40 34 38 48 30 38 32 42 35 31 38 41 29 32 25 30 33 32 35 31 32 46 33 34 29 36 45 38 24 29 24 24 40 41 31 39 32 36 31 32 34 35 21 40 27 28 40 32 41 29 46 38 40 32 34 34 29 32 31 36 41 43 36 35 40 40 34 34 33 48 35 32 28 29 40 37 40 32 30 42 32 34 28 36 37 37 41 33 32 33 49 22 37 30 32 44 38 34 26 31 33 31 46 30 32 30 44 31 36 30 38 42 33 23 32 38 26 32 27 36 33 33 31 32 29 30 37 36 33 36 37 34 34 42 32 30 34 28 43 36 35 45 37 39 31 27 38 31 30 28 39 35 28 38 30 35 43 27 28 37 40 28 36 38 23 35 42 40 26 34 43 34 29 41 43 30 41 32 29 26 32 34 37 35 39 34 32 44 47 42 33 29 34 25 37 40 42 29 32 39 31 43 31 33 32 33 28 57 35 31 45 28 30 39 38 31 35 39 38 47 32 25 53 27 27 24 37 34 25 37 32 31 30 31 22 34 44 33 32 34 28 28 35 36 40 36 38 31 34 31 32 37 33 32 37 48 34 36 25 37 33 45 23 32 36 29 35 24 45 42 33 30 30 28 26 36 29 28 33 32 29 24 30 27 40 44 27 41 40 48 30 41 59 36 31 44 34 31 37 23 40 26 34 37 43 39 40 29 25 38 36 28 28 36 24 27 40 36 38 25 39 37 42 35 36 36 31 38 46 37 36 40 39 37 35 37 38 31 28 36 28 30 39 36 33 35 29 42 47 37 34 33 27 43 34 32 43 26 31 23 44 35 40 32 38 27 35 50 31 36 36 26 32 33 39 41 29 29 36 37 39 35 38 38 29 20 36 35 25 33 30 26 25 38 39 40 36 37 34 36 39 29 32 26 32 41 34 31 26 29 29 35 36 43 38 31 25 26 33 30 39 40 35 41 33 34 26 33 45 32 42 30 43 36 43 41 32 32 31 28 38 30 41 37 34 29 32 31 46 30 30 37 32 32 30 40 33 29 31 36 34 31 31 30 37 34 40 57 42 29 33 32 30 41 39 41 45 35 42 20 32 43 37 28 40 39 31 29 38 30 38 44 37 38 25 30 30 30 39 42 38 27 30 31 25 33 37 33 37 46 28 36 25 33 40 39 35 25 27 35 40 42 34 31 36 45 38 31 30 36 31 30 41 38 33 18 37 40 26 33 28 36 47 30 36 50 29 45 33 36 35 41 28 32 45 35 43 26 38 44 33 22 34 36 30 37 29 36 27 32 40 46 34 25 37 41 36 38 23 31 36 27 32 39 30 30 33 29 32 21 38 35 30 38 32 38 35 26 37 35 26 36 29 38 50 50 41 47 40 32 26 37 34 25 28 30 36 40 29 39 41 37 32 34 22 27 46 37 37 27 43 46 31 29 36 31 33 35 36 31 34 36 29 35 28 47 44 35 28 34 42 37 30 37 38 28 30 43 28 37 36 33 42 27 39 38 37 27 34 30 46 34 41 37 32 44 33 33 39 31 38 39 40 36 31 42 31 37 44 26 49 39 24 50 29 24 34 32 28 31 21 28 33 30 37 33 38 32 32 32 45 33 35 31 45 28 44 30 31 40 36 33 36 39 34 29 32 25 42 34 29 38 33 36 31 31 31 30 39 50 47 36 34 39 30 31 41 30 33 36 46 34 32 17 45 44 27 32 39 30 27 32 34 33 41 45 30 40 41 31 32 25 37 34 37 37 30 35 26 28 33 38 39 30 36 37 33 30 33 37 40 42 35 34 29 33 38 26 31 46 39 37 33 35 34 29 44 30 40 36 38 42 37 28 43 35 44 32 46 33 31 32 33 43 37 28 41 45 39 37 32 33 35 32 42 35 35 30 25 45 30 33 30 39 35 35 32 22 43 32 32 36 36 35 36 34 42 29 32 32 34 46 39 37 36 39 31 24 36 31 35 35 37 41 34 28 33 29 22 39 41 26 38 39 37 24 37 28 36 30 28 42 32 31 31 33 30 36 38 42 30 37 46 33 31 31 26 32 48 28 45 33 32 38 39 42 28 31 38 28 27 45 41 34 25 33 32 33 28 27 25 47 35 36 34 39 32 33 40 27 36 36 34 43 32 33 37 36 39 31 43 44 22 43 32 29 29 36 44 36 37 38 32 41 25 32 41 28 36 32 28 37 37 40 35 42 27 35 40 42 39 32 38 35 23 36 36 31 42 38 34 38 42 29 29 24 32 37 41 33 34 34 31 35 36 28 42 29 43 33 40 43 29 49 44 30 25 43 19 39 40 41 32 34 32 33 25 28 31 27 51 28 38 48 38 31 36 29 38 44 34 34 30 42 39 31 27 35 37 28 34 43 36 26 37 29 39 32 37 26 48 25 28 45 44 34 29 34 39 35 36 33 31 38 33 37 37 40 34 33 25 34 32 33 39 30 35 35 47 43 37 40 35 29 40 39 39 37 45 40 28 45 23 39 53 36 42 24 43 29 36 16 28 38 35 36 32 33 35 29 29 36 20 47 28 37 35 31 36 38 35 33 39 36 44 32 36 37 40 35 35 33 32 32 27 38 30 39 44 27 37 25 39 35 33 33 32 40 33 38 31 38 37 36 22 29 42 57 32 36 45 36 36 31 43 29 30 32 24 36 38 30 28 36 36 31 29 36 50 40 39 32 20 24 34 32 38 43 34 43 36 28 41 50 28 22 32 38 25 40 33 36 43 50 49 32 41 24 44 35 37 28 42 42 30 26 32 30 31 39 26 44 41 28 36 35 39 40 35 30 41 38 37 43 40 37 37 35 37 45 32 34 37 33 37 18 38 31 41 33 34 40 41 32 33 42 38 38 35 27 28 30 41 27 41 24 31 39 33 31 40 33 35 38 45 45 38 40 24 28 31 33 36 34 39 31 39 37 31 37 32 34 33 33 39 50 36 27 30 37 32 22 38 37 31 23 41 32 44 32 26 28 27 34 38 31 38 33 38 23 37 27 44 29 35 35 31 40 34 47 38 44 41 33 39 44 41 30 33 41 41 31 32 33 38 34 34 39 33 46 29 34 40 26 44 29 45 32 33 46 41 49 31 31 33 47 32 34 35 35 25 23 43 40 44 45 37 29 20 27 37 46 36 40 25 28 24 29 34 39 29 45 29 32 31 39 24 36 27 36 35 39 26 33 36 40 29 38 38 32 36 32 45 28 29 41 36 34 38 40 30 37 31 28 23 37 29 25 38 38 34 34 37 36 44 37 34 32 30 30 25 35 32 40 37 44 38 37 34 46 37 36 32 31 33 35 33 39 38 30 36 36 42 34 28 37 29 37 36 28 35 35 31 30 37 28 37 25 31 32 38 39 43 31 40 33 37 47 36 34 45 45 51 36 45 30 27 40 36 33 33 38 39 26 33 36 29 26 32 29 26 39 38 32 45 35 28 27 33 28 29 42 41 29 35 34 22 31 31 48 31 30 34 29 39 34 32 30 31 38 36 33 19 45 36 34 36 31 31 35 27 35 28 33 38 31 37 42 41 27 34 31 46 36 34 40 37 39 29 43 42 39 34 23 30 29 37 34 35 26 40 37 34 42 35 31 27 41 34 35 28 36 29 32 31 42 44 43 35 29 34 32 42 29 28 42 36 28 38 38 30 34 39 35 36 29 37 32 44 30 36 42 32 36 33 37 28 32 39 33 42 36 35 29 42 35 31 44 29 38 38 33 24 34 38 34 45 28 41 39 22 33 42 41 43 34 41 29 25 32 36 43 43 40 23 39 35 31 30 25 37 32 33 32 44 35 34 40 52 36 36 41 43 28 38 39 39 37 34 42 27 45 27 34 48 33 30 46 37 41 30 46 36 35 39 33 32 28 34 36 50 37 31 39 47 44 30 31 42 43 43 35 40 26 28 36 38 36 37 21 47 41 43 36 37 36 42 36 35 41 32 28 29 36 33 22 33 30 26 39 31 32 36 36 31 33 40 30 34 39 37 27 30 26 38 33 25 41 43 27 30 36 30 47 33 47 41 34 33 40 25 34 38 26 37 42 41 25 34 53 29 26 34 37 34 32 37 25 39 43 32 27 28 34 36 27 37 29 40 42 32 39 36 30 37 33 36 31 39 38 40 34 26 38 34 27 39 38 32 25 38 45 38 39 37 31 36 41 27 38 48 36 44 30 26 33 44 27 36 30 25 39 27 38 46 36 37 45 34 25 43 43 37 36 29 28 30 36 31 46 47 34 38 24 40 23 39 33 38 33 31 36 43 37 44 43 32 35 37 33 28 36 27 34 42 38 32 31 33 44 33 35 42 34 28 37 38 42 33 30 32 37 29 38 42 32 34 30 33 34 39 35 34 36 28 43 36 39 26 38 28 34 34 41 44 34 30 32 31 29 33 32 37 39 42 38 32 39 34 35 54 38 34 34 44 38 28 37 37 39 35 40 35 32 37 30 56 41 37 47 46 35 40 33 43 43 35 41 33 29 26 31 30 36 36 36 38 40 53 38 29 42 39 36 33 30 33 35 36 48 26 32 34 31 31 35 41 29 30 32 37 37 32 42 33 45 49 33 32 44 44 40 41 42 40 36 41 35 41 29 45 34 28 44 37 35 42 45 33 38 29 49 43 35 34 38 34 39 30 38 25 46 38 28 36 30 27 33 29 28 29 40 33 29 42 33 34 36 49 41 44 34 32 28 41 31 35 27 35 38 34 40 31 43 33 25 34 30 38 45 52 38 36 36 30 31 47 31 19 37 32 26 38 35 32 38 31 36 35 31 24 43 36 41 40 40 30 29 35 44 39 36 43 29 30 30 36 36 32 30 33 32 39 38 31 33 39 38 31 32 41 43 39 37 48 32 38 37 29 33 40 31 43 43 35 50 39 33 33 38 27 30 52 35 39 46 33 37 27 38 31 31 34 33 36 35 33 36 40 50 33 38 38 36 39 32 40 48 34 37 31 36 27 28 29 23 39 34 34 40 30 29 31 34 25 36 31 41 40 37 28 36 34 44 39 26 29 30 16 33 35 31 38 37 38 46 28 38 36 48 23 34 36 47 28 42 34 34 29 40 24 26 29 31 35 31 38 27 22 24 31 44 29 26 33 41 33 27 24 35 35 38 24 39 39 39 29 37 34 41 33 39 37 38 31 39 34 42 32 33 42 36 39 35 27 30 34 36 35 45 31 25 43 32 24 39 44 40 36 40 34 31 36 33 37 39 54 34 38 35 41 40 33 35 40 33 42 32 34 31 33 41 30 38 42 42 24 32 34 43 34 42 32 46 24 42 40 31 36 41 33 43 36 39 47 38 33 37 36 39 42 33 43 40 35 34 43 38 17 24 32 40 34 41 25 32 31 30 31 23 26 29 43 40 39 34 36 37 26 37 39 38 45 34 24 37 37 27 28 24 33 50 29 34 31 38 24 34 37 35 35 34 44 39 42 47 37 38 42 38 38 42 28 32 39 39 26 32 37 29 25 34 29 36 33 48 29 45 36 26 27 39 26 48 35 35 32 25 40 29 38 37 35 30 36 36 33 38 29 34 34 50 39 37 41 40 43 50 30 32 32 32 36 33 34 43 38 33 35 35 32 35 36 38 49 48 44 30 34 33 37 35 36 26 32 36 23 39 42 47 31 41 27 34 44 30 44 30 25 36 32 33 37 26 34 28 31 45 29 29 38 36 32 42 30 41 37 30 45 35 31 48 36 38 31 33 31 30 35 42 40 32 44 36 23 30 28 39 36 28 23 34 33 36 39 28 41 35 35 30 35 39 45 33 37 32 26 31 35 25 43 34 33 33 31 32 43 39 38 30 29 39 33 43 44 36 27 39 36 46 28 20 31 33 43 37 39 34 29 37 30 40 33 43 45 36 30 39 28 29 46 42 34 30 30 36 37 26 31 40 31 32 34 23 27 35 32 37 38 37 29 26 30 38 36 35 46 39 39 41 27 22 30 44 37 42 29 40 37 29 32 43 28 28 37 34 32 25 46 26 20 43 35 33 33 34 30 48 40 36 33 41 25 39 44 45 38 22 36 39 44 40 41 44 44 36 44 38 24 40 23 30 37 31 46 33 37 30 27 53 46 33 34 39 32 35 35 44 33 32 34 36 30 31 40 42 44 36 36 37 29 23 32 34 26 42 38 31 27 30 33 19 33 28 34 35 37 38 27 34 37 27 33 36 42 26 37 37 37 30 47 38 37 46 43 39 33 31 34 36 34 33 41 35 37 32 32 37 32 38 32 35 45 37 26 40 34 30 39 35 35 26 33 32 38 32 31 44 38 27 37 30 31 43 34 31 37 44 50 33 39 40 26 41 33 33 45 26 29 42 28 29 35 41 29 34 30 30 37 30 34 38 20 33 28 35 36 28 33 37 32 28 32 33 37 39 40 25 38 38 44 38 23 40 39 24 35 42 31 37 35 36 28 37 34 38 36 40 40 30 37 40 38 34 41 32 27 30 39 35 26 37 36 36 34 35 39 46 29 19 36 32 35 31 38 42 33 33 27 37 46 48 39 33 35 28 37 35 39 31 41 36 41 29 36 25 36 30 36 26 41 37 24 39 30 40 37 35 31 43 47 37 44 24 34 27 27 36 38 42 31 39 29 29 36 27 29 31 40 36 33 42 38 32 41 30 32 33 26 27 42 25 54 29 37 32 32 43 28 33 30 44 34 35 25 29 32 30 27 40 39 36 31 36 54 46 29 46 37 27 30 27 34 27 40 34 34 43 46 33 28 35 28 28 35 40 38 28 40 40 30 32 32 35 31 38 35 37 36 41 31 33 34 36 28 29 29 26 28 36 31 35 36 32 44 43 47 45 34 33 48 32 34 35 27 40 29 40 35 39 31 36 42 34 36 27 36 35 34 44 34 44 42 33 35 35 30 37 30 32 22 31 41 39 39 33 30 38 44 43 40 45 40 32 32 42 34 37 40 34 45 48 36 38 43 37 29 30 28 30 46 39 36 30 30 32 43 28 26 26 44 39 36 35 37 32 36 48 33 39 39 44 34 39 32 40 35 32 32 32 39 46 28 28 39 36 34 29 35 43 37 37 39 24 45 33 38 52 35 35 36 37 41 32 39 33 40 30 35 36 32 31 47 35 30 49 27 34 36 33 27 43 24 32 35 38 25 25 41 39 40 32 32 39 35 26 21 36 35 29 33 41 17 36 38 32 42 43 40 27 46 29 30 32 36 32 47 38 28 35 40 31 49 37 36 27 31 41 28 33 43 36 26 30 26 24 36 30 34 27 32 38 33 37 32 40 40 27 30 43 32 42 27 42 33 31 34 35 34 37 32 25 40 38 39 43 40 31 37 40 38 35 43 41 30 21 34 27 47 34 53 27 37 44 33 30 35 34 42 37 37 40 43 38 44 40 29 34 37 24 34 42 34 41 31 30 45 32 35 36 22 27 28 44 35 29 30 32 37 24 42 31 35 41 36 37 38 34 38 43 33 31 30 35 32 46 38 32 27 44 38 29 38 39 36 37 36 34 41 35 43 30 37 39 43 37 35 30 22 43 31 32 40 38 33 38 28 32 35 34 38 39 35 32 32 38 30 34 29 38 38 43 48 32 37 34 39 52 25 41 34 38 34 48 35 36 27 35 36 53 32 29 35 31 31 38 42 35 30 29 27 33 39 37 34 35 44 45 42 23 38 34 32 37 26 35 34 36 37 45 29 38 34 29 34 31 39 34 41 41 38 35 33 36 37 32 30 27 36 33 30 37 34 38 23 27 25 35 30 37 38 34 34 37 32 36 42 36 34 35 41 38 34 48 32 39 26 45 29 32 35 36 32 33 30 30 41 34 28 41 35 33 36 45 32 27 42 26 30 23 35 43 29 37 35 42 34 39 35 45 42 30 41 44 37 38 28 38 36 35 44 44 30 42 35 40 41 28 40 42 33 24 25 32 34 34 32 31 33 38 37 26 32 39 29 40 35 29 32 40 49 40 26 38 34 42 34 31 26 46 32 36 33 36 24 40 32 34 34 29 31 38 39 28 34 27 33 27 43 34 36 35 32 33 44 35 33 37 37 34 29 34 32 45 34 37 34 26 35 35 33 41 32 35 23 34 34 38 43 38 37 57 31 30 37 29 40 33 33 38 33 34 45 40 46 30 44 47 32 32 28 36 40 28 48 37 32 22 29 40 32 30 36 44 37 27 40 29 30 30 33 43 23 31 33 33 51 28 34 43 27 37 31 21 45 38 42 36 40 25 26 30 39 33 24 35 29 31 39 31 33 40 32 36 41 38 26 36 30 33 29 36 33 30 36 33 33 33 45 35 37 37 35 40 33 35 20 37 36 40 40 35 30 42 38 32 30 26 37 38 28 37 32 35 40 43 41 39 39 45 28 44 33 37 47 35 29 35 35 33 35 48 29 42 36 34 37 30 24 30 37 37 42 39 26 35 32 38 37 33 46 35 43 31 40 31 38 38 34 31 40 33 35 32 40 33 29 43 32 29 34 28 35 35 41 35 32 25 42 33 47 39 27 38 38 37 28 29 35 28 23 31 22 31 31 41 40 35 31 29 41 32 36 21 29 24 28 24 44 36 46 34 41 36 38 36 25 41 31 39 23 30 33 31 28 41 43 33 37 26 46 50 24 24 28 37 36 25 44 30 36 29 26 38 34 33 42 23 32 32 28 31 32 33 32 40 27 22 36 40 38 37 29 28 44 47 28 31 30 38 26 34 34 36 35 32 27 45 31 35 29 33 32 34 32 39 35 32 34 46 26 41 37 31 35 33 46 36 30 35 33 29 38 45 24 26 44 37 29 34 35 35 34 37 30 34 29 30 32 32 30 42 29 33 38 36 29 28 36 39 31 31 36 35 27 28 30 37 26 25 37 36 38 40 39 29 40 26 30 34 31 44 35 33 50 37 36 29 32 30 40 40 32 33 40 33 35 42 44 34 39 38 39 42 40 33 36 33 34 36 35 35 31 32 39 34 33 36 32 32 32 34 37 43 35 27 27 37 37 35 36 50 39 30 26 53 28 39 25 36 33 35 27 29 28 36 33 33 31 42 40 34 40 40 37 22 30 37 33 38 30 37 30 44 22 33 39 32 35 39 32 33 44 39 31 39 41 39 29 32 35 29 31 28 36 33 37 31 41 34 49 31 30 36 27 40 26 33 35 30 34 51 37 40 38 34 25 50 30 53 44 30 34 37 34 31 35 31 29 30 34 44 41 31 37 32 30 34 42 33 36 41 30 34 36 35 25 31 45 36 43 35 31 42 36 35 34 36 37 29 34 35 28 29 34 29 20 32 28 33 36 31 36 39 42 34 21 26 33 30 28 42 41 47 44 33 39 33 42 42 35 37 36 30 35 38 38 33 25 28 40 30 38 36 31 31 33 31 33 40 40 34 34 34 37 39 30 34 35 46 39 40 33 30 33 41 26 32 26 31 31 34 36 36 35 38 31 40 33 43 36 42 38 38 38 32 41 41 39 39 32 28 42 23 29 33 41 26 26 51 36 31 41 32 34 38 26 32 43 39 41 36 30 31 46 34 43 20 34 39 38 34 36 35 31 35 45 33 36 33 20 28 41 38 36 23 36 30 25 47 36 37 31 30 27 32 35 39 34 36 29 32 46 33 24 47 33 32 39 44 32 24 42 36 36 44 40 38 30 29 29 39 43 33 31 30 35 34 38 44 33 48 26 34 32 49 39 30 39 30 25 34 51 32 29 40 24 34 30 31 36 37 43 43 39 34 34 35 31 42 43 40 35 32 32 43 31 37 35 40 41 31 42 39 33 23 38 39 36 27 39 34 30 37 51 25 41 37 31 33 32 41 33 40 29 30 33 33 34 29 28 35 33 39 34 38 43 35 37 40 35 45 39 32 28 27 31 31 31 26 32 38 43 41 28 22 34 28 33 30 34 42 39 32 32 33 34 30 44 37 46 41 26 41 27 39 34 35 35 33 39 26 50 36 36 36 39 44 31 37 33 23 34 29 37 42 50 35 28 39 35 50 43 34 33 36 36 38 34 33 32 31 36 40 36 38 41 34 43 32 49 30 37 44 30 35 29 22 30 32 27 35 27 40 35 44 31 37 44 31 44 32 44 36 43 32 28 47 30 27 27 34 38 33 28 33 31 31 41 38 34 49 28 42 35 34 40 41 27 39 35 34 36 36 30 29 38 36 36 51 32 27 39 29 26 35 45 41 39 40 42 35 28 47 32 37 36 34 38 31 33 34 31 37 60 43 24 37 50 37 32 37 37 42 37 34 28 36 36 41 41 29 29 38 31 35 38 38 31 45 37 36 41 33 32 26 33 38 39 50 45 33 35 28 29 30 42 30 33 29 31 31 32 33 27 41 39 32 31 27 36 32 31 26 36 38 31 30 42 27 37 43 29 35 33 35 32 35 36 31 44 34 41 30 35 31 34 35 35 30 37 37 33 37 37 35 38 33 34 36 32 42 45 41 43 38 32 36 32 33 34 32 35 41 38 45 37 27 41 40 27 33 36 28 42 26 33 30 32 36 37 29 38 26 37 43 33 34 52 44 34 38 20 21 29 40 42 30 37 39 40 39 38 40 39 35 35 36 33 44 37 43 30 30 32 41 31 31 26 24 32 51 27 32 40 36 35 27 41 26 32 32 33 47 34 38 34 38 33 28 36 29 36 44 30 36 29 27 37 31 39 35 33 31 26 28 41 34 29 29 36 31 35 32 38 36 41 35 34 37 28 29 29 29 35 35 32 30 31 43 28 44 35 38 41 43 30 36 40 38 25 37 29 31 37 22 28 34 30 39 36 38 32 40 29 53 39 29 35 38 28 27 33 36 24 35 22 41 34 51 31 43 31 38 33 38 26 45 33 23 30 37 41 41 44 40 26 36 34 24 34 29 45 31 37 39 49 43 27 35 39 34 47 37 33 35 31 41 47 30 36 28 42 25 41 36 38 27 42 39 35 35 39 40 33 42 41 33 36 28 44 34 33 38 31 31 28 30 40 33 44 30 44 44 46 33 41 33 31 24 34 34 32 30 39 28 34 28 24 29 29 34 36 42 32 31 38 40 40 37 39 41 31 29 45 32 45 38 40 34 34 25 29 42 32 32 36 44 33 40 31 26 35 41 37 46 33 46 34 38 41 37 42 26 30 40 39 27 37 28 31 30 38 34 48 35 24 33 34 33 41 31 35 35 41 35 42 29 27 55 32 39 31 33 41 37 40 37 43 26 38 40 39 36 35 33 30 36 29 41 49 30 31 30 29 27 36 35 39 33 27 45 26 24 35 28 28 37 41 31 36 26 36 34 34 38 33 31 34 23 33 37 26 24 30 43 41 33 31 36 33 44 38 42 31 32 36 38 32 36 31 26 25 40 36 29 34 42 37 34 37 35 33 33 31 30 31 31 34 36 34 37 29 21 46 49 43 37 36 32 40 34 31 24 35 52 34 44 40 50 31 47 37 35 43 39 26 34 26 37 37 41 37 35 46 34 30 39 38 36 33 31 32 29 37 36 30 28 37 42 30 38 48 33 37 26 28 42 43 31 42 42 28 28 24 33 37 28 41 36 22 44 28 36 41 38 32 26 36 28 44 37 20 29 26 32 25 36 38 32 33 33 30 23 38 28 36 32 32 27 32 32 33 41 44 43 27 36 31 27 36 25 51 28 38 46 31 45 46 44 36 29 50 41 22 38 39 34 53 31 41 33 27 27 30 35 27 26 34 33 33 52 33 30 35 41 34 29 37 42 28 36 39 30 39 40 41 43 33 35 42 34 29 39 32 37 28 35 32 18 28 41 37 49 40 35 23 31 40 35 35 29 42 41 39 36 30 26 36 36 30 28 35 27 32 29 31 37 35 29 44 39 32 32 51 32 32 33 36 34 33 38 29 30 31 41 33 26 31 46 45 39 35 34 29 33 30 39 43 42 30 41 34 35 31 37 40 31 34 41 36 36 38 39 27 39 38 34 29 35 37 22 29 22 24 36 33 29 31 37 32 36 30 41 45 34 46 30 40 25 35 32 29 32 42 34 37 40 43 25 39 32 26 31 47 33 30 36 39 26 27 35 26 28 29 51 28 45 42 32 35 33 42 45 40 48 35 44 45 30 35 32 33 38 32 41 38 38 43 41 33 30 28 34 31 27 42 43 26 33 36 31 43 43 34 30 47 34 26 37 32 30 48 19 30 30 38 30 31 55 34 33 32 37 31 35 36 39 31 37 27 33 32 41 23 36 38 32 36 40 28 42 39 32 34 33 43 22 43 36 30 32 34 31 36 33 39 24 28 34 36 39 30 25 41 33 32 31 31 43 32 29 36 30 29 42 49 34 41 32 33 52 33 28 38 24 31 33 37 29 45 38 21 33 24 25 41 24 30 35 34 37 30 41 35 47 33 39 33 48 39 31 37 31 37 29 31 31 46 43 32 50 26 33 31 39 32 27 35 42 47 37 35 35 27 42 24 32 30 38 24 30 34 28 36 45 37 35 30 27 31 25 33 41 36 38 27 30 38 36 24 38 34 26 50 34 42 40 26 41 24 40 48 29 37 38 24 37 36 31 36 31 35 52 37 44 33 27 55 35 28 31 40 30 41 36 31 44 40 38 34 38 39 26 46 40 32 35 39 28 25 41 33 33 28 45 38 25 37 41 40 35 41 45 35 44 29 34 34 31 31 26 32 36 32 45 31 29 28 38 26 29 28 36 45 33 39 29 39 28 41 32 50 35 51 38 30 45 34 38 37 44 28 42 50 36 41 27 33 33 45 29 37 47 39 40 31 23 36 40 37 36 38 36 32 33 36 31 37 37 31 36 43 41 43 35 36 41 29 30 46 36 35 46 38 34 37 39 40 44 40 31 42 31 35 38 38 36 36 33 36 38 40 44 31 37 34 27 33 35 36 39 40 35 34 49 29 25 36 43 33 36 33 26 39 27 42 36 30 37 39 33 40 41 26 43 43 33 36 28 42 32 36 36 35 29 29 34 44 38 29 34 37 33 37 37 33 26 35 42 41 31 25 38 45 33 38 26 34 29 36 38 24 37 33 35 42 34 35 31 39 38 33 27 42 31 31 38 42 42 29 29 51 26 32 26 41 34 38 33 29 40 37 32 26 36 31 38 30 36 48 36 28 22 31 50 37 37 37 43 29 40 39 32 32 33 36 29 27 39 33 28 35 26 34 24 36 25 32 56 22 45 30 40 31 29 32 40 32 27 22 41 36 43 34 33 30 28 42 34 34 31 39 35 39 32 40 39 35 28 35 40 30 32 36 32 48 32 29 27 42 42 29 31 45 39 34 31 26 48 32 39 28 36 32 34 42 30 40 35 30 35 49 30 40 39 31 26 30 47 36 38 48 37 32 33 33 38 33 30 41 47 32 36 29 27 38 45 37 38 34 52 30 50 38 31 32 43 33 29 34 31 36 37 40 39 41 48 46 30 35 49 35 30 32 34 25 23 45 30 35 30 34 26 40 24 31 34 35 34 31 33 40 33 35 32 38 29 33 48 35 29 36 30 26 37 35 43 28 36 33 37 29 27 36 38 33 49 37 45 36 31 28 38 28 40 36 34 39 37 29 46 31 39 45 32 21 36 29 29 39 32 31 41 35 39 35 31 35 40 24 31 33 34 36 38 47 28 28 33 34 37 36 39 37 33 38 36 32 39 54 35 29 36 41 44 31 38 32 36 30 49 33 41 30 34 33 34 32 32 35 29 33 35 29 36 26 35 31 28 35 37 31 43 36 20 39 35 42 33 42 41 37 31 36 37 33 34 45 41 28 34 36 28 35 34 37 34 32 40 39 34 32 43 38 30 35 29 35 42 37 36 31 22 40 29 39 37 35 33 39 37 33 34 31 34 42 37 35 37 40 38 36 29 33 35 30 45 21 35 31 43 25 35 41 36 29 37 25 32 39 42 50 35 39 35 33 30 38 33 43 30 31 40 42 36 29 45 32 26 35 29 35 48 36 43 22 35 34 35 36 28 31 31 36 37 33 38 37 37 31 32 27 42 35 33 44 29 40 35 28 37 35 35 24 35 29 34 32 35 35 26 29 37 41 34 36 41 39 38 38 32 34 34 38 29 33 31 35 36 37 29 38 37 39 31 34 46 36 32 41 39 40 33 36 26 34 37 33 32 37 33 36 40 29 27 30 28 38 30 34 44 44 34 25 42 33 36 34 30 28 25 32 41 50 36 32 34 34 34 30 40 48 28 39 36 29 38 35 46 28 30 54 32 28 35 24 39 35 32 34 37 46 33 34 37 38 30 40 39 38 28 37 36 42 32 27 42 32 39 36 31 33 39 40 36 32 41 29 44 39 31 27 29 34 37 45 40 31 32 44 39 23 39 56 25 36 38 30 30 42 34 22 31 37 43 30 34 27 28 34 36 35 51 25 34 30 39 37 40 34 38 45 34 30 37 32 29 28 33 46 35 32 34 36 37 34 39 25 32 37 27 32 31 32 40 36 37 28 32 37 35 44 35 29 34 34 27 30 39 38 30 42 28 31 33 43 36 35 26 43 32 38 33 33 34 35 39 35 37 38 32 40 31 33 37 34 36 19 32 30 33 39 37 32 43 28 34 48 31 35 41 43 34 47 35 39 40 35 25 31 38 24 28 43 38 32 36 39 32 38 19 32 35 41 42 31 20 55 34 26 30 27 46 35 39 34 31 32 35 30 46 38 31 38 25 38 34 41 34 40 34 37 43 42 34 43 35 23 36 37 36 32 30 24 38 37 30 34 32 26 37 45 37 39 35 26 32 28 38 25 27 38 36 40 35 37 34 34 51 49 27 25 40 38 34 39 38 31 34 45 30 33 28 52 34 30 30 34 35 44 33 35 35 39 34 34 35 29 43 28 31 34 39 28 25 32 39 34 27 41 34 23 31 29 34 45 34 33 42 50 35 40 33 30 32 31 31 36 43 35 40 40 35 36 35 28 40 36 43 37 33</t>
+  </si>
+  <si>
+    <t>JSU(-2.4654249375838213, 7.012654444433069, 137.52518078500032, 328.1577798099305)</t>
+  </si>
+  <si>
+    <t>271 261 289 314 230 328 232 242 252 251 186 269 202 190 231 327 245 234 253 228 265 203 221 292 309 275 348 131 278 320 242 202 227 160 280 231 102 321 279 277 248 229 264 207 214 390 249 287 322 228 258 189 224 174 227 181 187 241 269 228 241 276 218 232 195 233 235 263 264 281 221 219 188 263 192 292 221 323 275 225 346 226 156 267 270 258 319 230 216 232 302 337 205 223 280 239 232 232 299 232 223 312 247 227 211 221 228 232 233 229 258 283 287 258 217 107 293 312 314 271 277 312 202 175 240 178 291 287 283 268 327 300 277 274 252 239 282 223 219 207 250 277 154 220 287 321 148 262 278 337 248 271 330 396 275 173 276 289 158 318 268 232 272 221 328 270 313 194 167 420 315 245 361 282 146 288 278 322 181 263 310 261 203 266 275 310 211 220 158 241 210 311 222 295 272 285 228 282 293 248 225 278 208 216 277 248 311 336 369 290 220 342 224 257 180 240 336 202 278 234 271 215 255 268 209 191 274 343 282 298 348 286 261 322 246 214 229 247 297 265 271 258 244 328 302 255 292 298 248 202 271 301 221 283 221 323 246 200 278 211 250 235 222 314 216 248 224 255 261 240 268 206 302 248 336 197 206 220 109 286 237 303 230 197 315 358 315 277 346 228 249 275 284 341 263 243 319 204 284 228 220 265 217 282 187 321 234 235 239 236 287 197 188 216 154 249 262 196 336 237 291 179 263 173 224 216 191 226 311 211 306 174 317 234 206 295 218 217 284 240 288 269 221 264 228 254 346 396 321 266 212 253 322 231 298 340 140 299 220 238 265 266 248 313 258 257 306 275 204 300 362 315 220 323 377 258 275 201 208 315 265 226 259 360 290 209 276 226 228 321 238 329 252 169 285 164 152 313 196 252 392 225 248 220 268 203 259 235 304 236 129 305 324 276 253 306 258 154 310 293 248 224 256 354 255 255 355 236 292 294 282 240 281 177 188 247 199 237 293 243 237 335 262 239 194 163 248 269 263 232 197 315 348 257 217 205 228 252 231 262 211 424 265 277 284 295 316 286 161 249 232 219 286 465 324 288 233 245 322 258 401 224 265 219 324 274 331 235 313 210 321 235 308 230 292 285 235 234 183 247 247 220 242 208 193 289 197 274 359 323 310 279 400 231 228 239 246 238 246 243 317 205 326 185 264 257 209 277 206 266 249 311 224 209 239 200 183 205 183 328 275 245 240 306 299 207 215 151 257 181 264 242 304 381 320 281 212 302 192 341 367 238 181 228 325 303 197 208 282 335 273 169 210 256 193 299 289 253 196 230 198 294 216 261 258 184 276 216 175 226 126 281 244 307 298 349 193 242 273 213 274 364 257 167 258 204 280 223 274 268 250 148 275 277 276 304 271 267 227 244 277 277 256 279 308 275 263 206 295 235 258 230 257 238 242 202 222 256 242 261 256 261 308 243 245 250 204 264 259 258 257 253 252 232 164 166 252 266 278 192 203 273 162 199 215 315 225 202 198 177 291 267 230 210 179 238 211 161 333 378 213 254 261 264 210 292 256 198 303 233 269 243 262 200 233 285 389 319 186 267 302 235 316 240 218 252 256 259 279 325 300 299 278 264 301 143 254 205 268 267 202 287 334 334 167 259 254 250 181 330 206 276 273 225 217 219 189 179 205 221 246 338 317 249 269 184 220 310 214 201 211 298 239 235 224 191 359 174 191 260 229 311 264 305 235 240 305 285 203 219 301 294 294 223 282 234 245 336 302 192 240 216 343 271 214 267 267 249 138 259 296 132 234 177 198 284 284 226 252 387 218 223 295 288 273 239 183 265 206 284 302 294 197 257 316 260 181 152 273 274 276 270 343 285 321 337 198 198 291 305 281 286 279 234 366 237 256 256 331 316 235 369 213 208 232 357 263 227 273 194 251 217 348 227 321 313 270 172 344 221 319 266 250 283 296 226 167 227 314 231 393 253 254 210 232 285 227 292 196 253 354 240 245 187 146 190 198 316 287 259 225 143 208 242 210 271 362 294 288 318 269 208 230 278 291 214 250 210 261 256 291 209 213 248 239 312 212 227 287 219 297 276 250 194 186 392 241 265 188 274 253 237 254 154 139 294 315 293 194 224 302 336 346 274 246 227 289 414 275 219 265 294 279 273 233 320 251 255 234 227 228 255 284 302 277 266 259 291 239 166 260 268 187 137 220 339 185 343 235 259 252 269 305 273 258 273 257 294 231 239 307 290 219 260 305 261 163 256 289 292 215 247 253 276 303 248 186 222 307 213 226 337 297 253 328 348 342 338 186 225 214 215 319 278 236 147 225 311 276 221 123 259 279 157 217 265 309 244 250 318 240 280 236 222 246 220 269 309 340 207 219 268 323 247 270 288 242 198 252 242 260 186 307 254 133 239 323 266 258 237 170 251 306 331 336 327 297 245 248 180 236 253 176 259 205 238 251 223 210 245 275 304 258 307 263 248 278 230 280 209 254 170 296 188 288 281 277 230 283 265 280 326 262 298 254 213 339 319 304 271 177 267 270 268 317 215 216 268 282 318 255 182 269 230 228 245 267 251 237 224 285 184 191 265 196 246 155 204 214 236 253 264 237 265 209 238 272 237 230 229 322 347 198 207 251 369 232 283 263 248 247 291 321 246 315 212 243 230 197 254 189 275 246 237 158 265 212 298 183 258 292 193 313 195 235 362 260 188 252 178 226 300 206 205 317 284 149 182 217 240 237 233 211 299 340 358 159 183 257 274 234 237 155 240 225 274 203 135 275 205 192 311 261 202 217 293 264 325 191 287 301 204 148 184 270 296 242 209 223 252 367 291 309 198 279 262 143 247 238 233 243 310 204 283 185 243 227 221 283 325 179 191 221 258 268 188 216 219 241 199 279 269 215 268 228 188 241 305 370 270 322 232 326 260 332 211 271 207 223 328 281 261 166 297 229 273 205 302 265 248 231 258 218 247 328 139 301 271 225 313 375 284 277 262 234 277 213 246 305 219 351 219 224 205 245 202 247 328 287 202 290 306 314 302 217 227 187 355 282 193 346 180 249 311 229 293 320 174 259 103 275 233 282 249 276 226 253 241 320 318 240 199 267 224 293 205 336 243 219 208 296 298 242 320 270 244 317 213 210 309 343 237 328 250 377 286 270 265 269 327 259 281 329 368 213 298 332 204 261 197 190 341 275 213 267 272 264 255 274 281 273 243 258 292 167 269 248 241 265 245 306 237 337 242 190 245 185 213 235 307 321 215 194 242 270 227 260 286 245 322 319 295 256 239 323 203 234 253 204 322 226 210 149 220 197 258 226 262 188 352 355 244 300 199 276 273 177 325 208 233 258 226 281 262 352 340 212 391 197 258 263 179 295 295 268 259 262 271 204 195 188 222 280 228 216 235 196 192 317 216 265 277 237 234 200 218 195 148 213 276 270 255 259 285 270 267 246 321 304 280 283 338 266 229 285 390 187 260 313 260 249 298 171 249 280 223 232 137 237 360 212 337 301 309 260 257 376 176 178 217 260 243 150 227 240 204 239 276 219 237 215 204 343 180 328 223 307 307 252 242 256 237 258 226 303 173 276 177 262 241 225 270 244 236 230 214 148 264 315 239 252 210 277 299 310 200 190 312 268 314 279 324 368 191 254 216 201 218 345 184 178 261 341 198 247 291 282 299 242 196 197 267 254 304 270 216 267 314 370 182 229 303 234 206 222 299 180 335 297 253 331 253 288 167 227 225 309 178 273 290 276 205 291 213 211 328 279 277 184 349 209 276 283 257 337 277 304 241 299 222 316 302 284 316 308 361 284 331 242 210 275 261 285 320 212 279 266 218 314 247 253 225 259 205 340 308 262 262 298 225 313 332 315 205 176 244 262 234 340 332 281 305 322 266 274 307 267 241 218 260 272 342 229 227 321 267 235 244 280 159 335 222 270 333 184 359 184 177 215 306 244 309 240 247 241 208 233 278 276 232 221 363 227 305 172 272 155 225 249 287 221 337 230 216 197 220 255 180 199 229 181 279 227 223 202 355 326 274 305 205 299 269 255 254 221 230 187 214 432 314 321 239 294 181 198 184 292 278 282 197 331 249 249 195 250 176 256 210 342 218 246 306 281 256 168 333 256 296 346 255 277 270 280 278 290 271 237 275 245 298 298 233 210 229 259 258 267 302 281 153 255 233 339 304 229 281 297 270 225 198 256 202 301 268 227 290 331 295 223 321 210 265 228 344 243 244 314 285 188 227 314 269 279 185 297 199 204 328 242 202 213 189 257 194 337 267 241 147 322 228 161 214 282 295 362 267 255 160 263 308 350 293 216 174 259 190 347 340 153 228 260 240 202 352 352 156 365 304 364 206 227 284 273 298 260 222 222 361 254 290 237 282 303 290 226 295 234 225 256 247 223 263 323 285 221 284 198 191 331 242 194 373 151 216 270 239 277 233 228 214 234 177 350 229 233 296 211 245 215 270 326 223 325 282 311 377 274 287 269 234 197 184 149 301 166 254 277 312 257 172 209 227 312 318 170 271 328 288 402 237 283 276 246 256 271 288 233 268 237 223 251 207 306 268 266 266 267 256 284 264 229 271 229 232 230 179 193 202 212 251 257 325 361 207 189 199 276 286 246 270 327 173 263 217 265 218 278 180 258 244 249 279 339 329 203 233 257 288 259 293 284 221 201 299 281 234 309 258 281 284 261 217 388 231 161 290 216 349 294 324 220 226 269 272 189 222 225 235 336 234 311 215 325 305 249 259 329 218 350 283 261 282 265 320 208 280 243 211 196 312 254 265 191 271 214 267 150 312 237 217 255 247 200 240 256 251 283 274 274 232 155 163 234 263 257 190 221 254 253 230 307 160 341 305 178 116 198 300 247 285 237 233 232 213 227 235 250 265 276 264 253 241 229 187 259 319 150 284 310 333 365 287 271 221 262 266 253 323 429 281 232 214 239 282 256 210 267 299 198 217 256 288 262 199 327 256 228 188 392 299 242 241 259 265 314 291 302 301 306 225 302 186 285 251 215 279 371 168 254 266 238 271 255 264 369 236 223 229 191 254 220 256 232 346 210 269 175 250 207 254 259 260 239 284 185 288 277 331 264 313 215 246 188 321 260 312 205 360 380 258 213 273 261 153 226 241 193 280 241 271 247 205 239 199 309 358 328 246 316 324 310 319 249 282 315 149 258 339 264 303 267 202 244 196 171 273 298 316 295 307 233 307 295 288 222 238 236 261 382 160 242 234 233 244 239 219 285 199 303 326 299 278 217 173 346 197 246 254 260 318 242 246 258 321 278 240 205 284 228 297 296 246 234 230 201 244 264 345 249 261 310 299 284 282 150 341 279 178 330 233 218 350 306 322 286 246 223 282 221 327 248 201 340 200 261 309 313 276 233 229 332 267 183 201 293 186 175 241 289 380 284 231 339 208 309 283 241 273 265 359 222 145 278 207 263 248 278 219 286 253 256 184 224 342 237 258 264 218 221 246 308 243 227 227 242 365 239 228 321 176 214 336 291 252 315 259 199 269 325 154 306 172 269 180 245 245 257 350 285 149 367 237 280 187 298 163 232 340 269 273 330 258 149 219 314 221 230 306 332 277 239 232 302 282 260 285 248 250 271 303 286 201 260 217 330 259 312 280 291 199 262 260 249 271 290 277 265 186 259 288 240 206 255 331 275 182 206 321 266 289 266 254 284 354 379 269 202 197 270 322 203 209 283 296 185 225 251 204 277 318 307 252 276 257 279 245 274 274 243 259 289 337 240 270 312 377 310 228 234 255 261 244 211 209 290 250 207 252 203 251 262 323 206 251 275 291 250 270 305 337 284 219 261 261 326 233 279 278 291 220 311 186 252 161 198 226 249 273 168 236 269 268 260 266 262 263 258 265 246 250 138 250 179 231 170 187 262 265 169 313 218 198 221 232 289 216 273 198 227 258 276 300 294 277 306 298 225 400 238 228 294 295 329 228 212 200 233 265 242 209 281 152 235 201 295 235 193 269 123 213 202 275 207 262 314 174 242 322 197 341 182 242 242 326 321 304 242 226 238 334 246 343 282 363 303 263 194 206 236 250 261 299 221 313 295 254 297 262 269 264 262 321 225 213 293 243 239 309 197 299 281 260 316 263 279 177 300 298 224 247 185 222 250 261 303 227 267 183 293 246 245 284 286 212 269 279 208 311 185 246 240 249 240 227 392 347 207 229 264 319 265 241 337 195 260 233 288 243 346 218 227 304 234 242 284 298 202 250 183 263 234 284 285 291 344 280 271 289 314 187 213 230 299 255 201 327 289 302 214 289 167 222 317 241 241 312 216 244 217 236 195 237 219 241 305 275 225 193 206 324 229 233 258 178 265 268 272 189 245 176 268 196 193 275 272 276 133 352 274 192 259 272 263 340 218 218 237 260 309 244 246 163 313 204 267 233 240 289 234 252 264 214 253 179 379 309 291 303 254 269 243 215 276 280 314 251 283 318 271 241 268 169 232 245 312 237 253 228 174 324 243 187 275 267 186 239 214 288 221 230 311 186 280 339 221 258 259 329 257 228 189 233 326 283 261 230 276 249 138 249 201 250 236 228 271 255 215 338 161 315 230 262 263 269 298 225 284 293 316 260 146 316 298 271 245 207 231 183 226 259 281 274 387 252 290 289 249 200 290 213 221 155 246 255 207 271 281 207 336 250 215 268 234 271 270 311 394 195 231 285 315 152 212 329 262 263 342 335 258 223 220 200 195 252 215 159 246 228 290 189 230 182 256 236 220 310 302 317 336 295 264 252 238 285 195 270 235 315 254 170 200 294 280 112 306 295 279 222 284 270 266 303 243 279 208 316 231 299 245 232 196 282 216 273 224 276 283 229 202 277 228 208 267 289 275 275 330 202 239 193 223 352 277 277 183 272 374 308 241 184 200 322 195 254 197 166 238 262 174 210 236 320 194 201 253 220 174 292 287 253 305 335 274 244 248 205 285 298 342 265 258 275 288 266 212 346 214 372 277 278 227 336 270 234 234 257 340 187 244 282 210 219 289 249 246 194 252 272 369 248 256 285 296 260 231 214 300 312 331 200 368 370 237 301 160 252 223 256 162 293 250 251 328 223 290 278 203 183 225 219 244 274 279 282 246 305 330 222 309 207 252 188 262 287 233 291 262 290 284 277 194 290 246 316 293 225 248 325 292 226 224 252 277 242 189 228 260 260 236 214 332 245 276 292 237 261 182 302 372 240 273 290 284 162 255 272 270 254 373 192 198 194 310 302 228 247 272 227 219 245 271 302 223 212 270 264 210 265 254 249 228 208 259 270 329 198 131 402 310 229 259 296 183 247 294 224 402 234 207 260 296 257 327 209 261 213 253 244 270 289 227 261 246 290 231 379 245 354 218 237 280 298 232 297 263 244 210 292 265 256 323 326 195 293 289 313 334 207 286 241 203 315 259 362 274 262 215 149 195 169 224 289 222 289 326 236 148 271 221 272 265 217 297 263 290 257 326 254 279 297 279 196 173 241 277 194 303 253 288 384 271 386 347 237 225 260 289 247 276 310 190 212 266 218 286 313 262 194 185 348 284 260 261 276 255 137 193 232 186 282 224 218 259 266 185 259 225 285 241 245 176 248 277 253 266 257 303 231 311 219 203 369 269 226 218 240 266 259 273 347 245 301 244 267 299 268 240 182 168 294 287 228 207 237 284 256 147 259 185 212 220 282 289 270 230 228 273 178 263 246 178 339 140 244 297 195 270 214 312 268 282 264 290 201 255 188 282 283 317 311 224 262 244 244 254 150 254 315 308 195 216 248 341 234 250 293 218 311 181 259 192 226 290 312 270 270 213 266 329 121 308 268 272 286 240 307 212 244 231 214 274 249 209 199 297 314 235 228 312 322 244 196 233 276 195 269 223 215 270 271 252 286 207 277 282 276 247 275 235 273 267 288 220 256 221 262 337 304 284 278 294 265 203 162 297 311 218 260 273 246 181 226 220 288 318 243 157 298 339 200 318 304 156 267 306 243 261 274 208 208 287 321 264 214 232 222 179 194 209 201 303 247 288 299 239 332 318 239 265 203 211 204 243 318 281 249 263 276 272 289 227 271 226 221 177 398 267 208 336 198 194 285 375 254 252 256 294 360 229 172 345 225 178 233 246 253 173 314 271 268 171 268 146 224 344 198 300 267 200 243 328 238 318 211 222 253 274 208 255 295 257 255 312 363 274 257 141 269 240 333 168 253 236 194 238 133 237 286 199 239 217 180 250 240 227 278 259 247 257 183 233 250 337 254 210 228 239 320 220 258 391 265 291 255 271 241 220 197 329 125 292 280 261 283 301 256 191 268 278 255 244 293 180 217 282 258 213 187 359 280 256 242 252 220 257 287 288 275 223 247 324 247 294 212 275 150 170 302 220 152 276 196 288 234 202 292 330 255 254 238 169 335 286 283 302 201 261 220 324 224 291 239 271 207 316 312 242 261 275 216 182 244 318 346 211 214 241 261 344 252 241 304 249 148 218 183 185 191 241 201 220 295 337 361 266 266 275 239 288 196 294 175 185 331 269 218 224 244 263 192 197 309 232 286 172 157 218 217 261 299 316 331 281 227 205 204 321 259 276 283 230 263 276 252 249 228 212 212 316 212 240 315 211 229 263 271 294 227 205 301 199 271 264 271 193 227 202 291 329 236 243 202 304 267 269 366 271 243 221 238 191 299 266 301 319 284 311 154 240 277 288 240 324 322 230 193 228 178 246 317 325 272 177 253 190 321 252 327 250 161 228 229 161 253 282 271 298 324 198 268 242 337 340 270 307 181 216 281 239 325 243 274 297 294 217 221 264 305 233 230 219 212 276 101 273 232 206 196 205 259 315 221 265 394 237 319 257 302 200 317 205 229 345 284 337 188 205 305 246 162 226 246 232 304 176 252 219 242 270 311 241 252 291 364 203 258 139 237 230 187 237 330 215 210 205 255 277 140 304 285 233 296 232 212 260 208 289 261 232 281 207 281 352 325 293 332 286 248 189 263 223 226 185 205 248 268 257 294 231 264 272 215 173 230 356 272 282 218 298 354 189 222 359 222 218 202 245 237 212 230 158 236 219 304 312 192 259 238 314 223 282 311 257 179 218 335 177 306 316 207 282 232 247 246 289 193 220 276 233 227 227 245 259 340 234 242 267 189 357 336 316 297 298 283 224 358 306 258 347 247 160 321 226 197 262 236 203 246 182 196 294 241 242 245 328 256 244 224 373 299 373 225 299 196 315 205 181 334 280 287 231 259 175 207 203 174 286 281 265 267 240 266 198 239 219 187 288 385 327 195 238 308 248 242 275 156 252 291 349 214 254 108 349 301 236 228 272 257 171 251 300 257 340 381 269 244 326 225 199 217 252 288 283 258 238 277 203 156 268 298 301 203 232 320 230 236 249 247 249 325 248 200 222 227 271 189 249 388 359 223 265 289 231 147 313 244 305 253 276 212 292 244 369 331 292 228 297 275 199 240 210 342 307 167 318 310 289 303 288 241 279 206 222 299 282 259 227 354 232 276 290 298 231 240 328 156 292 197 200 243 260 299 242 239 315 194 238 199 226 369 246 255 315 217 229 218 296 291 297 271 217 332 300 176 180 253 242 253 291 261 341 272 276 259 279 207 252 265 232 261 240 227 188 237 270 300 284 351 183 302 357 258 211 270 296 262 410 240 360 276 279 220 385 297 209 288 249 228 209 285 349 270 154 285 282 257 185 211 199 334 316 286 224 205 231 249 236 185 314 242 308 259 223 206 260 337 302 240 336 217 152 303 209 231 262 283 318 274 208 307 203 291 206 266 341 252 265 273 232 267 305 279 230 314 239 267 296 287 302 264 291 246 184 244 284 221 312 234 283 342 285 246 181 167 231 278 300 220 335 265 288 234 211 150 358 216 296 275 322 327 213 379 357 170 179 257 140 312 316 274 244 275 195 271 191 165 265 208 384 245 248 325 251 224 235 186 264 354 248 257 190 251 304 293 219 245 254 211 268 285 228 181 295 274 239 264 249 214 315 220 229 349 315 217 176 263 285 261 255 218 183 228 215 228 263 293 288 289 221 216 245 258 327 278 234 252 370 298 310 287 206 229 323 253 332 250 300 310 214 366 210 271 320 262 258 188 325 260 219 101 208 274 226 190 172 312 252 251 255 272 182 330 210 222 302 252 227 299 278 314 343 231 294 229 265 232 300 227 267 242 211 273 238 246 256 276 287 246 233 198 264 250 187 202 246 315 256 245 149 243 253 222 189 223 339 385 254 202 349 267 251 191 260 161 188 238 157 244 313 256 200 277 211 244 229 286 359 307 349 206 136 223 255 253 263 291 290 309 219 205 326 284 187 196 185 344 141 241 198 317 292 412 380 193 256 191 284 208 288 203 249 241 275 228 249 189 260 343 162 309 305 230 272 282 299 238 226 201 281 257 253 337 350 250 217 303 298 329 239 286 245 227 247 154 234 247 283 256 249 309 267 183 250 268 276 314 234 156 179 229 333 147 271 208 260 294 269 246 282 232 227 288 327 298 262 318 205 203 218 238 285 255 268 247 243 319 205 242 245 196 238 186 330 370 293 182 299 260 300 183 245 350 198 190 260 215 350 265 174 195 165 254 226 229 223 278 217 163 247 184 259 222 306 274 192 266 225 358 209 304 295 237 265 312 248 202 228 268 288 220 232 222 295 296 234 251 252 339 244 252 288 240 324 196 377 287 189 260 411 389 266 211 219 355 237 261 288 362 210 197 305 376 242 274 280 188 145 211 242 378 229 265 248 276 209 177 222 313 246 326 177 256 167 331 183 268 196 230 305 284 206 239 285 267 233 249 243 212 261 251 333 188 205 249 303 306 278 343 202 261 274 261 201 248 252 211 269 277 246 231 315 181 347 237 294 212 140 231 217 275 247 335 248 290 173 305 235 301 272 239 184 229 269 286 192 145 328 249 252 290 265 251 185 322 173 304 306 238 251 271 256 137 314 167 298 183 222 291 271 273 290 257 272 186 282 247 223 240 377 299 323 223 288 242 201 263 295 300 300 303 250 168 266 300 252 247 211 191 180 346 312 203 315 282 214 215 203 238 202 354 258 240 217 288 145 275 194 301 257 249 211 196 274 201 238 226 266 262 197 241 107 289 258 311 288 251 279 239 204 251 245 276 250 296 330 358 320 189 311 185 339 270 265 276 348 308 241 328 300 367 269 137 258 153 272 210 233 197 220 252 323 250 188 207 238 305 215 227 270 201 195 250 241 286 325 362 215 194 201 191 199 221 156 328 271 201 311 283 285 229 215 228 255 235 264 235 367 280 277 274 285 262 254 311 233 209 230 192 287 197 307 171 293 234 288 328 217 274 321 240 157 269 251 255 316 265 284 328 158 224 323 280 313 222 279 253 187 247 269 236 264 297 243 240 254 186 209 202 195 232 270 275 338 251 278 284 306 200 310 331 273 242 298 331 280 229 311 275 254 242 159 270 317 256 296 377 248 201 219 285 215 223 206 285 194 190 178 257 408 336 178 289 229 322 208 222 277 313 343 292 301 148 220 228 245 305 270 162 315 237 331 225 255 276 252 289 232 365 210 243 214 214 280 193 305 239 191 219 258 253 206 258 179 266 304 265 262 211 315 228 230 274 280 203 198 309 208 230 231 300 265 333 276 250 309 277 230 295 195 298 270 172 246 360 330 123 240 373 221 217 316 217 313 174 282 211 300 320 262 220 181 270 286 258 221 218 324 244 237 254 229 257 262 325 288 181 218 278 245 212 226 296 225 180 258 252 230 183 285 238 253 268 242 244 261 285 175 259 343 328 286 281 184 284 326 187 311 177 223 263 215 274 274 298 268 270 257 184 310 350 285 260 197 236 231 358 212 355 289 255 281 178 288 189 267 298 226 277 226 269 246 270 277 240 232 199 287 322 216 215 254 224 318 253 230 183 201 324 242 269 325 297 183 331 231 239 243 244 225 304 189 232 298 220 215 304 288 226 270 270 247 305 174 372 280 274 195 276 247 242 305 302 332 275 203 258 254 168 256 241 266 237 257 262 225 335 217 247 393 289 241 232 307 297 147 250 263 250 287 282 181 259 274 268 369 292 224 345 312 212 310 263 278 341 202 391 209 243 170 279 247 281 292 308 273 227 405 285 176 314 298 298 219 247 245 292 219 326 201 247 269 249 247 249 301 289 235 242 240 286 247 329 200 271 349 271 279 307 289 260 258 288 259 287 367 259 307 253 290 288 252 286 240 222 282 333 251 252 229 293 263 299 235 342 214 364 230 324 186 303 314 254 272 249 206 253 284 280 160 253 222 263 275 256 177 319 272 269 320 261 277 185 265 255 274 196 236 237 274 287 201 367 207 172 337 235 344 355 319 263 190 227 290 160 352 274 166 263 264 209 303 221 265 221 252 237 289 221 220 263 188 276 295 310 250 275 286 254 226 229 317 226 229 204 309 261 252 236 272 296 328 297 241 223 248 309 235 250 308 232 229 278 386 220 292 273 212 228 308 160 281 285 201 376 303 242 269 260 257 230 360 245 280 310 173 306 221 312 201 186 235 233 267 254 260 257 328 403 192 297 280 279 289 231 243 322 224 290 147 293 220 222 252 200 263 202 214 228 223 244 284 144 184 235 290 281 288 311 223 271 229 314 242 253 195 157 101 275 260 296 249 258 285 335 208 332 234 413 179 289 236 371 237 344 273 273 202 239 212 209 232 173 263 218 286 196 194 192 200 329 128 194 225 333 292 222 181 221 285 234 210 264 252 334 177 238 274 253 198 241 223 336 207 325 240 284 252 205 273 270 310 310 196 305 215 318 298 275 273 173 270 273 176 262 319 291 322 272 308 190 177 281 265 311 321 227 306 217 310 247 238 231 304 197 330 264 247 197 307 286 254 220 277 312 106 259 210 283 208 270 250 346 210 233 301 250 295 321 235 307 212 269 422 259 286 263 256 281 306 263 275 339 231 268 317 340 101 181 237 273 293 297 181 285 170 205 269 245 155 219 340 288 310 210 248 269 199 276 333 259 228 259 185 220 380 225 130 174 248 297 221 250 276 286 131 247 303 231 257 247 310 236 281 311 336 260 258 291 306 285 96 235 336 339 230 255 265 204 210 231 254 240 266 287 185 358 217 192 221 284 192 428 288 330 237 212 366 256 228 208 239 181 321 267 249 276 264 226 282 305 276 249 300 291 309 272 193 244 244 304 247 253 198 276 263 267 253 212 250 291 243 286 376 372 303 208 262 294 221 255 312 212 248 314 128 255 276 341 234 278 176 313 259 182 279 176 194 255 345 256 269 222 250 216 231 413 279 155 269 331 245 249 208 269 272 253 343 215 247 299 349 234 271 256 228 244 225 347 259 213 312 300 200 207 238 300 211 144 168 294 202 329 340 211 369 285 190 273 284 272 314 215 194 256 183 236 256 217 290 238 284 270 261 237 371 336 262 214 247 249 228 259 259 317 193 318 333 338 208 172 222 244 331 260 224 220 142 282 198 279 210 235 379 267 213 317 226 130 285 267 319 288 217 262 202 189 201 224 269 253 327 204 209 244 254 304 278 272 234 147 224 269 243 290 265 291 288 299 247 212 196 223 298 298 223 367 243 277 239 249 158 230 279 286 211 179 284 199 153 319 303 270 216 333 189 371 303 251 250 222 208 306 273 344 295 206 245 297 348 215 268 236 321 275 399 277 164 288 242 242 279 219 309 264 260 221 208 467 241 280 234 329 237 280 216 349 202 263 251 247 230 170 292 314 341 193 275 240 223 128 219 224 229 326 254 197 173 223 217 138 269 240 254 269 253 305 222 303 245 249 265 246 283 187 261 305 272 240 323 260 300 311 304 292 243 279 230 311 264 240 311 278 173 220 290 378 273 246 312 262 347 306 186 323 310 245 278 290 288 172 286 300 321 144 224 389 255 195 309 234 225 317 256 217 309 280 323 275 280 312 193 253 252 267 356 195 201 308 206 263 230 290 261 289 203 207 255 183 288 295 185 246 230 206 232 211 226 264 260 162 238 262 246 300 264 171 293 275 281 290 150 219 307 232 226 345 253 253 288 295 168 340 320 328 286 300 321 269 233 264 318 284 318 233 263 270 281 252 197 265 310 347 269 244 212 284 257 184 292 247 287 207 255 350 286 197 177 270 321 304 270 240 219 184 271 299 264 258 333 236 337 210 239 197 286 191 216 179 310 215 149 217 250 242 263 217 217 324 357 238 282 193 227 181 256 273 288 286 265 290 182 242 338 163 234 227 270 228 235 320 272 169 337 242 221 239 209 200 325 216 416 242 329 236 230 337 296 210 275 294 229 243 219 246 315 185 199 347 283 236 228 239 372 296 213 310 221 182 235 261 264 134 282 224 227 272 335 180 192 265 227 207 258 323 264 190 275 269 281 223 200 283 261 301 196 278 235 292 237 308 309 263 178 196 261 209 232 218 180 171 239 190 378 339 259 237 234 235 362 229 222 245 242 303 258 291 279 295 242 317 333 268 283 200 282 285 244 298 232 255 257 265 236 255 250 235 233 227 163 208 332 201 237 222 187 300 315 241 340 314 311 240 231 262 246 291 272 311 271 367 227 267 291 235 179 221 207 270 328 281 329 236 176 229 306 180 190 236 217 280 303 270 330 206 228 330 272 266 218 317 215 259 214 401 243 209 275 245 295 379 188 230 320 306 228 251 178 346 254 279 275 211 312 260 284 357 240 290 175 311 298 229 258 275 275 227 310 264 209 241 294 239 276 390 192 218 226 268 235 314 218 207 292 262 177 186 254 325 324 321 255 311 194 189 207 239 260 248 180 311 100 294 270 263 303 274 245 245 314 196 195 267 258 241 325 312 167 246 273 251 329 252 230 196 262 391 152 228 251 274 222 208 198 215 270 273 268 214 224 204 202 268 317 331 294 136 203 259 238 330 177 263 248 254 291 246 298 236 228 151 277 237 281 317 309 266 236 298 250 227 332 253 230 194 199 208 325 233 329 253 204 321 258 290 291 272 358 192 285 329 312 275 292 326 281 231 336 191 234 369 203 209 254 241 349 249 182 319 165 187 262 341 204 219 177 241 310 254 281 166 230 323 280 265 261 229 311 346 219 199 213 301 194 381 229 219 212 326 288 159 311 316 235 294 325 263 254 245 337 257 265 323 297 266 212 142 105 328 229 294 345 323 215 322 235 320 281 299 311 235 253 155 219 292 252 284 220 249 290 356 322 247 230 234 307 397 259 251 355 324 208 375 255 258 203 224 276 369 247 183 257 238 261 296 318 212 253 262 254 285 361 217 207 228 324 312 243 222 270 253 239 285 182 236 214 235 297 328 206 289 288 217 262 194 339 282 284 336 243 326 205 310 316 212 234 210 308 254 257 261 258 298 135 187 165 293 266 291 294 291 255 272 247 305 305 263 262 243 320 327 302 433 212 301 242 323 204 210 241 279 224 255 185 266 280 299 242 266 248 224 309 289 241 189 294 230 167 162 270 287 254 311 269 315 258 243 266 365 275 252 304 314 235 316 253 272 263 239 337 285 245 292 246 321 331 236 295 344 218 147 243 277 306 245 259 105 269 305 288 182 147 297 270 275 262 225 223 348 309 239 224 253 238 362 289 274 175 247 217 229 288 276 110 244 206 236 204 268 236 267 269 246 201 199 259 229 323 275 218 267 258 197 369 197 205 300 200 246 220 250 233 278 196 215 201 203 268 257 210 319 221 268 169 273 225 281 311 338 270 282 186 228 258 198 265 203 152 248 234 212 325 320 368 287 311 400 244 197 205 215 305 208 376 289 277 199 233 293 203 238 279 301 270 199 291 197 206 200 300 301 171 238 289 219 312 231 256 317 213 249 249 199 362 305 247 267 286 180 162 203 282 240 189 204 282 261 263 256 251 327 263 243 206 305 188 271 280 236 228 265 272 243 227 253 244 237 293 269 278 262 217 285 220 254 169 282 251 295 308 264 243 235 255 310 223 243 252 333 204 196 210 201 374 291 242 264 249 372 229 310 246 232 341 252 203 345 258 222 303 334 188 295 262 262 226 268 177 240 285 226 275 232 204 336 302 331 302 247 286 257 308 203 278 246 281 304 274 245 306 245 320 276 244 166 201 279 219 212 232 191 237 217 328 286 216 227 283 242 293 318 252 314 255 239 247 260 291 234 175 253 175 267 228 295 283 307 167 260 274 224 231 155 220 143 211 214 326 237 320 240 300 273 280 246 211 297 266 330 138 250 272 215 247 258 313 244 293 227 365 329 220 253 228 228 243 182 251 173 330 230 144 301 244 270 287 176 264 263 334 232 250 250 218 245 185 182 285 256 210 314 158 201 275 361 204 245 276 228 198 242 230 262 262 272 206 292 197 216 222 257 247 254 301 290 220 207 234 380 194 325 270 251 278 227 376 236 158 289 264 264 228 311 158 191 311 275 240 173 236 259 206 265 180 251 196 250 274 256 277 326 193 335 293 271 210 194 235 246 260 163 220 273 245 216 205 266 196 181 297 272 315 286 287 221 299 200 264 256 178 289 255 281 388 250 274 214 266 224 277 362 193 237 340 245 274 305 320 318 313 334 194 294 268 258 247 241 205 208 300 250 278 267 274 246 145 281 229 272 243 187 252 368 202 174 153 241 226 228 231 376 298 251 207 314 215 321 189 237 267 224 214 225 194 247 231 252 184 304 271 238 293 309 302 228 229 298 238 284 217 299 201 282 201 248 260 231 303 236 241 245 273 302 156 298 292 305 211 269 234 163 232 242 259 252 267 233 359 271 382 183 233 254 181 339 209 266 245 198 260 353 264 340 245 290 210 383 217 383 261 208 268 306 232 277 233 225 228 200 253 338 347 252 334 228 204 195 237 283 296 272 237 247 225 247 236 259 354 351 300 288 245 274 342 282 291 215 236 196 239 263 190 194 224 176 143 262 244 186 341 248 254 274 327 267 193 131 257 262 225 237 321 413 233 225 354 292 369 281 242 275 172 170 284 258 319 199 217 247 266 180 262 315 277 215 253 238 210 321 269 229 242 279 257 302 198 204 156 325 286 209 236 157 217 231 236 237 229 241 236 315 291 255 303 219 325 250 256 272 253 323 271 313 242 170 290 333 281 276 281 174 296 170 228 143 319 179 249 372 233 199 255 201 243 295 135 239 287 290 261 289 245 192 311 245 310 152 279 253 271 209 266 249 309 262 309 264 306 277 97 235 208 285 251 147 314 198 201 351 231 318 239 248 213 254 174 235 307 244 271 236 331 275 148 338 293 217 249 350 247 256 313 322 282 309 295 278 240 213 227 239 228 327 239 210 319 221 180 342 305 381 209 250 177 294 314 141 336 186 181 296 289 208 243 262 194 234 219 203 281 262 223 340 324 293 233 257 258 246 299 303 308 298 293 326 174 273 290 328 270 222 415 293 207 128 257 337 253 202 278 238 201 262 366 164 369 229 241 238 207 278 215 239 204 224 224 285 303 269 230 202 306 297 284 267 256 246 275 264 256 324 327 257 164 153 219 231 240 225 254 287 314 258 214 112 258 217 278 210 244 326 299 267 220 241 277 173 370 311 288 347 207 350 143 316 250 291 272 316 306 206 340 240 226 295 264 295 259 224 244 171 252 277 317 330 385 230 160 361 212 363 288 246 268 302 223 292 276 304 201 222 259 307 224 310 314 323 317 224 299 202 245 402 225 259 258 152 273 267 187 312 229 205 235 275 208 272 349 232 316 276 236 250 296 235 201 363 247 230 174 270 194 314 222 214 211 226 266 278 230 344 196 253 315 260 301 286 198 278 234 270 253 180 215 165 274 283 270 365 275 184 308 223 133 170 260 274 274 290 321 328 222 313 289 378 222 287 321 231 265 258 290 330 425 214 203 293 348 259 210 312 328 326 258 258 235 211 212 345 315 241 155 212 249 208 309 280 240 324 270 261 329 226 194 185 270 232 256 351 281 190 223 248 287 280 304 236 231 218 241 266 206 219 184 289 299 205 207 139 312 182 282 192 258 211 231 249 285 253 239 319 243 300 247 260 191 272 225 203 305 245 307 238 278 224 252 191 202 218 269 256 219 320 286 279 256 289 238 256 236 260 312 329 304 226 222 269 225 270 248 209 303 227 247 328 283 197 300 262 173 217 295 229 261 213 281 271 268 259 332 210 271 223 224 265 256 255 355 343 253 209 163 158 243 301 332 221 314 310 335 231 325 257 306 306 294 286 260 343 253 292 243 280 261 339 249 259 195 199 233 376 240 218 297 278 242 210 300 205 219 241 247 301 233 303 206 287 295 183 229 234 290 300 139 152 249 174 254 261 279 313 194 196 210 220 330 249 237 217 246 191 232 231 260 252 313 269 232 213 245 258 223 265 265 201 179 211 260 332 214 256 192 301 310 321 221 260 184 277 170 275 140 201 335 196 238 152 253 252 212 297 240 246 144 327 344 193 309 255 171 268 241 270 170 266 113 301 217 373 245 357 251 297 238 244 224 292 251 187 232 242 283 232 3</t>
+  </si>
+  <si>
+    <t>MIE(0.5272997865411568, 1.6546523361228105, -3.4211762038428764e-31, 1.5957409466989905)</t>
+  </si>
+  <si>
+    <t>0 1 2 1 1 3 1 3 1 1 1 1 3 0 4 2 0 1 3 2 1 1 2 1 2 1 3 2 2 1 1 1 1 0 2 0 0 2 0 0 1 1 1 0 1 3 1 3 2 2 1 1 2 1 2 1 0 0 2 1 2 2 0 1 3 3 1 1 1 0 1 2 2 1 1 2 2 3 2 1 1 1 1 0 1 1 0 1 2 1 1 1 2 1 0 3 1 1 2 2 0 0 2 2 4 0 0 2 2 1 0 2 1 1 0 1 1 2 2 3 1 3 1 0 1 1 2 2 0 3 1 2 1 1 3 2 2 1 2 0 1 1 1 1 2 1 0 3 0 0 1 0 3 3 2 1 0 4 2 2 0 2 2 0 2 0 2 0 0 2 2 1 2 2 1 0 2 2 1 1 2 1 0 1 0 0 2 1 0 1 0 0 0 2 2 2 1 1 1 0 2 3 1 1 2 2 3 4 1 1 1 2 3 1 0 2 0 1 1 0 2 2 2 0 0 0 0 2 3 1 3 1 0 3 1 1 0 2 1 2 1 2 0 1 2 0 1 2 2 0 0 0 2 0 2 3 1 0 3 1 1 0 1 2 1 0 1 0 1 1 2 4 3 1 3 0 1 1 0 2 2 3 3 2 2 3 1 0 2 3 1 0 2 3 1 2 1 0 1 0 0 1 2 2 1 3 2 2 1 0 1 1 0 1 0 0 1 0 1 1 1 1 2 0 2 1 1 2 2 1 1 0 1 1 0 2 3 3 0 0 2 0 0 1 1 2 3 3 2 0 2 2 2 2 2 3 0 0 0 0 2 1 2 2 1 1 3 1 0 3 1 1 1 2 0 1 2 0 0 2 0 2 2 0 1 1 3 2 1 2 1 4 1 1 1 0 0 2 1 1 2 0 0 1 1 0 2 0 0 1 0 2 1 0 1 1 2 2 3 3 3 2 2 1 0 4 4 1 3 0 4 1 1 0 0 1 1 1 2 0 0 3 3 0 0 1 1 2 3 2 0 2 2 0 0 1 2 0 2 2 0 2 2 0 2 2 1 1 3 1 1 1 1 3 2 1 1 0 3 2 1 0 2 1 1 2 2 2 1 1 1 1 2 1 1 2 1 1 1 1 1 1 1 0 0 2 2 2 3 0 3 1 3 3 2 2 1 0 3 1 2 0 1 1 3 1 2 1 1 4 1 2 1 0 1 2 2 2 1 3 4 1 2 2 1 1 1 2 0 1 1 1 1 3 3 2 1 2 0 1 1 0 1 1 1 2 0 1 1 2 2 0 2 2 2 2 3 2 0 0 2 2 1 1 2 1 2 3 0 0 2 1 0 2 1 3 1 1 3 1 3 2 0 1 1 3 1 1 1 2 2 0 1 2 2 2 1 2 0 1 0 2 0 0 2 1 0 0 1 1 0 2 2 1 0 2 1 1 2 1 2 0 2 2 2 1 2 2 1 0 2 2 2 1 1 1 2 3 2 0 1 0 0 1 1 3 1 3 1 1 1 2 1 2 1 2 0 1 2 3 1 2 1 0 1 2 1 1 1 1 0 1 3 1 0 2 2 2 0 1 2 0 1 2 1 2 0 0 2 2 1 0 1 1 1 1 1 2 1 1 1 2 1 1 1 2 1 1 0 1 2 3 1 1 1 1 1 2 0 1 2 1 2 2 2 1 1 3 1 1 1 1 1 0 0 0 1 0 1 1 3 2 0 2 2 1 1 3 1 0 2 2 4 0 1 1 1 3 1 1 2 2 1 2 2 2 0 0 0 1 2 1 0 2 0 2 2 1 1 2 2 1 2 1 0 1 1 2 0 0 3 0 0 3 2 1 0 1 0 2 1 2 3 2 3 1 1 2 0 0 3 0 2 1 1 3 1 2 2 1 0 3 0 2 1 2 3 2 2 0 1 1 2 0 2 1 2 1 3 0 2 2 2 1 3 3 0 2 3 1 1 2 3 2 1 1 2 2 2 3 3 1 2 2 1 1 2 1 1 2 1 0 0 2 1 3 3 1 1 1 3 1 2 0 1 2 2 2 1 1 0 1 0 1 0 1 1 0 2 2 1 0 0 2 2 2 0 2 1 2 1 2 2 1 0 1 2 4 1 0 2 1 3 1 2 0 1 2 0 1 3 1 0 1 1 2 1 1 2 1 1 1 2 2 1 1 2 3 0 2 1 1 1 0 0 2 1 2 1 1 3 3 1 2 1 3 2 3 0 1 1 2 3 1 3 1 0 2 3 2 1 0 1 1 2 1 0 0 2 1 1 4 3 0 2 3 1 1 0 1 2 1 3 1 1 1 2 2 2 2 1 1 1 2 2 2 2 0 3 2 1 2 0 1 2 2 2 0 3 2 2 2 0 1 2 2 1 1 2 1 1 2 2 0 0 1 0 1 0 1 0 1 1 5 2 1 2 0 1 1 3 1 2 2 1 2 0 2 2 1 2 2 1 1 0 1 0 1 0 0 2 0 2 1 2 4 2 2 1 1 2 1 1 2 3 1 1 0 2 0 2 2 1 1 2 1 0 1 2 3 0 2 3 1 2 0 1 0 2 1 2 1 1 3 1 1 0 0 1 2 1 3 0 0 1 1 1 0 1 0 2 3 3 1 2 3 0 3 3 0 1 2 3 2 2 3 3 1 0 1 1 2 0 2 2 2 3 2 2 1 2 0 1 1 1 3 0 1 0 2 1 3 2 2 1 1 1 0 2 0 3 2 1 1 1 1 0 0 1 2 0 2 0 3 0 1 0 0 3 0 0 2 0 1 0 1 4 1 0 2 2 0 2 1 0 2 2 2 1 2 2 3 1 0 1 0 1 2 0 2 2 2 0 2 1 1 1 0 2 1 1 0 2 2 2 1 2 0 2 2 1 1 0 2 1 0 0 2 3 1 2 2 3 1 4 3 2 1 2 2 1 1 1 2 0 2 1 3 1 2 1 1 0 2 3 1 0 2 2 2 2 1 0 1 2 0 2 2 1 1 2 1 1 0 1 2 3 2 1 1 1 2 1 4 1 1 1 2 1 1 1 1 0 2 0 3 0 0 1 0 0 0 2 2 1 1 1 0 2 1 1 1 1 3 1 2 1 1 0 0 1 2 1 2 2 3 2 1 2 0 3 1 3 1 3 1 3 0 2 2 1 1 2 1 2 3 1 1 2 2 0 3 1 1 1 2 2 2 1 2 1 2 0 1 2 1 2 1 1 1 3 1 1 2 0 2 2 1 1 1 2 2 2 2 3 0 2 2 1 2 2 2 0 2 0 0 1 1 1 1 2 3 1 0 1 4 3 2 2 1 2 1 0 2 0 2 2 1 1 1 2 0 1 1 1 1 2 1 0 1 2 1 2 2 1 3 1 2 0 1 0 1 3 0 1 2 1 1 2 1 2 0 1 1 1 1 0 0 0 2 2 0 1 1 2 1 0 1 3 2 3 3 0 0 1 2 1 1 1 2 2 2 0 1 2 2 1 1 1 2 1 2 2 2 0 0 2 1 0 3 1 2 0 0 2 0 0 1 1 2 0 0 0 3 2 1 1 1 0 2 1 2 1 1 0 2 3 0 1 1 1 0 1 0 1 0 1 1 0 0 0 2 2 2 2 2 0 1 2 1 0 3 2 0 2 0 1 3 3 0 1 2 2 2 0 3 1 2 2 0 0 2 0 1 3 3 1 2 2 3 0 2 2 0 0 0 1 3 1 0 3 1 1 0 1 1 1 0 0 2 1 1 1 1 2 2 2 1 2 2 0 1 3 2 3 1 1 1 2 1 2 2 1 2 2 2 1 3 0 1 3 2 2 1 0 0 1 1 1 2 1 1 1 1 0 2 2 0 2 0 1 3 1 3 2 4 1 2 0 1 2 2 3 2 2 1 2 2 2 1 0 2 1 1 2 2 0 1 1 1 1 2 1 1 2 1 1 0 0 1 0 0 0 1 1 0 0 1 3 1 1 2 2 4 0 1 1 0 3 1 2 2 1 2 0 2 0 1 2 0 0 1 2 1 0 2 1 0 1 1 2 1 1 3 0 0 2 1 5 2 1 0 1 0 1 3 2 3 4 1 2 0 1 1 1 0 1 2 4 1 1 1 1 1 2 1 1 2 1 2 1 1 1 2 2 2 3 1 0 3 4 0 1 2 1 2 0 2 1 1 1 3 1 2 0 2 1 1 3 1 1 2 2 0 0 1 1 2 1 1 1 2 1 1 2 1 3 2 3 1 1 4 1 1 2 1 2 4 0 1 1 1 3 2 2 0 2 1 1 2 0 1 2 1 2 1 0 0 0 0 2 1 1 1 1 0 0 3 2 1 1 1 0 3 2 0 4 2 3 0 0 2 1 3 1 0 1 3 2 1 1 1 1 1 1 2 1 2 1 0 0 3 1 2 1 1 2 2 2 1 0 1 0 1 2 2 1 0 0 1 2 3 3 1 1 1 2 2 2 3 2 1 4 1 1 3 1 2 1 1 1 0 0 2 0 4 0 2 2 1 2 1 1 0 1 1 2 2 4 2 1 0 2 1 1 1 1 0 1 1 1 0 2 2 2 2 0 1 2 3 1 0 3 1 0 1 1 2 1 2 1 1 1 2 3 0 2 2 3 2 2 2 1 2 1 2 2 0 2 1 2 1 1 2 1 0 1 0 2 4 1 2 3 3 1 1 1 1 2 1 1 1 1 1 0 1 1 2 1 2 2 1 1 1 1 2 2 2 3 2 1 1 2 1 2 1 3 1 2 0 2 2 1 2 1 0 1 0 1 1 1 0 0 0 2 1 1 3 2 0 2 2 0 3 1 2 2 3 2 2 1 0 1 0 2 1 1 2 0 1 2 0 2 2 1 1 1 4 2 3 1 1 0 1 2 1 0 0 1 1 1 1 1 3 1 3 0 1 2 1 3 1 0 1 1 2 0 1 2 1 3 1 0 1 1 1 1 1 1 3 1 1 3 1 4 1 0 1 4 1 0 0 1 2 1 0 1 0 3 1 1 0 2 3 1 2 3 0 1 2 2 2 2 1 1 1 1 2 0 2 1 3 0 0 2 0 0 1 2 0 1 2 0 3 0 1 0 3 3 2 1 3 0 1 1 2 1 1 3 2 2 1 2 1 1 2 1 0 0 2 2 0 2 1 0 2 1 1 1 4 3 2 2 1 1 0 1 3 2 0 2 2 2 1 1 1 2 2 3 1 1 1 2 2 0 2 1 1 2 0 0 1 2 0 1 0 0 1 1 0 1 0 0 0 4 0 2 2 2 2 0 1 1 2 1 2 0 3 0 2 1 2 1 2 1 1 2 1 2 1 3 2 2 0 1 0 3 1 1 1 0 3 1 1 2 0 1 3 1 3 3 1 1 1 1 1 2 2 2 1 2 2 2 2 1 3 0 2 1 3 1 1 1 1 2 1 1 2 0 3 3 1 1 0 0 0 1 3 2 2 1 1 0 2 0 2 0 2 0 2 3 1 1 1 2 3 1 1 1 1 0 1 3 1 1 2 0 2 2 0 0 1 2 1 1 0 0 3 0 2 1 2 2 0 2 1 1 2 1 2 1 0 2 1 2 2 1 0 3 2 3 0 2 2 3 1 0 0 3 1 1 1 0 0 1 3 2 1 2 2 1 2 1 3 1 1 2 1 1 1 0 0 1 0 1 2 1 2 1 3 1 3 2 2 4 1 0 1 0 2 1 2 1 1 1 2 0 2 1 1 1 1 1 1 2 1 1 2 1 2 1 2 2 0 2 1 2 0 0 3 1 1 2 0 2 1 0 1 1 2 1 2 2 1 3 2 2 1 2 2 1 1 2 2 2 1 1 3 3 2 3 2 3 1 1 2 0 0 0 2 0 3 3 2 3 1 1 0 1 3 0 0 1 1 0 0 1 2 1 0 1 2 2 3 2 0 3 0 1 3 3 2 2 1 2 0 3 2 0 1 2 1 0 2 1 1 0 2 1 1 2 1 1 0 2 1 2 1 0 1 0 1 0 2 2 0 2 2 1 4 1 0 1 0 1 1 2 1 1 3 2 0 2 0 1 1 0 1 1 1 1 1 1 4 1 1 0 1 3 1 0 2 0 0 0 1 1 2 2 0 2 1 1 1 1 0 1 1 2 1 2 0 2 1 2 1 1 0 3 0 1 2 1 3 3 0 1 2 0 3 2 2 0 0 1 2 2 2 1 3 0 0 2 2 2 2 1 1 2 0 1 0 1 0 2 2 0 0 1 2 1 1 3 1 2 0 0 3 1 0 2 1 0 2 0 5 1 2 0 2 1 1 1 3 1 2 1 1 1 1 0 2 0 1 2 1 1 2 2 2 1 0 0 1 2 1 1 0 1 0 1 1 2 1 1 2 1 2 2 0 1 3 1 2 1 2 1 3 2 2 2 0 1 0 1 1 2 3 2 1 1 1 0 0 2 2 1 1 1 1 2 1 1 3 1 1 1 1 1 0 1 0 0 1 2 1 2 1 1 2 0 2 1 2 1 1 1 3 0 0 0 0 1 2 0 1 2 1 0 2 1 1 2 1 2 1 1 3 2 1 1 3 1 2 2 1 1 1 0 3 0 1 2 2 1 2 2 1 2 1 1 1 1 2 2 1 2 2 1 3 1 1 0 2 0 1 0 2 1 2 1 1 0 1 0 3 0 2 3 1 0 3 1 2 2 2 2 0 2 0 0 1 2 0 3 1 4 0 1 2 1 0 1 3 2 0 2 1 2 1 1 1 2 1 3 3 2 3 2 1 1 2 0 2 2 1 2 2 1 0 1 2 0 1 2 3 2 1 1 1 2 2 1 1 0 2 1 2 2 0 0 1 0 2 1 1 2 3 1 1 1 2 1 2 2 2 0 1 2 1 0 2 1 0 1 2 4 1 0 0 1 3 1 1 2 1 2 1 1 1 1 1 2 0 1 0 0 5 1 0 1 4 3 1 1 1 3 1 2 1 1 2 3 2 1 1 0 3 2 2 1 1 0 1 2 0 1 1 2 2 2 1 2 0 0 2 1 1 2 0 1 2 0 2 2 0 3 4 2 0 2 2 2 3 0 2 1 2 1 2 0 1 3 1 1 0 0 0 2 1 1 0 1 1 2 2 0 2 2 1 4 1 0 2 1 1 1 1 0 2 1 1 0 3 3 0 2 4 1 1 2 2 2 0 1 1 0 2 1 1 2 4 2 1 1 2 1 0 3 2 2 0 2 0 1 3 3 1 3 1 0 0 2 1 1 1 2 1 0 1 3 2 1 1 2 1 1 1 0 2 1 1 0 1 1 2 0 1 2 3 1 1 2 1 0 2 3 3 2 3 2 2 1 2 0 0 0 1 3 1 0 0 1 1 2 2 2 2 1 0 2 2 1 1 2 1 1 1 2 2 2 1 1 3 2 3 2 0 1 2 2 3 0 4 4 1 1 1 0 0 0 3 0 3 1 0 1 2 0 1 1 1 0 1 2 1 1 2 3 0 3 1 2 2 3 1 1 3 4 2 0 2 1 2 1 1 2 2 1 1 1 1 2 2 1 2 2 2 0 2 2 1 1 1 2 1 2 0 0 1 1 1 2 1 2 3 0 1 1 1 0 0 0 1 2 2 4 1 2 2 2 2 2 0 2 2 3 2 0 3 1 2 2 1 1 1 1 0 1 1 1 2 1 1 2 1 0 2 0 2 1 1 0 3 0 0 2 0 1 0 2 4 0 1 2 1 2 1 0 1 2 0 1 2 2 1 0 0 3 2 2 2 1 1 2 0 1 2 2 0 0 0 1 1 1 1 1 1 1 1 1 1 1 2 1 1 1 2 2 0 4 2 2 0 1 3 1 0 0 1 1 1 0 2 0 1 0 2 1 2 0 0 0 2 1 2 1 1 4 3 3 2 1 1 4 2 2 2 1 1 2 2 0 0 2 1 2 1 2 1 2 1 1 2 2 3 2 1 1 2 1 1 0 2 1 1 1 3 3 0 1 2 2 2 1 0 2 1 1 1 2 1 2 0 2 1 1 2 2 2 2 1 2 0 2 2 0 0 1 1 2 2 1 2 2 2 2 2 2 2 0 2 3 2 0 1 0 1 3 1 0 3 3 1 2 2 2 3 1 1 1 1 0 1 1 1 1 1 1 2 1 2 2 0 3 2 3 4 1 3 3 2 3 1 1 0 2 2 4 2 0 1 2 2 2 0 0 1 0 1 1 2 0 0 1 0 1 1 1 3 1 1 3 0 1 0 3 0 2 1 0 2 2 0 0 1 0 0 1 1 3 2 1 0 2 1 0 0 2 0 1 1 2 3 1 2 2 1 2 0 1 3 1 1 1 1 1 1 3 2 1 1 0 2 3 1 3 0 1 0 2 1 1 0 1 0 2 0 2 0 1 0 2 2 1 1 3 1 1 1 2 4 1 2 2 1 1 2 2 1 1 2 2 0 3 4 1 0 2 1 2 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 2 2 2 1 1 1 1 2 0 2 1 2 2 0 1 2 1 0 1 0 0 1 0 1 1 1 1 0 1 2 1 1 3 2 0 0 2 1 2 1 2 2 1 3 2 1 0 2 1 2 3 1 2 2 2 1 2 2 1 2 2 2 1 3 0 2 2 2 0 1 2 1 2 1 1 1 0 1 1 0 2 2 0 3 1 2 1 3 1 0 2 1 3 2 0 2 2 1 1 1 2 2 1 1 0 3 1 1 4 1 2 0 2 1 0 0 0 2 1 1 2 1 2 2 2 2 0 1 0 3 0 3 2 2 0 2 1 1 1 2 0 1 0 2 0 0 1 0 1 2 2 2 3 1 0 2 2 1 1 1 1 0 0 0 2 1 1 1 2 2 0 1 0 3 2 1 1 1 1 0 1 1 1 1 2 1 2 1 1 1 2 1 1 3 0 0 1 0 1 1 2 3 2 2 1 1 3 1 1 2 1 2 2 1 0 2 2 0 2 0 1 3 1 2 1 1 2 1 2 3 0 2 5 1 2 3 2 2 3 1 1 2 0 0 2 1 1 1 1 3 1 3 1 1 2 1 1 1 1 1 1 0 0 3 1 2 2 2 2 2 0 0 1 3 1 1 1 1 1 1 1 0 1 2 3 1 1 2 1 0 1 3 3 1 2 2 0 4 2 1 1 1 2 1 1 2 2 1 1 3 0 1 2 5 0 2 2 1 2 2 1 1 2 0 2 2 0 0 0 2 1 1 2 3 0 1 1 0 1 3 1 1 1 1 1 0 2 1 2 3 2 1 1 2 2 0 1 1 2 0 3 2 2 1 2 2 0 0 2 1 0 2 2 1 1 2 1 0 1 2 1 1 2 2 2 0 1 3 3 1 1 1 2 2 3 3 2 1 1 2 2 2 1 2 1 1 2 2 0 3 2 1 0 1 2 1 1 1 3 2 1 0 1 0 4 4 1 4 2 0 0 0 1 2 4 0 3 2 0 1 1 3 1 1 0 3 2 1 0 3 0 1 1 2 0 2 3 1 2 1 2 1 1 2 0 2 1 2 1 0 0 3 1 2 0 1 1 0 0 1 1 3 2 2 5 0 0 1 2 1 1 2 2 1 0 2 3 1 2 2 1 1 1 1 1 1 3 2 1 3 1 2 2 2 0 2 4 1 1 1 1 3 1 0 2 2 0 1 2 2 3 3 2 3 0 3 1 3 1 0 1 0 4 1 2 0 1 1 0 0 1 0 1 1 1 1 0 2 2 1 2 0 0 1 0 2 2 2 0 1 0 2 1 0 0 2 1 2 1 3 2 1 1 1 1 2 2 1 0 2 0 2 2 2 1 0 2 0 0 2 1 3 1 0 1 2 1 1 2 1 1 0 1 1 1 0 2 2 2 2 2 1 2 3 3 1 0 1 0 1 3 2 1 1 0 0 3 0 3 2 2 1 1 2 1 0 2 1 1 0 0 2 0 2 1 3 0 3 3 0 1 2 3 1 2 2 2 2 2 1 0 0 1 1 1 2 1 0 1 2 3 1 1 2 2 2 1 1 2 2 0 1 1 1 1 2 2 1 1 3 3 3 1 2 4 1 1 1 2 1 0 1 2 1 1 3 2 2 2 1 0 2 2 0 0 1 0 3 1 1 1 3 2 3 0 1 2 2 2 1 2 1 3 1 3 2 1 1 3 1 3 2 2 2 3 2 3 0 3 0 2 0 1 1 2 3 1 0 2 2 1 2 2 1 4 1 0 1 1 1 3 3 1 0 2 1 0 1 0 2 2 1 0 1 1 1 2 1 4 2 2 1 0 3 1 3 1 2 1 0 2 1 1 1 1 1 0 4 1 2 0 2 1 1 1 1 0 1 1 1 1 0 1 0 4 1 2 1 2 1 1 1 2 3 2 3 1 2 2 1 1 2 0 4 1 0 0 2 2 1 1 2 1 1 1 1 1 1 0 1 0 3 0 3 1 3 0 1 2 1 1 0 0 2 2 1 2 1 1 0 1 0 0 3 2 2 2 3 0 1 0 0 2 0 3 0 0 3 2 1 1 0 2 1 1 1 0 0 1 1 3 3 1 1 1 1 1 2 1 1 0 0 0 2 1 2 2 1 2 1 1 1 3 1 2 3 1 1 2 2 2 3 1 2 1 3 2 2 1 2 0 0 2 0 2 1 0 0 2 2 1 1 2 0 3 1 3 0 0 0 3 1 3 2 1 3 2 3 2 4 1 1 2 2 1 2 2 2 1 1 1 1 0 1 3 1 3 1 1 2 3 0 1 0 1 2 1 3 2 0 1 1 3 2 2 0 0 2 1 0 2 0 1 2 0 1 3 3 2 1 1 1 2 2 0 3 2 3 2 2 1 1 2 1 2 0 2 0 1 1 2 2 0 2 0 2 0 2 1 3 2 2 2 0 2 3 0 0 2 0 1 1 1 0 1 0 1 0 3 2 1 1 1 0 3 2 2 2 2 2 1 2 1 2 1 1 1 2 0 1 2 1 1 1 1 0 1 2 0 2 1 0 0 2 1 0 2 4 0 1 1 3 1 2 3 3 2 0 0 1 2 2 0 1 2 2 1 1 2 1 1 1 2 1 2 0 1 2 2 2 0 2 0 3 1 0 2 3 0 2 1 1 2 0 1 2 1 4 0 0 4 0 2 0 1 1 1 3 1 2 3 2 1 1 2 1 1 0 0 0 0 2 3 1 0 1 1 1 2 1 1 2 2 2 1 0 3 2 0 0 0 0 1 1 0 1 2 2 1 2 2 1 1 1 2 0 1 1 0 2 2 3 3 3 1 2 1 2 1 1 2 0 3 0 2 0 2 3 1 0 2 2 2 2 1 0 2 1 2 2 1 0 2 1 4 0 1 0 1 2 1 1 0 3 2 1 2 1 1 2 2 0 2 2 2 2 0 2 1 1 3 1 3 3 2 1 2 2 2 2 1 0 1 1 1 2 1 2 0 0 1 1 0 1 1 2 0 1 0 1 3 2 1 1 0 3 1 1 2 1 2 1 2 0 1 1 3 0 2 1 1 1 0 1 1 0 2 0 0 2 2 1 0 1 2 1 1 1 1 1 1 2 2 0 0 1 1 2 1 2 1 1 1 2 1 1 1 1 0 0 2 2 3 3 3 0 2 2 1 1 1 1 1 0 0 2 3 0 0 2 2 3 0 2 1 2 3 0 1 1 1 0 0 1 0 2 0 1 3 0 3 3 1 3 2 3 2 0 0 1 0 2 2 3 0 1 2 0 2 2 1 2 0 0 2 2 2 2 0 2 3 2 3 1 1 1 1 0 2 1 0 0 2 3 1 4 1 1 3 0 1 1 2 2 0 1 2 3 2 2 1 0 1 1 1 1 3 0 0 4 0 1 1 3 1 0 1 2 1 1 1 1 3 1 0 1 0 0 1 1 1 2 1 1 1 2 0 1 1 2 0 2 2 1 1 2 1 2 1 2 1 3 2 2 2 2 1 1 1 2 1 1 2 3 2 1 2 0 1 2 2 1 1 1 2 0 1 3 2 0 3 0 1 2 2 0 0 1 1 2 2 0 0 3 2 1 2 2 2 1 2 2 2 0 4 2 2 3 1 1 2 1 2 1 2 1 0 1 3 0 1 0 1 0 2 0 2 4 2 2 0 1 1 2 2 1 2 1 1 0 1 1 1 2 1 0 2 1 1 1 1 2 1 0 0 2 2 2 2 3 1 2 1 1 1 2 1 3 2 0 1 0 1 2 1 2 2 2 1 1 1 2 2 2 2 0 0 1 1 2 0 0 0 2 2 1 2 1 1 2 3 0 2 0 0 0 1 2 3 1 3 1 0 4 1 0 1 1 3 4 2 2 1 1 2 1 3 1 2 2 2 2 2 1 0 0 2 3 3 0 0 0 0 1 2 2 3 0 0 1 2 0 3 1 1 1 3 1 0 0 3 2 1 0 1 1 2 1 2 2 1 1 1 2 1 0 1 0 1 0 3 0 1 3 1 1 3 0 1 0 1 1 1 2 2 2 1 4 1 2 0 1 0 0 1 1 1 2 0 2 2 1 0 3 1 1 1 0 1 2 0 2 2 2 2 0 2 2 2 0 0 1 1 0 1 1 2 1 2 2 1 3 1 2 1 1 2 0 0 0 1 3 1 2 2 2 0 3 0 2 3 3 2 0 2 1 2 2 1 1 1 2 0 0 3 1 2 1 1 1 2 3 1 2 1 2 2 1 2 1 3 1 1 2 0 4 0 1 0 2 3 1 0 2 0 3 1 1 0 0 3 1 2 2 1 3 1 2 1 1 3 1 1 1 1 2 1 0 3 2 1 0 1 1 2 1 1 0 1 0 1 1 1 1 2 1 2 1 0 0 3 1 3 0 1 2 0 3 1 1 1 1 0 2 1 0 0 1 3 4 1 2 1 1 2 2 1 3 1 2 1 2 3 1 1 3 1 3 0 0 0 1 0 2 1 3 1 1 0 2 2 1 2 0 1 1 1 1 1 1 2 1 1 2 0 0 3 1 1 2 1 0 2 2 2 2 0 2 1 2 2 2 1 2 1 2 0 2 2 1 1 2 1 2 2 3 2 2 0 0 2 0 2 3 1 2 1 2 1 2 1 1 2 3 2 1 0 2 1 1 1 1 0 1 3 2 2 2 3 0 2 3 1 1 1 1 3 0 0 3 2 2 1 1 2 1 2 3 1 0 0 1 1 2 0 3 2 1 1 2 2 1 2 0 0 1 1 2 1 2 1 2 2 1 2 0 0 1 0 2 2 0 1 0 0 1 2 4 3 1 1 3 0 0 0 2 0 0 0 2 2 1 3 1 2 1 2 1 1 1 0 1 1 2 1 1 2 0 1 1 1 1 1 1 3 2 2 1 2 2 1 1 0 1 2 1 2 0 1 2 1 2 2 2 1 1 4 2 1 1 2 3 0 0 1 1 0 1 2 1 1 0 1 2 3 1 1 1 0 3 1 0 1 0 2 3 3 2 0 0 1 2 1 4 2 2 1 0 1 1 2 1 5 0 2 0 1 1 3 2 3 0 1 2 0 2 2 1 2 1 0 3 2 1 1 3 2 2 1 1 1 1 1 1 1 3 2 0 3 2 0 0 3 2 1 1 2 2 2 1 2 1 1 1 1 1 4 1 0 1 3 1 1 2 0 1 1 2 2 2 2 2 0 0 1 3 3 2 0 4 2 0 0 2 2 3 1 0 0 2 1 3 0 1 3 3 0 2 0 3 1 0 2 2 2 1 1 0 0 0 2 1 0 3 1 3 2 1 3 2 2 3 2 2 0 1 2 1 1 0 2 0 2 2 1 1 2 3 1 2 1 0 2 1 1 1 3 3 2 1 4 1 3 4 1 2 1 1 2 3 1 0 2 0 1 1 0 3 2 1 3 1 4 1 2 1 1 2 2 2 0 2 2 2 1 2 2 1 0 0 2 0 1 1 3 2 1 1 2 0 1 2 1 3 2 1 0 1 0 1 1 1 2 1 3 1 2 1 1 1 2 1 2 2 1 2 1 3 3 2 1 0 0 1 3 1 0 1 1 2 2 1 1 1 2 1 2 2 2 0 0 0 3 3 1 1 1 1 3 0 1 1 2 1 1 2 0 2 1 1 3 2 2 2 0 0 0 2 3 2 2 2 0 1 1 1 2 1 0 1 2 1 0 1 2 1 0 2 1 3 1 0 3 2 1 1 1 3 1 2 2 3 2 2 2 0 2 2 1 1 2 3 1 0 1 3 0 2 1 1 1 0 3 1 1 1 2 2 4 0 2 1 1 1 1 1 2 1 0 2 2 2 0 2 2 1 2 1 0 0 1 2 1 1 2 1 3 2 3 0 1 2 2 0 2 3 1 0 1 1 2 0 0 1 3 0 0 3 1 0 1 0 0 1 1 1 3 2 1 0 1 1 1 1 2 1 0 1 2 2 3 1 1 4 3 2 0 2 0 0 0 4 3 0 3 2 2 3 0 2 1 1 1 0 2 1 0 3 1 1 1 0 0 0 3 1 1 1 3 1 1 2 1 2 1 1 1 1 2 2 1 2 2 1 2 0 2 3 1 1 2 1 3 2 0 2 1 0 1 2 1 4 1 0 2 0 1 0 1 3 0 1 1 0 1 3 1 2 3 3 2 3 0 1 3 2 1 3 0 2 1 2 2 1 2 0 2 2 0 1 0 2 2 2 1 1 1 1 1 0 2 1 2 1 2 1 1 1 2 0 1 2 2 1 1 1 1 0 0 3 1 1 2 2 0 2 2 1 1 2 0 4 0 1 1 3 1 1 1 4 2 2 2 3 3 1 3 4 0 2 0 0 0 1 2 1 2 4 1 2 2 1 2 1 0 0 2 1 4 3 0 2 0 2 1 1 1 0 0 1 1 3 0 1 3 2 1 2 2 0 0 1 2 1 1 3 1 3 0 3 0 1 2 1 1 0 1 4 3 1 2 1 1 2 0 0 4 2 2 1 1 2 1 3 1 2 2 2 1 1 1 2 1 0 1 1 2 1 0 0 2 1 1 2 0 2 1 2 1 1 2 0 0 2 2 3 1 2 2 3 1 4 1 1 1 4 0 0 2 2 2 0 2 3 0 2 1 1 1 1 2 1 2 2 1 1 0 0 0 1 3 1 3 2 1 1 1 3 2 0 1 1 2 1 2 0 3 2 1 2 1 1 3 3 1 0 2 3 2 2 2 4 1 2 4 2 0 1 0 1 2 1 1 0 0 3 2 1 2 2 2 1 2 1 1 1 1 2 1 1 1 1 2 0 0 1 0 2 1 2 2 2 2 0 1 0 1 2 2 2 3 1 0 1 2 1 2 1 3 1 2 1 2 1 0 1 1 3 3 1 1 1 1 1 1 2 4 1 1 1 1 3 2 1 3 1 2 3 0 2 2 2 0 2 0 2 1 2 1 1 1 2 3 0 1 0 1 1 1 1 1 0 3 2 2 2 1 1 2 4 2 1 2 2 1 1 4 1 1 2 2 4 1 0 0 3 2 2 1 2 3 1 1 2 2 1 1 0 2 2 1 1 1 2 1 1 1 1 1 2 1 0 1 3 1 2 0 0 0 1 1 2 1 1 2 0 0 1 0 0 0 3 1 1 0 1 2 1 3 2 0 1 1 0 1 1 2 1 1 2 0 0 1 1 2 1 1 1 1 1 2 2 0 2 1 2 1 1 2 1 2 1 1 1 2 0 0 0 0 1 0 0 3 2 2 1 1 2 2 1 1 1 2 2 3 4 0 1 1 2 0 2 1 1 0 0 0 1 0 2 3 1 0 1 2 1 0 2 1 1 1 0 1 0 1 3 1 1 1 1 1 2 1 2 2 1 2 1 2 1 1 2 0 1 2 2 2 2 2 0 2 1 3 2 2 1 0 2 1 1 1 2 0 2 1 2 2 1 0 1 1 1 0 1 0 1 1 1 2 1 0 1 1 2 3 3 1 3 0 3 0 1 2 3 2 1 0 3 2 2 0 3 1 1 3 1 1 2 0 0 2 0 1 1 3 2 2 3 2 1 0 1 2 1 3 0 3 4 1 1 2 1 1 0 0 0 0 1 2 2 0 0 2 1 4 2 2 0 1 2 2 2 1 3 0 0 1 1 1 3 1 2 0 2 2 1 1 1 1 2 1 2 2 1 2 0 2 0 0 1 1 4 1 1 1 0 2 3 1 1 2 2 2 3 3 1 2 0 2 2 2 1 0 0 1 2 2 1 2 0 2 2 0 3 3 2 2 2 1 3 3 1 1 1 1 0 1 2 2 0 1 4 0 2 1 2 1 2 1 0 1 1 2 3 1 2 2 1 1 0 2 1 1 1 1 3 0 2 2 1 0 1 3 0 1 0 2 1 2 1 2 2 0 2 0 3 0 1 3 1 0 3 1 1 1 2 1 3 1 0 2 1 0 3 1 2 2 0 2 2 1 2 2 2 2 1 2 2 1 1 1 1 2 2 3 1 2 1 1 0 2 1 1 0 2 1 1 0 2 1 1 2 0 0 1 1 2 0 2 3 0 1 0 2 2 2 2 1 1 1 1 2 1 1 2 1 1 2 1 3 1 0 2 3 0 3 1 1 1 2 1 2 3 0 1 1 1 2 2 0 1 1 1 2 1 0 2 2 1 2 1 2 2 2 0 1 1 2 2 1 1 1 1 1 2 3 2 2 1 1 1 3 1 2 2 0 2 1 2 2 1 0 0 0 2 0 1 1 2 3 0 2 1 2 2 1 2 1 1 2 1 3 2 3 0 3 1 2 1 2 0 1 3 2 1 2 0 1 2 0 1 2 4 1 2 0 0 0 2 2 4 0 1 1 1 1 2 0 3 4 1 0 1 1 3 1 1 0 1 0 0 2 1 1 0 1 1 3 0 2 3 0 3 1 3 2 1 0 0 0 3 0 2 5 1 1 2 2 2 1 1 3 0 0 1 2 3 2 0 0 1 2 1 1 2 1 0 3 2 5 1 3 2 1 2 2 1 1 0 2 1 2 2 1 1 1 3 2 2 0 1 2 1 1 1 0 1 0 1 1 1 2 2 1 2 1 2 2 4 1 1 0 1 1 1 0 2 1 3 2 2 1 2 0 3 2 0 0 2 1 0 1 1 1 2 1 3 1 2 0 2 1 2 1 2 0 3 2 4 1 0 1 2 2 1 1 3 1 1 2 1 2 3 0 0 1 1 2 4 2 3 1 1 2 0 1 2 3 1 2 2 2 0 1 0 2 0 0 3 2 1 0 1 0 1 1 3 3 1 1 2 4 1 0 1 1 3 0 4 0 1 1 1 0 3 1 0 2 0 0 1 3 0 2 1 3 0 1 0 0 0 1 1 1 1 2 0 2 2 1 1 1 4 1 0 1 1 1 2 3 2 2 0 0 2 2 3 2 1 2 0 0 0 1 0 1 2 3 6 0 2 2 2 2 1 1 2 0 1 1 2 1 3 0 2 1 3 0 1 2 2 1 3 2 1 0 3 2 4 0 1 3 1 2 2 1 0 1 2 2 1 1 1 1 0 5 2 4 0 2 2 1 1 1 1 2 1 1 4 2 0 1 1 2 2 2 4 2 1 1 1 0 2 2 3 2 1 2 1 2 0 2 1 1 1 2 2 3 1 1 1 1 2 1 3 2 1 0 2 1 1 2 2 1 2 1 1 1 1 1 1 1 0 1 1 2 0 2 2 1 0 0 1 1 1 0 1 1 1 2 1 1 0 0 1 1 2 3 1 0 2 0 1 0 2 1 2 0 4 1 1 0 2 2 0 1 0 1 2 1 2 2 0 2 2 2 1 2 2 1 2 1 2 2 4 0 0 2 1 0 0 2 2 1 1 1 1 0 1 1 3 1 0 2 0 2 3 2 1 2 1 2 4 1 0 2 2 1 0 1 0 1 1 2 2 3 0 1 1 1 4 0 1 0 0 0 2 1 2 1 2 0 2 0 2 0 1 2 0 2 0 2 1 3 3 1 1 0 0 0 1 1 2 3 2 0 0 0 0 2 0 2 0 2 2 3 3 2 1 1 0 0 2 0 0 0 1 3 2 1 3 0 2 2 0 1 0 2 0 1 1 2 1 1 0 1 0 2 3 1 2 0 0 3 0 0 1 2 2 1 3 3 0 1 2 1 3 0 1 1 1 0 2 0 1 3 2 1 1 2 1 0 0 1 3 3 1 3 3 1 2 2 1 1 2 0 0 1 2 1 2 0 1 0 1 2 0 1 2 1 1 2 1 1 1 1 2 1 0 1 1 3 0 2 1 0 2 2 1 1 1 0 3 2 1 1 0 2 3 1 0 3 2 3 1 0 0 1 4 2 2 0 1 3 2 1 1 3 0 1 0 2 2 0 3 1 3 1 1 0 0 2 0 2 0 3 3 1 1 1 1 2 1 1 1 1 0 2 0 2 3 1 2 3 1 1 1 2 0 0 2 1 1 0 2 1 3 3 2 1 3 2 2 0 0 3 2 1 2 1 0 2 0 2 0 2 0 1 2 1 2 0 1 0 3 2 2 2 1 1 1 1 1 2 1 0 2 2 1 0 0 2 2 1 4 1 1 0 1 1 0 2 0 2 1 1 2 1 1 1 2 1 2 1 0 2 1 1 1 0 1 2 1 0 0 1 2 0 3 1 4 2 2 1 4 2 4 1 0 3 1 2 0 4 0 1 0 1 1 1 1 0 0 1 0 2 0 4 3 0 1 1 0 1 3 2 1 2 2 0 2 2 1 0 1 1 1 3 1 2 0 0 1 0 1 1 2 1 2 1 2 3 2 3 1 1 1 1 2 1 2 0 1 0 2 3 1 0 1 0 2 0 2 0 0 0 2 2 3 2 1 2 2 1 2 1 0 2 2 1 2 0 0 1 0 2 1 0 2 1 1 0 1 2 1 0 0 2 1 1 0 0 2 3 1 3 2 1 1 2 2 0 1 3 0 2 1 1 2 1 3 2 3 2 2 1 3 4 2 4 0 2 2 2 1 2 0 2 1 1 2 1 2 2 2 3 1 2 1 1 3 1 2 1 3 3 2 3 2 2 1 1 2 2 3 2 1 1 1 3 2 2 1 0 3 2 1 3 2 1 3 2 3 1 1 2 0 1 4 2 1 3 1 1 1 2 1 3 1 1 0 2 1 3 2 1 2 1 1 1 2 1 1 1 0 1 1 1 3 1 1 2 1 1 3 2 2 1 2 1 1 0 1 2 0 0 1 1 3 1 1 1 0 2 2 3 3 4 3 1 1 1 0 4 0 3 0 1 3 1 1 2 0 0 1 1 1 0 2 2 2 1 2 1 1 3 1 1 2 3 3 2 1 1 1 3 0 1 2 1 1 1 0 2 2 0 1 1 2 1 2 1 1 2 1 1 3 1 3 2 0 1 1 2 1 1 3 0 2 2 3 0 2 1 2 2 2 1 2 1 1 0 3 1 0 1 1 2 1 2 2 1 1 1 0 1 3 1 1 1 2 0 2 1 1 1 1 3 2 3 2 1 0 2 1 0 1 0 2 2 1 3 1 1 2 2 1 4 1 2 2 0 2 1 2 2 6 0 1 1 3 1 0 3 3 1 1 1 1 3 2 0 1 2 2 3 3 2 1 0 1 2 2 0 3 1 1 0 1 1 0 3 1 2 2 2 2 0 1 1 2 3 2 2 2 2 0 4 3 1 0 2 3 1 3 2 1 1 1 0 2 0 0 2 2 1 4 2 1 1 1 3 1 2 2 1 0 1 2 2 1 1 2 2 0 0 2 1 2 2 2 0 0 1 1 1 2 2 1 1 1 2 0 2 1 1 0 2 1 1 1 2 1 1 1 0 1 2 3 0 1 2 1 1 2 2 1 0 0 2 1 1 0 0 4 0 1 0 0 2 2 1 0 0 0 1 2 1 0 1 2 2 0 1 1 1 3 0 0 3 1 3 0 1 1 2 0 0 2 0 2 1 1 0 2 1 5 2 0 2 4 2 1 2 2 1 0 2 2 1 2 0 1 2 0 0 1 1 3 2 1 1 0 1 2 1 2 0 2 0 1 1 2 1 0 2 1 2 1 1 1 2 3 0 1 3 0 1 2 0 1 2 2 0 4 0 3 2 2 2 2 4 2 1 2 0 1 1 1 0 2 1 2 2 2 1 1 1 3 1 1 0 1 2 2 1 2 0 2 2 0 2 0 0 1 1 0 3 0 1 0 3 1 1 1 1 1 1 3 2 3 0 1 0 2 1 1 1 1 1 1 0 1 0 0 1 2 1 1 1 0 0 2 0 3 3 1 0 2 1 1 0 2 2 2 2 0 1 1 1 1 2 0 1 3 0 1 1 0 1 0 1 1 3 2 0 2 0 3 1 3 4 1 2 2 2 1 1 3 0 0 0 1 1 0 1 1 2 0 1 1 0 2 2 0 2 0 2 1 3 2 2 1 2 1 1 1 1 1 1 1 2 1 0 0 1 1 1 2 5 2 1 2 0 1 0 1 1 1 1 0 1 0 3 1 0 1 0 2 3 1 1 1 1 2 2 3 2 2 3 2 1 0 2 1 3 3 3 3 2 0 1 1 1 2 2 0 0 3 2 0 1 1 3 2 1 0 2 0 1 0 1 2 4 0 1 2 1 0 0 1 3 1 0 2 0 0 3 1 2 3 1 1 0 3 2 3 1 1 1 1 2 1 2 1 3 1 1 2 0 1 1 1 2 1 2 2 2 2 2 1 1 1 0 2 2 2 2 1 2 0 2 0 3 2 1 1 2 2 2 0 2 1 1 2 1 2 0 2 1 2 4 2 2 0 0 2 2 2 1 2 1 1 2 0 1 1 2 3 3 1 1 2 0 1 4 1 1 1 1 0 3 1 3 0 2 2 0 2 1 1 2 0 0 1 1 2 0 2 0 2 3 2 1 1 3 2 0 2 3 1 1 2 1 1 3 1 0 1 1 2 2 2 2 0 2 2 0 1 2 1 1 3 1 0 0 0 1 2 1 1 1 1 2 1 1 1 2 3 2 0 1 2 1 2 0 1 2 3 1 1 2 2 2 2 0 0 0 3 1 0 1 2 1 1 2 2 1 4 1 2 5 2 0 2 1 1 1 1 1 0 1 1 1 2 2 1 2 1 2 1 1 1 0 1 1 3 1 1 1 1 2 0 2 1 0 2 1 0 0 4 2 0 4 1 0 1 0 1 1 2 2 2 1 1 3 2 1 1 2 1 1 3 1 2 1 2 2 2 1 2 2 0 0 2 3 1 1 2 0 0 2 2 1 2 2 3 1 1 1 0 2 2 4 1 2 2 4 3 3 1 2 0 3 2 1 0 1 1 2 0 2 0 1 1 0 1 3 2 0 1 1 2 1 0 2 1 2 1 1 0 0 2 0 1 3 1 2 3 2 1 2 1 1 2 1 1 1 0 5 1 2 0 0 2 3 2 1 0 1 1 1 0 0 1 2 1 1 1 1 1 0 0 1 3 1 2 0 0 1 2 2 2 1 2 2 1 0 2 0 3 1 1 0 1 3 1 1 2 0 2 0 0 2 1 2 2 2 1 2 2 3 0 2 0 1 1 0 1 3 1 1 1 2 2 1 1 1 1 1 0 1 0 1 0 2 2 0 0 0 3 2 2 2 1 1 2 2 2 2 2 1 1 1 2 0 2 2 1 2 1 1 1 1 1 3 0 1 1 3 1 1 0 2 3 2 2 2 2 0 2 1 4 2 1 0 2 0 1 2 2 1 1 3 0 2 0 2 3 2 0 0 2 1 1 1 2 2 2 0 0 2 2 0 2 1 0 1 2 2 1 2 2 0 3 2 3 2 3 1 2 3 1 1 3 1 1 0 1 0 0 3 1 2 1 1 1 3 2 1 0 1 2 2 4 2 0 0 1 1 2 1 0 0 1 2 2 1 2 2 1 3 1 3 0 1 1 1 1 1 2 0 0 2 2 1 1 1 1 1 0 2 1 3 1 3 1 3 2 4 1 1 2 2 2 1 2 2 1 1 4 1 3 2 0 1 4 2 0 1 1 2 1 0 1 3 0 0 0 2 2 0 2 0 1 0 1 1 3 0 1 0 1 2 1 1 1 0 1 0 0 1 2 1 2 0 2 2 3 2 1 1 2 1 0 2 1 1 1 2 1 1 1 1 2 1 0 1 1 1 2 1 2 1 2 2 1 2 0 0 0 0 1 1 3 2 1 1 1 0 1 1 1 0 2 3 0 0 1 0 2 1 0 2 3 2 2 1 2 1 1 2 1 3 1 1 2 1 3 2 2 1 3 1 1 2 2 0 0 1 2 1 1 0 0 1 1 2 2 2 1 2 2 0 0 1 3 1 0 1 1 0 2 1 2 1 1 0 1 0 2 1 1 1 1 2 1 1 3 0 1 1 1 2 1 3 2 1 2 1 1 1 1 2 1 1 2 2 1 1 4 3 1 2 0 0 1 2 2 1 1 4 0 1 2 1 3 1 0 2 2 1 1 0 1 0 2 0 1 0 2 0 1 3 1 0 0 1 1 1 2 1</t>
+  </si>
+  <si>
+    <t>GAM(0.4634975626694845, -4.6702138738863984e-29, 0.5968084475782458)</t>
+  </si>
+  <si>
+    <t>1 0 0 0 2 0 1 1 0 0 0 1 1 1 0 0 1 0 1 0 1 2 1 0 1 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 0 2 1 0 1 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 2 2 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 1 0 0 2 1 0 0 0 0 1 0 1 3 0 4 0 1 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 2 0 1 0 0 0 1 0 0 0 1 1 0 2 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 2 0 0 1 1 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 2 0 1 0 0 2 0 0 0 2 0 0 0 3 0 0 0 0 0 0 1 0 1 2 1 2 0 0 1 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 2 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 2 1 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 1 0 0 1 1 0 0 2 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 1 1 1 0 2 1 0 1 2 2 0 0 0 1 0 2 1 2 1 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 1 1 2 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 3 0 0 1 1 2 2 0 0 1 0 0 1 1 2 0 0 1 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 2 0 1 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 2 1 0 0 1 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 2 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 3 0 1 0 0 0 0 0 0 0 0 0 1 1 2 1 1 0 1 0 0 0 1 0 1 2 0 1 1 1 0 1 2 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 0 2 0 1 1 0 0 0 2 0 2 1 0 0 2 0 0 0 3 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 2 0 1 1 1 0 2 0 2 1 0 0 0 0 1 0 2 0 2 0 0 0 1 0 0 1 1 0 0 0 0 2 0 1 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 2 1 1 1 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 2 2 0 0 0 1 1 0 1 1 1 0 1 0 1 0 1 0 0 1 2 1 0 0 0 0 0 3 0 0 2 0 0 0 1 3 0 1 0 0 1 0 2 2 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 2 0 0 0 0 1 4 1 0 1 0 0 1 1 0 1 0 2 0 1 0 0 1 1 0 0 0 1 1 0 1 1 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 1 2 0 1 2 2 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 2 0 0 1 3 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 1 0 2 1 0 0 0 0 0 0 1 0 1 0 0 2 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 3 0 1 1 1 0 1 1 0 0 0 1 0 3 0 0 0 1 0 0 0 3 0 0 1 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 3 0 1 1 0 0 1 0 0 1 1 2 0 1 2 1 1 0 0 0 0 0 0 0 1 0 2 0 2 1 0 2 0 0 1 2 0 1 0 0 2 0 2 0 1 2 0 1 0 0 0 0 2 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 2 1 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 2 0 0 0 0 0 1 1 1 1 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 2 1 0 0 2 0 0 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 4 2 0 0 1 0 1 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 1 0 1 0 1 1 0 0 1 2 4 0 1 2 0 1 0 0 2 2 0 1 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 1 0 0 1 1 1 0 0 0 0 0 2 1 0 0 0 1 0 0 2 0 0 0 4 0 0 1 1 1 0 1 0 0 0 2 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 1 1 1 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 2 1 0 2 1 0 0 0 0 2 0 0 0 4 1 1 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 2 0 0 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 3 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 2 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 2 0 1 0 0 1 0 0 1 0 2 0 3 1 0 0 0 0 0 1 2 1 0 0 1 0 0 0 0 1 1 2 0 2 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 2 0 1 0 0 0 2 0 1 1 1 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 1 3 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 3 0 0 1 1 0 0 2 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 2 0 1 0 1 1 2 0 1 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 2 1 1 1 1 0 1 2 0 1 0 0 2 0 0 0 0 0 0 0 1 0 3 0 0 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 2 0 2 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 1 0 0 2 0 1 0 0 0 1 1 0 0 1 0 1 2 0 1 1 1 1 2 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 2 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 1 1 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 2 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 3 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 1 0 0 0 1 1 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 1 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 3 0 1 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 2 0 2 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 2 1 3 0 0 0 0 0 0 0 0 1 1 0 2 0 0 1 0 0 0 1 1 0 0 0 1 1 3 2 2 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 2 0 1 0 0 0 1 1 1 0 0 1 0 2 0 0 0 0 0 0 2 2 0 0 1 0 0 0 0 1 0 0 2 0 2 1 0 0 0 1 0 0 0 0 3 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 2 2 1 0 0 0 1 0 0 1 3 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 1 1 1 1 1 0 0 1 1 0 0 0 0 1 1 3 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 2 0 2 0 0 0 1 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 2 0 0 1 1 2 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 0 1 0 3 1 0 2 2 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 1 0 1 1 1 3 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 2 1 0 0 1 0 1 0 1 0 0 0 0 0 2 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 2 1 0 1 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 1 0 1 0 0 0 2 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 2 1 0 0 0 1 1 3 0 1 0 0 0 0 4 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 1 0 0 1 1 1 0 0 4 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 0 0 1 2 0 0 0 2 1 0 0 0 0 2 2 1 1 0 1 0 0 0 2 0 1 1 0 1 1 0 2 2 0 1 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 2 2 0 1 0 0 0 0 0 0 0 0 1 1 2 2 0 1 0 0 0 1 0 2 0 1 1 4 0 2 0 0 0 0 0 1 0 2 0 0 1 0 1 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 3 1 0 0 0 0 0 1 2 0 0 0 0 1 1 1 0 0 3 1 0 0 1 1 0 1 1 0 0 0 0 0 0 2 0 0 3 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 2 1 0 1 0 2 0 0 0 0 0 0 0 0 1 0 2 2 0 0 1 0 0 0 0 1 1 1 0 0 2 1 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 2 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 3 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 3 0 1 0 0 0 0 0 0 0 4 1 1 0 0 1 1 0 0 0 1 0 0 1 0 1 1 2 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 2 0 0 1 0 1 2 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 1 0 2 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 1 1 0 0 2 0 0 0 0 1 0 0 1 1 1 1 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 1 3 1 0 0 0 0 0 0 0 1 1 0 0 2 2 0 0 0 0 0 1 1 1 0 1 2 1 1 1 0 1 0 0 3 0 1 0 1 1 1 0 1 1 0 2 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 3 0 1 0 0 0 1 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 2 2 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 2 1 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 1 2 0 0 0 2 0 0 0 0 2 2 1 0 1 0 0 1 1 1 0 0 0 1 1 1 1 1 1 1 0 1 1 1 1 0 0 1 2 0 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 2 0 0 2 1 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 2 0 0 1 1 1 0 0 0 0 1 0 1 0 0 2 1 1 1 0 1 1 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 2 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 2 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 2 0 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 2 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 2 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 1 2 1 0 0 1 1 0 0 0 0 2 0 2 0 0 0 0 0 1 1 1 0 1 1 0 0 0 1 0 2 1 1 0 0 1 0 1 0 0 2 1 1 1 1 2 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 3 0 1 0 1 1 2 1 0 0 2 0 1 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 1 3 2 1 0 0 2 0 0 0 0 1 0 0 0 1 2 3 2 1 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 2 1 1 2 1 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 3 4 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 2 1 0 0 2 1 0 0 0 2 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 1 0 1 0 0 1 0 1 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 2 1 1 2 1 0 0 1 0 0 0 1 1 0 0 1 1 2 0 0 0 0 1 0 0 0 0 2 0 1 1 0 0 2 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 2 0 1 0 0 0 0 0 2 0 1 0 1 1 1 2 1 0 1 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 2 1 1 1 0 0 2 1 1 0 0 2 0 0 2 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 1 0 1 1 2 0 0 0 1 1 0 0 0 0 0 2 0 1 1 0 0 0 0 2 0 0 2 0 0 0 2 0 0 1 0 0 0 2 0 0 0 1 3 0 1 1 0 0 0 1 0 0 1 1 2 0 1 0 1 0 0 0 1 0 0 2 0 1 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 2 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 1 0 2 0 1 2 0 1 1 0 0 0 0 0 0 0 0 2 1 0 0 1 0 1 0 0 0 1 1 1 2 1 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 0 0 2 0 1 1 1 0 0 0 1 0 1 1 1 0 0 2 0 0 0 1 0 0 1 0 0 3 0 2 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 1 1 0 1 1 2 1 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 1 0 3 1 2 1 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 2 2 0 0 1 0 1 1 1 0 2 0 0 0 0 0 0 0 1 1 2 0 1 1 0 2 1 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 3 1 1 0 1 1 1 0 1 1 0 1 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 2 0 0 1 0 0 1 0 1 0 1 0 0 2 0 0 0 0 1 1 1 2 1 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 2 1 0 0 0 0 0 1 0 0 1 0 0 1 2 0 2 0 1 0 0 2 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 1 0 2 1 0 1 0 1 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 2 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 2 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 2 1 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 2 1 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 2 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 1 2 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 2 1 1 1 0 1 0 0 0 0 0 0 2 0 2 1 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 2 0 0 0 1 0 0 1 0 0 1 2 2 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 1 0 0 2 0 0 0 1 0 1 0 0 1 1 1 0 3 0 1 1 0 0 0 1 1 0 1 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 1 0 0 2 0 0 0 1 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 0 1 1 2 1 0 2 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 2 0 0 0 1 1 1 0 0 0 0 0 1 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 1 0 0 1 1 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 2 1 0 0 1 0 1 1 0 0 0 1 1 1 2 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 4 1 0 0 0 0 1 1 0 1 0 0 1 0 2 0 0 1 0 0 1 0 0 0 0 0 2 0 2 1 0 0 2 0 1 1 0 1 1 0 2 0 0 0 2 1 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 1 0 0 1 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 1 2 1 2 2 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 2 0 1 0 2 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 2 0 0 2 0 0 0 0 0 1 0 2 0 0 2 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 1 2 1 1 0 2 1 3 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 2 0 0 0 0 1 3 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 2 0 0 2 0 1 1 0 1 2 2 1 0 1 2 0 2 0 1 0 2 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 1 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 1 0 1 1 1 1 0 2 0 1 0 0 1 2 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 2 1 2 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 2 0 2 0 2 0 1 0 1 2 0 0 1 0 1 0 2 0 0 1 0 0 0 1 0 0 0 2 1 0 0 2 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 2 1 1 1 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 1 0 2 0 0 0 0 0 1 0 1 0 1 2 0 2 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 3 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 2 0 1 0 0 0 0 2 0 0 0 1 2 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 2 0 0 0 0 1 1 3 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 2 0 1 1 1 1 2 1 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 1 0 1 2 1 0 0 0 0 1 1 0 0 2 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 3 0 1 0 0 1 0 0 0 1 1 0 1 1 1 0 2 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 1 2 0 0 1 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 3 1 0 1 0 0 0 1 0 1 2 0 0 1 0 0 1 1 0 0 0 3 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 1 1 3 1 0 0 0 0 0 1 0 1 3 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 2 0 0 1 0 0 0 1 2 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 2 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 2 0 0 2 2 1 2 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 2 0 1 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 3 1 0 0 0 0 0 2 2 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 3 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 0 1 2 0 1 2 1 0 0 0 1 0 3 1 3 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 1 0 1 2 0 0 0 1 1 0 0 0 2 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 1 1 1 0 1 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 1 0 1 0 0 0 2 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 3 0 1 0 0 0 0 1 1 1 0 2 0 0 0 3 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 2 1 2 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 2 1 0 0 1 0 1 1 1 1 1 1 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 2 1 0 2 1 0 0 1 1 0 2 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 1 0 2 0 1 0 1 0 0 0 0 1 2 1 0 0 0 0 1 1 0 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 0 1 0 1 1 2 0 0 0 2 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 2 0 1 1 0 1 1 1 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 0 2 2 1 1 0 1 0 0 0 2 1 0 0 0 3 1 1 1 0 0 2 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 1 1 3 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 2 0 0 1 0 1 1 1 0 1 0 2 0 0 2 3 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 3 0 1 1 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 2 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 2 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 2 0 0 0 0 0 1 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 1 0 0 2 0 1 1 2 0 0 1 0 0 2 1 0 0 1 0 1 0 2 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 0 0 1 0 1 1 2 0 0 1 1 3 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 1 0 0 0 0 3 0 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 2 2 1 1 1 1 0 0 0 0 2 1 0 1 0 0 1 0 1 1 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 1 2 0 1 0 0 0 1 1 0 1 2 0 1 2 0 1 1 1 0 0 0 0 0 0 0 1 1 1 1 1 0 0 2 0 0 1 0 1 0 2 1 0 0 0 1 0 1 3 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 2 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 2 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 2 1 0 1 1 0 1 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 1 2 1 1 0 0 0 1 0 0 0 0 3 1 1 2 0 0 4 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 3 0 0 0 1 0 0 0 1 0 1 1 1 1 1 2 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 3 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 0 1 1 1 1 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 2 1 1 0 0 0 2 1 1 1 1 0 1 0 0 1 2 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 2 2 0 1 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 2 2 1 0 0 0 0 1 0 2 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 2 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 3 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 2 1 1 0 1 1 1 2 1 0 1 0 2 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 2 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 2 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 2 1 0 4 0 2 0 0 0 1 0 0 0 2 0 0 2 0 2 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 3 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 3 0 2 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 1 1 0 1 0 1 1 0 1 0 0 2 1 2 1 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1</t>
+  </si>
+  <si>
+    <t>JSB(2.116080569999834, 2.375098524866443, -43.65679543163618, 459.04797910847003)</t>
+  </si>
+  <si>
+    <t>92 137 129 79 87 98 59 104 25 97 70 124 245 27 88 150 122 162 160 73 115 70 111 66 9 54 61 244 13 107 122 94 97 85 138 105 96 97 43 66 106 21 73 65 156 118 130 124 57 95 140 72 41 193 94 142 99 45 126 136 134 129 189 133 132 157 87 123 162 72 52 40 75 108 98 139 78 110 63 171 60 129 185 107 140 70 83 98 147 62 60 193 104 157 52 45 83 57 59 110 170 102 140 88 95 132 54 115 89 150 115 206 77 107 23 85 101 69 96 97 57 53 100 133 69 127 90 75 64 118 54 104 37 62 110 167 100 68 152 107 30 66 47 39 139 87 158 113 60 1 137 87 128 88 125 140 79 103 70 99 102 73 79 85 139 58 80 67 133 118 84 55 27 96 111 123 148 35 51 88 32 47 117 106 125 67 97 43 103 94 56 58 89 77 88 25 128 70 96 105 113 52 93 64 130 74 79 130 47 101 100 31 81 133 107 64 106 104 82 23 78 61 121 28 95 155 131 80 118 138 121 40 93 59 148 149 84 140 168 61 127 105 87 147 75 38 128 61 130 49 66 73 106 47 105 123 86 201 64 90 33 36 198 89 50 86 91 76 66 83 44 163 130 93 14 71 136 40 43 70 110 37 174 114 133 104 50 88 99 101 75 86 43 59 79 79 35 100 110 104 46 127 105 83 44 129 147 89 115 77 37 105 65 72 79 151 73 76 75 50 68 133 76 16 110 150 25 184 98 112 86 69 25 62 105 101 142 68 45 53 57 128 24 55 47 14 39 92 126 151 79 39 77 95 87 56 125 116 187 85 101 95 64 120 28 90 66 73 71 77 115 59 83 68 117 97 71 120 105 67 38 91 56 54 66 108 55 120 110 40 93 159 206 54 23 120 50 38 48 102 81 57 132 104 97 53 130 89 89 101 180 127 64 94 120 157 138 120 94 131 62 95 94 78 78 158 86 48 114 69 166 60 55 71 89 112 57 103 31 101 17 106 113 48 52 60 112 47 57 116 56 13 104 41 100 57 164 32 105 83 135 60 118 69 84 116 42 39 224 45 161 34 81 20 112 148 35 45 82 69 83 76 119 65 111 103 48 107 86 95 124 65 77 17 98 93 80 150 88 38 78 81 84 38 143 86 109 84 62 50 80 121 55 95 130 71 94 112 66 27 157 21 44 105 121 59 146 70 99 172 107 99 48 95 50 109 106 131 135 115 140 95 58 38 76 89 78 105 131 135 34 51 64 43 40 33 96 112 52 39 13 93 126 92 122 111 55 171 78 46 132 200 52 53 187 54 93 81 33 144 92 43 174 55 143 155 60 41 107 59 206 29 81 16 83 125 73 60 49 138 19 82 74 136 55 133 102 159 106 149 142 130 75 70 69 83 95 104 86 134 92 70 100 83 86 70 118 35 50 160 69 215 143 98 50 119 78 66 82 129 90 113 109 95 186 46 161 66 126 39 8 42 149 132 196 69 97 119 100 114 106 62 106 102 64 103 61 103 82 128 126 135 128 68 100 119 94 83 79 78 75 115 124 22 158 166 127 124 70 149 45 67 113 125 97 117 57 81 85 43 63 68 94 192 52 129 50 84 37 49 29 68 158 59 76 236 107 45 50 96 83 106 104 50 156 91 24 100 117 201 124 104 66 93 97 96 89 90 69 59 124 76 59 96 92 80 61 102 107 169 88 119 87 148 124 91 101 61 65 58 105 9 61 84 125 77 85 150 61 81 47 42 148 126 75 104 123 121 95 57 135 73 28 99 14 187 49 105 174 105 93 209 85 68 93 84 160 107 89 72 111 81 66 70 128 73 120 47 41 49 82 120 31 168 62 133 66 93 102 88 85 140 60 85 71 107 63 91 165 164 116 83 76 169 65 147 61 112 92 108 64 46 80 85 132 58 119 47 113 40 127 57 158 58 63 22 24 129 44 91 110 112 92 77 120 156 167 98 50 104 22 91 67 186 39 34 84 109 90 153 84 106 133 156 59 115 93 49 90 80 108 141 76 83 89 96 155 72 22 120 157 111 68 75 56 127 86 61 67 75 17 171 154 51 142 55 110 108 78 78 29 139 120 153 61 58 88 95 141 158 175 107 124 82 41 65 55 82 56 117 119 70 150 22 100 80 59 44 43 56 87 63 149 89 58 137 79 87 92 173 33 70 119 117 87 67 133 73 33 92 60 111 103 98 38 46 98 67 126 70 127 122 113 70 58 49 49 94 104 58 43 82 95 99 104 41 79 104 118 54 166 27 100 68 184 43 69 29 96 70 115 85 123 95 73 62 49 49 51 95 123 24 53 71 32 30 85 60 99 32 57 60 56 121 168 67 87 100 179 87 136 47 85 63 74 81 120 111 117 88 52 79 132 50 196 133 149 11 38 147 72 115 61 69 82 86 104 96 37 24 164 119 167 135 58 25 88 144 153 109 113 92 153 166 174 157 86 64 92 104 113 107 57 32 82 56 99 75 122 129 95 116 82 74 95 100 138 58 157 59 91 86 52 86 133 104 67 17 155 87 136 91 80 45 115 82 42 119 102 154 31 59 121 73 94 69 94 82 65 74 61 28 47 100 130 88 48 108 94 79 88 122 46 105 149 49 77 127 11 77 65 82 111 54 49 89 107 36 84 89 56 62 149 118 86 80 111 13 54 159 197 127 48 122 118 103 136 89 67 59 92 68 90 58 133 142 84 51 123 130 67 65 45 55 115 54 121 60 174 119 140 67 114 171 129 57 77 82 79 143 60 67 36 222 83 101 67 94 122 73 69 113 121 76 74 132 94 26 88 82 66 126 211 162 115 60 88 78 224 99 69 84 149 57 57 102 196 71 141 76 96 115 137 159 106 80 122 124 47 71 154 68 117 70 146 88 142 110 51 97 164 68 98 104 123 109 73 86 26 91 89 164 52 128 103 125 72 161 70 148 116 158 171 100 40 129 33 56 30 79 106 74 84 43 36 57 52 59 69 43 72 122 79 89 46 28 50 116 52 80 22 71 48 83 41 84 118 113 86 66 86 113 80 76 118 45 42 45 119 105 75 58 36 154 18 93 58 102 142 107 197 148 77 80 46 145 122 66 116 98 73 136 45 119 106 94 111 123 169 30 57 195 154 49 72 107 111 156 185 52 145 88 66 79 76 90 81 43 102 85 96 155 30 137 98 85 83 94 78 92 74 63 41 202 28 122 99 47 83 126 66 58 76 81 138 81 135 134 65 57 69 49 48 146 74 109 163 66 125 59 91 135 197 78 121 73 62 96 102 42 13 50 53 110 71 80 119 165 98 43 93 158 86 95 101 116 113 147 97 33 34 57 101 140 15 120 99 118 121 65 121 202 90 78 41 39 70 34 111 58 69 139 135 145 129 149 26 50 82 85 171 82 98 160 156 135 131 75 103 130 89 85 105 24 130 71 60 105 104 89 162 127 133 108 148 88 45 16 75 77 116 32 30 171 45 75 39 34 93 108 173 81 48 90 74 116 44 47 98 75 95 101 99 71 15 98 192 138 52 69 68 51 69 84 139 105 61 110 214 98 60 87 141 114 55 120 31 96 91 99 21 125 59 89 9 144 63 121 114 89 56 100 124 79 63 64 31 123 28 160 60 98 80 98 98 101 86 102 159 54 48 136 54 47 92 122 154 166 65 96 128 169 122 119 114 93 46 60 185 53 130 33 72 114 118 192 54 47 49 186 93 114 89 69 61 118 169 72 60 73 62 100 128 42 64 76 92 48 171 41 73 142 134 20 46 76 60 163 149 36 79 83 50 163 125 142 128 119 30 98 70 192 38 99 54 109 22 86 89 173 117 98 99 155 139 69 98 183 96 104 59 71 126 88 75 148 44 44 56 74 85 88 203 159 114 219 172 64 58 44 143 144 66 122 60 54 75 44 77 136 91 64 51 100 90 138 23 54 14 41 144 82 109 62 122 145 75 140 99 121 115 156 141 96 73 16 81 94 81 159 86 133 117 114 70 102 70 37 180 20 35 78 56 108 168 144 108 117 108 139 95 118 100 111 121 40 88 98 102 70 61 36 130 118 136 111 125 76 39 14 139 88 65 112 58 82 60 54 42 49 98 22 40 121 190 105 103 82 165 15 121 70 120 155 111 54 104 102 106 102 18 21 55 89 143 40 113 73 87 115 58 149 89 49 162 95 120 89 38 133 119 132 96 172 111 101 60 58 54 119 87 103 104 45 141 54 95 90 47 88 70 52 182 112 138 76 133 115 130 76 79 108 21 32 71 19 126 161 59 156 124 63 78 92 124 104 136 81 82 153 76 35 92 54 73 101 143 113 100 36 98 80 132 130 75 91 106 63 51 53 80 80 75 116 52 99 97 144 81 104 84 76 37 107 72 111 43 89 83 104 101 21 101 134 47 72 107 66 100 148 95 40 154 79 95 58 98 120 106 149 124 76 153 42 129 44 115 55 96 55 125 69 45 150 60 62 108 158 90 44 182 136 153 24 38 91 88 34 78 120 71 136 90 78 165 141 86 140 134 70 105 114 100 62 143 86 83 59 32 156 46 92 75 89 132 52 53 45 97 74 88 67 89 126 172 122 42 58 108 69 177 90 100 60 76 107 140 66 63 57 74 67 16 118 69 104 77 94 147 65 28 85 60 149 127 79 64 109 95 21 156 80 47 41 67 114 153 90 41 132 23 85 95 116 127 126 120 73 89 91 90 123 63 75 116 58 101 118 95 138 55 54 85 75 74 46 78 158 26 112 144 204 62 70 47 43 107 177 39 45 51 70 82 94 65 103 29 192 135 92 67 118 143 87 92 61 75 75 163 45 104 128 104 87 94 108 97 123 86 99 101 11 63 112 125 83 91 53 51 135 53 182 127 62 55 64 113 95 104 76 109 106 47 121 70 74 88 83 148 47 92 92 111 96 78 131 119 107 72 25 73 88 143 165 24 106 27 77 74 173 96 128 59 82 59 31 102 103 90 34 104 77 144 85 187 67 85 100 69 30 37 27 34 74 84 79 77 234 106 21 127 15 42 164 140 94 37 39 100 119 95 73 122 102 61 88 139 64 162 72 89 104 103 130 86 63 105 53 63 73 71 100 73 107 92 73 40 129 268 201 49 121 67 93 90 118 60 84 47 99 115 133 78 124 104 123 41 95 95 82 150 68 88 147 107 73 121 47 136 80 126 75 121 60 48 113 49 73 75 85 168 181 113 137 141 9 69 96 98 7 162 78 113 87 91 41 78 89 43 57 109 163 86 108 111 126 108 81 71 112 98 111 113 182 59 156 141 112 181 20 177 89 47 85 92 62 98 66 74 67 185 101 34 77 56 101 45 113 66 66 121 95 57 73 70 111 170 141 106 111 42 59 121 68 88 75 143 93 113 39 120 138 121 72 201 64 115 75 108 154 125 123 60 103 33 176 52 96 81 66 24 118 88 144 14 95 33 152 31 111 151 95 85 74 97 63 85 134 137 106 65 167 36 30 137 104 122 111 148 68 122 47 13 157 78 99 110 117 148 117 123 99 35 62 113 100 88 73 102 95 109 132 35 174 61 118 147 138 61 122 73 79 34 60 92 99 73 16 107 55 72 114 168 108 123 80 102 55 34 139 105 126 104 101 154 60 29 92 131 102 129 113 120 71 106 122 116 81 143 140 45 111 93 128 110 72 101 61 99 112 46 40 77 88 53 87 82 53 131 105 86 91 43 69 124 126 121 127 86 94 63 99 85 111 107 83 57 129 55 49 59 69 140 108 97 83 25 51 99 65 100 89 86 106 72 92 24 82 82 97 138 113 126 93 100 103 59 66 87 190 140 32 114 127 143 41 162 120 127 134 77 66 110 108 92 173 37 116 105 124 86 89 139 149 124 146 18 86 114 87 92 96 88 155 70 108 71 70 78 94 77 186 49 68 40 137 86 88 181 85 121 123 144 119 165 84 91 134 37 78 80 73 68 76 59 97 110 145 49 183 131 77 86 105 103 90 97 90 95 119 102 46 96 98 53 124 127 101 43 109 110 76 91 131 23 105 162 94 109 172 227 109 200 123 59 98 103 128 54 166 144 69 119 53 61 122 132 67 69 145 61 109 82 141 118 54 112 81 149 118 44 38 86 23 70 100 63 120 91 131 123 41 87 78 61 77 80 72 142 121 123 78 103 47 61 123 104 106 117 82 113 115 39 141 101 72 165 106 124 56 50 113 64 118 26 106 159 143 36 89 131 102 72 84 166 78 86 23 66 63 117 69 68 73 78 71 167 88 56 69 59 100 111 46 98 144 60 36 73 67 132 70 51 120 152 144 69 48 97 79 202 53 43 161 215 69 155 78 85 92 106 131 109 25 134 84 43 131 97 98 73 187 143 96 156 49 208 103 144 144 100 120 125 95 73 95 69 87 94 56 134 120 160 55 18 60 67 157 109 95 76 95 23 71 110 108 77 62 83 103 95 106 58 77 58 141 171 96 34 65 238 64 110 116 146 178 116 87 52 94 83 124 92 113 73 109 155 71 141 88 42 86 43 131 124 97 131 102 97 81 52 110 120 89 56 59 94 121 137 109 67 134 116 44 116 55 87 123 137 94 76 115 86 128 50 99 132 116 187 43 63 68 140 83 98 60 55 98 114 60 94 79 68 76 84 73 79 20 84 151 170 87 118 88 85 41 53 165 116 161 126 70 131 45 106 55 106 120 56 144 70 94 108 39 104 111 101 79 84 46 57 85 138 50 124 45 60 84 68 112 170 41 76 69 132 190 81 103 125 93 51 91 80 114 122 40 41 121 108 48 107 92 106 100 92 91 65 94 117 106 132 85 127 106 15 58 88 95 83 71 55 98 116 88 42 56 50 34 138 76 44 188 132 98 110 42 93 121 105 57 63 126 52 66 33 105 66 113 149 54 115 106 82 127 124 82 114 12 67 92 90 70 93 110 85 92 36 48 108 79 85 78 78 104 77 46 118 137 143 62 22 112 76 77 10 68 82 16 130 100 132 61 123 92 97 107 134 79 47 149 77 37 71 124 54 94 47 95 58 127 145 96 72 110 116 75 82 83 38 130 27 102 91 79 91 72 97 76 79 108 26 155 92 75 98 71 170 129 95 117 48 44 125 31 75 105 106 124 107 111 32 69 93 62 102 10 87 121 109 50 67 99 30 84 52 57 113 85 74 72 175 49 169 99 145 180 79 163 108 180 59 72 111 122 52 31 159 97 58 144 103 152 57 98 80 124 126 116 46 93 78 54 105 36 131 69 74 92 63 117 140 92 46 50 107 115 74 87 36 162 54 101 113 78 29 77 75 29 79 147 46 75 24 162 96 128 58 45 94 70 43 84 57 90 139 96 61 98 127 38 90 41 81 95 35 76 106 102 43 88 25 176 186 56 169 49 172 169 103 61 75 81 143 89 153 129 82 86 67 47 90 116 87 94 106 127 65 100 139 150 57 149 62 109 136 62 117 122 51 191 132 137 35 28 28 160 61 58 58 145 131 99 36 91 75 65 157 36 90 73 81 112 94 123 95 81 76 50 137 15 95 99 61 105 218 106 65 70 55 90 113 143 60 149 162 80 86 123 62 88 145 70 54 124 111 128 83 78 92 70 126 46 91 80 104 57 100 121 95 89 105 69 58 150 116 101 54 111 73 48 124 113 71 82 85 24 87 72 36 148 54 142 108 112 78 100 112 137 132 12 69 122 50 84 90 64 85 124 87 144 78 106 121 76 106 105 65 45 111 77 145 113 78 64 37 135 103 96 93 52 87 49 92 87 130 121 126 88 68 112 83 62 160 73 116 37 145 57 76 127 127 104 122 118 92 138 51 119 123 74 128 54 113 130 48 63 113 98 94 28 164 137 122 68 58 106 92 83 43 114 80 129 37 87 28 91 113 190 100 122 42 91 93 80 101 112 114 90 89 66 113 103 114 68 112 51 86 60 25 116 46 76 82 31 99 103 45 100 101 158 45 87 45 133 76 106 108 64 68 133 73 124 84 115 30 76 122 143 120 135 99 85 113 82 106 125 130 121 91 60 120 124 44 111 63 83 98 80 128 50 132 141 154 155 106 106 118 47 95 64 140 116 101 40 19 118 37 112 99 77 81 111 83 173 90 97 73 92 94 157 48 95 82 116 79 95 103 63 101 78 40 178 39 76 116 114 61 63 125 120 205 79 79 84 74 29 116 103 178 80 78 135 73 53 61 83 72 149 213 62 95 95 141 50 161 81 92 64 122 60 116 57 113 102 60 210 39 79 109 69 55 133 110 81 77 129 154 99 109 96 91 138 132 44 110 72 46 52 84 70 51 164 81 62 164 62 132 159 132 85 131 66 71 36 91 70 133 53 187 98 179 73 142 47 48 85 59 81 104 72 87 43 71 156 146 125 105 85 125 58 137 70 95 123 124 64 113 83 177 137 60 59 138 55 69 74 46 71 104 106 91 99 92 84 117 105 76 137 83 73 64 164 35 110 103 24 28 92 109 111 111 103 30 80 146 86 133 70 136 87 94 94 189 64 57 107 74 141 71 190 103 73 12 40 101 114 110 146 85 128 141 132 76 67 96 47 91 111 159 73 49 78 125 60 149 117 67 110 95 41 117 68 98 41 47 46 88 84 89 83 105 109 86 25 85 131 151 115 34 109 111 26 113 91 100 123 81 81 99 91 78 129 121 96 86 174 90 96 193 86 126 111 134 57 70 58 104 27 34 63 149 110 112 45 130 65 47 101 21 72 54 117 62 51 66 122 68 48 20 25 68 77 88 144 182 137 108 152 42 54 55 78 54 64 119 59 109 58 95 79 128 113 117 190 49 92 120 93 85 97 143 81 151 91 102 54 142 40 34 111 24 121 145 187 141 41 114 118 59 152 104 72 159 111 125 125 69 88 17 73 27 88 54 70 152 86 64 54 132 202 39 58 126 134 201 44 71 60 68 76 75 153 71 86 62 170 73 110 117 85 132 123 129 104 61 132 80 127 74 97 157 63 111 39 126 105 145 109 129 53 47 99 96 49 106 41 42 100 207 99 112 65 39 132 30 113 65 108 119 35 139 133 189 132 28 94 16 56 87 98 107 67 113 72 61 72 42 125 53 152 83 55 134 57 89 128 109 56 92 32 129 63 104 89 92 101 99 99 92 95 61 70 53 75 75 76 47 70 66 42 44 79 212 112 131 59 83 16 102 92 166 110 44 51 120 65 157 82 75 70 112 18 152 126 81 45 116 27 117 113 91 252 156 46 72 98 106 62 89 76 68 119 54 128 87 96 72 46 155 108 114 118 136 119 32 118 41 37 111 107 109 75 102 101 81 43 77 20 64 110 99 53 116 88 73 143 113 82 41 92 70 159 35 115 184 107 88 142 38 66 123 51 129 95 105 104 108 128 116 107 115 149 106 106 114 143 182 94 101 119 144 165 74 76 95 86 145 153 6 150 52 94 126 52 84 142 68 151 68 84 27 20 90 41 112 54 63 91 118 32 107 65 154 135 84 106 66 110 100 145 43 142 165 92 149 71 80 133 120 119 60 100 44 124 71 126 91 64 93 80 103 73 77 70 103 71 107 46 39 151 105 106 35 63 154 180 86 181 119 26 110 95 109 54 153 97 192 84 160 179 46 78 130 54 182 134 183 53 93 98 98 52 66 85 80 56 130 84 88 82 108 144 149 60 33 49 42 123 39 92 98 145 9 103 166 84 43 105 40 94 92 99 65 33 73 126 115 118 117 107 56 79 50 53 119 163 144 159 149 49 129 97 87 79 108 63 60 100 117 132 105 95 243 54 85 224 140 34 133 19 50 94 65 176 110 231 80 52 134 68 104 77 81 68 139 121 96 120 123 85 94 122 50 58 119 104 76 34 99 91 55 99 99 147 109 103 131 80 34 161 48 111 144 128 124 90 82 130 87 91 129 125 89 114 104 98 79 45 90 58 44 125 112 118 192 82 90 106 153 92 172 51 16 79 144 82 140 33 22 123 81 88 101 191 165 58 49 117 106 89 58 93 152 71 165 72 149 104 94 15 143 79 33 108 104 108 72 103 9 138 95 56 127 124 36 160 86 127 80 116 71 113 113 104 106 51 130 77 137 74 97 164 121 55 88 66 50 105 106 35 106 230 80 60 75 40 75 95 90 83 188 97 79 122 9 138 77 130 14 140 65 82 94 84 93 56 100 80 78 116 145 145 86 117 79 70 84 137 51 85 123 144 47 68 134 146 90 118 90 87 160 108 106 169 139 103 25 148 102 156 104 102 129 76 62 77 96 113 84 35 110 48 136 61 45 51 133 92 90 107 122 65 46 67 149 142 46 110 85 54 58 113 97 56 172 106 104 91 145 112 52 100 98 150 92 101 84 90 155 94 87 57 108 70 105 166 85 143 73 86 158 34 45 103 54 97 57 46 100 56 87 77 126 64 90 66 97 103 116 24 53 127 76 149 52 60 164 84 41 115 171 93 97 139 186 50 82 122 151 127 62 107 59 81 61 104 105 65 174 197 75 155 221 86 24 148 120 52 129 78 36 63 79 91 86 58 85 100 40 85 51 106 30 59 52 57 177 99 126 64 54 74 74 68 52 132 61 144 49 158 122 112 104 55 145 25 94 82 133 144 35 43 60 88 152 79 92 115 80 53 53 125 24 105 148 151 161 119 81 102 30 92 70 124 105 141 108 115 74 148 89 123 52 143 84 64 60 96 142 144 106 33 108 64 52 21 113 31 75 120 58 61 101 119 158 101 162 39 72 70 111 91 79 41 100 156 104 85 191 79 75 79 56 71 44 95 120 77 110 50 63 97 128 58 112 87 104 66 136 90 64 108 84 80 51 111 126 21 53 47 60 115 104 40 146 109 135 90 150 147 137 116 125 48 98 169 70 107 84 103 102 148 169 188 119 115 83 168 95 69 108 49 80 29 127 76 53 92 104 86 55 74 52 83 36 117 71 68 99 126 56 80 189 98 87 55 139 95 50 56 24 167 131 92 113 54 85 125 102 88 64 27 177 49 93 143 129 127 171 152 71 88 81 87 62 38 141 78 101 48 47 84 49 138 65 37 129 101 59 75 70 159 112 107 143 196 76 120 134 38 109 49 79 125 99 106 116 84 148 84 38 92 29 30 40 165 116 53 61 132 67 78 99 47 115 75 88 106 65 152 137 8 48 130 84 58 83 123 195 124 75 54 73 145 86 104 138 81 90 99 78 56 162 73 81 124 70 120 128 88 114 199 131 144 113 50 78 113 35 70 96 34 92 122 162 116 94 115 125 33 141 110 111 52 58 86 82 56 48 59 45 185 126 64 80 92 80 33 112 94 58 152 28 134 190 160 107 84 31 64 103 86 115 112 52 77 73 79 62 95 133 150 120 163 52 50 164 47 60 110 38 87 94 147 59 129 95 138 91 141 99 66 115 90 100 98 28 142 125 69 44 87 94 131 76 122 75 115 105 69 62 31 120 125 57 128 43 64 132 94 27 113 191 68 86 93 80 56 81 56 115 178 76 146 97 65 58 60 137 84 53 47 129 124 65 102 99 62 32 94 122 93 75 122 67 72 100 150 69 90 45 136 170 64 113 91 69 149 34 100 102 77 67 143 97 101 116 86 74 74 51 99 185 124 64 100 72 110 134 90 102 109 96 117 140 87 88 92 24 139 88 109 186 106 57 63 52 143 61 83 78 99 102 89 13 127 109 90 144 135 68 56 91 96 85 142 138 117 94 166 113 10 121 219 92 127 49 40 99 96 66 75 74 169 56 237 76 52 132 87 118 112 55 87 39 140 44 42 105 136 150 200 130 134 132 92 70 156 91 55 80 67 79 76 78 150 80 74 53 111 66 150 19 149 101 71 103 62 138 49 67 120 33 109 72 42 86 64 62 52 134 116 75 57 137 97 129 97 82 36 52 101 86 105 76 108 135 124 82 50 77 144 48 105 137 176 95 80 92 55 125 130 49 70 102 42 128 84 60 58 51 20 61 182 77 117 159 104 102 101 149 46 52 113 56 37 79 90 84 145 67 71 97 62 88 55 96 133 82 112 147 131 56 96 62 165 137 87 97 79 73 104 88 86 80 108 47 91 44 100 67 70 44 119 71 56 56 192 75 38 98 193 102 132 42 60 94 104 52 42 82 98 115 102 56 74 117 79 250 83 89 44 74 170 44 36 56 92 71 38 56 75 35 160 104 171 98 82 144 59 49 139 100 138 70 149 89 136 159 113 61 153 122 48 63 98 162 29 45 50 85 80 109 45 44 70 40 210 45 73 77 58 61 153 53 100 82 26 36 56 111 133 38 43 127 147 79 71 84 68 121 189 145 120 98 118 135 107 134 62 45 203 66 115 75 103 15 90 155 154 63 110 141 71 40 86 119 66 76 50 94 62 57 133 51 121 58 112 75 67 104 103 102 75 128 109 176 114 153 89 99 103 67 51 24 118 118 104 83 14 31 144 68 131 126 136 99 29 104 99 112 49 88 125 70 138 29 133 84 181 125 48 102 29 49 9 76 92 69 34 179 55 97 79 64 105 76 80 133 112 68 119 44 72 28 89 65 76 99 52 52 77 9 102 52 74 74 171 71 156 37 95 117 38 20 42 150 53 154 97 80 112 104 121 42 83 67 178 132 141 75 69 162 122 83 57 122 82 85 85 75 6 119 143 107 40 86 110 95 70 43 86 88 134 94 98 127 99 146 89 103 69 116 19 127 163 97 84 187 106 97 82 179 47 82 169 80 36 112 115 140 47 109 26 43 87 74 98 115 77 108 136 36 85 59 92 84 79 210 47 83 45 84 163 100 55 105 45 152 90 38 117 44 136 101 96 132 92 75 102 98 93 98 138 125 76 83 105 58 53 37 73 80 156 74 91 101 90 53 118 131 83 108 86 68 73 116 32 100 123 135 21 160 35 100 68 61 85 122 33 102 77 62 160 46 144 36 83 148 18 94 134 93 53 45 71 53 40 154 24 118 81 22 105 46 99 195 75 127 153 104 81 17 130 73 110 131 102 148 154 120 91 158 65 75 66 89 116 127 115 65 90 146 80 54 141 107 98 85 56 94 63 98 63 20 103 49 176 63 35 144 92 131 95 116 148 87 66 73 94 36 34 128 81 131 101 65 156 62 96 133 142 121 176 145 106 92 147 135 165 105 46 80 20 96 101 105 117 90 146 112 83 120 88 143 117 65 89 141 74 108 76 156 23 120 75 101 63 154 30 107 78 69 91 84 38 59 61 59 83 60 87 56 62 71 63 75 55 113 95 68 31 79 161 151 144 110 50 118 104 85 107 123 54 86 79 48 104 76 148 180 53 47 69 14 57 118 45 129 108 102 86 33 65 81 126 144 159 135 76 106 104 69 41 159 57 20 91 169 74 149 72 54 58 187 124 70 93 131 81 125 89 134 98 109 145 93 50 193 75 149 99 78 127 116 103 41 119 147 69 18 98 100 47 115 219 74 80 84 76 96 125 164 100 97 119 40 64 114 123 26 33 159 86 139 84 89 15 241 83 71 75 83 60 20 101 93 109 39 65 125 87 64 47 122 83 61 123 92 66 112 174 110 148 16 56 130 52 51 101 126 76 89 104 101 90 136 29 148 79 112 98 115 57 76 51 115 112 131 195 200 47 36 131 125 129 93 90 99 202 143 130 5 125 85 16 33 133 88 84 78 145 50 119 72 127 133 77 58 18 81 129 74 140 188 84 68 110 100 50 82 68 156 42 75 109 68 108 101 64 103 73 98 115 131 107 73 148 72 122 55 61 55 168 106 116 114 83 59 137 135 123 65 70 15 71 59 87 132 81 139 136 147 102 69 100 98 58 57 106 42 116 28 44 150 57 123 74 34 161 74 151 62 158 65 56 106 89 47 84 127 98 202 75 119 122 53 185 149 104 89 43 38 138 129 64 60 134 150 32 68 125 51 64 92 38 67 30 117 104 99 76 32 66 38 67 67 42 64 111 116 125 78 135 35 50 13 94 98 104 53 105 89 75 23 132 165 93 82 119 83 6 112 39 55 29 64 142 57 67 132 66 86 89 92 199 104 85 19 69 159 142 120 65 39 92 71 63 70 129 117 107 133 135 126 56 157 61 112 76 75 91 150 85 26 88 78 130 100 77 85 124 50 84 55 175 86 79 107 106 103 65 58 105 60 51 91 167 70 116 63 120 91 118 69 105 144 75 72 117 90 94 39 66 102 64 55 109 159 27 32 91 123 105 113 38 22 59 70 189 124 17 130 65 128 86 140 76 74 32 83 70 158 84 86 148 89 121 125 144 168 161 146 74 126 69 92 82 88 36 97 169 88 81 88 64 90 63 41 122 50 83 104 132 74 92 127 113 97 69 109 111 125 109 134 117 116 96 112 87 128 65 48 52 134 68 50 46 77 168 95 88 62 211 134 57 59 99 84 61 80 113 96 34 123 47 48 75 110 56 62 159 68 96 55 102 66 15 52 129 86 81 116 80 103 81 146 93 20 28 119 139 18 92 54 107 36 63 137 154 17 149 137 45 63 103 131 66 100 85 75 67 120 124 116 58 61 48 109 114 26 44 103 114 53 161 70 128 47 58 91 74 47 103 106 62 70 27 113 14 138 19 68 84 108 42 71 56 50 97 82 108 45 121 66 61 121 162 57 14 55 165 117 15 66 76 66 75 114 112 55 61 40 51 210 82 66 68 123 97 81 27 161 111 26 84 113 74 89 57 100 97 93 62 37 83 144 113 129 97 54 117 56 64 87 100 88 180 59 72 110 128 54 132 115 75 90 47 92 126 76 47 92 76 79 88 122 56 71 31 98 112 137 108 115 150 85 100 113 129 124 89 80 73 148 75 47 83 120 154 86 34 182 136 104 66 46 98 53 135 97 127 115 80 55 113 59 98 127 204 51 91 121 60 95 65 67 72 39 97 101 153 104 164 118 63 83 94 95 111 130 89 122 98 104 232 86 65 148 101 36 87 96 131 161 88 66 103 168 165 76 17 66 63 104 105 116 129 52 33 39 82 152 93 113 159 23 26 31 123 120 59 58 55 56 136 15 66 108 91 56 111 79 99 140 101 96 161 139 103 82 23 138 46 117 77 86 74 99 63 67 168 80 127 105 140 106 172 142 80 70 97 116 99 90 104 55 51 76 198 89 180 34 130 23 72 187 102 65 71 124 80 49 56 76 119 145 71 77 58 87 75 28 70 82 59 133 63 145 141 93 56 104 148 180 115 95 56 73 43 93 138 157 113 127 98 54 66 40 81 77 89 105 137 92 96 141 203 119 91 36 89 147 82 76 100 153 59 128 77 78 61 116 79 123 62 105 106 117 68 87 47 73 40 25 73 57 81 122 86 100 141 121 61 126 72 57 113 105 60 108 105 101 191 73 180 59 63 94 63 44 95 80 93 62 130 89 84 133 92 123 118 130 92 88 137 92 66 67 67 157 70 71 100 139 67 36 65 131 156 97 78 163 66 75 116 174 132 112 104 102 100 59 43 35 38 126 63 156 34 61 9 99 82 12 142 78 71 100 57 186 43 107 102 88 87 122 21 22 120 127 47 112 103 98 60 38 185 101 119 159 75 64 76 126 95 91 65 192 114 47 106 75 79 71 67 102 63 72 92 56 61 187 58 104 81 98 155 47 151 122 55 145 42 62 98 134 98 87 98 113 116 106 115 135 62 44 90 105 105 79 123 35 83 93 88 104 68 120 114 73 102 89 54 167 60 94 117 27 40 70 18 81 63 74 95 108 126 130 93 142 140 152 147 77 174 64 52 142 32 79 120 107 49 112 49 86 102 64 108 55 99 108 148 76 47 26 128 144 137 20 191 120 68 132 92 97 31 77 74 115 85 95 36 102 131 93 103 136 54 132 139 44 81 69 146 97 26 111 31 169 58 78 49 98 105 101 168 104 94 59 99 99 99 70 100 52 125 103 110 128 152 66 44 101 93 84 68 169 60 83 111 105 126 110 72 60 57 170 168 60 65 187 67 175 36 54 85 67 48 138 103 80 97 28 121 47 63 142 122 105 139 42 65 90 98 66 41 45 104 39 128 55 43 93 77 55 102 129 97 81 58 57 90 92 149 146 79 65 37 34 24 142 81 166 42 149 91 1 77 81 69 111 74 96 107 100 69 86 160 163 87 83 103 70 66 142 68 82 122 89 53 116 101 133 171 96 142 77 88 124 99 103 155 131 80 86 100 215 111 126 98 102 62 103 88 71 93 83 82 109 62 96 54 127 40 111 21 87 88 65 81 86 140 168 131 144 108 65 207 134 39 210 50 104 98 57 86 108 31 126 74 115 92 51 88 29 108 95 86 68 110 52 158 107 112 81 86 131 147 136 113 107 63 75 70 108 74 89 125 73 183 26 127 140 75 129 83 113 59 78 142 57 65 136 85 49 74 42 99 91 128 154 73 26 94 158 127 66 63 86 156 85 98 46 127 105 155 191 121 71 102 163 123 33 97 112 33 72 178 103 98 126 78 34 107 91 109 80 167 71 121 63 67 176 117 77 102 47 130 69 116 162 126 128 137 124 123 126 45 21 137 70 70 41 72 132 81 107 61 121 76 41 90 37 91 110 134 91 94 56 128 46 147 85 130 63 86 114 91 48 110 89 168 71 36 144 81 77 92 82 108 220 30 72 80 123 68 147 128 147 89 107 103 63 79 35 45 73 92 99 123 54 52 119 70 101 135 145 144 183 75 104 80 83 90 101 69 99 36 113 163 93 98 141 48 102 108 66 76 71 34 126 150 89 56 138 22 73 125 65 44 112 73 21 69 63 111 87 53 155 109 122 99 104 126 119 191 21 62 104 48 193 90 128 102 67 57 92 58 57 145 117 76 105 53 97 66 50 168 53 110 124 37 86 132 107 104 53 31 113 74 124 77 149 79 65 171 124 134 119 139 125 45 250 69 97 55 33 33 59 117 132 92 51 57 62 82 104 104 88 96 84 42 158 97 127 107 42 68 128 127 80 71 70 15 91 75 70 22 114 58 112 121 81 107 89 13 66 105 26 86 142 109 61 158 111 163 201 90 89 132 116 122 54 150 108 148 97 227 54 75 25 110 41 72 41 62 65 73 77 93 59 61 101 79 113 147 80 85 135 69 152 98 112 101 110 93 44 76 89 84 99 100 116 122 134 86 100 143 85 77 81 81 85 122 165 32 74 171 128 103 83 87 94 74 84 35 66 32 92 103 145 147 39 203 76 58 94 55 80 114 91 62 29 111 104 67 133 116 96 104 193 79 134 136 129 150 101 168 113 94 81 77 60 53 135 69 74 59 110 95 143 110 107 156 143 48 18 164 81 73 64 142 128 69 115 64 164 105 31 138 134 40 147 124 85 126 158 64 109 134 141 96 38 66 91 102 181 65 45 81 113 38 97 68 97 32 164 81 28 64 48 86 92 130 66 47 70 35 50 58 79 82 128 110 75 25 56 133 119 104 47 51 49 93 100 95 123 148 57 109 15 92 126 43 120 140 210 117 155 116 86 75 124 52 179 98 110 42 56 52 108 87 100 98 50 81 97 73 70 70 58 107 110 81 64 81 87 68 60 57 111 15 103 126 46 104 131 120 101 105 142 83 149 99 91 67 38 117 86 51 103 148 64 155 71 67 86 127 54 165 100 78 39 17 123 111 107 104 85 109 70 66 61 62 105 87 76 74 145 165 71 94 124 138 120 85 70 123 115 64 47 145 124 85 26 116 10 104 102 67 79 81 76 278 58 125 97 70 56 32 120 47 113 104 17 151 101 111 23 114 58 107 59 44 145 72 66 93 134 108 110 144 78 87 145 61 45 66 80 3 95 99 93 120 116 69 97 71 71 61 79 116 87 90 154 75 69 138 86 95 121 52 48 94 84 55 101 95 63 57 106 97 109 147 36 62 110 71 80 128 38 85 161 66 89 103 30 51 37 79 125 20 130 98 52 68 169 112 140 77 120 171 128 58 166 115 110 153 67 105 149 94 119 82 76 37 42 183 42 103 120 150 50 122 126 105 114 106 51 108 27 68 31 150 184 70 94 6 134 109 64 156 129 85 30 150 79 33 149 61 153 102 164 66 84 139 54 73 96 138 116 85 74 117 53 65 86 104 115 92 85 83 176 122 87 46 117 47 23 38 113 41 104 113 88 120 176 54 146 52 33 91 95 87 81 39 70 84 71 69 119 48 116 126 112 95 81 66 169 142 96 34 73 189 23 85 28 166 92 103 172 75 118 51 129 86 68 35 117 13 121 78 143 15 97 72 99 66 47 89 83 42 102 151 132 140 122 100 154 41 52 116 87 56 47 64 188 60 103 48 112 48 76 106 171 94 54 172 58 57 87 108 44 121 94 36 96 81 59 80 52 122 82 216 165 124 107 83 92 60 74 46 119 112 124 92 117 108 86 118 83 58 54 145 126 82 192 47 90 90 83 85 97 97 47 141 160 35 140 106 75 104 129 149 96 116 76 72 30 28 31 97 92 163 120 58 15 77 113 95 56 88 126 117 34 34 128 44 119 131 57 71 98 124 73 129 151 125 25 24 62 113 172 48 193 46 66 128 23 149 125 132 59 47 134 91 44 94 22 114 71 123 89 96 63 97 85 72 110 125 57 16 112 86 174 20 74 36 59 33 122 95 58 133 129 82 46 138 152 155 186 61 74 90 93 121 20 112 37 44 51 139 64 43 44 108 134 110 64 82 107 66 104 80 81 162 101 55 89 55 27 91 63 47 65 103 19 66 116 130 76 110 66 141 100 103 28 118 99 102 66 84 29 85 88 80 95 87 152 39 94 20 33 180 126 60 78 76 188 86 139 104 30 128 50 74 104 118 68 109 90 106 47 148 75 118 16 42 82 51 43 93 35 91 44 89 136 164 49 107 43 70 24 87 100 81 157 75 145 103 72 70 88 100 77 117 64 76 204 99 83 208 64 147 94 96 103 150 110 95 114 108 177 108 73 129 52 116 54 45 174 79 50 120 82 168 146 116 95 145 137 57 76 91 119 73 108 70 71 60 40 71 152 69 197 43 97 61 163 126 81 214 81 53 125 66 34 84 111 114 128 175 72 104 102 72 12 64 72 97 95 115 49 127 36 102 107 67 62 95 134 128 178 80 56 65 62 96 91 110 34 136 78 72 124 118 124 29 108 93 58 65 110 135 63 42 88 196 118 166 122 5 67 94 61 97 125 47 84 67 64 148 30 64 125 120 102 161 176 92 93 89 88 156 76 121 85 34 58 146 99 88 141 112 109 121 42 95 82 63 137 164 167 27 117 157 59 97 72 46 108 127 94 115 107 122 52 91 124 124 117 88 66 102 134 47 112 81 126 73 34 88 99 91 40 93 56 121 118 64 60 99 90 129 60 35 91 80 105 94 76 58 76 140 105 95 134 63 100 58 43 114 66 81 139 79 171 135 40 123 162 80 100 56 156 167 100 83 198 67 96 13 126 51 50 148 102 123 91 49 81 167 139 204 78 33 85 69 27 48 48 65 106 114 46 129 87 81 82 84 90 100 113 41 98 123 66 125 139 59 94 42 165 121 89 53 91 89 104 78 71 75 150 156 51 40 97 77 89 158 79 77 72 56 64 132 58 86 110 52 108 81 22 181 84 44 74 165 123 55 85 92 68 153 80 90 108 59 123 129 115 194 99 17 117 65 83 151 132 105 173 117 68 127 80 55 103 131 173 142 105 62 57 125 77 54 67 107 108 122 85 97 29 117 36 80 38 102 150 141 36 96 144 74 153 72 89 92 27 100 52 98 54 75 49 59 112 148 113 81 70 73 77 67 121 37 41 99 128 66 130 107 66 59 134 114 82 114 96 118 61 40 38 87 90 161 50 53 67 170 92 63 106 101 123 49 110 66 146 102 93 112 111 59 77 85 86 88 151 102 80 64 22 83 61 58 85 54 66 164 73 80 111 106 26 69 143 117 113 71 82 81 45 179 149 43 99 53 57 113 96 75 61 88 17 188 99 150 68 93 131 137 47 55 70 73 85 92 101 138 101 115 71 132 101 88 54 131 113 67 55 166 67 46 30 196 83 88 68 61 99 71 112 90 107 66 119 170 135 98 57 112 110 120 39 86 53 92 167 131 175 70 126 88 81 65 35 115 43 132 159 48 147 60 93 132 237 208 130 118 143 77 143 47 74 87 92 109 93 84 148 63 94 80 99 86 126 32 56 67 100 126 125 112 108 73 109 125 37 68 145 62 128 88 96 90 42 75 174 82 153 96 74 109 51 115 90 15 29 90 133 42 184 19 54 59 109 35 82 114 69 98 117 107 71 153 101 169 75 73 127 53 114 32 168 59 119 47 94 36 135 65 87 91 105 65 137 192 140 111 102 132 119 99 122 100 190 49 101 91 75 65 87 111 157 84 112 138 54 69 93 138 126 99 104 44 106 41 102 32 48 85 16 80 103 61 34 61 85 122 78 47 81 112 78 86 97 89 34 83 92 57 121 103 71 60 90 35 91 71 36 32 94 197 70 74 44 16 131 61 65 132 66 77 64 74 119 100 54 105 39 130 105 112 90 114 22 78 94 17 153 92 97 121 82 177 36 46 91 81 108 55 76 124 128 37 36 103 41 44 32 78 58 83 117 87 61 63 95 57 146 97 61 101 47 112 90 117 161 125 131 110 85 89 85 130 94 51 39 132 86 63 88 118 66 105 42 65 99 191 130 131 53 127 71 248 90 49 134 144 153 99 120 101 141 74 68 121 169 106 116 131 68 105 30 62 115 57 26 122 158 60 38 74 86 105 94 88 47 133 106 27 73 94 158 102 84 120 75 61 76 19 120 47 58 151 90 118 129 91 132 76 84 92 86 54 83 105 46 76 80 128 38 184 81 50 85 74 130 38 178 179 86 85 139 102 144 52 123 73 141 43 152 75 67 109 82 69 34 89 55 91 84 56 155 110 69 9 126 88 68 122 122 52 76 125 65 101 149 146 109 12 105 121 46 58 72 120 114 34 128 45 25 162 43 102 110 167 34 100 120 102 99 54 111 68 105 97 76 79 105 190 134 61 89 87 73 65 90 70 135 111 51 36 101 130 90 69 108 62 93 82 89 87 118 95 45 89 95 99 91 85 115 56 97 109 59 65 76 102 107 119 107 145 75 144 62 109 132 87 109 127 95 119 108 103 72 74 79 76 130 45 63 73 200 17 118 156 91 144 99 43 101 56 122 101 115 77 91 131 142 54 104 45 125 132 122 113 135 55 96 161 159 117 128 87 93 111 65 122 72 102 71 95 118 133 159 104 129 108 40 132 97 92 67 100 211 77 127 18 28 122 85 43 69 113 58 31 151 77 93 90 39 64 92 33 109 196 18 114 127 77 133 77 143 103 91 55 170 108 63 161 93 129 133 221 74 101 113 35 76 157 117 123 133 185 33 28 59 21 187 128 58 46 103 82 58 86 82 48 38 78 128 131 42 88 157 55 113 142 98 107 99 74 94 110 33 82 90 68 101 70 68 89 123 144 59 99 76 101 41 119 94 50 78 156 93 122 109 70 58 103 94 72 73 74 80 61 87 66 89 100 60 52 179 77 110 82 100 71 111 99 124 64 87 90 100 9 82 69 146 68 78 64 36 109 127 83 131 94 8 157 58 62 75 131 76 39 38 73 102 46 111 89 166 175 77 95 93 152 32 20 104 60 130 120 71 92 177 126 88 145 20 127 92 120 73 106 73 69 118 63 151 55 115 75 99 87 112 53 182 72 104 25 120 94</t>
+  </si>
+  <si>
+    <t>GAM(0.1517795011196223, -6.436706316370681e-29, 0.5438729749608482)</t>
+  </si>
+  <si>
+    <t>1 2 0 1 0 0 0 0 0 1 1 2 0 0 1 2 3 2 2 0 1 0 1 0 0 1 0 0 0 0 1 1 1 0 2 1 0 0 0 1 1 0 1 0 2 2 4 1 0 0 2 0 0 1 0 2 1 0 2 1 0 3 4 2 0 0 0 1 0 2 0 0 1 2 1 1 0 1 0 3 1 0 0 2 1 1 1 2 0 0 0 5 1 1 0 0 1 2 0 2 0 2 1 0 0 1 0 0 1 1 2 1 1 1 0 0 2 0 0 0 0 0 0 1 0 1 1 0 1 0 2 1 0 0 1 0 0 3 1 1 0 1 0 0 1 1 0 0 0 0 1 1 1 2 1 0 1 0 0 0 3 0 0 1 1 2 1 0 1 2 0 1 0 0 1 1 0 1 0 1 1 0 1 2 2 0 0 0 1 1 0 1 1 0 1 0 0 1 1 2 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 2 1 1 0 0 0 1 0 1 2 2 1 0 1 3 0 0 1 1 3 1 2 3 1 2 1 0 3 1 1 2 0 0 0 0 1 0 2 0 1 1 3 0 1 0 0 0 1 0 2 1 1 2 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 2 1 0 0 2 0 0 1 0 1 1 0 0 2 1 2 1 0 0 1 0 2 0 1 1 0 0 0 1 1 1 3 2 2 0 1 1 0 1 0 0 2 0 2 0 0 1 0 0 0 2 0 1 0 1 2 0 1 1 1 1 0 0 0 2 1 1 0 0 0 0 0 1 3 2 1 1 0 0 0 0 1 0 0 0 0 2 1 0 0 4 0 1 1 1 2 0 0 1 1 1 0 0 1 1 0 1 0 3 0 0 0 0 0 0 2 1 0 1 2 2 0 0 1 2 0 2 3 0 2 1 2 1 0 0 0 0 1 1 1 2 2 0 0 2 3 0 0 2 0 2 2 0 2 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 2 1 1 1 0 0 1 0 1 0 1 0 2 0 2 2 1 1 0 1 2 1 1 1 1 1 1 0 1 1 3 1 0 0 3 0 0 2 0 0 0 3 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 3 0 1 0 1 2 0 1 1 0 0 1 1 1 0 0 1 1 2 1 1 1 0 1 2 1 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 2 1 0 3 1 0 2 0 0 1 2 0 0 2 0 1 0 1 1 0 0 1 1 0 2 1 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 1 0 0 0 1 1 1 2 3 1 1 0 0 0 2 0 1 1 1 1 3 1 0 0 3 0 0 2 1 1 0 2 2 1 1 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 2 1 2 1 1 1 1 0 0 1 0 2 1 1 1 0 1 2 1 0 1 1 1 1 0 0 1 1 1 0 1 0 1 1 0 2 0 0 0 1 1 0 1 2 1 0 0 0 0 1 0 0 0 2 0 1 2 1 0 0 1 0 1 2 1 1 1 1 2 3 2 1 0 2 1 0 1 0 1 0 0 0 2 0 0 1 0 0 0 2 2 0 1 1 0 3 0 2 1 0 1 0 1 1 1 1 0 1 2 1 1 0 0 1 2 1 0 2 1 2 0 2 0 0 0 0 2 1 0 2 2 1 1 2 0 1 1 1 0 1 0 2 1 0 2 2 0 0 1 0 1 0 1 0 1 1 1 0 2 0 2 0 1 0 0 0 1 0 0 1 2 0 3 0 1 1 0 0 1 1 1 2 0 0 0 1 0 0 0 0 1 2 0 1 1 2 0 0 0 0 2 0 0 1 1 1 1 2 1 0 0 0 0 0 0 0 1 0 1 1 2 2 1 1 0 0 1 1 0 0 1 2 1 1 1 0 1 2 0 0 0 1 1 0 0 1 0 0 0 1 1 0 1 2 0 2 0 3 2 0 1 0 1 3 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 1 0 1 1 1 0 2 2 0 2 1 1 0 0 2 1 0 1 1 1 0 2 0 1 2 0 1 0 0 0 1 0 1 1 1 1 0 0 0 1 1 1 1 0 1 0 1 1 0 0 2 0 0 1 0 2 1 0 1 0 0 0 1 0 1 1 3 0 0 0 3 0 1 0 2 1 1 0 1 2 2 0 1 0 0 0 0 0 0 1 0 1 0 0 2 0 2 1 2 0 1 1 1 0 3 1 1 0 1 2 1 0 0 0 4 0 2 1 1 0 0 2 0 0 0 2 1 2 2 0 1 0 2 2 2 0 0 1 1 4 1 1 0 0 1 1 2 2 3 1 0 1 1 0 1 0 1 0 2 0 2 0 0 3 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 2 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 2 1 2 0 1 0 3 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 2 0 0 2 3 1 0 0 0 1 1 1 0 0 0 0 1 0 1 2 1 0 2 0 0 0 0 0 2 0 0 0 1 0 1 0 1 2 1 0 0 0 1 2 0 1 0 2 0 3 0 2 1 1 1 0 2 1 1 1 1 1 1 0 0 1 2 1 1 0 0 0 2 0 1 0 2 0 1 2 2 0 2 0 0 1 2 2 0 1 2 1 0 2 1 0 1 0 2 1 1 3 0 0 1 0 0 1 1 2 0 2 1 2 1 1 0 2 1 2 0 1 0 3 1 2 1 1 1 2 0 0 0 0 0 2 2 0 0 0 0 0 0 1 2 3 1 0 0 1 1 1 0 0 0 0 1 1 0 1 1 1 2 0 1 2 1 0 0 0 1 0 1 2 1 0 0 1 0 1 2 1 1 0 1 2 1 0 0 2 2 0 1 1 0 0 1 0 1 0 1 1 2 0 1 2 0 2 1 0 2 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 2 0 0 1 1 1 0 2 0 1 0 1 2 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 1 1 1 1 0 0 0 2 0 0 1 0 0 1 1 1 1 1 0 1 1 0 2 0 1 2 0 0 0 1 0 1 2 0 1 1 0 2 0 0 3 2 1 2 0 0 1 1 2 4 1 1 0 0 1 1 3 0 0 0 0 1 2 0 0 0 0 1 1 0 0 4 1 1 2 0 2 1 2 1 2 0 0 1 0 1 1 1 2 1 2 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 1 2 0 1 1 2 0 0 1 0 1 2 1 2 1 2 2 0 0 0 2 0 0 1 0 1 0 1 0 2 1 0 0 0 0 1 1 2 1 1 3 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 1 2 0 1 0 1 0 2 0 1 1 0 1 2 0 2 1 2 1 1 0 0 2 2 0 1 2 1 1 1 0 0 0 0 2 1 0 0 1 0 0 0 0 0 2 0 0 1 3 0 2 1 2 1 2 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 4 2 2 2 1 2 0 1 1 1 1 1 2 0 0 0 1 1 0 2 0 0 1 2 1 3 1 0 1 0 1 0 1 0 0 0 3 2 1 2 0 1 3 1 0 0 0 4 0 1 2 0 2 1 3 2 1 2 2 1 0 0 0 2 1 0 1 1 3 1 1 0 0 1 1 0 0 0 1 1 0 4 0 1 0 1 3 1 0 0 1 1 0 0 1 3 0 0 1 1 0 1 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 2 0 0 2 4 1 1 0 1 0 2 1 1 1 0 1 2 0 0 0 0 0 1 1 1 0 1 0 1 0 0 3 0 0 1 2 1 0 1 1 0 0 1 0 2 0 0 0 0 0 1 1 0 1 3 1 1 0 1 1 0 0 2 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 1 3 1 1 2 0 1 0 0 0 1 2 2 0 1 1 0 0 1 1 2 2 2 1 0 0 0 1 2 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 1 3 1 0 1 1 0 0 0 0 1 2 1 0 1 0 0 2 0 0 1 2 1 1 2 0 1 0 2 0 2 1 1 0 1 2 0 0 1 2 1 0 3 1 1 0 1 0 1 0 1 1 0 1 0 1 1 1 0 2 0 1 1 1 0 3 1 3 0 1 0 2 1 1 0 1 1 0 1 2 0 0 0 1 2 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 2 2 0 0 0 1 0 1 2 1 1 1 0 1 2 0 0 0 0 0 1 1 0 2 0 0 1 3 2 2 0 1 1 1 3 0 1 0 0 0 0 0 0 0 0 0 1 1 2 0 1 0 0 1 4 0 2 0 1 2 3 0 3 2 3 1 2 1 2 2 2 0 1 0 0 0 0 0 1 1 0 1 2 0 0 0 0 0 0 1 2 1 1 1 0 1 2 0 2 2 0 0 0 0 0 0 2 2 2 3 0 0 1 3 0 2 1 1 0 1 0 0 3 2 1 0 0 0 2 3 2 0 1 0 1 0 1 1 0 1 0 1 0 2 0 0 0 0 0 1 1 2 0 1 1 1 0 0 0 0 1 0 1 1 5 0 0 2 0 0 1 1 2 0 0 1 2 0 0 0 0 2 1 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 2 1 1 0 0 0 2 3 1 2 0 0 0 0 0 1 2 1 0 1 1 1 2 0 0 1 1 0 2 0 1 0 1 1 2 1 1 1 0 0 0 1 2 1 0 1 1 0 0 1 0 0 2 1 2 1 1 0 0 1 0 0 0 3 1 2 1 2 0 1 2 1 2 1 1 4 0 1 0 0 2 0 3 1 0 0 0 1 1 0 1 1 2 0 0 1 0 1 0 1 0 1 2 1 0 1 0 2 1 1 0 0 0 1 1 1 0 3 2 0 1 0 0 0 2 0 2 0 2 1 1 3 2 2 1 0 2 0 1 1 0 0 0 0 1 3 0 1 1 0 0 2 1 0 1 0 2 1 0 0 0 1 1 1 0 0 2 0 3 1 3 0 1 0 0 0 0 0 0 2 2 1 1 0 0 0 0 0 2 1 1 2 2 2 0 1 0 2 2 0 2 0 1 0 0 0 0 1 1 0 0 0 0 2 1 1 1 0 2 2 1 1 1 1 1 1 0 1 0 1 0 2 3 1 1 0 1 0 1 1 0 1 0 1 2 0 1 1 1 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 2 0 1 1 0 0 0 3 1 2 0 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 2 1 0 3 0 1 0 0 2 2 0 1 0 2 0 0 1 1 0 0 0 1 1 0 2 3 2 3 0 0 0 0 0 1 0 0 1 3 2 0 0 2 1 2 0 0 3 1 2 1 0 2 0 1 0 1 2 0 1 1 0 0 0 0 2 1 1 1 1 1 1 0 0 1 0 2 1 0 0 0 0 2 1 2 0 1 2 2 1 1 0 1 0 1 0 0 1 2 1 0 0 1 0 2 0 0 0 1 3 0 1 2 0 1 3 2 2 0 2 4 2 4 3 2 1 0 0 2 1 2 2 2 2 0 1 1 0 2 0 2 0 1 3 0 0 1 1 1 1 0 1 0 3 3 1 1 0 2 1 0 2 0 0 0 1 1 1 2 0 1 1 0 0 0 1 0 0 0 2 1 0 0 0 2 1 0 1 0 0 0 0 0 0 2 0 0 0 2 2 0 1 0 4 0 1 0 1 1 2 1 0 1 0 0 2 0 0 1 1 0 1 0 1 4 0 0 0 0 1 1 1 0 1 2 1 0 1 1 0 0 0 0 3 1 2 1 1 1 0 1 1 0 2 0 1 1 1 0 0 2 1 0 1 1 3 3 1 1 2 1 0 2 0 1 0 0 1 1 1 1 2 1 0 0 0 1 0 0 0 0 0 1 1 2 1 0 0 0 1 0 0 2 0 2 2 1 1 1 3 0 0 1 1 1 3 3 1 1 2 1 2 0 1 1 0 1 3 1 1 1 1 1 2 0 1 0 1 1 1 1 3 0 1 0 1 2 1 1 0 0 0 0 1 0 3 0 0 1 1 1 0 0 0 1 0 1 1 0 2 0 1 2 1 1 0 2 0 1 1 0 1 0 0 0 0 0 1 0 3 1 3 1 1 0 1 1 0 0 0 0 2 1 1 0 1 0 0 2 1 1 0 1 1 1 1 1 0 0 1 0 0 0 1 0 0 3 2 0 1 0 0 0 0 2 0 1 0 0 0 2 0 1 1 0 1 1 3 1 1 1 1 1 0 0 0 0 0 1 2 0 3 0 0 1 1 0 2 0 0 0 1 0 0 1 0 0 0 1 0 2 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 3 0 1 1 0 2 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 2 2 1 2 0 1 0 0 1 0 1 0 0 0 0 2 2 1 0 0 2 1 4 1 0 1 1 1 0 1 2 1 1 1 1 0 1 1 1 0 2 1 0 0 0 0 1 0 1 2 0 1 2 0 0 1 0 0 1 1 0 0 1 1 0 0 0 2 0 0 1 1 0 1 2 0 2 0 3 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 1 1 1 3 1 3 0 0 3 1 0 1 1 0 0 0 2 0 0 2 0 0 1 0 1 0 2 0 0 0 3 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 2 2 1 1 0 0 2 0 1 1 0 0 1 0 0 1 2 1 1 1 3 2 1 0 0 2 0 0 1 0 0 1 1 2 1 0 0 1 0 1 0 0 0 2 2 0 2 1 4 1 0 2 2 2 1 0 2 1 0 2 0 1 0 1 1 0 0 1 2 0 1 2 2 0 0 0 1 0 2 1 1 0 0 2 0 0 0 2 1 1 0 1 2 0 0 1 3 1 1 1 2 0 0 1 0 0 1 1 2 1 1 1 0 1 0 0 0 3 4 0 0 2 0 1 0 0 0 2 1 1 0 4 2 1 1 0 1 2 2 1 2 1 0 0 0 0 2 0 0 0 1 0 0 1 3 0 0 2 1 0 2 2 0 0 0 1 0 0 2 1 0 0 0 0 1 1 2 1 3 2 2 2 1 2 1 0 0 1 2 0 1 1 0 1 0 1 2 0 0 3 0 1 0 0 0 2 1 2 2 0 0 0 0 1 2 0 0 0 2 0 0 0 0 2 2 0 1 1 1 1 0 1 0 2 0 1 3 1 0 0 1 0 3 0 1 0 1 0 0 2 4 0 1 2 0 0 0 0 2 0 0 0 2 1 3 2 0 1 2 1 0 0 3 2 3 1 1 1 1 0 0 1 2 2 0 0 0 1 2 1 2 0 1 1 1 0 0 0 0 2 0 0 2 0 3 2 2 1 0 0 0 0 2 1 0 0 1 0 1 3 2 0 0 0 1 0 0 1 1 0 0 0 1 2 1 0 0 2 2 0 1 0 2 0 0 1 0 1 1 0 2 0 1 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 2 3 1 1 1 1 0 1 3 0 1 1 0 1 0 0 1 1 2 0 0 0 1 0 0 0 0 2 0 0 3 1 2 0 2 1 0 2 1 1 1 0 1 2 1 3 0 0 0 0 1 1 1 1 1 3 0 1 1 0 2 1 2 0 2 0 0 0 0 0 0 0 1 0 1 1 0 2 1 0 2 1 0 0 0 0 0 0 2 3 1 1 2 0 1 1 1 0 1 1 0 0 0 0 1 1 1 0 2 1 2 1 0 1 2 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 2 1 1 1 0 0 1 0 1 0 0 0 0 0 1 2 0 0 1 1 1 1 1 2 0 0 1 2 1 0 0 1 1 0 1 1 1 0 2 1 1 1 0 0 1 3 2 0 1 2 1 1 3 5 0 0 1 1 1 1 1 1 0 0 1 1 0 1 1 0 0 0 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 1 2 0 3 1 1 1 2 0 2 1 1 0 2 0 1 3 0 0 0 2 0 1 2 1 0 0 1 1 1 0 0 2 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 4 0 2 0 0 0 1 1 0 2 0 2 0 0 1 1 2 0 0 1 1 2 0 2 1 1 1 1 1 0 0 1 1 0 1 0 0 4 1 1 0 2 1 0 1 1 1 2 1 2 1 0 1 0 1 1 1 0 0 2 0 0 1 1 2 0 0 1 1 2 0 0 2 1 0 0 4 1 0 0 2 1 3 0 1 0 0 2 1 1 2 1 2 1 0 1 0 1 0 0 0 3 3 2 0 0 2 2 0 1 1 0 1 3 0 1 0 0 1 0 1 1 2 2 0 0 1 1 0 1 1 0 0 1 0 1 2 0 2 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 1 0 2 1 0 0 0 1 1 2 1 0 1 0 1 1 0 1 0 1 0 1 1 1 2 0 1 0 1 0 1 1 0 0 2 0 1 2 0 0 1 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 2 0 2 1 3 2 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 2 1 0 1 1 1 0 0 1 0 0 0 0 1 1 2 0 1 0 1 1 0 0 0 1 0 3 2 1 1 0 0 1 0 1 2 2 1 1 0 1 2 0 1 0 2 2 0 1 0 2 1 2 0 0 0 1 1 0 2 0 3 0 0 1 1 0 1 1 3 1 0 1 0 1 0 1 2 0 0 1 0 2 3 1 0 0 1 0 2 1 1 0 1 1 0 2 0 4 0 2 0 0 1 0 1 0 1 3 0 2 2 0 1 1 1 1 0 1 0 0 0 1 1 0 0 2 2 0 1 1 0 1 1 2 0 2 2 2 2 2 1 0 1 1 1 0 2 2 1 1 2 1 1 2 3 0 1 1 1 2 1 2 0 1 0 0 0 1 2 0 1 0 1 0 1 2 2 1 1 1 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 3 1 1 1 1 2 0 1 0 1 3 0 0 1 1 0 3 1 3 1 0 3 2 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 0 3 1 2 1 1 0 2 0 0 0 2 1 2 0 1 0 1 1 1 2 2 2 2 0 0 2 1 3 1 0 1 0 0 0 2 2 2 0 0 1 1 2 0 0 3 1 1 2 2 0 4 1 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 2 3 0 1 0 1 2 0 1 0 2 0 2 0 0 2 3 0 0 0 0 1 1 1 0 2 0 3 0 2 2 2 0 3 1 1 1 0 0 0 1 1 0 0 1 1 3 1 1 1 1 1 0 0 2 1 0 0 1 3 0 1 1 0 1 2 2 0 2 0 0 1 0 0 1 1 0 1 0 1 1 0 0 0 1 1 2 0 0 1 1 1 1 1 0 2 0 1 1 0 0 0 2 0 1 3 0 0 0 1 0 1 1 1 0 3 1 2 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 2 0 0 1 1 0 1 1 0 2 2 0 0 1 1 0 0 0 0 1 0 1 1 2 1 1 0 2 1 1 1 1 1 0 1 1 0 1 1 1 2 0 0 1 1 0 1 0 1 0 1 2 1 0 1 0 0 0 0 1 0 1 0 0 2 2 0 2 2 2 0 0 2 2 1 1 2 0 0 0 2 3 0 3 1 0 0 3 0 1 2 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 2 2 1 0 3 0 2 1 0 0 0 1 2 0 0 1 0 2 0 1 1 1 0 0 0 0 2 2 0 3 1 0 1 0 0 0 0 1 0 0 2 0 3 0 1 2 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 2 0 1 1 1 1 1 0 2 1 1 0 0 1 1 1 0 0 0 2 2 0 3 2 0 1 0 1 0 2 1 1 3 2 1 1 0 1 0 1 1 0 0 1 1 0 1 2 0 0 0 0 1 0 0 2 1 1 1 1 2 0 1 2 2 0 2 0 0 3 0 2 2 0 2 1 3 0 0 0 1 1 1 0 0 0 0 0 2 1 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 1 1 0 0 0 2 1 0 0 0 2 0 2 1 2 1 1 1 1 1 0 1 0 0 2 1 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 2 1 0 2 2 1 2 0 1 2 1 1 0 1 0 1 1 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 3 0 0 0 2 0 0 1 0 2 1 1 0 0 1 1 0 0 2 0 0 3 0 3 2 1 2 1 1 1 1 3 0 0 0 0 1 2 0 3 0 1 1 1 0 0 1 1 0 1 1 1 2 0 1 0 0 0 0 2 2 0 1 2 0 1 2 0 0 0 2 0 1 1 1 0 0 0 2 1 0 1 0 1 1 0 2 0 1 2 1 2 2 0 1 1 0 1 2 1 0 0 0 1 2 1 1 1 1 0 1 2 0 1 1 0 0 2 2 0 3 1 2 1 2 2 0 0 0 2 0 0 1 2 0 1 0 1 0 0 2 0 2 1 1 0 1 2 2 1 0 0 0 1 0 0 1 2 2 0 0 2 0 2 0 1 2 1 2 2 0 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0 1 0 0 2 0 2 1 0 0 1 0 1 1 0 1 0 1 3 1 1 2 1 0 0 1 1 3 2 1 1 0 0 2 0 0 2 1 1 2 1 2 1 2 2 1 2 3 1 2 0 0 3 0 1 0 0 1 0 0 2 0 2 2 3 0 1 0 1 0 0 0 0 1 1 3 0 0 0 1 2 2 1 0 3 2 1 1 2 1 2 0 0 1 0 0 0 0 1 1 3 0 0 1 1 1 2 2 1 1 1 0 0 3 0 0 1 1 0 1 1 0 0 0 2 0 2 0 2 0 0 1 0 3 0 0 0 0 1 0 0 1 2 0 1 1 1 1 1 2 2 1 0 1 0 1 1 1 2 0 1 1 0 0 1 0 2 0 0 1 0 1 0 0 0 1 0 2 0 0 0 0 0 1 1 0 1 0 2 0 0 1 1 0 0 1 0 0 1 1 1 1 0 0 0 0 2 1 0 1 0 0 2 1 1 1 0 0 2 0 2 2 0 0 1 1 2 2 2 2 2 0 1 0 2 2 0 0 2 0 0 1 2 0 1 1 1 0 2 1 0 1 1 0 0 1 0 0 1 1 0 0 1 2 1 0 0 1 3 0 0 0 2 0 1 2 1 0 1 0 1 0 2 3 1 0 1 0 2 0 3 1 1 2 3 1 1 1 1 1 1 3 0 0 0 3 1 0 0 0 0 1 1 0 0 1 1 0 2 0 0 1 0 1 0 1 0 0 0 0 2 2 0 0 0 1 1 1 1 2 0 1 1 2 2 0 1 0 2 0 2 0 1 0 1 0 1 3 0 0 0 1 0 0 1 1 1 0 1 1 3 0 0 0 0 0 1 1 0 1 2 0 4 2 2 0 1 1 0 0 1 0 1 1 1 0 1 0 0 0 4 2 0 0 1 0 2 1 1 1 0 0 2 0 4 1 1 1 1 0 0 0 1 0 0 1 1 1 3 3 2 1 1 0 1 1 0 2 1 0 3 1 1 2 1 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 1 2 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 2 2 1 0 1 1 1 1 1 0 0 1 1 0 0 1 0 0 1 0 0 2 1 1 0 1 1 2 0 0 0 0 3 1 0 1 0 1 0 2 1 0 0 0 1 0 2 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 2 1 1 0 1 0 1 1 0 0 0 2 0 0 1 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1 1 0 1 0 1 1 0 1 2 1 0 0 0 2 0 0 1 0 0 0 2 0 1 0 1 1 1 0 1 1 1 1 2 0 1 1 0 1 2 0 3 2 1 1 1 0 0 0 2 0 1 0 1 0 1 2 1 0 0 1 1 3 0 0 1 1 2 1 2 0 1 1 1 1 0 0 1 0 0 0 1 1 2 0 1 2 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 3 1 0 1 1 0 0 1 2 1 1 1 1 2 1 1 1 0 1 0 0 1 0 1 0 2 1 1 1 2 0 0 1 1 2 0 1 0 0 0 0 0 0 3 1 0 2 0 1 1 2 1 1 0 1 0 2 1 0 2 0 0 0 0 1 1 0 0 3 0 0 2 1 1 0 2 1 0 3 0 0 1 0 1 2 2 1 2 0 2 0 0 1 0 2 2 1 1 1 0 0 2 2 2 2 0 1 0 0 0 1 3 0 1 1 2 1 1 0 0 1 1 0 0 3 1 1 1 1 0 1 2 1 0 2 1 1 1 1 1 1 1 0 1 1 0 0 1 0 0 2 6 0 0 2 2 1 1 1 1 1 2 0 0 1 0 0 0 0 3 0 1 1 0 3 2 0 0 0 0 0 1 1 0 0 2 2 1 0 0 0 0 1 0 0 0 2 1 1 1 0 0 1 0 0 1 1 2 1 1 1 0 1 0 2 0 1 0 0 0 1 0 0 0 3 1 1 1 1 1 0 3 2 2 1 1 2 2 0 1 0 1 0 1 1 2 0 1 0 4 0 1 2 2 0 1 1 2 1 1 1 1 2 2 0 0 1 0 4 1 0 0 1 1 1 0 2 1 1 0 0 1 1 0 0 2 0 0 0 1 0 2 0 1 0 0 2 1 0 0 1 0 1 0 1 1 1 0 2 2 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 2 1 2 1 0 1 1 0 0 3 1 1 1 0 1 0 1 0 2 0 0 0 1 1 0 0 3 0 0 0 1 0 1 2 0 0 0 2 2 0 2 1 0 1 1 0 0 1 3 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 2 1 0 1 2 1 0 1 1 0 0 0 1 1 0 2 0 2 0 1 1 1 1 1 0 1 3 0 1 0 1 0 0 0 1 2 1 1 2 0 1 0 0 2 0 1 2 1 1 0 1 0 1 0 0 0 1 1 1 1 3 0 0 0 1 0 1 0 1 1 0 0 3 2 1 0 2 0 1 2 1 1 0 0 0 1 0 0 1 2 1 0 1 1 0 1 0 2 1 0 0 0 0 1 0 0 0 2 0 3 0 1 0 1 1 1 1 1 0 0 0 1 0 2 1 0 2 2 1 1 0 0 1 1 1 0 1 0 0 1 0 1 0 1 2 0 3 3 2 1 1 1 2 0 1 1 2 2 0 1 1 1 0 1 1 1 0 0 0 1 1 1 1 1 3 2 0 1 1 0 0 0 2 1 1 0 2 0 1 1 1 0 0 0 1 1 1 0 1 0 1 0 0 0 2 3 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 3 2 0 1 1 1 1 0 1 2 1 0 1 0 1 1 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 2 1 0 0 1 0 0 0 2 0 0 0 0 0 2 2 0 1 1 1 0 1 0 1 0 0 3 0 0 0 0 1 1 0 1 1 0 1 0 0 1 2 0 1 2 0 2 1 1 1 0 1 1 2 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 3 0 1 0 2 0 1 1 2 0 1 1 0 1 3 1 0 2 0 0 1 0 0 2 1 1 1 1 0 0 0 0 0 2 0 2 2 1 0 1 2 0 2 2 0 1 1 0 0 0 0 1 1 3 1 1 0 0 1 0 1 0 0 0 1 0 1 1 1 2 2 1 0 0 1 0 1 0 1 0 2 0 2 1 4 1 2 0 0 2 0 1 0 3 1 0 2 0 0 0 1 0 0 0 0 2 1 1 0 2 0 1 0 1 0 1 1 1 1 1 0 0 0 1 2 1 0 0 1 0 1 0 0 1 3 0 1 0 0 3 1 0 0 0 2 1 1 0 2 4 0 0 0 2 1 1 1 0 1 1 0 0 1 1 2 0 2 1 2 1 0 2 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 1 0 1 1 1 0 3 0 1 0 0 0 0 0 1 1 1 0 1 1 1 2 2 1 2 1 1 1 0 1 0 0 1 0 2 1 0 0 1 0 0 0 2 0 1 0 0 1 3 0 0 0 0 0 3 0 2 1 1 0 0 2 2 0 1 0 0 1 2 1 2 0 0 0 0 0 0 1 2 1 0 1 0 0 2 0 0 0 0 0 1 1 1 3 1 1 1 0 0 0 0 1 2 0 0 1 1 1 1 1 1 1 2 1 0 1 0 0 1 0 1 0 1 1 1 1 0 0 3 2 1 2 1 0 2 1 2 1 0 1 1 0 1 0 1 0 2 0 0 0 1 0 0 1 1 2 0 1 2 0 2 0 0 1 0 0 1 0 0 1 2 0 1 0 0 0 0 0 1 0 3 3 0 0 2 0 2 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 3 1 0 1 1 2 0 1 1 0 0 0 1 1 2 0 1 0 2 1 0 2 0 0 0 1 3 1 2 2 1 1 0 1 1 0 1 1 0 1 3 0 0 1 0 1 0 0 1 0 1 0 0 1 1 2 0 1 1 2 1 1 0 2 0 1 2 1 0 2 0 2 2 0 0 1 0 2 0 1 1 4 0 0 0 0 2 1 0 2 1 0 1 0 1 0 0 0 1 1 2 0 1 1 0 0 0 1 2 1 1 0 2 1 1 0 1 0 3 1 1 0 0 1 0 0 1 0 2 2 0 0 1 1 0 0 1 1 3 2 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 2 1 1 2 1 0 0 1 0 0 0 0 3 0 2 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 1 1 2 0 0 1 0 2 2 2 0 1 0 0 0 2 2 0 1 0 0 2 1 0 0 3 0 0 2 0 1 2 2 2 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 1 1 1 0 1 0 2 0 2 1 1 1 1 3 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 1 3 2 0 2 2 0 4 1 1 2 0 0 2 0 2 3 2 0 0 1 0 1 2 0 0 1 0 2 2 0 1 0 1 1 0 2 1 0 0 0 0 2 1 0 0 2 0 1 1 0 2 2 1 0 0 1 0 1 1 0 0 0 1 1 2 2 1 1 0 0 1 3 1 1 0 4 1 0 0 0 0 2 2 0 0 1 1 0 0 0 0 0 1 1 0 1 1 2 1 1 1 2 1 0 0 1 0 0 1 1 1 0 0 1 0 1 2 0 1 1 2 1 1 1 0 1 0 0 0 0 1 2 0 0 1 1 0 1 1 1 0 2 1 1 1 1 0 2 1 3 1 1 4 1 1 0 1 2 0 0 0 1 0 1 0 1 1 0 0 1 1 0 1 2 1 2 0 0 0 2 1 0 0 1 0 1 1 0 1 0 0 1 1 1 2 1 1 1 0 1 1 1 0 0 2 3 2 2 2 0 0 1 2 0 0 0 0 1 0 0 3 0 3 1 1 0 0 1 0 1 0 0 0 1 3 3 2 2 1 1 1 2 0 0 1 0 1 3 0 0 1 0 2 0 0 2 1 0 1 1 1 1 0 0 0 0 0 0 1 1 2 2 1 0 2 0 3 2 2 1 0 2 0 1 3 1 2 0 2 1 0 0 1 1 0 0 0 0 1 1 2 1 1 1 2 0 2 0 0 1 2 1 0 1 0 0 0 0 1 0 3 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 3 0 0 2 1 2 1 0 1 1 1 0 0 0 1 0 0 2 0 0 0 1 0 1 0 1 1 1 0 2 1 0 0 1 1 2 1 1 4 0 3 1 1 0 2 1 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 1 0 1 0 0 3 0 1 0 1 1 0 0 2 1 0 1 1 0 1 0 2 0 1 1 1 0 1 1 1 0 0 0 1 0 1 0 1 1 0 2 1 4 0 1 2 0 1 0 1 0 0 1 0 0 1 2 1 2 1 1 2 2 0 0 1 2 1 1 0 1 1 1 0 2 2 0 3 2 0 1 0 0 0 2 0 2 1 1 1 1 0 0 2 0 1 0 0 1 0 1 0 1 0 2 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 2 0 0 0 1 1 1 0 1 0 3 1 2 1 1 2 2 0 0 3 0 0 0 0 1 4 1 3 1 1 0 0 2 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 1 0 2 0 1 0 1 0 0 1 0 0 0 0 1 2 2 3 2 2 1 1 1 0 1 0 2 1 0 1 0 2 1 1 0 0 1 0 0 0 1 0 0 1 1 2 1 0 2 0 1 0 0 0 1 0 2 1 0 0 1 0 2 0 0 0 1 1 2 0 2 2 1 0 0 0 0 0 0 0 0 0 2 0 2 2 1 0 0 1 0 2 1 1 2 2 3 0 2 1 0 2 1 1 1 2 2 0 2 2 1 0 1 0 1 0 0 1 2 1 0 0 0 1 0 1 2 2 0 1 2 0 1 0 0 0 2 0 0 2 0 0 1 1 0 1 2 2 1 1 1 2 1 1 2 2 0 1 2 0 0 3 0 2 0 0 1 1 1 1 0 1 0 1 2 2 1 0 0 2 1 0 1 3 2 2 2 0 0 1 0 1 1 1 1 1 1 0 1 1 0 1 1 2 1 1 1 1 2 0 2 0 1 1 0 0 0 2 2 0 2 1 0 1 2 2 0 1 0 2 2 2 2 1 0 0 0 4 0 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 1 1 0 1 1 0 2 0 0 1 0 1 0 2 0 2 0 0 1 0 0 0 1 1 1 1 2 0 1 1 2 2 0 1 1 0 2 0 0 3 0 1 0 0 2 1 1 1 0 2 0 1 0 1 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 2 1 0 2 1 1 0 0 1 1 2 0 2 0 1 1 3 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 2 0 4 3 1 1 1 0 0 1 0 1 0 0 0 0 1 1 1 1 2 1 1 0 0 2 1 1 0 2 1 1 0 0 1 3 0 1 1 0 0 0 0 1 3 0 1 0 0 0 0 2 1 3 0 0 1 2 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 2 2 3 0 0 1 0 2 1 0 2 0 1 1 0 1 1 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 0 0 3 0 0 2 1 2 0 0 0 1 0 1 0 0 1 1 1 1 1 2 1 0 1 0 1 1 0 1 3 1 0 1 2 1 1 0 2 1 0 1 1 2 0 1 0 0 1 0 0 1 1 1 2 0 0 2 0 0 0 1 0 1 3 1 1 3 0 1 1 2 0 1 1 1 1 2 1 1 3 3 0 1 0 1 1 0 0 2 1 1 2 1 1 0 1 0 1 0 2 2 3 0 2 0 1 0 0 1 1 2 1 0 1 0 1 0 0 2 1 0 0 0 0 0 0 1 1 5 1 2 1 1 0 1 1 1 0 0 2 1 1 0 1 0 0 0 2 0 3 1 0 2 1 3 0 0 0 1 0 0 0 1 0 1 0 1 2 0 0 1 2 3 1 1 0 0 1 3 0 2 0 0 0 1 0 2 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 2 0 0 0 0 0 0 1 1 1 0 2 0 0 1 1 1 1 2 1 0 0 0 0 0 1 1 1 1 0 2 2 0 0 0 0 0 1 1 2 1 0 1 1 4 1 0 0 2 0 0 0 0 0 1 2 0 0 0 1 0 0 0 2 1 1 2 0 1 0 1 2 1 0 1 1 1 1 2 3 1 1 0 2 1 1 3 2 1 0 0 2 0 0 1 0 0 0 1 1 0 1 0 2 2 2 2 2 0 2 0 1 1 1 2 0 1 1 2 0 0 0 1 1 1 0 1 0 1 1 0 1 0 0 2 2 0 1 1 3 1 3 2 1 1 1 0 1 0 2 0 1 1 0 1 0 2 0 0 0 1 2 0 0 2 1 1 0 0 0 0 2 0 3 2 1 2 3 0 3 1 0 0 0 0 0 1 2 1 2 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 2 3 1 3 1 1 0 1 0 1 1 0 0 2 2 0 0 0 1 0 0 1 0 1 0 1 0 0 1 2 0 2 1 0 2 1 1 2 1 0 1 0 2 1 2 1 1 0 0 0 1 0 2 0 0 0 2 0 1 0 0 0 1 0 1 1 1 0 3 4 0 1 0 0 2 1 0 1 0 2 1 1 0 0 1 0 2 0 0 1 2 0 1 2 1 2 1 1 1 0 0 0 0 0 0 0 1 3 1 1 1 0 0 1 1 1 0 1 2 2 0 0 2 0 1 1 0 1 0 0 1 1 0 0 0 1 2 1 1 0 0 1 0 0 0 2 0 0 1 2 1 0 1 0 0 1 0 1 0 1 1 1 1 0 1 0 0 1 0 0 2 2 2 1 1 0 0 0 0 2 0 1 1 0 4 0 0 2 0 1 3 0 2 0 1 0 1 1 1 0 1 4 2 0 1 0 2 0 1 3 0 2 1 0 2 0 0 1 1 1 1 0 1 1 1 1 2 2 2 0 2 1 0 0 0 1 0 0 3 2 1 1 0 2 0 0 1 0 1 3 0 4 1 1 0 0 0 0 0 1 1 0 0 0 1 0 2 0 3 0 1 1 1 2 1 2 2 1 1 0 0 0 0 2 1 1 3 0 0 0 2 2 2 1 3 1 0 1 0 0 1 1 0 1 0 2 1 0 0 1 0 2 0 1 1 0 0 1 0 1 0 2 0 1 0 0 0 1 0 0 3 1 1 2 0 0 1 1 2 0 1 1 0 1 0 2 0 3 2 1 0 2 0 1 1 0 0 1 4 2 3 1 3 2 0 0 1 3 1 0 2 0 1 1 2 0 0 1 1 0 0 1 3 1 2 2 1 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 2 0 0 1 2 0 1 1 0 0 1 2 0 1 2 1 1 0 0 0 1 1 0 0 0 0 1 0 2 0 1 0 2 0 0 1 0 1 1 1 0 1 0 2 0 1 2 0 1 1 1 3 1 1 0 0 0 2 1 0 0 1 0 0 1 1 0 0 1 0 0 1 2 0 0 0 0 1 2 0 0 1 1 0 2 1 1 0 1 0 0 0 0 0 2 0 0 3 1 0 2 1 0 1 0 0 3 1 0 0 2 1 1 3 2 1 1 0 2 1 1 0 2 1 0 1 1 1 1 2 1 0 0 1 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 1 0 2 0 0 0 0 0 1 1 2 1 1 0 1 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 2 1 0 2 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 0 0 1 0 1 0 1 1 1 1 0 1 1 2 0 0 0 0 0 1 0 1 1 0 0 0 2 1 1 0 1 2 0 0 0 1 1 1 4 1 1 1 0 1 1 0 0 1 0 2 1 0 1 2 1 0 2 1 1 1 0 1 1 2 0 1 0 2 1 2 1 0 0 1 1 1 1 1 2 0 2 0 1 0 1 1 0 1 1 1 1 0 0 1 0 1 2 2 1 0 1 1 1 0 1 1 2 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 2 0 1 0 1 0 1 0 0 1 1 3 2 0 2 0 1 2 1 0 1 0 1 0 1 0 0 0 0 2 2 1 0 0 1 0 1 2 1 2 0 2 3 1 1 1 0 1 3 0 1 0 1 0 1 0 1 1 0 1 1 0 0 2 0 2 0 0 2 1 0 3 1 0 2 0 0 0 1 0 1 3 1 1 3 0 1 2 1 0 1 0 0 0 2 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 2 1 0 1 2 0 1 1 0 1 1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 0 1 0 1 1 0 0 0 0 2 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 0 4 2 0 2 0 1 1 1 1 0 0 0 0 0 2 0 2 0 0 0 1 0 1 1 0 1 1 0 0 3 0 1 0 1 0 0 1 0 1 1 1 0 2 3 0 0 2 1 3 0 2 0 1 1 0 2 0 0 0 3 2 0 1 0 0 0 1 2 3 0 1 0 1 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 2 1 0 2 0 0 2 1 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 2 0 1 1 1 1 2 0 0 0 0 0 0 0 2 0 1 1 0 4 0 0 3 1 0 1 0 2 0 2 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 1 2 0 1 1 0 0 1 2 0 0 1 2 3 0 1 2 2 0 1 0 2 1 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 1 1 1 2 1 1 0 2 1 0 1 0 0 1 0 1 3 1 0 0 0 1 3 0 1 0 0 2 1 0 0 0 3 0 1 1 0 2 0 0 2 1 1 0 2 1 1 2 1 2 2 1 2 1 1 0 0 1 1 0 0 1 2 1 2 0 1 1 2 1 0 0 2 0 1 1 0 1 1 0 2 0 0 1 1 0 3 0 0 0 0 2 1 2 2 1 0 0 1 1 0 1 2 3 0 1 0 0 0 0 3 0 2 1 0 2 2 0 0 1 1 0 2 0 0 3 0 0 1 0 1 1 3 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 2 1 0 0 1 2 1 1 0 0 0 1 0 2 0 0 2 2 1 0 0 2 1 1 1 0 2 0 2 0 3 0 1 2 1 0 2 0 1 1 0 0 2 0 2 1 1 1 0 0 2 0 3 1 1 1 1 0 1 1 0 0 0 0 1 1 0 5 2 3 0 0 2 0 0 0 1 1 0 1 1 2 0 0 0 1 1 1 3 2 0 0 0 1 1 1 0 0 1 2 0 0 0 1 0</t>
   </si>
   <si>
     <t>K.Cousins</t>
@@ -800,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63.1</v>
+        <v>63.9</v>
       </c>
       <c r="C2">
-        <v>36.3</v>
+        <v>35.4</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -818,7 +818,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -827,10 +827,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>4.95</v>
+        <v>4.92</v>
       </c>
       <c r="L2">
-        <v>4.27</v>
+        <v>4.15</v>
       </c>
     </row>
   </sheetData>
@@ -877,28 +877,28 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="C2">
         <v>22.9</v>
       </c>
       <c r="D2">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>261.97</v>
+        <v>261.91</v>
       </c>
       <c r="F2">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G2">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>105.34</v>
+        <v>106.11</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1021,16 +1021,16 @@
         <v>22.9</v>
       </c>
       <c r="D2">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>261.97</v>
+        <v>261.91</v>
       </c>
       <c r="F2">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G2">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
         <v>0.03</v>
@@ -1039,16 +1039,16 @@
         <v>1.5</v>
       </c>
       <c r="J2">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="K2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L2">
         <v>0.04</v>
       </c>
       <c r="M2">
-        <v>16.83</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1189,13 +1189,13 @@
         <v>55</v>
       </c>
       <c r="C2">
-        <v>7.44</v>
+        <v>7.43</v>
       </c>
       <c r="D2">
-        <v>86.81999999999999</v>
+        <v>86.56</v>
       </c>
       <c r="E2">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="F2">
         <v>0.07000000000000001</v>
@@ -1204,10 +1204,10 @@
         <v>0.1</v>
       </c>
       <c r="H2">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J2">
         <v>0.01</v>
@@ -1216,7 +1216,7 @@
         <v>19.47</v>
       </c>
       <c r="L2">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1227,10 +1227,10 @@
         <v>56</v>
       </c>
       <c r="C3">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="D3">
-        <v>24.23</v>
+        <v>24.04</v>
       </c>
       <c r="E3">
         <v>0.15</v>
@@ -1242,19 +1242,19 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>60.94</v>
+        <v>61.56</v>
       </c>
       <c r="I3">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>14.14</v>
+        <v>14.27</v>
       </c>
       <c r="L3">
-        <v>11.85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1265,13 +1265,13 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="D4">
-        <v>42.57</v>
+        <v>42.82</v>
       </c>
       <c r="E4">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="F4">
         <v>0.03</v>
@@ -1289,10 +1289,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>9.42</v>
+        <v>9.49</v>
       </c>
       <c r="L4">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1303,13 +1303,13 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>41.79</v>
+        <v>41.55</v>
       </c>
       <c r="E5">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F5">
         <v>0.03</v>
@@ -1318,7 +1318,7 @@
         <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>9.34</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="L5">
-        <v>5.83</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1341,13 +1341,13 @@
         <v>59</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="D6">
-        <v>37.18</v>
+        <v>37.36</v>
       </c>
       <c r="E6">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F6">
         <v>0.03</v>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.51</v>
+        <v>8.58</v>
       </c>
       <c r="L6">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1379,10 +1379,10 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="D7">
-        <v>11.37</v>
+        <v>11.67</v>
       </c>
       <c r="E7">
         <v>0.07000000000000001</v>
@@ -1391,22 +1391,22 @@
         <v>0.1</v>
       </c>
       <c r="G7">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H7">
-        <v>38.56</v>
+        <v>38.58</v>
       </c>
       <c r="I7">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="J7">
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>8.039999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="L7">
-        <v>6.96</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1420,7 +1420,7 @@
         <v>1.37</v>
       </c>
       <c r="D8">
-        <v>14.91</v>
+        <v>14.85</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="L8">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1458,7 +1458,7 @@
         <v>0.18</v>
       </c>
       <c r="D9">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="E9">
         <v>0.01</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="L9">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1496,7 +1496,7 @@
         <v>0.06</v>
       </c>
       <c r="D10">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="L10">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1534,7 +1534,7 @@
         <v>0.06</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0.2</v>
       </c>
       <c r="H12">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I12">
         <v>0.01</v>
@@ -1622,7 +1622,7 @@
         <v>0.1</v>
       </c>
       <c r="H13">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0.1</v>
       </c>
       <c r="H14">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>77</v>
       </c>
       <c r="C2">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="D2">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="E2">
         <v>1.1</v>
@@ -1851,7 +1851,7 @@
         <v>0.47</v>
       </c>
       <c r="H2">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I2">
         <v>7.89</v>
@@ -1901,28 +1901,28 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="C2">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="D2">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>255.14</v>
+        <v>256.49</v>
       </c>
       <c r="F2">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G2">
         <v>0.43</v>
       </c>
       <c r="H2">
-        <v>93.08</v>
+        <v>93.19</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2042,16 +2042,16 @@
         <v>94</v>
       </c>
       <c r="C2">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="D2">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>255.14</v>
+        <v>256.49</v>
       </c>
       <c r="F2">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G2">
         <v>0.43</v>
@@ -2063,16 +2063,16 @@
         <v>1.2</v>
       </c>
       <c r="J2">
-        <v>3.28</v>
+        <v>3.21</v>
       </c>
       <c r="K2">
         <v>0.03</v>
       </c>
       <c r="L2">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M2">
-        <v>15.27</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2254,10 +2254,10 @@
         <v>98</v>
       </c>
       <c r="C2">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="D2">
-        <v>27.43</v>
+        <v>27.61</v>
       </c>
       <c r="E2">
         <v>0.14</v>
@@ -2266,22 +2266,22 @@
         <v>0.24</v>
       </c>
       <c r="G2">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="H2">
-        <v>70.52</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="I2">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K2">
-        <v>16.3</v>
+        <v>16.46</v>
       </c>
       <c r="L2">
-        <v>13.63</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2292,22 +2292,22 @@
         <v>99</v>
       </c>
       <c r="C3">
-        <v>6.29</v>
+        <v>6.36</v>
       </c>
       <c r="D3">
-        <v>69.23999999999999</v>
+        <v>69.86</v>
       </c>
       <c r="E3">
         <v>0.38</v>
       </c>
       <c r="F3">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G3">
         <v>0.3</v>
       </c>
       <c r="H3">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I3">
         <v>0.01</v>
@@ -2316,10 +2316,10 @@
         <v>0.02</v>
       </c>
       <c r="K3">
-        <v>15.56</v>
+        <v>15.67</v>
       </c>
       <c r="L3">
-        <v>9.26</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2330,13 +2330,13 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>4.31</v>
+        <v>4.26</v>
       </c>
       <c r="D4">
-        <v>46.95</v>
+        <v>46.08</v>
       </c>
       <c r="E4">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
         <v>0.05</v>
@@ -2345,19 +2345,19 @@
         <v>0.1</v>
       </c>
       <c r="H4">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>10.48</v>
+        <v>10.35</v>
       </c>
       <c r="L4">
-        <v>6.16</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2368,16 +2368,16 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <v>3.89</v>
+        <v>3.95</v>
       </c>
       <c r="D5">
-        <v>40.3</v>
+        <v>41.1</v>
       </c>
       <c r="E5">
         <v>0.21</v>
       </c>
       <c r="F5">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2392,10 +2392,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>9.119999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="L5">
-        <v>5.23</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2406,16 +2406,16 @@
         <v>102</v>
       </c>
       <c r="C6">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="D6">
-        <v>34.46</v>
+        <v>34.68</v>
       </c>
       <c r="E6">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F6">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -2430,10 +2430,10 @@
         <v>0.01</v>
       </c>
       <c r="K6">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="L6">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2444,10 +2444,10 @@
         <v>103</v>
       </c>
       <c r="C7">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="D7">
-        <v>14.82</v>
+        <v>14.96</v>
       </c>
       <c r="E7">
         <v>0.08</v>
@@ -2459,7 +2459,7 @@
         <v>3.5</v>
       </c>
       <c r="H7">
-        <v>14.4</v>
+        <v>14.34</v>
       </c>
       <c r="I7">
         <v>0.12</v>
@@ -2471,7 +2471,7 @@
         <v>5.43</v>
       </c>
       <c r="L7">
-        <v>4.01</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2482,10 +2482,10 @@
         <v>104</v>
       </c>
       <c r="C8">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="D8">
-        <v>7.95</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E8">
         <v>0.04</v>
@@ -2509,7 +2509,7 @@
         <v>1.79</v>
       </c>
       <c r="L8">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2523,7 +2523,7 @@
         <v>0.61</v>
       </c>
       <c r="D9">
-        <v>6.34</v>
+        <v>6.36</v>
       </c>
       <c r="E9">
         <v>0.03</v>
@@ -2535,19 +2535,19 @@
         <v>0.4</v>
       </c>
       <c r="H9">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="L9">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2561,7 +2561,7 @@
         <v>0.43</v>
       </c>
       <c r="D10">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E10">
         <v>0.02</v>
@@ -2582,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2599,7 +2599,7 @@
         <v>0.13</v>
       </c>
       <c r="D11">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="E11">
         <v>0.01</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="L11">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2634,10 +2634,10 @@
         <v>108</v>
       </c>
       <c r="C12">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D12">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -2687,7 +2687,7 @@
         <v>0.3</v>
       </c>
       <c r="H13">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="I13">
         <v>0.01</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="L13">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2713,7 +2713,7 @@
         <v>0.06</v>
       </c>
       <c r="D14">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="L14">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3284,22 +3284,22 @@
         <v>1.7</v>
       </c>
       <c r="D2">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E2">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F2">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G2">
         <v>0.36</v>
       </c>
       <c r="H2">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I2">
-        <v>6.3</v>
+        <v>6.31</v>
       </c>
     </row>
   </sheetData>
